--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.288305</v>
+        <v>0.302543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.261442</v>
+        <v>0.264351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239491</v>
+        <v>0.239287</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.227535</v>
+        <v>0.22821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.263486</v>
+        <v>0.264893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240785</v>
+        <v>0.241615</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235279</v>
+        <v>0.235922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.271159</v>
+        <v>0.273163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250666</v>
+        <v>0.249566</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.243577</v>
+        <v>0.243953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.277475</v>
+        <v>0.27794</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256572</v>
+        <v>0.257348</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.249354</v>
+        <v>0.249861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282033</v>
+        <v>0.281197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.265478</v>
+        <v>0.264804</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.259833</v>
+        <v>0.258841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225166</v>
+        <v>0.220555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224621</v>
+        <v>0.223998</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.271752</v>
+        <v>0.271045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229122</v>
+        <v>0.232358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.230435</v>
+        <v>0.229465</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280837</v>
+        <v>0.279925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237937</v>
+        <v>0.238275</v>
       </c>
       <c r="D9" t="n">
-        <v>0.239456</v>
+        <v>0.23981</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.292852</v>
+        <v>0.293176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244729</v>
+        <v>0.246202</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247139</v>
+        <v>0.248224</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305711</v>
+        <v>0.304771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.252424</v>
+        <v>0.249115</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255033</v>
+        <v>0.255291</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.321037</v>
+        <v>0.319081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.26336</v>
+        <v>0.264138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.265101</v>
+        <v>0.265307</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.329105</v>
+        <v>0.328755</v>
       </c>
       <c r="C13" t="n">
-        <v>0.265994</v>
+        <v>0.269073</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272765</v>
+        <v>0.272162</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.340383</v>
+        <v>0.338774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.275721</v>
+        <v>0.272345</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279152</v>
+        <v>0.279096</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.349846</v>
+        <v>0.351727</v>
       </c>
       <c r="C15" t="n">
-        <v>0.279412</v>
+        <v>0.276148</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285047</v>
+        <v>0.285044</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.360896</v>
+        <v>0.360848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.283031</v>
+        <v>0.2845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.290287</v>
+        <v>0.288911</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.374454</v>
+        <v>0.374455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.290844</v>
+        <v>0.291118</v>
       </c>
       <c r="D17" t="n">
-        <v>0.300485</v>
+        <v>0.299108</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.270725</v>
+        <v>0.270412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.292541</v>
+        <v>0.293672</v>
       </c>
       <c r="D18" t="n">
-        <v>0.302325</v>
+        <v>0.302961</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.280672</v>
+        <v>0.279211</v>
       </c>
       <c r="C19" t="n">
-        <v>0.299006</v>
+        <v>0.299184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.309843</v>
+        <v>0.309212</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.292667</v>
+        <v>0.290516</v>
       </c>
       <c r="C20" t="n">
-        <v>0.305842</v>
+        <v>0.30573</v>
       </c>
       <c r="D20" t="n">
-        <v>0.318758</v>
+        <v>0.318964</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.305028</v>
+        <v>0.304102</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237741</v>
+        <v>0.238982</v>
       </c>
       <c r="D21" t="n">
-        <v>0.252969</v>
+        <v>0.250645</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.316892</v>
+        <v>0.315347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248091</v>
+        <v>0.243893</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261751</v>
+        <v>0.260346</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.330643</v>
+        <v>0.328466</v>
       </c>
       <c r="C23" t="n">
-        <v>0.256357</v>
+        <v>0.254651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273008</v>
+        <v>0.271706</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.342039</v>
+        <v>0.339902</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26205</v>
+        <v>0.257816</v>
       </c>
       <c r="D24" t="n">
-        <v>0.278347</v>
+        <v>0.277264</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.356571</v>
+        <v>0.351306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.264868</v>
+        <v>0.267897</v>
       </c>
       <c r="D25" t="n">
-        <v>0.286653</v>
+        <v>0.284986</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.367729</v>
+        <v>0.365292</v>
       </c>
       <c r="C26" t="n">
-        <v>0.273215</v>
+        <v>0.276335</v>
       </c>
       <c r="D26" t="n">
-        <v>0.296559</v>
+        <v>0.294023</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.379746</v>
+        <v>0.375996</v>
       </c>
       <c r="C27" t="n">
-        <v>0.279181</v>
+        <v>0.281249</v>
       </c>
       <c r="D27" t="n">
-        <v>0.305186</v>
+        <v>0.302981</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.391516</v>
+        <v>0.389071</v>
       </c>
       <c r="C28" t="n">
-        <v>0.289196</v>
+        <v>0.288545</v>
       </c>
       <c r="D28" t="n">
-        <v>0.31332</v>
+        <v>0.312452</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.403643</v>
+        <v>0.401926</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297443</v>
+        <v>0.296586</v>
       </c>
       <c r="D29" t="n">
-        <v>0.323119</v>
+        <v>0.321937</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.415328</v>
+        <v>0.416491</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303423</v>
+        <v>0.301795</v>
       </c>
       <c r="D30" t="n">
-        <v>0.331015</v>
+        <v>0.330363</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.427012</v>
+        <v>0.426142</v>
       </c>
       <c r="C31" t="n">
-        <v>0.312404</v>
+        <v>0.311416</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3395</v>
+        <v>0.339105</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.31726</v>
+        <v>0.325006</v>
       </c>
       <c r="C32" t="n">
-        <v>0.317819</v>
+        <v>0.318078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348696</v>
+        <v>0.348365</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.329659</v>
+        <v>0.338641</v>
       </c>
       <c r="C33" t="n">
-        <v>0.32618</v>
+        <v>0.325888</v>
       </c>
       <c r="D33" t="n">
-        <v>0.356578</v>
+        <v>0.358843</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.344588</v>
+        <v>0.354535</v>
       </c>
       <c r="C34" t="n">
-        <v>0.333868</v>
+        <v>0.33336</v>
       </c>
       <c r="D34" t="n">
-        <v>0.364257</v>
+        <v>0.366851</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.358962</v>
+        <v>0.369665</v>
       </c>
       <c r="C35" t="n">
-        <v>0.258943</v>
+        <v>0.261838</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278471</v>
+        <v>0.284744</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.372979</v>
+        <v>0.383385</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266954</v>
+        <v>0.268796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.288365</v>
+        <v>0.294793</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.385469</v>
+        <v>0.396344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.27601</v>
+        <v>0.275846</v>
       </c>
       <c r="D37" t="n">
-        <v>0.297547</v>
+        <v>0.304441</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.398508</v>
+        <v>0.409452</v>
       </c>
       <c r="C38" t="n">
-        <v>0.284927</v>
+        <v>0.285214</v>
       </c>
       <c r="D38" t="n">
-        <v>0.308574</v>
+        <v>0.31609</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.412223</v>
+        <v>0.422836</v>
       </c>
       <c r="C39" t="n">
-        <v>0.29288</v>
+        <v>0.295459</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319191</v>
+        <v>0.327015</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.423061</v>
+        <v>0.435777</v>
       </c>
       <c r="C40" t="n">
-        <v>0.301893</v>
+        <v>0.306469</v>
       </c>
       <c r="D40" t="n">
-        <v>0.329293</v>
+        <v>0.337304</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.434554</v>
+        <v>0.447242</v>
       </c>
       <c r="C41" t="n">
-        <v>0.309188</v>
+        <v>0.314004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.339</v>
+        <v>0.347203</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.446363</v>
+        <v>0.458943</v>
       </c>
       <c r="C42" t="n">
-        <v>0.31303</v>
+        <v>0.319466</v>
       </c>
       <c r="D42" t="n">
-        <v>0.348075</v>
+        <v>0.357442</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.457745</v>
+        <v>0.471939</v>
       </c>
       <c r="C43" t="n">
-        <v>0.323602</v>
+        <v>0.330398</v>
       </c>
       <c r="D43" t="n">
-        <v>0.357639</v>
+        <v>0.367342</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.469492</v>
+        <v>0.484671</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330506</v>
+        <v>0.338286</v>
       </c>
       <c r="D44" t="n">
-        <v>0.366057</v>
+        <v>0.376369</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.479732</v>
+        <v>0.496813</v>
       </c>
       <c r="C45" t="n">
-        <v>0.336914</v>
+        <v>0.345244</v>
       </c>
       <c r="D45" t="n">
-        <v>0.373323</v>
+        <v>0.384063</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.492916</v>
+        <v>0.509161</v>
       </c>
       <c r="C46" t="n">
-        <v>0.343617</v>
+        <v>0.35112</v>
       </c>
       <c r="D46" t="n">
-        <v>0.380978</v>
+        <v>0.391374</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.358513</v>
+        <v>0.372505</v>
       </c>
       <c r="C47" t="n">
-        <v>0.350017</v>
+        <v>0.358994</v>
       </c>
       <c r="D47" t="n">
-        <v>0.38837</v>
+        <v>0.399766</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.369685</v>
+        <v>0.384177</v>
       </c>
       <c r="C48" t="n">
-        <v>0.356082</v>
+        <v>0.366339</v>
       </c>
       <c r="D48" t="n">
-        <v>0.399685</v>
+        <v>0.410778</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.382489</v>
+        <v>0.396858</v>
       </c>
       <c r="C49" t="n">
-        <v>0.361925</v>
+        <v>0.372997</v>
       </c>
       <c r="D49" t="n">
-        <v>0.408447</v>
+        <v>0.420832</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393128</v>
+        <v>0.40934</v>
       </c>
       <c r="C50" t="n">
-        <v>0.283027</v>
+        <v>0.289419</v>
       </c>
       <c r="D50" t="n">
-        <v>0.307343</v>
+        <v>0.317551</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.406551</v>
+        <v>0.422274</v>
       </c>
       <c r="C51" t="n">
-        <v>0.292895</v>
+        <v>0.298359</v>
       </c>
       <c r="D51" t="n">
-        <v>0.316958</v>
+        <v>0.327171</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.420829</v>
+        <v>0.435852</v>
       </c>
       <c r="C52" t="n">
-        <v>0.300682</v>
+        <v>0.307427</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326892</v>
+        <v>0.338439</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.431672</v>
+        <v>0.447789</v>
       </c>
       <c r="C53" t="n">
-        <v>0.308221</v>
+        <v>0.316311</v>
       </c>
       <c r="D53" t="n">
-        <v>0.33723</v>
+        <v>0.348005</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442825</v>
+        <v>0.459985</v>
       </c>
       <c r="C54" t="n">
-        <v>0.315735</v>
+        <v>0.323336</v>
       </c>
       <c r="D54" t="n">
-        <v>0.346226</v>
+        <v>0.3584</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.454473</v>
+        <v>0.471484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.325835</v>
+        <v>0.332703</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3556</v>
+        <v>0.368329</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.465832</v>
+        <v>0.483073</v>
       </c>
       <c r="C56" t="n">
-        <v>0.331717</v>
+        <v>0.339371</v>
       </c>
       <c r="D56" t="n">
-        <v>0.362518</v>
+        <v>0.375681</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.477297</v>
+        <v>0.494733</v>
       </c>
       <c r="C57" t="n">
-        <v>0.339782</v>
+        <v>0.34607</v>
       </c>
       <c r="D57" t="n">
-        <v>0.370747</v>
+        <v>0.383925</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.487653</v>
+        <v>0.50675</v>
       </c>
       <c r="C58" t="n">
-        <v>0.343625</v>
+        <v>0.352437</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378085</v>
+        <v>0.390753</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.49857</v>
+        <v>0.51673</v>
       </c>
       <c r="C59" t="n">
-        <v>0.350667</v>
+        <v>0.35822</v>
       </c>
       <c r="D59" t="n">
-        <v>0.386266</v>
+        <v>0.399259</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.513614</v>
+        <v>0.529788</v>
       </c>
       <c r="C60" t="n">
-        <v>0.356917</v>
+        <v>0.366389</v>
       </c>
       <c r="D60" t="n">
-        <v>0.395476</v>
+        <v>0.409828</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.379346</v>
+        <v>0.3788</v>
       </c>
       <c r="C61" t="n">
-        <v>0.364489</v>
+        <v>0.373527</v>
       </c>
       <c r="D61" t="n">
-        <v>0.404201</v>
+        <v>0.418893</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.39204</v>
+        <v>0.391294</v>
       </c>
       <c r="C62" t="n">
-        <v>0.37085</v>
+        <v>0.379103</v>
       </c>
       <c r="D62" t="n">
-        <v>0.413945</v>
+        <v>0.4275</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.40699</v>
+        <v>0.403196</v>
       </c>
       <c r="C63" t="n">
-        <v>0.380215</v>
+        <v>0.386573</v>
       </c>
       <c r="D63" t="n">
-        <v>0.428563</v>
+        <v>0.438894</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.419924</v>
+        <v>0.414992</v>
       </c>
       <c r="C64" t="n">
-        <v>0.298861</v>
+        <v>0.29559</v>
       </c>
       <c r="D64" t="n">
-        <v>0.334453</v>
+        <v>0.331365</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.435411</v>
+        <v>0.429959</v>
       </c>
       <c r="C65" t="n">
-        <v>0.307683</v>
+        <v>0.305928</v>
       </c>
       <c r="D65" t="n">
-        <v>0.345349</v>
+        <v>0.342266</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.449741</v>
+        <v>0.444099</v>
       </c>
       <c r="C66" t="n">
-        <v>0.318432</v>
+        <v>0.322572</v>
       </c>
       <c r="D66" t="n">
-        <v>0.354122</v>
+        <v>0.351948</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.464992</v>
+        <v>0.46008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.328574</v>
+        <v>0.334197</v>
       </c>
       <c r="D67" t="n">
-        <v>0.364327</v>
+        <v>0.36359</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.48364</v>
+        <v>0.480162</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3394</v>
+        <v>0.3452</v>
       </c>
       <c r="D68" t="n">
-        <v>0.377239</v>
+        <v>0.374496</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.496962</v>
+        <v>0.490466</v>
       </c>
       <c r="C69" t="n">
-        <v>0.349172</v>
+        <v>0.351628</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391262</v>
+        <v>0.387443</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.512093</v>
+        <v>0.504881</v>
       </c>
       <c r="C70" t="n">
-        <v>0.358129</v>
+        <v>0.352537</v>
       </c>
       <c r="D70" t="n">
-        <v>0.412164</v>
+        <v>0.403616</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.534152</v>
+        <v>0.525081</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36499</v>
+        <v>0.360776</v>
       </c>
       <c r="D71" t="n">
-        <v>0.415351</v>
+        <v>0.410631</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.539148</v>
+        <v>0.5351590000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.374528</v>
+        <v>0.370346</v>
       </c>
       <c r="D72" t="n">
-        <v>0.418996</v>
+        <v>0.418197</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55514</v>
+        <v>0.55018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.382591</v>
+        <v>0.377075</v>
       </c>
       <c r="D73" t="n">
-        <v>0.432149</v>
+        <v>0.428524</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.568238</v>
+        <v>0.564188</v>
       </c>
       <c r="C74" t="n">
-        <v>0.392005</v>
+        <v>0.386941</v>
       </c>
       <c r="D74" t="n">
-        <v>0.441127</v>
+        <v>0.440557</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.583129</v>
+        <v>0.582147</v>
       </c>
       <c r="C75" t="n">
-        <v>0.399428</v>
+        <v>0.395092</v>
       </c>
       <c r="D75" t="n">
-        <v>0.455216</v>
+        <v>0.45176</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.425015</v>
+        <v>0.432715</v>
       </c>
       <c r="C76" t="n">
-        <v>0.412239</v>
+        <v>0.404262</v>
       </c>
       <c r="D76" t="n">
-        <v>0.467864</v>
+        <v>0.464291</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.432322</v>
+        <v>0.439926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.420375</v>
+        <v>0.413326</v>
       </c>
       <c r="D77" t="n">
-        <v>0.480751</v>
+        <v>0.477057</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.450117</v>
+        <v>0.459545</v>
       </c>
       <c r="C78" t="n">
-        <v>0.315595</v>
+        <v>0.316842</v>
       </c>
       <c r="D78" t="n">
-        <v>0.35773</v>
+        <v>0.368525</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.46519</v>
+        <v>0.466025</v>
       </c>
       <c r="C79" t="n">
-        <v>0.322875</v>
+        <v>0.325531</v>
       </c>
       <c r="D79" t="n">
-        <v>0.380263</v>
+        <v>0.379824</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.483101</v>
+        <v>0.478794</v>
       </c>
       <c r="C80" t="n">
-        <v>0.337462</v>
+        <v>0.346428</v>
       </c>
       <c r="D80" t="n">
-        <v>0.389257</v>
+        <v>0.382492</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.522168</v>
+        <v>0.49949</v>
       </c>
       <c r="C81" t="n">
-        <v>0.350111</v>
+        <v>0.35005</v>
       </c>
       <c r="D81" t="n">
-        <v>0.394331</v>
+        <v>0.396791</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.533877</v>
+        <v>0.512556</v>
       </c>
       <c r="C82" t="n">
-        <v>0.361659</v>
+        <v>0.361159</v>
       </c>
       <c r="D82" t="n">
-        <v>0.411636</v>
+        <v>0.408154</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.542211</v>
+        <v>0.53421</v>
       </c>
       <c r="C83" t="n">
-        <v>0.368861</v>
+        <v>0.364389</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418491</v>
+        <v>0.431637</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5697680000000001</v>
+        <v>0.55997</v>
       </c>
       <c r="C84" t="n">
-        <v>0.395937</v>
+        <v>0.382141</v>
       </c>
       <c r="D84" t="n">
-        <v>0.485022</v>
+        <v>0.434877</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.579949</v>
+        <v>0.5620810000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.388213</v>
+        <v>0.384534</v>
       </c>
       <c r="D85" t="n">
-        <v>0.465869</v>
+        <v>0.442799</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.593249</v>
+        <v>0.578371</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408834</v>
+        <v>0.393544</v>
       </c>
       <c r="D86" t="n">
-        <v>0.485143</v>
+        <v>0.455425</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.623254</v>
+        <v>0.59626</v>
       </c>
       <c r="C87" t="n">
-        <v>0.410945</v>
+        <v>0.403696</v>
       </c>
       <c r="D87" t="n">
-        <v>0.515192</v>
+        <v>0.468938</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.703502</v>
+        <v>0.6106239999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.474324</v>
+        <v>0.412286</v>
       </c>
       <c r="D88" t="n">
-        <v>0.555671</v>
+        <v>0.481327</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.778753</v>
+        <v>0.623044</v>
       </c>
       <c r="C89" t="n">
-        <v>0.479399</v>
+        <v>0.422063</v>
       </c>
       <c r="D89" t="n">
-        <v>0.572001</v>
+        <v>0.490473</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.627504</v>
+        <v>0.467848</v>
       </c>
       <c r="C90" t="n">
-        <v>0.488851</v>
+        <v>0.428608</v>
       </c>
       <c r="D90" t="n">
-        <v>0.57642</v>
+        <v>0.495439</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.521783</v>
+        <v>0.476622</v>
       </c>
       <c r="C91" t="n">
-        <v>0.460526</v>
+        <v>0.440006</v>
       </c>
       <c r="D91" t="n">
-        <v>0.53425</v>
+        <v>0.517828</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.543183</v>
+        <v>0.499213</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350901</v>
+        <v>0.335728</v>
       </c>
       <c r="D92" t="n">
-        <v>0.414754</v>
+        <v>0.387822</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.575833</v>
+        <v>0.520153</v>
       </c>
       <c r="C93" t="n">
-        <v>0.372042</v>
+        <v>0.340187</v>
       </c>
       <c r="D93" t="n">
-        <v>0.416272</v>
+        <v>0.391656</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.604363</v>
+        <v>0.545816</v>
       </c>
       <c r="C94" t="n">
-        <v>0.388551</v>
+        <v>0.352262</v>
       </c>
       <c r="D94" t="n">
-        <v>0.463001</v>
+        <v>0.404271</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.660225</v>
+        <v>0.553691</v>
       </c>
       <c r="C95" t="n">
-        <v>0.400291</v>
+        <v>0.373174</v>
       </c>
       <c r="D95" t="n">
-        <v>0.496681</v>
+        <v>0.430283</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.675346</v>
+        <v>0.5877520000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.444301</v>
+        <v>0.384035</v>
       </c>
       <c r="D96" t="n">
-        <v>0.515576</v>
+        <v>0.445881</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.762672</v>
+        <v>0.602169</v>
       </c>
       <c r="C97" t="n">
-        <v>0.485115</v>
+        <v>0.394513</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5978520000000001</v>
+        <v>0.473235</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8749440000000001</v>
+        <v>0.643428</v>
       </c>
       <c r="C98" t="n">
-        <v>0.473834</v>
+        <v>0.413409</v>
       </c>
       <c r="D98" t="n">
-        <v>0.589796</v>
+        <v>0.5009</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.787378</v>
+        <v>0.657007</v>
       </c>
       <c r="C99" t="n">
-        <v>0.486186</v>
+        <v>0.424282</v>
       </c>
       <c r="D99" t="n">
-        <v>0.562599</v>
+        <v>0.513024</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.744709</v>
+        <v>0.708485</v>
       </c>
       <c r="C100" t="n">
-        <v>0.468785</v>
+        <v>0.450662</v>
       </c>
       <c r="D100" t="n">
-        <v>0.557925</v>
+        <v>0.574837</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.825672</v>
+        <v>0.7842440000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.529014</v>
+        <v>0.486931</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6296620000000001</v>
+        <v>0.544181</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.849211</v>
+        <v>0.758639</v>
       </c>
       <c r="C102" t="n">
-        <v>0.535115</v>
+        <v>0.466655</v>
       </c>
       <c r="D102" t="n">
-        <v>0.656046</v>
+        <v>0.55227</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.908928</v>
+        <v>0.752208</v>
       </c>
       <c r="C103" t="n">
-        <v>0.537749</v>
+        <v>0.484745</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6299630000000001</v>
+        <v>0.5692469999999999</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.921688</v>
+        <v>0.814472</v>
       </c>
       <c r="C104" t="n">
-        <v>0.573665</v>
+        <v>0.510838</v>
       </c>
       <c r="D104" t="n">
-        <v>0.695583</v>
+        <v>0.593575</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.752402</v>
+        <v>0.661068</v>
       </c>
       <c r="C105" t="n">
-        <v>0.562561</v>
+        <v>0.52205</v>
       </c>
       <c r="D105" t="n">
-        <v>0.677767</v>
+        <v>0.644043</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.73083</v>
+        <v>0.67493</v>
       </c>
       <c r="C106" t="n">
-        <v>0.577488</v>
+        <v>0.543934</v>
       </c>
       <c r="D106" t="n">
-        <v>0.724065</v>
+        <v>0.659143</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.774458</v>
+        <v>0.702552</v>
       </c>
       <c r="C107" t="n">
-        <v>0.480323</v>
+        <v>0.426222</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5552859999999999</v>
+        <v>0.51269</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.785655</v>
+        <v>0.752888</v>
       </c>
       <c r="C108" t="n">
-        <v>0.497758</v>
+        <v>0.460744</v>
       </c>
       <c r="D108" t="n">
-        <v>0.582722</v>
+        <v>0.587246</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.810629</v>
+        <v>0.777094</v>
       </c>
       <c r="C109" t="n">
-        <v>0.465037</v>
+        <v>0.467294</v>
       </c>
       <c r="D109" t="n">
-        <v>0.60729</v>
+        <v>0.571882</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8299029999999999</v>
+        <v>0.817021</v>
       </c>
       <c r="C110" t="n">
-        <v>0.49456</v>
+        <v>0.513684</v>
       </c>
       <c r="D110" t="n">
-        <v>0.621089</v>
+        <v>0.6234</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.868455</v>
+        <v>0.861586</v>
       </c>
       <c r="C111" t="n">
-        <v>0.535953</v>
+        <v>0.497367</v>
       </c>
       <c r="D111" t="n">
-        <v>0.672911</v>
+        <v>0.618848</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.86245</v>
+        <v>0.865461</v>
       </c>
       <c r="C112" t="n">
-        <v>0.528733</v>
+        <v>0.532571</v>
       </c>
       <c r="D112" t="n">
-        <v>0.660972</v>
+        <v>0.628865</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.888085</v>
+        <v>0.855078</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5360510000000001</v>
+        <v>0.5239470000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.665036</v>
+        <v>0.6488080000000001</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9109</v>
+        <v>0.88916</v>
       </c>
       <c r="C114" t="n">
-        <v>0.555289</v>
+        <v>0.53769</v>
       </c>
       <c r="D114" t="n">
-        <v>0.684542</v>
+        <v>0.67066</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9320079999999999</v>
+        <v>0.901515</v>
       </c>
       <c r="C115" t="n">
-        <v>0.572136</v>
+        <v>0.560667</v>
       </c>
       <c r="D115" t="n">
-        <v>0.703397</v>
+        <v>0.672773</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.968568</v>
+        <v>0.917441</v>
       </c>
       <c r="C116" t="n">
-        <v>0.564063</v>
+        <v>0.555342</v>
       </c>
       <c r="D116" t="n">
-        <v>0.708615</v>
+        <v>0.70443</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.980742</v>
+        <v>0.952315</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5898409999999999</v>
+        <v>0.570181</v>
       </c>
       <c r="D117" t="n">
-        <v>0.735253</v>
+        <v>0.705858</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.996034</v>
+        <v>0.973013</v>
       </c>
       <c r="C118" t="n">
-        <v>0.603003</v>
+        <v>0.588222</v>
       </c>
       <c r="D118" t="n">
-        <v>0.755322</v>
+        <v>0.736042</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.756736</v>
+        <v>0.769799</v>
       </c>
       <c r="C119" t="n">
-        <v>0.627606</v>
+        <v>0.610408</v>
       </c>
       <c r="D119" t="n">
-        <v>0.802054</v>
+        <v>0.755875</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34</v>
+        <v>0.240325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201821</v>
+        <v>0.189007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159326</v>
+        <v>0.150489</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265936</v>
+        <v>0.168228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202979</v>
+        <v>0.192435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159403</v>
+        <v>0.150593</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.271383</v>
+        <v>0.176105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208693</v>
+        <v>0.20026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162678</v>
+        <v>0.153664</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.279616</v>
+        <v>0.187533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.215801</v>
+        <v>0.210897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.165679</v>
+        <v>0.157835</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.283425</v>
+        <v>0.195768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220063</v>
+        <v>0.216284</v>
       </c>
       <c r="D6" t="n">
-        <v>0.168674</v>
+        <v>0.161629</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.289641</v>
+        <v>0.206273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173603</v>
+        <v>0.162551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.152069</v>
+        <v>0.136944</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.295267</v>
+        <v>0.216721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.175833</v>
+        <v>0.166651</v>
       </c>
       <c r="D8" t="n">
-        <v>0.153635</v>
+        <v>0.140886</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.301907</v>
+        <v>0.223885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.180942</v>
+        <v>0.174357</v>
       </c>
       <c r="D9" t="n">
-        <v>0.155427</v>
+        <v>0.141163</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308087</v>
+        <v>0.232541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184246</v>
+        <v>0.179483</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157761</v>
+        <v>0.144007</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315444</v>
+        <v>0.24144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186861</v>
+        <v>0.183054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15918</v>
+        <v>0.146287</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.322992</v>
+        <v>0.253252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.192747</v>
+        <v>0.191954</v>
       </c>
       <c r="D12" t="n">
-        <v>0.162925</v>
+        <v>0.150052</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.329706</v>
+        <v>0.26178</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19651</v>
+        <v>0.197855</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16445</v>
+        <v>0.152318</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.337909</v>
+        <v>0.27135</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200003</v>
+        <v>0.203869</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165732</v>
+        <v>0.153935</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.348981</v>
+        <v>0.283468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205009</v>
+        <v>0.211052</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169611</v>
+        <v>0.158788</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.355823</v>
+        <v>0.292166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211404</v>
+        <v>0.218842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171605</v>
+        <v>0.161902</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.365511</v>
+        <v>0.305191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217201</v>
+        <v>0.224749</v>
       </c>
       <c r="D17" t="n">
-        <v>0.174493</v>
+        <v>0.168376</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284579</v>
+        <v>0.215081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2214</v>
+        <v>0.230221</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17627</v>
+        <v>0.172476</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295341</v>
+        <v>0.228206</v>
       </c>
       <c r="C19" t="n">
-        <v>0.22761</v>
+        <v>0.237733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179782</v>
+        <v>0.177585</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.299903</v>
+        <v>0.231187</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236622</v>
+        <v>0.247785</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182967</v>
+        <v>0.181303</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.30783</v>
+        <v>0.238916</v>
       </c>
       <c r="C21" t="n">
-        <v>0.189346</v>
+        <v>0.188991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160855</v>
+        <v>0.158493</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.319271</v>
+        <v>0.246553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.196709</v>
+        <v>0.19599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16335</v>
+        <v>0.160888</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.330768</v>
+        <v>0.255818</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20296</v>
+        <v>0.202736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.165749</v>
+        <v>0.164155</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339964</v>
+        <v>0.263485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210748</v>
+        <v>0.205559</v>
       </c>
       <c r="D24" t="n">
-        <v>0.169158</v>
+        <v>0.165762</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.352303</v>
+        <v>0.272995</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217159</v>
+        <v>0.212693</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170598</v>
+        <v>0.168695</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.366504</v>
+        <v>0.285398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226603</v>
+        <v>0.220187</v>
       </c>
       <c r="D26" t="n">
-        <v>0.17499</v>
+        <v>0.173897</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.380028</v>
+        <v>0.298961</v>
       </c>
       <c r="C27" t="n">
-        <v>0.230602</v>
+        <v>0.22412</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178411</v>
+        <v>0.175839</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.395791</v>
+        <v>0.312559</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239351</v>
+        <v>0.233487</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182273</v>
+        <v>0.181475</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.414073</v>
+        <v>0.327598</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248717</v>
+        <v>0.242947</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186844</v>
+        <v>0.183734</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.430528</v>
+        <v>0.339416</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25965</v>
+        <v>0.254519</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192371</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.448346</v>
+        <v>0.358651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.267155</v>
+        <v>0.261934</v>
       </c>
       <c r="D31" t="n">
-        <v>0.196821</v>
+        <v>0.190237</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.351852</v>
+        <v>0.278306</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280382</v>
+        <v>0.276106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.200934</v>
+        <v>0.192757</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.362854</v>
+        <v>0.290342</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290057</v>
+        <v>0.287062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206639</v>
+        <v>0.201157</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.372537</v>
+        <v>0.299528</v>
       </c>
       <c r="C34" t="n">
-        <v>0.30304</v>
+        <v>0.300445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213832</v>
+        <v>0.205854</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385048</v>
+        <v>0.314432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.238077</v>
+        <v>0.234982</v>
       </c>
       <c r="D35" t="n">
-        <v>0.192876</v>
+        <v>0.184364</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.394414</v>
+        <v>0.322688</v>
       </c>
       <c r="C36" t="n">
-        <v>0.247408</v>
+        <v>0.246322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.196071</v>
+        <v>0.188106</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.405699</v>
+        <v>0.334333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.253458</v>
+        <v>0.253929</v>
       </c>
       <c r="D37" t="n">
-        <v>0.200068</v>
+        <v>0.192219</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.418106</v>
+        <v>0.348065</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260114</v>
+        <v>0.261964</v>
       </c>
       <c r="D38" t="n">
-        <v>0.204476</v>
+        <v>0.197342</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.428984</v>
+        <v>0.357021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.268145</v>
+        <v>0.27066</v>
       </c>
       <c r="D39" t="n">
-        <v>0.209797</v>
+        <v>0.2035</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.442508</v>
+        <v>0.371586</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276871</v>
+        <v>0.279944</v>
       </c>
       <c r="D40" t="n">
-        <v>0.214768</v>
+        <v>0.208401</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.457844</v>
+        <v>0.385472</v>
       </c>
       <c r="C41" t="n">
-        <v>0.283307</v>
+        <v>0.28801</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218981</v>
+        <v>0.212733</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.473887</v>
+        <v>0.402986</v>
       </c>
       <c r="C42" t="n">
-        <v>0.288972</v>
+        <v>0.294771</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224492</v>
+        <v>0.217919</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.49064</v>
+        <v>0.418575</v>
       </c>
       <c r="C43" t="n">
-        <v>0.298162</v>
+        <v>0.304228</v>
       </c>
       <c r="D43" t="n">
-        <v>0.229768</v>
+        <v>0.223375</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.506219</v>
+        <v>0.431006</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30798</v>
+        <v>0.315844</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234192</v>
+        <v>0.227819</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524079</v>
+        <v>0.446748</v>
       </c>
       <c r="C45" t="n">
-        <v>0.317201</v>
+        <v>0.325238</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23742</v>
+        <v>0.231766</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.541755</v>
+        <v>0.463938</v>
       </c>
       <c r="C46" t="n">
-        <v>0.326317</v>
+        <v>0.337064</v>
       </c>
       <c r="D46" t="n">
-        <v>0.245784</v>
+        <v>0.239627</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.396441</v>
+        <v>0.337822</v>
       </c>
       <c r="C47" t="n">
-        <v>0.335387</v>
+        <v>0.345511</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24849</v>
+        <v>0.241679</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.405262</v>
+        <v>0.346282</v>
       </c>
       <c r="C48" t="n">
-        <v>0.345979</v>
+        <v>0.356861</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255831</v>
+        <v>0.249191</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.41604</v>
+        <v>0.356302</v>
       </c>
       <c r="C49" t="n">
-        <v>0.356197</v>
+        <v>0.369536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.260783</v>
+        <v>0.253537</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.427007</v>
+        <v>0.366699</v>
       </c>
       <c r="C50" t="n">
-        <v>0.268883</v>
+        <v>0.278515</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221661</v>
+        <v>0.225363</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.438087</v>
+        <v>0.374879</v>
       </c>
       <c r="C51" t="n">
-        <v>0.274852</v>
+        <v>0.284781</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22224</v>
+        <v>0.226844</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.448723</v>
+        <v>0.385424</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281834</v>
+        <v>0.292396</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227903</v>
+        <v>0.23284</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.462803</v>
+        <v>0.398032</v>
       </c>
       <c r="C53" t="n">
-        <v>0.28962</v>
+        <v>0.301238</v>
       </c>
       <c r="D53" t="n">
-        <v>0.232174</v>
+        <v>0.23702</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.481087</v>
+        <v>0.409124</v>
       </c>
       <c r="C54" t="n">
-        <v>0.297834</v>
+        <v>0.308916</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235289</v>
+        <v>0.240038</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.490407</v>
+        <v>0.422746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.305258</v>
+        <v>0.317279</v>
       </c>
       <c r="D55" t="n">
-        <v>0.24208</v>
+        <v>0.246362</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.506881</v>
+        <v>0.43676</v>
       </c>
       <c r="C56" t="n">
-        <v>0.312262</v>
+        <v>0.323746</v>
       </c>
       <c r="D56" t="n">
-        <v>0.243747</v>
+        <v>0.248118</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.52278</v>
+        <v>0.449388</v>
       </c>
       <c r="C57" t="n">
-        <v>0.321494</v>
+        <v>0.333343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251417</v>
+        <v>0.252688</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.543504</v>
+        <v>0.463723</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3366</v>
+        <v>0.343249</v>
       </c>
       <c r="D58" t="n">
-        <v>0.257578</v>
+        <v>0.258776</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.571695</v>
+        <v>0.478544</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348565</v>
+        <v>0.351514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.263494</v>
+        <v>0.261611</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.599952</v>
+        <v>0.494215</v>
       </c>
       <c r="C60" t="n">
-        <v>0.365909</v>
+        <v>0.360979</v>
       </c>
       <c r="D60" t="n">
-        <v>0.275387</v>
+        <v>0.269941</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.463037</v>
+        <v>0.37145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.382299</v>
+        <v>0.375061</v>
       </c>
       <c r="D61" t="n">
-        <v>0.282977</v>
+        <v>0.273924</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.469881</v>
+        <v>0.379618</v>
       </c>
       <c r="C62" t="n">
-        <v>0.396947</v>
+        <v>0.38998</v>
       </c>
       <c r="D62" t="n">
-        <v>0.295537</v>
+        <v>0.2832</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.487132</v>
+        <v>0.395062</v>
       </c>
       <c r="C63" t="n">
-        <v>0.415403</v>
+        <v>0.406749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.300461</v>
+        <v>0.288153</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.515761</v>
+        <v>0.410506</v>
       </c>
       <c r="C64" t="n">
-        <v>0.324043</v>
+        <v>0.313338</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261778</v>
+        <v>0.252262</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.535399</v>
+        <v>0.422325</v>
       </c>
       <c r="C65" t="n">
-        <v>0.335632</v>
+        <v>0.32266</v>
       </c>
       <c r="D65" t="n">
-        <v>0.26472</v>
+        <v>0.256599</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.565806</v>
+        <v>0.438662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.356135</v>
+        <v>0.333281</v>
       </c>
       <c r="D66" t="n">
-        <v>0.271994</v>
+        <v>0.260841</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.566368</v>
+        <v>0.452349</v>
       </c>
       <c r="C67" t="n">
-        <v>0.357175</v>
+        <v>0.345305</v>
       </c>
       <c r="D67" t="n">
-        <v>0.279284</v>
+        <v>0.268269</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.608388</v>
+        <v>0.470005</v>
       </c>
       <c r="C68" t="n">
-        <v>0.379201</v>
+        <v>0.351692</v>
       </c>
       <c r="D68" t="n">
-        <v>0.287759</v>
+        <v>0.272314</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6480359999999999</v>
+        <v>0.48409</v>
       </c>
       <c r="C69" t="n">
-        <v>0.384798</v>
+        <v>0.368731</v>
       </c>
       <c r="D69" t="n">
-        <v>0.293281</v>
+        <v>0.285895</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.670251</v>
+        <v>0.529968</v>
       </c>
       <c r="C70" t="n">
-        <v>0.404079</v>
+        <v>0.399281</v>
       </c>
       <c r="D70" t="n">
-        <v>0.307712</v>
+        <v>0.299822</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.694168</v>
+        <v>0.572897</v>
       </c>
       <c r="C71" t="n">
-        <v>0.421541</v>
+        <v>0.405626</v>
       </c>
       <c r="D71" t="n">
-        <v>0.322952</v>
+        <v>0.293546</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.786535</v>
+        <v>0.552952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.45902</v>
+        <v>0.411775</v>
       </c>
       <c r="D72" t="n">
-        <v>0.322868</v>
+        <v>0.302252</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.839117</v>
+        <v>0.5742350000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.52785</v>
+        <v>0.420517</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34671</v>
+        <v>0.31009</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.810279</v>
+        <v>0.593036</v>
       </c>
       <c r="C74" t="n">
-        <v>0.493341</v>
+        <v>0.433129</v>
       </c>
       <c r="D74" t="n">
-        <v>0.340781</v>
+        <v>0.315113</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.846589</v>
+        <v>0.6025199999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5185959999999999</v>
+        <v>0.435947</v>
       </c>
       <c r="D75" t="n">
-        <v>0.360836</v>
+        <v>0.316793</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.63084</v>
+        <v>0.420013</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6604950000000001</v>
+        <v>0.452735</v>
       </c>
       <c r="D76" t="n">
-        <v>0.454785</v>
+        <v>0.323338</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.960335</v>
+        <v>0.431277</v>
       </c>
       <c r="C77" t="n">
-        <v>0.783278</v>
+        <v>0.467389</v>
       </c>
       <c r="D77" t="n">
-        <v>0.483191</v>
+        <v>0.330971</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.954695</v>
+        <v>0.44977</v>
       </c>
       <c r="C78" t="n">
-        <v>0.579498</v>
+        <v>0.344919</v>
       </c>
       <c r="D78" t="n">
-        <v>0.411506</v>
+        <v>0.272432</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.98634</v>
+        <v>0.461652</v>
       </c>
       <c r="C79" t="n">
-        <v>0.582883</v>
+        <v>0.356134</v>
       </c>
       <c r="D79" t="n">
-        <v>0.408594</v>
+        <v>0.276648</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02058</v>
+        <v>0.476151</v>
       </c>
       <c r="C80" t="n">
-        <v>0.608222</v>
+        <v>0.371175</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427156</v>
+        <v>0.282641</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.069</v>
+        <v>0.494647</v>
       </c>
       <c r="C81" t="n">
-        <v>0.602935</v>
+        <v>0.381159</v>
       </c>
       <c r="D81" t="n">
-        <v>0.435723</v>
+        <v>0.290743</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11653</v>
+        <v>0.513792</v>
       </c>
       <c r="C82" t="n">
-        <v>0.632446</v>
+        <v>0.388311</v>
       </c>
       <c r="D82" t="n">
-        <v>0.469157</v>
+        <v>0.298511</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.21595</v>
+        <v>0.53496</v>
       </c>
       <c r="C83" t="n">
-        <v>0.721608</v>
+        <v>0.397408</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51006</v>
+        <v>0.300892</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.28885</v>
+        <v>0.557944</v>
       </c>
       <c r="C84" t="n">
-        <v>0.771872</v>
+        <v>0.418768</v>
       </c>
       <c r="D84" t="n">
-        <v>0.518414</v>
+        <v>0.310802</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.29889</v>
+        <v>0.57145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.785729</v>
+        <v>0.424537</v>
       </c>
       <c r="D85" t="n">
-        <v>0.562686</v>
+        <v>0.315906</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.39207</v>
+        <v>0.582286</v>
       </c>
       <c r="C86" t="n">
-        <v>0.890687</v>
+        <v>0.455447</v>
       </c>
       <c r="D86" t="n">
-        <v>0.557912</v>
+        <v>0.401971</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.41026</v>
+        <v>0.627452</v>
       </c>
       <c r="C87" t="n">
-        <v>0.864711</v>
+        <v>0.467655</v>
       </c>
       <c r="D87" t="n">
-        <v>0.602621</v>
+        <v>0.343356</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.50402</v>
+        <v>0.638019</v>
       </c>
       <c r="C88" t="n">
-        <v>0.873085</v>
+        <v>0.474846</v>
       </c>
       <c r="D88" t="n">
-        <v>0.580219</v>
+        <v>0.343232</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.51976</v>
+        <v>0.677997</v>
       </c>
       <c r="C89" t="n">
-        <v>0.937778</v>
+        <v>0.493531</v>
       </c>
       <c r="D89" t="n">
-        <v>0.628082</v>
+        <v>0.35167</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05749</v>
+        <v>0.50775</v>
       </c>
       <c r="C90" t="n">
-        <v>0.95379</v>
+        <v>0.511286</v>
       </c>
       <c r="D90" t="n">
-        <v>0.624706</v>
+        <v>0.369403</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0801</v>
+        <v>0.5378849999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.980192</v>
+        <v>0.53809</v>
       </c>
       <c r="D91" t="n">
-        <v>0.624536</v>
+        <v>0.375283</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1099</v>
+        <v>0.55318</v>
       </c>
       <c r="C92" t="n">
-        <v>0.747401</v>
+        <v>0.429629</v>
       </c>
       <c r="D92" t="n">
-        <v>0.57265</v>
+        <v>0.338613</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.17805</v>
+        <v>0.639608</v>
       </c>
       <c r="C93" t="n">
-        <v>0.776318</v>
+        <v>0.452279</v>
       </c>
       <c r="D93" t="n">
-        <v>0.609742</v>
+        <v>0.457162</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.21264</v>
+        <v>0.810622</v>
       </c>
       <c r="C94" t="n">
-        <v>0.79969</v>
+        <v>0.588826</v>
       </c>
       <c r="D94" t="n">
-        <v>0.602529</v>
+        <v>0.437879</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23649</v>
+        <v>0.838407</v>
       </c>
       <c r="C95" t="n">
-        <v>0.772827</v>
+        <v>0.581292</v>
       </c>
       <c r="D95" t="n">
-        <v>0.537791</v>
+        <v>0.409076</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21977</v>
+        <v>0.795436</v>
       </c>
       <c r="C96" t="n">
-        <v>0.755977</v>
+        <v>0.583444</v>
       </c>
       <c r="D96" t="n">
-        <v>0.599311</v>
+        <v>0.421365</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.29076</v>
+        <v>0.787399</v>
       </c>
       <c r="C97" t="n">
-        <v>0.822316</v>
+        <v>0.595788</v>
       </c>
       <c r="D97" t="n">
-        <v>0.568893</v>
+        <v>0.381734</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.34546</v>
+        <v>0.72825</v>
       </c>
       <c r="C98" t="n">
-        <v>0.852818</v>
+        <v>0.545943</v>
       </c>
       <c r="D98" t="n">
-        <v>0.598849</v>
+        <v>0.373417</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.39214</v>
+        <v>0.798173</v>
       </c>
       <c r="C99" t="n">
-        <v>0.893199</v>
+        <v>0.596066</v>
       </c>
       <c r="D99" t="n">
-        <v>0.578883</v>
+        <v>0.377025</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.49696</v>
+        <v>0.898566</v>
       </c>
       <c r="C100" t="n">
-        <v>0.914408</v>
+        <v>0.71876</v>
       </c>
       <c r="D100" t="n">
-        <v>0.64996</v>
+        <v>0.398234</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.48018</v>
+        <v>0.86046</v>
       </c>
       <c r="C101" t="n">
-        <v>0.921007</v>
+        <v>0.696052</v>
       </c>
       <c r="D101" t="n">
-        <v>0.619628</v>
+        <v>0.541111</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.51328</v>
+        <v>1.05624</v>
       </c>
       <c r="C102" t="n">
-        <v>0.952389</v>
+        <v>0.703417</v>
       </c>
       <c r="D102" t="n">
-        <v>0.690259</v>
+        <v>0.49152</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.55543</v>
+        <v>1.01461</v>
       </c>
       <c r="C103" t="n">
-        <v>0.977526</v>
+        <v>0.65172</v>
       </c>
       <c r="D103" t="n">
-        <v>0.689246</v>
+        <v>0.435025</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.64743</v>
+        <v>0.918536</v>
       </c>
       <c r="C104" t="n">
-        <v>1.00263</v>
+        <v>0.67433</v>
       </c>
       <c r="D104" t="n">
-        <v>0.713481</v>
+        <v>0.447472</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.10371</v>
+        <v>0.684622</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05758</v>
+        <v>0.710187</v>
       </c>
       <c r="D105" t="n">
-        <v>0.763392</v>
+        <v>0.467968</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.16496</v>
+        <v>0.741075</v>
       </c>
       <c r="C106" t="n">
-        <v>1.10023</v>
+        <v>0.751263</v>
       </c>
       <c r="D106" t="n">
-        <v>0.772768</v>
+        <v>0.496045</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.20075</v>
+        <v>0.760431</v>
       </c>
       <c r="C107" t="n">
-        <v>0.774932</v>
+        <v>0.589086</v>
       </c>
       <c r="D107" t="n">
-        <v>0.627758</v>
+        <v>0.422414</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.21482</v>
+        <v>0.8025949999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.775046</v>
+        <v>0.598261</v>
       </c>
       <c r="D108" t="n">
-        <v>0.635096</v>
+        <v>0.444949</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.27185</v>
+        <v>0.815841</v>
       </c>
       <c r="C109" t="n">
-        <v>0.809578</v>
+        <v>0.6294</v>
       </c>
       <c r="D109" t="n">
-        <v>0.652294</v>
+        <v>0.488207</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.32243</v>
+        <v>0.860277</v>
       </c>
       <c r="C110" t="n">
-        <v>0.841509</v>
+        <v>0.639095</v>
       </c>
       <c r="D110" t="n">
-        <v>0.673579</v>
+        <v>0.4672</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38112</v>
+        <v>0.970442</v>
       </c>
       <c r="C111" t="n">
-        <v>0.855946</v>
+        <v>0.694338</v>
       </c>
       <c r="D111" t="n">
-        <v>0.656118</v>
+        <v>0.474635</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.36337</v>
+        <v>0.934163</v>
       </c>
       <c r="C112" t="n">
-        <v>0.854085</v>
+        <v>0.687612</v>
       </c>
       <c r="D112" t="n">
-        <v>0.66749</v>
+        <v>0.508077</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.40901</v>
+        <v>0.962982</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8772219999999999</v>
+        <v>0.708233</v>
       </c>
       <c r="D113" t="n">
-        <v>0.679346</v>
+        <v>0.510305</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4484</v>
+        <v>0.975579</v>
       </c>
       <c r="C114" t="n">
-        <v>0.894301</v>
+        <v>0.722768</v>
       </c>
       <c r="D114" t="n">
-        <v>0.69638</v>
+        <v>0.513501</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.53139</v>
+        <v>0.991704</v>
       </c>
       <c r="C115" t="n">
-        <v>0.978998</v>
+        <v>0.744972</v>
       </c>
       <c r="D115" t="n">
-        <v>0.734047</v>
+        <v>0.539995</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.50349</v>
+        <v>1.08287</v>
       </c>
       <c r="C116" t="n">
-        <v>0.927315</v>
+        <v>0.825253</v>
       </c>
       <c r="D116" t="n">
-        <v>0.689635</v>
+        <v>0.621919</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.57631</v>
+        <v>1.15518</v>
       </c>
       <c r="C117" t="n">
-        <v>0.948969</v>
+        <v>0.824753</v>
       </c>
       <c r="D117" t="n">
-        <v>0.715845</v>
+        <v>0.60795</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.61046</v>
+        <v>1.13197</v>
       </c>
       <c r="C118" t="n">
-        <v>0.978042</v>
+        <v>0.816445</v>
       </c>
       <c r="D118" t="n">
-        <v>0.776344</v>
+        <v>0.655424</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10082</v>
+        <v>0.820033</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02017</v>
+        <v>0.911238</v>
       </c>
       <c r="D119" t="n">
-        <v>0.789848</v>
+        <v>0.714302</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.64042</v>
+        <v>0.550068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.422457</v>
+        <v>0.457824</v>
       </c>
       <c r="D2" t="n">
-        <v>0.263273</v>
+        <v>0.238054</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6592249999999999</v>
+        <v>0.576482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.428931</v>
+        <v>0.470122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.267742</v>
+        <v>0.246931</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6841469999999999</v>
+        <v>0.604853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.445503</v>
+        <v>0.489257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.272818</v>
+        <v>0.256926</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.707286</v>
+        <v>0.638619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.460466</v>
+        <v>0.509674</v>
       </c>
       <c r="D5" t="n">
-        <v>0.280978</v>
+        <v>0.269069</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.725469</v>
+        <v>0.661626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.473006</v>
+        <v>0.523019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.289753</v>
+        <v>0.281414</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.749831</v>
+        <v>0.6918260000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.490494</v>
+        <v>0.546511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.292961</v>
+        <v>0.289276</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.770548</v>
+        <v>0.718476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501578</v>
+        <v>0.562466</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297907</v>
+        <v>0.297534</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.792845</v>
+        <v>0.747652</v>
       </c>
       <c r="C9" t="n">
-        <v>0.517912</v>
+        <v>0.582014</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304253</v>
+        <v>0.309275</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.818014</v>
+        <v>0.7780860000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.53361</v>
+        <v>0.603654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.313761</v>
+        <v>0.322808</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.84418</v>
+        <v>0.807949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.36075</v>
+        <v>0.401101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.237295</v>
+        <v>0.236464</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.556917</v>
+        <v>0.510279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.371852</v>
+        <v>0.418543</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24654</v>
+        <v>0.249434</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.574298</v>
+        <v>0.5278890000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.383372</v>
+        <v>0.432387</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251581</v>
+        <v>0.257991</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.591327</v>
+        <v>0.552123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.395307</v>
+        <v>0.449699</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256721</v>
+        <v>0.265718</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.610733</v>
+        <v>0.576315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.41216</v>
+        <v>0.471962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.264229</v>
+        <v>0.276299</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.627216</v>
+        <v>0.598648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.423019</v>
+        <v>0.483789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.271478</v>
+        <v>0.285837</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6501479999999999</v>
+        <v>0.623268</v>
       </c>
       <c r="C17" t="n">
-        <v>0.440472</v>
+        <v>0.508732</v>
       </c>
       <c r="D17" t="n">
-        <v>0.278684</v>
+        <v>0.29733</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.669435</v>
+        <v>0.645397</v>
       </c>
       <c r="C18" t="n">
-        <v>0.45357</v>
+        <v>0.525099</v>
       </c>
       <c r="D18" t="n">
-        <v>0.285699</v>
+        <v>0.305878</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.692208</v>
+        <v>0.6725100000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.467633</v>
+        <v>0.544274</v>
       </c>
       <c r="D19" t="n">
-        <v>0.292414</v>
+        <v>0.31608</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.716065</v>
+        <v>0.698577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.480442</v>
+        <v>0.558113</v>
       </c>
       <c r="D20" t="n">
-        <v>0.300535</v>
+        <v>0.325158</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.741021</v>
+        <v>0.72318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.49732</v>
+        <v>0.577633</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305752</v>
+        <v>0.334331</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.763979</v>
+        <v>0.749692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.511821</v>
+        <v>0.595536</v>
       </c>
       <c r="D22" t="n">
-        <v>0.312551</v>
+        <v>0.343313</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.792787</v>
+        <v>0.778911</v>
       </c>
       <c r="C23" t="n">
-        <v>0.532193</v>
+        <v>0.6165929999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.318149</v>
+        <v>0.350315</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.818974</v>
+        <v>0.804267</v>
       </c>
       <c r="C24" t="n">
-        <v>0.542648</v>
+        <v>0.631444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.325236</v>
+        <v>0.35898</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.850287</v>
+        <v>0.826476</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5662779999999999</v>
+        <v>0.654578</v>
       </c>
       <c r="D25" t="n">
-        <v>0.33448</v>
+        <v>0.368727</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.891856</v>
+        <v>0.8625389999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.395098</v>
+        <v>0.432289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.245225</v>
+        <v>0.265206</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.619823</v>
+        <v>0.558474</v>
       </c>
       <c r="C27" t="n">
-        <v>0.418244</v>
+        <v>0.445827</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251459</v>
+        <v>0.273717</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.659035</v>
+        <v>0.583511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.450365</v>
+        <v>0.471195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.258949</v>
+        <v>0.283666</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.703499</v>
+        <v>0.614357</v>
       </c>
       <c r="C29" t="n">
-        <v>0.479228</v>
+        <v>0.494488</v>
       </c>
       <c r="D29" t="n">
-        <v>0.265612</v>
+        <v>0.291386</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7480520000000001</v>
+        <v>0.645143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.512333</v>
+        <v>0.517504</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276745</v>
+        <v>0.303665</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.793367</v>
+        <v>0.6795369999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.544442</v>
+        <v>0.546383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.282447</v>
+        <v>0.311359</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.843847</v>
+        <v>0.729057</v>
       </c>
       <c r="C32" t="n">
-        <v>0.577241</v>
+        <v>0.585372</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295984</v>
+        <v>0.321272</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.893621</v>
+        <v>0.780308</v>
       </c>
       <c r="C33" t="n">
-        <v>0.611276</v>
+        <v>0.6214769999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.309405</v>
+        <v>0.329613</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9459610000000001</v>
+        <v>0.833565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.648401</v>
+        <v>0.661922</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317591</v>
+        <v>0.336013</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.998282</v>
+        <v>0.887242</v>
       </c>
       <c r="C35" t="n">
-        <v>0.681706</v>
+        <v>0.703833</v>
       </c>
       <c r="D35" t="n">
-        <v>0.330473</v>
+        <v>0.347056</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.05417</v>
+        <v>0.944423</v>
       </c>
       <c r="C36" t="n">
-        <v>0.720346</v>
+        <v>0.743883</v>
       </c>
       <c r="D36" t="n">
-        <v>0.348749</v>
+        <v>0.361346</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.11694</v>
+        <v>1.0035</v>
       </c>
       <c r="C37" t="n">
-        <v>0.764052</v>
+        <v>0.800658</v>
       </c>
       <c r="D37" t="n">
-        <v>0.364548</v>
+        <v>0.374576</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.17325</v>
+        <v>1.06358</v>
       </c>
       <c r="C38" t="n">
-        <v>0.804922</v>
+        <v>0.844431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.379215</v>
+        <v>0.388406</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23771</v>
+        <v>1.13114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.843394</v>
+        <v>0.899788</v>
       </c>
       <c r="D39" t="n">
-        <v>0.397067</v>
+        <v>0.407404</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.30024</v>
+        <v>1.19644</v>
       </c>
       <c r="C40" t="n">
-        <v>0.543832</v>
+        <v>0.5774629999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.305758</v>
+        <v>0.31262</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.84189</v>
+        <v>0.7578859999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.566542</v>
+        <v>0.606204</v>
       </c>
       <c r="D41" t="n">
-        <v>0.318109</v>
+        <v>0.325029</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.88381</v>
+        <v>0.801244</v>
       </c>
       <c r="C42" t="n">
-        <v>0.59656</v>
+        <v>0.637222</v>
       </c>
       <c r="D42" t="n">
-        <v>0.330542</v>
+        <v>0.339512</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9266489999999999</v>
+        <v>0.843102</v>
       </c>
       <c r="C43" t="n">
-        <v>0.624242</v>
+        <v>0.670243</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344114</v>
+        <v>0.354015</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.973608</v>
+        <v>0.887827</v>
       </c>
       <c r="C44" t="n">
-        <v>0.656502</v>
+        <v>0.712978</v>
       </c>
       <c r="D44" t="n">
-        <v>0.358335</v>
+        <v>0.369053</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02275</v>
+        <v>0.936625</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6881890000000001</v>
+        <v>0.7487549999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.368945</v>
+        <v>0.381588</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.07063</v>
+        <v>0.989192</v>
       </c>
       <c r="C46" t="n">
-        <v>0.720988</v>
+        <v>0.78822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.379684</v>
+        <v>0.395327</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.12226</v>
+        <v>1.0409</v>
       </c>
       <c r="C47" t="n">
-        <v>0.752857</v>
+        <v>0.821083</v>
       </c>
       <c r="D47" t="n">
-        <v>0.395726</v>
+        <v>0.412385</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.17491</v>
+        <v>1.09302</v>
       </c>
       <c r="C48" t="n">
-        <v>0.788593</v>
+        <v>0.871408</v>
       </c>
       <c r="D48" t="n">
-        <v>0.410114</v>
+        <v>0.425408</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.22719</v>
+        <v>1.14635</v>
       </c>
       <c r="C49" t="n">
-        <v>0.824133</v>
+        <v>0.911923</v>
       </c>
       <c r="D49" t="n">
-        <v>0.425082</v>
+        <v>0.441095</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.28198</v>
+        <v>1.19853</v>
       </c>
       <c r="C50" t="n">
-        <v>0.867837</v>
+        <v>0.969108</v>
       </c>
       <c r="D50" t="n">
-        <v>0.443339</v>
+        <v>0.457882</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.34056</v>
+        <v>1.26497</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9056999999999999</v>
+        <v>1.00977</v>
       </c>
       <c r="D51" t="n">
-        <v>0.452835</v>
+        <v>0.47059</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.39957</v>
+        <v>1.32595</v>
       </c>
       <c r="C52" t="n">
-        <v>0.949174</v>
+        <v>1.06528</v>
       </c>
       <c r="D52" t="n">
-        <v>0.472611</v>
+        <v>0.489127</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.46295</v>
+        <v>1.38574</v>
       </c>
       <c r="C53" t="n">
-        <v>0.994973</v>
+        <v>1.12049</v>
       </c>
       <c r="D53" t="n">
-        <v>0.483704</v>
+        <v>0.503204</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.5282</v>
+        <v>1.45214</v>
       </c>
       <c r="C54" t="n">
-        <v>0.618789</v>
+        <v>0.6770040000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.366759</v>
+        <v>0.366688</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.59855</v>
+        <v>1.51705</v>
       </c>
       <c r="C55" t="n">
-        <v>0.645297</v>
+        <v>0.706028</v>
       </c>
       <c r="D55" t="n">
-        <v>0.373846</v>
+        <v>0.37661</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.983387</v>
+        <v>0.9037269999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.672247</v>
+        <v>0.741857</v>
       </c>
       <c r="D56" t="n">
-        <v>0.385918</v>
+        <v>0.391097</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.02812</v>
+        <v>0.947058</v>
       </c>
       <c r="C57" t="n">
-        <v>0.69818</v>
+        <v>0.772321</v>
       </c>
       <c r="D57" t="n">
-        <v>0.402034</v>
+        <v>0.406786</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.07128</v>
+        <v>0.990742</v>
       </c>
       <c r="C58" t="n">
-        <v>0.729267</v>
+        <v>0.81267</v>
       </c>
       <c r="D58" t="n">
-        <v>0.407797</v>
+        <v>0.41631</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.11556</v>
+        <v>1.03682</v>
       </c>
       <c r="C59" t="n">
-        <v>0.762772</v>
+        <v>0.849658</v>
       </c>
       <c r="D59" t="n">
-        <v>0.429513</v>
+        <v>0.437589</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.16737</v>
+        <v>1.08799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.795973</v>
+        <v>0.895037</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442577</v>
+        <v>0.452635</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.21827</v>
+        <v>1.13768</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8289879999999999</v>
+        <v>0.934565</v>
       </c>
       <c r="D61" t="n">
-        <v>0.451991</v>
+        <v>0.463923</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.26541</v>
+        <v>1.18936</v>
       </c>
       <c r="C62" t="n">
-        <v>0.866529</v>
+        <v>0.98482</v>
       </c>
       <c r="D62" t="n">
-        <v>0.472311</v>
+        <v>0.482324</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.32066</v>
+        <v>1.24928</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9041439999999999</v>
+        <v>1.02559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475198</v>
+        <v>0.490343</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.38769</v>
+        <v>1.3078</v>
       </c>
       <c r="C64" t="n">
-        <v>0.94371</v>
+        <v>1.07508</v>
       </c>
       <c r="D64" t="n">
-        <v>0.499784</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.45107</v>
+        <v>1.36948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.987545</v>
+        <v>1.12926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.517746</v>
+        <v>0.528031</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.50164</v>
+        <v>1.43433</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0348</v>
+        <v>1.18677</v>
       </c>
       <c r="D66" t="n">
-        <v>0.537505</v>
+        <v>0.544169</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.58345</v>
+        <v>1.4925</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08813</v>
+        <v>1.24606</v>
       </c>
       <c r="D67" t="n">
-        <v>0.562669</v>
+        <v>0.562568</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.69958</v>
+        <v>1.55937</v>
       </c>
       <c r="C68" t="n">
-        <v>0.674499</v>
+        <v>0.725449</v>
       </c>
       <c r="D68" t="n">
-        <v>0.392782</v>
+        <v>0.393965</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.70982</v>
+        <v>1.65963</v>
       </c>
       <c r="C69" t="n">
-        <v>0.673186</v>
+        <v>0.740933</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4246</v>
+        <v>0.413305</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03887</v>
+        <v>0.995824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.709777</v>
+        <v>0.787462</v>
       </c>
       <c r="D70" t="n">
-        <v>0.428952</v>
+        <v>0.426635</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.10596</v>
+        <v>1.00075</v>
       </c>
       <c r="C71" t="n">
-        <v>0.747156</v>
+        <v>0.81618</v>
       </c>
       <c r="D71" t="n">
-        <v>0.434352</v>
+        <v>0.432113</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.1757</v>
+        <v>1.03785</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7945950000000001</v>
+        <v>0.855382</v>
       </c>
       <c r="D72" t="n">
-        <v>0.446717</v>
+        <v>0.441952</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.25918</v>
+        <v>1.08806</v>
       </c>
       <c r="C73" t="n">
-        <v>0.851496</v>
+        <v>0.900464</v>
       </c>
       <c r="D73" t="n">
-        <v>0.462876</v>
+        <v>0.459935</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.40013</v>
+        <v>1.12888</v>
       </c>
       <c r="C74" t="n">
-        <v>0.865154</v>
+        <v>0.924817</v>
       </c>
       <c r="D74" t="n">
-        <v>0.488198</v>
+        <v>0.476915</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.37446</v>
+        <v>1.17903</v>
       </c>
       <c r="C75" t="n">
-        <v>0.893163</v>
+        <v>0.970299</v>
       </c>
       <c r="D75" t="n">
-        <v>0.492295</v>
+        <v>0.485162</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.51939</v>
+        <v>1.23404</v>
       </c>
       <c r="C76" t="n">
-        <v>0.975977</v>
+        <v>1.01362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.509504</v>
+        <v>0.495701</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.65261</v>
+        <v>1.28288</v>
       </c>
       <c r="C77" t="n">
-        <v>1.0033</v>
+        <v>1.06564</v>
       </c>
       <c r="D77" t="n">
-        <v>0.521021</v>
+        <v>0.5068279999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.5637</v>
+        <v>1.34459</v>
       </c>
       <c r="C78" t="n">
-        <v>1.0605</v>
+        <v>1.11364</v>
       </c>
       <c r="D78" t="n">
-        <v>0.552901</v>
+        <v>0.536683</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.63701</v>
+        <v>1.40542</v>
       </c>
       <c r="C79" t="n">
-        <v>1.20347</v>
+        <v>1.16357</v>
       </c>
       <c r="D79" t="n">
-        <v>0.564402</v>
+        <v>0.5528110000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.79839</v>
+        <v>1.46319</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16948</v>
+        <v>1.21896</v>
       </c>
       <c r="D80" t="n">
-        <v>0.572983</v>
+        <v>0.561653</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.9201</v>
+        <v>1.52593</v>
       </c>
       <c r="C81" t="n">
-        <v>1.29047</v>
+        <v>1.28343</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613659</v>
+        <v>0.587848</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.91196</v>
+        <v>1.60103</v>
       </c>
       <c r="C82" t="n">
-        <v>1.26056</v>
+        <v>1.34067</v>
       </c>
       <c r="D82" t="n">
-        <v>0.607165</v>
+        <v>0.581261</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.28659</v>
+        <v>1.65799</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8721100000000001</v>
+        <v>0.768388</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4623</v>
+        <v>0.42909</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.36816</v>
+        <v>1.73202</v>
       </c>
       <c r="C84" t="n">
-        <v>0.965899</v>
+        <v>0.798756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.501045</v>
+        <v>0.442841</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.75366</v>
+        <v>1.20581</v>
       </c>
       <c r="C85" t="n">
-        <v>1.08799</v>
+        <v>1.03467</v>
       </c>
       <c r="D85" t="n">
-        <v>0.501908</v>
+        <v>0.459659</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.7625</v>
+        <v>1.05531</v>
       </c>
       <c r="C86" t="n">
-        <v>1.09738</v>
+        <v>0.883899</v>
       </c>
       <c r="D86" t="n">
-        <v>0.540346</v>
+        <v>0.470032</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.0171</v>
+        <v>1.10184</v>
       </c>
       <c r="C87" t="n">
-        <v>1.24546</v>
+        <v>0.9191009999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.535543</v>
+        <v>0.484794</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.79457</v>
+        <v>1.18565</v>
       </c>
       <c r="C88" t="n">
-        <v>1.1286</v>
+        <v>0.982733</v>
       </c>
       <c r="D88" t="n">
-        <v>0.542305</v>
+        <v>0.509507</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.93938</v>
+        <v>1.27533</v>
       </c>
       <c r="C89" t="n">
-        <v>1.38694</v>
+        <v>1.11851</v>
       </c>
       <c r="D89" t="n">
-        <v>0.56281</v>
+        <v>0.515147</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.02949</v>
+        <v>1.27793</v>
       </c>
       <c r="C90" t="n">
-        <v>1.44955</v>
+        <v>1.07075</v>
       </c>
       <c r="D90" t="n">
-        <v>0.620796</v>
+        <v>0.533705</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.21368</v>
+        <v>1.39631</v>
       </c>
       <c r="C91" t="n">
-        <v>1.53573</v>
+        <v>1.34693</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6592710000000001</v>
+        <v>0.653436</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.51452</v>
+        <v>1.87732</v>
       </c>
       <c r="C92" t="n">
-        <v>1.71583</v>
+        <v>1.63013</v>
       </c>
       <c r="D92" t="n">
-        <v>0.69146</v>
+        <v>0.63491</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.63267</v>
+        <v>1.98446</v>
       </c>
       <c r="C93" t="n">
-        <v>1.7592</v>
+        <v>1.66014</v>
       </c>
       <c r="D93" t="n">
-        <v>0.700111</v>
+        <v>0.6480669999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.79975</v>
+        <v>2.1412</v>
       </c>
       <c r="C94" t="n">
-        <v>1.8885</v>
+        <v>1.76463</v>
       </c>
       <c r="D94" t="n">
-        <v>0.773793</v>
+        <v>0.686462</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.08576</v>
+        <v>2.20486</v>
       </c>
       <c r="C95" t="n">
-        <v>2.02136</v>
+        <v>1.91936</v>
       </c>
       <c r="D95" t="n">
-        <v>0.783514</v>
+        <v>0.674327</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.37263</v>
+        <v>2.41033</v>
       </c>
       <c r="C96" t="n">
-        <v>2.20208</v>
+        <v>2.21761</v>
       </c>
       <c r="D96" t="n">
-        <v>0.867383</v>
+        <v>0.68002</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.70708</v>
+        <v>2.25305</v>
       </c>
       <c r="C97" t="n">
-        <v>1.47417</v>
+        <v>1.12268</v>
       </c>
       <c r="D97" t="n">
-        <v>0.695686</v>
+        <v>0.672437</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.88213</v>
+        <v>2.07748</v>
       </c>
       <c r="C98" t="n">
-        <v>1.46135</v>
+        <v>1.4848</v>
       </c>
       <c r="D98" t="n">
-        <v>0.685291</v>
+        <v>0.657239</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.503</v>
+        <v>1.85694</v>
       </c>
       <c r="C99" t="n">
-        <v>1.79827</v>
+        <v>1.44049</v>
       </c>
       <c r="D99" t="n">
-        <v>0.904657</v>
+        <v>0.673405</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.87974</v>
+        <v>1.7986</v>
       </c>
       <c r="C100" t="n">
-        <v>1.87357</v>
+        <v>1.44527</v>
       </c>
       <c r="D100" t="n">
-        <v>0.870875</v>
+        <v>0.6471</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.06193</v>
+        <v>1.88951</v>
       </c>
       <c r="C101" t="n">
-        <v>2.00523</v>
+        <v>1.52412</v>
       </c>
       <c r="D101" t="n">
-        <v>0.968155</v>
+        <v>0.624829</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.23435</v>
+        <v>1.91489</v>
       </c>
       <c r="C102" t="n">
-        <v>2.09168</v>
+        <v>1.52194</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03102</v>
+        <v>0.662235</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.43739</v>
+        <v>2.03396</v>
       </c>
       <c r="C103" t="n">
-        <v>2.18815</v>
+        <v>1.57344</v>
       </c>
       <c r="D103" t="n">
-        <v>1.18531</v>
+        <v>0.618835</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.44504</v>
+        <v>1.93262</v>
       </c>
       <c r="C104" t="n">
-        <v>2.26025</v>
+        <v>1.57533</v>
       </c>
       <c r="D104" t="n">
-        <v>1.1458</v>
+        <v>0.627468</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.85736</v>
+        <v>1.99937</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4473</v>
+        <v>1.66926</v>
       </c>
       <c r="D105" t="n">
-        <v>1.18489</v>
+        <v>0.680684</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.79055</v>
+        <v>2.12603</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37512</v>
+        <v>1.86501</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08027</v>
+        <v>0.721803</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.87233</v>
+        <v>2.41632</v>
       </c>
       <c r="C107" t="n">
-        <v>2.62808</v>
+        <v>1.99685</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23955</v>
+        <v>0.7459789999999999</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.39617</v>
+        <v>2.99253</v>
       </c>
       <c r="C108" t="n">
-        <v>2.65196</v>
+        <v>2.15421</v>
       </c>
       <c r="D108" t="n">
-        <v>1.32435</v>
+        <v>0.787241</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.64236</v>
+        <v>2.65556</v>
       </c>
       <c r="C109" t="n">
-        <v>2.8436</v>
+        <v>2.31351</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28338</v>
+        <v>0.808814</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.58201</v>
+        <v>2.74923</v>
       </c>
       <c r="C110" t="n">
-        <v>2.98775</v>
+        <v>2.42425</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27954</v>
+        <v>0.880118</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.78629</v>
+        <v>3.06553</v>
       </c>
       <c r="C111" t="n">
-        <v>1.73393</v>
+        <v>1.35528</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01466</v>
+        <v>0.679856</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>5.18876</v>
+        <v>3.17638</v>
       </c>
       <c r="C112" t="n">
-        <v>1.81427</v>
+        <v>1.39078</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09629</v>
+        <v>0.7037409999999999</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>5.31707</v>
+        <v>3.44514</v>
       </c>
       <c r="C113" t="n">
-        <v>1.91761</v>
+        <v>1.67126</v>
       </c>
       <c r="D113" t="n">
-        <v>1.078</v>
+        <v>0.8446630000000001</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.08909</v>
+        <v>2.2131</v>
       </c>
       <c r="C114" t="n">
-        <v>1.99168</v>
+        <v>1.76133</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17207</v>
+        <v>0.908301</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.17696</v>
+        <v>2.26655</v>
       </c>
       <c r="C115" t="n">
-        <v>2.04917</v>
+        <v>1.82083</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11989</v>
+        <v>0.866533</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.31305</v>
+        <v>2.32762</v>
       </c>
       <c r="C116" t="n">
-        <v>2.15282</v>
+        <v>1.88447</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18152</v>
+        <v>0.878584</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.59025</v>
+        <v>2.43722</v>
       </c>
       <c r="C117" t="n">
-        <v>2.36816</v>
+        <v>2.11083</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23152</v>
+        <v>0.928778</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.79419</v>
+        <v>2.56557</v>
       </c>
       <c r="C118" t="n">
-        <v>2.39538</v>
+        <v>2.0437</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32541</v>
+        <v>0.90869</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.03697</v>
+        <v>2.64474</v>
       </c>
       <c r="C119" t="n">
-        <v>2.58659</v>
+        <v>2.1726</v>
       </c>
       <c r="D119" t="n">
-        <v>1.39001</v>
+        <v>0.94226</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.302543</v>
+        <v>0.34237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.264351</v>
+        <v>0.228406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239287</v>
+        <v>0.252948</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22821</v>
+        <v>0.258618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264893</v>
+        <v>0.229115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241615</v>
+        <v>0.254728</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235922</v>
+        <v>0.267185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273163</v>
+        <v>0.235246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249566</v>
+        <v>0.26043</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.243953</v>
+        <v>0.274413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27794</v>
+        <v>0.239896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257348</v>
+        <v>0.266556</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.249861</v>
+        <v>0.282273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.281197</v>
+        <v>0.244472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.264804</v>
+        <v>0.271323</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.258841</v>
+        <v>0.291955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220555</v>
+        <v>0.201148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.223998</v>
+        <v>0.224391</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.271045</v>
+        <v>0.300807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232358</v>
+        <v>0.204008</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229465</v>
+        <v>0.231386</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.279925</v>
+        <v>0.310021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.238275</v>
+        <v>0.210906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23981</v>
+        <v>0.238236</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.293176</v>
+        <v>0.317755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246202</v>
+        <v>0.216533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248224</v>
+        <v>0.245091</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304771</v>
+        <v>0.324596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249115</v>
+        <v>0.221798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255291</v>
+        <v>0.252142</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.319081</v>
+        <v>0.3344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.264138</v>
+        <v>0.230087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.265307</v>
+        <v>0.260731</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.328755</v>
+        <v>0.342282</v>
       </c>
       <c r="C13" t="n">
-        <v>0.269073</v>
+        <v>0.234975</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272162</v>
+        <v>0.266535</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.338774</v>
+        <v>0.351177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.272345</v>
+        <v>0.239802</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279096</v>
+        <v>0.272092</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.351727</v>
+        <v>0.362031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.276148</v>
+        <v>0.24533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285044</v>
+        <v>0.277702</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.360848</v>
+        <v>0.369459</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2845</v>
+        <v>0.249476</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288911</v>
+        <v>0.283517</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.374455</v>
+        <v>0.380836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.291118</v>
+        <v>0.255588</v>
       </c>
       <c r="D17" t="n">
-        <v>0.299108</v>
+        <v>0.291561</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.270412</v>
+        <v>0.288947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.293672</v>
+        <v>0.259386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.302961</v>
+        <v>0.295523</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.279211</v>
+        <v>0.296333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.299184</v>
+        <v>0.265148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.309212</v>
+        <v>0.301619</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.290516</v>
+        <v>0.306471</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30573</v>
+        <v>0.271322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.318964</v>
+        <v>0.310252</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.304102</v>
+        <v>0.315773</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238982</v>
+        <v>0.216538</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250645</v>
+        <v>0.247886</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.315347</v>
+        <v>0.324751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.243893</v>
+        <v>0.22238</v>
       </c>
       <c r="D22" t="n">
-        <v>0.260346</v>
+        <v>0.254399</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.328466</v>
+        <v>0.333318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254651</v>
+        <v>0.228062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.271706</v>
+        <v>0.261476</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339902</v>
+        <v>0.340466</v>
       </c>
       <c r="C24" t="n">
-        <v>0.257816</v>
+        <v>0.232646</v>
       </c>
       <c r="D24" t="n">
-        <v>0.277264</v>
+        <v>0.267532</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.351306</v>
+        <v>0.348765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.267897</v>
+        <v>0.23826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.284986</v>
+        <v>0.274177</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.365292</v>
+        <v>0.359284</v>
       </c>
       <c r="C26" t="n">
-        <v>0.276335</v>
+        <v>0.245371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.294023</v>
+        <v>0.282518</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.375996</v>
+        <v>0.366263</v>
       </c>
       <c r="C27" t="n">
-        <v>0.281249</v>
+        <v>0.250453</v>
       </c>
       <c r="D27" t="n">
-        <v>0.302981</v>
+        <v>0.287685</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.389071</v>
+        <v>0.375367</v>
       </c>
       <c r="C28" t="n">
-        <v>0.288545</v>
+        <v>0.255727</v>
       </c>
       <c r="D28" t="n">
-        <v>0.312452</v>
+        <v>0.294119</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.401926</v>
+        <v>0.384425</v>
       </c>
       <c r="C29" t="n">
-        <v>0.296586</v>
+        <v>0.261357</v>
       </c>
       <c r="D29" t="n">
-        <v>0.321937</v>
+        <v>0.301345</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.416491</v>
+        <v>0.392126</v>
       </c>
       <c r="C30" t="n">
-        <v>0.301795</v>
+        <v>0.265812</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330363</v>
+        <v>0.307664</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.426142</v>
+        <v>0.40109</v>
       </c>
       <c r="C31" t="n">
-        <v>0.311416</v>
+        <v>0.27119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.339105</v>
+        <v>0.313015</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.325006</v>
+        <v>0.298478</v>
       </c>
       <c r="C32" t="n">
-        <v>0.318078</v>
+        <v>0.276519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348365</v>
+        <v>0.319872</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.338641</v>
+        <v>0.306719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.325888</v>
+        <v>0.282004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.358843</v>
+        <v>0.326184</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.354535</v>
+        <v>0.31393</v>
       </c>
       <c r="C34" t="n">
-        <v>0.33336</v>
+        <v>0.286854</v>
       </c>
       <c r="D34" t="n">
-        <v>0.366851</v>
+        <v>0.33238</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.369665</v>
+        <v>0.323565</v>
       </c>
       <c r="C35" t="n">
-        <v>0.261838</v>
+        <v>0.226079</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284744</v>
+        <v>0.258916</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.383385</v>
+        <v>0.333405</v>
       </c>
       <c r="C36" t="n">
-        <v>0.268796</v>
+        <v>0.231982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.294793</v>
+        <v>0.265187</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.396344</v>
+        <v>0.340269</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275846</v>
+        <v>0.237278</v>
       </c>
       <c r="D37" t="n">
-        <v>0.304441</v>
+        <v>0.27109</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409452</v>
+        <v>0.349126</v>
       </c>
       <c r="C38" t="n">
-        <v>0.285214</v>
+        <v>0.242648</v>
       </c>
       <c r="D38" t="n">
-        <v>0.31609</v>
+        <v>0.277796</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.422836</v>
+        <v>0.356506</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295459</v>
+        <v>0.248387</v>
       </c>
       <c r="D39" t="n">
-        <v>0.327015</v>
+        <v>0.284926</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.435777</v>
+        <v>0.365624</v>
       </c>
       <c r="C40" t="n">
-        <v>0.306469</v>
+        <v>0.253706</v>
       </c>
       <c r="D40" t="n">
-        <v>0.337304</v>
+        <v>0.29143</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.447242</v>
+        <v>0.373244</v>
       </c>
       <c r="C41" t="n">
-        <v>0.314004</v>
+        <v>0.259336</v>
       </c>
       <c r="D41" t="n">
-        <v>0.347203</v>
+        <v>0.298756</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.458943</v>
+        <v>0.381971</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319466</v>
+        <v>0.264613</v>
       </c>
       <c r="D42" t="n">
-        <v>0.357442</v>
+        <v>0.304353</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.471939</v>
+        <v>0.392669</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330398</v>
+        <v>0.270054</v>
       </c>
       <c r="D43" t="n">
-        <v>0.367342</v>
+        <v>0.311838</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.484671</v>
+        <v>0.400657</v>
       </c>
       <c r="C44" t="n">
-        <v>0.338286</v>
+        <v>0.275298</v>
       </c>
       <c r="D44" t="n">
-        <v>0.376369</v>
+        <v>0.318497</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.496813</v>
+        <v>0.408812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.345244</v>
+        <v>0.27993</v>
       </c>
       <c r="D45" t="n">
-        <v>0.384063</v>
+        <v>0.324244</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.509161</v>
+        <v>0.419463</v>
       </c>
       <c r="C46" t="n">
-        <v>0.35112</v>
+        <v>0.284468</v>
       </c>
       <c r="D46" t="n">
-        <v>0.391374</v>
+        <v>0.330069</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.372505</v>
+        <v>0.306498</v>
       </c>
       <c r="C47" t="n">
-        <v>0.358994</v>
+        <v>0.289405</v>
       </c>
       <c r="D47" t="n">
-        <v>0.399766</v>
+        <v>0.336183</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.384177</v>
+        <v>0.313433</v>
       </c>
       <c r="C48" t="n">
-        <v>0.366339</v>
+        <v>0.294539</v>
       </c>
       <c r="D48" t="n">
-        <v>0.410778</v>
+        <v>0.343295</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.396858</v>
+        <v>0.322693</v>
       </c>
       <c r="C49" t="n">
-        <v>0.372997</v>
+        <v>0.299455</v>
       </c>
       <c r="D49" t="n">
-        <v>0.420832</v>
+        <v>0.353029</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.40934</v>
+        <v>0.331064</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289419</v>
+        <v>0.233967</v>
       </c>
       <c r="D50" t="n">
-        <v>0.317551</v>
+        <v>0.26271</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.422274</v>
+        <v>0.338908</v>
       </c>
       <c r="C51" t="n">
-        <v>0.298359</v>
+        <v>0.239873</v>
       </c>
       <c r="D51" t="n">
-        <v>0.327171</v>
+        <v>0.270079</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.435852</v>
+        <v>0.347801</v>
       </c>
       <c r="C52" t="n">
-        <v>0.307427</v>
+        <v>0.246007</v>
       </c>
       <c r="D52" t="n">
-        <v>0.338439</v>
+        <v>0.27756</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.447789</v>
+        <v>0.35571</v>
       </c>
       <c r="C53" t="n">
-        <v>0.316311</v>
+        <v>0.251695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.348005</v>
+        <v>0.284828</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.459985</v>
+        <v>0.364719</v>
       </c>
       <c r="C54" t="n">
-        <v>0.323336</v>
+        <v>0.257331</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3584</v>
+        <v>0.291703</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.471484</v>
+        <v>0.373203</v>
       </c>
       <c r="C55" t="n">
-        <v>0.332703</v>
+        <v>0.262928</v>
       </c>
       <c r="D55" t="n">
-        <v>0.368329</v>
+        <v>0.299116</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.483073</v>
+        <v>0.381763</v>
       </c>
       <c r="C56" t="n">
-        <v>0.339371</v>
+        <v>0.26844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.375681</v>
+        <v>0.306157</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.494733</v>
+        <v>0.390809</v>
       </c>
       <c r="C57" t="n">
-        <v>0.34607</v>
+        <v>0.273201</v>
       </c>
       <c r="D57" t="n">
-        <v>0.383925</v>
+        <v>0.312993</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.50675</v>
+        <v>0.399655</v>
       </c>
       <c r="C58" t="n">
-        <v>0.352437</v>
+        <v>0.277874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.390753</v>
+        <v>0.319512</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51673</v>
+        <v>0.408156</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35822</v>
+        <v>0.282372</v>
       </c>
       <c r="D59" t="n">
-        <v>0.399259</v>
+        <v>0.326186</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.529788</v>
+        <v>0.418444</v>
       </c>
       <c r="C60" t="n">
-        <v>0.366389</v>
+        <v>0.287233</v>
       </c>
       <c r="D60" t="n">
-        <v>0.409828</v>
+        <v>0.332532</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3788</v>
+        <v>0.309403</v>
       </c>
       <c r="C61" t="n">
-        <v>0.373527</v>
+        <v>0.292312</v>
       </c>
       <c r="D61" t="n">
-        <v>0.418893</v>
+        <v>0.33942</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.391294</v>
+        <v>0.319898</v>
       </c>
       <c r="C62" t="n">
-        <v>0.379103</v>
+        <v>0.296983</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4275</v>
+        <v>0.345715</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.403196</v>
+        <v>0.330533</v>
       </c>
       <c r="C63" t="n">
-        <v>0.386573</v>
+        <v>0.302838</v>
       </c>
       <c r="D63" t="n">
-        <v>0.438894</v>
+        <v>0.354073</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.414992</v>
+        <v>0.341809</v>
       </c>
       <c r="C64" t="n">
-        <v>0.29559</v>
+        <v>0.242175</v>
       </c>
       <c r="D64" t="n">
-        <v>0.331365</v>
+        <v>0.27585</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.429959</v>
+        <v>0.34829</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305928</v>
+        <v>0.248464</v>
       </c>
       <c r="D65" t="n">
-        <v>0.342266</v>
+        <v>0.283865</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.444099</v>
+        <v>0.359432</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322572</v>
+        <v>0.256504</v>
       </c>
       <c r="D66" t="n">
-        <v>0.351948</v>
+        <v>0.29182</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.46008</v>
+        <v>0.372429</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334197</v>
+        <v>0.264488</v>
       </c>
       <c r="D67" t="n">
-        <v>0.36359</v>
+        <v>0.30105</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.480162</v>
+        <v>0.385413</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3452</v>
+        <v>0.271945</v>
       </c>
       <c r="D68" t="n">
-        <v>0.374496</v>
+        <v>0.311173</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.490466</v>
+        <v>0.397237</v>
       </c>
       <c r="C69" t="n">
-        <v>0.351628</v>
+        <v>0.279123</v>
       </c>
       <c r="D69" t="n">
-        <v>0.387443</v>
+        <v>0.322003</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.504881</v>
+        <v>0.411399</v>
       </c>
       <c r="C70" t="n">
-        <v>0.352537</v>
+        <v>0.287534</v>
       </c>
       <c r="D70" t="n">
-        <v>0.403616</v>
+        <v>0.332903</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.525081</v>
+        <v>0.427079</v>
       </c>
       <c r="C71" t="n">
-        <v>0.360776</v>
+        <v>0.296682</v>
       </c>
       <c r="D71" t="n">
-        <v>0.410631</v>
+        <v>0.345862</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5351590000000001</v>
+        <v>0.446233</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370346</v>
+        <v>0.305495</v>
       </c>
       <c r="D72" t="n">
-        <v>0.418197</v>
+        <v>0.357912</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55018</v>
+        <v>0.465452</v>
       </c>
       <c r="C73" t="n">
-        <v>0.377075</v>
+        <v>0.313138</v>
       </c>
       <c r="D73" t="n">
-        <v>0.428524</v>
+        <v>0.370378</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.564188</v>
+        <v>0.480585</v>
       </c>
       <c r="C74" t="n">
-        <v>0.386941</v>
+        <v>0.323501</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440557</v>
+        <v>0.383242</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.582147</v>
+        <v>0.500883</v>
       </c>
       <c r="C75" t="n">
-        <v>0.395092</v>
+        <v>0.33362</v>
       </c>
       <c r="D75" t="n">
-        <v>0.45176</v>
+        <v>0.397661</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.432715</v>
+        <v>0.474361</v>
       </c>
       <c r="C76" t="n">
-        <v>0.404262</v>
+        <v>0.347227</v>
       </c>
       <c r="D76" t="n">
-        <v>0.464291</v>
+        <v>0.416042</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.439926</v>
+        <v>0.498706</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413326</v>
+        <v>0.363665</v>
       </c>
       <c r="D77" t="n">
-        <v>0.477057</v>
+        <v>0.436906</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.459545</v>
+        <v>0.529057</v>
       </c>
       <c r="C78" t="n">
-        <v>0.316842</v>
+        <v>0.331988</v>
       </c>
       <c r="D78" t="n">
-        <v>0.368525</v>
+        <v>0.406568</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.466025</v>
+        <v>0.557917</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325531</v>
+        <v>0.350145</v>
       </c>
       <c r="D79" t="n">
-        <v>0.379824</v>
+        <v>0.431987</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.478794</v>
+        <v>0.589026</v>
       </c>
       <c r="C80" t="n">
-        <v>0.346428</v>
+        <v>0.372511</v>
       </c>
       <c r="D80" t="n">
-        <v>0.382492</v>
+        <v>0.454514</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.49949</v>
+        <v>0.622817</v>
       </c>
       <c r="C81" t="n">
-        <v>0.35005</v>
+        <v>0.389836</v>
       </c>
       <c r="D81" t="n">
-        <v>0.396791</v>
+        <v>0.480173</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.512556</v>
+        <v>0.659763</v>
       </c>
       <c r="C82" t="n">
-        <v>0.361159</v>
+        <v>0.410156</v>
       </c>
       <c r="D82" t="n">
-        <v>0.408154</v>
+        <v>0.508953</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.53421</v>
+        <v>0.69913</v>
       </c>
       <c r="C83" t="n">
-        <v>0.364389</v>
+        <v>0.4311</v>
       </c>
       <c r="D83" t="n">
-        <v>0.431637</v>
+        <v>0.5356</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.55997</v>
+        <v>0.730328</v>
       </c>
       <c r="C84" t="n">
-        <v>0.382141</v>
+        <v>0.450929</v>
       </c>
       <c r="D84" t="n">
-        <v>0.434877</v>
+        <v>0.563815</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5620810000000001</v>
+        <v>0.769846</v>
       </c>
       <c r="C85" t="n">
-        <v>0.384534</v>
+        <v>0.473102</v>
       </c>
       <c r="D85" t="n">
-        <v>0.442799</v>
+        <v>0.592684</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.578371</v>
+        <v>0.810884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.393544</v>
+        <v>0.495794</v>
       </c>
       <c r="D86" t="n">
-        <v>0.455425</v>
+        <v>0.622496</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.59626</v>
+        <v>0.852691</v>
       </c>
       <c r="C87" t="n">
-        <v>0.403696</v>
+        <v>0.518798</v>
       </c>
       <c r="D87" t="n">
-        <v>0.468938</v>
+        <v>0.650523</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6106239999999999</v>
+        <v>0.896529</v>
       </c>
       <c r="C88" t="n">
-        <v>0.412286</v>
+        <v>0.542718</v>
       </c>
       <c r="D88" t="n">
-        <v>0.481327</v>
+        <v>0.687756</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.623044</v>
+        <v>0.941621</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422063</v>
+        <v>0.567272</v>
       </c>
       <c r="D89" t="n">
-        <v>0.490473</v>
+        <v>0.7211649999999999</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.467848</v>
+        <v>0.825734</v>
       </c>
       <c r="C90" t="n">
-        <v>0.428608</v>
+        <v>0.591638</v>
       </c>
       <c r="D90" t="n">
-        <v>0.495439</v>
+        <v>0.743637</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.476622</v>
+        <v>0.852877</v>
       </c>
       <c r="C91" t="n">
-        <v>0.440006</v>
+        <v>0.618466</v>
       </c>
       <c r="D91" t="n">
-        <v>0.517828</v>
+        <v>0.775737</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.499213</v>
+        <v>0.883073</v>
       </c>
       <c r="C92" t="n">
-        <v>0.335728</v>
+        <v>0.53173</v>
       </c>
       <c r="D92" t="n">
-        <v>0.387822</v>
+        <v>0.673351</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.520153</v>
+        <v>0.910868</v>
       </c>
       <c r="C93" t="n">
-        <v>0.340187</v>
+        <v>0.547585</v>
       </c>
       <c r="D93" t="n">
-        <v>0.391656</v>
+        <v>0.699782</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.545816</v>
+        <v>0.940941</v>
       </c>
       <c r="C94" t="n">
-        <v>0.352262</v>
+        <v>0.564458</v>
       </c>
       <c r="D94" t="n">
-        <v>0.404271</v>
+        <v>0.716866</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.553691</v>
+        <v>0.9712730000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.373174</v>
+        <v>0.580979</v>
       </c>
       <c r="D95" t="n">
-        <v>0.430283</v>
+        <v>0.752695</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5877520000000001</v>
+        <v>0.999654</v>
       </c>
       <c r="C96" t="n">
-        <v>0.384035</v>
+        <v>0.597229</v>
       </c>
       <c r="D96" t="n">
-        <v>0.445881</v>
+        <v>0.778172</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.602169</v>
+        <v>1.02939</v>
       </c>
       <c r="C97" t="n">
-        <v>0.394513</v>
+        <v>0.6160949999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473235</v>
+        <v>0.802069</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.643428</v>
+        <v>1.0664</v>
       </c>
       <c r="C98" t="n">
-        <v>0.413409</v>
+        <v>0.63681</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5009</v>
+        <v>0.834694</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.657007</v>
+        <v>1.10352</v>
       </c>
       <c r="C99" t="n">
-        <v>0.424282</v>
+        <v>0.656466</v>
       </c>
       <c r="D99" t="n">
-        <v>0.513024</v>
+        <v>0.860878</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.708485</v>
+        <v>1.13802</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450662</v>
+        <v>0.67613</v>
       </c>
       <c r="D100" t="n">
-        <v>0.574837</v>
+        <v>0.892777</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7842440000000001</v>
+        <v>1.16408</v>
       </c>
       <c r="C101" t="n">
-        <v>0.486931</v>
+        <v>0.697188</v>
       </c>
       <c r="D101" t="n">
-        <v>0.544181</v>
+        <v>0.920475</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.758639</v>
+        <v>1.20091</v>
       </c>
       <c r="C102" t="n">
-        <v>0.466655</v>
+        <v>0.719792</v>
       </c>
       <c r="D102" t="n">
-        <v>0.55227</v>
+        <v>0.955125</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.752208</v>
+        <v>1.23952</v>
       </c>
       <c r="C103" t="n">
-        <v>0.484745</v>
+        <v>0.7433</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5692469999999999</v>
+        <v>0.986515</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.814472</v>
+        <v>1.2795</v>
       </c>
       <c r="C104" t="n">
-        <v>0.510838</v>
+        <v>0.76689</v>
       </c>
       <c r="D104" t="n">
-        <v>0.593575</v>
+        <v>1.01979</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.661068</v>
+        <v>1.02486</v>
       </c>
       <c r="C105" t="n">
-        <v>0.52205</v>
+        <v>0.793018</v>
       </c>
       <c r="D105" t="n">
-        <v>0.644043</v>
+        <v>1.0512</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.67493</v>
+        <v>1.04844</v>
       </c>
       <c r="C106" t="n">
-        <v>0.543934</v>
+        <v>0.821228</v>
       </c>
       <c r="D106" t="n">
-        <v>0.659143</v>
+        <v>1.08702</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.702552</v>
+        <v>1.077</v>
       </c>
       <c r="C107" t="n">
-        <v>0.426222</v>
+        <v>0.6458199999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.51269</v>
+        <v>0.874621</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.752888</v>
+        <v>1.09868</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460744</v>
+        <v>0.671071</v>
       </c>
       <c r="D108" t="n">
-        <v>0.587246</v>
+        <v>0.91717</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.777094</v>
+        <v>1.11868</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467294</v>
+        <v>0.6760699999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.571882</v>
+        <v>0.924686</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.817021</v>
+        <v>1.15478</v>
       </c>
       <c r="C110" t="n">
-        <v>0.513684</v>
+        <v>0.703315</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6234</v>
+        <v>0.970425</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.861586</v>
+        <v>1.18317</v>
       </c>
       <c r="C111" t="n">
-        <v>0.497367</v>
+        <v>0.71045</v>
       </c>
       <c r="D111" t="n">
-        <v>0.618848</v>
+        <v>0.996256</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.865461</v>
+        <v>1.22055</v>
       </c>
       <c r="C112" t="n">
-        <v>0.532571</v>
+        <v>0.738594</v>
       </c>
       <c r="D112" t="n">
-        <v>0.628865</v>
+        <v>1.02646</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.855078</v>
+        <v>1.2531</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5239470000000001</v>
+        <v>0.757297</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6488080000000001</v>
+        <v>1.05435</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.88916</v>
+        <v>1.28453</v>
       </c>
       <c r="C114" t="n">
-        <v>0.53769</v>
+        <v>0.776417</v>
       </c>
       <c r="D114" t="n">
-        <v>0.67066</v>
+        <v>1.09078</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.901515</v>
+        <v>1.31995</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560667</v>
+        <v>0.796885</v>
       </c>
       <c r="D115" t="n">
-        <v>0.672773</v>
+        <v>1.12573</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.917441</v>
+        <v>1.35953</v>
       </c>
       <c r="C116" t="n">
-        <v>0.555342</v>
+        <v>0.819872</v>
       </c>
       <c r="D116" t="n">
-        <v>0.70443</v>
+        <v>1.14739</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.952315</v>
+        <v>1.39648</v>
       </c>
       <c r="C117" t="n">
-        <v>0.570181</v>
+        <v>0.842056</v>
       </c>
       <c r="D117" t="n">
-        <v>0.705858</v>
+        <v>1.17932</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.973013</v>
+        <v>1.43835</v>
       </c>
       <c r="C118" t="n">
-        <v>0.588222</v>
+        <v>0.865618</v>
       </c>
       <c r="D118" t="n">
-        <v>0.736042</v>
+        <v>1.21523</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.769799</v>
+        <v>1.11726</v>
       </c>
       <c r="C119" t="n">
-        <v>0.610408</v>
+        <v>0.8905459999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.755875</v>
+        <v>1.25158</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240325</v>
+        <v>0.268003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189007</v>
+        <v>0.176192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.150489</v>
+        <v>0.141223</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.168228</v>
+        <v>0.195558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192435</v>
+        <v>0.177548</v>
       </c>
       <c r="D3" t="n">
-        <v>0.150593</v>
+        <v>0.142163</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176105</v>
+        <v>0.202241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20026</v>
+        <v>0.184879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.153664</v>
+        <v>0.146713</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187533</v>
+        <v>0.210579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210897</v>
+        <v>0.192454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.157835</v>
+        <v>0.150087</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.195768</v>
+        <v>0.216128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.216284</v>
+        <v>0.198709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161629</v>
+        <v>0.154701</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.206273</v>
+        <v>0.223794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162551</v>
+        <v>0.160866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136944</v>
+        <v>0.138535</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216721</v>
+        <v>0.230305</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166651</v>
+        <v>0.164435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140886</v>
+        <v>0.140948</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223885</v>
+        <v>0.237317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174357</v>
+        <v>0.169448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141163</v>
+        <v>0.141783</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232541</v>
+        <v>0.245354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179483</v>
+        <v>0.174727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144007</v>
+        <v>0.145486</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.24144</v>
+        <v>0.252175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.183054</v>
+        <v>0.179016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.146287</v>
+        <v>0.147754</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.253252</v>
+        <v>0.26134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.191954</v>
+        <v>0.187431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150052</v>
+        <v>0.151438</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.26178</v>
+        <v>0.268829</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197855</v>
+        <v>0.192612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.152318</v>
+        <v>0.155636</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.27135</v>
+        <v>0.280567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203869</v>
+        <v>0.199965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.153935</v>
+        <v>0.158379</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283468</v>
+        <v>0.294712</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211052</v>
+        <v>0.206487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158788</v>
+        <v>0.163315</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.292166</v>
+        <v>0.302761</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218842</v>
+        <v>0.215272</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161902</v>
+        <v>0.167253</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.305191</v>
+        <v>0.31575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224749</v>
+        <v>0.222184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.168376</v>
+        <v>0.170841</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.215081</v>
+        <v>0.232399</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230221</v>
+        <v>0.227948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172476</v>
+        <v>0.171867</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.228206</v>
+        <v>0.240654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237733</v>
+        <v>0.237227</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177585</v>
+        <v>0.177122</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231187</v>
+        <v>0.245686</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247785</v>
+        <v>0.247004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.181303</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238916</v>
+        <v>0.251947</v>
       </c>
       <c r="C21" t="n">
-        <v>0.188991</v>
+        <v>0.196563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.158493</v>
+        <v>0.166372</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.246553</v>
+        <v>0.257589</v>
       </c>
       <c r="C22" t="n">
-        <v>0.19599</v>
+        <v>0.202309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.160888</v>
+        <v>0.169142</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.255818</v>
+        <v>0.267112</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202736</v>
+        <v>0.208606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164155</v>
+        <v>0.171647</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.263485</v>
+        <v>0.275257</v>
       </c>
       <c r="C24" t="n">
-        <v>0.205559</v>
+        <v>0.213565</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165762</v>
+        <v>0.174397</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272995</v>
+        <v>0.282892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212693</v>
+        <v>0.21892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.168695</v>
+        <v>0.176305</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.285398</v>
+        <v>0.292285</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220187</v>
+        <v>0.226276</v>
       </c>
       <c r="D26" t="n">
-        <v>0.173897</v>
+        <v>0.179927</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298961</v>
+        <v>0.300879</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22412</v>
+        <v>0.227569</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175839</v>
+        <v>0.182914</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312559</v>
+        <v>0.312498</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233487</v>
+        <v>0.233222</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181475</v>
+        <v>0.185659</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.327598</v>
+        <v>0.322195</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242947</v>
+        <v>0.239159</v>
       </c>
       <c r="D29" t="n">
-        <v>0.183734</v>
+        <v>0.188645</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.339416</v>
+        <v>0.332366</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254519</v>
+        <v>0.247505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1855</v>
+        <v>0.192708</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.358651</v>
+        <v>0.34445</v>
       </c>
       <c r="C31" t="n">
-        <v>0.261934</v>
+        <v>0.251607</v>
       </c>
       <c r="D31" t="n">
-        <v>0.190237</v>
+        <v>0.195387</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.278306</v>
+        <v>0.248691</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276106</v>
+        <v>0.26199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.192757</v>
+        <v>0.199557</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.290342</v>
+        <v>0.254598</v>
       </c>
       <c r="C33" t="n">
-        <v>0.287062</v>
+        <v>0.268749</v>
       </c>
       <c r="D33" t="n">
-        <v>0.201157</v>
+        <v>0.203947</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.299528</v>
+        <v>0.261266</v>
       </c>
       <c r="C34" t="n">
-        <v>0.300445</v>
+        <v>0.27758</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205854</v>
+        <v>0.209994</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.314432</v>
+        <v>0.268695</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234982</v>
+        <v>0.209156</v>
       </c>
       <c r="D35" t="n">
-        <v>0.184364</v>
+        <v>0.181641</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.322688</v>
+        <v>0.274169</v>
       </c>
       <c r="C36" t="n">
-        <v>0.246322</v>
+        <v>0.21539</v>
       </c>
       <c r="D36" t="n">
-        <v>0.188106</v>
+        <v>0.18379</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.334333</v>
+        <v>0.281002</v>
       </c>
       <c r="C37" t="n">
-        <v>0.253929</v>
+        <v>0.219692</v>
       </c>
       <c r="D37" t="n">
-        <v>0.192219</v>
+        <v>0.185989</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348065</v>
+        <v>0.288814</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261964</v>
+        <v>0.224812</v>
       </c>
       <c r="D38" t="n">
-        <v>0.197342</v>
+        <v>0.189029</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.357021</v>
+        <v>0.295563</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27066</v>
+        <v>0.230014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2035</v>
+        <v>0.191807</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.371586</v>
+        <v>0.304633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.279944</v>
+        <v>0.236215</v>
       </c>
       <c r="D40" t="n">
-        <v>0.208401</v>
+        <v>0.194995</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.385472</v>
+        <v>0.314601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28801</v>
+        <v>0.241849</v>
       </c>
       <c r="D41" t="n">
-        <v>0.212733</v>
+        <v>0.197747</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.402986</v>
+        <v>0.325051</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294771</v>
+        <v>0.245095</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217919</v>
+        <v>0.200714</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.418575</v>
+        <v>0.335612</v>
       </c>
       <c r="C43" t="n">
-        <v>0.304228</v>
+        <v>0.251781</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223375</v>
+        <v>0.204215</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.431006</v>
+        <v>0.344457</v>
       </c>
       <c r="C44" t="n">
-        <v>0.315844</v>
+        <v>0.259508</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227819</v>
+        <v>0.20724</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.446748</v>
+        <v>0.355548</v>
       </c>
       <c r="C45" t="n">
-        <v>0.325238</v>
+        <v>0.265408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231766</v>
+        <v>0.210104</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.463938</v>
+        <v>0.368225</v>
       </c>
       <c r="C46" t="n">
-        <v>0.337064</v>
+        <v>0.273088</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239627</v>
+        <v>0.214379</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.337822</v>
+        <v>0.259448</v>
       </c>
       <c r="C47" t="n">
-        <v>0.345511</v>
+        <v>0.280151</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241679</v>
+        <v>0.217776</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.346282</v>
+        <v>0.265347</v>
       </c>
       <c r="C48" t="n">
-        <v>0.356861</v>
+        <v>0.287999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249191</v>
+        <v>0.222064</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356302</v>
+        <v>0.27171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.369536</v>
+        <v>0.296935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253537</v>
+        <v>0.225291</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.366699</v>
+        <v>0.278608</v>
       </c>
       <c r="C50" t="n">
-        <v>0.278515</v>
+        <v>0.219584</v>
       </c>
       <c r="D50" t="n">
-        <v>0.225363</v>
+        <v>0.185683</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.374879</v>
+        <v>0.285426</v>
       </c>
       <c r="C51" t="n">
-        <v>0.284781</v>
+        <v>0.224374</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226844</v>
+        <v>0.187332</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.385424</v>
+        <v>0.292061</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292396</v>
+        <v>0.229357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23284</v>
+        <v>0.190671</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.398032</v>
+        <v>0.301173</v>
       </c>
       <c r="C53" t="n">
-        <v>0.301238</v>
+        <v>0.23573</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23702</v>
+        <v>0.19372</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.409124</v>
+        <v>0.309609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.308916</v>
+        <v>0.241045</v>
       </c>
       <c r="D54" t="n">
-        <v>0.240038</v>
+        <v>0.196105</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.422746</v>
+        <v>0.318426</v>
       </c>
       <c r="C55" t="n">
-        <v>0.317279</v>
+        <v>0.246923</v>
       </c>
       <c r="D55" t="n">
-        <v>0.246362</v>
+        <v>0.199842</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.43676</v>
+        <v>0.32875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323746</v>
+        <v>0.252089</v>
       </c>
       <c r="D56" t="n">
-        <v>0.248118</v>
+        <v>0.202019</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.449388</v>
+        <v>0.337875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.333343</v>
+        <v>0.258728</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252688</v>
+        <v>0.205635</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.463723</v>
+        <v>0.348346</v>
       </c>
       <c r="C58" t="n">
-        <v>0.343249</v>
+        <v>0.266121</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258776</v>
+        <v>0.20894</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.478544</v>
+        <v>0.359157</v>
       </c>
       <c r="C59" t="n">
-        <v>0.351514</v>
+        <v>0.272413</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261611</v>
+        <v>0.211761</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.494215</v>
+        <v>0.369603</v>
       </c>
       <c r="C60" t="n">
-        <v>0.360979</v>
+        <v>0.278842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.269941</v>
+        <v>0.21638</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.37145</v>
+        <v>0.26499</v>
       </c>
       <c r="C61" t="n">
-        <v>0.375061</v>
+        <v>0.288183</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273924</v>
+        <v>0.219656</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.379618</v>
+        <v>0.273233</v>
       </c>
       <c r="C62" t="n">
-        <v>0.38998</v>
+        <v>0.296032</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2832</v>
+        <v>0.223833</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.395062</v>
+        <v>0.282945</v>
       </c>
       <c r="C63" t="n">
-        <v>0.406749</v>
+        <v>0.305388</v>
       </c>
       <c r="D63" t="n">
-        <v>0.288153</v>
+        <v>0.227578</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.410506</v>
+        <v>0.293986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.313338</v>
+        <v>0.234434</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252262</v>
+        <v>0.197222</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.422325</v>
+        <v>0.302386</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32266</v>
+        <v>0.241294</v>
       </c>
       <c r="D65" t="n">
-        <v>0.256599</v>
+        <v>0.198528</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.438662</v>
+        <v>0.31205</v>
       </c>
       <c r="C66" t="n">
-        <v>0.333281</v>
+        <v>0.250399</v>
       </c>
       <c r="D66" t="n">
-        <v>0.260841</v>
+        <v>0.20264</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.452349</v>
+        <v>0.324908</v>
       </c>
       <c r="C67" t="n">
-        <v>0.345305</v>
+        <v>0.257539</v>
       </c>
       <c r="D67" t="n">
-        <v>0.268269</v>
+        <v>0.207057</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.470005</v>
+        <v>0.338223</v>
       </c>
       <c r="C68" t="n">
-        <v>0.351692</v>
+        <v>0.266816</v>
       </c>
       <c r="D68" t="n">
-        <v>0.272314</v>
+        <v>0.211208</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.48409</v>
+        <v>0.351901</v>
       </c>
       <c r="C69" t="n">
-        <v>0.368731</v>
+        <v>0.279739</v>
       </c>
       <c r="D69" t="n">
-        <v>0.285895</v>
+        <v>0.216478</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.529968</v>
+        <v>0.367802</v>
       </c>
       <c r="C70" t="n">
-        <v>0.399281</v>
+        <v>0.286121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.299822</v>
+        <v>0.222588</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.572897</v>
+        <v>0.38822</v>
       </c>
       <c r="C71" t="n">
-        <v>0.405626</v>
+        <v>0.299276</v>
       </c>
       <c r="D71" t="n">
-        <v>0.293546</v>
+        <v>0.226036</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.552952</v>
+        <v>0.40948</v>
       </c>
       <c r="C72" t="n">
-        <v>0.411775</v>
+        <v>0.313804</v>
       </c>
       <c r="D72" t="n">
-        <v>0.302252</v>
+        <v>0.233543</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5742350000000001</v>
+        <v>0.43363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.420517</v>
+        <v>0.333756</v>
       </c>
       <c r="D73" t="n">
-        <v>0.31009</v>
+        <v>0.241159</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.593036</v>
+        <v>0.463996</v>
       </c>
       <c r="C74" t="n">
-        <v>0.433129</v>
+        <v>0.353337</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315113</v>
+        <v>0.245745</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6025199999999999</v>
+        <v>0.495938</v>
       </c>
       <c r="C75" t="n">
-        <v>0.435947</v>
+        <v>0.376276</v>
       </c>
       <c r="D75" t="n">
-        <v>0.316793</v>
+        <v>0.255354</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.420013</v>
+        <v>0.431197</v>
       </c>
       <c r="C76" t="n">
-        <v>0.452735</v>
+        <v>0.405494</v>
       </c>
       <c r="D76" t="n">
-        <v>0.323338</v>
+        <v>0.26423</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.431277</v>
+        <v>0.452665</v>
       </c>
       <c r="C77" t="n">
-        <v>0.467389</v>
+        <v>0.431659</v>
       </c>
       <c r="D77" t="n">
-        <v>0.330971</v>
+        <v>0.275683</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.44977</v>
+        <v>0.479529</v>
       </c>
       <c r="C78" t="n">
-        <v>0.344919</v>
+        <v>0.372082</v>
       </c>
       <c r="D78" t="n">
-        <v>0.272432</v>
+        <v>0.261414</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.461652</v>
+        <v>0.521626</v>
       </c>
       <c r="C79" t="n">
-        <v>0.356134</v>
+        <v>0.396371</v>
       </c>
       <c r="D79" t="n">
-        <v>0.276648</v>
+        <v>0.271601</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.476151</v>
+        <v>0.55759</v>
       </c>
       <c r="C80" t="n">
-        <v>0.371175</v>
+        <v>0.419258</v>
       </c>
       <c r="D80" t="n">
-        <v>0.282641</v>
+        <v>0.28569</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.494647</v>
+        <v>0.59872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381159</v>
+        <v>0.451378</v>
       </c>
       <c r="D81" t="n">
-        <v>0.290743</v>
+        <v>0.301107</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.513792</v>
+        <v>0.63465</v>
       </c>
       <c r="C82" t="n">
-        <v>0.388311</v>
+        <v>0.487332</v>
       </c>
       <c r="D82" t="n">
-        <v>0.298511</v>
+        <v>0.320623</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.53496</v>
+        <v>0.683576</v>
       </c>
       <c r="C83" t="n">
-        <v>0.397408</v>
+        <v>0.525668</v>
       </c>
       <c r="D83" t="n">
-        <v>0.300892</v>
+        <v>0.335474</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.557944</v>
+        <v>0.739005</v>
       </c>
       <c r="C84" t="n">
-        <v>0.418768</v>
+        <v>0.56343</v>
       </c>
       <c r="D84" t="n">
-        <v>0.310802</v>
+        <v>0.358819</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.57145</v>
+        <v>0.790285</v>
       </c>
       <c r="C85" t="n">
-        <v>0.424537</v>
+        <v>0.600449</v>
       </c>
       <c r="D85" t="n">
-        <v>0.315906</v>
+        <v>0.377744</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.582286</v>
+        <v>0.84967</v>
       </c>
       <c r="C86" t="n">
-        <v>0.455447</v>
+        <v>0.639606</v>
       </c>
       <c r="D86" t="n">
-        <v>0.401971</v>
+        <v>0.396974</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.627452</v>
+        <v>0.912086</v>
       </c>
       <c r="C87" t="n">
-        <v>0.467655</v>
+        <v>0.688666</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343356</v>
+        <v>0.422614</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.638019</v>
+        <v>0.976217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.474846</v>
+        <v>0.728363</v>
       </c>
       <c r="D88" t="n">
-        <v>0.343232</v>
+        <v>0.44654</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.677997</v>
+        <v>1.04667</v>
       </c>
       <c r="C89" t="n">
-        <v>0.493531</v>
+        <v>0.779429</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35167</v>
+        <v>0.47142</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.50775</v>
+        <v>0.829066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.511286</v>
+        <v>0.825823</v>
       </c>
       <c r="D90" t="n">
-        <v>0.369403</v>
+        <v>0.497734</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5378849999999999</v>
+        <v>0.8623729999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.53809</v>
+        <v>0.878958</v>
       </c>
       <c r="D91" t="n">
-        <v>0.375283</v>
+        <v>0.519142</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.55318</v>
+        <v>0.899109</v>
       </c>
       <c r="C92" t="n">
-        <v>0.429629</v>
+        <v>0.701251</v>
       </c>
       <c r="D92" t="n">
-        <v>0.338613</v>
+        <v>0.504103</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.639608</v>
+        <v>0.939827</v>
       </c>
       <c r="C93" t="n">
-        <v>0.452279</v>
+        <v>0.729467</v>
       </c>
       <c r="D93" t="n">
-        <v>0.457162</v>
+        <v>0.519475</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.810622</v>
+        <v>0.981662</v>
       </c>
       <c r="C94" t="n">
-        <v>0.588826</v>
+        <v>0.759599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.437879</v>
+        <v>0.536519</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.838407</v>
+        <v>1.0278</v>
       </c>
       <c r="C95" t="n">
-        <v>0.581292</v>
+        <v>0.790775</v>
       </c>
       <c r="D95" t="n">
-        <v>0.409076</v>
+        <v>0.552926</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.795436</v>
+        <v>1.06795</v>
       </c>
       <c r="C96" t="n">
-        <v>0.583444</v>
+        <v>0.826134</v>
       </c>
       <c r="D96" t="n">
-        <v>0.421365</v>
+        <v>0.571292</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.787399</v>
+        <v>1.11213</v>
       </c>
       <c r="C97" t="n">
-        <v>0.595788</v>
+        <v>0.860434</v>
       </c>
       <c r="D97" t="n">
-        <v>0.381734</v>
+        <v>0.59228</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.72825</v>
+        <v>1.16228</v>
       </c>
       <c r="C98" t="n">
-        <v>0.545943</v>
+        <v>0.889775</v>
       </c>
       <c r="D98" t="n">
-        <v>0.373417</v>
+        <v>0.609641</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.798173</v>
+        <v>1.20393</v>
       </c>
       <c r="C99" t="n">
-        <v>0.596066</v>
+        <v>0.9260969999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.377025</v>
+        <v>0.630894</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.898566</v>
+        <v>1.24791</v>
       </c>
       <c r="C100" t="n">
-        <v>0.71876</v>
+        <v>0.962083</v>
       </c>
       <c r="D100" t="n">
-        <v>0.398234</v>
+        <v>0.653738</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.86046</v>
+        <v>1.29948</v>
       </c>
       <c r="C101" t="n">
-        <v>0.696052</v>
+        <v>0.995173</v>
       </c>
       <c r="D101" t="n">
-        <v>0.541111</v>
+        <v>0.677942</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.05624</v>
+        <v>1.3572</v>
       </c>
       <c r="C102" t="n">
-        <v>0.703417</v>
+        <v>1.03114</v>
       </c>
       <c r="D102" t="n">
-        <v>0.49152</v>
+        <v>0.703249</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.01461</v>
+        <v>1.41788</v>
       </c>
       <c r="C103" t="n">
-        <v>0.65172</v>
+        <v>1.07129</v>
       </c>
       <c r="D103" t="n">
-        <v>0.435025</v>
+        <v>0.724171</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.918536</v>
+        <v>1.48485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.67433</v>
+        <v>1.1128</v>
       </c>
       <c r="D104" t="n">
-        <v>0.447472</v>
+        <v>0.751851</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.684622</v>
+        <v>1.01737</v>
       </c>
       <c r="C105" t="n">
-        <v>0.710187</v>
+        <v>1.15877</v>
       </c>
       <c r="D105" t="n">
-        <v>0.467968</v>
+        <v>0.777935</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.741075</v>
+        <v>1.05963</v>
       </c>
       <c r="C106" t="n">
-        <v>0.751263</v>
+        <v>1.19462</v>
       </c>
       <c r="D106" t="n">
-        <v>0.496045</v>
+        <v>0.7897690000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.760431</v>
+        <v>1.09659</v>
       </c>
       <c r="C107" t="n">
-        <v>0.589086</v>
+        <v>0.862554</v>
       </c>
       <c r="D107" t="n">
-        <v>0.422414</v>
+        <v>0.678741</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8025949999999999</v>
+        <v>1.13466</v>
       </c>
       <c r="C108" t="n">
-        <v>0.598261</v>
+        <v>0.893879</v>
       </c>
       <c r="D108" t="n">
-        <v>0.444949</v>
+        <v>0.706792</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.815841</v>
+        <v>1.16789</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6294</v>
+        <v>0.912996</v>
       </c>
       <c r="D109" t="n">
-        <v>0.488207</v>
+        <v>0.714727</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.860277</v>
+        <v>1.2245</v>
       </c>
       <c r="C110" t="n">
-        <v>0.639095</v>
+        <v>0.9515980000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4672</v>
+        <v>0.747591</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.970442</v>
+        <v>1.26798</v>
       </c>
       <c r="C111" t="n">
-        <v>0.694338</v>
+        <v>0.982171</v>
       </c>
       <c r="D111" t="n">
-        <v>0.474635</v>
+        <v>0.765411</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.934163</v>
+        <v>1.31651</v>
       </c>
       <c r="C112" t="n">
-        <v>0.687612</v>
+        <v>1.01522</v>
       </c>
       <c r="D112" t="n">
-        <v>0.508077</v>
+        <v>0.784045</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.962982</v>
+        <v>1.3714</v>
       </c>
       <c r="C113" t="n">
-        <v>0.708233</v>
+        <v>1.05108</v>
       </c>
       <c r="D113" t="n">
-        <v>0.510305</v>
+        <v>0.804374</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.975579</v>
+        <v>1.42698</v>
       </c>
       <c r="C114" t="n">
-        <v>0.722768</v>
+        <v>1.08513</v>
       </c>
       <c r="D114" t="n">
-        <v>0.513501</v>
+        <v>0.825049</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.991704</v>
+        <v>1.48168</v>
       </c>
       <c r="C115" t="n">
-        <v>0.744972</v>
+        <v>1.1259</v>
       </c>
       <c r="D115" t="n">
-        <v>0.539995</v>
+        <v>0.843849</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.08287</v>
+        <v>1.54395</v>
       </c>
       <c r="C116" t="n">
-        <v>0.825253</v>
+        <v>1.16624</v>
       </c>
       <c r="D116" t="n">
-        <v>0.621919</v>
+        <v>0.866521</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15518</v>
+        <v>1.60785</v>
       </c>
       <c r="C117" t="n">
-        <v>0.824753</v>
+        <v>1.21052</v>
       </c>
       <c r="D117" t="n">
-        <v>0.60795</v>
+        <v>0.892575</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13197</v>
+        <v>1.6754</v>
       </c>
       <c r="C118" t="n">
-        <v>0.816445</v>
+        <v>1.25962</v>
       </c>
       <c r="D118" t="n">
-        <v>0.655424</v>
+        <v>0.915691</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.820033</v>
+        <v>1.10794</v>
       </c>
       <c r="C119" t="n">
-        <v>0.911238</v>
+        <v>1.30496</v>
       </c>
       <c r="D119" t="n">
-        <v>0.714302</v>
+        <v>0.937371</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.550068</v>
+        <v>0.575902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457824</v>
+        <v>0.390362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238054</v>
+        <v>0.248606</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.576482</v>
+        <v>0.592753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.470122</v>
+        <v>0.400177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246931</v>
+        <v>0.254925</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.604853</v>
+        <v>0.619048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.489257</v>
+        <v>0.419242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256926</v>
+        <v>0.262493</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.638619</v>
+        <v>0.644781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.509674</v>
+        <v>0.442148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269069</v>
+        <v>0.269944</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.661626</v>
+        <v>0.669836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523019</v>
+        <v>0.453249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.281414</v>
+        <v>0.279562</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6918260000000001</v>
+        <v>0.695583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.546511</v>
+        <v>0.475638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.289276</v>
+        <v>0.28439</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.718476</v>
+        <v>0.721596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.562466</v>
+        <v>0.496638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297534</v>
+        <v>0.291375</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.747652</v>
+        <v>0.751409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.582014</v>
+        <v>0.515829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309275</v>
+        <v>0.297539</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7780860000000001</v>
+        <v>0.782359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.603654</v>
+        <v>0.5516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322808</v>
+        <v>0.311196</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.807949</v>
+        <v>0.8196639999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.401101</v>
+        <v>0.374384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.236464</v>
+        <v>0.235693</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.510279</v>
+        <v>0.520814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.418543</v>
+        <v>0.392521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249434</v>
+        <v>0.24596</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5278890000000001</v>
+        <v>0.542513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.432387</v>
+        <v>0.410781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257991</v>
+        <v>0.252098</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.552123</v>
+        <v>0.566908</v>
       </c>
       <c r="C14" t="n">
-        <v>0.449699</v>
+        <v>0.429593</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265718</v>
+        <v>0.258548</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.576315</v>
+        <v>0.59717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.471962</v>
+        <v>0.466349</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276299</v>
+        <v>0.268717</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.598648</v>
+        <v>0.62066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.483789</v>
+        <v>0.483134</v>
       </c>
       <c r="D16" t="n">
-        <v>0.285837</v>
+        <v>0.277424</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.623268</v>
+        <v>0.654348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.508732</v>
+        <v>0.510565</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29733</v>
+        <v>0.28828</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.645397</v>
+        <v>0.685914</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525099</v>
+        <v>0.54204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305878</v>
+        <v>0.296158</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6725100000000001</v>
+        <v>0.724952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.544274</v>
+        <v>0.5667410000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31608</v>
+        <v>0.307862</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.698577</v>
+        <v>0.760414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.558113</v>
+        <v>0.597629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.325158</v>
+        <v>0.317086</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.72318</v>
+        <v>0.801444</v>
       </c>
       <c r="C21" t="n">
-        <v>0.577633</v>
+        <v>0.632293</v>
       </c>
       <c r="D21" t="n">
-        <v>0.334331</v>
+        <v>0.331804</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.749692</v>
+        <v>0.840941</v>
       </c>
       <c r="C22" t="n">
-        <v>0.595536</v>
+        <v>0.6677110000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343313</v>
+        <v>0.341737</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.778911</v>
+        <v>0.891415</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6165929999999999</v>
+        <v>0.700641</v>
       </c>
       <c r="D23" t="n">
-        <v>0.350315</v>
+        <v>0.352791</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.804267</v>
+        <v>0.931597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.631444</v>
+        <v>0.736707</v>
       </c>
       <c r="D24" t="n">
-        <v>0.35898</v>
+        <v>0.365362</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.826476</v>
+        <v>0.972776</v>
       </c>
       <c r="C25" t="n">
-        <v>0.654578</v>
+        <v>0.760954</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368727</v>
+        <v>0.378742</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8625389999999999</v>
+        <v>1.01341</v>
       </c>
       <c r="C26" t="n">
-        <v>0.432289</v>
+        <v>0.485374</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265206</v>
+        <v>0.273992</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.558474</v>
+        <v>0.647979</v>
       </c>
       <c r="C27" t="n">
-        <v>0.445827</v>
+        <v>0.50731</v>
       </c>
       <c r="D27" t="n">
-        <v>0.273717</v>
+        <v>0.282575</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.583511</v>
+        <v>0.674975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.471195</v>
+        <v>0.536111</v>
       </c>
       <c r="D28" t="n">
-        <v>0.283666</v>
+        <v>0.291013</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.614357</v>
+        <v>0.707697</v>
       </c>
       <c r="C29" t="n">
-        <v>0.494488</v>
+        <v>0.558355</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291386</v>
+        <v>0.301634</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.645143</v>
+        <v>0.745164</v>
       </c>
       <c r="C30" t="n">
-        <v>0.517504</v>
+        <v>0.585074</v>
       </c>
       <c r="D30" t="n">
-        <v>0.303665</v>
+        <v>0.316912</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6795369999999999</v>
+        <v>0.778466</v>
       </c>
       <c r="C31" t="n">
-        <v>0.546383</v>
+        <v>0.623512</v>
       </c>
       <c r="D31" t="n">
-        <v>0.311359</v>
+        <v>0.318447</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.729057</v>
+        <v>0.81581</v>
       </c>
       <c r="C32" t="n">
-        <v>0.585372</v>
+        <v>0.6466190000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.321272</v>
+        <v>0.334398</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.780308</v>
+        <v>0.860232</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6214769999999999</v>
+        <v>0.67798</v>
       </c>
       <c r="D33" t="n">
-        <v>0.329613</v>
+        <v>0.346257</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.833565</v>
+        <v>0.902388</v>
       </c>
       <c r="C34" t="n">
-        <v>0.661922</v>
+        <v>0.719122</v>
       </c>
       <c r="D34" t="n">
-        <v>0.336013</v>
+        <v>0.357328</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.887242</v>
+        <v>0.94419</v>
       </c>
       <c r="C35" t="n">
-        <v>0.703833</v>
+        <v>0.749875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.347056</v>
+        <v>0.364217</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.944423</v>
+        <v>0.979382</v>
       </c>
       <c r="C36" t="n">
-        <v>0.743883</v>
+        <v>0.781069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.361346</v>
+        <v>0.378096</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0035</v>
+        <v>1.03055</v>
       </c>
       <c r="C37" t="n">
-        <v>0.800658</v>
+        <v>0.81423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.374576</v>
+        <v>0.389944</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.06358</v>
+        <v>1.0679</v>
       </c>
       <c r="C38" t="n">
-        <v>0.844431</v>
+        <v>0.8583190000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.388406</v>
+        <v>0.39587</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.13114</v>
+        <v>1.1234</v>
       </c>
       <c r="C39" t="n">
-        <v>0.899788</v>
+        <v>0.887696</v>
       </c>
       <c r="D39" t="n">
-        <v>0.407404</v>
+        <v>0.414276</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.19644</v>
+        <v>1.16658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5774629999999999</v>
+        <v>0.544578</v>
       </c>
       <c r="D40" t="n">
-        <v>0.31262</v>
+        <v>0.314655</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7578859999999999</v>
+        <v>0.704</v>
       </c>
       <c r="C41" t="n">
-        <v>0.606204</v>
+        <v>0.5631080000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.325029</v>
+        <v>0.324594</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.801244</v>
+        <v>0.734202</v>
       </c>
       <c r="C42" t="n">
-        <v>0.637222</v>
+        <v>0.5914779999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.339512</v>
+        <v>0.333534</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.843102</v>
+        <v>0.768706</v>
       </c>
       <c r="C43" t="n">
-        <v>0.670243</v>
+        <v>0.619668</v>
       </c>
       <c r="D43" t="n">
-        <v>0.354015</v>
+        <v>0.344574</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.887827</v>
+        <v>0.805409</v>
       </c>
       <c r="C44" t="n">
-        <v>0.712978</v>
+        <v>0.649743</v>
       </c>
       <c r="D44" t="n">
-        <v>0.369053</v>
+        <v>0.355698</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.936625</v>
+        <v>0.840154</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7487549999999999</v>
+        <v>0.678739</v>
       </c>
       <c r="D45" t="n">
-        <v>0.381588</v>
+        <v>0.360965</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.989192</v>
+        <v>0.8825809999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.78822</v>
+        <v>0.709978</v>
       </c>
       <c r="D46" t="n">
-        <v>0.395327</v>
+        <v>0.374511</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0409</v>
+        <v>0.923385</v>
       </c>
       <c r="C47" t="n">
-        <v>0.821083</v>
+        <v>0.742296</v>
       </c>
       <c r="D47" t="n">
-        <v>0.412385</v>
+        <v>0.386041</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.09302</v>
+        <v>0.963032</v>
       </c>
       <c r="C48" t="n">
-        <v>0.871408</v>
+        <v>0.7751749999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.425408</v>
+        <v>0.398973</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.14635</v>
+        <v>1.00534</v>
       </c>
       <c r="C49" t="n">
-        <v>0.911923</v>
+        <v>0.811144</v>
       </c>
       <c r="D49" t="n">
-        <v>0.441095</v>
+        <v>0.409252</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.19853</v>
+        <v>1.04559</v>
       </c>
       <c r="C50" t="n">
-        <v>0.969108</v>
+        <v>0.848158</v>
       </c>
       <c r="D50" t="n">
-        <v>0.457882</v>
+        <v>0.421491</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.26497</v>
+        <v>1.09259</v>
       </c>
       <c r="C51" t="n">
-        <v>1.00977</v>
+        <v>0.885783</v>
       </c>
       <c r="D51" t="n">
-        <v>0.47059</v>
+        <v>0.43535</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.32595</v>
+        <v>1.13318</v>
       </c>
       <c r="C52" t="n">
-        <v>1.06528</v>
+        <v>0.920201</v>
       </c>
       <c r="D52" t="n">
-        <v>0.489127</v>
+        <v>0.447107</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.38574</v>
+        <v>1.17995</v>
       </c>
       <c r="C53" t="n">
-        <v>1.12049</v>
+        <v>0.957422</v>
       </c>
       <c r="D53" t="n">
-        <v>0.503204</v>
+        <v>0.458261</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.45214</v>
+        <v>1.22321</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6770040000000001</v>
+        <v>0.573306</v>
       </c>
       <c r="D54" t="n">
-        <v>0.366688</v>
+        <v>0.340854</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.51705</v>
+        <v>1.26858</v>
       </c>
       <c r="C55" t="n">
-        <v>0.706028</v>
+        <v>0.59662</v>
       </c>
       <c r="D55" t="n">
-        <v>0.37661</v>
+        <v>0.348964</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9037269999999999</v>
+        <v>0.749691</v>
       </c>
       <c r="C56" t="n">
-        <v>0.741857</v>
+        <v>0.621874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.391097</v>
+        <v>0.359328</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.947058</v>
+        <v>0.784155</v>
       </c>
       <c r="C57" t="n">
-        <v>0.772321</v>
+        <v>0.647353</v>
       </c>
       <c r="D57" t="n">
-        <v>0.406786</v>
+        <v>0.369712</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.990742</v>
+        <v>0.818531</v>
       </c>
       <c r="C58" t="n">
-        <v>0.81267</v>
+        <v>0.677276</v>
       </c>
       <c r="D58" t="n">
-        <v>0.41631</v>
+        <v>0.378327</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.03682</v>
+        <v>0.851231</v>
       </c>
       <c r="C59" t="n">
-        <v>0.849658</v>
+        <v>0.708815</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437589</v>
+        <v>0.391893</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.08799</v>
+        <v>0.89366</v>
       </c>
       <c r="C60" t="n">
-        <v>0.895037</v>
+        <v>0.738641</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452635</v>
+        <v>0.402729</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.13768</v>
+        <v>0.931924</v>
       </c>
       <c r="C61" t="n">
-        <v>0.934565</v>
+        <v>0.773932</v>
       </c>
       <c r="D61" t="n">
-        <v>0.463923</v>
+        <v>0.411638</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.18936</v>
+        <v>0.971566</v>
       </c>
       <c r="C62" t="n">
-        <v>0.98482</v>
+        <v>0.807122</v>
       </c>
       <c r="D62" t="n">
-        <v>0.482324</v>
+        <v>0.424252</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.24928</v>
+        <v>1.01514</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02559</v>
+        <v>0.84237</v>
       </c>
       <c r="D63" t="n">
-        <v>0.490343</v>
+        <v>0.433242</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.3078</v>
+        <v>1.06412</v>
       </c>
       <c r="C64" t="n">
-        <v>1.07508</v>
+        <v>0.880464</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5111</v>
+        <v>0.446539</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.36948</v>
+        <v>1.10588</v>
       </c>
       <c r="C65" t="n">
-        <v>1.12926</v>
+        <v>0.917589</v>
       </c>
       <c r="D65" t="n">
-        <v>0.528031</v>
+        <v>0.460704</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.43433</v>
+        <v>1.156</v>
       </c>
       <c r="C66" t="n">
-        <v>1.18677</v>
+        <v>0.957155</v>
       </c>
       <c r="D66" t="n">
-        <v>0.544169</v>
+        <v>0.472858</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.4925</v>
+        <v>1.20305</v>
       </c>
       <c r="C67" t="n">
-        <v>1.24606</v>
+        <v>0.999806</v>
       </c>
       <c r="D67" t="n">
-        <v>0.562568</v>
+        <v>0.486718</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.55937</v>
+        <v>1.26022</v>
       </c>
       <c r="C68" t="n">
-        <v>0.725449</v>
+        <v>0.591067</v>
       </c>
       <c r="D68" t="n">
-        <v>0.393965</v>
+        <v>0.350021</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.65963</v>
+        <v>1.32758</v>
       </c>
       <c r="C69" t="n">
-        <v>0.740933</v>
+        <v>0.624447</v>
       </c>
       <c r="D69" t="n">
-        <v>0.413305</v>
+        <v>0.36301</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.995824</v>
+        <v>0.7997649999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.787462</v>
+        <v>0.6635180000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.426635</v>
+        <v>0.376275</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00075</v>
+        <v>0.8488869999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.81618</v>
+        <v>0.706564</v>
       </c>
       <c r="D71" t="n">
-        <v>0.432113</v>
+        <v>0.388353</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.03785</v>
+        <v>0.90057</v>
       </c>
       <c r="C72" t="n">
-        <v>0.855382</v>
+        <v>0.749866</v>
       </c>
       <c r="D72" t="n">
-        <v>0.441952</v>
+        <v>0.402101</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.08806</v>
+        <v>0.9583469999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.900464</v>
+        <v>0.796915</v>
       </c>
       <c r="D73" t="n">
-        <v>0.459935</v>
+        <v>0.419078</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12888</v>
+        <v>1.01965</v>
       </c>
       <c r="C74" t="n">
-        <v>0.924817</v>
+        <v>0.84722</v>
       </c>
       <c r="D74" t="n">
-        <v>0.476915</v>
+        <v>0.436578</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17903</v>
+        <v>1.10051</v>
       </c>
       <c r="C75" t="n">
-        <v>0.970299</v>
+        <v>0.917571</v>
       </c>
       <c r="D75" t="n">
-        <v>0.485162</v>
+        <v>0.451317</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23404</v>
+        <v>1.18101</v>
       </c>
       <c r="C76" t="n">
-        <v>1.01362</v>
+        <v>0.985123</v>
       </c>
       <c r="D76" t="n">
-        <v>0.495701</v>
+        <v>0.471971</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28288</v>
+        <v>1.28747</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06564</v>
+        <v>1.06995</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5068279999999999</v>
+        <v>0.490677</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34459</v>
+        <v>1.39934</v>
       </c>
       <c r="C78" t="n">
-        <v>1.11364</v>
+        <v>1.16695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.536683</v>
+        <v>0.519513</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.40542</v>
+        <v>1.5432</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16357</v>
+        <v>1.28789</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5528110000000001</v>
+        <v>0.552342</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.46319</v>
+        <v>1.69163</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21896</v>
+        <v>1.41602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.561653</v>
+        <v>0.588601</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.52593</v>
+        <v>1.85964</v>
       </c>
       <c r="C81" t="n">
-        <v>1.28343</v>
+        <v>1.56451</v>
       </c>
       <c r="D81" t="n">
-        <v>0.587848</v>
+        <v>0.629868</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.60103</v>
+        <v>2.04681</v>
       </c>
       <c r="C82" t="n">
-        <v>1.34067</v>
+        <v>1.73544</v>
       </c>
       <c r="D82" t="n">
-        <v>0.581261</v>
+        <v>0.64352</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.65799</v>
+        <v>2.26285</v>
       </c>
       <c r="C83" t="n">
-        <v>0.768388</v>
+        <v>1.10754</v>
       </c>
       <c r="D83" t="n">
-        <v>0.42909</v>
+        <v>0.50062</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.73202</v>
+        <v>2.5106</v>
       </c>
       <c r="C84" t="n">
-        <v>0.798756</v>
+        <v>1.21427</v>
       </c>
       <c r="D84" t="n">
-        <v>0.442841</v>
+        <v>0.547036</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.20581</v>
+        <v>1.59906</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03467</v>
+        <v>1.35045</v>
       </c>
       <c r="D85" t="n">
-        <v>0.459659</v>
+        <v>0.588458</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.05531</v>
+        <v>1.76427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.883899</v>
+        <v>1.4875</v>
       </c>
       <c r="D86" t="n">
-        <v>0.470032</v>
+        <v>0.623244</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.10184</v>
+        <v>1.9431</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9191009999999999</v>
+        <v>1.6384</v>
       </c>
       <c r="D87" t="n">
-        <v>0.484794</v>
+        <v>0.673185</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.18565</v>
+        <v>2.15826</v>
       </c>
       <c r="C88" t="n">
-        <v>0.982733</v>
+        <v>1.81978</v>
       </c>
       <c r="D88" t="n">
-        <v>0.509507</v>
+        <v>0.72382</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.27533</v>
+        <v>2.38002</v>
       </c>
       <c r="C89" t="n">
-        <v>1.11851</v>
+        <v>2.0171</v>
       </c>
       <c r="D89" t="n">
-        <v>0.515147</v>
+        <v>0.78567</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.27793</v>
+        <v>2.61529</v>
       </c>
       <c r="C90" t="n">
-        <v>1.07075</v>
+        <v>2.21521</v>
       </c>
       <c r="D90" t="n">
-        <v>0.533705</v>
+        <v>0.845377</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.39631</v>
+        <v>2.87554</v>
       </c>
       <c r="C91" t="n">
-        <v>1.34693</v>
+        <v>2.42274</v>
       </c>
       <c r="D91" t="n">
-        <v>0.653436</v>
+        <v>0.895618</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.87732</v>
+        <v>3.13677</v>
       </c>
       <c r="C92" t="n">
-        <v>1.63013</v>
+        <v>2.66691</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63491</v>
+        <v>0.980006</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.98446</v>
+        <v>3.43154</v>
       </c>
       <c r="C93" t="n">
-        <v>1.66014</v>
+        <v>2.91513</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6480669999999999</v>
+        <v>1.05671</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.1412</v>
+        <v>3.72542</v>
       </c>
       <c r="C94" t="n">
-        <v>1.76463</v>
+        <v>3.18594</v>
       </c>
       <c r="D94" t="n">
-        <v>0.686462</v>
+        <v>1.13844</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.20486</v>
+        <v>4.04153</v>
       </c>
       <c r="C95" t="n">
-        <v>1.91936</v>
+        <v>3.43448</v>
       </c>
       <c r="D95" t="n">
-        <v>0.674327</v>
+        <v>1.20712</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.41033</v>
+        <v>4.36167</v>
       </c>
       <c r="C96" t="n">
-        <v>2.21761</v>
+        <v>3.73579</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68002</v>
+        <v>1.28344</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25305</v>
+        <v>4.67966</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12268</v>
+        <v>2.13965</v>
       </c>
       <c r="D97" t="n">
-        <v>0.672437</v>
+        <v>0.927712</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.07748</v>
+        <v>4.97881</v>
       </c>
       <c r="C98" t="n">
-        <v>1.4848</v>
+        <v>2.27946</v>
       </c>
       <c r="D98" t="n">
-        <v>0.657239</v>
+        <v>0.9871450000000001</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.85694</v>
+        <v>2.83086</v>
       </c>
       <c r="C99" t="n">
-        <v>1.44049</v>
+        <v>2.41307</v>
       </c>
       <c r="D99" t="n">
-        <v>0.673405</v>
+        <v>1.0419</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7986</v>
+        <v>3.00805</v>
       </c>
       <c r="C100" t="n">
-        <v>1.44527</v>
+        <v>2.55714</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6471</v>
+        <v>1.08875</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.88951</v>
+        <v>3.19551</v>
       </c>
       <c r="C101" t="n">
-        <v>1.52412</v>
+        <v>2.72712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.624829</v>
+        <v>1.15931</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.91489</v>
+        <v>3.41867</v>
       </c>
       <c r="C102" t="n">
-        <v>1.52194</v>
+        <v>2.91543</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662235</v>
+        <v>1.20855</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.03396</v>
+        <v>3.64939</v>
       </c>
       <c r="C103" t="n">
-        <v>1.57344</v>
+        <v>3.10699</v>
       </c>
       <c r="D103" t="n">
-        <v>0.618835</v>
+        <v>1.27668</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.93262</v>
+        <v>3.8909</v>
       </c>
       <c r="C104" t="n">
-        <v>1.57533</v>
+        <v>3.32938</v>
       </c>
       <c r="D104" t="n">
-        <v>0.627468</v>
+        <v>1.33454</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.99937</v>
+        <v>4.16041</v>
       </c>
       <c r="C105" t="n">
-        <v>1.66926</v>
+        <v>3.55436</v>
       </c>
       <c r="D105" t="n">
-        <v>0.680684</v>
+        <v>1.42485</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.12603</v>
+        <v>4.43953</v>
       </c>
       <c r="C106" t="n">
-        <v>1.86501</v>
+        <v>3.8107</v>
       </c>
       <c r="D106" t="n">
-        <v>0.721803</v>
+        <v>1.47363</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.41632</v>
+        <v>4.73343</v>
       </c>
       <c r="C107" t="n">
-        <v>1.99685</v>
+        <v>4.06379</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7459789999999999</v>
+        <v>1.55624</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.99253</v>
+        <v>5.02899</v>
       </c>
       <c r="C108" t="n">
-        <v>2.15421</v>
+        <v>4.3335</v>
       </c>
       <c r="D108" t="n">
-        <v>0.787241</v>
+        <v>1.6288</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.65556</v>
+        <v>5.36185</v>
       </c>
       <c r="C109" t="n">
-        <v>2.31351</v>
+        <v>4.59481</v>
       </c>
       <c r="D109" t="n">
-        <v>0.808814</v>
+        <v>1.70468</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.74923</v>
+        <v>5.66233</v>
       </c>
       <c r="C110" t="n">
-        <v>2.42425</v>
+        <v>4.89273</v>
       </c>
       <c r="D110" t="n">
-        <v>0.880118</v>
+        <v>1.79581</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.06553</v>
+        <v>6.0324</v>
       </c>
       <c r="C111" t="n">
-        <v>1.35528</v>
+        <v>2.64697</v>
       </c>
       <c r="D111" t="n">
-        <v>0.679856</v>
+        <v>1.31194</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.17638</v>
+        <v>6.38035</v>
       </c>
       <c r="C112" t="n">
-        <v>1.39078</v>
+        <v>2.80418</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7037409999999999</v>
+        <v>1.37965</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.44514</v>
+        <v>6.72012</v>
       </c>
       <c r="C113" t="n">
-        <v>1.67126</v>
+        <v>2.97601</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8446630000000001</v>
+        <v>1.41091</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.2131</v>
+        <v>3.67948</v>
       </c>
       <c r="C114" t="n">
-        <v>1.76133</v>
+        <v>3.14765</v>
       </c>
       <c r="D114" t="n">
-        <v>0.908301</v>
+        <v>1.46563</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.26655</v>
+        <v>3.90259</v>
       </c>
       <c r="C115" t="n">
-        <v>1.82083</v>
+        <v>3.34496</v>
       </c>
       <c r="D115" t="n">
-        <v>0.866533</v>
+        <v>1.55066</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.32762</v>
+        <v>4.13787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.88447</v>
+        <v>3.54789</v>
       </c>
       <c r="D116" t="n">
-        <v>0.878584</v>
+        <v>1.59103</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.43722</v>
+        <v>4.38041</v>
       </c>
       <c r="C117" t="n">
-        <v>2.11083</v>
+        <v>3.76691</v>
       </c>
       <c r="D117" t="n">
-        <v>0.928778</v>
+        <v>1.66463</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.56557</v>
+        <v>4.62304</v>
       </c>
       <c r="C118" t="n">
-        <v>2.0437</v>
+        <v>4.0151</v>
       </c>
       <c r="D118" t="n">
-        <v>0.90869</v>
+        <v>1.73191</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.64474</v>
+        <v>4.90335</v>
       </c>
       <c r="C119" t="n">
-        <v>2.1726</v>
+        <v>4.25262</v>
       </c>
       <c r="D119" t="n">
-        <v>0.94226</v>
+        <v>1.80286</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34237</v>
+        <v>0.335572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.228406</v>
+        <v>0.223187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252948</v>
+        <v>0.246685</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258618</v>
+        <v>0.251399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229115</v>
+        <v>0.224138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254728</v>
+        <v>0.246718</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267185</v>
+        <v>0.258468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235246</v>
+        <v>0.229458</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26043</v>
+        <v>0.252599</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.274413</v>
+        <v>0.266718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239896</v>
+        <v>0.233549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266556</v>
+        <v>0.256937</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.282273</v>
+        <v>0.274943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244472</v>
+        <v>0.237717</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271323</v>
+        <v>0.261307</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291955</v>
+        <v>0.284473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201148</v>
+        <v>0.197117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224391</v>
+        <v>0.219684</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.300807</v>
+        <v>0.291928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204008</v>
+        <v>0.20529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231386</v>
+        <v>0.22605</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310021</v>
+        <v>0.302195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210906</v>
+        <v>0.209323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238236</v>
+        <v>0.232648</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317755</v>
+        <v>0.310615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216533</v>
+        <v>0.214159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245091</v>
+        <v>0.240723</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324596</v>
+        <v>0.318407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221798</v>
+        <v>0.219876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252142</v>
+        <v>0.247721</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3344</v>
+        <v>0.329212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230087</v>
+        <v>0.227799</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260731</v>
+        <v>0.257381</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.342282</v>
+        <v>0.338248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234975</v>
+        <v>0.232794</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266535</v>
+        <v>0.264201</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.351177</v>
+        <v>0.34723</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239802</v>
+        <v>0.238215</v>
       </c>
       <c r="D14" t="n">
-        <v>0.272092</v>
+        <v>0.270107</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.362031</v>
+        <v>0.358766</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24533</v>
+        <v>0.2434</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277702</v>
+        <v>0.276143</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.369459</v>
+        <v>0.366449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249476</v>
+        <v>0.247494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283517</v>
+        <v>0.282411</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.380836</v>
+        <v>0.37768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255588</v>
+        <v>0.254608</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291561</v>
+        <v>0.290292</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288947</v>
+        <v>0.289254</v>
       </c>
       <c r="C18" t="n">
-        <v>0.259386</v>
+        <v>0.257809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295523</v>
+        <v>0.294957</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296333</v>
+        <v>0.296479</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265148</v>
+        <v>0.263943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301619</v>
+        <v>0.301508</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.306471</v>
+        <v>0.306452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.271322</v>
+        <v>0.270178</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310252</v>
+        <v>0.308974</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315773</v>
+        <v>0.315423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216538</v>
+        <v>0.216035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247886</v>
+        <v>0.247893</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324751</v>
+        <v>0.324429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22238</v>
+        <v>0.222898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254399</v>
+        <v>0.254085</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.333318</v>
+        <v>0.33282</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228062</v>
+        <v>0.229056</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261476</v>
+        <v>0.261246</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340466</v>
+        <v>0.340008</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232646</v>
+        <v>0.232976</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267532</v>
+        <v>0.267498</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348765</v>
+        <v>0.348151</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23826</v>
+        <v>0.238459</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274177</v>
+        <v>0.274392</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.359284</v>
+        <v>0.357507</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245371</v>
+        <v>0.245148</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282518</v>
+        <v>0.281937</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.366263</v>
+        <v>0.365253</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250453</v>
+        <v>0.24978</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287685</v>
+        <v>0.287911</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375367</v>
+        <v>0.374244</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255727</v>
+        <v>0.255029</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294119</v>
+        <v>0.294076</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384425</v>
+        <v>0.383573</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261357</v>
+        <v>0.260706</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301345</v>
+        <v>0.301422</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392126</v>
+        <v>0.390975</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265812</v>
+        <v>0.265248</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307664</v>
+        <v>0.30787</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.40109</v>
+        <v>0.40007</v>
       </c>
       <c r="C31" t="n">
-        <v>0.27119</v>
+        <v>0.271051</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313015</v>
+        <v>0.313788</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298478</v>
+        <v>0.297557</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276519</v>
+        <v>0.276309</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319872</v>
+        <v>0.320736</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306719</v>
+        <v>0.305444</v>
       </c>
       <c r="C33" t="n">
-        <v>0.282004</v>
+        <v>0.281895</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326184</v>
+        <v>0.327155</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.31393</v>
+        <v>0.313537</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286854</v>
+        <v>0.286598</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33238</v>
+        <v>0.333554</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.323565</v>
+        <v>0.322647</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226079</v>
+        <v>0.225638</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258916</v>
+        <v>0.259231</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.333405</v>
+        <v>0.331587</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231982</v>
+        <v>0.231323</v>
       </c>
       <c r="D36" t="n">
-        <v>0.265187</v>
+        <v>0.265181</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340269</v>
+        <v>0.339594</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237278</v>
+        <v>0.236639</v>
       </c>
       <c r="D37" t="n">
-        <v>0.27109</v>
+        <v>0.271284</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349126</v>
+        <v>0.34773</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242648</v>
+        <v>0.242031</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277796</v>
+        <v>0.277072</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356506</v>
+        <v>0.356093</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248387</v>
+        <v>0.247631</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284926</v>
+        <v>0.284143</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365624</v>
+        <v>0.36489</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253706</v>
+        <v>0.253234</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29143</v>
+        <v>0.290765</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373244</v>
+        <v>0.373246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259336</v>
+        <v>0.258458</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298756</v>
+        <v>0.297793</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381971</v>
+        <v>0.381162</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264613</v>
+        <v>0.263629</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304353</v>
+        <v>0.303563</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.392669</v>
+        <v>0.39078</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270054</v>
+        <v>0.269065</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311838</v>
+        <v>0.310689</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.400657</v>
+        <v>0.40014</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275298</v>
+        <v>0.274144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318497</v>
+        <v>0.317722</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408812</v>
+        <v>0.408355</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27993</v>
+        <v>0.279187</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324244</v>
+        <v>0.323483</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.419463</v>
+        <v>0.418369</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284468</v>
+        <v>0.283641</v>
       </c>
       <c r="D46" t="n">
-        <v>0.330069</v>
+        <v>0.329635</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306498</v>
+        <v>0.306051</v>
       </c>
       <c r="C47" t="n">
-        <v>0.289405</v>
+        <v>0.288813</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336183</v>
+        <v>0.335736</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313433</v>
+        <v>0.313369</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294539</v>
+        <v>0.294003</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343295</v>
+        <v>0.341944</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322693</v>
+        <v>0.321908</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299455</v>
+        <v>0.298934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.353029</v>
+        <v>0.350994</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.331064</v>
+        <v>0.330876</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233967</v>
+        <v>0.233584</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26271</v>
+        <v>0.262469</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338908</v>
+        <v>0.338456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239873</v>
+        <v>0.239746</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270079</v>
+        <v>0.270152</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347801</v>
+        <v>0.347491</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246007</v>
+        <v>0.245804</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27756</v>
+        <v>0.277514</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.35571</v>
+        <v>0.355841</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251695</v>
+        <v>0.25139</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284828</v>
+        <v>0.284596</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364719</v>
+        <v>0.364799</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257331</v>
+        <v>0.256859</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291703</v>
+        <v>0.291528</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.373203</v>
+        <v>0.372414</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262928</v>
+        <v>0.26263</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299116</v>
+        <v>0.29888</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381763</v>
+        <v>0.380825</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26844</v>
+        <v>0.268156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.306157</v>
+        <v>0.30622</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390809</v>
+        <v>0.389724</v>
       </c>
       <c r="C57" t="n">
-        <v>0.273201</v>
+        <v>0.272943</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312993</v>
+        <v>0.312977</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399655</v>
+        <v>0.398747</v>
       </c>
       <c r="C58" t="n">
-        <v>0.277874</v>
+        <v>0.277515</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319512</v>
+        <v>0.319576</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.408156</v>
+        <v>0.407158</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282372</v>
+        <v>0.282163</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326186</v>
+        <v>0.326092</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418444</v>
+        <v>0.417071</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287233</v>
+        <v>0.287104</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332532</v>
+        <v>0.333144</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309403</v>
+        <v>0.310251</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292312</v>
+        <v>0.292106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33942</v>
+        <v>0.339696</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.319898</v>
+        <v>0.321285</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296983</v>
+        <v>0.296738</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345715</v>
+        <v>0.345543</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330533</v>
+        <v>0.33077</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302838</v>
+        <v>0.302863</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354073</v>
+        <v>0.354454</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.341809</v>
+        <v>0.340938</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242175</v>
+        <v>0.242833</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27585</v>
+        <v>0.276594</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.34829</v>
+        <v>0.349792</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248464</v>
+        <v>0.249455</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283865</v>
+        <v>0.284837</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.359432</v>
+        <v>0.362464</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256504</v>
+        <v>0.260575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29182</v>
+        <v>0.293693</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.372429</v>
+        <v>0.373421</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264488</v>
+        <v>0.268798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30105</v>
+        <v>0.302933</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.385413</v>
+        <v>0.386116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271945</v>
+        <v>0.275149</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311173</v>
+        <v>0.3133</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397237</v>
+        <v>0.403331</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279123</v>
+        <v>0.280264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322003</v>
+        <v>0.326933</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411399</v>
+        <v>0.422079</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287534</v>
+        <v>0.290887</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332903</v>
+        <v>0.341934</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.427079</v>
+        <v>0.441823</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296682</v>
+        <v>0.301069</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345862</v>
+        <v>0.355074</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.446233</v>
+        <v>0.462391</v>
       </c>
       <c r="C72" t="n">
-        <v>0.305495</v>
+        <v>0.312904</v>
       </c>
       <c r="D72" t="n">
-        <v>0.357912</v>
+        <v>0.371775</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.465452</v>
+        <v>0.485072</v>
       </c>
       <c r="C73" t="n">
-        <v>0.313138</v>
+        <v>0.32368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.370378</v>
+        <v>0.386651</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.480585</v>
+        <v>0.506097</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323501</v>
+        <v>0.333365</v>
       </c>
       <c r="D74" t="n">
-        <v>0.383242</v>
+        <v>0.400968</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.500883</v>
+        <v>0.523949</v>
       </c>
       <c r="C75" t="n">
-        <v>0.33362</v>
+        <v>0.34587</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397661</v>
+        <v>0.417902</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.474361</v>
+        <v>0.46752</v>
       </c>
       <c r="C76" t="n">
-        <v>0.347227</v>
+        <v>0.360542</v>
       </c>
       <c r="D76" t="n">
-        <v>0.416042</v>
+        <v>0.436166</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.498706</v>
+        <v>0.495685</v>
       </c>
       <c r="C77" t="n">
-        <v>0.363665</v>
+        <v>0.376857</v>
       </c>
       <c r="D77" t="n">
-        <v>0.436906</v>
+        <v>0.456229</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.529057</v>
+        <v>0.528224</v>
       </c>
       <c r="C78" t="n">
-        <v>0.331988</v>
+        <v>0.333093</v>
       </c>
       <c r="D78" t="n">
-        <v>0.406568</v>
+        <v>0.416767</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.557917</v>
+        <v>0.551821</v>
       </c>
       <c r="C79" t="n">
-        <v>0.350145</v>
+        <v>0.349513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.431987</v>
+        <v>0.439459</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.589026</v>
+        <v>0.5867</v>
       </c>
       <c r="C80" t="n">
-        <v>0.372511</v>
+        <v>0.375689</v>
       </c>
       <c r="D80" t="n">
-        <v>0.454514</v>
+        <v>0.465061</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.622817</v>
+        <v>0.62274</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389836</v>
+        <v>0.391417</v>
       </c>
       <c r="D81" t="n">
-        <v>0.480173</v>
+        <v>0.489387</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.659763</v>
+        <v>0.660116</v>
       </c>
       <c r="C82" t="n">
-        <v>0.410156</v>
+        <v>0.408292</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508953</v>
+        <v>0.515962</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.69913</v>
+        <v>0.698379</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4311</v>
+        <v>0.428779</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5356</v>
+        <v>0.544026</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.730328</v>
+        <v>0.732069</v>
       </c>
       <c r="C84" t="n">
-        <v>0.450929</v>
+        <v>0.449518</v>
       </c>
       <c r="D84" t="n">
-        <v>0.563815</v>
+        <v>0.572901</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.769846</v>
+        <v>0.770547</v>
       </c>
       <c r="C85" t="n">
-        <v>0.473102</v>
+        <v>0.472269</v>
       </c>
       <c r="D85" t="n">
-        <v>0.592684</v>
+        <v>0.602598</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.810884</v>
+        <v>0.810416</v>
       </c>
       <c r="C86" t="n">
-        <v>0.495794</v>
+        <v>0.49508</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622496</v>
+        <v>0.6338</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.852691</v>
+        <v>0.852175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.518798</v>
+        <v>0.517005</v>
       </c>
       <c r="D87" t="n">
-        <v>0.650523</v>
+        <v>0.664234</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.896529</v>
+        <v>0.894466</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542718</v>
+        <v>0.5404</v>
       </c>
       <c r="D88" t="n">
-        <v>0.687756</v>
+        <v>0.694899</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.941621</v>
+        <v>0.9393</v>
       </c>
       <c r="C89" t="n">
-        <v>0.567272</v>
+        <v>0.565111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7211649999999999</v>
+        <v>0.727789</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.825734</v>
+        <v>0.823585</v>
       </c>
       <c r="C90" t="n">
-        <v>0.591638</v>
+        <v>0.590065</v>
       </c>
       <c r="D90" t="n">
-        <v>0.743637</v>
+        <v>0.74854</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.852877</v>
+        <v>0.85095</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618466</v>
+        <v>0.616861</v>
       </c>
       <c r="D91" t="n">
-        <v>0.775737</v>
+        <v>0.780992</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.883073</v>
+        <v>0.880154</v>
       </c>
       <c r="C92" t="n">
-        <v>0.53173</v>
+        <v>0.53141</v>
       </c>
       <c r="D92" t="n">
-        <v>0.673351</v>
+        <v>0.669455</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.910868</v>
+        <v>0.909539</v>
       </c>
       <c r="C93" t="n">
-        <v>0.547585</v>
+        <v>0.547378</v>
       </c>
       <c r="D93" t="n">
-        <v>0.699782</v>
+        <v>0.693811</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.940941</v>
+        <v>0.938592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.564458</v>
+        <v>0.564143</v>
       </c>
       <c r="D94" t="n">
-        <v>0.716866</v>
+        <v>0.725618</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.970002</v>
       </c>
       <c r="C95" t="n">
-        <v>0.580979</v>
+        <v>0.581236</v>
       </c>
       <c r="D95" t="n">
-        <v>0.752695</v>
+        <v>0.759287</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.999654</v>
+        <v>0.995281</v>
       </c>
       <c r="C96" t="n">
-        <v>0.597229</v>
+        <v>0.599127</v>
       </c>
       <c r="D96" t="n">
-        <v>0.778172</v>
+        <v>0.786818</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02939</v>
+        <v>1.02676</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6160949999999999</v>
+        <v>0.617459</v>
       </c>
       <c r="D97" t="n">
-        <v>0.802069</v>
+        <v>0.817571</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0664</v>
+        <v>1.06518</v>
       </c>
       <c r="C98" t="n">
-        <v>0.63681</v>
+        <v>0.63656</v>
       </c>
       <c r="D98" t="n">
-        <v>0.834694</v>
+        <v>0.843695</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10352</v>
+        <v>1.10117</v>
       </c>
       <c r="C99" t="n">
-        <v>0.656466</v>
+        <v>0.656037</v>
       </c>
       <c r="D99" t="n">
-        <v>0.860878</v>
+        <v>0.872599</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13802</v>
+        <v>1.13555</v>
       </c>
       <c r="C100" t="n">
-        <v>0.67613</v>
+        <v>0.676183</v>
       </c>
       <c r="D100" t="n">
-        <v>0.892777</v>
+        <v>0.90415</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16408</v>
+        <v>1.16004</v>
       </c>
       <c r="C101" t="n">
-        <v>0.697188</v>
+        <v>0.697366</v>
       </c>
       <c r="D101" t="n">
-        <v>0.920475</v>
+        <v>0.935149</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20091</v>
+        <v>1.19611</v>
       </c>
       <c r="C102" t="n">
-        <v>0.719792</v>
+        <v>0.719858</v>
       </c>
       <c r="D102" t="n">
-        <v>0.955125</v>
+        <v>0.967655</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23952</v>
+        <v>1.23759</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7433</v>
+        <v>0.74294</v>
       </c>
       <c r="D103" t="n">
-        <v>0.986515</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2795</v>
+        <v>1.27635</v>
       </c>
       <c r="C104" t="n">
-        <v>0.76689</v>
+        <v>0.766229</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01979</v>
+        <v>1.03551</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02486</v>
+        <v>1.0204</v>
       </c>
       <c r="C105" t="n">
-        <v>0.793018</v>
+        <v>0.787031</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0512</v>
+        <v>1.05858</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04844</v>
+        <v>1.05007</v>
       </c>
       <c r="C106" t="n">
-        <v>0.821228</v>
+        <v>0.817221</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08702</v>
+        <v>1.09412</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.077</v>
+        <v>1.07358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6458199999999999</v>
+        <v>0.656447</v>
       </c>
       <c r="D107" t="n">
-        <v>0.874621</v>
+        <v>0.900904</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09868</v>
+        <v>1.09948</v>
       </c>
       <c r="C108" t="n">
-        <v>0.671071</v>
+        <v>0.668868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91717</v>
+        <v>0.923909</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.11868</v>
+        <v>1.13015</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6760699999999999</v>
+        <v>0.687573</v>
       </c>
       <c r="D109" t="n">
-        <v>0.924686</v>
+        <v>0.95577</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15478</v>
+        <v>1.14862</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703315</v>
+        <v>0.704277</v>
       </c>
       <c r="D110" t="n">
-        <v>0.970425</v>
+        <v>0.96837</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18317</v>
+        <v>1.18722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.71045</v>
+        <v>0.721886</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996256</v>
+        <v>1.01079</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22055</v>
+        <v>1.22379</v>
       </c>
       <c r="C112" t="n">
-        <v>0.738594</v>
+        <v>0.74017</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02646</v>
+        <v>1.03951</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2531</v>
+        <v>1.2557</v>
       </c>
       <c r="C113" t="n">
-        <v>0.757297</v>
+        <v>0.758787</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05435</v>
+        <v>1.06837</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28453</v>
+        <v>1.28698</v>
       </c>
       <c r="C114" t="n">
-        <v>0.776417</v>
+        <v>0.778165</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09078</v>
+        <v>1.09794</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31995</v>
+        <v>1.32256</v>
       </c>
       <c r="C115" t="n">
-        <v>0.796885</v>
+        <v>0.799212</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12573</v>
+        <v>1.12783</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35953</v>
+        <v>1.35932</v>
       </c>
       <c r="C116" t="n">
-        <v>0.819872</v>
+        <v>0.819775</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14739</v>
+        <v>1.15842</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39648</v>
+        <v>1.39681</v>
       </c>
       <c r="C117" t="n">
-        <v>0.842056</v>
+        <v>0.842656</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17932</v>
+        <v>1.19003</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43835</v>
+        <v>1.43847</v>
       </c>
       <c r="C118" t="n">
-        <v>0.865618</v>
+        <v>0.8661</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21523</v>
+        <v>1.21841</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11726</v>
+        <v>1.11372</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8905459999999999</v>
+        <v>0.891037</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25158</v>
+        <v>1.25944</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.268003</v>
+        <v>0.267463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.176192</v>
+        <v>0.174831</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141223</v>
+        <v>0.140623</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195558</v>
+        <v>0.193018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177548</v>
+        <v>0.177542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142163</v>
+        <v>0.140847</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202241</v>
+        <v>0.199053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184879</v>
+        <v>0.183182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146713</v>
+        <v>0.145333</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210579</v>
+        <v>0.206995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192454</v>
+        <v>0.192489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150087</v>
+        <v>0.149406</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216128</v>
+        <v>0.212813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198709</v>
+        <v>0.196224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154701</v>
+        <v>0.152612</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223794</v>
+        <v>0.220078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160866</v>
+        <v>0.155801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138535</v>
+        <v>0.136643</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230305</v>
+        <v>0.228421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.164435</v>
+        <v>0.158995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140948</v>
+        <v>0.137772</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237317</v>
+        <v>0.235919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169448</v>
+        <v>0.166336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141783</v>
+        <v>0.14052</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.245354</v>
+        <v>0.242594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174727</v>
+        <v>0.172359</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145486</v>
+        <v>0.143358</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252175</v>
+        <v>0.250529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179016</v>
+        <v>0.175918</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147754</v>
+        <v>0.145518</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26134</v>
+        <v>0.261163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187431</v>
+        <v>0.185211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151438</v>
+        <v>0.151092</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268829</v>
+        <v>0.268392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192612</v>
+        <v>0.192615</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155636</v>
+        <v>0.153917</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280567</v>
+        <v>0.280495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199965</v>
+        <v>0.199344</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158379</v>
+        <v>0.157215</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294712</v>
+        <v>0.293824</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206487</v>
+        <v>0.205484</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163315</v>
+        <v>0.161901</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302761</v>
+        <v>0.302075</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215272</v>
+        <v>0.214296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167253</v>
+        <v>0.166213</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.31575</v>
+        <v>0.315724</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222184</v>
+        <v>0.221965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170841</v>
+        <v>0.169996</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.232399</v>
+        <v>0.232579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227948</v>
+        <v>0.227932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171867</v>
+        <v>0.173903</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240654</v>
+        <v>0.241699</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237227</v>
+        <v>0.236627</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177122</v>
+        <v>0.177845</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245686</v>
+        <v>0.247062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247004</v>
+        <v>0.246391</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182909</v>
+        <v>0.183675</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251947</v>
+        <v>0.253631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196563</v>
+        <v>0.197322</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166372</v>
+        <v>0.166945</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257589</v>
+        <v>0.258775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202309</v>
+        <v>0.202656</v>
       </c>
       <c r="D22" t="n">
-        <v>0.169142</v>
+        <v>0.170595</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267112</v>
+        <v>0.267896</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208606</v>
+        <v>0.207647</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171647</v>
+        <v>0.173218</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275257</v>
+        <v>0.276022</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213565</v>
+        <v>0.211751</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174397</v>
+        <v>0.176177</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282892</v>
+        <v>0.284061</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21892</v>
+        <v>0.216403</v>
       </c>
       <c r="D25" t="n">
-        <v>0.176305</v>
+        <v>0.178498</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292285</v>
+        <v>0.29205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226276</v>
+        <v>0.224115</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179927</v>
+        <v>0.182049</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.300879</v>
+        <v>0.300887</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227569</v>
+        <v>0.22821</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182914</v>
+        <v>0.184644</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312498</v>
+        <v>0.312235</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233222</v>
+        <v>0.233811</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185659</v>
+        <v>0.187842</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322195</v>
+        <v>0.321435</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239159</v>
+        <v>0.23983</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188645</v>
+        <v>0.190875</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.332366</v>
+        <v>0.331439</v>
       </c>
       <c r="C30" t="n">
-        <v>0.247505</v>
+        <v>0.248112</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192708</v>
+        <v>0.194125</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.34445</v>
+        <v>0.344332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251607</v>
+        <v>0.252077</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195387</v>
+        <v>0.197633</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248691</v>
+        <v>0.24815</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26199</v>
+        <v>0.262667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199557</v>
+        <v>0.202948</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254598</v>
+        <v>0.254067</v>
       </c>
       <c r="C33" t="n">
-        <v>0.268749</v>
+        <v>0.268952</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203947</v>
+        <v>0.207499</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261266</v>
+        <v>0.261137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27758</v>
+        <v>0.277583</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209994</v>
+        <v>0.211682</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268695</v>
+        <v>0.268279</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209156</v>
+        <v>0.208796</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181641</v>
+        <v>0.181235</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274169</v>
+        <v>0.274476</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21539</v>
+        <v>0.21555</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18379</v>
+        <v>0.183959</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281002</v>
+        <v>0.28086</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219692</v>
+        <v>0.219614</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185989</v>
+        <v>0.186845</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288814</v>
+        <v>0.288689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224812</v>
+        <v>0.225033</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189029</v>
+        <v>0.189879</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295563</v>
+        <v>0.295236</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230014</v>
+        <v>0.229857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191807</v>
+        <v>0.192591</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304633</v>
+        <v>0.304594</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236215</v>
+        <v>0.236117</v>
       </c>
       <c r="D40" t="n">
-        <v>0.194995</v>
+        <v>0.195834</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314601</v>
+        <v>0.314259</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241849</v>
+        <v>0.241592</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197747</v>
+        <v>0.198154</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325051</v>
+        <v>0.325005</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245095</v>
+        <v>0.245131</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200714</v>
+        <v>0.200964</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335612</v>
+        <v>0.33527</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251781</v>
+        <v>0.251486</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204215</v>
+        <v>0.204208</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344457</v>
+        <v>0.344258</v>
       </c>
       <c r="C44" t="n">
-        <v>0.259508</v>
+        <v>0.259424</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20724</v>
+        <v>0.207942</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355548</v>
+        <v>0.355417</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265408</v>
+        <v>0.265263</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210104</v>
+        <v>0.21022</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368225</v>
+        <v>0.367866</v>
       </c>
       <c r="C46" t="n">
-        <v>0.273088</v>
+        <v>0.273063</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214379</v>
+        <v>0.214006</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259448</v>
+        <v>0.259799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280151</v>
+        <v>0.280074</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217776</v>
+        <v>0.218396</v>
       </c>
     </row>
     <row r="48">
@@ -10019,10 +10019,10 @@
         <v>0.265347</v>
       </c>
       <c r="C48" t="n">
-        <v>0.287999</v>
+        <v>0.288231</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222064</v>
+        <v>0.222171</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.27171</v>
+        <v>0.271895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.296935</v>
+        <v>0.296944</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225291</v>
+        <v>0.226019</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.278608</v>
+        <v>0.278803</v>
       </c>
       <c r="C50" t="n">
-        <v>0.219584</v>
+        <v>0.219522</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185683</v>
+        <v>0.185831</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285426</v>
+        <v>0.285582</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224374</v>
+        <v>0.224072</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187332</v>
+        <v>0.188229</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292061</v>
+        <v>0.292174</v>
       </c>
       <c r="C52" t="n">
-        <v>0.229357</v>
+        <v>0.229491</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190671</v>
+        <v>0.191346</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301173</v>
+        <v>0.301392</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23573</v>
+        <v>0.235816</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19372</v>
+        <v>0.19408</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309609</v>
+        <v>0.309635</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241045</v>
+        <v>0.241204</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196105</v>
+        <v>0.196772</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318426</v>
+        <v>0.31843</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246923</v>
+        <v>0.246963</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199842</v>
+        <v>0.199656</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32875</v>
+        <v>0.32877</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252089</v>
+        <v>0.252186</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202019</v>
+        <v>0.202914</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.337875</v>
+        <v>0.33806</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258728</v>
+        <v>0.258772</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205635</v>
+        <v>0.206268</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348346</v>
+        <v>0.348486</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266121</v>
+        <v>0.26613</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20894</v>
+        <v>0.209767</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359157</v>
+        <v>0.359602</v>
       </c>
       <c r="C59" t="n">
-        <v>0.272413</v>
+        <v>0.272526</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211761</v>
+        <v>0.213059</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369603</v>
+        <v>0.369905</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278842</v>
+        <v>0.279052</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21638</v>
+        <v>0.21673</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26499</v>
+        <v>0.264313</v>
       </c>
       <c r="C61" t="n">
-        <v>0.288183</v>
+        <v>0.28818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219656</v>
+        <v>0.220668</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273233</v>
+        <v>0.272689</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296032</v>
+        <v>0.295628</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223833</v>
+        <v>0.223445</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.282945</v>
+        <v>0.282358</v>
       </c>
       <c r="C63" t="n">
-        <v>0.305388</v>
+        <v>0.305003</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227578</v>
+        <v>0.228104</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.293986</v>
+        <v>0.293612</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234434</v>
+        <v>0.233727</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197222</v>
+        <v>0.197207</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.302386</v>
+        <v>0.299572</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241294</v>
+        <v>0.23985</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198528</v>
+        <v>0.198053</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31205</v>
+        <v>0.309902</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250399</v>
+        <v>0.249078</v>
       </c>
       <c r="D66" t="n">
-        <v>0.20264</v>
+        <v>0.202824</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.324908</v>
+        <v>0.321928</v>
       </c>
       <c r="C67" t="n">
-        <v>0.257539</v>
+        <v>0.255749</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207057</v>
+        <v>0.207025</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.338223</v>
+        <v>0.33578</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266816</v>
+        <v>0.263406</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211208</v>
+        <v>0.211996</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.351901</v>
+        <v>0.349147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279739</v>
+        <v>0.273386</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216478</v>
+        <v>0.216175</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.367802</v>
+        <v>0.364892</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286121</v>
+        <v>0.285647</v>
       </c>
       <c r="D70" t="n">
-        <v>0.222588</v>
+        <v>0.22194</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38822</v>
+        <v>0.384131</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299276</v>
+        <v>0.298015</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226036</v>
+        <v>0.226199</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.40948</v>
+        <v>0.404328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.313804</v>
+        <v>0.311831</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233543</v>
+        <v>0.233112</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.43363</v>
+        <v>0.426468</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333756</v>
+        <v>0.325837</v>
       </c>
       <c r="D73" t="n">
-        <v>0.241159</v>
+        <v>0.239751</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463996</v>
+        <v>0.44627</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353337</v>
+        <v>0.340879</v>
       </c>
       <c r="D74" t="n">
-        <v>0.245745</v>
+        <v>0.244394</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.495938</v>
+        <v>0.471463</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376276</v>
+        <v>0.360276</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255354</v>
+        <v>0.253887</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.431197</v>
+        <v>0.414167</v>
       </c>
       <c r="C76" t="n">
-        <v>0.405494</v>
+        <v>0.384191</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26423</v>
+        <v>0.262217</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452665</v>
+        <v>0.450075</v>
       </c>
       <c r="C77" t="n">
-        <v>0.431659</v>
+        <v>0.410804</v>
       </c>
       <c r="D77" t="n">
-        <v>0.275683</v>
+        <v>0.269204</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.479529</v>
+        <v>0.47359</v>
       </c>
       <c r="C78" t="n">
-        <v>0.372082</v>
+        <v>0.371107</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261414</v>
+        <v>0.258015</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.521626</v>
+        <v>0.507487</v>
       </c>
       <c r="C79" t="n">
-        <v>0.396371</v>
+        <v>0.394113</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271601</v>
+        <v>0.272503</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.55759</v>
+        <v>0.544031</v>
       </c>
       <c r="C80" t="n">
-        <v>0.419258</v>
+        <v>0.423237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28569</v>
+        <v>0.286324</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59872</v>
+        <v>0.590894</v>
       </c>
       <c r="C81" t="n">
-        <v>0.451378</v>
+        <v>0.45925</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301107</v>
+        <v>0.301505</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.63465</v>
+        <v>0.6339590000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.487332</v>
+        <v>0.493375</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320623</v>
+        <v>0.319183</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.683576</v>
+        <v>0.6832780000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.525668</v>
+        <v>0.530239</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335474</v>
+        <v>0.335819</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.739005</v>
+        <v>0.737289</v>
       </c>
       <c r="C84" t="n">
-        <v>0.56343</v>
+        <v>0.563499</v>
       </c>
       <c r="D84" t="n">
-        <v>0.358819</v>
+        <v>0.357383</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.790285</v>
+        <v>0.791649</v>
       </c>
       <c r="C85" t="n">
-        <v>0.600449</v>
+        <v>0.602231</v>
       </c>
       <c r="D85" t="n">
-        <v>0.377744</v>
+        <v>0.377988</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.84967</v>
+        <v>0.851882</v>
       </c>
       <c r="C86" t="n">
-        <v>0.639606</v>
+        <v>0.640918</v>
       </c>
       <c r="D86" t="n">
-        <v>0.396974</v>
+        <v>0.400852</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.912086</v>
+        <v>0.910895</v>
       </c>
       <c r="C87" t="n">
-        <v>0.688666</v>
+        <v>0.689221</v>
       </c>
       <c r="D87" t="n">
-        <v>0.422614</v>
+        <v>0.424397</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.976217</v>
+        <v>0.9803190000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.728363</v>
+        <v>0.732173</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44654</v>
+        <v>0.450408</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04667</v>
+        <v>1.05085</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779429</v>
+        <v>0.781796</v>
       </c>
       <c r="D89" t="n">
-        <v>0.47142</v>
+        <v>0.473762</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829066</v>
+        <v>0.823739</v>
       </c>
       <c r="C90" t="n">
-        <v>0.825823</v>
+        <v>0.827843</v>
       </c>
       <c r="D90" t="n">
-        <v>0.497734</v>
+        <v>0.49773</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8623729999999999</v>
+        <v>0.858051</v>
       </c>
       <c r="C91" t="n">
-        <v>0.878958</v>
+        <v>0.8799630000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519142</v>
+        <v>0.524693</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.899109</v>
+        <v>0.898039</v>
       </c>
       <c r="C92" t="n">
-        <v>0.701251</v>
+        <v>0.7009030000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504103</v>
+        <v>0.500771</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.939827</v>
+        <v>0.935059</v>
       </c>
       <c r="C93" t="n">
-        <v>0.729467</v>
+        <v>0.728359</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519475</v>
+        <v>0.517557</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.981662</v>
+        <v>0.976579</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759599</v>
+        <v>0.75756</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536519</v>
+        <v>0.5331129999999999</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0278</v>
+        <v>1.02248</v>
       </c>
       <c r="C95" t="n">
-        <v>0.790775</v>
+        <v>0.79282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552926</v>
+        <v>0.554126</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06795</v>
+        <v>1.06626</v>
       </c>
       <c r="C96" t="n">
-        <v>0.826134</v>
+        <v>0.826355</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571292</v>
+        <v>0.572874</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11213</v>
+        <v>1.11119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860434</v>
+        <v>0.860231</v>
       </c>
       <c r="D97" t="n">
-        <v>0.59228</v>
+        <v>0.592942</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16228</v>
+        <v>1.15905</v>
       </c>
       <c r="C98" t="n">
-        <v>0.889775</v>
+        <v>0.888096</v>
       </c>
       <c r="D98" t="n">
-        <v>0.609641</v>
+        <v>0.612717</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20393</v>
+        <v>1.20233</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9260969999999999</v>
+        <v>0.924052</v>
       </c>
       <c r="D99" t="n">
-        <v>0.630894</v>
+        <v>0.633414</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24791</v>
+        <v>1.24766</v>
       </c>
       <c r="C100" t="n">
-        <v>0.962083</v>
+        <v>0.960294</v>
       </c>
       <c r="D100" t="n">
-        <v>0.653738</v>
+        <v>0.65447</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29948</v>
+        <v>1.29586</v>
       </c>
       <c r="C101" t="n">
-        <v>0.995173</v>
+        <v>0.993383</v>
       </c>
       <c r="D101" t="n">
-        <v>0.677942</v>
+        <v>0.6772359999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.3572</v>
+        <v>1.35362</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03114</v>
+        <v>1.0291</v>
       </c>
       <c r="D102" t="n">
-        <v>0.703249</v>
+        <v>0.706187</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41788</v>
+        <v>1.41485</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07129</v>
+        <v>1.06752</v>
       </c>
       <c r="D103" t="n">
-        <v>0.724171</v>
+        <v>0.724034</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48485</v>
+        <v>1.48168</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1128</v>
+        <v>1.10925</v>
       </c>
       <c r="D104" t="n">
-        <v>0.751851</v>
+        <v>0.748588</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01737</v>
+        <v>1.02444</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15877</v>
+        <v>1.15878</v>
       </c>
       <c r="D105" t="n">
-        <v>0.777935</v>
+        <v>0.7810049999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05963</v>
+        <v>1.06125</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19462</v>
+        <v>1.20482</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7897690000000001</v>
+        <v>0.806038</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09659</v>
+        <v>1.09636</v>
       </c>
       <c r="C107" t="n">
-        <v>0.862554</v>
+        <v>0.862017</v>
       </c>
       <c r="D107" t="n">
-        <v>0.678741</v>
+        <v>0.682308</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13466</v>
+        <v>1.13503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.893879</v>
+        <v>0.892904</v>
       </c>
       <c r="D108" t="n">
-        <v>0.706792</v>
+        <v>0.712467</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.16789</v>
+        <v>1.17604</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912996</v>
+        <v>0.912866</v>
       </c>
       <c r="D109" t="n">
-        <v>0.714727</v>
+        <v>0.727662</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2245</v>
+        <v>1.22226</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9515980000000001</v>
+        <v>0.95165</v>
       </c>
       <c r="D110" t="n">
-        <v>0.747591</v>
+        <v>0.747575</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26798</v>
+        <v>1.25958</v>
       </c>
       <c r="C111" t="n">
-        <v>0.982171</v>
+        <v>0.980868</v>
       </c>
       <c r="D111" t="n">
-        <v>0.765411</v>
+        <v>0.767774</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31651</v>
+        <v>1.3179</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01522</v>
+        <v>1.01546</v>
       </c>
       <c r="D112" t="n">
-        <v>0.784045</v>
+        <v>0.787492</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3714</v>
+        <v>1.37312</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05108</v>
+        <v>1.05242</v>
       </c>
       <c r="D113" t="n">
-        <v>0.804374</v>
+        <v>0.805729</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42698</v>
+        <v>1.42741</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08513</v>
+        <v>1.08632</v>
       </c>
       <c r="D114" t="n">
-        <v>0.825049</v>
+        <v>0.814272</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48168</v>
+        <v>1.48277</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1259</v>
+        <v>1.12176</v>
       </c>
       <c r="D115" t="n">
-        <v>0.843849</v>
+        <v>0.840692</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54395</v>
+        <v>1.54185</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16624</v>
+        <v>1.1605</v>
       </c>
       <c r="D116" t="n">
-        <v>0.866521</v>
+        <v>0.856986</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60785</v>
+        <v>1.60451</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21052</v>
+        <v>1.20475</v>
       </c>
       <c r="D117" t="n">
-        <v>0.892575</v>
+        <v>0.880152</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.6754</v>
+        <v>1.67409</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25962</v>
+        <v>1.25429</v>
       </c>
       <c r="D118" t="n">
-        <v>0.915691</v>
+        <v>0.907434</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10794</v>
+        <v>1.10779</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30496</v>
+        <v>1.30416</v>
       </c>
       <c r="D119" t="n">
-        <v>0.937371</v>
+        <v>0.9388</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575902</v>
+        <v>0.577141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390362</v>
+        <v>0.384989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248606</v>
+        <v>0.247157</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592753</v>
+        <v>0.595038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400177</v>
+        <v>0.394436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254925</v>
+        <v>0.254976</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.619048</v>
+        <v>0.6185389999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.419242</v>
+        <v>0.411761</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262493</v>
+        <v>0.260039</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.644781</v>
+        <v>0.647285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.442148</v>
+        <v>0.426947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269944</v>
+        <v>0.269736</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.669836</v>
+        <v>0.668874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.453249</v>
+        <v>0.444837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279562</v>
+        <v>0.280002</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695583</v>
+        <v>0.6982350000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.475638</v>
+        <v>0.467776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28439</v>
+        <v>0.282805</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.721596</v>
+        <v>0.724189</v>
       </c>
       <c r="C8" t="n">
-        <v>0.496638</v>
+        <v>0.495151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291375</v>
+        <v>0.287975</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.751409</v>
+        <v>0.755916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515829</v>
+        <v>0.508336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.297539</v>
+        <v>0.297685</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.782359</v>
+        <v>0.78714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5516</v>
+        <v>0.555454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311196</v>
+        <v>0.310077</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8196639999999999</v>
+        <v>0.829573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.374384</v>
+        <v>0.371066</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235693</v>
+        <v>0.233063</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520814</v>
+        <v>0.5312519999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.392521</v>
+        <v>0.394142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24596</v>
+        <v>0.242877</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.542513</v>
+        <v>0.551584</v>
       </c>
       <c r="C13" t="n">
-        <v>0.410781</v>
+        <v>0.414827</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252098</v>
+        <v>0.252391</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.566908</v>
+        <v>0.574039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.429593</v>
+        <v>0.429727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.258548</v>
+        <v>0.258292</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.59717</v>
+        <v>0.599238</v>
       </c>
       <c r="C15" t="n">
-        <v>0.466349</v>
+        <v>0.465635</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268717</v>
+        <v>0.269109</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.62066</v>
+        <v>0.621808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.483134</v>
+        <v>0.484713</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277424</v>
+        <v>0.274756</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.654348</v>
+        <v>0.662071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.510565</v>
+        <v>0.512786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28828</v>
+        <v>0.288504</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.685914</v>
+        <v>0.691646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.54204</v>
+        <v>0.551689</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296158</v>
+        <v>0.297774</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.724952</v>
+        <v>0.73477</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5667410000000001</v>
+        <v>0.570625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307862</v>
+        <v>0.311927</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.760414</v>
+        <v>0.770715</v>
       </c>
       <c r="C20" t="n">
-        <v>0.597629</v>
+        <v>0.5980569999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317086</v>
+        <v>0.322066</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.801444</v>
+        <v>0.805945</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632293</v>
+        <v>0.634058</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331804</v>
+        <v>0.331206</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.840941</v>
+        <v>0.84815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.666022</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341737</v>
+        <v>0.343183</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.891415</v>
+        <v>0.893331</v>
       </c>
       <c r="C23" t="n">
-        <v>0.700641</v>
+        <v>0.701728</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352791</v>
+        <v>0.351625</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.931597</v>
+        <v>0.933961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.736707</v>
+        <v>0.7322380000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365362</v>
+        <v>0.365342</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.972776</v>
+        <v>0.978471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.760954</v>
+        <v>0.764744</v>
       </c>
       <c r="D25" t="n">
-        <v>0.378742</v>
+        <v>0.377155</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01341</v>
+        <v>1.03055</v>
       </c>
       <c r="C26" t="n">
-        <v>0.485374</v>
+        <v>0.488412</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273992</v>
+        <v>0.276928</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.647979</v>
+        <v>0.656222</v>
       </c>
       <c r="C27" t="n">
-        <v>0.50731</v>
+        <v>0.513476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.282575</v>
+        <v>0.288603</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.674975</v>
+        <v>0.684597</v>
       </c>
       <c r="C28" t="n">
-        <v>0.536111</v>
+        <v>0.541625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291013</v>
+        <v>0.296171</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.707697</v>
+        <v>0.717836</v>
       </c>
       <c r="C29" t="n">
-        <v>0.558355</v>
+        <v>0.567551</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301634</v>
+        <v>0.306082</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.745164</v>
+        <v>0.754727</v>
       </c>
       <c r="C30" t="n">
-        <v>0.585074</v>
+        <v>0.595006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316912</v>
+        <v>0.316701</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.778466</v>
+        <v>0.7905219999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.623512</v>
+        <v>0.627573</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318447</v>
+        <v>0.324554</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.81581</v>
+        <v>0.828722</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6466190000000001</v>
+        <v>0.656769</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334398</v>
+        <v>0.334916</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.860232</v>
+        <v>0.869521</v>
       </c>
       <c r="C33" t="n">
-        <v>0.67798</v>
+        <v>0.686087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346257</v>
+        <v>0.34649</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.902388</v>
+        <v>0.909708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.719122</v>
+        <v>0.727517</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357328</v>
+        <v>0.353128</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.94419</v>
+        <v>0.950441</v>
       </c>
       <c r="C35" t="n">
-        <v>0.749875</v>
+        <v>0.757462</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364217</v>
+        <v>0.364471</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.979382</v>
+        <v>0.992524</v>
       </c>
       <c r="C36" t="n">
-        <v>0.781069</v>
+        <v>0.790667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378096</v>
+        <v>0.378995</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03055</v>
+        <v>1.03995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.81423</v>
+        <v>0.825607</v>
       </c>
       <c r="D37" t="n">
-        <v>0.389944</v>
+        <v>0.390311</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0679</v>
+        <v>1.08249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.866495</v>
       </c>
       <c r="D38" t="n">
-        <v>0.39587</v>
+        <v>0.400383</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1234</v>
+        <v>1.13108</v>
       </c>
       <c r="C39" t="n">
-        <v>0.887696</v>
+        <v>0.894136</v>
       </c>
       <c r="D39" t="n">
-        <v>0.414276</v>
+        <v>0.418028</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16658</v>
+        <v>1.17537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.544578</v>
+        <v>0.545837</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314655</v>
+        <v>0.314025</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704</v>
+        <v>0.708286</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5631080000000001</v>
+        <v>0.564426</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324594</v>
+        <v>0.324267</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.734202</v>
+        <v>0.738667</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5914779999999999</v>
+        <v>0.59405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333534</v>
+        <v>0.333828</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.768706</v>
+        <v>0.774551</v>
       </c>
       <c r="C43" t="n">
-        <v>0.619668</v>
+        <v>0.620282</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344574</v>
+        <v>0.343082</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805409</v>
+        <v>0.810597</v>
       </c>
       <c r="C44" t="n">
-        <v>0.649743</v>
+        <v>0.651617</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355698</v>
+        <v>0.353677</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.840154</v>
+        <v>0.846548</v>
       </c>
       <c r="C45" t="n">
-        <v>0.678739</v>
+        <v>0.679283</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360965</v>
+        <v>0.364207</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8825809999999999</v>
+        <v>0.8874840000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.709978</v>
+        <v>0.711133</v>
       </c>
       <c r="D46" t="n">
-        <v>0.374511</v>
+        <v>0.374588</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.923385</v>
+        <v>0.92652</v>
       </c>
       <c r="C47" t="n">
-        <v>0.742296</v>
+        <v>0.743057</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386041</v>
+        <v>0.388065</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.963032</v>
+        <v>0.968071</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7751749999999999</v>
+        <v>0.775346</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398973</v>
+        <v>0.397133</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00534</v>
+        <v>1.0095</v>
       </c>
       <c r="C49" t="n">
-        <v>0.811144</v>
+        <v>0.811842</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409252</v>
+        <v>0.409025</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04559</v>
+        <v>1.04986</v>
       </c>
       <c r="C50" t="n">
-        <v>0.848158</v>
+        <v>0.847241</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421491</v>
+        <v>0.417043</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09259</v>
+        <v>1.09881</v>
       </c>
       <c r="C51" t="n">
-        <v>0.885783</v>
+        <v>0.8864300000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.43535</v>
+        <v>0.432604</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13318</v>
+        <v>1.13837</v>
       </c>
       <c r="C52" t="n">
-        <v>0.920201</v>
+        <v>0.9188499999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447107</v>
+        <v>0.444054</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.17995</v>
+        <v>1.1856</v>
       </c>
       <c r="C53" t="n">
-        <v>0.957422</v>
+        <v>0.959186</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458261</v>
+        <v>0.45624</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22321</v>
+        <v>1.22743</v>
       </c>
       <c r="C54" t="n">
-        <v>0.573306</v>
+        <v>0.574088</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340854</v>
+        <v>0.337779</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26858</v>
+        <v>1.27568</v>
       </c>
       <c r="C55" t="n">
-        <v>0.59662</v>
+        <v>0.5973579999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348964</v>
+        <v>0.346949</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749691</v>
+        <v>0.753593</v>
       </c>
       <c r="C56" t="n">
-        <v>0.621874</v>
+        <v>0.623123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359328</v>
+        <v>0.357478</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.784155</v>
+        <v>0.786839</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647353</v>
+        <v>0.648381</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369712</v>
+        <v>0.367712</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818531</v>
+        <v>0.821027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.677276</v>
+        <v>0.678504</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378327</v>
+        <v>0.377498</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.851231</v>
+        <v>0.855817</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708815</v>
+        <v>0.7087560000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.391893</v>
+        <v>0.390367</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.89366</v>
+        <v>0.897265</v>
       </c>
       <c r="C60" t="n">
-        <v>0.738641</v>
+        <v>0.7395659999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402729</v>
+        <v>0.399157</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.931924</v>
+        <v>0.934747</v>
       </c>
       <c r="C61" t="n">
-        <v>0.773932</v>
+        <v>0.773875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411638</v>
+        <v>0.410036</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971566</v>
+        <v>0.9744429999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.807122</v>
+        <v>0.805291</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424252</v>
+        <v>0.420296</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01514</v>
+        <v>1.01979</v>
       </c>
       <c r="C63" t="n">
-        <v>0.84237</v>
+        <v>0.8410840000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433242</v>
+        <v>0.431816</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06412</v>
+        <v>1.06668</v>
       </c>
       <c r="C64" t="n">
-        <v>0.880464</v>
+        <v>0.875387</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446539</v>
+        <v>0.444763</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10588</v>
+        <v>1.11023</v>
       </c>
       <c r="C65" t="n">
-        <v>0.917589</v>
+        <v>0.915788</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460704</v>
+        <v>0.455875</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.156</v>
+        <v>1.15691</v>
       </c>
       <c r="C66" t="n">
-        <v>0.957155</v>
+        <v>0.952223</v>
       </c>
       <c r="D66" t="n">
-        <v>0.472858</v>
+        <v>0.469667</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20305</v>
+        <v>1.20048</v>
       </c>
       <c r="C67" t="n">
-        <v>0.999806</v>
+        <v>0.991131</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486718</v>
+        <v>0.480837</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26022</v>
+        <v>1.25643</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591067</v>
+        <v>0.591197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350021</v>
+        <v>0.349325</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32758</v>
+        <v>1.3234</v>
       </c>
       <c r="C69" t="n">
-        <v>0.624447</v>
+        <v>0.627219</v>
       </c>
       <c r="D69" t="n">
-        <v>0.36301</v>
+        <v>0.36214</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7997649999999999</v>
+        <v>0.804229</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6635180000000001</v>
+        <v>0.6658230000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376275</v>
+        <v>0.376149</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8488869999999999</v>
+        <v>0.854173</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706564</v>
+        <v>0.711491</v>
       </c>
       <c r="D71" t="n">
-        <v>0.388353</v>
+        <v>0.389391</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.90057</v>
+        <v>0.904843</v>
       </c>
       <c r="C72" t="n">
-        <v>0.749866</v>
+        <v>0.752385</v>
       </c>
       <c r="D72" t="n">
-        <v>0.402101</v>
+        <v>0.40245</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9583469999999999</v>
+        <v>0.968113</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796915</v>
+        <v>0.8045909999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.419078</v>
+        <v>0.419335</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.01965</v>
+        <v>1.03364</v>
       </c>
       <c r="C74" t="n">
-        <v>0.84722</v>
+        <v>0.860223</v>
       </c>
       <c r="D74" t="n">
-        <v>0.436578</v>
+        <v>0.435083</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.10051</v>
+        <v>1.11144</v>
       </c>
       <c r="C75" t="n">
-        <v>0.917571</v>
+        <v>0.928326</v>
       </c>
       <c r="D75" t="n">
-        <v>0.451317</v>
+        <v>0.454524</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18101</v>
+        <v>1.20156</v>
       </c>
       <c r="C76" t="n">
-        <v>0.985123</v>
+        <v>1.00032</v>
       </c>
       <c r="D76" t="n">
-        <v>0.471971</v>
+        <v>0.478902</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28747</v>
+        <v>1.2881</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06995</v>
+        <v>1.07371</v>
       </c>
       <c r="D77" t="n">
-        <v>0.490677</v>
+        <v>0.495422</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39934</v>
+        <v>1.39421</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16695</v>
+        <v>1.1624</v>
       </c>
       <c r="D78" t="n">
-        <v>0.519513</v>
+        <v>0.517933</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5432</v>
+        <v>1.52514</v>
       </c>
       <c r="C79" t="n">
-        <v>1.28789</v>
+        <v>1.26816</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552342</v>
+        <v>0.542427</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.69163</v>
+        <v>1.6851</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41602</v>
+        <v>1.40801</v>
       </c>
       <c r="D80" t="n">
-        <v>0.588601</v>
+        <v>0.58229</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.85964</v>
+        <v>1.87062</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56451</v>
+        <v>1.56496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.629868</v>
+        <v>0.611393</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04681</v>
+        <v>2.04247</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73544</v>
+        <v>1.72032</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64352</v>
+        <v>0.645241</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26285</v>
+        <v>2.2364</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10754</v>
+        <v>1.09231</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50062</v>
+        <v>0.483496</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.5106</v>
+        <v>2.48912</v>
       </c>
       <c r="C84" t="n">
-        <v>1.21427</v>
+        <v>1.20278</v>
       </c>
       <c r="D84" t="n">
-        <v>0.547036</v>
+        <v>0.528302</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59906</v>
+        <v>1.59657</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35045</v>
+        <v>1.33355</v>
       </c>
       <c r="D85" t="n">
-        <v>0.588458</v>
+        <v>0.558933</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76427</v>
+        <v>1.77047</v>
       </c>
       <c r="C86" t="n">
-        <v>1.4875</v>
+        <v>1.48266</v>
       </c>
       <c r="D86" t="n">
-        <v>0.623244</v>
+        <v>0.619753</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9431</v>
+        <v>1.95348</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6384</v>
+        <v>1.64523</v>
       </c>
       <c r="D87" t="n">
-        <v>0.673185</v>
+        <v>0.653908</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15826</v>
+        <v>2.15783</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81978</v>
+        <v>1.81722</v>
       </c>
       <c r="D88" t="n">
-        <v>0.72382</v>
+        <v>0.703786</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38002</v>
+        <v>2.39055</v>
       </c>
       <c r="C89" t="n">
-        <v>2.0171</v>
+        <v>2.02627</v>
       </c>
       <c r="D89" t="n">
-        <v>0.78567</v>
+        <v>0.760598</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.61529</v>
+        <v>2.63155</v>
       </c>
       <c r="C90" t="n">
-        <v>2.21521</v>
+        <v>2.23062</v>
       </c>
       <c r="D90" t="n">
-        <v>0.845377</v>
+        <v>0.829628</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.87554</v>
+        <v>2.89894</v>
       </c>
       <c r="C91" t="n">
-        <v>2.42274</v>
+        <v>2.44755</v>
       </c>
       <c r="D91" t="n">
-        <v>0.895618</v>
+        <v>0.883231</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.13677</v>
+        <v>3.15872</v>
       </c>
       <c r="C92" t="n">
-        <v>2.66691</v>
+        <v>2.68355</v>
       </c>
       <c r="D92" t="n">
-        <v>0.980006</v>
+        <v>0.956244</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.43154</v>
+        <v>3.45345</v>
       </c>
       <c r="C93" t="n">
-        <v>2.91513</v>
+        <v>2.919</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05671</v>
+        <v>1.03324</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.72542</v>
+        <v>3.75578</v>
       </c>
       <c r="C94" t="n">
-        <v>3.18594</v>
+        <v>3.18701</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13844</v>
+        <v>1.10911</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.04153</v>
+        <v>4.06618</v>
       </c>
       <c r="C95" t="n">
-        <v>3.43448</v>
+        <v>3.45364</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20712</v>
+        <v>1.19062</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36167</v>
+        <v>4.39245</v>
       </c>
       <c r="C96" t="n">
-        <v>3.73579</v>
+        <v>3.7619</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28344</v>
+        <v>1.26254</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.67966</v>
+        <v>4.72941</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13965</v>
+        <v>2.15193</v>
       </c>
       <c r="D97" t="n">
-        <v>0.927712</v>
+        <v>0.924042</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.97881</v>
+        <v>5.0288</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27946</v>
+        <v>2.28648</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9871450000000001</v>
+        <v>0.972265</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83086</v>
+        <v>2.84409</v>
       </c>
       <c r="C99" t="n">
-        <v>2.41307</v>
+        <v>2.42126</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0419</v>
+        <v>1.0435</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.00805</v>
+        <v>3.02848</v>
       </c>
       <c r="C100" t="n">
-        <v>2.55714</v>
+        <v>2.56929</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08875</v>
+        <v>1.09083</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.19551</v>
+        <v>3.21449</v>
       </c>
       <c r="C101" t="n">
-        <v>2.72712</v>
+        <v>2.73701</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15931</v>
+        <v>1.14045</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.41867</v>
+        <v>3.44303</v>
       </c>
       <c r="C102" t="n">
-        <v>2.91543</v>
+        <v>2.92232</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20855</v>
+        <v>1.20447</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.64939</v>
+        <v>3.67162</v>
       </c>
       <c r="C103" t="n">
-        <v>3.10699</v>
+        <v>3.12531</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27668</v>
+        <v>1.26374</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.8909</v>
+        <v>3.91172</v>
       </c>
       <c r="C104" t="n">
-        <v>3.32938</v>
+        <v>3.34715</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33454</v>
+        <v>1.32509</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.16041</v>
+        <v>4.17907</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55436</v>
+        <v>3.55703</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42485</v>
+        <v>1.39848</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.43953</v>
+        <v>4.4518</v>
       </c>
       <c r="C106" t="n">
-        <v>3.8107</v>
+        <v>3.81405</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47363</v>
+        <v>1.46278</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.73343</v>
+        <v>4.74673</v>
       </c>
       <c r="C107" t="n">
-        <v>4.06379</v>
+        <v>4.07656</v>
       </c>
       <c r="D107" t="n">
-        <v>1.55624</v>
+        <v>1.53777</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.02899</v>
+        <v>5.06315</v>
       </c>
       <c r="C108" t="n">
-        <v>4.3335</v>
+        <v>4.34432</v>
       </c>
       <c r="D108" t="n">
-        <v>1.6288</v>
+        <v>1.6144</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.36185</v>
+        <v>5.39381</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59481</v>
+        <v>4.63692</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70468</v>
+        <v>1.69167</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.66233</v>
+        <v>5.69047</v>
       </c>
       <c r="C110" t="n">
-        <v>4.89273</v>
+        <v>4.92101</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79581</v>
+        <v>1.76592</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0324</v>
+        <v>6.04604</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64697</v>
+        <v>2.64916</v>
       </c>
       <c r="D111" t="n">
-        <v>1.31194</v>
+        <v>1.2892</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.38035</v>
+        <v>6.40728</v>
       </c>
       <c r="C112" t="n">
-        <v>2.80418</v>
+        <v>2.8079</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37965</v>
+        <v>1.34414</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.72012</v>
+        <v>6.75753</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97601</v>
+        <v>2.97149</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41091</v>
+        <v>1.40092</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.67948</v>
+        <v>3.69488</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14765</v>
+        <v>3.16897</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46563</v>
+        <v>1.46044</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.90259</v>
+        <v>3.916</v>
       </c>
       <c r="C115" t="n">
-        <v>3.34496</v>
+        <v>3.3585</v>
       </c>
       <c r="D115" t="n">
-        <v>1.55066</v>
+        <v>1.53964</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.13787</v>
+        <v>4.1506</v>
       </c>
       <c r="C116" t="n">
-        <v>3.54789</v>
+        <v>3.56923</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59103</v>
+        <v>1.58384</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.38041</v>
+        <v>4.3954</v>
       </c>
       <c r="C117" t="n">
-        <v>3.76691</v>
+        <v>3.79771</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66463</v>
+        <v>1.65686</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.62304</v>
+        <v>4.64252</v>
       </c>
       <c r="C118" t="n">
-        <v>4.0151</v>
+        <v>4.02816</v>
       </c>
       <c r="D118" t="n">
-        <v>1.73191</v>
+        <v>1.72219</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90335</v>
+        <v>4.91943</v>
       </c>
       <c r="C119" t="n">
-        <v>4.25262</v>
+        <v>4.28474</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80286</v>
+        <v>1.7823</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.335572</v>
+        <v>0.339533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223187</v>
+        <v>0.25193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246685</v>
+        <v>0.249117</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.251399</v>
+        <v>0.257085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224138</v>
+        <v>0.253298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246718</v>
+        <v>0.251855</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258468</v>
+        <v>0.264165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229458</v>
+        <v>0.259318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252599</v>
+        <v>0.258636</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.266718</v>
+        <v>0.270533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233549</v>
+        <v>0.264448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256937</v>
+        <v>0.264255</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274943</v>
+        <v>0.282981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237717</v>
+        <v>0.269971</v>
       </c>
       <c r="D6" t="n">
-        <v>0.261307</v>
+        <v>0.269313</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.284473</v>
+        <v>0.289823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197117</v>
+        <v>0.223416</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219684</v>
+        <v>0.222943</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.291928</v>
+        <v>0.300182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20529</v>
+        <v>0.232222</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22605</v>
+        <v>0.231738</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.302195</v>
+        <v>0.308212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209323</v>
+        <v>0.236281</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232648</v>
+        <v>0.23664</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310615</v>
+        <v>0.316101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214159</v>
+        <v>0.242522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.240723</v>
+        <v>0.243674</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.318407</v>
+        <v>0.323186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219876</v>
+        <v>0.248199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247721</v>
+        <v>0.25319</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329212</v>
+        <v>0.332156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227799</v>
+        <v>0.256903</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257381</v>
+        <v>0.261395</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.338248</v>
+        <v>0.340924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232794</v>
+        <v>0.26302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.264201</v>
+        <v>0.269149</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.34723</v>
+        <v>0.349376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238215</v>
+        <v>0.267482</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270107</v>
+        <v>0.272457</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.358766</v>
+        <v>0.361904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2434</v>
+        <v>0.273579</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276143</v>
+        <v>0.279203</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.366449</v>
+        <v>0.369966</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247494</v>
+        <v>0.279045</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282411</v>
+        <v>0.285037</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.37768</v>
+        <v>0.38092</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254608</v>
+        <v>0.28562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290292</v>
+        <v>0.292667</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.289254</v>
+        <v>0.28917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.257809</v>
+        <v>0.288544</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294957</v>
+        <v>0.297453</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296479</v>
+        <v>0.296087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263943</v>
+        <v>0.294829</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301508</v>
+        <v>0.303749</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.306452</v>
+        <v>0.305395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.270178</v>
+        <v>0.30189</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308974</v>
+        <v>0.312983</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315423</v>
+        <v>0.314678</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216035</v>
+        <v>0.23938</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247893</v>
+        <v>0.246073</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324429</v>
+        <v>0.325039</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222898</v>
+        <v>0.246786</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254085</v>
+        <v>0.25252</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.33282</v>
+        <v>0.332567</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229056</v>
+        <v>0.252546</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261246</v>
+        <v>0.259734</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340008</v>
+        <v>0.340228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232976</v>
+        <v>0.258108</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267498</v>
+        <v>0.265734</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348151</v>
+        <v>0.347677</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238459</v>
+        <v>0.264258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274392</v>
+        <v>0.272867</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357507</v>
+        <v>0.356901</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245148</v>
+        <v>0.272384</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281937</v>
+        <v>0.279958</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365253</v>
+        <v>0.364675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24978</v>
+        <v>0.276572</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287911</v>
+        <v>0.286041</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.374244</v>
+        <v>0.373428</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255029</v>
+        <v>0.282241</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294076</v>
+        <v>0.292773</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383573</v>
+        <v>0.382725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260706</v>
+        <v>0.288741</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301422</v>
+        <v>0.299748</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.390975</v>
+        <v>0.390957</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265248</v>
+        <v>0.294158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.30787</v>
+        <v>0.306614</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.40007</v>
+        <v>0.399417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.271051</v>
+        <v>0.299799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313788</v>
+        <v>0.312405</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297557</v>
+        <v>0.297302</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276309</v>
+        <v>0.30552</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320736</v>
+        <v>0.319573</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305444</v>
+        <v>0.304954</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281895</v>
+        <v>0.311313</v>
       </c>
       <c r="D33" t="n">
-        <v>0.327155</v>
+        <v>0.325957</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313537</v>
+        <v>0.313667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286598</v>
+        <v>0.316623</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333554</v>
+        <v>0.332182</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322647</v>
+        <v>0.32256</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225638</v>
+        <v>0.250915</v>
       </c>
       <c r="D35" t="n">
-        <v>0.259231</v>
+        <v>0.259408</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.331587</v>
+        <v>0.33114</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231323</v>
+        <v>0.257355</v>
       </c>
       <c r="D36" t="n">
-        <v>0.265181</v>
+        <v>0.265285</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339594</v>
+        <v>0.339013</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236639</v>
+        <v>0.26335</v>
       </c>
       <c r="D37" t="n">
-        <v>0.271284</v>
+        <v>0.270926</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34773</v>
+        <v>0.347092</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242031</v>
+        <v>0.269069</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277072</v>
+        <v>0.277232</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356093</v>
+        <v>0.355314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.247631</v>
+        <v>0.275577</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284143</v>
+        <v>0.284267</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.36489</v>
+        <v>0.36429</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253234</v>
+        <v>0.281743</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290765</v>
+        <v>0.291028</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373246</v>
+        <v>0.372302</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258458</v>
+        <v>0.288158</v>
       </c>
       <c r="D41" t="n">
-        <v>0.297793</v>
+        <v>0.2979</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381162</v>
+        <v>0.380512</v>
       </c>
       <c r="C42" t="n">
-        <v>0.263629</v>
+        <v>0.294231</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303563</v>
+        <v>0.303786</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.39078</v>
+        <v>0.390164</v>
       </c>
       <c r="C43" t="n">
-        <v>0.269065</v>
+        <v>0.300267</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310689</v>
+        <v>0.311132</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.40014</v>
+        <v>0.399361</v>
       </c>
       <c r="C44" t="n">
-        <v>0.274144</v>
+        <v>0.305617</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317722</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408355</v>
+        <v>0.407172</v>
       </c>
       <c r="C45" t="n">
-        <v>0.279187</v>
+        <v>0.311245</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323483</v>
+        <v>0.323252</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418369</v>
+        <v>0.417874</v>
       </c>
       <c r="C46" t="n">
-        <v>0.283641</v>
+        <v>0.316301</v>
       </c>
       <c r="D46" t="n">
-        <v>0.329635</v>
+        <v>0.329303</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306051</v>
+        <v>0.305118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.288813</v>
+        <v>0.321484</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335736</v>
+        <v>0.335705</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313369</v>
+        <v>0.312213</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294003</v>
+        <v>0.32719</v>
       </c>
       <c r="D48" t="n">
-        <v>0.341944</v>
+        <v>0.34146</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321908</v>
+        <v>0.321209</v>
       </c>
       <c r="C49" t="n">
-        <v>0.298934</v>
+        <v>0.332403</v>
       </c>
       <c r="D49" t="n">
-        <v>0.350994</v>
+        <v>0.35074</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330876</v>
+        <v>0.329784</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233584</v>
+        <v>0.259236</v>
       </c>
       <c r="D50" t="n">
-        <v>0.262469</v>
+        <v>0.26138</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338456</v>
+        <v>0.337743</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239746</v>
+        <v>0.266651</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270152</v>
+        <v>0.269803</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347491</v>
+        <v>0.34704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245804</v>
+        <v>0.273432</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277514</v>
+        <v>0.276971</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355841</v>
+        <v>0.355246</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25139</v>
+        <v>0.279855</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284596</v>
+        <v>0.284056</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364799</v>
+        <v>0.363679</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256859</v>
+        <v>0.286196</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291528</v>
+        <v>0.291268</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372414</v>
+        <v>0.371688</v>
       </c>
       <c r="C55" t="n">
-        <v>0.26263</v>
+        <v>0.292758</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29888</v>
+        <v>0.297738</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.380825</v>
+        <v>0.380126</v>
       </c>
       <c r="C56" t="n">
-        <v>0.268156</v>
+        <v>0.298125</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30622</v>
+        <v>0.306144</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.389724</v>
+        <v>0.38938</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272943</v>
+        <v>0.303831</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312977</v>
+        <v>0.313087</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.398747</v>
+        <v>0.397979</v>
       </c>
       <c r="C58" t="n">
-        <v>0.277515</v>
+        <v>0.308882</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319576</v>
+        <v>0.319873</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407158</v>
+        <v>0.406419</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282163</v>
+        <v>0.314663</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326092</v>
+        <v>0.324927</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.417071</v>
+        <v>0.417082</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287104</v>
+        <v>0.321142</v>
       </c>
       <c r="D60" t="n">
-        <v>0.333144</v>
+        <v>0.333889</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.310251</v>
+        <v>0.306679</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292106</v>
+        <v>0.326526</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339696</v>
+        <v>0.340608</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.321285</v>
+        <v>0.31639</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296738</v>
+        <v>0.331733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345543</v>
+        <v>0.345954</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.33077</v>
+        <v>0.3274</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302863</v>
+        <v>0.338057</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354454</v>
+        <v>0.354555</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.340938</v>
+        <v>0.338536</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242833</v>
+        <v>0.270493</v>
       </c>
       <c r="D64" t="n">
-        <v>0.276594</v>
+        <v>0.275841</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.349792</v>
+        <v>0.344815</v>
       </c>
       <c r="C65" t="n">
-        <v>0.249455</v>
+        <v>0.277986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.284837</v>
+        <v>0.284357</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.362464</v>
+        <v>0.355704</v>
       </c>
       <c r="C66" t="n">
-        <v>0.260575</v>
+        <v>0.288358</v>
       </c>
       <c r="D66" t="n">
-        <v>0.293693</v>
+        <v>0.29405</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.373421</v>
+        <v>0.370399</v>
       </c>
       <c r="C67" t="n">
-        <v>0.268798</v>
+        <v>0.294808</v>
       </c>
       <c r="D67" t="n">
-        <v>0.302933</v>
+        <v>0.303141</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.386116</v>
+        <v>0.384406</v>
       </c>
       <c r="C68" t="n">
-        <v>0.275149</v>
+        <v>0.303054</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3133</v>
+        <v>0.314631</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.403331</v>
+        <v>0.400922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.280264</v>
+        <v>0.311032</v>
       </c>
       <c r="D69" t="n">
-        <v>0.326933</v>
+        <v>0.326443</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.422079</v>
+        <v>0.417125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.290887</v>
+        <v>0.327611</v>
       </c>
       <c r="D70" t="n">
-        <v>0.341934</v>
+        <v>0.339425</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.441823</v>
+        <v>0.435705</v>
       </c>
       <c r="C71" t="n">
-        <v>0.301069</v>
+        <v>0.341075</v>
       </c>
       <c r="D71" t="n">
-        <v>0.355074</v>
+        <v>0.355676</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.462391</v>
+        <v>0.460334</v>
       </c>
       <c r="C72" t="n">
-        <v>0.312904</v>
+        <v>0.354786</v>
       </c>
       <c r="D72" t="n">
-        <v>0.371775</v>
+        <v>0.373545</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.485072</v>
+        <v>0.483774</v>
       </c>
       <c r="C73" t="n">
-        <v>0.32368</v>
+        <v>0.365978</v>
       </c>
       <c r="D73" t="n">
-        <v>0.386651</v>
+        <v>0.386178</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.506097</v>
+        <v>0.504233</v>
       </c>
       <c r="C74" t="n">
-        <v>0.333365</v>
+        <v>0.378571</v>
       </c>
       <c r="D74" t="n">
-        <v>0.400968</v>
+        <v>0.401559</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.523949</v>
+        <v>0.522904</v>
       </c>
       <c r="C75" t="n">
-        <v>0.34587</v>
+        <v>0.393482</v>
       </c>
       <c r="D75" t="n">
-        <v>0.417902</v>
+        <v>0.418364</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.46752</v>
+        <v>0.479125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.360542</v>
+        <v>0.412551</v>
       </c>
       <c r="D76" t="n">
-        <v>0.436166</v>
+        <v>0.439659</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.495685</v>
+        <v>0.508034</v>
       </c>
       <c r="C77" t="n">
-        <v>0.376857</v>
+        <v>0.430101</v>
       </c>
       <c r="D77" t="n">
-        <v>0.456229</v>
+        <v>0.460359</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.528224</v>
+        <v>0.53431</v>
       </c>
       <c r="C78" t="n">
-        <v>0.333093</v>
+        <v>0.384635</v>
       </c>
       <c r="D78" t="n">
-        <v>0.416767</v>
+        <v>0.420031</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.551821</v>
+        <v>0.562593</v>
       </c>
       <c r="C79" t="n">
-        <v>0.349513</v>
+        <v>0.405605</v>
       </c>
       <c r="D79" t="n">
-        <v>0.439459</v>
+        <v>0.442375</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5867</v>
+        <v>0.594876</v>
       </c>
       <c r="C80" t="n">
-        <v>0.375689</v>
+        <v>0.439838</v>
       </c>
       <c r="D80" t="n">
-        <v>0.465061</v>
+        <v>0.467555</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.62274</v>
+        <v>0.628221</v>
       </c>
       <c r="C81" t="n">
-        <v>0.391417</v>
+        <v>0.456572</v>
       </c>
       <c r="D81" t="n">
-        <v>0.489387</v>
+        <v>0.490719</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.660116</v>
+        <v>0.664022</v>
       </c>
       <c r="C82" t="n">
-        <v>0.408292</v>
+        <v>0.477511</v>
       </c>
       <c r="D82" t="n">
-        <v>0.515962</v>
+        <v>0.518153</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.698379</v>
+        <v>0.701469</v>
       </c>
       <c r="C83" t="n">
-        <v>0.428779</v>
+        <v>0.500085</v>
       </c>
       <c r="D83" t="n">
-        <v>0.544026</v>
+        <v>0.546177</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.732069</v>
+        <v>0.734729</v>
       </c>
       <c r="C84" t="n">
-        <v>0.449518</v>
+        <v>0.52503</v>
       </c>
       <c r="D84" t="n">
-        <v>0.572901</v>
+        <v>0.574389</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.770547</v>
+        <v>0.774016</v>
       </c>
       <c r="C85" t="n">
-        <v>0.472269</v>
+        <v>0.550234</v>
       </c>
       <c r="D85" t="n">
-        <v>0.602598</v>
+        <v>0.603434</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.810416</v>
+        <v>0.812531</v>
       </c>
       <c r="C86" t="n">
-        <v>0.49508</v>
+        <v>0.577671</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6338</v>
+        <v>0.634227</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.852175</v>
+        <v>0.854407</v>
       </c>
       <c r="C87" t="n">
-        <v>0.517005</v>
+        <v>0.6042</v>
       </c>
       <c r="D87" t="n">
-        <v>0.664234</v>
+        <v>0.664538</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.894466</v>
+        <v>0.896663</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5404</v>
+        <v>0.630354</v>
       </c>
       <c r="D88" t="n">
-        <v>0.694899</v>
+        <v>0.694852</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9393</v>
+        <v>0.941056</v>
       </c>
       <c r="C89" t="n">
-        <v>0.565111</v>
+        <v>0.659388</v>
       </c>
       <c r="D89" t="n">
-        <v>0.727789</v>
+        <v>0.727916</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.823585</v>
+        <v>0.814738</v>
       </c>
       <c r="C90" t="n">
-        <v>0.590065</v>
+        <v>0.687966</v>
       </c>
       <c r="D90" t="n">
-        <v>0.74854</v>
+        <v>0.747109</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.85095</v>
+        <v>0.841298</v>
       </c>
       <c r="C91" t="n">
-        <v>0.616861</v>
+        <v>0.7185009999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.780992</v>
+        <v>0.7800820000000001</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.880154</v>
+        <v>0.870228</v>
       </c>
       <c r="C92" t="n">
-        <v>0.53141</v>
+        <v>0.6147010000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.669455</v>
+        <v>0.649802</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.909539</v>
+        <v>0.89897</v>
       </c>
       <c r="C93" t="n">
-        <v>0.547378</v>
+        <v>0.634633</v>
       </c>
       <c r="D93" t="n">
-        <v>0.693811</v>
+        <v>0.673955</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.938592</v>
+        <v>0.9294289999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.564143</v>
+        <v>0.655428</v>
       </c>
       <c r="D94" t="n">
-        <v>0.725618</v>
+        <v>0.699925</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.970002</v>
+        <v>0.959477</v>
       </c>
       <c r="C95" t="n">
-        <v>0.581236</v>
+        <v>0.676028</v>
       </c>
       <c r="D95" t="n">
-        <v>0.759287</v>
+        <v>0.739961</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.995281</v>
+        <v>0.985556</v>
       </c>
       <c r="C96" t="n">
-        <v>0.599127</v>
+        <v>0.710433</v>
       </c>
       <c r="D96" t="n">
-        <v>0.786818</v>
+        <v>0.767038</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02676</v>
+        <v>1.01654</v>
       </c>
       <c r="C97" t="n">
-        <v>0.617459</v>
+        <v>0.733087</v>
       </c>
       <c r="D97" t="n">
-        <v>0.817571</v>
+        <v>0.794895</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06518</v>
+        <v>1.06207</v>
       </c>
       <c r="C98" t="n">
-        <v>0.63656</v>
+        <v>0.744596</v>
       </c>
       <c r="D98" t="n">
-        <v>0.843695</v>
+        <v>0.823334</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10117</v>
+        <v>1.09147</v>
       </c>
       <c r="C99" t="n">
-        <v>0.656037</v>
+        <v>0.76775</v>
       </c>
       <c r="D99" t="n">
-        <v>0.872599</v>
+        <v>0.853581</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13555</v>
+        <v>1.12656</v>
       </c>
       <c r="C100" t="n">
-        <v>0.676183</v>
+        <v>0.792204</v>
       </c>
       <c r="D100" t="n">
-        <v>0.90415</v>
+        <v>0.885419</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16004</v>
+        <v>1.15024</v>
       </c>
       <c r="C101" t="n">
-        <v>0.697366</v>
+        <v>0.816977</v>
       </c>
       <c r="D101" t="n">
-        <v>0.935149</v>
+        <v>0.916894</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.19611</v>
+        <v>1.1865</v>
       </c>
       <c r="C102" t="n">
-        <v>0.719858</v>
+        <v>0.843756</v>
       </c>
       <c r="D102" t="n">
-        <v>0.967655</v>
+        <v>0.957126</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23759</v>
+        <v>1.22702</v>
       </c>
       <c r="C103" t="n">
-        <v>0.74294</v>
+        <v>0.870487</v>
       </c>
       <c r="D103" t="n">
-        <v>1.002</v>
+        <v>0.99068</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27635</v>
+        <v>1.26627</v>
       </c>
       <c r="C104" t="n">
-        <v>0.766229</v>
+        <v>0.897855</v>
       </c>
       <c r="D104" t="n">
-        <v>1.03551</v>
+        <v>1.02556</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.0204</v>
+        <v>1.0179</v>
       </c>
       <c r="C105" t="n">
-        <v>0.787031</v>
+        <v>0.9257880000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05858</v>
+        <v>1.04587</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05007</v>
+        <v>1.04357</v>
       </c>
       <c r="C106" t="n">
-        <v>0.817221</v>
+        <v>0.967795</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09412</v>
+        <v>1.09262</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07358</v>
+        <v>1.06972</v>
       </c>
       <c r="C107" t="n">
-        <v>0.656447</v>
+        <v>0.773221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.900904</v>
+        <v>0.876122</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09948</v>
+        <v>1.09668</v>
       </c>
       <c r="C108" t="n">
-        <v>0.668868</v>
+        <v>0.803831</v>
       </c>
       <c r="D108" t="n">
-        <v>0.923909</v>
+        <v>0.920095</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.13015</v>
+        <v>1.11734</v>
       </c>
       <c r="C109" t="n">
-        <v>0.687573</v>
+        <v>0.825998</v>
       </c>
       <c r="D109" t="n">
-        <v>0.95577</v>
+        <v>0.9486289999999999</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.14862</v>
+        <v>1.14909</v>
       </c>
       <c r="C110" t="n">
-        <v>0.704277</v>
+        <v>0.848155</v>
       </c>
       <c r="D110" t="n">
-        <v>0.96837</v>
+        <v>0.976125</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18722</v>
+        <v>1.17771</v>
       </c>
       <c r="C111" t="n">
-        <v>0.721886</v>
+        <v>0.868155</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01079</v>
+        <v>0.999572</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22379</v>
+        <v>1.2123</v>
       </c>
       <c r="C112" t="n">
-        <v>0.74017</v>
+        <v>0.888201</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03951</v>
+        <v>1.01089</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2557</v>
+        <v>1.23622</v>
       </c>
       <c r="C113" t="n">
-        <v>0.758787</v>
+        <v>0.900269</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06837</v>
+        <v>1.04019</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28698</v>
+        <v>1.26612</v>
       </c>
       <c r="C114" t="n">
-        <v>0.778165</v>
+        <v>0.923821</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09794</v>
+        <v>1.06899</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32256</v>
+        <v>1.30301</v>
       </c>
       <c r="C115" t="n">
-        <v>0.799212</v>
+        <v>0.9481309999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12783</v>
+        <v>1.11962</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35932</v>
+        <v>1.34605</v>
       </c>
       <c r="C116" t="n">
-        <v>0.819775</v>
+        <v>0.985083</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15842</v>
+        <v>1.14939</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39681</v>
+        <v>1.38395</v>
       </c>
       <c r="C117" t="n">
-        <v>0.842656</v>
+        <v>1.01052</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19003</v>
+        <v>1.18288</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43847</v>
+        <v>1.4257</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8661</v>
+        <v>1.03713</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21841</v>
+        <v>1.21757</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11372</v>
+        <v>1.10981</v>
       </c>
       <c r="C119" t="n">
-        <v>0.891037</v>
+        <v>1.06495</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25944</v>
+        <v>1.24661</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267463</v>
+        <v>0.271674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.174831</v>
+        <v>0.187946</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140623</v>
+        <v>0.140567</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193018</v>
+        <v>0.196558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177542</v>
+        <v>0.190899</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140847</v>
+        <v>0.141553</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199053</v>
+        <v>0.201912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.183182</v>
+        <v>0.197126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145333</v>
+        <v>0.145636</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.206995</v>
+        <v>0.211338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192489</v>
+        <v>0.205795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.149406</v>
+        <v>0.149735</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.212813</v>
+        <v>0.216935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196224</v>
+        <v>0.212801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152612</v>
+        <v>0.153076</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220078</v>
+        <v>0.226165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.155801</v>
+        <v>0.178712</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136643</v>
+        <v>0.140299</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228421</v>
+        <v>0.232947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158995</v>
+        <v>0.181907</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137772</v>
+        <v>0.142862</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.235919</v>
+        <v>0.23959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166336</v>
+        <v>0.188632</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14052</v>
+        <v>0.145569</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242594</v>
+        <v>0.247824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.172359</v>
+        <v>0.191452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.143358</v>
+        <v>0.14809</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.250529</v>
+        <v>0.256176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175918</v>
+        <v>0.197625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145518</v>
+        <v>0.151294</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261163</v>
+        <v>0.265797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185211</v>
+        <v>0.203398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151092</v>
+        <v>0.153352</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268392</v>
+        <v>0.272619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192615</v>
+        <v>0.212587</v>
       </c>
       <c r="D13" t="n">
-        <v>0.153917</v>
+        <v>0.157527</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280495</v>
+        <v>0.283233</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199344</v>
+        <v>0.21825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.157215</v>
+        <v>0.160822</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.293824</v>
+        <v>0.296744</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205484</v>
+        <v>0.224461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161901</v>
+        <v>0.165255</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302075</v>
+        <v>0.304118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214296</v>
+        <v>0.233209</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166213</v>
+        <v>0.167967</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.315724</v>
+        <v>0.317687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.221965</v>
+        <v>0.239511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.169996</v>
+        <v>0.172496</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.232579</v>
+        <v>0.233503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227932</v>
+        <v>0.245698</v>
       </c>
       <c r="D18" t="n">
-        <v>0.173903</v>
+        <v>0.175073</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.241699</v>
+        <v>0.242091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.236627</v>
+        <v>0.255026</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177845</v>
+        <v>0.180813</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247062</v>
+        <v>0.247319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.246391</v>
+        <v>0.265988</v>
       </c>
       <c r="D20" t="n">
-        <v>0.183675</v>
+        <v>0.18402</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253631</v>
+        <v>0.254584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.197322</v>
+        <v>0.214581</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166945</v>
+        <v>0.169194</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.258775</v>
+        <v>0.259491</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202656</v>
+        <v>0.219848</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170595</v>
+        <v>0.172219</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267896</v>
+        <v>0.268318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207647</v>
+        <v>0.225113</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173218</v>
+        <v>0.175146</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276022</v>
+        <v>0.276876</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211751</v>
+        <v>0.229532</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176177</v>
+        <v>0.17761</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284061</v>
+        <v>0.284379</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216403</v>
+        <v>0.235556</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178498</v>
+        <v>0.180344</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29205</v>
+        <v>0.293669</v>
       </c>
       <c r="C26" t="n">
-        <v>0.224115</v>
+        <v>0.242805</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182049</v>
+        <v>0.184146</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.300887</v>
+        <v>0.30245</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22821</v>
+        <v>0.246704</v>
       </c>
       <c r="D27" t="n">
-        <v>0.184644</v>
+        <v>0.186186</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312235</v>
+        <v>0.31433</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233811</v>
+        <v>0.252262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187842</v>
+        <v>0.189773</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.321435</v>
+        <v>0.324337</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23983</v>
+        <v>0.258888</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190875</v>
+        <v>0.193274</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.331439</v>
+        <v>0.33429</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248112</v>
+        <v>0.267508</v>
       </c>
       <c r="D30" t="n">
-        <v>0.194125</v>
+        <v>0.196731</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.344332</v>
+        <v>0.346726</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252077</v>
+        <v>0.27101</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197633</v>
+        <v>0.199581</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24815</v>
+        <v>0.249183</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262667</v>
+        <v>0.281897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202948</v>
+        <v>0.203614</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254067</v>
+        <v>0.255699</v>
       </c>
       <c r="C33" t="n">
-        <v>0.268952</v>
+        <v>0.289079</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207499</v>
+        <v>0.207382</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261137</v>
+        <v>0.262419</v>
       </c>
       <c r="C34" t="n">
-        <v>0.277583</v>
+        <v>0.297375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211682</v>
+        <v>0.210831</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268279</v>
+        <v>0.26879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208796</v>
+        <v>0.226173</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181235</v>
+        <v>0.181509</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274476</v>
+        <v>0.274959</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21555</v>
+        <v>0.2326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183959</v>
+        <v>0.184245</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28086</v>
+        <v>0.281607</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219614</v>
+        <v>0.236334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186845</v>
+        <v>0.187089</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288689</v>
+        <v>0.289707</v>
       </c>
       <c r="C38" t="n">
-        <v>0.225033</v>
+        <v>0.241985</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189879</v>
+        <v>0.189917</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295236</v>
+        <v>0.29589</v>
       </c>
       <c r="C39" t="n">
-        <v>0.229857</v>
+        <v>0.247392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.192591</v>
+        <v>0.192864</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304594</v>
+        <v>0.305451</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236117</v>
+        <v>0.254075</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195834</v>
+        <v>0.195677</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314259</v>
+        <v>0.315068</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241592</v>
+        <v>0.259115</v>
       </c>
       <c r="D41" t="n">
-        <v>0.198154</v>
+        <v>0.198304</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325005</v>
+        <v>0.325682</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245131</v>
+        <v>0.263387</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200964</v>
+        <v>0.201025</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.33527</v>
+        <v>0.335658</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251486</v>
+        <v>0.27024</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204208</v>
+        <v>0.204391</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344258</v>
+        <v>0.344894</v>
       </c>
       <c r="C44" t="n">
-        <v>0.259424</v>
+        <v>0.278042</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207942</v>
+        <v>0.207671</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355417</v>
+        <v>0.356314</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265263</v>
+        <v>0.284159</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21022</v>
+        <v>0.211002</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.367866</v>
+        <v>0.368756</v>
       </c>
       <c r="C46" t="n">
-        <v>0.273063</v>
+        <v>0.292459</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214006</v>
+        <v>0.214455</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259799</v>
+        <v>0.259195</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280074</v>
+        <v>0.299152</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218396</v>
+        <v>0.218671</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265347</v>
+        <v>0.264911</v>
       </c>
       <c r="C48" t="n">
-        <v>0.288231</v>
+        <v>0.307831</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222171</v>
+        <v>0.22245</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.271895</v>
+        <v>0.271681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.296944</v>
+        <v>0.316648</v>
       </c>
       <c r="D49" t="n">
-        <v>0.226019</v>
+        <v>0.226407</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.278803</v>
+        <v>0.278315</v>
       </c>
       <c r="C50" t="n">
-        <v>0.219522</v>
+        <v>0.236155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185831</v>
+        <v>0.184615</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285582</v>
+        <v>0.285269</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224072</v>
+        <v>0.241728</v>
       </c>
       <c r="D51" t="n">
-        <v>0.188229</v>
+        <v>0.187109</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292174</v>
+        <v>0.29187</v>
       </c>
       <c r="C52" t="n">
-        <v>0.229491</v>
+        <v>0.247197</v>
       </c>
       <c r="D52" t="n">
-        <v>0.191346</v>
+        <v>0.190055</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301392</v>
+        <v>0.301066</v>
       </c>
       <c r="C53" t="n">
-        <v>0.235816</v>
+        <v>0.253533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19408</v>
+        <v>0.192945</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309635</v>
+        <v>0.309386</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241204</v>
+        <v>0.259115</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196772</v>
+        <v>0.195709</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31843</v>
+        <v>0.31847</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246963</v>
+        <v>0.265153</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199656</v>
+        <v>0.199371</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32877</v>
+        <v>0.328479</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252186</v>
+        <v>0.269527</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202914</v>
+        <v>0.201712</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.33806</v>
+        <v>0.338006</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258772</v>
+        <v>0.276999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206268</v>
+        <v>0.205088</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348486</v>
+        <v>0.348159</v>
       </c>
       <c r="C58" t="n">
-        <v>0.26613</v>
+        <v>0.284138</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209767</v>
+        <v>0.208485</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359602</v>
+        <v>0.358808</v>
       </c>
       <c r="C59" t="n">
-        <v>0.272526</v>
+        <v>0.291984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213059</v>
+        <v>0.212126</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369905</v>
+        <v>0.372051</v>
       </c>
       <c r="C60" t="n">
-        <v>0.279052</v>
+        <v>0.300595</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21673</v>
+        <v>0.217269</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264313</v>
+        <v>0.266663</v>
       </c>
       <c r="C61" t="n">
-        <v>0.28818</v>
+        <v>0.309364</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220668</v>
+        <v>0.221094</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272689</v>
+        <v>0.277536</v>
       </c>
       <c r="C62" t="n">
-        <v>0.295628</v>
+        <v>0.317238</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223445</v>
+        <v>0.224229</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.282358</v>
+        <v>0.286718</v>
       </c>
       <c r="C63" t="n">
-        <v>0.305003</v>
+        <v>0.326958</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228104</v>
+        <v>0.227853</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.293612</v>
+        <v>0.301143</v>
       </c>
       <c r="C64" t="n">
-        <v>0.233727</v>
+        <v>0.256418</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197207</v>
+        <v>0.199283</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.299572</v>
+        <v>0.298845</v>
       </c>
       <c r="C65" t="n">
-        <v>0.23985</v>
+        <v>0.260694</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198053</v>
+        <v>0.199058</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.309902</v>
+        <v>0.311712</v>
       </c>
       <c r="C66" t="n">
-        <v>0.249078</v>
+        <v>0.266496</v>
       </c>
       <c r="D66" t="n">
-        <v>0.202824</v>
+        <v>0.203874</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.321928</v>
+        <v>0.325785</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255749</v>
+        <v>0.2747</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207025</v>
+        <v>0.208316</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.33578</v>
+        <v>0.340807</v>
       </c>
       <c r="C68" t="n">
-        <v>0.263406</v>
+        <v>0.282785</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211996</v>
+        <v>0.213457</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349147</v>
+        <v>0.356625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273386</v>
+        <v>0.294087</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216175</v>
+        <v>0.215663</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364892</v>
+        <v>0.374779</v>
       </c>
       <c r="C70" t="n">
-        <v>0.285647</v>
+        <v>0.312724</v>
       </c>
       <c r="D70" t="n">
-        <v>0.22194</v>
+        <v>0.221483</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.384131</v>
+        <v>0.392981</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298015</v>
+        <v>0.328315</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226199</v>
+        <v>0.228555</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.404328</v>
+        <v>0.415673</v>
       </c>
       <c r="C72" t="n">
-        <v>0.311831</v>
+        <v>0.341237</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233112</v>
+        <v>0.235194</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.426468</v>
+        <v>0.439146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.325837</v>
+        <v>0.361582</v>
       </c>
       <c r="D73" t="n">
-        <v>0.239751</v>
+        <v>0.241692</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.44627</v>
+        <v>0.464852</v>
       </c>
       <c r="C74" t="n">
-        <v>0.340879</v>
+        <v>0.379111</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244394</v>
+        <v>0.24874</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.471463</v>
+        <v>0.492384</v>
       </c>
       <c r="C75" t="n">
-        <v>0.360276</v>
+        <v>0.400733</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253887</v>
+        <v>0.258382</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.414167</v>
+        <v>0.4092</v>
       </c>
       <c r="C76" t="n">
-        <v>0.384191</v>
+        <v>0.425487</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262217</v>
+        <v>0.266366</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.450075</v>
+        <v>0.439705</v>
       </c>
       <c r="C77" t="n">
-        <v>0.410804</v>
+        <v>0.450159</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269204</v>
+        <v>0.275564</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.47359</v>
+        <v>0.469085</v>
       </c>
       <c r="C78" t="n">
-        <v>0.371107</v>
+        <v>0.405199</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258015</v>
+        <v>0.261474</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.507487</v>
+        <v>0.502727</v>
       </c>
       <c r="C79" t="n">
-        <v>0.394113</v>
+        <v>0.427944</v>
       </c>
       <c r="D79" t="n">
-        <v>0.272503</v>
+        <v>0.27588</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.544031</v>
+        <v>0.539385</v>
       </c>
       <c r="C80" t="n">
-        <v>0.423237</v>
+        <v>0.456226</v>
       </c>
       <c r="D80" t="n">
-        <v>0.286324</v>
+        <v>0.287367</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.590894</v>
+        <v>0.585175</v>
       </c>
       <c r="C81" t="n">
-        <v>0.45925</v>
+        <v>0.49046</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301505</v>
+        <v>0.302995</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6339590000000001</v>
+        <v>0.625916</v>
       </c>
       <c r="C82" t="n">
-        <v>0.493375</v>
+        <v>0.525206</v>
       </c>
       <c r="D82" t="n">
-        <v>0.319183</v>
+        <v>0.319474</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6832780000000001</v>
+        <v>0.676674</v>
       </c>
       <c r="C83" t="n">
-        <v>0.530239</v>
+        <v>0.5605520000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335819</v>
+        <v>0.334964</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.737289</v>
+        <v>0.733447</v>
       </c>
       <c r="C84" t="n">
-        <v>0.563499</v>
+        <v>0.60087</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357383</v>
+        <v>0.357532</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.791649</v>
+        <v>0.788029</v>
       </c>
       <c r="C85" t="n">
-        <v>0.602231</v>
+        <v>0.6395999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.377988</v>
+        <v>0.375593</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851882</v>
+        <v>0.846541</v>
       </c>
       <c r="C86" t="n">
-        <v>0.640918</v>
+        <v>0.680494</v>
       </c>
       <c r="D86" t="n">
-        <v>0.400852</v>
+        <v>0.40043</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.910895</v>
+        <v>0.906565</v>
       </c>
       <c r="C87" t="n">
-        <v>0.689221</v>
+        <v>0.7294119999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.424397</v>
+        <v>0.423641</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9803190000000001</v>
+        <v>0.976232</v>
       </c>
       <c r="C88" t="n">
-        <v>0.732173</v>
+        <v>0.77443</v>
       </c>
       <c r="D88" t="n">
-        <v>0.450408</v>
+        <v>0.447392</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05085</v>
+        <v>1.04629</v>
       </c>
       <c r="C89" t="n">
-        <v>0.781796</v>
+        <v>0.825944</v>
       </c>
       <c r="D89" t="n">
-        <v>0.473762</v>
+        <v>0.472503</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.823739</v>
+        <v>0.827669</v>
       </c>
       <c r="C90" t="n">
-        <v>0.827843</v>
+        <v>0.874323</v>
       </c>
       <c r="D90" t="n">
-        <v>0.49773</v>
+        <v>0.499128</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.858051</v>
+        <v>0.861514</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8799630000000001</v>
+        <v>0.928768</v>
       </c>
       <c r="D91" t="n">
-        <v>0.524693</v>
+        <v>0.525837</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.898039</v>
+        <v>0.901489</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7009030000000001</v>
+        <v>0.763947</v>
       </c>
       <c r="D92" t="n">
-        <v>0.500771</v>
+        <v>0.503163</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.935059</v>
+        <v>0.940102</v>
       </c>
       <c r="C93" t="n">
-        <v>0.728359</v>
+        <v>0.792853</v>
       </c>
       <c r="D93" t="n">
-        <v>0.517557</v>
+        <v>0.520385</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.976579</v>
+        <v>0.982931</v>
       </c>
       <c r="C94" t="n">
-        <v>0.75756</v>
+        <v>0.825531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5331129999999999</v>
+        <v>0.537374</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02248</v>
+        <v>1.02765</v>
       </c>
       <c r="C95" t="n">
-        <v>0.79282</v>
+        <v>0.855097</v>
       </c>
       <c r="D95" t="n">
-        <v>0.554126</v>
+        <v>0.556434</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06626</v>
+        <v>1.06878</v>
       </c>
       <c r="C96" t="n">
-        <v>0.826355</v>
+        <v>0.889743</v>
       </c>
       <c r="D96" t="n">
-        <v>0.572874</v>
+        <v>0.575446</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11119</v>
+        <v>1.1141</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860231</v>
+        <v>0.926505</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592942</v>
+        <v>0.594034</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15905</v>
+        <v>1.16509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.888096</v>
+        <v>0.95926</v>
       </c>
       <c r="D98" t="n">
-        <v>0.612717</v>
+        <v>0.614439</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20233</v>
+        <v>1.21271</v>
       </c>
       <c r="C99" t="n">
-        <v>0.924052</v>
+        <v>0.995584</v>
       </c>
       <c r="D99" t="n">
-        <v>0.633414</v>
+        <v>0.636427</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24766</v>
+        <v>1.2574</v>
       </c>
       <c r="C100" t="n">
-        <v>0.960294</v>
+        <v>1.03169</v>
       </c>
       <c r="D100" t="n">
-        <v>0.65447</v>
+        <v>0.659245</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29586</v>
+        <v>1.30977</v>
       </c>
       <c r="C101" t="n">
-        <v>0.993383</v>
+        <v>1.06798</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6772359999999999</v>
+        <v>0.681052</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35362</v>
+        <v>1.36606</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0291</v>
+        <v>1.10604</v>
       </c>
       <c r="D102" t="n">
-        <v>0.706187</v>
+        <v>0.706908</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41485</v>
+        <v>1.42544</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06752</v>
+        <v>1.15034</v>
       </c>
       <c r="D103" t="n">
-        <v>0.724034</v>
+        <v>0.726251</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48168</v>
+        <v>1.49217</v>
       </c>
       <c r="C104" t="n">
-        <v>1.10925</v>
+        <v>1.1926</v>
       </c>
       <c r="D104" t="n">
-        <v>0.748588</v>
+        <v>0.753124</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02444</v>
+        <v>1.03254</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15878</v>
+        <v>1.23789</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7810049999999999</v>
+        <v>0.776342</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06125</v>
+        <v>1.06384</v>
       </c>
       <c r="C106" t="n">
-        <v>1.20482</v>
+        <v>1.29345</v>
       </c>
       <c r="D106" t="n">
-        <v>0.806038</v>
+        <v>0.8085020000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09636</v>
+        <v>1.10684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.862017</v>
+        <v>0.9592349999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.682308</v>
+        <v>0.699476</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13503</v>
+        <v>1.13098</v>
       </c>
       <c r="C108" t="n">
-        <v>0.892904</v>
+        <v>0.980759</v>
       </c>
       <c r="D108" t="n">
-        <v>0.712467</v>
+        <v>0.703633</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17604</v>
+        <v>1.1877</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912866</v>
+        <v>1.00591</v>
       </c>
       <c r="D109" t="n">
-        <v>0.727662</v>
+        <v>0.73119</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22226</v>
+        <v>1.2186</v>
       </c>
       <c r="C110" t="n">
-        <v>0.95165</v>
+        <v>1.04561</v>
       </c>
       <c r="D110" t="n">
-        <v>0.747575</v>
+        <v>0.739753</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.25958</v>
+        <v>1.27386</v>
       </c>
       <c r="C111" t="n">
-        <v>0.980868</v>
+        <v>1.07652</v>
       </c>
       <c r="D111" t="n">
-        <v>0.767774</v>
+        <v>0.769815</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.3179</v>
+        <v>1.32716</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01546</v>
+        <v>1.11474</v>
       </c>
       <c r="D112" t="n">
-        <v>0.787492</v>
+        <v>0.789629</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37312</v>
+        <v>1.37968</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05242</v>
+        <v>1.15151</v>
       </c>
       <c r="D113" t="n">
-        <v>0.805729</v>
+        <v>0.808756</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42741</v>
+        <v>1.43583</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08632</v>
+        <v>1.18642</v>
       </c>
       <c r="D114" t="n">
-        <v>0.814272</v>
+        <v>0.815186</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48277</v>
+        <v>1.48761</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12176</v>
+        <v>1.21989</v>
       </c>
       <c r="D115" t="n">
-        <v>0.840692</v>
+        <v>0.843105</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54185</v>
+        <v>1.54783</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1605</v>
+        <v>1.26012</v>
       </c>
       <c r="D116" t="n">
-        <v>0.856986</v>
+        <v>0.861059</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60451</v>
+        <v>1.6129</v>
       </c>
       <c r="C117" t="n">
-        <v>1.20475</v>
+        <v>1.30715</v>
       </c>
       <c r="D117" t="n">
-        <v>0.880152</v>
+        <v>0.882783</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.67409</v>
+        <v>1.68267</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25429</v>
+        <v>1.35615</v>
       </c>
       <c r="D118" t="n">
-        <v>0.907434</v>
+        <v>0.912425</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10779</v>
+        <v>1.11795</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30416</v>
+        <v>1.40897</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9388</v>
+        <v>0.941578</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577141</v>
+        <v>0.571528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.384989</v>
+        <v>0.410316</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247157</v>
+        <v>0.245962</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.595038</v>
+        <v>0.589902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.394436</v>
+        <v>0.416595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254976</v>
+        <v>0.252854</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6185389999999999</v>
+        <v>0.6192879999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.411761</v>
+        <v>0.438224</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260039</v>
+        <v>0.259187</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.647285</v>
+        <v>0.6438469999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.426947</v>
+        <v>0.45871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269736</v>
+        <v>0.268243</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.668874</v>
+        <v>0.6672360000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.444837</v>
+        <v>0.47454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.280002</v>
+        <v>0.277954</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6982350000000001</v>
+        <v>0.690474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.467776</v>
+        <v>0.49928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.282805</v>
+        <v>0.280982</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.724189</v>
+        <v>0.719767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.495151</v>
+        <v>0.5186190000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.287975</v>
+        <v>0.287274</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.755916</v>
+        <v>0.746991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.508336</v>
+        <v>0.544446</v>
       </c>
       <c r="D9" t="n">
-        <v>0.297685</v>
+        <v>0.295985</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.78714</v>
+        <v>0.777959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.555454</v>
+        <v>0.571699</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310077</v>
+        <v>0.309586</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.829573</v>
+        <v>0.815933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.371066</v>
+        <v>0.395452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233063</v>
+        <v>0.234072</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5312519999999999</v>
+        <v>0.519158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.394142</v>
+        <v>0.411336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242877</v>
+        <v>0.242895</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.551584</v>
+        <v>0.541932</v>
       </c>
       <c r="C13" t="n">
-        <v>0.414827</v>
+        <v>0.434071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252391</v>
+        <v>0.25227</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.574039</v>
+        <v>0.567341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.429727</v>
+        <v>0.466769</v>
       </c>
       <c r="D14" t="n">
-        <v>0.258292</v>
+        <v>0.258039</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.599238</v>
+        <v>0.603985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.465635</v>
+        <v>0.490995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.269109</v>
+        <v>0.271082</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.621808</v>
+        <v>0.62831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.484713</v>
+        <v>0.5178469999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274756</v>
+        <v>0.279506</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.662071</v>
+        <v>0.663649</v>
       </c>
       <c r="C17" t="n">
-        <v>0.512786</v>
+        <v>0.5457880000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.288504</v>
+        <v>0.290074</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.691646</v>
+        <v>0.695454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.551689</v>
+        <v>0.573993</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297774</v>
+        <v>0.298684</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.73477</v>
+        <v>0.733941</v>
       </c>
       <c r="C19" t="n">
-        <v>0.570625</v>
+        <v>0.60215</v>
       </c>
       <c r="D19" t="n">
-        <v>0.311927</v>
+        <v>0.30939</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.770715</v>
+        <v>0.763753</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5980569999999999</v>
+        <v>0.628323</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322066</v>
+        <v>0.318674</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.805945</v>
+        <v>0.802199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.634058</v>
+        <v>0.665447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331206</v>
+        <v>0.330795</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.84815</v>
+        <v>0.842263</v>
       </c>
       <c r="C22" t="n">
-        <v>0.666022</v>
+        <v>0.698784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343183</v>
+        <v>0.341546</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.893331</v>
+        <v>0.890647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.701728</v>
+        <v>0.733676</v>
       </c>
       <c r="D23" t="n">
-        <v>0.351625</v>
+        <v>0.352458</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.933961</v>
+        <v>0.931674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7322380000000001</v>
+        <v>0.762957</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365342</v>
+        <v>0.367365</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.978471</v>
+        <v>0.974765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.764744</v>
+        <v>0.800747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.377155</v>
+        <v>0.379318</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.03055</v>
+        <v>1.0296</v>
       </c>
       <c r="C26" t="n">
-        <v>0.488412</v>
+        <v>0.516317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.276928</v>
+        <v>0.27848</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.656222</v>
+        <v>0.654755</v>
       </c>
       <c r="C27" t="n">
-        <v>0.513476</v>
+        <v>0.541718</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288603</v>
+        <v>0.288845</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.684597</v>
+        <v>0.68285</v>
       </c>
       <c r="C28" t="n">
-        <v>0.541625</v>
+        <v>0.572545</v>
       </c>
       <c r="D28" t="n">
-        <v>0.296171</v>
+        <v>0.298438</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.717836</v>
+        <v>0.716398</v>
       </c>
       <c r="C29" t="n">
-        <v>0.567551</v>
+        <v>0.596449</v>
       </c>
       <c r="D29" t="n">
-        <v>0.306082</v>
+        <v>0.308529</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.754727</v>
+        <v>0.751167</v>
       </c>
       <c r="C30" t="n">
-        <v>0.595006</v>
+        <v>0.6284459999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316701</v>
+        <v>0.316761</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7905219999999999</v>
+        <v>0.789094</v>
       </c>
       <c r="C31" t="n">
-        <v>0.627573</v>
+        <v>0.6591</v>
       </c>
       <c r="D31" t="n">
-        <v>0.324554</v>
+        <v>0.326697</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.828722</v>
+        <v>0.827163</v>
       </c>
       <c r="C32" t="n">
-        <v>0.656769</v>
+        <v>0.689823</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334916</v>
+        <v>0.337637</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.869521</v>
+        <v>0.868266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.686087</v>
+        <v>0.722056</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34649</v>
+        <v>0.348652</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.909708</v>
+        <v>0.9071979999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.727517</v>
+        <v>0.759291</v>
       </c>
       <c r="D34" t="n">
-        <v>0.353128</v>
+        <v>0.356966</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.950441</v>
+        <v>0.948806</v>
       </c>
       <c r="C35" t="n">
-        <v>0.757462</v>
+        <v>0.787755</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364471</v>
+        <v>0.367129</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.992524</v>
+        <v>0.990611</v>
       </c>
       <c r="C36" t="n">
-        <v>0.790667</v>
+        <v>0.823192</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378995</v>
+        <v>0.38225</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03995</v>
+        <v>1.03829</v>
       </c>
       <c r="C37" t="n">
-        <v>0.825607</v>
+        <v>0.859549</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390311</v>
+        <v>0.392013</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.08249</v>
+        <v>1.08073</v>
       </c>
       <c r="C38" t="n">
-        <v>0.866495</v>
+        <v>0.902602</v>
       </c>
       <c r="D38" t="n">
-        <v>0.400383</v>
+        <v>0.403249</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.13108</v>
+        <v>1.12908</v>
       </c>
       <c r="C39" t="n">
-        <v>0.894136</v>
+        <v>0.929268</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418028</v>
+        <v>0.41728</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.17537</v>
+        <v>1.17339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545837</v>
+        <v>0.572623</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314025</v>
+        <v>0.31603</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.708286</v>
+        <v>0.706572</v>
       </c>
       <c r="C41" t="n">
-        <v>0.564426</v>
+        <v>0.59145</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324267</v>
+        <v>0.324212</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.738667</v>
+        <v>0.73715</v>
       </c>
       <c r="C42" t="n">
-        <v>0.59405</v>
+        <v>0.623587</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333828</v>
+        <v>0.333947</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.774551</v>
+        <v>0.771335</v>
       </c>
       <c r="C43" t="n">
-        <v>0.620282</v>
+        <v>0.65294</v>
       </c>
       <c r="D43" t="n">
-        <v>0.343082</v>
+        <v>0.346099</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.810597</v>
+        <v>0.806598</v>
       </c>
       <c r="C44" t="n">
-        <v>0.651617</v>
+        <v>0.680599</v>
       </c>
       <c r="D44" t="n">
-        <v>0.353677</v>
+        <v>0.356387</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.846548</v>
+        <v>0.841319</v>
       </c>
       <c r="C45" t="n">
-        <v>0.679283</v>
+        <v>0.709916</v>
       </c>
       <c r="D45" t="n">
-        <v>0.364207</v>
+        <v>0.368487</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8874840000000001</v>
+        <v>0.8835499999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.711133</v>
+        <v>0.744191</v>
       </c>
       <c r="D46" t="n">
-        <v>0.374588</v>
+        <v>0.377786</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.92652</v>
+        <v>0.924154</v>
       </c>
       <c r="C47" t="n">
-        <v>0.743057</v>
+        <v>0.774425</v>
       </c>
       <c r="D47" t="n">
-        <v>0.388065</v>
+        <v>0.388739</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.968071</v>
+        <v>0.965785</v>
       </c>
       <c r="C48" t="n">
-        <v>0.775346</v>
+        <v>0.810686</v>
       </c>
       <c r="D48" t="n">
-        <v>0.397133</v>
+        <v>0.399727</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0095</v>
+        <v>1.00687</v>
       </c>
       <c r="C49" t="n">
-        <v>0.811842</v>
+        <v>0.845816</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409025</v>
+        <v>0.410838</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04986</v>
+        <v>1.04679</v>
       </c>
       <c r="C50" t="n">
-        <v>0.847241</v>
+        <v>0.883845</v>
       </c>
       <c r="D50" t="n">
-        <v>0.417043</v>
+        <v>0.421759</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09881</v>
+        <v>1.09245</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8864300000000001</v>
+        <v>0.920645</v>
       </c>
       <c r="D51" t="n">
-        <v>0.432604</v>
+        <v>0.435927</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13837</v>
+        <v>1.13703</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9188499999999999</v>
+        <v>0.955754</v>
       </c>
       <c r="D52" t="n">
-        <v>0.444054</v>
+        <v>0.44771</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.1856</v>
+        <v>1.18187</v>
       </c>
       <c r="C53" t="n">
-        <v>0.959186</v>
+        <v>0.997715</v>
       </c>
       <c r="D53" t="n">
-        <v>0.45624</v>
+        <v>0.460707</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22743</v>
+        <v>1.22551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.574088</v>
+        <v>0.596645</v>
       </c>
       <c r="D54" t="n">
-        <v>0.337779</v>
+        <v>0.335676</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.27568</v>
+        <v>1.26925</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5973579999999999</v>
+        <v>0.620587</v>
       </c>
       <c r="D55" t="n">
-        <v>0.346949</v>
+        <v>0.344756</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.753593</v>
+        <v>0.746955</v>
       </c>
       <c r="C56" t="n">
-        <v>0.623123</v>
+        <v>0.646906</v>
       </c>
       <c r="D56" t="n">
-        <v>0.357478</v>
+        <v>0.35427</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.786839</v>
+        <v>0.781138</v>
       </c>
       <c r="C57" t="n">
-        <v>0.648381</v>
+        <v>0.67131</v>
       </c>
       <c r="D57" t="n">
-        <v>0.367712</v>
+        <v>0.369076</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.821027</v>
+        <v>0.8155520000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.678504</v>
+        <v>0.703757</v>
       </c>
       <c r="D58" t="n">
-        <v>0.377498</v>
+        <v>0.375542</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.855817</v>
+        <v>0.851363</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7087560000000001</v>
+        <v>0.735444</v>
       </c>
       <c r="D59" t="n">
-        <v>0.390367</v>
+        <v>0.38992</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.897265</v>
+        <v>0.890112</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7395659999999999</v>
+        <v>0.768057</v>
       </c>
       <c r="D60" t="n">
-        <v>0.399157</v>
+        <v>0.398205</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.934747</v>
+        <v>0.928712</v>
       </c>
       <c r="C61" t="n">
-        <v>0.773875</v>
+        <v>0.802696</v>
       </c>
       <c r="D61" t="n">
-        <v>0.410036</v>
+        <v>0.413402</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9744429999999999</v>
+        <v>0.972399</v>
       </c>
       <c r="C62" t="n">
-        <v>0.805291</v>
+        <v>0.835945</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420296</v>
+        <v>0.423629</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01979</v>
+        <v>1.01693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8410840000000001</v>
+        <v>0.871299</v>
       </c>
       <c r="D63" t="n">
-        <v>0.431816</v>
+        <v>0.437032</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06668</v>
+        <v>1.07852</v>
       </c>
       <c r="C64" t="n">
-        <v>0.875387</v>
+        <v>0.922217</v>
       </c>
       <c r="D64" t="n">
-        <v>0.444763</v>
+        <v>0.452321</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.11023</v>
+        <v>1.12405</v>
       </c>
       <c r="C65" t="n">
-        <v>0.915788</v>
+        <v>0.962869</v>
       </c>
       <c r="D65" t="n">
-        <v>0.455875</v>
+        <v>0.465521</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15691</v>
+        <v>1.16523</v>
       </c>
       <c r="C66" t="n">
-        <v>0.952223</v>
+        <v>1.00163</v>
       </c>
       <c r="D66" t="n">
-        <v>0.469667</v>
+        <v>0.476177</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20048</v>
+        <v>1.21559</v>
       </c>
       <c r="C67" t="n">
-        <v>0.991131</v>
+        <v>1.03958</v>
       </c>
       <c r="D67" t="n">
-        <v>0.480837</v>
+        <v>0.49063</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25643</v>
+        <v>1.26762</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591197</v>
+        <v>0.6166700000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.349325</v>
+        <v>0.348454</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.3234</v>
+        <v>1.31623</v>
       </c>
       <c r="C69" t="n">
-        <v>0.627219</v>
+        <v>0.658718</v>
       </c>
       <c r="D69" t="n">
-        <v>0.36214</v>
+        <v>0.35905</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.804229</v>
+        <v>0.7940160000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6658230000000001</v>
+        <v>0.689099</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376149</v>
+        <v>0.373759</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.854173</v>
+        <v>0.841854</v>
       </c>
       <c r="C71" t="n">
-        <v>0.711491</v>
+        <v>0.738776</v>
       </c>
       <c r="D71" t="n">
-        <v>0.389391</v>
+        <v>0.389817</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.904843</v>
+        <v>0.90446</v>
       </c>
       <c r="C72" t="n">
-        <v>0.752385</v>
+        <v>0.784535</v>
       </c>
       <c r="D72" t="n">
-        <v>0.40245</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.968113</v>
+        <v>0.963608</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8045909999999999</v>
+        <v>0.834333</v>
       </c>
       <c r="D73" t="n">
-        <v>0.419335</v>
+        <v>0.422739</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.03364</v>
+        <v>1.03666</v>
       </c>
       <c r="C74" t="n">
-        <v>0.860223</v>
+        <v>0.900929</v>
       </c>
       <c r="D74" t="n">
-        <v>0.435083</v>
+        <v>0.440573</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11144</v>
+        <v>1.12262</v>
       </c>
       <c r="C75" t="n">
-        <v>0.928326</v>
+        <v>0.975346</v>
       </c>
       <c r="D75" t="n">
-        <v>0.454524</v>
+        <v>0.459883</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.20156</v>
+        <v>1.20439</v>
       </c>
       <c r="C76" t="n">
-        <v>1.00032</v>
+        <v>1.03908</v>
       </c>
       <c r="D76" t="n">
-        <v>0.478902</v>
+        <v>0.483085</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.2881</v>
+        <v>1.29225</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07371</v>
+        <v>1.11996</v>
       </c>
       <c r="D77" t="n">
-        <v>0.495422</v>
+        <v>0.503638</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39421</v>
+        <v>1.40435</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1624</v>
+        <v>1.21617</v>
       </c>
       <c r="D78" t="n">
-        <v>0.517933</v>
+        <v>0.526388</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.52514</v>
+        <v>1.54245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26816</v>
+        <v>1.32623</v>
       </c>
       <c r="D79" t="n">
-        <v>0.542427</v>
+        <v>0.5557879999999999</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.6851</v>
+        <v>1.66089</v>
       </c>
       <c r="C80" t="n">
-        <v>1.40801</v>
+        <v>1.43148</v>
       </c>
       <c r="D80" t="n">
-        <v>0.58229</v>
+        <v>0.588167</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.87062</v>
+        <v>1.80635</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56496</v>
+        <v>1.56324</v>
       </c>
       <c r="D81" t="n">
-        <v>0.611393</v>
+        <v>0.620923</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04247</v>
+        <v>1.99355</v>
       </c>
       <c r="C82" t="n">
-        <v>1.72032</v>
+        <v>1.7166</v>
       </c>
       <c r="D82" t="n">
-        <v>0.645241</v>
+        <v>0.658496</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.2364</v>
+        <v>2.20821</v>
       </c>
       <c r="C83" t="n">
-        <v>1.09231</v>
+        <v>1.10756</v>
       </c>
       <c r="D83" t="n">
-        <v>0.483496</v>
+        <v>0.496666</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.48912</v>
+        <v>2.44315</v>
       </c>
       <c r="C84" t="n">
-        <v>1.20278</v>
+        <v>1.22558</v>
       </c>
       <c r="D84" t="n">
-        <v>0.528302</v>
+        <v>0.5311129999999999</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59657</v>
+        <v>1.57291</v>
       </c>
       <c r="C85" t="n">
-        <v>1.33355</v>
+        <v>1.36166</v>
       </c>
       <c r="D85" t="n">
-        <v>0.558933</v>
+        <v>0.562933</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.77047</v>
+        <v>1.73856</v>
       </c>
       <c r="C86" t="n">
-        <v>1.48266</v>
+        <v>1.51024</v>
       </c>
       <c r="D86" t="n">
-        <v>0.619753</v>
+        <v>0.612768</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.95348</v>
+        <v>1.92215</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64523</v>
+        <v>1.67387</v>
       </c>
       <c r="D87" t="n">
-        <v>0.653908</v>
+        <v>0.669396</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15783</v>
+        <v>2.12857</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81722</v>
+        <v>1.84242</v>
       </c>
       <c r="D88" t="n">
-        <v>0.703786</v>
+        <v>0.721598</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39055</v>
+        <v>2.35985</v>
       </c>
       <c r="C89" t="n">
-        <v>2.02627</v>
+        <v>2.05652</v>
       </c>
       <c r="D89" t="n">
-        <v>0.760598</v>
+        <v>0.78264</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.63155</v>
+        <v>2.59835</v>
       </c>
       <c r="C90" t="n">
-        <v>2.23062</v>
+        <v>2.25748</v>
       </c>
       <c r="D90" t="n">
-        <v>0.829628</v>
+        <v>0.840487</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.89894</v>
+        <v>2.86188</v>
       </c>
       <c r="C91" t="n">
-        <v>2.44755</v>
+        <v>2.49182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.883231</v>
+        <v>0.913782</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.15872</v>
+        <v>3.13689</v>
       </c>
       <c r="C92" t="n">
-        <v>2.68355</v>
+        <v>2.72049</v>
       </c>
       <c r="D92" t="n">
-        <v>0.956244</v>
+        <v>0.980581</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.45345</v>
+        <v>3.43244</v>
       </c>
       <c r="C93" t="n">
-        <v>2.919</v>
+        <v>2.96374</v>
       </c>
       <c r="D93" t="n">
-        <v>1.03324</v>
+        <v>1.05634</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.75578</v>
+        <v>3.74794</v>
       </c>
       <c r="C94" t="n">
-        <v>3.18701</v>
+        <v>3.23952</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10911</v>
+        <v>1.14028</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.06618</v>
+        <v>4.05643</v>
       </c>
       <c r="C95" t="n">
-        <v>3.45364</v>
+        <v>3.51288</v>
       </c>
       <c r="D95" t="n">
-        <v>1.19062</v>
+        <v>1.21343</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.39245</v>
+        <v>4.38903</v>
       </c>
       <c r="C96" t="n">
-        <v>3.7619</v>
+        <v>3.818</v>
       </c>
       <c r="D96" t="n">
-        <v>1.26254</v>
+        <v>1.30975</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.72941</v>
+        <v>4.71876</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15193</v>
+        <v>2.20901</v>
       </c>
       <c r="D97" t="n">
-        <v>0.924042</v>
+        <v>0.939406</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.0288</v>
+        <v>5.02766</v>
       </c>
       <c r="C98" t="n">
-        <v>2.28648</v>
+        <v>2.35222</v>
       </c>
       <c r="D98" t="n">
-        <v>0.972265</v>
+        <v>0.995325</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.84409</v>
+        <v>2.86501</v>
       </c>
       <c r="C99" t="n">
-        <v>2.42126</v>
+        <v>2.49007</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0435</v>
+        <v>1.03793</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.02848</v>
+        <v>3.04789</v>
       </c>
       <c r="C100" t="n">
-        <v>2.56929</v>
+        <v>2.66196</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09083</v>
+        <v>1.10422</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.21449</v>
+        <v>3.2451</v>
       </c>
       <c r="C101" t="n">
-        <v>2.73701</v>
+        <v>2.84157</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14045</v>
+        <v>1.17228</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.44303</v>
+        <v>3.46776</v>
       </c>
       <c r="C102" t="n">
-        <v>2.92232</v>
+        <v>3.02996</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20447</v>
+        <v>1.22723</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.67162</v>
+        <v>3.7003</v>
       </c>
       <c r="C103" t="n">
-        <v>3.12531</v>
+        <v>3.24283</v>
       </c>
       <c r="D103" t="n">
-        <v>1.26374</v>
+        <v>1.29672</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.91172</v>
+        <v>3.94771</v>
       </c>
       <c r="C104" t="n">
-        <v>3.34715</v>
+        <v>3.45968</v>
       </c>
       <c r="D104" t="n">
-        <v>1.32509</v>
+        <v>1.3656</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.17907</v>
+        <v>4.20842</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55703</v>
+        <v>3.68357</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39848</v>
+        <v>1.42662</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.4518</v>
+        <v>4.49691</v>
       </c>
       <c r="C106" t="n">
-        <v>3.81405</v>
+        <v>3.94099</v>
       </c>
       <c r="D106" t="n">
-        <v>1.46278</v>
+        <v>1.50363</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.74673</v>
+        <v>4.81689</v>
       </c>
       <c r="C107" t="n">
-        <v>4.07656</v>
+        <v>4.20054</v>
       </c>
       <c r="D107" t="n">
-        <v>1.53777</v>
+        <v>1.58161</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.06315</v>
+        <v>5.12025</v>
       </c>
       <c r="C108" t="n">
-        <v>4.34432</v>
+        <v>4.4612</v>
       </c>
       <c r="D108" t="n">
-        <v>1.6144</v>
+        <v>1.65895</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.39381</v>
+        <v>5.43987</v>
       </c>
       <c r="C109" t="n">
-        <v>4.63692</v>
+        <v>4.65809</v>
       </c>
       <c r="D109" t="n">
-        <v>1.69167</v>
+        <v>1.70611</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.69047</v>
+        <v>5.72357</v>
       </c>
       <c r="C110" t="n">
-        <v>4.92101</v>
+        <v>5.06518</v>
       </c>
       <c r="D110" t="n">
-        <v>1.76592</v>
+        <v>1.82744</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.04604</v>
+        <v>6.12004</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64916</v>
+        <v>2.75055</v>
       </c>
       <c r="D111" t="n">
-        <v>1.2892</v>
+        <v>1.32115</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.40728</v>
+        <v>6.46521</v>
       </c>
       <c r="C112" t="n">
-        <v>2.8079</v>
+        <v>2.91355</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34414</v>
+        <v>1.35952</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.75753</v>
+        <v>6.80202</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97149</v>
+        <v>3.08551</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40092</v>
+        <v>1.41659</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.69488</v>
+        <v>3.72166</v>
       </c>
       <c r="C114" t="n">
-        <v>3.16897</v>
+        <v>3.28934</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46044</v>
+        <v>1.50574</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.916</v>
+        <v>3.92894</v>
       </c>
       <c r="C115" t="n">
-        <v>3.3585</v>
+        <v>3.48172</v>
       </c>
       <c r="D115" t="n">
-        <v>1.53964</v>
+        <v>1.57349</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.1506</v>
+        <v>4.15598</v>
       </c>
       <c r="C116" t="n">
-        <v>3.56923</v>
+        <v>3.69545</v>
       </c>
       <c r="D116" t="n">
-        <v>1.58384</v>
+        <v>1.63046</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.3954</v>
+        <v>4.40735</v>
       </c>
       <c r="C117" t="n">
-        <v>3.79771</v>
+        <v>3.91683</v>
       </c>
       <c r="D117" t="n">
-        <v>1.65686</v>
+        <v>1.69524</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.64252</v>
+        <v>4.67921</v>
       </c>
       <c r="C118" t="n">
-        <v>4.02816</v>
+        <v>4.11786</v>
       </c>
       <c r="D118" t="n">
-        <v>1.72219</v>
+        <v>1.75599</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.91943</v>
+        <v>4.96218</v>
       </c>
       <c r="C119" t="n">
-        <v>4.28474</v>
+        <v>4.41337</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7823</v>
+        <v>1.80852</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34237</v>
+        <v>0.334664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.228406</v>
+        <v>0.221023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252948</v>
+        <v>0.246145</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258618</v>
+        <v>0.251226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229115</v>
+        <v>0.223006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254728</v>
+        <v>0.248594</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267185</v>
+        <v>0.258394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235246</v>
+        <v>0.227333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26043</v>
+        <v>0.254379</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.274413</v>
+        <v>0.265462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239896</v>
+        <v>0.232034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266556</v>
+        <v>0.258836</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.282273</v>
+        <v>0.273815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244472</v>
+        <v>0.23675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271323</v>
+        <v>0.26506</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291955</v>
+        <v>0.285685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201148</v>
+        <v>0.199126</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224391</v>
+        <v>0.222471</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.300807</v>
+        <v>0.292485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204008</v>
+        <v>0.207125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231386</v>
+        <v>0.228832</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310021</v>
+        <v>0.301826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210906</v>
+        <v>0.211576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238236</v>
+        <v>0.236276</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317755</v>
+        <v>0.310175</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216533</v>
+        <v>0.215716</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245091</v>
+        <v>0.243395</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324596</v>
+        <v>0.318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221798</v>
+        <v>0.2208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252142</v>
+        <v>0.25013</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3344</v>
+        <v>0.328886</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230087</v>
+        <v>0.22875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260731</v>
+        <v>0.259839</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.342282</v>
+        <v>0.337533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234975</v>
+        <v>0.232459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266535</v>
+        <v>0.265778</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.351177</v>
+        <v>0.346746</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239802</v>
+        <v>0.238076</v>
       </c>
       <c r="D14" t="n">
-        <v>0.272092</v>
+        <v>0.271077</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.362031</v>
+        <v>0.3596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24533</v>
+        <v>0.242863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277702</v>
+        <v>0.277249</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.369459</v>
+        <v>0.365758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249476</v>
+        <v>0.246825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283517</v>
+        <v>0.283847</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.380836</v>
+        <v>0.37775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255588</v>
+        <v>0.253442</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291561</v>
+        <v>0.290534</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288947</v>
+        <v>0.287889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.259386</v>
+        <v>0.256785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295523</v>
+        <v>0.294089</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296333</v>
+        <v>0.295334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265148</v>
+        <v>0.262461</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301619</v>
+        <v>0.300772</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.306471</v>
+        <v>0.305115</v>
       </c>
       <c r="C20" t="n">
-        <v>0.271322</v>
+        <v>0.269831</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310252</v>
+        <v>0.307367</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315773</v>
+        <v>0.314865</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216538</v>
+        <v>0.216585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247886</v>
+        <v>0.247089</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324751</v>
+        <v>0.324596</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22238</v>
+        <v>0.223058</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254399</v>
+        <v>0.254328</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.333318</v>
+        <v>0.331879</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228062</v>
+        <v>0.22851</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261476</v>
+        <v>0.260775</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340466</v>
+        <v>0.339239</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232646</v>
+        <v>0.233288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267532</v>
+        <v>0.267492</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348765</v>
+        <v>0.347711</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23826</v>
+        <v>0.23854</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274177</v>
+        <v>0.274499</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.359284</v>
+        <v>0.356827</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245371</v>
+        <v>0.245259</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282518</v>
+        <v>0.281602</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.366263</v>
+        <v>0.365098</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250453</v>
+        <v>0.249405</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287685</v>
+        <v>0.287112</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375367</v>
+        <v>0.374431</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255727</v>
+        <v>0.254535</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294119</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384425</v>
+        <v>0.383114</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261357</v>
+        <v>0.260344</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301345</v>
+        <v>0.301339</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392126</v>
+        <v>0.391334</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265812</v>
+        <v>0.264832</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307664</v>
+        <v>0.307716</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.40109</v>
+        <v>0.400621</v>
       </c>
       <c r="C31" t="n">
-        <v>0.27119</v>
+        <v>0.270209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313015</v>
+        <v>0.313103</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298478</v>
+        <v>0.297469</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276519</v>
+        <v>0.275111</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319872</v>
+        <v>0.319712</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306719</v>
+        <v>0.305967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.282004</v>
+        <v>0.280704</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326184</v>
+        <v>0.325861</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.31393</v>
+        <v>0.313227</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286854</v>
+        <v>0.286385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33238</v>
+        <v>0.332112</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.323565</v>
+        <v>0.32207</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226079</v>
+        <v>0.225905</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258916</v>
+        <v>0.258897</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.333405</v>
+        <v>0.330967</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231982</v>
+        <v>0.23173</v>
       </c>
       <c r="D36" t="n">
-        <v>0.265187</v>
+        <v>0.26493</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340269</v>
+        <v>0.339094</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237278</v>
+        <v>0.237025</v>
       </c>
       <c r="D37" t="n">
-        <v>0.27109</v>
+        <v>0.27114</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349126</v>
+        <v>0.347062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242648</v>
+        <v>0.242363</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277796</v>
+        <v>0.277273</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356506</v>
+        <v>0.355723</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248387</v>
+        <v>0.248171</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284926</v>
+        <v>0.284473</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365624</v>
+        <v>0.364727</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253706</v>
+        <v>0.253089</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29143</v>
+        <v>0.29128</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373244</v>
+        <v>0.373285</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259336</v>
+        <v>0.258486</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298756</v>
+        <v>0.298254</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381971</v>
+        <v>0.380726</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264613</v>
+        <v>0.263307</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304353</v>
+        <v>0.304082</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.392669</v>
+        <v>0.390733</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270054</v>
+        <v>0.268704</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311838</v>
+        <v>0.311516</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.400657</v>
+        <v>0.39934</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275298</v>
+        <v>0.273736</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318497</v>
+        <v>0.318138</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408812</v>
+        <v>0.407874</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27993</v>
+        <v>0.278335</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324244</v>
+        <v>0.324023</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.419463</v>
+        <v>0.418214</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284468</v>
+        <v>0.283056</v>
       </c>
       <c r="D46" t="n">
-        <v>0.330069</v>
+        <v>0.329527</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306498</v>
+        <v>0.305987</v>
       </c>
       <c r="C47" t="n">
-        <v>0.289405</v>
+        <v>0.288296</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336183</v>
+        <v>0.335089</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313433</v>
+        <v>0.31322</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294539</v>
+        <v>0.293582</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343295</v>
+        <v>0.342689</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322693</v>
+        <v>0.322349</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299455</v>
+        <v>0.298708</v>
       </c>
       <c r="D49" t="n">
-        <v>0.353029</v>
+        <v>0.352166</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.331064</v>
+        <v>0.330398</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233967</v>
+        <v>0.23437</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26271</v>
+        <v>0.26287</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338908</v>
+        <v>0.338697</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239873</v>
+        <v>0.239906</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270079</v>
+        <v>0.270508</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347801</v>
+        <v>0.347476</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246007</v>
+        <v>0.245744</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27756</v>
+        <v>0.277718</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.35571</v>
+        <v>0.356056</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251695</v>
+        <v>0.251274</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284828</v>
+        <v>0.284921</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364719</v>
+        <v>0.364607</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257331</v>
+        <v>0.256876</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291703</v>
+        <v>0.291764</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.373203</v>
+        <v>0.372753</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262928</v>
+        <v>0.262267</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299116</v>
+        <v>0.299114</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381763</v>
+        <v>0.381255</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26844</v>
+        <v>0.267789</v>
       </c>
       <c r="D56" t="n">
-        <v>0.306157</v>
+        <v>0.305771</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390809</v>
+        <v>0.390342</v>
       </c>
       <c r="C57" t="n">
-        <v>0.273201</v>
+        <v>0.272241</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312993</v>
+        <v>0.312686</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399655</v>
+        <v>0.399316</v>
       </c>
       <c r="C58" t="n">
-        <v>0.277874</v>
+        <v>0.276868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319512</v>
+        <v>0.319195</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.408156</v>
+        <v>0.407913</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282372</v>
+        <v>0.281734</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326186</v>
+        <v>0.325852</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418444</v>
+        <v>0.418124</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287233</v>
+        <v>0.286711</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332532</v>
+        <v>0.332918</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309403</v>
+        <v>0.307624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292312</v>
+        <v>0.29187</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33942</v>
+        <v>0.340121</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.319898</v>
+        <v>0.319368</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296983</v>
+        <v>0.296977</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345715</v>
+        <v>0.346534</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330533</v>
+        <v>0.328724</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302838</v>
+        <v>0.303056</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354073</v>
+        <v>0.353894</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.341809</v>
+        <v>0.340422</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242175</v>
+        <v>0.242182</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27585</v>
+        <v>0.275294</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.34829</v>
+        <v>0.347661</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248464</v>
+        <v>0.248103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283865</v>
+        <v>0.283019</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.359432</v>
+        <v>0.36034</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256504</v>
+        <v>0.254531</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29182</v>
+        <v>0.290661</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.372429</v>
+        <v>0.370784</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264488</v>
+        <v>0.261809</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30105</v>
+        <v>0.299165</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.385413</v>
+        <v>0.384963</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271945</v>
+        <v>0.268695</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311173</v>
+        <v>0.310583</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397237</v>
+        <v>0.396486</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279123</v>
+        <v>0.278559</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322003</v>
+        <v>0.320512</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411399</v>
+        <v>0.410339</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287534</v>
+        <v>0.284326</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332903</v>
+        <v>0.330276</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.427079</v>
+        <v>0.425651</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296682</v>
+        <v>0.292652</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345862</v>
+        <v>0.341211</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.446233</v>
+        <v>0.441062</v>
       </c>
       <c r="C72" t="n">
-        <v>0.305495</v>
+        <v>0.303003</v>
       </c>
       <c r="D72" t="n">
-        <v>0.357912</v>
+        <v>0.353591</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.465452</v>
+        <v>0.464686</v>
       </c>
       <c r="C73" t="n">
-        <v>0.313138</v>
+        <v>0.314235</v>
       </c>
       <c r="D73" t="n">
-        <v>0.370378</v>
+        <v>0.36958</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.480585</v>
+        <v>0.485972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323501</v>
+        <v>0.326152</v>
       </c>
       <c r="D74" t="n">
-        <v>0.383242</v>
+        <v>0.385246</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.500883</v>
+        <v>0.507954</v>
       </c>
       <c r="C75" t="n">
-        <v>0.33362</v>
+        <v>0.340447</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397661</v>
+        <v>0.402604</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.474361</v>
+        <v>0.480779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.347227</v>
+        <v>0.357634</v>
       </c>
       <c r="D76" t="n">
-        <v>0.416042</v>
+        <v>0.426067</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.498706</v>
+        <v>0.5083839999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.363665</v>
+        <v>0.375802</v>
       </c>
       <c r="D77" t="n">
-        <v>0.436906</v>
+        <v>0.44961</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.529057</v>
+        <v>0.536229</v>
       </c>
       <c r="C78" t="n">
-        <v>0.331988</v>
+        <v>0.339181</v>
       </c>
       <c r="D78" t="n">
-        <v>0.406568</v>
+        <v>0.414792</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.557917</v>
+        <v>0.560937</v>
       </c>
       <c r="C79" t="n">
-        <v>0.350145</v>
+        <v>0.35582</v>
       </c>
       <c r="D79" t="n">
-        <v>0.431987</v>
+        <v>0.437655</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.589026</v>
+        <v>0.591193</v>
       </c>
       <c r="C80" t="n">
-        <v>0.372511</v>
+        <v>0.3794</v>
       </c>
       <c r="D80" t="n">
-        <v>0.454514</v>
+        <v>0.457671</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.622817</v>
+        <v>0.6260869999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389836</v>
+        <v>0.39513</v>
       </c>
       <c r="D81" t="n">
-        <v>0.480173</v>
+        <v>0.484819</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.659763</v>
+        <v>0.662032</v>
       </c>
       <c r="C82" t="n">
-        <v>0.410156</v>
+        <v>0.416135</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508953</v>
+        <v>0.510499</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.69913</v>
+        <v>0.700569</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4311</v>
+        <v>0.434055</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5356</v>
+        <v>0.535196</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.730328</v>
+        <v>0.732263</v>
       </c>
       <c r="C84" t="n">
-        <v>0.450929</v>
+        <v>0.456599</v>
       </c>
       <c r="D84" t="n">
-        <v>0.563815</v>
+        <v>0.564578</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.769846</v>
+        <v>0.770643</v>
       </c>
       <c r="C85" t="n">
-        <v>0.473102</v>
+        <v>0.479265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.592684</v>
+        <v>0.593306</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.810884</v>
+        <v>0.809989</v>
       </c>
       <c r="C86" t="n">
-        <v>0.495794</v>
+        <v>0.502127</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622496</v>
+        <v>0.622378</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.852691</v>
+        <v>0.851162</v>
       </c>
       <c r="C87" t="n">
-        <v>0.518798</v>
+        <v>0.526593</v>
       </c>
       <c r="D87" t="n">
-        <v>0.650523</v>
+        <v>0.650255</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.896529</v>
+        <v>0.89435</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542718</v>
+        <v>0.551362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.687756</v>
+        <v>0.68737</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.941621</v>
+        <v>0.939624</v>
       </c>
       <c r="C89" t="n">
-        <v>0.567272</v>
+        <v>0.576648</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7211649999999999</v>
+        <v>0.719691</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.825734</v>
+        <v>0.82618</v>
       </c>
       <c r="C90" t="n">
-        <v>0.591638</v>
+        <v>0.602947</v>
       </c>
       <c r="D90" t="n">
-        <v>0.743637</v>
+        <v>0.742597</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.852877</v>
+        <v>0.8532729999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618466</v>
+        <v>0.63145</v>
       </c>
       <c r="D91" t="n">
-        <v>0.775737</v>
+        <v>0.775932</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.883073</v>
+        <v>0.882711</v>
       </c>
       <c r="C92" t="n">
-        <v>0.53173</v>
+        <v>0.536193</v>
       </c>
       <c r="D92" t="n">
-        <v>0.673351</v>
+        <v>0.673774</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.910868</v>
+        <v>0.911923</v>
       </c>
       <c r="C93" t="n">
-        <v>0.547585</v>
+        <v>0.552647</v>
       </c>
       <c r="D93" t="n">
-        <v>0.699782</v>
+        <v>0.698963</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.940941</v>
+        <v>0.940844</v>
       </c>
       <c r="C94" t="n">
-        <v>0.564458</v>
+        <v>0.569645</v>
       </c>
       <c r="D94" t="n">
-        <v>0.716866</v>
+        <v>0.716134</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.971769</v>
       </c>
       <c r="C95" t="n">
-        <v>0.580979</v>
+        <v>0.587234</v>
       </c>
       <c r="D95" t="n">
-        <v>0.752695</v>
+        <v>0.751605</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.999654</v>
+        <v>0.999243</v>
       </c>
       <c r="C96" t="n">
-        <v>0.597229</v>
+        <v>0.605396</v>
       </c>
       <c r="D96" t="n">
-        <v>0.778172</v>
+        <v>0.777053</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02939</v>
+        <v>1.02921</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6160949999999999</v>
+        <v>0.624483</v>
       </c>
       <c r="D97" t="n">
-        <v>0.802069</v>
+        <v>0.803323</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0664</v>
+        <v>1.06686</v>
       </c>
       <c r="C98" t="n">
-        <v>0.63681</v>
+        <v>0.6458</v>
       </c>
       <c r="D98" t="n">
-        <v>0.834694</v>
+        <v>0.832575</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10352</v>
+        <v>1.10345</v>
       </c>
       <c r="C99" t="n">
-        <v>0.656466</v>
+        <v>0.666718</v>
       </c>
       <c r="D99" t="n">
-        <v>0.860878</v>
+        <v>0.8606740000000001</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13802</v>
+        <v>1.13792</v>
       </c>
       <c r="C100" t="n">
-        <v>0.67613</v>
+        <v>0.687997</v>
       </c>
       <c r="D100" t="n">
-        <v>0.892777</v>
+        <v>0.887579</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16408</v>
+        <v>1.16443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.697188</v>
+        <v>0.71057</v>
       </c>
       <c r="D101" t="n">
-        <v>0.920475</v>
+        <v>0.91752</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20091</v>
+        <v>1.19946</v>
       </c>
       <c r="C102" t="n">
-        <v>0.719792</v>
+        <v>0.734782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.955125</v>
+        <v>0.949785</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23952</v>
+        <v>1.23867</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7433</v>
+        <v>0.760165</v>
       </c>
       <c r="D103" t="n">
-        <v>0.986515</v>
+        <v>0.981286</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2795</v>
+        <v>1.27863</v>
       </c>
       <c r="C104" t="n">
-        <v>0.76689</v>
+        <v>0.786436</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01979</v>
+        <v>1.01405</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02486</v>
+        <v>1.02083</v>
       </c>
       <c r="C105" t="n">
-        <v>0.793018</v>
+        <v>0.811723</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0512</v>
+        <v>1.04818</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04844</v>
+        <v>1.03657</v>
       </c>
       <c r="C106" t="n">
-        <v>0.821228</v>
+        <v>0.841622</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08702</v>
+        <v>1.08321</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.077</v>
+        <v>1.07235</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6458199999999999</v>
+        <v>0.658573</v>
       </c>
       <c r="D107" t="n">
-        <v>0.874621</v>
+        <v>0.892846</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09868</v>
+        <v>1.09331</v>
       </c>
       <c r="C108" t="n">
-        <v>0.671071</v>
+        <v>0.671621</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91717</v>
+        <v>0.911505</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.11868</v>
+        <v>1.12215</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6760699999999999</v>
+        <v>0.691477</v>
       </c>
       <c r="D109" t="n">
-        <v>0.924686</v>
+        <v>0.942613</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15478</v>
+        <v>1.14942</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703315</v>
+        <v>0.708456</v>
       </c>
       <c r="D110" t="n">
-        <v>0.970425</v>
+        <v>0.966503</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18317</v>
+        <v>1.17854</v>
       </c>
       <c r="C111" t="n">
-        <v>0.71045</v>
+        <v>0.727213</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996256</v>
+        <v>0.996815</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22055</v>
+        <v>1.21476</v>
       </c>
       <c r="C112" t="n">
-        <v>0.738594</v>
+        <v>0.746722</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02646</v>
+        <v>1.02377</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2531</v>
+        <v>1.24667</v>
       </c>
       <c r="C113" t="n">
-        <v>0.757297</v>
+        <v>0.76692</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05435</v>
+        <v>1.05138</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28453</v>
+        <v>1.2735</v>
       </c>
       <c r="C114" t="n">
-        <v>0.776417</v>
+        <v>0.787709</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09078</v>
+        <v>1.08762</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31995</v>
+        <v>1.31271</v>
       </c>
       <c r="C115" t="n">
-        <v>0.796885</v>
+        <v>0.810184</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12573</v>
+        <v>1.10105</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35953</v>
+        <v>1.34438</v>
       </c>
       <c r="C116" t="n">
-        <v>0.819872</v>
+        <v>0.824326</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14739</v>
+        <v>1.13962</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39648</v>
+        <v>1.38299</v>
       </c>
       <c r="C117" t="n">
-        <v>0.842056</v>
+        <v>0.848838</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17932</v>
+        <v>1.17156</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43835</v>
+        <v>1.42503</v>
       </c>
       <c r="C118" t="n">
-        <v>0.865618</v>
+        <v>0.874979</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21523</v>
+        <v>1.20799</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11726</v>
+        <v>1.11329</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8905459999999999</v>
+        <v>0.904132</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25158</v>
+        <v>1.23279</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.268003</v>
+        <v>0.269565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.176192</v>
+        <v>0.178018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141223</v>
+        <v>0.142381</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195558</v>
+        <v>0.198572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177548</v>
+        <v>0.182161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142163</v>
+        <v>0.142763</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202241</v>
+        <v>0.205287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184879</v>
+        <v>0.188769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146713</v>
+        <v>0.148159</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210579</v>
+        <v>0.214804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192454</v>
+        <v>0.195278</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150087</v>
+        <v>0.151041</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216128</v>
+        <v>0.220392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198709</v>
+        <v>0.201082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154701</v>
+        <v>0.155588</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223794</v>
+        <v>0.228108</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160866</v>
+        <v>0.163582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138535</v>
+        <v>0.14075</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230305</v>
+        <v>0.234309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.164435</v>
+        <v>0.165212</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140948</v>
+        <v>0.141789</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237317</v>
+        <v>0.242524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169448</v>
+        <v>0.171979</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141783</v>
+        <v>0.144739</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.245354</v>
+        <v>0.247425</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174727</v>
+        <v>0.177069</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145486</v>
+        <v>0.147672</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252175</v>
+        <v>0.256684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179016</v>
+        <v>0.181223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147754</v>
+        <v>0.150508</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26134</v>
+        <v>0.26592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187431</v>
+        <v>0.188762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151438</v>
+        <v>0.154472</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268829</v>
+        <v>0.273699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192612</v>
+        <v>0.195222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155636</v>
+        <v>0.158194</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280567</v>
+        <v>0.283153</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199965</v>
+        <v>0.200081</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158379</v>
+        <v>0.16181</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294712</v>
+        <v>0.297808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206487</v>
+        <v>0.206669</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163315</v>
+        <v>0.164901</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302761</v>
+        <v>0.304847</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215272</v>
+        <v>0.215364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167253</v>
+        <v>0.169413</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.31575</v>
+        <v>0.317155</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222184</v>
+        <v>0.222539</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170841</v>
+        <v>0.172245</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.232399</v>
+        <v>0.233544</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227948</v>
+        <v>0.227775</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171867</v>
+        <v>0.174783</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240654</v>
+        <v>0.241041</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237227</v>
+        <v>0.234147</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177122</v>
+        <v>0.180363</v>
       </c>
     </row>
     <row r="20">
@@ -9627,10 +9627,10 @@
         <v>0.245686</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247004</v>
+        <v>0.243665</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182909</v>
+        <v>0.185762</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251947</v>
+        <v>0.252133</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196563</v>
+        <v>0.194876</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166372</v>
+        <v>0.165766</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257589</v>
+        <v>0.25799</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202309</v>
+        <v>0.20025</v>
       </c>
       <c r="D22" t="n">
-        <v>0.169142</v>
+        <v>0.16917</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267112</v>
+        <v>0.268069</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208606</v>
+        <v>0.206678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171647</v>
+        <v>0.172106</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275257</v>
+        <v>0.275679</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213565</v>
+        <v>0.211118</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174397</v>
+        <v>0.174086</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282892</v>
+        <v>0.282987</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21892</v>
+        <v>0.216514</v>
       </c>
       <c r="D25" t="n">
-        <v>0.176305</v>
+        <v>0.176252</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292285</v>
+        <v>0.291641</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226276</v>
+        <v>0.222335</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179927</v>
+        <v>0.180241</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.300879</v>
+        <v>0.301053</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227569</v>
+        <v>0.224114</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182914</v>
+        <v>0.182793</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312498</v>
+        <v>0.312486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233222</v>
+        <v>0.230576</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185659</v>
+        <v>0.185696</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322195</v>
+        <v>0.322963</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239159</v>
+        <v>0.235435</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188645</v>
+        <v>0.188952</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.332366</v>
+        <v>0.332238</v>
       </c>
       <c r="C30" t="n">
-        <v>0.247505</v>
+        <v>0.242199</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192708</v>
+        <v>0.192475</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.34445</v>
+        <v>0.344389</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251607</v>
+        <v>0.246263</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195387</v>
+        <v>0.195517</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248691</v>
+        <v>0.24868</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26199</v>
+        <v>0.254532</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199557</v>
+        <v>0.199614</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254598</v>
+        <v>0.255048</v>
       </c>
       <c r="C33" t="n">
-        <v>0.268749</v>
+        <v>0.26266</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203947</v>
+        <v>0.204521</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261266</v>
+        <v>0.261769</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27758</v>
+        <v>0.269105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209994</v>
+        <v>0.207227</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268695</v>
+        <v>0.269046</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209156</v>
+        <v>0.208215</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181641</v>
+        <v>0.180995</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274169</v>
+        <v>0.275069</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21539</v>
+        <v>0.213483</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18379</v>
+        <v>0.183456</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281002</v>
+        <v>0.280847</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219692</v>
+        <v>0.217188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185989</v>
+        <v>0.186073</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288814</v>
+        <v>0.28862</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224812</v>
+        <v>0.222405</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189029</v>
+        <v>0.189412</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295563</v>
+        <v>0.295944</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230014</v>
+        <v>0.22716</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191807</v>
+        <v>0.191664</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304633</v>
+        <v>0.304788</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236215</v>
+        <v>0.232924</v>
       </c>
       <c r="D40" t="n">
-        <v>0.194995</v>
+        <v>0.195091</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314601</v>
+        <v>0.315208</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241849</v>
+        <v>0.237723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197747</v>
+        <v>0.197736</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325051</v>
+        <v>0.324903</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245095</v>
+        <v>0.241544</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200714</v>
+        <v>0.200294</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335612</v>
+        <v>0.335653</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251781</v>
+        <v>0.248078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204215</v>
+        <v>0.203571</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344457</v>
+        <v>0.344167</v>
       </c>
       <c r="C44" t="n">
-        <v>0.259508</v>
+        <v>0.254569</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20724</v>
+        <v>0.207039</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355548</v>
+        <v>0.355994</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265408</v>
+        <v>0.260799</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210104</v>
+        <v>0.210185</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368225</v>
+        <v>0.368175</v>
       </c>
       <c r="C46" t="n">
-        <v>0.273088</v>
+        <v>0.266645</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214379</v>
+        <v>0.214051</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259448</v>
+        <v>0.260504</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280151</v>
+        <v>0.273566</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217776</v>
+        <v>0.217638</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265347</v>
+        <v>0.265711</v>
       </c>
       <c r="C48" t="n">
-        <v>0.287999</v>
+        <v>0.28042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222064</v>
+        <v>0.22132</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.27171</v>
+        <v>0.272668</v>
       </c>
       <c r="C49" t="n">
-        <v>0.296935</v>
+        <v>0.288551</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225291</v>
+        <v>0.225297</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.278608</v>
+        <v>0.279398</v>
       </c>
       <c r="C50" t="n">
-        <v>0.219584</v>
+        <v>0.218227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185683</v>
+        <v>0.185929</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285426</v>
+        <v>0.285719</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224374</v>
+        <v>0.222524</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187332</v>
+        <v>0.187705</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292061</v>
+        <v>0.292934</v>
       </c>
       <c r="C52" t="n">
-        <v>0.229357</v>
+        <v>0.22764</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190671</v>
+        <v>0.190886</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301173</v>
+        <v>0.301644</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23573</v>
+        <v>0.23304</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19372</v>
+        <v>0.193656</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309609</v>
+        <v>0.310007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241045</v>
+        <v>0.23798</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196105</v>
+        <v>0.19624</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318426</v>
+        <v>0.318371</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246923</v>
+        <v>0.243101</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199842</v>
+        <v>0.199923</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32875</v>
+        <v>0.329175</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252089</v>
+        <v>0.248012</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202019</v>
+        <v>0.202316</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.337875</v>
+        <v>0.338008</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258728</v>
+        <v>0.254333</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205635</v>
+        <v>0.205904</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348346</v>
+        <v>0.348406</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266121</v>
+        <v>0.26088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20894</v>
+        <v>0.209405</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359157</v>
+        <v>0.360109</v>
       </c>
       <c r="C59" t="n">
-        <v>0.272413</v>
+        <v>0.267072</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211761</v>
+        <v>0.212494</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369603</v>
+        <v>0.371552</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278842</v>
+        <v>0.272774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21638</v>
+        <v>0.216672</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26499</v>
+        <v>0.264445</v>
       </c>
       <c r="C61" t="n">
-        <v>0.288183</v>
+        <v>0.280472</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219656</v>
+        <v>0.220377</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273233</v>
+        <v>0.269891</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296032</v>
+        <v>0.288078</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223833</v>
+        <v>0.22419</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.282945</v>
+        <v>0.278719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.305388</v>
+        <v>0.298754</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227578</v>
+        <v>0.228229</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.293986</v>
+        <v>0.288646</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234434</v>
+        <v>0.225318</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197222</v>
+        <v>0.191362</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.302386</v>
+        <v>0.300071</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241294</v>
+        <v>0.227661</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198528</v>
+        <v>0.192484</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31205</v>
+        <v>0.306404</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250399</v>
+        <v>0.244365</v>
       </c>
       <c r="D66" t="n">
-        <v>0.20264</v>
+        <v>0.195166</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.324908</v>
+        <v>0.317413</v>
       </c>
       <c r="C67" t="n">
-        <v>0.257539</v>
+        <v>0.242556</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207057</v>
+        <v>0.19871</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.338223</v>
+        <v>0.328869</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266816</v>
+        <v>0.261455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211208</v>
+        <v>0.202886</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.351901</v>
+        <v>0.339232</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279739</v>
+        <v>0.274061</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216478</v>
+        <v>0.207763</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.367802</v>
+        <v>0.353626</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286121</v>
+        <v>0.270475</v>
       </c>
       <c r="D70" t="n">
-        <v>0.222588</v>
+        <v>0.216864</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38822</v>
+        <v>0.372477</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299276</v>
+        <v>0.280967</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226036</v>
+        <v>0.217775</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.40948</v>
+        <v>0.394025</v>
       </c>
       <c r="C72" t="n">
-        <v>0.313804</v>
+        <v>0.293699</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233543</v>
+        <v>0.224283</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.43363</v>
+        <v>0.413334</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333756</v>
+        <v>0.310525</v>
       </c>
       <c r="D73" t="n">
-        <v>0.241159</v>
+        <v>0.231614</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463996</v>
+        <v>0.444309</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353337</v>
+        <v>0.328543</v>
       </c>
       <c r="D74" t="n">
-        <v>0.245745</v>
+        <v>0.236398</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.495938</v>
+        <v>0.475347</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376276</v>
+        <v>0.351292</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255354</v>
+        <v>0.246343</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.431197</v>
+        <v>0.42009</v>
       </c>
       <c r="C76" t="n">
-        <v>0.405494</v>
+        <v>0.374063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26423</v>
+        <v>0.255981</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452665</v>
+        <v>0.450443</v>
       </c>
       <c r="C77" t="n">
-        <v>0.431659</v>
+        <v>0.40251</v>
       </c>
       <c r="D77" t="n">
-        <v>0.275683</v>
+        <v>0.267379</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.479529</v>
+        <v>0.482809</v>
       </c>
       <c r="C78" t="n">
-        <v>0.372082</v>
+        <v>0.374764</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261414</v>
+        <v>0.268231</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.521626</v>
+        <v>0.514022</v>
       </c>
       <c r="C79" t="n">
-        <v>0.396371</v>
+        <v>0.39399</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271601</v>
+        <v>0.278717</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.55759</v>
+        <v>0.547729</v>
       </c>
       <c r="C80" t="n">
-        <v>0.419258</v>
+        <v>0.413018</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28569</v>
+        <v>0.290537</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59872</v>
+        <v>0.595707</v>
       </c>
       <c r="C81" t="n">
-        <v>0.451378</v>
+        <v>0.443666</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301107</v>
+        <v>0.30895</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.63465</v>
+        <v>0.6361520000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.487332</v>
+        <v>0.472202</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320623</v>
+        <v>0.32454</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.683576</v>
+        <v>0.685205</v>
       </c>
       <c r="C83" t="n">
-        <v>0.525668</v>
+        <v>0.505308</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335474</v>
+        <v>0.338663</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.739005</v>
+        <v>0.737664</v>
       </c>
       <c r="C84" t="n">
-        <v>0.56343</v>
+        <v>0.545496</v>
       </c>
       <c r="D84" t="n">
-        <v>0.358819</v>
+        <v>0.361598</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.790285</v>
+        <v>0.787803</v>
       </c>
       <c r="C85" t="n">
-        <v>0.600449</v>
+        <v>0.5788720000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.377744</v>
+        <v>0.379609</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.84967</v>
+        <v>0.846646</v>
       </c>
       <c r="C86" t="n">
-        <v>0.639606</v>
+        <v>0.614417</v>
       </c>
       <c r="D86" t="n">
-        <v>0.396974</v>
+        <v>0.399532</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.912086</v>
+        <v>0.90356</v>
       </c>
       <c r="C87" t="n">
-        <v>0.688666</v>
+        <v>0.654061</v>
       </c>
       <c r="D87" t="n">
-        <v>0.422614</v>
+        <v>0.422792</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.976217</v>
+        <v>0.972451</v>
       </c>
       <c r="C88" t="n">
-        <v>0.728363</v>
+        <v>0.692214</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44654</v>
+        <v>0.444682</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04667</v>
+        <v>1.03924</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779429</v>
+        <v>0.735572</v>
       </c>
       <c r="D89" t="n">
-        <v>0.47142</v>
+        <v>0.469927</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829066</v>
+        <v>0.826891</v>
       </c>
       <c r="C90" t="n">
-        <v>0.825823</v>
+        <v>0.775299</v>
       </c>
       <c r="D90" t="n">
-        <v>0.497734</v>
+        <v>0.497395</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8623729999999999</v>
+        <v>0.8606</v>
       </c>
       <c r="C91" t="n">
-        <v>0.878958</v>
+        <v>0.819198</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519142</v>
+        <v>0.517338</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.899109</v>
+        <v>0.900234</v>
       </c>
       <c r="C92" t="n">
-        <v>0.701251</v>
+        <v>0.689306</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504103</v>
+        <v>0.504354</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.939827</v>
+        <v>0.938326</v>
       </c>
       <c r="C93" t="n">
-        <v>0.729467</v>
+        <v>0.715122</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519475</v>
+        <v>0.521006</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.981662</v>
+        <v>0.98123</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759599</v>
+        <v>0.743279</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536519</v>
+        <v>0.536292</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0278</v>
+        <v>1.02839</v>
       </c>
       <c r="C95" t="n">
-        <v>0.790775</v>
+        <v>0.767464</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552926</v>
+        <v>0.554298</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06795</v>
+        <v>1.06817</v>
       </c>
       <c r="C96" t="n">
-        <v>0.826134</v>
+        <v>0.799082</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571292</v>
+        <v>0.572457</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11213</v>
+        <v>1.11596</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860434</v>
+        <v>0.829983</v>
       </c>
       <c r="D97" t="n">
-        <v>0.59228</v>
+        <v>0.592946</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16228</v>
+        <v>1.16329</v>
       </c>
       <c r="C98" t="n">
-        <v>0.889775</v>
+        <v>0.861795</v>
       </c>
       <c r="D98" t="n">
-        <v>0.609641</v>
+        <v>0.611638</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20393</v>
+        <v>1.20883</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9260969999999999</v>
+        <v>0.89401</v>
       </c>
       <c r="D99" t="n">
-        <v>0.630894</v>
+        <v>0.632167</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24791</v>
+        <v>1.25529</v>
       </c>
       <c r="C100" t="n">
-        <v>0.962083</v>
+        <v>0.928127</v>
       </c>
       <c r="D100" t="n">
-        <v>0.653738</v>
+        <v>0.655614</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29948</v>
+        <v>1.30199</v>
       </c>
       <c r="C101" t="n">
-        <v>0.995173</v>
+        <v>0.962603</v>
       </c>
       <c r="D101" t="n">
-        <v>0.677942</v>
+        <v>0.678467</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.3572</v>
+        <v>1.36061</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03114</v>
+        <v>0.997299</v>
       </c>
       <c r="D102" t="n">
-        <v>0.703249</v>
+        <v>0.704219</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41788</v>
+        <v>1.41843</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07129</v>
+        <v>1.03335</v>
       </c>
       <c r="D103" t="n">
-        <v>0.724171</v>
+        <v>0.723871</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48485</v>
+        <v>1.48831</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1128</v>
+        <v>1.06993</v>
       </c>
       <c r="D104" t="n">
-        <v>0.751851</v>
+        <v>0.752484</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01737</v>
+        <v>1.02216</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15877</v>
+        <v>1.10116</v>
       </c>
       <c r="D105" t="n">
-        <v>0.777935</v>
+        <v>0.7800820000000001</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05963</v>
+        <v>1.06181</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19462</v>
+        <v>1.13809</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7897690000000001</v>
+        <v>0.802148</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09659</v>
+        <v>1.09343</v>
       </c>
       <c r="C107" t="n">
-        <v>0.862554</v>
+        <v>0.856603</v>
       </c>
       <c r="D107" t="n">
-        <v>0.678741</v>
+        <v>0.6936870000000001</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13466</v>
+        <v>1.12647</v>
       </c>
       <c r="C108" t="n">
-        <v>0.893879</v>
+        <v>0.877541</v>
       </c>
       <c r="D108" t="n">
-        <v>0.706792</v>
+        <v>0.699289</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.16789</v>
+        <v>1.16604</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912996</v>
+        <v>0.894608</v>
       </c>
       <c r="D109" t="n">
-        <v>0.714727</v>
+        <v>0.713915</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2245</v>
+        <v>1.22091</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9515980000000001</v>
+        <v>0.925318</v>
       </c>
       <c r="D110" t="n">
-        <v>0.747591</v>
+        <v>0.7476699999999999</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26798</v>
+        <v>1.27185</v>
       </c>
       <c r="C111" t="n">
-        <v>0.982171</v>
+        <v>0.95348</v>
       </c>
       <c r="D111" t="n">
-        <v>0.765411</v>
+        <v>0.767548</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31651</v>
+        <v>1.31855</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01522</v>
+        <v>0.985235</v>
       </c>
       <c r="D112" t="n">
-        <v>0.784045</v>
+        <v>0.786351</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3714</v>
+        <v>1.37138</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05108</v>
+        <v>1.0131</v>
       </c>
       <c r="D113" t="n">
-        <v>0.804374</v>
+        <v>0.804211</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42698</v>
+        <v>1.42565</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08513</v>
+        <v>1.03984</v>
       </c>
       <c r="D114" t="n">
-        <v>0.825049</v>
+        <v>0.82501</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48168</v>
+        <v>1.48357</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1259</v>
+        <v>1.07384</v>
       </c>
       <c r="D115" t="n">
-        <v>0.843849</v>
+        <v>0.8471030000000001</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54395</v>
+        <v>1.54565</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16624</v>
+        <v>1.10705</v>
       </c>
       <c r="D116" t="n">
-        <v>0.866521</v>
+        <v>0.868159</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60785</v>
+        <v>1.60895</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21052</v>
+        <v>1.14265</v>
       </c>
       <c r="D117" t="n">
-        <v>0.892575</v>
+        <v>0.894115</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.6754</v>
+        <v>1.67713</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25962</v>
+        <v>1.18053</v>
       </c>
       <c r="D118" t="n">
-        <v>0.915691</v>
+        <v>0.917871</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10794</v>
+        <v>1.1096</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30496</v>
+        <v>1.21861</v>
       </c>
       <c r="D119" t="n">
-        <v>0.937371</v>
+        <v>0.94179</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575902</v>
+        <v>0.575801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390362</v>
+        <v>0.391334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248606</v>
+        <v>0.248182</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592753</v>
+        <v>0.5923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400177</v>
+        <v>0.394044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254925</v>
+        <v>0.254349</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.619048</v>
+        <v>0.625571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.419242</v>
+        <v>0.432627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262493</v>
+        <v>0.261038</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.644781</v>
+        <v>0.654168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.442148</v>
+        <v>0.442138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269944</v>
+        <v>0.269576</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.669836</v>
+        <v>0.674911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.453249</v>
+        <v>0.457077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279562</v>
+        <v>0.279722</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695583</v>
+        <v>0.706753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.475638</v>
+        <v>0.497766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28439</v>
+        <v>0.28643</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.721596</v>
+        <v>0.730995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.496638</v>
+        <v>0.521674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291375</v>
+        <v>0.291422</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.751409</v>
+        <v>0.764083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515829</v>
+        <v>0.5470660000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.297539</v>
+        <v>0.30088</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.782359</v>
+        <v>0.79166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5516</v>
+        <v>0.54152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311196</v>
+        <v>0.314435</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8196639999999999</v>
+        <v>0.829034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.374384</v>
+        <v>0.374814</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235693</v>
+        <v>0.238791</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520814</v>
+        <v>0.522443</v>
       </c>
       <c r="C12" t="n">
-        <v>0.392521</v>
+        <v>0.384464</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24596</v>
+        <v>0.246159</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.542513</v>
+        <v>0.55062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.410781</v>
+        <v>0.417342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252098</v>
+        <v>0.253409</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.566908</v>
+        <v>0.576113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.429593</v>
+        <v>0.441267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.258548</v>
+        <v>0.263874</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.59717</v>
+        <v>0.603105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.466349</v>
+        <v>0.453922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268717</v>
+        <v>0.270168</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.62066</v>
+        <v>0.629047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.483134</v>
+        <v>0.465589</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277424</v>
+        <v>0.28052</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.654348</v>
+        <v>0.658353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.510565</v>
+        <v>0.507437</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28828</v>
+        <v>0.291631</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.685914</v>
+        <v>0.691013</v>
       </c>
       <c r="C18" t="n">
-        <v>0.54204</v>
+        <v>0.52073</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296158</v>
+        <v>0.298137</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.724952</v>
+        <v>0.729972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5667410000000001</v>
+        <v>0.538679</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307862</v>
+        <v>0.311191</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.760414</v>
+        <v>0.762843</v>
       </c>
       <c r="C20" t="n">
-        <v>0.597629</v>
+        <v>0.594843</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317086</v>
+        <v>0.319358</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.801444</v>
+        <v>0.80647</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632293</v>
+        <v>0.6052380000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331804</v>
+        <v>0.334782</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.840941</v>
+        <v>0.846359</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.639899</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341737</v>
+        <v>0.344473</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.891415</v>
+        <v>0.893684</v>
       </c>
       <c r="C23" t="n">
-        <v>0.700641</v>
+        <v>0.700359</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352791</v>
+        <v>0.351226</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.931597</v>
+        <v>0.937313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.736707</v>
+        <v>0.693078</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365362</v>
+        <v>0.366031</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.972776</v>
+        <v>0.975397</v>
       </c>
       <c r="C25" t="n">
-        <v>0.760954</v>
+        <v>0.781544</v>
       </c>
       <c r="D25" t="n">
-        <v>0.378742</v>
+        <v>0.380491</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01341</v>
+        <v>1.01731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.485374</v>
+        <v>0.451454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273992</v>
+        <v>0.274852</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.647979</v>
+        <v>0.645555</v>
       </c>
       <c r="C27" t="n">
-        <v>0.50731</v>
+        <v>0.474926</v>
       </c>
       <c r="D27" t="n">
-        <v>0.282575</v>
+        <v>0.283022</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.674975</v>
+        <v>0.675267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.536111</v>
+        <v>0.502171</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291013</v>
+        <v>0.293315</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.707697</v>
+        <v>0.706832</v>
       </c>
       <c r="C29" t="n">
-        <v>0.558355</v>
+        <v>0.516561</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301634</v>
+        <v>0.306156</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.745164</v>
+        <v>0.741884</v>
       </c>
       <c r="C30" t="n">
-        <v>0.585074</v>
+        <v>0.551014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316912</v>
+        <v>0.31731</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.778466</v>
+        <v>0.783817</v>
       </c>
       <c r="C31" t="n">
-        <v>0.623512</v>
+        <v>0.5657759999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318447</v>
+        <v>0.319897</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.81581</v>
+        <v>0.815706</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6466190000000001</v>
+        <v>0.606052</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334398</v>
+        <v>0.335733</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.860232</v>
+        <v>0.85667</v>
       </c>
       <c r="C33" t="n">
-        <v>0.67798</v>
+        <v>0.615395</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346257</v>
+        <v>0.34882</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.902388</v>
+        <v>0.896988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.719122</v>
+        <v>0.664651</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357328</v>
+        <v>0.356926</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.94419</v>
+        <v>0.9444129999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.749875</v>
+        <v>0.704137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364217</v>
+        <v>0.363765</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.979382</v>
+        <v>0.981827</v>
       </c>
       <c r="C36" t="n">
-        <v>0.781069</v>
+        <v>0.742076</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378096</v>
+        <v>0.378364</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03055</v>
+        <v>1.03392</v>
       </c>
       <c r="C37" t="n">
-        <v>0.81423</v>
+        <v>0.774553</v>
       </c>
       <c r="D37" t="n">
-        <v>0.389944</v>
+        <v>0.390218</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0679</v>
+        <v>1.06957</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.77899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.39587</v>
+        <v>0.399956</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1234</v>
+        <v>1.12565</v>
       </c>
       <c r="C39" t="n">
-        <v>0.887696</v>
+        <v>0.795706</v>
       </c>
       <c r="D39" t="n">
-        <v>0.414276</v>
+        <v>0.411639</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16658</v>
+        <v>1.16737</v>
       </c>
       <c r="C40" t="n">
-        <v>0.544578</v>
+        <v>0.513732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314655</v>
+        <v>0.314978</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704</v>
+        <v>0.704792</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5631080000000001</v>
+        <v>0.520501</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324594</v>
+        <v>0.324236</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.734202</v>
+        <v>0.734591</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5914779999999999</v>
+        <v>0.548224</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333534</v>
+        <v>0.333123</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.768706</v>
+        <v>0.769448</v>
       </c>
       <c r="C43" t="n">
-        <v>0.619668</v>
+        <v>0.581749</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344574</v>
+        <v>0.344058</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805409</v>
+        <v>0.804707</v>
       </c>
       <c r="C44" t="n">
-        <v>0.649743</v>
+        <v>0.5943310000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355698</v>
+        <v>0.354378</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.840154</v>
+        <v>0.839753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.678739</v>
+        <v>0.632966</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360965</v>
+        <v>0.360235</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8825809999999999</v>
+        <v>0.88252</v>
       </c>
       <c r="C46" t="n">
-        <v>0.709978</v>
+        <v>0.669705</v>
       </c>
       <c r="D46" t="n">
-        <v>0.374511</v>
+        <v>0.374933</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.923385</v>
+        <v>0.923619</v>
       </c>
       <c r="C47" t="n">
-        <v>0.742296</v>
+        <v>0.696348</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386041</v>
+        <v>0.388055</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.963032</v>
+        <v>0.963271</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7751749999999999</v>
+        <v>0.709998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398973</v>
+        <v>0.398971</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00534</v>
+        <v>1.0061</v>
       </c>
       <c r="C49" t="n">
-        <v>0.811144</v>
+        <v>0.747635</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409252</v>
+        <v>0.411074</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04559</v>
+        <v>1.04595</v>
       </c>
       <c r="C50" t="n">
-        <v>0.848158</v>
+        <v>0.809086</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421491</v>
+        <v>0.420653</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09259</v>
+        <v>1.0914</v>
       </c>
       <c r="C51" t="n">
-        <v>0.885783</v>
+        <v>0.82264</v>
       </c>
       <c r="D51" t="n">
-        <v>0.43535</v>
+        <v>0.435362</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13318</v>
+        <v>1.13688</v>
       </c>
       <c r="C52" t="n">
-        <v>0.920201</v>
+        <v>0.904918</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447107</v>
+        <v>0.446475</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.17995</v>
+        <v>1.18196</v>
       </c>
       <c r="C53" t="n">
-        <v>0.957422</v>
+        <v>0.934115</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458261</v>
+        <v>0.457604</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22321</v>
+        <v>1.2264</v>
       </c>
       <c r="C54" t="n">
-        <v>0.573306</v>
+        <v>0.527931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340854</v>
+        <v>0.341129</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26858</v>
+        <v>1.2715</v>
       </c>
       <c r="C55" t="n">
-        <v>0.59662</v>
+        <v>0.547698</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348964</v>
+        <v>0.348498</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749691</v>
+        <v>0.749741</v>
       </c>
       <c r="C56" t="n">
-        <v>0.621874</v>
+        <v>0.578341</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359328</v>
+        <v>0.3596</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.784155</v>
+        <v>0.783045</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647353</v>
+        <v>0.592316</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369712</v>
+        <v>0.369806</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818531</v>
+        <v>0.818669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.677276</v>
+        <v>0.612762</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378327</v>
+        <v>0.378731</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.851231</v>
+        <v>0.852039</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708815</v>
+        <v>0.667507</v>
       </c>
       <c r="D59" t="n">
-        <v>0.391893</v>
+        <v>0.390693</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.89366</v>
+        <v>0.89334</v>
       </c>
       <c r="C60" t="n">
-        <v>0.738641</v>
+        <v>0.681065</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402729</v>
+        <v>0.400859</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.931924</v>
+        <v>0.933214</v>
       </c>
       <c r="C61" t="n">
-        <v>0.773932</v>
+        <v>0.699827</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411638</v>
+        <v>0.411359</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971566</v>
+        <v>0.973039</v>
       </c>
       <c r="C62" t="n">
-        <v>0.807122</v>
+        <v>0.74008</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424252</v>
+        <v>0.424612</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01514</v>
+        <v>1.02242</v>
       </c>
       <c r="C63" t="n">
-        <v>0.84237</v>
+        <v>0.796838</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433242</v>
+        <v>0.433343</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06412</v>
+        <v>1.07176</v>
       </c>
       <c r="C64" t="n">
-        <v>0.880464</v>
+        <v>0.838755</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446539</v>
+        <v>0.446525</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10588</v>
+        <v>1.1111</v>
       </c>
       <c r="C65" t="n">
-        <v>0.917589</v>
+        <v>0.885304</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460704</v>
+        <v>0.459608</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.156</v>
+        <v>1.16321</v>
       </c>
       <c r="C66" t="n">
-        <v>0.957155</v>
+        <v>0.936863</v>
       </c>
       <c r="D66" t="n">
-        <v>0.472858</v>
+        <v>0.473567</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20305</v>
+        <v>1.22235</v>
       </c>
       <c r="C67" t="n">
-        <v>0.999806</v>
+        <v>0.9891799999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486718</v>
+        <v>0.490619</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26022</v>
+        <v>1.28137</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591067</v>
+        <v>0.549088</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350021</v>
+        <v>0.348526</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32758</v>
+        <v>1.34993</v>
       </c>
       <c r="C69" t="n">
-        <v>0.624447</v>
+        <v>0.566042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.36301</v>
+        <v>0.357044</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7997649999999999</v>
+        <v>0.790044</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6635180000000001</v>
+        <v>0.613067</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376275</v>
+        <v>0.367085</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8488869999999999</v>
+        <v>0.818702</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706564</v>
+        <v>0.637157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.388353</v>
+        <v>0.381055</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.90057</v>
+        <v>0.874174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.749866</v>
+        <v>0.666508</v>
       </c>
       <c r="D72" t="n">
-        <v>0.402101</v>
+        <v>0.392189</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9583469999999999</v>
+        <v>0.915728</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796915</v>
+        <v>0.696429</v>
       </c>
       <c r="D73" t="n">
-        <v>0.419078</v>
+        <v>0.402039</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.01965</v>
+        <v>0.970798</v>
       </c>
       <c r="C74" t="n">
-        <v>0.84722</v>
+        <v>0.749907</v>
       </c>
       <c r="D74" t="n">
-        <v>0.436578</v>
+        <v>0.422202</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.10051</v>
+        <v>1.04579</v>
       </c>
       <c r="C75" t="n">
-        <v>0.917571</v>
+        <v>0.773359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.451317</v>
+        <v>0.439486</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18101</v>
+        <v>1.1186</v>
       </c>
       <c r="C76" t="n">
-        <v>0.985123</v>
+        <v>0.864238</v>
       </c>
       <c r="D76" t="n">
-        <v>0.471971</v>
+        <v>0.451355</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28747</v>
+        <v>1.22728</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06995</v>
+        <v>0.966965</v>
       </c>
       <c r="D77" t="n">
-        <v>0.490677</v>
+        <v>0.470342</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39934</v>
+        <v>1.34431</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16695</v>
+        <v>1.02171</v>
       </c>
       <c r="D78" t="n">
-        <v>0.519513</v>
+        <v>0.506888</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5432</v>
+        <v>1.49292</v>
       </c>
       <c r="C79" t="n">
-        <v>1.28789</v>
+        <v>1.15448</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552342</v>
+        <v>0.536179</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.69163</v>
+        <v>1.64053</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41602</v>
+        <v>1.26799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.588601</v>
+        <v>0.575628</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.85964</v>
+        <v>1.83513</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56451</v>
+        <v>1.42224</v>
       </c>
       <c r="D81" t="n">
-        <v>0.629868</v>
+        <v>0.6190330000000001</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04681</v>
+        <v>2.01222</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73544</v>
+        <v>1.57654</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64352</v>
+        <v>0.6433680000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26285</v>
+        <v>2.22151</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10754</v>
+        <v>0.942096</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50062</v>
+        <v>0.496605</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.5106</v>
+        <v>2.48565</v>
       </c>
       <c r="C84" t="n">
-        <v>1.21427</v>
+        <v>1.02881</v>
       </c>
       <c r="D84" t="n">
-        <v>0.547036</v>
+        <v>0.532887</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59906</v>
+        <v>1.59081</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35045</v>
+        <v>1.13911</v>
       </c>
       <c r="D85" t="n">
-        <v>0.588458</v>
+        <v>0.57737</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76427</v>
+        <v>1.76298</v>
       </c>
       <c r="C86" t="n">
-        <v>1.4875</v>
+        <v>1.28721</v>
       </c>
       <c r="D86" t="n">
-        <v>0.623244</v>
+        <v>0.614605</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9431</v>
+        <v>1.95277</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6384</v>
+        <v>1.42124</v>
       </c>
       <c r="D87" t="n">
-        <v>0.673185</v>
+        <v>0.674238</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15826</v>
+        <v>2.14321</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81978</v>
+        <v>1.60518</v>
       </c>
       <c r="D88" t="n">
-        <v>0.72382</v>
+        <v>0.730723</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38002</v>
+        <v>2.37119</v>
       </c>
       <c r="C89" t="n">
-        <v>2.0171</v>
+        <v>1.79084</v>
       </c>
       <c r="D89" t="n">
-        <v>0.78567</v>
+        <v>0.777118</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.61529</v>
+        <v>2.62141</v>
       </c>
       <c r="C90" t="n">
-        <v>2.21521</v>
+        <v>1.95295</v>
       </c>
       <c r="D90" t="n">
-        <v>0.845377</v>
+        <v>0.838089</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.87554</v>
+        <v>2.86865</v>
       </c>
       <c r="C91" t="n">
-        <v>2.42274</v>
+        <v>2.17846</v>
       </c>
       <c r="D91" t="n">
-        <v>0.895618</v>
+        <v>0.912301</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.13677</v>
+        <v>3.14701</v>
       </c>
       <c r="C92" t="n">
-        <v>2.66691</v>
+        <v>2.40737</v>
       </c>
       <c r="D92" t="n">
-        <v>0.980006</v>
+        <v>0.973737</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.43154</v>
+        <v>3.43148</v>
       </c>
       <c r="C93" t="n">
-        <v>2.91513</v>
+        <v>2.68448</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05671</v>
+        <v>1.05456</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.72542</v>
+        <v>3.73618</v>
       </c>
       <c r="C94" t="n">
-        <v>3.18594</v>
+        <v>2.97701</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13844</v>
+        <v>1.14384</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.04153</v>
+        <v>4.05717</v>
       </c>
       <c r="C95" t="n">
-        <v>3.43448</v>
+        <v>3.31153</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20712</v>
+        <v>1.19775</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36167</v>
+        <v>4.37579</v>
       </c>
       <c r="C96" t="n">
-        <v>3.73579</v>
+        <v>3.4399</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28344</v>
+        <v>1.28022</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.67966</v>
+        <v>4.72861</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13965</v>
+        <v>1.79683</v>
       </c>
       <c r="D97" t="n">
-        <v>0.927712</v>
+        <v>0.930413</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.97881</v>
+        <v>5.01219</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27946</v>
+        <v>1.91834</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9871450000000001</v>
+        <v>0.984627</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83086</v>
+        <v>2.84636</v>
       </c>
       <c r="C99" t="n">
-        <v>2.41307</v>
+        <v>2.11668</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0419</v>
+        <v>1.04667</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.00805</v>
+        <v>3.01575</v>
       </c>
       <c r="C100" t="n">
-        <v>2.55714</v>
+        <v>2.27051</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08875</v>
+        <v>1.09723</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.19551</v>
+        <v>3.20999</v>
       </c>
       <c r="C101" t="n">
-        <v>2.72712</v>
+        <v>2.43347</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15931</v>
+        <v>1.15489</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.41867</v>
+        <v>3.43967</v>
       </c>
       <c r="C102" t="n">
-        <v>2.91543</v>
+        <v>2.68062</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20855</v>
+        <v>1.2075</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.64939</v>
+        <v>3.65854</v>
       </c>
       <c r="C103" t="n">
-        <v>3.10699</v>
+        <v>2.73426</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27668</v>
+        <v>1.26958</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.8909</v>
+        <v>3.91201</v>
       </c>
       <c r="C104" t="n">
-        <v>3.32938</v>
+        <v>2.86447</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33454</v>
+        <v>1.32749</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.16041</v>
+        <v>4.18456</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55436</v>
+        <v>3.13949</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42485</v>
+        <v>1.42967</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.43953</v>
+        <v>4.45559</v>
       </c>
       <c r="C106" t="n">
-        <v>3.8107</v>
+        <v>3.42926</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47363</v>
+        <v>1.48995</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.73343</v>
+        <v>4.75893</v>
       </c>
       <c r="C107" t="n">
-        <v>4.06379</v>
+        <v>3.64466</v>
       </c>
       <c r="D107" t="n">
-        <v>1.55624</v>
+        <v>1.5405</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.02899</v>
+        <v>5.07065</v>
       </c>
       <c r="C108" t="n">
-        <v>4.3335</v>
+        <v>4.11054</v>
       </c>
       <c r="D108" t="n">
-        <v>1.6288</v>
+        <v>1.63074</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.36185</v>
+        <v>5.39726</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59481</v>
+        <v>4.28845</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70468</v>
+        <v>1.70062</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.66233</v>
+        <v>5.70485</v>
       </c>
       <c r="C110" t="n">
-        <v>4.89273</v>
+        <v>4.72038</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79581</v>
+        <v>1.81583</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0324</v>
+        <v>6.06578</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64697</v>
+        <v>2.17948</v>
       </c>
       <c r="D111" t="n">
-        <v>1.31194</v>
+        <v>1.30471</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.38035</v>
+        <v>6.44919</v>
       </c>
       <c r="C112" t="n">
-        <v>2.80418</v>
+        <v>2.34624</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37965</v>
+        <v>1.35711</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.72012</v>
+        <v>6.78656</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97601</v>
+        <v>2.42385</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41091</v>
+        <v>1.4273</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.67948</v>
+        <v>3.70912</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14765</v>
+        <v>2.5849</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46563</v>
+        <v>1.48404</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.90259</v>
+        <v>3.91652</v>
       </c>
       <c r="C115" t="n">
-        <v>3.34496</v>
+        <v>2.80629</v>
       </c>
       <c r="D115" t="n">
-        <v>1.55066</v>
+        <v>1.54877</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.13787</v>
+        <v>4.14606</v>
       </c>
       <c r="C116" t="n">
-        <v>3.54789</v>
+        <v>2.90826</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59103</v>
+        <v>1.62476</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.38041</v>
+        <v>4.38859</v>
       </c>
       <c r="C117" t="n">
-        <v>3.76691</v>
+        <v>3.35819</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66463</v>
+        <v>1.67233</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.62304</v>
+        <v>4.64852</v>
       </c>
       <c r="C118" t="n">
-        <v>4.0151</v>
+        <v>3.34835</v>
       </c>
       <c r="D118" t="n">
-        <v>1.73191</v>
+        <v>1.74506</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90335</v>
+        <v>4.9248</v>
       </c>
       <c r="C119" t="n">
-        <v>4.25262</v>
+        <v>3.73183</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80286</v>
+        <v>1.79802</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.334664</v>
+        <v>0.335581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.221023</v>
+        <v>0.222842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246145</v>
+        <v>0.248135</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.251226</v>
+        <v>0.25546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223006</v>
+        <v>0.224989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248594</v>
+        <v>0.250771</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258394</v>
+        <v>0.263579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227333</v>
+        <v>0.230121</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254379</v>
+        <v>0.256642</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.265462</v>
+        <v>0.271801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232034</v>
+        <v>0.235202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.258836</v>
+        <v>0.262427</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.273815</v>
+        <v>0.281005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23675</v>
+        <v>0.239578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26506</v>
+        <v>0.268652</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.285685</v>
+        <v>0.28971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199126</v>
+        <v>0.200924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222471</v>
+        <v>0.223693</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.292485</v>
+        <v>0.295463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207125</v>
+        <v>0.204741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228832</v>
+        <v>0.229481</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.301826</v>
+        <v>0.305782</v>
       </c>
       <c r="C9" t="n">
-        <v>0.211576</v>
+        <v>0.208419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.236276</v>
+        <v>0.235852</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310175</v>
+        <v>0.313563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215716</v>
+        <v>0.212703</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243395</v>
+        <v>0.243141</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.318</v>
+        <v>0.318909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2208</v>
+        <v>0.219353</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25013</v>
+        <v>0.249867</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.328886</v>
+        <v>0.329687</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22875</v>
+        <v>0.226401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259839</v>
+        <v>0.25871</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.337533</v>
+        <v>0.337305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232459</v>
+        <v>0.231369</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265778</v>
+        <v>0.264778</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.346746</v>
+        <v>0.346367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238076</v>
+        <v>0.236603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.271077</v>
+        <v>0.271538</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3596</v>
+        <v>0.35731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242863</v>
+        <v>0.24179</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277249</v>
+        <v>0.276655</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.365758</v>
+        <v>0.365337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246825</v>
+        <v>0.246434</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283847</v>
+        <v>0.282494</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.37775</v>
+        <v>0.377069</v>
       </c>
       <c r="C17" t="n">
-        <v>0.253442</v>
+        <v>0.252401</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290534</v>
+        <v>0.290244</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287889</v>
+        <v>0.287051</v>
       </c>
       <c r="C18" t="n">
-        <v>0.256785</v>
+        <v>0.255645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294089</v>
+        <v>0.293563</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295334</v>
+        <v>0.294868</v>
       </c>
       <c r="C19" t="n">
-        <v>0.262461</v>
+        <v>0.261828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300772</v>
+        <v>0.300892</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.305115</v>
+        <v>0.304664</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269831</v>
+        <v>0.269692</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307367</v>
+        <v>0.30991</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.314865</v>
+        <v>0.314402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216585</v>
+        <v>0.215413</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247089</v>
+        <v>0.24675</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324596</v>
+        <v>0.322875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223058</v>
+        <v>0.222106</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254328</v>
+        <v>0.252845</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.331879</v>
+        <v>0.331492</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22851</v>
+        <v>0.22789</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260775</v>
+        <v>0.261133</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339239</v>
+        <v>0.338621</v>
       </c>
       <c r="C24" t="n">
-        <v>0.233288</v>
+        <v>0.232882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267492</v>
+        <v>0.266267</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347711</v>
+        <v>0.346993</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23854</v>
+        <v>0.238038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274499</v>
+        <v>0.273025</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.356827</v>
+        <v>0.356248</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245259</v>
+        <v>0.245155</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281602</v>
+        <v>0.280237</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365098</v>
+        <v>0.364568</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249405</v>
+        <v>0.248018</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287112</v>
+        <v>0.286591</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.374431</v>
+        <v>0.372233</v>
       </c>
       <c r="C28" t="n">
-        <v>0.254535</v>
+        <v>0.253352</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2941</v>
+        <v>0.293021</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383114</v>
+        <v>0.382158</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260344</v>
+        <v>0.259363</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301339</v>
+        <v>0.300233</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391334</v>
+        <v>0.390244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.264832</v>
+        <v>0.264072</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307716</v>
+        <v>0.307182</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400621</v>
+        <v>0.399353</v>
       </c>
       <c r="C31" t="n">
-        <v>0.270209</v>
+        <v>0.26908</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313103</v>
+        <v>0.312127</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297469</v>
+        <v>0.296391</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275111</v>
+        <v>0.274617</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319712</v>
+        <v>0.318784</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305967</v>
+        <v>0.305022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280704</v>
+        <v>0.279508</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325861</v>
+        <v>0.324877</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313227</v>
+        <v>0.312588</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286385</v>
+        <v>0.285433</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332112</v>
+        <v>0.330912</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.32207</v>
+        <v>0.321784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225905</v>
+        <v>0.225711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258897</v>
+        <v>0.258932</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.330967</v>
+        <v>0.330325</v>
       </c>
       <c r="C36" t="n">
-        <v>0.23173</v>
+        <v>0.231665</v>
       </c>
       <c r="D36" t="n">
-        <v>0.26493</v>
+        <v>0.26454</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339094</v>
+        <v>0.338772</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237025</v>
+        <v>0.236829</v>
       </c>
       <c r="D37" t="n">
-        <v>0.27114</v>
+        <v>0.270762</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347062</v>
+        <v>0.346473</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242363</v>
+        <v>0.242196</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277273</v>
+        <v>0.276923</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355723</v>
+        <v>0.355447</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248171</v>
+        <v>0.248016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284473</v>
+        <v>0.284013</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364727</v>
+        <v>0.364343</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253089</v>
+        <v>0.252843</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29128</v>
+        <v>0.290679</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373285</v>
+        <v>0.372496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258486</v>
+        <v>0.258384</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298254</v>
+        <v>0.298054</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.380726</v>
+        <v>0.380183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.263307</v>
+        <v>0.263333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304082</v>
+        <v>0.303712</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.390733</v>
+        <v>0.390164</v>
       </c>
       <c r="C43" t="n">
-        <v>0.268704</v>
+        <v>0.268833</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311516</v>
+        <v>0.310962</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.39934</v>
+        <v>0.398539</v>
       </c>
       <c r="C44" t="n">
-        <v>0.273736</v>
+        <v>0.273584</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318138</v>
+        <v>0.317058</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.407874</v>
+        <v>0.406556</v>
       </c>
       <c r="C45" t="n">
-        <v>0.278335</v>
+        <v>0.278326</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324023</v>
+        <v>0.323356</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418214</v>
+        <v>0.417646</v>
       </c>
       <c r="C46" t="n">
-        <v>0.283056</v>
+        <v>0.282963</v>
       </c>
       <c r="D46" t="n">
-        <v>0.329527</v>
+        <v>0.32834</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305987</v>
+        <v>0.305689</v>
       </c>
       <c r="C47" t="n">
-        <v>0.288296</v>
+        <v>0.288314</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335089</v>
+        <v>0.334694</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.31322</v>
+        <v>0.312991</v>
       </c>
       <c r="C48" t="n">
-        <v>0.293582</v>
+        <v>0.293517</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342689</v>
+        <v>0.342429</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322349</v>
+        <v>0.321785</v>
       </c>
       <c r="C49" t="n">
-        <v>0.298708</v>
+        <v>0.298769</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352166</v>
+        <v>0.35182</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330398</v>
+        <v>0.330165</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23437</v>
+        <v>0.234389</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26287</v>
+        <v>0.262412</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338697</v>
+        <v>0.338256</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239906</v>
+        <v>0.239995</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270508</v>
+        <v>0.270199</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347476</v>
+        <v>0.347388</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245744</v>
+        <v>0.245796</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277718</v>
+        <v>0.27738</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.356056</v>
+        <v>0.355796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251274</v>
+        <v>0.251238</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284921</v>
+        <v>0.284784</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364607</v>
+        <v>0.36429</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256876</v>
+        <v>0.256847</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291764</v>
+        <v>0.291398</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372753</v>
+        <v>0.372498</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262267</v>
+        <v>0.262319</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299114</v>
+        <v>0.29879</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381255</v>
+        <v>0.380954</v>
       </c>
       <c r="C56" t="n">
-        <v>0.267789</v>
+        <v>0.267842</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305771</v>
+        <v>0.305493</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390342</v>
+        <v>0.390072</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272241</v>
+        <v>0.27243</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312686</v>
+        <v>0.312501</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399316</v>
+        <v>0.399192</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276868</v>
+        <v>0.276906</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319195</v>
+        <v>0.318981</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407913</v>
+        <v>0.407755</v>
       </c>
       <c r="C59" t="n">
-        <v>0.281734</v>
+        <v>0.281692</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325852</v>
+        <v>0.325443</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418124</v>
+        <v>0.417515</v>
       </c>
       <c r="C60" t="n">
-        <v>0.286711</v>
+        <v>0.28694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332918</v>
+        <v>0.332802</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.307624</v>
+        <v>0.306756</v>
       </c>
       <c r="C61" t="n">
-        <v>0.29187</v>
+        <v>0.291982</v>
       </c>
       <c r="D61" t="n">
-        <v>0.340121</v>
+        <v>0.339913</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.319368</v>
+        <v>0.318241</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296977</v>
+        <v>0.297208</v>
       </c>
       <c r="D62" t="n">
-        <v>0.346534</v>
+        <v>0.347021</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.328724</v>
+        <v>0.328851</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303056</v>
+        <v>0.303288</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353894</v>
+        <v>0.354211</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.340422</v>
+        <v>0.339411</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242182</v>
+        <v>0.241417</v>
       </c>
       <c r="D64" t="n">
-        <v>0.275294</v>
+        <v>0.27457</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.347661</v>
+        <v>0.347868</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248103</v>
+        <v>0.248066</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283019</v>
+        <v>0.283267</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.36034</v>
+        <v>0.358559</v>
       </c>
       <c r="C66" t="n">
-        <v>0.254531</v>
+        <v>0.256856</v>
       </c>
       <c r="D66" t="n">
-        <v>0.290661</v>
+        <v>0.290724</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.370784</v>
+        <v>0.369908</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261809</v>
+        <v>0.262016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.299165</v>
+        <v>0.300335</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.384963</v>
+        <v>0.382011</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268695</v>
+        <v>0.268781</v>
       </c>
       <c r="D68" t="n">
-        <v>0.310583</v>
+        <v>0.310152</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.396486</v>
+        <v>0.395906</v>
       </c>
       <c r="C69" t="n">
-        <v>0.278559</v>
+        <v>0.275142</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320512</v>
+        <v>0.320095</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.410339</v>
+        <v>0.410017</v>
       </c>
       <c r="C70" t="n">
-        <v>0.284326</v>
+        <v>0.285381</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330276</v>
+        <v>0.331518</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.425651</v>
+        <v>0.42701</v>
       </c>
       <c r="C71" t="n">
-        <v>0.292652</v>
+        <v>0.294183</v>
       </c>
       <c r="D71" t="n">
-        <v>0.341211</v>
+        <v>0.342766</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.441062</v>
+        <v>0.443925</v>
       </c>
       <c r="C72" t="n">
-        <v>0.303003</v>
+        <v>0.304488</v>
       </c>
       <c r="D72" t="n">
-        <v>0.353591</v>
+        <v>0.356276</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.464686</v>
+        <v>0.464429</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314235</v>
+        <v>0.313095</v>
       </c>
       <c r="D73" t="n">
-        <v>0.36958</v>
+        <v>0.370067</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.485972</v>
+        <v>0.482217</v>
       </c>
       <c r="C74" t="n">
-        <v>0.326152</v>
+        <v>0.323478</v>
       </c>
       <c r="D74" t="n">
-        <v>0.385246</v>
+        <v>0.382461</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.507954</v>
+        <v>0.501557</v>
       </c>
       <c r="C75" t="n">
-        <v>0.340447</v>
+        <v>0.334896</v>
       </c>
       <c r="D75" t="n">
-        <v>0.402604</v>
+        <v>0.397739</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.480779</v>
+        <v>0.47429</v>
       </c>
       <c r="C76" t="n">
-        <v>0.357634</v>
+        <v>0.354923</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426067</v>
+        <v>0.421465</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5083839999999999</v>
+        <v>0.503349</v>
       </c>
       <c r="C77" t="n">
-        <v>0.375802</v>
+        <v>0.373168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.44961</v>
+        <v>0.446567</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.536229</v>
+        <v>0.531789</v>
       </c>
       <c r="C78" t="n">
-        <v>0.339181</v>
+        <v>0.337942</v>
       </c>
       <c r="D78" t="n">
-        <v>0.414792</v>
+        <v>0.411376</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.560937</v>
+        <v>0.559735</v>
       </c>
       <c r="C79" t="n">
-        <v>0.35582</v>
+        <v>0.35607</v>
       </c>
       <c r="D79" t="n">
-        <v>0.437655</v>
+        <v>0.436252</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.591193</v>
+        <v>0.593161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3794</v>
+        <v>0.383507</v>
       </c>
       <c r="D80" t="n">
-        <v>0.457671</v>
+        <v>0.459283</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6260869999999999</v>
+        <v>0.629399</v>
       </c>
       <c r="C81" t="n">
-        <v>0.39513</v>
+        <v>0.398492</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484819</v>
+        <v>0.483905</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.662032</v>
+        <v>0.665291</v>
       </c>
       <c r="C82" t="n">
-        <v>0.416135</v>
+        <v>0.415776</v>
       </c>
       <c r="D82" t="n">
-        <v>0.510499</v>
+        <v>0.511501</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.700569</v>
+        <v>0.703</v>
       </c>
       <c r="C83" t="n">
-        <v>0.434055</v>
+        <v>0.435485</v>
       </c>
       <c r="D83" t="n">
-        <v>0.535196</v>
+        <v>0.537456</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.732263</v>
+        <v>0.7352919999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.456599</v>
+        <v>0.458738</v>
       </c>
       <c r="D84" t="n">
-        <v>0.564578</v>
+        <v>0.566265</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.770643</v>
+        <v>0.773873</v>
       </c>
       <c r="C85" t="n">
-        <v>0.479265</v>
+        <v>0.482083</v>
       </c>
       <c r="D85" t="n">
-        <v>0.593306</v>
+        <v>0.595881</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.809989</v>
+        <v>0.8153010000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.502127</v>
+        <v>0.50513</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622378</v>
+        <v>0.625182</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.851162</v>
+        <v>0.856621</v>
       </c>
       <c r="C87" t="n">
-        <v>0.526593</v>
+        <v>0.528481</v>
       </c>
       <c r="D87" t="n">
-        <v>0.650255</v>
+        <v>0.6540820000000001</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.89435</v>
+        <v>0.898966</v>
       </c>
       <c r="C88" t="n">
-        <v>0.551362</v>
+        <v>0.553652</v>
       </c>
       <c r="D88" t="n">
-        <v>0.68737</v>
+        <v>0.690966</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.939624</v>
+        <v>0.945725</v>
       </c>
       <c r="C89" t="n">
-        <v>0.576648</v>
+        <v>0.579974</v>
       </c>
       <c r="D89" t="n">
-        <v>0.719691</v>
+        <v>0.723462</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.82618</v>
+        <v>0.826868</v>
       </c>
       <c r="C90" t="n">
-        <v>0.602947</v>
+        <v>0.606146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.742597</v>
+        <v>0.746318</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8532729999999999</v>
+        <v>0.855194</v>
       </c>
       <c r="C91" t="n">
-        <v>0.63145</v>
+        <v>0.634547</v>
       </c>
       <c r="D91" t="n">
-        <v>0.775932</v>
+        <v>0.778967</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.882711</v>
+        <v>0.883589</v>
       </c>
       <c r="C92" t="n">
-        <v>0.536193</v>
+        <v>0.536406</v>
       </c>
       <c r="D92" t="n">
-        <v>0.673774</v>
+        <v>0.6726259999999999</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.911923</v>
+        <v>0.912784</v>
       </c>
       <c r="C93" t="n">
-        <v>0.552647</v>
+        <v>0.553052</v>
       </c>
       <c r="D93" t="n">
-        <v>0.698963</v>
+        <v>0.698168</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.940844</v>
+        <v>0.942508</v>
       </c>
       <c r="C94" t="n">
-        <v>0.569645</v>
+        <v>0.570211</v>
       </c>
       <c r="D94" t="n">
-        <v>0.716134</v>
+        <v>0.715865</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.971769</v>
+        <v>0.973568</v>
       </c>
       <c r="C95" t="n">
-        <v>0.587234</v>
+        <v>0.588188</v>
       </c>
       <c r="D95" t="n">
-        <v>0.751605</v>
+        <v>0.751595</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.999243</v>
+        <v>1.00113</v>
       </c>
       <c r="C96" t="n">
-        <v>0.605396</v>
+        <v>0.6092919999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.777053</v>
+        <v>0.777196</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02921</v>
+        <v>1.03195</v>
       </c>
       <c r="C97" t="n">
-        <v>0.624483</v>
+        <v>0.628134</v>
       </c>
       <c r="D97" t="n">
-        <v>0.803323</v>
+        <v>0.805238</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06686</v>
+        <v>1.0677</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6458</v>
+        <v>0.647068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.832575</v>
+        <v>0.833722</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10345</v>
+        <v>1.1048</v>
       </c>
       <c r="C99" t="n">
-        <v>0.666718</v>
+        <v>0.6678500000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8606740000000001</v>
+        <v>0.860796</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13792</v>
+        <v>1.1386</v>
       </c>
       <c r="C100" t="n">
-        <v>0.687997</v>
+        <v>0.689192</v>
       </c>
       <c r="D100" t="n">
-        <v>0.887579</v>
+        <v>0.889737</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16443</v>
+        <v>1.1645</v>
       </c>
       <c r="C101" t="n">
-        <v>0.71057</v>
+        <v>0.711885</v>
       </c>
       <c r="D101" t="n">
-        <v>0.91752</v>
+        <v>0.919036</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.19946</v>
+        <v>1.20033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.734782</v>
+        <v>0.736131</v>
       </c>
       <c r="D102" t="n">
-        <v>0.949785</v>
+        <v>0.952574</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23867</v>
+        <v>1.23906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.760165</v>
+        <v>0.761524</v>
       </c>
       <c r="D103" t="n">
-        <v>0.981286</v>
+        <v>0.9840370000000001</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27863</v>
+        <v>1.27884</v>
       </c>
       <c r="C104" t="n">
-        <v>0.786436</v>
+        <v>0.787119</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01405</v>
+        <v>1.01716</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02083</v>
+        <v>1.01568</v>
       </c>
       <c r="C105" t="n">
-        <v>0.811723</v>
+        <v>0.815388</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04818</v>
+        <v>1.04792</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.03657</v>
+        <v>1.04767</v>
       </c>
       <c r="C106" t="n">
-        <v>0.841622</v>
+        <v>0.842462</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08321</v>
+        <v>1.08241</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07235</v>
+        <v>1.07366</v>
       </c>
       <c r="C107" t="n">
-        <v>0.658573</v>
+        <v>0.65879</v>
       </c>
       <c r="D107" t="n">
-        <v>0.892846</v>
+        <v>0.891278</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09331</v>
+        <v>1.08791</v>
       </c>
       <c r="C108" t="n">
-        <v>0.671621</v>
+        <v>0.667883</v>
       </c>
       <c r="D108" t="n">
-        <v>0.911505</v>
+        <v>0.901941</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12215</v>
+        <v>1.12446</v>
       </c>
       <c r="C109" t="n">
-        <v>0.691477</v>
+        <v>0.692928</v>
       </c>
       <c r="D109" t="n">
-        <v>0.942613</v>
+        <v>0.943375</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.14942</v>
+        <v>1.15116</v>
       </c>
       <c r="C110" t="n">
-        <v>0.708456</v>
+        <v>0.710788</v>
       </c>
       <c r="D110" t="n">
-        <v>0.966503</v>
+        <v>0.969375</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17854</v>
+        <v>1.18088</v>
       </c>
       <c r="C111" t="n">
-        <v>0.727213</v>
+        <v>0.728245</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996815</v>
+        <v>0.997803</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21476</v>
+        <v>1.21448</v>
       </c>
       <c r="C112" t="n">
-        <v>0.746722</v>
+        <v>0.745336</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02377</v>
+        <v>1.0213</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.24667</v>
+        <v>1.24702</v>
       </c>
       <c r="C113" t="n">
-        <v>0.76692</v>
+        <v>0.765069</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05138</v>
+        <v>1.04887</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2735</v>
+        <v>1.27376</v>
       </c>
       <c r="C114" t="n">
-        <v>0.787709</v>
+        <v>0.786153</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08762</v>
+        <v>1.08447</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31271</v>
+        <v>1.31265</v>
       </c>
       <c r="C115" t="n">
-        <v>0.810184</v>
+        <v>0.808552</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10105</v>
+        <v>1.11897</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.34438</v>
+        <v>1.35023</v>
       </c>
       <c r="C116" t="n">
-        <v>0.824326</v>
+        <v>0.834524</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13962</v>
+        <v>1.14327</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.38299</v>
+        <v>1.38635</v>
       </c>
       <c r="C117" t="n">
-        <v>0.848838</v>
+        <v>0.859084</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17156</v>
+        <v>1.17457</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.42503</v>
+        <v>1.42595</v>
       </c>
       <c r="C118" t="n">
-        <v>0.874979</v>
+        <v>0.884775</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20799</v>
+        <v>1.21258</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11329</v>
+        <v>1.11425</v>
       </c>
       <c r="C119" t="n">
-        <v>0.904132</v>
+        <v>0.9126649999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23279</v>
+        <v>1.23619</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.269565</v>
+        <v>0.265683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.178018</v>
+        <v>0.172375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142381</v>
+        <v>0.140058</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198572</v>
+        <v>0.197469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.182161</v>
+        <v>0.176936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142763</v>
+        <v>0.141298</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.205287</v>
+        <v>0.20395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188769</v>
+        <v>0.182842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.148159</v>
+        <v>0.145607</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.214804</v>
+        <v>0.212651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195278</v>
+        <v>0.192947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.151041</v>
+        <v>0.149466</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.220392</v>
+        <v>0.216174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201082</v>
+        <v>0.196483</v>
       </c>
       <c r="D6" t="n">
-        <v>0.155588</v>
+        <v>0.153942</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228108</v>
+        <v>0.224295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163582</v>
+        <v>0.160368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14075</v>
+        <v>0.136838</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234309</v>
+        <v>0.229561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.165212</v>
+        <v>0.16325</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141789</v>
+        <v>0.139719</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.242524</v>
+        <v>0.237046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.171979</v>
+        <v>0.166527</v>
       </c>
       <c r="D9" t="n">
-        <v>0.144739</v>
+        <v>0.140359</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.247425</v>
+        <v>0.244475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177069</v>
+        <v>0.173104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.147672</v>
+        <v>0.144074</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256684</v>
+        <v>0.251289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181223</v>
+        <v>0.175031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.150508</v>
+        <v>0.146174</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26592</v>
+        <v>0.261466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188762</v>
+        <v>0.184538</v>
       </c>
       <c r="D12" t="n">
-        <v>0.154472</v>
+        <v>0.151503</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.273699</v>
+        <v>0.269292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.195222</v>
+        <v>0.190031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158194</v>
+        <v>0.154282</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283153</v>
+        <v>0.277891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200081</v>
+        <v>0.196323</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16181</v>
+        <v>0.158173</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297808</v>
+        <v>0.293137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206669</v>
+        <v>0.202984</v>
       </c>
       <c r="D15" t="n">
-        <v>0.164901</v>
+        <v>0.161156</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304847</v>
+        <v>0.300832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215364</v>
+        <v>0.210641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.169413</v>
+        <v>0.165543</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.317155</v>
+        <v>0.313233</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222539</v>
+        <v>0.218398</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172245</v>
+        <v>0.169677</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.233544</v>
+        <v>0.231787</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227775</v>
+        <v>0.224754</v>
       </c>
       <c r="D18" t="n">
-        <v>0.174783</v>
+        <v>0.173176</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.241041</v>
+        <v>0.240373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234147</v>
+        <v>0.231284</v>
       </c>
       <c r="D19" t="n">
-        <v>0.180363</v>
+        <v>0.178922</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245686</v>
+        <v>0.245682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243665</v>
+        <v>0.240822</v>
       </c>
       <c r="D20" t="n">
-        <v>0.185762</v>
+        <v>0.180498</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252133</v>
+        <v>0.251021</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194876</v>
+        <v>0.194726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165766</v>
+        <v>0.166392</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25799</v>
+        <v>0.25737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20025</v>
+        <v>0.199717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16917</v>
+        <v>0.16971</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268069</v>
+        <v>0.267076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206678</v>
+        <v>0.206544</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172106</v>
+        <v>0.173172</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275679</v>
+        <v>0.274182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211118</v>
+        <v>0.210573</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174086</v>
+        <v>0.174426</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282987</v>
+        <v>0.282109</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216514</v>
+        <v>0.2161</v>
       </c>
       <c r="D25" t="n">
-        <v>0.176252</v>
+        <v>0.17668</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.291641</v>
+        <v>0.29098</v>
       </c>
       <c r="C26" t="n">
-        <v>0.222335</v>
+        <v>0.221743</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180241</v>
+        <v>0.180847</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.301053</v>
+        <v>0.300246</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224114</v>
+        <v>0.224135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182793</v>
+        <v>0.18306</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312486</v>
+        <v>0.311921</v>
       </c>
       <c r="C28" t="n">
-        <v>0.230576</v>
+        <v>0.230131</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185696</v>
+        <v>0.185877</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322963</v>
+        <v>0.322074</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235435</v>
+        <v>0.23518</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188952</v>
+        <v>0.188956</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.332238</v>
+        <v>0.33125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242199</v>
+        <v>0.241637</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192475</v>
+        <v>0.192921</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.344389</v>
+        <v>0.343489</v>
       </c>
       <c r="C31" t="n">
-        <v>0.246263</v>
+        <v>0.246161</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195517</v>
+        <v>0.195821</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24868</v>
+        <v>0.248606</v>
       </c>
       <c r="C32" t="n">
-        <v>0.254532</v>
+        <v>0.254531</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199614</v>
+        <v>0.199813</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255048</v>
+        <v>0.254718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.26266</v>
+        <v>0.26213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.204521</v>
+        <v>0.203915</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261769</v>
+        <v>0.261111</v>
       </c>
       <c r="C34" t="n">
-        <v>0.269105</v>
+        <v>0.268927</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207227</v>
+        <v>0.207489</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.269046</v>
+        <v>0.268791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208215</v>
+        <v>0.208115</v>
       </c>
       <c r="D35" t="n">
-        <v>0.180995</v>
+        <v>0.181319</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.275069</v>
+        <v>0.274673</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213483</v>
+        <v>0.213392</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183456</v>
+        <v>0.18382</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280847</v>
+        <v>0.280588</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217188</v>
+        <v>0.217166</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186073</v>
+        <v>0.186574</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.28862</v>
+        <v>0.288508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222405</v>
+        <v>0.222395</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189412</v>
+        <v>0.189714</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295944</v>
+        <v>0.295185</v>
       </c>
       <c r="C39" t="n">
-        <v>0.22716</v>
+        <v>0.227051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191664</v>
+        <v>0.192061</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304788</v>
+        <v>0.304565</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232924</v>
+        <v>0.232877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195091</v>
+        <v>0.195111</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.315208</v>
+        <v>0.3151</v>
       </c>
       <c r="C41" t="n">
-        <v>0.237723</v>
+        <v>0.237813</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197736</v>
+        <v>0.197842</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324903</v>
+        <v>0.324892</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241544</v>
+        <v>0.241475</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200294</v>
+        <v>0.200649</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335653</v>
+        <v>0.335539</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248078</v>
+        <v>0.248076</v>
       </c>
       <c r="D43" t="n">
-        <v>0.203571</v>
+        <v>0.203854</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344167</v>
+        <v>0.344218</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254569</v>
+        <v>0.254618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207039</v>
+        <v>0.207344</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355994</v>
+        <v>0.356301</v>
       </c>
       <c r="C45" t="n">
-        <v>0.260799</v>
+        <v>0.26086</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210185</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368175</v>
+        <v>0.368104</v>
       </c>
       <c r="C46" t="n">
-        <v>0.266645</v>
+        <v>0.266717</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214051</v>
+        <v>0.214365</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260504</v>
+        <v>0.26025</v>
       </c>
       <c r="C47" t="n">
-        <v>0.273566</v>
+        <v>0.273511</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217638</v>
+        <v>0.217879</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265711</v>
+        <v>0.265387</v>
       </c>
       <c r="C48" t="n">
-        <v>0.28042</v>
+        <v>0.280163</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22132</v>
+        <v>0.221563</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272668</v>
+        <v>0.272552</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288551</v>
+        <v>0.288516</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225297</v>
+        <v>0.225575</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.279398</v>
+        <v>0.2793</v>
       </c>
       <c r="C50" t="n">
-        <v>0.218227</v>
+        <v>0.218131</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185929</v>
+        <v>0.186056</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285719</v>
+        <v>0.285474</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222524</v>
+        <v>0.222413</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187705</v>
+        <v>0.187769</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292934</v>
+        <v>0.292687</v>
       </c>
       <c r="C52" t="n">
-        <v>0.22764</v>
+        <v>0.227647</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190886</v>
+        <v>0.190947</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301644</v>
+        <v>0.301389</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23304</v>
+        <v>0.233345</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193656</v>
+        <v>0.193733</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310007</v>
+        <v>0.309786</v>
       </c>
       <c r="C54" t="n">
-        <v>0.23798</v>
+        <v>0.237765</v>
       </c>
       <c r="D54" t="n">
-        <v>0.19624</v>
+        <v>0.196217</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318371</v>
+        <v>0.319283</v>
       </c>
       <c r="C55" t="n">
-        <v>0.243101</v>
+        <v>0.243113</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199923</v>
+        <v>0.199687</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329175</v>
+        <v>0.328892</v>
       </c>
       <c r="C56" t="n">
-        <v>0.248012</v>
+        <v>0.247896</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202316</v>
+        <v>0.202296</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338008</v>
+        <v>0.338695</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254333</v>
+        <v>0.25414</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205904</v>
+        <v>0.205972</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348406</v>
+        <v>0.348202</v>
       </c>
       <c r="C58" t="n">
-        <v>0.26088</v>
+        <v>0.260741</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209405</v>
+        <v>0.20913</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.360109</v>
+        <v>0.359825</v>
       </c>
       <c r="C59" t="n">
-        <v>0.267072</v>
+        <v>0.266663</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212494</v>
+        <v>0.211965</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.371552</v>
+        <v>0.370839</v>
       </c>
       <c r="C60" t="n">
-        <v>0.272774</v>
+        <v>0.2724</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216672</v>
+        <v>0.216789</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264445</v>
+        <v>0.264489</v>
       </c>
       <c r="C61" t="n">
-        <v>0.280472</v>
+        <v>0.280217</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220377</v>
+        <v>0.220061</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.269891</v>
+        <v>0.274323</v>
       </c>
       <c r="C62" t="n">
-        <v>0.288078</v>
+        <v>0.287608</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22419</v>
+        <v>0.224019</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.278719</v>
+        <v>0.284017</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298754</v>
+        <v>0.295951</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228229</v>
+        <v>0.228183</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.288646</v>
+        <v>0.295813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.225318</v>
+        <v>0.232002</v>
       </c>
       <c r="D64" t="n">
-        <v>0.191362</v>
+        <v>0.197214</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.300071</v>
+        <v>0.301812</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227661</v>
+        <v>0.238624</v>
       </c>
       <c r="D65" t="n">
-        <v>0.192484</v>
+        <v>0.198554</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.306404</v>
+        <v>0.312058</v>
       </c>
       <c r="C66" t="n">
-        <v>0.244365</v>
+        <v>0.249669</v>
       </c>
       <c r="D66" t="n">
-        <v>0.195166</v>
+        <v>0.202713</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.317413</v>
+        <v>0.326488</v>
       </c>
       <c r="C67" t="n">
-        <v>0.242556</v>
+        <v>0.254016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.19871</v>
+        <v>0.207376</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.328869</v>
+        <v>0.340736</v>
       </c>
       <c r="C68" t="n">
-        <v>0.261455</v>
+        <v>0.267771</v>
       </c>
       <c r="D68" t="n">
-        <v>0.202886</v>
+        <v>0.211392</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.339232</v>
+        <v>0.354012</v>
       </c>
       <c r="C69" t="n">
-        <v>0.274061</v>
+        <v>0.280562</v>
       </c>
       <c r="D69" t="n">
-        <v>0.207763</v>
+        <v>0.216471</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.353626</v>
+        <v>0.370538</v>
       </c>
       <c r="C70" t="n">
-        <v>0.270475</v>
+        <v>0.284332</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216864</v>
+        <v>0.224128</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.372477</v>
+        <v>0.393767</v>
       </c>
       <c r="C71" t="n">
-        <v>0.280967</v>
+        <v>0.297803</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217775</v>
+        <v>0.227606</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.394025</v>
+        <v>0.416721</v>
       </c>
       <c r="C72" t="n">
-        <v>0.293699</v>
+        <v>0.310321</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224283</v>
+        <v>0.233831</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.413334</v>
+        <v>0.438624</v>
       </c>
       <c r="C73" t="n">
-        <v>0.310525</v>
+        <v>0.325103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.231614</v>
+        <v>0.24083</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.444309</v>
+        <v>0.461998</v>
       </c>
       <c r="C74" t="n">
-        <v>0.328543</v>
+        <v>0.342563</v>
       </c>
       <c r="D74" t="n">
-        <v>0.236398</v>
+        <v>0.247884</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.475347</v>
+        <v>0.494738</v>
       </c>
       <c r="C75" t="n">
-        <v>0.351292</v>
+        <v>0.363189</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246343</v>
+        <v>0.256751</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.42009</v>
+        <v>0.422556</v>
       </c>
       <c r="C76" t="n">
-        <v>0.374063</v>
+        <v>0.388144</v>
       </c>
       <c r="D76" t="n">
-        <v>0.255981</v>
+        <v>0.26661</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.450443</v>
+        <v>0.452106</v>
       </c>
       <c r="C77" t="n">
-        <v>0.40251</v>
+        <v>0.413603</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267379</v>
+        <v>0.278553</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.482809</v>
+        <v>0.48507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.374764</v>
+        <v>0.37323</v>
       </c>
       <c r="D78" t="n">
-        <v>0.268231</v>
+        <v>0.266927</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.514022</v>
+        <v>0.516881</v>
       </c>
       <c r="C79" t="n">
-        <v>0.39399</v>
+        <v>0.395102</v>
       </c>
       <c r="D79" t="n">
-        <v>0.278717</v>
+        <v>0.277611</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.547729</v>
+        <v>0.553391</v>
       </c>
       <c r="C80" t="n">
-        <v>0.413018</v>
+        <v>0.4252</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290537</v>
+        <v>0.289058</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.595707</v>
+        <v>0.596623</v>
       </c>
       <c r="C81" t="n">
-        <v>0.443666</v>
+        <v>0.454804</v>
       </c>
       <c r="D81" t="n">
-        <v>0.30895</v>
+        <v>0.30911</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6361520000000001</v>
+        <v>0.638113</v>
       </c>
       <c r="C82" t="n">
-        <v>0.472202</v>
+        <v>0.482062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.32454</v>
+        <v>0.323728</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.685205</v>
+        <v>0.684014</v>
       </c>
       <c r="C83" t="n">
-        <v>0.505308</v>
+        <v>0.514572</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338663</v>
+        <v>0.335403</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.737664</v>
+        <v>0.737857</v>
       </c>
       <c r="C84" t="n">
-        <v>0.545496</v>
+        <v>0.546591</v>
       </c>
       <c r="D84" t="n">
-        <v>0.361598</v>
+        <v>0.359747</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.787803</v>
+        <v>0.789999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5788720000000001</v>
+        <v>0.5798410000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.379609</v>
+        <v>0.380605</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.846646</v>
+        <v>0.849353</v>
       </c>
       <c r="C86" t="n">
-        <v>0.614417</v>
+        <v>0.617027</v>
       </c>
       <c r="D86" t="n">
-        <v>0.399532</v>
+        <v>0.398837</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.90356</v>
+        <v>0.909142</v>
       </c>
       <c r="C87" t="n">
-        <v>0.654061</v>
+        <v>0.657713</v>
       </c>
       <c r="D87" t="n">
-        <v>0.422792</v>
+        <v>0.425398</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.972451</v>
+        <v>0.975818</v>
       </c>
       <c r="C88" t="n">
-        <v>0.692214</v>
+        <v>0.697488</v>
       </c>
       <c r="D88" t="n">
-        <v>0.444682</v>
+        <v>0.449033</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03924</v>
+        <v>1.04851</v>
       </c>
       <c r="C89" t="n">
-        <v>0.735572</v>
+        <v>0.739484</v>
       </c>
       <c r="D89" t="n">
-        <v>0.469927</v>
+        <v>0.472245</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.826891</v>
+        <v>0.828402</v>
       </c>
       <c r="C90" t="n">
-        <v>0.775299</v>
+        <v>0.778496</v>
       </c>
       <c r="D90" t="n">
-        <v>0.497395</v>
+        <v>0.497402</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8606</v>
+        <v>0.86343</v>
       </c>
       <c r="C91" t="n">
-        <v>0.819198</v>
+        <v>0.823097</v>
       </c>
       <c r="D91" t="n">
-        <v>0.517338</v>
+        <v>0.521062</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.900234</v>
+        <v>0.9013949999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.689306</v>
+        <v>0.690344</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504354</v>
+        <v>0.5049979999999999</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.938326</v>
+        <v>0.938248</v>
       </c>
       <c r="C93" t="n">
-        <v>0.715122</v>
+        <v>0.716068</v>
       </c>
       <c r="D93" t="n">
-        <v>0.521006</v>
+        <v>0.521429</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.98123</v>
+        <v>0.98025</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743279</v>
+        <v>0.743256</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536292</v>
+        <v>0.537033</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02839</v>
+        <v>1.0275</v>
       </c>
       <c r="C95" t="n">
-        <v>0.767464</v>
+        <v>0.770113</v>
       </c>
       <c r="D95" t="n">
-        <v>0.554298</v>
+        <v>0.554052</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06817</v>
+        <v>1.06952</v>
       </c>
       <c r="C96" t="n">
-        <v>0.799082</v>
+        <v>0.798544</v>
       </c>
       <c r="D96" t="n">
-        <v>0.572457</v>
+        <v>0.57207</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11596</v>
+        <v>1.11421</v>
       </c>
       <c r="C97" t="n">
-        <v>0.829983</v>
+        <v>0.8293779999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592946</v>
+        <v>0.592983</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16329</v>
+        <v>1.16055</v>
       </c>
       <c r="C98" t="n">
-        <v>0.861795</v>
+        <v>0.860615</v>
       </c>
       <c r="D98" t="n">
-        <v>0.611638</v>
+        <v>0.6110950000000001</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20883</v>
+        <v>1.20497</v>
       </c>
       <c r="C99" t="n">
-        <v>0.89401</v>
+        <v>0.892138</v>
       </c>
       <c r="D99" t="n">
-        <v>0.632167</v>
+        <v>0.631168</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25529</v>
+        <v>1.24741</v>
       </c>
       <c r="C100" t="n">
-        <v>0.928127</v>
+        <v>0.926233</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655614</v>
+        <v>0.654698</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30199</v>
+        <v>1.29739</v>
       </c>
       <c r="C101" t="n">
-        <v>0.962603</v>
+        <v>0.960516</v>
       </c>
       <c r="D101" t="n">
-        <v>0.678467</v>
+        <v>0.677435</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.36061</v>
+        <v>1.35619</v>
       </c>
       <c r="C102" t="n">
-        <v>0.997299</v>
+        <v>0.995754</v>
       </c>
       <c r="D102" t="n">
-        <v>0.704219</v>
+        <v>0.704641</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41843</v>
+        <v>1.4154</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03335</v>
+        <v>1.03023</v>
       </c>
       <c r="D103" t="n">
-        <v>0.723871</v>
+        <v>0.721994</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48831</v>
+        <v>1.48257</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06993</v>
+        <v>1.06779</v>
       </c>
       <c r="D104" t="n">
-        <v>0.752484</v>
+        <v>0.751323</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02216</v>
+        <v>1.02386</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10116</v>
+        <v>1.09707</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7800820000000001</v>
+        <v>0.766146</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06181</v>
+        <v>1.05821</v>
       </c>
       <c r="C106" t="n">
-        <v>1.13809</v>
+        <v>1.13989</v>
       </c>
       <c r="D106" t="n">
-        <v>0.802148</v>
+        <v>0.800876</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09343</v>
+        <v>1.09465</v>
       </c>
       <c r="C107" t="n">
-        <v>0.856603</v>
+        <v>0.854369</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6936870000000001</v>
+        <v>0.691785</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.12647</v>
+        <v>1.13306</v>
       </c>
       <c r="C108" t="n">
-        <v>0.877541</v>
+        <v>0.880739</v>
       </c>
       <c r="D108" t="n">
-        <v>0.699289</v>
+        <v>0.711411</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.16604</v>
+        <v>1.17875</v>
       </c>
       <c r="C109" t="n">
-        <v>0.894608</v>
+        <v>0.896667</v>
       </c>
       <c r="D109" t="n">
-        <v>0.713915</v>
+        <v>0.7265200000000001</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22091</v>
+        <v>1.21369</v>
       </c>
       <c r="C110" t="n">
-        <v>0.925318</v>
+        <v>0.924562</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7476699999999999</v>
+        <v>0.735042</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.27185</v>
+        <v>1.26786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.95348</v>
+        <v>0.952633</v>
       </c>
       <c r="D111" t="n">
-        <v>0.767548</v>
+        <v>0.765854</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31855</v>
+        <v>1.31573</v>
       </c>
       <c r="C112" t="n">
-        <v>0.985235</v>
+        <v>0.982841</v>
       </c>
       <c r="D112" t="n">
-        <v>0.786351</v>
+        <v>0.785752</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37138</v>
+        <v>1.37098</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0131</v>
+        <v>1.01093</v>
       </c>
       <c r="D113" t="n">
-        <v>0.804211</v>
+        <v>0.790133</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42565</v>
+        <v>1.41801</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03984</v>
+        <v>1.03593</v>
       </c>
       <c r="D114" t="n">
-        <v>0.82501</v>
+        <v>0.811414</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48357</v>
+        <v>1.48025</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07384</v>
+        <v>1.0664</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8471030000000001</v>
+        <v>0.837311</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54565</v>
+        <v>1.53979</v>
       </c>
       <c r="C116" t="n">
-        <v>1.10705</v>
+        <v>1.10045</v>
       </c>
       <c r="D116" t="n">
-        <v>0.868159</v>
+        <v>0.853529</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60895</v>
+        <v>1.60221</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14265</v>
+        <v>1.13734</v>
       </c>
       <c r="D117" t="n">
-        <v>0.894115</v>
+        <v>0.878935</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.67713</v>
+        <v>1.67092</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18053</v>
+        <v>1.17466</v>
       </c>
       <c r="D118" t="n">
-        <v>0.917871</v>
+        <v>0.906639</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1096</v>
+        <v>1.10864</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21861</v>
+        <v>1.21617</v>
       </c>
       <c r="D119" t="n">
-        <v>0.94179</v>
+        <v>0.9373899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575801</v>
+        <v>0.571669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391334</v>
+        <v>0.376228</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248182</v>
+        <v>0.246105</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5923</v>
+        <v>0.585318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.394044</v>
+        <v>0.385099</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254349</v>
+        <v>0.250989</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.625571</v>
+        <v>0.614016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.432627</v>
+        <v>0.410503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261038</v>
+        <v>0.257744</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.654168</v>
+        <v>0.642961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.442138</v>
+        <v>0.425242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269576</v>
+        <v>0.267166</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.674911</v>
+        <v>0.668439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.457077</v>
+        <v>0.437525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279722</v>
+        <v>0.276911</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.706753</v>
+        <v>0.692646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.497766</v>
+        <v>0.476854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28643</v>
+        <v>0.283365</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.730995</v>
+        <v>0.725162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.521674</v>
+        <v>0.506833</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291422</v>
+        <v>0.290701</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.764083</v>
+        <v>0.755293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5470660000000001</v>
+        <v>0.5342750000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30088</v>
+        <v>0.304844</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.79166</v>
+        <v>0.794165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.54152</v>
+        <v>0.527608</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314435</v>
+        <v>0.314975</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.829034</v>
+        <v>0.815092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.374814</v>
+        <v>0.370979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.238791</v>
+        <v>0.235916</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.522443</v>
+        <v>0.524763</v>
       </c>
       <c r="C12" t="n">
-        <v>0.384464</v>
+        <v>0.381173</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246159</v>
+        <v>0.243438</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.55062</v>
+        <v>0.540099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.417342</v>
+        <v>0.407246</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253409</v>
+        <v>0.248718</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.576113</v>
+        <v>0.562916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441267</v>
+        <v>0.424957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263874</v>
+        <v>0.260721</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.603105</v>
+        <v>0.58838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.453922</v>
+        <v>0.445441</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270168</v>
+        <v>0.26708</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.629047</v>
+        <v>0.612949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.465589</v>
+        <v>0.458069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28052</v>
+        <v>0.277403</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658353</v>
+        <v>0.649286</v>
       </c>
       <c r="C17" t="n">
-        <v>0.507437</v>
+        <v>0.495281</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291631</v>
+        <v>0.286766</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.691013</v>
+        <v>0.679087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.52073</v>
+        <v>0.508415</v>
       </c>
       <c r="D18" t="n">
-        <v>0.298137</v>
+        <v>0.293066</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.729972</v>
+        <v>0.71657</v>
       </c>
       <c r="C19" t="n">
-        <v>0.538679</v>
+        <v>0.531644</v>
       </c>
       <c r="D19" t="n">
-        <v>0.311191</v>
+        <v>0.307559</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.762843</v>
+        <v>0.753205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.594843</v>
+        <v>0.583198</v>
       </c>
       <c r="D20" t="n">
-        <v>0.319358</v>
+        <v>0.315751</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.80647</v>
+        <v>0.793539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6052380000000001</v>
+        <v>0.601319</v>
       </c>
       <c r="D21" t="n">
-        <v>0.334782</v>
+        <v>0.331497</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.846359</v>
+        <v>0.83779</v>
       </c>
       <c r="C22" t="n">
-        <v>0.639899</v>
+        <v>0.631574</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344473</v>
+        <v>0.33916</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.893684</v>
+        <v>0.886293</v>
       </c>
       <c r="C23" t="n">
-        <v>0.700359</v>
+        <v>0.688618</v>
       </c>
       <c r="D23" t="n">
-        <v>0.351226</v>
+        <v>0.34874</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.937313</v>
+        <v>0.920741</v>
       </c>
       <c r="C24" t="n">
-        <v>0.693078</v>
+        <v>0.70126</v>
       </c>
       <c r="D24" t="n">
-        <v>0.366031</v>
+        <v>0.364414</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.975397</v>
+        <v>0.962407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.781544</v>
+        <v>0.77222</v>
       </c>
       <c r="D25" t="n">
-        <v>0.380491</v>
+        <v>0.376867</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01731</v>
+        <v>1.01449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.451454</v>
+        <v>0.449056</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274852</v>
+        <v>0.27461</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.645555</v>
+        <v>0.643954</v>
       </c>
       <c r="C27" t="n">
-        <v>0.474926</v>
+        <v>0.473046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283022</v>
+        <v>0.28254</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.675267</v>
+        <v>0.671637</v>
       </c>
       <c r="C28" t="n">
-        <v>0.502171</v>
+        <v>0.502335</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293315</v>
+        <v>0.293426</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.706832</v>
+        <v>0.704884</v>
       </c>
       <c r="C29" t="n">
-        <v>0.516561</v>
+        <v>0.512742</v>
       </c>
       <c r="D29" t="n">
-        <v>0.306156</v>
+        <v>0.305319</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.741884</v>
+        <v>0.74003</v>
       </c>
       <c r="C30" t="n">
-        <v>0.551014</v>
+        <v>0.546576</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31731</v>
+        <v>0.316159</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.783817</v>
+        <v>0.779548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5657759999999999</v>
+        <v>0.55999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319897</v>
+        <v>0.320073</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.815706</v>
+        <v>0.814037</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606052</v>
+        <v>0.603477</v>
       </c>
       <c r="D32" t="n">
-        <v>0.335733</v>
+        <v>0.335108</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.85667</v>
+        <v>0.8548249999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.615395</v>
+        <v>0.613507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34882</v>
+        <v>0.350427</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.896988</v>
+        <v>0.895491</v>
       </c>
       <c r="C34" t="n">
-        <v>0.664651</v>
+        <v>0.654805</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356926</v>
+        <v>0.356087</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9444129999999999</v>
+        <v>0.943417</v>
       </c>
       <c r="C35" t="n">
-        <v>0.704137</v>
+        <v>0.705484</v>
       </c>
       <c r="D35" t="n">
-        <v>0.363765</v>
+        <v>0.364146</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.981827</v>
+        <v>0.977536</v>
       </c>
       <c r="C36" t="n">
-        <v>0.742076</v>
+        <v>0.740188</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378364</v>
+        <v>0.378602</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03392</v>
+        <v>1.02521</v>
       </c>
       <c r="C37" t="n">
-        <v>0.774553</v>
+        <v>0.770467</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390218</v>
+        <v>0.389625</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.06957</v>
+        <v>1.06532</v>
       </c>
       <c r="C38" t="n">
-        <v>0.77899</v>
+        <v>0.774219</v>
       </c>
       <c r="D38" t="n">
-        <v>0.399956</v>
+        <v>0.399994</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12565</v>
+        <v>1.12066</v>
       </c>
       <c r="C39" t="n">
-        <v>0.795706</v>
+        <v>0.876457</v>
       </c>
       <c r="D39" t="n">
-        <v>0.411639</v>
+        <v>0.4114</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16737</v>
+        <v>1.16782</v>
       </c>
       <c r="C40" t="n">
-        <v>0.513732</v>
+        <v>0.509297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314978</v>
+        <v>0.314955</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704792</v>
+        <v>0.7043160000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.520501</v>
+        <v>0.527024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324236</v>
+        <v>0.324768</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.734591</v>
+        <v>0.733499</v>
       </c>
       <c r="C42" t="n">
-        <v>0.548224</v>
+        <v>0.547279</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333123</v>
+        <v>0.333221</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.769448</v>
+        <v>0.769605</v>
       </c>
       <c r="C43" t="n">
-        <v>0.581749</v>
+        <v>0.580551</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344058</v>
+        <v>0.344087</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.804707</v>
+        <v>0.803253</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5943310000000001</v>
+        <v>0.5936900000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354378</v>
+        <v>0.35569</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.839753</v>
+        <v>0.839475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.632966</v>
+        <v>0.631782</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360235</v>
+        <v>0.361338</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.88252</v>
+        <v>0.882211</v>
       </c>
       <c r="C46" t="n">
-        <v>0.669705</v>
+        <v>0.667575</v>
       </c>
       <c r="D46" t="n">
-        <v>0.374933</v>
+        <v>0.375053</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.923619</v>
+        <v>0.924902</v>
       </c>
       <c r="C47" t="n">
-        <v>0.696348</v>
+        <v>0.697121</v>
       </c>
       <c r="D47" t="n">
-        <v>0.388055</v>
+        <v>0.386316</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.963271</v>
+        <v>0.965477</v>
       </c>
       <c r="C48" t="n">
-        <v>0.709998</v>
+        <v>0.710888</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398971</v>
+        <v>0.398316</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0061</v>
+        <v>1.00547</v>
       </c>
       <c r="C49" t="n">
-        <v>0.747635</v>
+        <v>0.748193</v>
       </c>
       <c r="D49" t="n">
-        <v>0.411074</v>
+        <v>0.411451</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04595</v>
+        <v>1.04815</v>
       </c>
       <c r="C50" t="n">
-        <v>0.809086</v>
+        <v>0.819265</v>
       </c>
       <c r="D50" t="n">
-        <v>0.420653</v>
+        <v>0.421435</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0914</v>
+        <v>1.09361</v>
       </c>
       <c r="C51" t="n">
-        <v>0.82264</v>
+        <v>0.8276210000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.435362</v>
+        <v>0.435515</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13688</v>
+        <v>1.13715</v>
       </c>
       <c r="C52" t="n">
-        <v>0.904918</v>
+        <v>0.905035</v>
       </c>
       <c r="D52" t="n">
-        <v>0.446475</v>
+        <v>0.447081</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18196</v>
+        <v>1.1814</v>
       </c>
       <c r="C53" t="n">
-        <v>0.934115</v>
+        <v>0.959473</v>
       </c>
       <c r="D53" t="n">
-        <v>0.457604</v>
+        <v>0.458285</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.2264</v>
+        <v>1.22747</v>
       </c>
       <c r="C54" t="n">
-        <v>0.527931</v>
+        <v>0.530555</v>
       </c>
       <c r="D54" t="n">
-        <v>0.341129</v>
+        <v>0.340951</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2715</v>
+        <v>1.26976</v>
       </c>
       <c r="C55" t="n">
-        <v>0.547698</v>
+        <v>0.547021</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348498</v>
+        <v>0.348533</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749741</v>
+        <v>0.749416</v>
       </c>
       <c r="C56" t="n">
-        <v>0.578341</v>
+        <v>0.581346</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3596</v>
+        <v>0.359473</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783045</v>
+        <v>0.78367</v>
       </c>
       <c r="C57" t="n">
-        <v>0.592316</v>
+        <v>0.5889259999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369806</v>
+        <v>0.36963</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818669</v>
+        <v>0.818577</v>
       </c>
       <c r="C58" t="n">
-        <v>0.612762</v>
+        <v>0.6112030000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378731</v>
+        <v>0.379144</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.852039</v>
+        <v>0.851897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.667507</v>
+        <v>0.668407</v>
       </c>
       <c r="D59" t="n">
-        <v>0.390693</v>
+        <v>0.391163</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.89334</v>
+        <v>0.892839</v>
       </c>
       <c r="C60" t="n">
-        <v>0.681065</v>
+        <v>0.680287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.400859</v>
+        <v>0.400559</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.933214</v>
+        <v>0.932095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.699827</v>
+        <v>0.704924</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411359</v>
+        <v>0.411817</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.973039</v>
+        <v>0.9734699999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.74008</v>
+        <v>0.746273</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424612</v>
+        <v>0.424828</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.02242</v>
+        <v>1.01982</v>
       </c>
       <c r="C63" t="n">
-        <v>0.796838</v>
+        <v>0.791606</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433343</v>
+        <v>0.433323</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07176</v>
+        <v>1.06756</v>
       </c>
       <c r="C64" t="n">
-        <v>0.838755</v>
+        <v>0.819242</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446525</v>
+        <v>0.447634</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.1111</v>
+        <v>1.10882</v>
       </c>
       <c r="C65" t="n">
-        <v>0.885304</v>
+        <v>0.875011</v>
       </c>
       <c r="D65" t="n">
-        <v>0.459608</v>
+        <v>0.460779</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16321</v>
+        <v>1.15813</v>
       </c>
       <c r="C66" t="n">
-        <v>0.936863</v>
+        <v>0.923471</v>
       </c>
       <c r="D66" t="n">
-        <v>0.473567</v>
+        <v>0.472866</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.22235</v>
+        <v>1.20534</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9891799999999999</v>
+        <v>0.955721</v>
       </c>
       <c r="D67" t="n">
-        <v>0.490619</v>
+        <v>0.486288</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.28137</v>
+        <v>1.26093</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549088</v>
+        <v>0.5361359999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.348526</v>
+        <v>0.348571</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.34993</v>
+        <v>1.32746</v>
       </c>
       <c r="C69" t="n">
-        <v>0.566042</v>
+        <v>0.564815</v>
       </c>
       <c r="D69" t="n">
-        <v>0.357044</v>
+        <v>0.361144</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.790044</v>
+        <v>0.7985449999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.613067</v>
+        <v>0.5921999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.367085</v>
+        <v>0.376877</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.818702</v>
+        <v>0.848587</v>
       </c>
       <c r="C71" t="n">
-        <v>0.637157</v>
+        <v>0.641914</v>
       </c>
       <c r="D71" t="n">
-        <v>0.381055</v>
+        <v>0.388565</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.874174</v>
+        <v>0.9091669999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.666508</v>
+        <v>0.672019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.392189</v>
+        <v>0.404146</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.915728</v>
+        <v>0.966691</v>
       </c>
       <c r="C73" t="n">
-        <v>0.696429</v>
+        <v>0.723532</v>
       </c>
       <c r="D73" t="n">
-        <v>0.402039</v>
+        <v>0.417986</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.970798</v>
+        <v>1.02928</v>
       </c>
       <c r="C74" t="n">
-        <v>0.749907</v>
+        <v>0.784069</v>
       </c>
       <c r="D74" t="n">
-        <v>0.422202</v>
+        <v>0.437488</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.04579</v>
+        <v>1.11818</v>
       </c>
       <c r="C75" t="n">
-        <v>0.773359</v>
+        <v>0.816103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.439486</v>
+        <v>0.456067</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1186</v>
+        <v>1.21</v>
       </c>
       <c r="C76" t="n">
-        <v>0.864238</v>
+        <v>0.925109</v>
       </c>
       <c r="D76" t="n">
-        <v>0.451355</v>
+        <v>0.477521</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.22728</v>
+        <v>1.30231</v>
       </c>
       <c r="C77" t="n">
-        <v>0.966965</v>
+        <v>1.00555</v>
       </c>
       <c r="D77" t="n">
-        <v>0.470342</v>
+        <v>0.497745</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34431</v>
+        <v>1.4149</v>
       </c>
       <c r="C78" t="n">
-        <v>1.02171</v>
+        <v>1.06763</v>
       </c>
       <c r="D78" t="n">
-        <v>0.506888</v>
+        <v>0.526338</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.49292</v>
+        <v>1.55213</v>
       </c>
       <c r="C79" t="n">
-        <v>1.15448</v>
+        <v>1.19027</v>
       </c>
       <c r="D79" t="n">
-        <v>0.536179</v>
+        <v>0.5590270000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64053</v>
+        <v>1.70514</v>
       </c>
       <c r="C80" t="n">
-        <v>1.26799</v>
+        <v>1.29546</v>
       </c>
       <c r="D80" t="n">
-        <v>0.575628</v>
+        <v>0.597056</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.83513</v>
+        <v>1.8822</v>
       </c>
       <c r="C81" t="n">
-        <v>1.42224</v>
+        <v>1.49141</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6190330000000001</v>
+        <v>0.6367429999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.01222</v>
+        <v>2.06006</v>
       </c>
       <c r="C82" t="n">
-        <v>1.57654</v>
+        <v>1.62768</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6433680000000001</v>
+        <v>0.6632980000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.22151</v>
+        <v>2.26434</v>
       </c>
       <c r="C83" t="n">
-        <v>0.942096</v>
+        <v>0.9486289999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.496605</v>
+        <v>0.50447</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.48565</v>
+        <v>2.50691</v>
       </c>
       <c r="C84" t="n">
-        <v>1.02881</v>
+        <v>1.02811</v>
       </c>
       <c r="D84" t="n">
-        <v>0.532887</v>
+        <v>0.538058</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59081</v>
+        <v>1.60507</v>
       </c>
       <c r="C85" t="n">
-        <v>1.13911</v>
+        <v>1.16243</v>
       </c>
       <c r="D85" t="n">
-        <v>0.57737</v>
+        <v>0.583103</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76298</v>
+        <v>1.768</v>
       </c>
       <c r="C86" t="n">
-        <v>1.28721</v>
+        <v>1.28168</v>
       </c>
       <c r="D86" t="n">
-        <v>0.614605</v>
+        <v>0.618874</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.95277</v>
+        <v>1.95275</v>
       </c>
       <c r="C87" t="n">
-        <v>1.42124</v>
+        <v>1.44439</v>
       </c>
       <c r="D87" t="n">
-        <v>0.674238</v>
+        <v>0.679611</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.14321</v>
+        <v>2.15329</v>
       </c>
       <c r="C88" t="n">
-        <v>1.60518</v>
+        <v>1.56433</v>
       </c>
       <c r="D88" t="n">
-        <v>0.730723</v>
+        <v>0.731619</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.37119</v>
+        <v>2.37155</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79084</v>
+        <v>1.73614</v>
       </c>
       <c r="D89" t="n">
-        <v>0.777118</v>
+        <v>0.777798</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.62141</v>
+        <v>2.59831</v>
       </c>
       <c r="C90" t="n">
-        <v>1.95295</v>
+        <v>1.92856</v>
       </c>
       <c r="D90" t="n">
-        <v>0.838089</v>
+        <v>0.8296790000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.86865</v>
+        <v>2.85809</v>
       </c>
       <c r="C91" t="n">
-        <v>2.17846</v>
+        <v>2.15114</v>
       </c>
       <c r="D91" t="n">
-        <v>0.912301</v>
+        <v>0.901156</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.14701</v>
+        <v>3.12922</v>
       </c>
       <c r="C92" t="n">
-        <v>2.40737</v>
+        <v>2.39176</v>
       </c>
       <c r="D92" t="n">
-        <v>0.973737</v>
+        <v>0.9638330000000001</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.43148</v>
+        <v>3.42093</v>
       </c>
       <c r="C93" t="n">
-        <v>2.68448</v>
+        <v>2.63957</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05456</v>
+        <v>1.04937</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.73618</v>
+        <v>3.72271</v>
       </c>
       <c r="C94" t="n">
-        <v>2.97701</v>
+        <v>2.77658</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14384</v>
+        <v>1.13441</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.05717</v>
+        <v>4.04103</v>
       </c>
       <c r="C95" t="n">
-        <v>3.31153</v>
+        <v>3.12891</v>
       </c>
       <c r="D95" t="n">
-        <v>1.19775</v>
+        <v>1.20188</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.37579</v>
+        <v>4.36731</v>
       </c>
       <c r="C96" t="n">
-        <v>3.4399</v>
+        <v>3.38398</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28022</v>
+        <v>1.28037</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.72861</v>
+        <v>4.6975</v>
       </c>
       <c r="C97" t="n">
-        <v>1.79683</v>
+        <v>1.75123</v>
       </c>
       <c r="D97" t="n">
-        <v>0.930413</v>
+        <v>0.927165</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.01219</v>
+        <v>4.99378</v>
       </c>
       <c r="C98" t="n">
-        <v>1.91834</v>
+        <v>1.87227</v>
       </c>
       <c r="D98" t="n">
-        <v>0.984627</v>
+        <v>0.979481</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.84636</v>
+        <v>2.82892</v>
       </c>
       <c r="C99" t="n">
-        <v>2.11668</v>
+        <v>1.98866</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04667</v>
+        <v>1.03972</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.01575</v>
+        <v>3.00874</v>
       </c>
       <c r="C100" t="n">
-        <v>2.27051</v>
+        <v>2.15385</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09723</v>
+        <v>1.08802</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.20999</v>
+        <v>3.19747</v>
       </c>
       <c r="C101" t="n">
-        <v>2.43347</v>
+        <v>2.36106</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15489</v>
+        <v>1.15532</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.43967</v>
+        <v>3.4209</v>
       </c>
       <c r="C102" t="n">
-        <v>2.68062</v>
+        <v>2.50054</v>
       </c>
       <c r="D102" t="n">
-        <v>1.2075</v>
+        <v>1.20699</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.65854</v>
+        <v>3.64732</v>
       </c>
       <c r="C103" t="n">
-        <v>2.73426</v>
+        <v>2.69258</v>
       </c>
       <c r="D103" t="n">
-        <v>1.26958</v>
+        <v>1.26308</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.91201</v>
+        <v>3.89952</v>
       </c>
       <c r="C104" t="n">
-        <v>2.86447</v>
+        <v>2.84125</v>
       </c>
       <c r="D104" t="n">
-        <v>1.32749</v>
+        <v>1.33156</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.18456</v>
+        <v>4.16788</v>
       </c>
       <c r="C105" t="n">
-        <v>3.13949</v>
+        <v>3.07478</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42967</v>
+        <v>1.41965</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.45559</v>
+        <v>4.44724</v>
       </c>
       <c r="C106" t="n">
-        <v>3.42926</v>
+        <v>3.35729</v>
       </c>
       <c r="D106" t="n">
-        <v>1.48995</v>
+        <v>1.48558</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.75893</v>
+        <v>4.73145</v>
       </c>
       <c r="C107" t="n">
-        <v>3.64466</v>
+        <v>3.47648</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5405</v>
+        <v>1.53613</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.07065</v>
+        <v>5.0388</v>
       </c>
       <c r="C108" t="n">
-        <v>4.11054</v>
+        <v>3.82259</v>
       </c>
       <c r="D108" t="n">
-        <v>1.63074</v>
+        <v>1.62287</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.39726</v>
+        <v>5.37572</v>
       </c>
       <c r="C109" t="n">
-        <v>4.28845</v>
+        <v>4.04498</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70062</v>
+        <v>1.67744</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.70485</v>
+        <v>5.70877</v>
       </c>
       <c r="C110" t="n">
-        <v>4.72038</v>
+        <v>4.42674</v>
       </c>
       <c r="D110" t="n">
-        <v>1.81583</v>
+        <v>1.81452</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.06578</v>
+        <v>6.05696</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17948</v>
+        <v>2.16448</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30471</v>
+        <v>1.28417</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.44919</v>
+        <v>6.39895</v>
       </c>
       <c r="C112" t="n">
-        <v>2.34624</v>
+        <v>2.31159</v>
       </c>
       <c r="D112" t="n">
-        <v>1.35711</v>
+        <v>1.34898</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.78656</v>
+        <v>6.75171</v>
       </c>
       <c r="C113" t="n">
-        <v>2.42385</v>
+        <v>2.41575</v>
       </c>
       <c r="D113" t="n">
-        <v>1.4273</v>
+        <v>1.42111</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.70912</v>
+        <v>3.67183</v>
       </c>
       <c r="C114" t="n">
-        <v>2.5849</v>
+        <v>2.5631</v>
       </c>
       <c r="D114" t="n">
-        <v>1.48404</v>
+        <v>1.45684</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.91652</v>
+        <v>3.90806</v>
       </c>
       <c r="C115" t="n">
-        <v>2.80629</v>
+        <v>2.75266</v>
       </c>
       <c r="D115" t="n">
-        <v>1.54877</v>
+        <v>1.51882</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.14606</v>
+        <v>4.14184</v>
       </c>
       <c r="C116" t="n">
-        <v>2.90826</v>
+        <v>2.94458</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62476</v>
+        <v>1.59272</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.38859</v>
+        <v>4.38193</v>
       </c>
       <c r="C117" t="n">
-        <v>3.35819</v>
+        <v>3.1279</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67233</v>
+        <v>1.66189</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.64852</v>
+        <v>4.61435</v>
       </c>
       <c r="C118" t="n">
-        <v>3.34835</v>
+        <v>3.28304</v>
       </c>
       <c r="D118" t="n">
-        <v>1.74506</v>
+        <v>1.7297</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.9248</v>
+        <v>4.90191</v>
       </c>
       <c r="C119" t="n">
-        <v>3.73183</v>
+        <v>3.55593</v>
       </c>
       <c r="D119" t="n">
-        <v>1.79802</v>
+        <v>1.79585</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34237</v>
+        <v>0.33599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.228406</v>
+        <v>0.225018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252948</v>
+        <v>0.247973</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258618</v>
+        <v>0.256226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229115</v>
+        <v>0.226365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254728</v>
+        <v>0.250102</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267185</v>
+        <v>0.263931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235246</v>
+        <v>0.231869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26043</v>
+        <v>0.255973</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.274413</v>
+        <v>0.27057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239896</v>
+        <v>0.236345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266556</v>
+        <v>0.261245</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.282273</v>
+        <v>0.278406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244472</v>
+        <v>0.240022</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271323</v>
+        <v>0.266319</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291955</v>
+        <v>0.288624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201148</v>
+        <v>0.198252</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224391</v>
+        <v>0.221945</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.300807</v>
+        <v>0.296425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204008</v>
+        <v>0.203616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231386</v>
+        <v>0.229179</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310021</v>
+        <v>0.305369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210906</v>
+        <v>0.208593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238236</v>
+        <v>0.234751</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317755</v>
+        <v>0.313352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216533</v>
+        <v>0.214271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245091</v>
+        <v>0.242401</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324596</v>
+        <v>0.320562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221798</v>
+        <v>0.219838</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252142</v>
+        <v>0.249308</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3344</v>
+        <v>0.330605</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230087</v>
+        <v>0.227667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260731</v>
+        <v>0.258795</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.342282</v>
+        <v>0.339191</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234975</v>
+        <v>0.233128</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266535</v>
+        <v>0.264559</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.351177</v>
+        <v>0.348834</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239802</v>
+        <v>0.237773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.272092</v>
+        <v>0.270098</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.362031</v>
+        <v>0.359168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24533</v>
+        <v>0.243435</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277702</v>
+        <v>0.276138</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.369459</v>
+        <v>0.36754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249476</v>
+        <v>0.247766</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283517</v>
+        <v>0.282765</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.380836</v>
+        <v>0.378631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255588</v>
+        <v>0.254596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291561</v>
+        <v>0.290448</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288947</v>
+        <v>0.289039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.259386</v>
+        <v>0.258589</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295523</v>
+        <v>0.294069</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296333</v>
+        <v>0.296087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265148</v>
+        <v>0.264213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301619</v>
+        <v>0.301176</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.306471</v>
+        <v>0.306024</v>
       </c>
       <c r="C20" t="n">
-        <v>0.271322</v>
+        <v>0.271058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310252</v>
+        <v>0.309467</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315773</v>
+        <v>0.315736</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216538</v>
+        <v>0.2166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247886</v>
+        <v>0.247739</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324751</v>
+        <v>0.325</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22238</v>
+        <v>0.223653</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254399</v>
+        <v>0.254505</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.333318</v>
+        <v>0.33235</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228062</v>
+        <v>0.228851</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261476</v>
+        <v>0.262722</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340466</v>
+        <v>0.339933</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232646</v>
+        <v>0.233822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267532</v>
+        <v>0.267796</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348765</v>
+        <v>0.347937</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23826</v>
+        <v>0.238877</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274177</v>
+        <v>0.274825</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.359284</v>
+        <v>0.357465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245371</v>
+        <v>0.245949</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282518</v>
+        <v>0.281908</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.366263</v>
+        <v>0.365506</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250453</v>
+        <v>0.250171</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287685</v>
+        <v>0.288558</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375367</v>
+        <v>0.374941</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255727</v>
+        <v>0.255663</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294119</v>
+        <v>0.294594</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384425</v>
+        <v>0.383881</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261357</v>
+        <v>0.261133</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301345</v>
+        <v>0.301697</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392126</v>
+        <v>0.391774</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265812</v>
+        <v>0.265804</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307664</v>
+        <v>0.307877</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.40109</v>
+        <v>0.401015</v>
       </c>
       <c r="C31" t="n">
-        <v>0.27119</v>
+        <v>0.271281</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313015</v>
+        <v>0.313555</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298478</v>
+        <v>0.298068</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276519</v>
+        <v>0.276667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319872</v>
+        <v>0.320181</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306719</v>
+        <v>0.305769</v>
       </c>
       <c r="C33" t="n">
-        <v>0.282004</v>
+        <v>0.282268</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326184</v>
+        <v>0.326143</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.31393</v>
+        <v>0.314422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286854</v>
+        <v>0.286934</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33238</v>
+        <v>0.332502</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.323565</v>
+        <v>0.322805</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226079</v>
+        <v>0.225636</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258916</v>
+        <v>0.258573</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.333405</v>
+        <v>0.331922</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231982</v>
+        <v>0.231301</v>
       </c>
       <c r="D36" t="n">
-        <v>0.265187</v>
+        <v>0.264618</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340269</v>
+        <v>0.339711</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237278</v>
+        <v>0.236734</v>
       </c>
       <c r="D37" t="n">
-        <v>0.27109</v>
+        <v>0.270855</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349126</v>
+        <v>0.347702</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242648</v>
+        <v>0.242341</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277796</v>
+        <v>0.277258</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356506</v>
+        <v>0.356116</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248387</v>
+        <v>0.247745</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284926</v>
+        <v>0.284163</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365624</v>
+        <v>0.365092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253706</v>
+        <v>0.253243</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29143</v>
+        <v>0.290894</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373244</v>
+        <v>0.372821</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259336</v>
+        <v>0.25873</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298756</v>
+        <v>0.298373</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381971</v>
+        <v>0.38101</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264613</v>
+        <v>0.263886</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304353</v>
+        <v>0.303684</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.392669</v>
+        <v>0.391265</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270054</v>
+        <v>0.269379</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311838</v>
+        <v>0.311327</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.400657</v>
+        <v>0.399572</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275298</v>
+        <v>0.274389</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318497</v>
+        <v>0.317605</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408812</v>
+        <v>0.408131</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27993</v>
+        <v>0.279316</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324244</v>
+        <v>0.323593</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.419463</v>
+        <v>0.41873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284468</v>
+        <v>0.283926</v>
       </c>
       <c r="D46" t="n">
-        <v>0.330069</v>
+        <v>0.328978</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306498</v>
+        <v>0.305873</v>
       </c>
       <c r="C47" t="n">
-        <v>0.289405</v>
+        <v>0.289065</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336183</v>
+        <v>0.335065</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313433</v>
+        <v>0.313081</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294539</v>
+        <v>0.294006</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343295</v>
+        <v>0.342494</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322693</v>
+        <v>0.322206</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299455</v>
+        <v>0.298956</v>
       </c>
       <c r="D49" t="n">
-        <v>0.353029</v>
+        <v>0.352086</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.331064</v>
+        <v>0.330399</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233967</v>
+        <v>0.233676</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26271</v>
+        <v>0.262468</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338908</v>
+        <v>0.338273</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239873</v>
+        <v>0.239589</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270079</v>
+        <v>0.26984</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347801</v>
+        <v>0.347245</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246007</v>
+        <v>0.245662</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27756</v>
+        <v>0.277338</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.35571</v>
+        <v>0.355424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251695</v>
+        <v>0.251437</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284828</v>
+        <v>0.284576</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364719</v>
+        <v>0.364259</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257331</v>
+        <v>0.256953</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291703</v>
+        <v>0.291592</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.373203</v>
+        <v>0.372605</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262928</v>
+        <v>0.262553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299116</v>
+        <v>0.298756</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381763</v>
+        <v>0.381022</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26844</v>
+        <v>0.268556</v>
       </c>
       <c r="D56" t="n">
-        <v>0.306157</v>
+        <v>0.305738</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390809</v>
+        <v>0.391537</v>
       </c>
       <c r="C57" t="n">
-        <v>0.273201</v>
+        <v>0.273184</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312993</v>
+        <v>0.312631</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399655</v>
+        <v>0.400266</v>
       </c>
       <c r="C58" t="n">
-        <v>0.277874</v>
+        <v>0.277906</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319512</v>
+        <v>0.319058</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.408156</v>
+        <v>0.409004</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282372</v>
+        <v>0.282534</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326186</v>
+        <v>0.325979</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418444</v>
+        <v>0.41916</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287233</v>
+        <v>0.287282</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332532</v>
+        <v>0.332857</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309403</v>
+        <v>0.312986</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292312</v>
+        <v>0.292407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33942</v>
+        <v>0.339864</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.319898</v>
+        <v>0.325275</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296983</v>
+        <v>0.297693</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345715</v>
+        <v>0.346958</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330533</v>
+        <v>0.335809</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302838</v>
+        <v>0.303999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354073</v>
+        <v>0.355932</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.341809</v>
+        <v>0.347468</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242175</v>
+        <v>0.242553</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27585</v>
+        <v>0.276814</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.34829</v>
+        <v>0.358864</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248464</v>
+        <v>0.249348</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283865</v>
+        <v>0.284996</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.359432</v>
+        <v>0.370117</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256504</v>
+        <v>0.256603</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29182</v>
+        <v>0.296362</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.372429</v>
+        <v>0.383173</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264488</v>
+        <v>0.264588</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30105</v>
+        <v>0.306065</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.385413</v>
+        <v>0.39569</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271945</v>
+        <v>0.27148</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311173</v>
+        <v>0.317399</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397237</v>
+        <v>0.408548</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279123</v>
+        <v>0.280031</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322003</v>
+        <v>0.328088</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411399</v>
+        <v>0.424109</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287534</v>
+        <v>0.292058</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332903</v>
+        <v>0.339461</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.427079</v>
+        <v>0.43987</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296682</v>
+        <v>0.301593</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345862</v>
+        <v>0.351774</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.446233</v>
+        <v>0.457509</v>
       </c>
       <c r="C72" t="n">
-        <v>0.305495</v>
+        <v>0.310416</v>
       </c>
       <c r="D72" t="n">
-        <v>0.357912</v>
+        <v>0.363851</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.465452</v>
+        <v>0.475012</v>
       </c>
       <c r="C73" t="n">
-        <v>0.313138</v>
+        <v>0.32018</v>
       </c>
       <c r="D73" t="n">
-        <v>0.370378</v>
+        <v>0.377798</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.480585</v>
+        <v>0.495183</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323501</v>
+        <v>0.331862</v>
       </c>
       <c r="D74" t="n">
-        <v>0.383242</v>
+        <v>0.392095</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.500883</v>
+        <v>0.516754</v>
       </c>
       <c r="C75" t="n">
-        <v>0.33362</v>
+        <v>0.344264</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397661</v>
+        <v>0.408045</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.474361</v>
+        <v>0.484674</v>
       </c>
       <c r="C76" t="n">
-        <v>0.347227</v>
+        <v>0.35781</v>
       </c>
       <c r="D76" t="n">
-        <v>0.416042</v>
+        <v>0.42933</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.498706</v>
+        <v>0.51054</v>
       </c>
       <c r="C77" t="n">
-        <v>0.363665</v>
+        <v>0.373204</v>
       </c>
       <c r="D77" t="n">
-        <v>0.436906</v>
+        <v>0.449066</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.529057</v>
+        <v>0.541282</v>
       </c>
       <c r="C78" t="n">
-        <v>0.331988</v>
+        <v>0.340026</v>
       </c>
       <c r="D78" t="n">
-        <v>0.406568</v>
+        <v>0.415133</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.557917</v>
+        <v>0.566924</v>
       </c>
       <c r="C79" t="n">
-        <v>0.350145</v>
+        <v>0.356303</v>
       </c>
       <c r="D79" t="n">
-        <v>0.431987</v>
+        <v>0.441819</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.589026</v>
+        <v>0.596849</v>
       </c>
       <c r="C80" t="n">
-        <v>0.372511</v>
+        <v>0.372072</v>
       </c>
       <c r="D80" t="n">
-        <v>0.454514</v>
+        <v>0.461311</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.622817</v>
+        <v>0.6301330000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389836</v>
+        <v>0.389402</v>
       </c>
       <c r="D81" t="n">
-        <v>0.480173</v>
+        <v>0.488968</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.659763</v>
+        <v>0.666508</v>
       </c>
       <c r="C82" t="n">
-        <v>0.410156</v>
+        <v>0.409672</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508953</v>
+        <v>0.514517</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.69913</v>
+        <v>0.703942</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4311</v>
+        <v>0.430662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5356</v>
+        <v>0.539697</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.730328</v>
+        <v>0.734913</v>
       </c>
       <c r="C84" t="n">
-        <v>0.450929</v>
+        <v>0.454524</v>
       </c>
       <c r="D84" t="n">
-        <v>0.563815</v>
+        <v>0.566808</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.769846</v>
+        <v>0.772687</v>
       </c>
       <c r="C85" t="n">
-        <v>0.473102</v>
+        <v>0.475085</v>
       </c>
       <c r="D85" t="n">
-        <v>0.592684</v>
+        <v>0.59452</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.810884</v>
+        <v>0.812221</v>
       </c>
       <c r="C86" t="n">
-        <v>0.495794</v>
+        <v>0.497403</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622496</v>
+        <v>0.622967</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.852691</v>
+        <v>0.85365</v>
       </c>
       <c r="C87" t="n">
-        <v>0.518798</v>
+        <v>0.519885</v>
       </c>
       <c r="D87" t="n">
-        <v>0.650523</v>
+        <v>0.65259</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.896529</v>
+        <v>0.895753</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542718</v>
+        <v>0.543118</v>
       </c>
       <c r="D88" t="n">
-        <v>0.687756</v>
+        <v>0.688974</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.941621</v>
+        <v>0.941619</v>
       </c>
       <c r="C89" t="n">
-        <v>0.567272</v>
+        <v>0.567167</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7211649999999999</v>
+        <v>0.721577</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.825734</v>
+        <v>0.829365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.591638</v>
+        <v>0.59148</v>
       </c>
       <c r="D90" t="n">
-        <v>0.743637</v>
+        <v>0.744196</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.852877</v>
+        <v>0.85186</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618466</v>
+        <v>0.618462</v>
       </c>
       <c r="D91" t="n">
-        <v>0.775737</v>
+        <v>0.777203</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.883073</v>
+        <v>0.879785</v>
       </c>
       <c r="C92" t="n">
-        <v>0.53173</v>
+        <v>0.53118</v>
       </c>
       <c r="D92" t="n">
-        <v>0.673351</v>
+        <v>0.671425</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.910868</v>
+        <v>0.909985</v>
       </c>
       <c r="C93" t="n">
-        <v>0.547585</v>
+        <v>0.54721</v>
       </c>
       <c r="D93" t="n">
-        <v>0.699782</v>
+        <v>0.697883</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.940941</v>
+        <v>0.939777</v>
       </c>
       <c r="C94" t="n">
-        <v>0.564458</v>
+        <v>0.563831</v>
       </c>
       <c r="D94" t="n">
-        <v>0.716866</v>
+        <v>0.7150609999999999</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.970757</v>
       </c>
       <c r="C95" t="n">
-        <v>0.580979</v>
+        <v>0.580518</v>
       </c>
       <c r="D95" t="n">
-        <v>0.752695</v>
+        <v>0.750794</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.999654</v>
+        <v>0.997696</v>
       </c>
       <c r="C96" t="n">
-        <v>0.597229</v>
+        <v>0.598823</v>
       </c>
       <c r="D96" t="n">
-        <v>0.778172</v>
+        <v>0.77677</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02939</v>
+        <v>1.02791</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6160949999999999</v>
+        <v>0.617815</v>
       </c>
       <c r="D97" t="n">
-        <v>0.802069</v>
+        <v>0.805268</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0664</v>
+        <v>1.06598</v>
       </c>
       <c r="C98" t="n">
-        <v>0.63681</v>
+        <v>0.636483</v>
       </c>
       <c r="D98" t="n">
-        <v>0.834694</v>
+        <v>0.832326</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10352</v>
+        <v>1.10291</v>
       </c>
       <c r="C99" t="n">
-        <v>0.656466</v>
+        <v>0.655969</v>
       </c>
       <c r="D99" t="n">
-        <v>0.860878</v>
+        <v>0.8602</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13802</v>
+        <v>1.13701</v>
       </c>
       <c r="C100" t="n">
-        <v>0.67613</v>
+        <v>0.6761160000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.892777</v>
+        <v>0.888593</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16408</v>
+        <v>1.16383</v>
       </c>
       <c r="C101" t="n">
-        <v>0.697188</v>
+        <v>0.697442</v>
       </c>
       <c r="D101" t="n">
-        <v>0.920475</v>
+        <v>0.918157</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20091</v>
+        <v>1.20106</v>
       </c>
       <c r="C102" t="n">
-        <v>0.719792</v>
+        <v>0.720073</v>
       </c>
       <c r="D102" t="n">
-        <v>0.955125</v>
+        <v>0.950205</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23952</v>
+        <v>1.23905</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7433</v>
+        <v>0.743659</v>
       </c>
       <c r="D103" t="n">
-        <v>0.986515</v>
+        <v>0.981781</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2795</v>
+        <v>1.27881</v>
       </c>
       <c r="C104" t="n">
-        <v>0.76689</v>
+        <v>0.767904</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01979</v>
+        <v>1.01441</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02486</v>
+        <v>1.02091</v>
       </c>
       <c r="C105" t="n">
-        <v>0.793018</v>
+        <v>0.791973</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0512</v>
+        <v>1.0474</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04844</v>
+        <v>1.04448</v>
       </c>
       <c r="C106" t="n">
-        <v>0.821228</v>
+        <v>0.817661</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08702</v>
+        <v>1.08155</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.077</v>
+        <v>1.07164</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6458199999999999</v>
+        <v>0.653697</v>
       </c>
       <c r="D107" t="n">
-        <v>0.874621</v>
+        <v>0.890831</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09868</v>
+        <v>1.0927</v>
       </c>
       <c r="C108" t="n">
-        <v>0.671071</v>
+        <v>0.668401</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91717</v>
+        <v>0.914258</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.11868</v>
+        <v>1.12195</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6760699999999999</v>
+        <v>0.684477</v>
       </c>
       <c r="D109" t="n">
-        <v>0.924686</v>
+        <v>0.942564</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15478</v>
+        <v>1.14816</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703315</v>
+        <v>0.700744</v>
       </c>
       <c r="D110" t="n">
-        <v>0.970425</v>
+        <v>0.966714</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18317</v>
+        <v>1.17703</v>
       </c>
       <c r="C111" t="n">
-        <v>0.71045</v>
+        <v>0.718242</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996256</v>
+        <v>0.993869</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22055</v>
+        <v>1.21416</v>
       </c>
       <c r="C112" t="n">
-        <v>0.738594</v>
+        <v>0.736205</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02646</v>
+        <v>1.02283</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2531</v>
+        <v>1.24669</v>
       </c>
       <c r="C113" t="n">
-        <v>0.757297</v>
+        <v>0.75482</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05435</v>
+        <v>1.0501</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28453</v>
+        <v>1.27785</v>
       </c>
       <c r="C114" t="n">
-        <v>0.776417</v>
+        <v>0.774302</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09078</v>
+        <v>1.08753</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31995</v>
+        <v>1.31334</v>
       </c>
       <c r="C115" t="n">
-        <v>0.796885</v>
+        <v>0.794838</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12573</v>
+        <v>1.12007</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35953</v>
+        <v>1.35021</v>
       </c>
       <c r="C116" t="n">
-        <v>0.819872</v>
+        <v>0.816259</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14739</v>
+        <v>1.14221</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39648</v>
+        <v>1.38734</v>
       </c>
       <c r="C117" t="n">
-        <v>0.842056</v>
+        <v>0.838818</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17932</v>
+        <v>1.17349</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43835</v>
+        <v>1.42877</v>
       </c>
       <c r="C118" t="n">
-        <v>0.865618</v>
+        <v>0.862177</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21523</v>
+        <v>1.20967</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11726</v>
+        <v>1.11384</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8905459999999999</v>
+        <v>0.887228</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25158</v>
+        <v>1.24111</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.268003</v>
+        <v>0.268017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.176192</v>
+        <v>0.175252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141223</v>
+        <v>0.140957</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195558</v>
+        <v>0.194347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177548</v>
+        <v>0.178987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142163</v>
+        <v>0.142101</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202241</v>
+        <v>0.2012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184879</v>
+        <v>0.184401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146713</v>
+        <v>0.146185</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210579</v>
+        <v>0.209071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192454</v>
+        <v>0.192305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150087</v>
+        <v>0.149617</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216128</v>
+        <v>0.21525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198709</v>
+        <v>0.198195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154701</v>
+        <v>0.153479</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223794</v>
+        <v>0.224182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160866</v>
+        <v>0.160694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138535</v>
+        <v>0.138582</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230305</v>
+        <v>0.230221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.164435</v>
+        <v>0.164856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140948</v>
+        <v>0.140443</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237317</v>
+        <v>0.238117</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169448</v>
+        <v>0.171016</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141783</v>
+        <v>0.142188</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.245354</v>
+        <v>0.24617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174727</v>
+        <v>0.17657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145486</v>
+        <v>0.147002</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252175</v>
+        <v>0.254186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179016</v>
+        <v>0.179242</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147754</v>
+        <v>0.146835</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26134</v>
+        <v>0.262488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187431</v>
+        <v>0.187889</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151438</v>
+        <v>0.153001</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268829</v>
+        <v>0.270526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192612</v>
+        <v>0.194888</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155636</v>
+        <v>0.156277</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280567</v>
+        <v>0.281168</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199965</v>
+        <v>0.200954</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158379</v>
+        <v>0.158689</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294712</v>
+        <v>0.295309</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206487</v>
+        <v>0.208038</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163315</v>
+        <v>0.164393</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302761</v>
+        <v>0.30333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215272</v>
+        <v>0.21593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167253</v>
+        <v>0.167379</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.31575</v>
+        <v>0.315291</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222184</v>
+        <v>0.222494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170841</v>
+        <v>0.170758</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.232399</v>
+        <v>0.232047</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227948</v>
+        <v>0.22843</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171867</v>
+        <v>0.173406</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240654</v>
+        <v>0.23987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237227</v>
+        <v>0.237388</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177122</v>
+        <v>0.179371</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245686</v>
+        <v>0.244746</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247004</v>
+        <v>0.24726</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182909</v>
+        <v>0.183714</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251947</v>
+        <v>0.251372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196563</v>
+        <v>0.196504</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166372</v>
+        <v>0.166554</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257589</v>
+        <v>0.257292</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202309</v>
+        <v>0.201766</v>
       </c>
       <c r="D22" t="n">
-        <v>0.169142</v>
+        <v>0.169475</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267112</v>
+        <v>0.266638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208606</v>
+        <v>0.208521</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171647</v>
+        <v>0.171754</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275257</v>
+        <v>0.274805</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213565</v>
+        <v>0.213503</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174397</v>
+        <v>0.174713</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282892</v>
+        <v>0.281959</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21892</v>
+        <v>0.218742</v>
       </c>
       <c r="D25" t="n">
-        <v>0.176305</v>
+        <v>0.176657</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292285</v>
+        <v>0.291557</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226276</v>
+        <v>0.22617</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179927</v>
+        <v>0.180096</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.300879</v>
+        <v>0.300526</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227569</v>
+        <v>0.227588</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182914</v>
+        <v>0.183025</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312498</v>
+        <v>0.311803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233222</v>
+        <v>0.233157</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185659</v>
+        <v>0.185843</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322195</v>
+        <v>0.321766</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239159</v>
+        <v>0.239114</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188645</v>
+        <v>0.188884</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.332366</v>
+        <v>0.331773</v>
       </c>
       <c r="C30" t="n">
-        <v>0.247505</v>
+        <v>0.247575</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192708</v>
+        <v>0.19289</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.34445</v>
+        <v>0.34411</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251607</v>
+        <v>0.251685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195387</v>
+        <v>0.195817</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248691</v>
+        <v>0.248835</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26199</v>
+        <v>0.26186</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199557</v>
+        <v>0.200751</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254598</v>
+        <v>0.254796</v>
       </c>
       <c r="C33" t="n">
-        <v>0.268749</v>
+        <v>0.268524</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203947</v>
+        <v>0.204835</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261266</v>
+        <v>0.261356</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27758</v>
+        <v>0.277592</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209994</v>
+        <v>0.210529</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268695</v>
+        <v>0.268749</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209156</v>
+        <v>0.20921</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181641</v>
+        <v>0.18182</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274169</v>
+        <v>0.274265</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21539</v>
+        <v>0.215438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18379</v>
+        <v>0.184256</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281002</v>
+        <v>0.281014</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219692</v>
+        <v>0.2196</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185989</v>
+        <v>0.186511</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288814</v>
+        <v>0.289208</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224812</v>
+        <v>0.224628</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189029</v>
+        <v>0.189363</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295563</v>
+        <v>0.295764</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230014</v>
+        <v>0.230016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191807</v>
+        <v>0.192166</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304633</v>
+        <v>0.304729</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236215</v>
+        <v>0.236374</v>
       </c>
       <c r="D40" t="n">
-        <v>0.194995</v>
+        <v>0.194603</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314601</v>
+        <v>0.314743</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241849</v>
+        <v>0.241958</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197747</v>
+        <v>0.19818</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325051</v>
+        <v>0.325325</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245095</v>
+        <v>0.24515</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200714</v>
+        <v>0.200982</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335612</v>
+        <v>0.335871</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251781</v>
+        <v>0.251819</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204215</v>
+        <v>0.204473</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344457</v>
+        <v>0.344847</v>
       </c>
       <c r="C44" t="n">
-        <v>0.259508</v>
+        <v>0.259654</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20724</v>
+        <v>0.207551</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355548</v>
+        <v>0.355724</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265408</v>
+        <v>0.26563</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210104</v>
+        <v>0.210482</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368225</v>
+        <v>0.368294</v>
       </c>
       <c r="C46" t="n">
-        <v>0.273088</v>
+        <v>0.273381</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214379</v>
+        <v>0.214688</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259448</v>
+        <v>0.259717</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280151</v>
+        <v>0.280259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217776</v>
+        <v>0.21811</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265347</v>
+        <v>0.265373</v>
       </c>
       <c r="C48" t="n">
-        <v>0.287999</v>
+        <v>0.288426</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222064</v>
+        <v>0.222371</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.27171</v>
+        <v>0.271925</v>
       </c>
       <c r="C49" t="n">
-        <v>0.296935</v>
+        <v>0.297298</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225291</v>
+        <v>0.225908</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.278608</v>
+        <v>0.278881</v>
       </c>
       <c r="C50" t="n">
-        <v>0.219584</v>
+        <v>0.219594</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185683</v>
+        <v>0.185638</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285426</v>
+        <v>0.285671</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224374</v>
+        <v>0.224071</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187332</v>
+        <v>0.187471</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292061</v>
+        <v>0.292487</v>
       </c>
       <c r="C52" t="n">
-        <v>0.229357</v>
+        <v>0.229568</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190671</v>
+        <v>0.190557</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301173</v>
+        <v>0.301513</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23573</v>
+        <v>0.235947</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19372</v>
+        <v>0.193587</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309609</v>
+        <v>0.310067</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241045</v>
+        <v>0.241232</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196105</v>
+        <v>0.196015</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318426</v>
+        <v>0.318801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246923</v>
+        <v>0.247195</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199842</v>
+        <v>0.199768</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32875</v>
+        <v>0.328918</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252089</v>
+        <v>0.252156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202019</v>
+        <v>0.201934</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.337875</v>
+        <v>0.338166</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258728</v>
+        <v>0.258699</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205635</v>
+        <v>0.205603</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348346</v>
+        <v>0.348672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266121</v>
+        <v>0.265979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20894</v>
+        <v>0.209208</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359157</v>
+        <v>0.359575</v>
       </c>
       <c r="C59" t="n">
-        <v>0.272413</v>
+        <v>0.272381</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211761</v>
+        <v>0.211974</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369603</v>
+        <v>0.370023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278842</v>
+        <v>0.278818</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21638</v>
+        <v>0.216351</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26499</v>
+        <v>0.26451</v>
       </c>
       <c r="C61" t="n">
-        <v>0.288183</v>
+        <v>0.288173</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219656</v>
+        <v>0.219901</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273233</v>
+        <v>0.272924</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296032</v>
+        <v>0.295546</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223833</v>
+        <v>0.22407</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.282945</v>
+        <v>0.282518</v>
       </c>
       <c r="C63" t="n">
-        <v>0.305388</v>
+        <v>0.304591</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227578</v>
+        <v>0.22759</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.293986</v>
+        <v>0.29448</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234434</v>
+        <v>0.234982</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197222</v>
+        <v>0.197218</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.302386</v>
+        <v>0.302367</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241294</v>
+        <v>0.242445</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198528</v>
+        <v>0.198669</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31205</v>
+        <v>0.312116</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250399</v>
+        <v>0.252824</v>
       </c>
       <c r="D66" t="n">
-        <v>0.20264</v>
+        <v>0.202982</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.324908</v>
+        <v>0.324503</v>
       </c>
       <c r="C67" t="n">
-        <v>0.257539</v>
+        <v>0.261132</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207057</v>
+        <v>0.207497</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.338223</v>
+        <v>0.33977</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266816</v>
+        <v>0.271515</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211208</v>
+        <v>0.211816</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.351901</v>
+        <v>0.354435</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279739</v>
+        <v>0.279466</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216478</v>
+        <v>0.217091</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.367802</v>
+        <v>0.371154</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286121</v>
+        <v>0.288342</v>
       </c>
       <c r="D70" t="n">
-        <v>0.222588</v>
+        <v>0.222711</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38822</v>
+        <v>0.388502</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299276</v>
+        <v>0.303218</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226036</v>
+        <v>0.227341</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.40948</v>
+        <v>0.412406</v>
       </c>
       <c r="C72" t="n">
-        <v>0.313804</v>
+        <v>0.319054</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233543</v>
+        <v>0.234665</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.43363</v>
+        <v>0.439815</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333756</v>
+        <v>0.341064</v>
       </c>
       <c r="D73" t="n">
-        <v>0.241159</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463996</v>
+        <v>0.470223</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353337</v>
+        <v>0.3627</v>
       </c>
       <c r="D74" t="n">
-        <v>0.245745</v>
+        <v>0.250691</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.495938</v>
+        <v>0.505816</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376276</v>
+        <v>0.3829</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255354</v>
+        <v>0.260019</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.431197</v>
+        <v>0.429158</v>
       </c>
       <c r="C76" t="n">
-        <v>0.405494</v>
+        <v>0.413893</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26423</v>
+        <v>0.26979</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452665</v>
+        <v>0.451302</v>
       </c>
       <c r="C77" t="n">
-        <v>0.431659</v>
+        <v>0.440783</v>
       </c>
       <c r="D77" t="n">
-        <v>0.275683</v>
+        <v>0.281545</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.479529</v>
+        <v>0.488733</v>
       </c>
       <c r="C78" t="n">
-        <v>0.372082</v>
+        <v>0.379619</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261414</v>
+        <v>0.268055</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.521626</v>
+        <v>0.518658</v>
       </c>
       <c r="C79" t="n">
-        <v>0.396371</v>
+        <v>0.407644</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271601</v>
+        <v>0.278268</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.55759</v>
+        <v>0.556329</v>
       </c>
       <c r="C80" t="n">
-        <v>0.419258</v>
+        <v>0.43622</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28569</v>
+        <v>0.291901</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59872</v>
+        <v>0.598765</v>
       </c>
       <c r="C81" t="n">
-        <v>0.451378</v>
+        <v>0.469606</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301107</v>
+        <v>0.308622</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.63465</v>
+        <v>0.640968</v>
       </c>
       <c r="C82" t="n">
-        <v>0.487332</v>
+        <v>0.496171</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320623</v>
+        <v>0.326156</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.683576</v>
+        <v>0.690456</v>
       </c>
       <c r="C83" t="n">
-        <v>0.525668</v>
+        <v>0.526778</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335474</v>
+        <v>0.339392</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.739005</v>
+        <v>0.742601</v>
       </c>
       <c r="C84" t="n">
-        <v>0.56343</v>
+        <v>0.567265</v>
       </c>
       <c r="D84" t="n">
-        <v>0.358819</v>
+        <v>0.362027</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.790285</v>
+        <v>0.79486</v>
       </c>
       <c r="C85" t="n">
-        <v>0.600449</v>
+        <v>0.6048249999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.377744</v>
+        <v>0.38094</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.84967</v>
+        <v>0.855288</v>
       </c>
       <c r="C86" t="n">
-        <v>0.639606</v>
+        <v>0.6433179999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.396974</v>
+        <v>0.40011</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.912086</v>
+        <v>0.9153210000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.688666</v>
+        <v>0.69198</v>
       </c>
       <c r="D87" t="n">
-        <v>0.422614</v>
+        <v>0.426416</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.976217</v>
+        <v>0.983582</v>
       </c>
       <c r="C88" t="n">
-        <v>0.728363</v>
+        <v>0.733957</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44654</v>
+        <v>0.448699</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04667</v>
+        <v>1.052</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779429</v>
+        <v>0.783224</v>
       </c>
       <c r="D89" t="n">
-        <v>0.47142</v>
+        <v>0.474192</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829066</v>
+        <v>0.831356</v>
       </c>
       <c r="C90" t="n">
-        <v>0.825823</v>
+        <v>0.830606</v>
       </c>
       <c r="D90" t="n">
-        <v>0.497734</v>
+        <v>0.501126</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8623729999999999</v>
+        <v>0.865734</v>
       </c>
       <c r="C91" t="n">
-        <v>0.878958</v>
+        <v>0.88201</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519142</v>
+        <v>0.521684</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.899109</v>
+        <v>0.902718</v>
       </c>
       <c r="C92" t="n">
-        <v>0.701251</v>
+        <v>0.7072000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504103</v>
+        <v>0.508393</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.939827</v>
+        <v>0.94195</v>
       </c>
       <c r="C93" t="n">
-        <v>0.729467</v>
+        <v>0.73577</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519475</v>
+        <v>0.523851</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.981662</v>
+        <v>0.9839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759599</v>
+        <v>0.765406</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536519</v>
+        <v>0.539797</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0278</v>
+        <v>1.0308</v>
       </c>
       <c r="C95" t="n">
-        <v>0.790775</v>
+        <v>0.79413</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552926</v>
+        <v>0.556962</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06795</v>
+        <v>1.07257</v>
       </c>
       <c r="C96" t="n">
-        <v>0.826134</v>
+        <v>0.828579</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571292</v>
+        <v>0.5749919999999999</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11213</v>
+        <v>1.1164</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860434</v>
+        <v>0.861501</v>
       </c>
       <c r="D97" t="n">
-        <v>0.59228</v>
+        <v>0.596998</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16228</v>
+        <v>1.16294</v>
       </c>
       <c r="C98" t="n">
-        <v>0.889775</v>
+        <v>0.89563</v>
       </c>
       <c r="D98" t="n">
-        <v>0.609641</v>
+        <v>0.614561</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20393</v>
+        <v>1.20321</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9260969999999999</v>
+        <v>0.929817</v>
       </c>
       <c r="D99" t="n">
-        <v>0.630894</v>
+        <v>0.636474</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24791</v>
+        <v>1.24995</v>
       </c>
       <c r="C100" t="n">
-        <v>0.962083</v>
+        <v>0.964348</v>
       </c>
       <c r="D100" t="n">
-        <v>0.653738</v>
+        <v>0.658106</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29948</v>
+        <v>1.30193</v>
       </c>
       <c r="C101" t="n">
-        <v>0.995173</v>
+        <v>0.996796</v>
       </c>
       <c r="D101" t="n">
-        <v>0.677942</v>
+        <v>0.6819499999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.3572</v>
+        <v>1.35936</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03114</v>
+        <v>1.03223</v>
       </c>
       <c r="D102" t="n">
-        <v>0.703249</v>
+        <v>0.706827</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41788</v>
+        <v>1.42194</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07129</v>
+        <v>1.07219</v>
       </c>
       <c r="D103" t="n">
-        <v>0.724171</v>
+        <v>0.727282</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48485</v>
+        <v>1.48805</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1128</v>
+        <v>1.11206</v>
       </c>
       <c r="D104" t="n">
-        <v>0.751851</v>
+        <v>0.754954</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01737</v>
+        <v>1.02678</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15877</v>
+        <v>1.16026</v>
       </c>
       <c r="D105" t="n">
-        <v>0.777935</v>
+        <v>0.780008</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05963</v>
+        <v>1.06206</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19462</v>
+        <v>1.20722</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7897690000000001</v>
+        <v>0.8082240000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09659</v>
+        <v>1.1008</v>
       </c>
       <c r="C107" t="n">
-        <v>0.862554</v>
+        <v>0.868906</v>
       </c>
       <c r="D107" t="n">
-        <v>0.678741</v>
+        <v>0.695864</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13466</v>
+        <v>1.1396</v>
       </c>
       <c r="C108" t="n">
-        <v>0.893879</v>
+        <v>0.896823</v>
       </c>
       <c r="D108" t="n">
-        <v>0.706792</v>
+        <v>0.7131189999999999</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.16789</v>
+        <v>1.18173</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912996</v>
+        <v>0.92403</v>
       </c>
       <c r="D109" t="n">
-        <v>0.714727</v>
+        <v>0.731774</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2245</v>
+        <v>1.22801</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9515980000000001</v>
+        <v>0.94918</v>
       </c>
       <c r="D110" t="n">
-        <v>0.747591</v>
+        <v>0.749198</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26798</v>
+        <v>1.27344</v>
       </c>
       <c r="C111" t="n">
-        <v>0.982171</v>
+        <v>0.981727</v>
       </c>
       <c r="D111" t="n">
-        <v>0.765411</v>
+        <v>0.768023</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31651</v>
+        <v>1.32277</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01522</v>
+        <v>1.01824</v>
       </c>
       <c r="D112" t="n">
-        <v>0.784045</v>
+        <v>0.786618</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3714</v>
+        <v>1.37529</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05108</v>
+        <v>1.05387</v>
       </c>
       <c r="D113" t="n">
-        <v>0.804374</v>
+        <v>0.807465</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42698</v>
+        <v>1.43017</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08513</v>
+        <v>1.0875</v>
       </c>
       <c r="D114" t="n">
-        <v>0.825049</v>
+        <v>0.827888</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48168</v>
+        <v>1.48742</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1259</v>
+        <v>1.12989</v>
       </c>
       <c r="D115" t="n">
-        <v>0.843849</v>
+        <v>0.84895</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54395</v>
+        <v>1.55125</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16624</v>
+        <v>1.17047</v>
       </c>
       <c r="D116" t="n">
-        <v>0.866521</v>
+        <v>0.8706700000000001</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60785</v>
+        <v>1.61484</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21052</v>
+        <v>1.21514</v>
       </c>
       <c r="D117" t="n">
-        <v>0.892575</v>
+        <v>0.896523</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.6754</v>
+        <v>1.68374</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25962</v>
+        <v>1.26598</v>
       </c>
       <c r="D118" t="n">
-        <v>0.915691</v>
+        <v>0.92113</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10794</v>
+        <v>1.11203</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30496</v>
+        <v>1.31113</v>
       </c>
       <c r="D119" t="n">
-        <v>0.937371</v>
+        <v>0.943296</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575902</v>
+        <v>0.581908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390362</v>
+        <v>0.400767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248606</v>
+        <v>0.248482</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592753</v>
+        <v>0.5893659999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400177</v>
+        <v>0.399133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254925</v>
+        <v>0.254538</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.619048</v>
+        <v>0.619154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.419242</v>
+        <v>0.421164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262493</v>
+        <v>0.262019</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.644781</v>
+        <v>0.650576</v>
       </c>
       <c r="C5" t="n">
-        <v>0.442148</v>
+        <v>0.435094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269944</v>
+        <v>0.269787</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.669836</v>
+        <v>0.672014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.453249</v>
+        <v>0.456105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279562</v>
+        <v>0.280864</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695583</v>
+        <v>0.693459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.475638</v>
+        <v>0.479869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28439</v>
+        <v>0.283169</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.721596</v>
+        <v>0.720239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.496638</v>
+        <v>0.504988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291375</v>
+        <v>0.291133</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.751409</v>
+        <v>0.7549129999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515829</v>
+        <v>0.516445</v>
       </c>
       <c r="D9" t="n">
-        <v>0.297539</v>
+        <v>0.295135</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.782359</v>
+        <v>0.780854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5516</v>
+        <v>0.545588</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311196</v>
+        <v>0.309987</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8196639999999999</v>
+        <v>0.816904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.374384</v>
+        <v>0.37052</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235693</v>
+        <v>0.231861</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520814</v>
+        <v>0.5175650000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.392521</v>
+        <v>0.390047</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24596</v>
+        <v>0.244405</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.542513</v>
+        <v>0.541492</v>
       </c>
       <c r="C13" t="n">
-        <v>0.410781</v>
+        <v>0.41305</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252098</v>
+        <v>0.249514</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.566908</v>
+        <v>0.567312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.429593</v>
+        <v>0.430673</v>
       </c>
       <c r="D14" t="n">
-        <v>0.258548</v>
+        <v>0.257356</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.59717</v>
+        <v>0.597822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.466349</v>
+        <v>0.459247</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268717</v>
+        <v>0.268356</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.62066</v>
+        <v>0.625498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.483134</v>
+        <v>0.483094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277424</v>
+        <v>0.276067</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.654348</v>
+        <v>0.6578580000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.510565</v>
+        <v>0.510666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28828</v>
+        <v>0.289037</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.685914</v>
+        <v>0.686047</v>
       </c>
       <c r="C18" t="n">
-        <v>0.54204</v>
+        <v>0.540921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296158</v>
+        <v>0.297005</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.724952</v>
+        <v>0.724348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5667410000000001</v>
+        <v>0.561751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307862</v>
+        <v>0.307027</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.760414</v>
+        <v>0.76303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.597629</v>
+        <v>0.593378</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317086</v>
+        <v>0.318429</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.801444</v>
+        <v>0.798172</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632293</v>
+        <v>0.625966</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331804</v>
+        <v>0.333169</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.840941</v>
+        <v>0.840934</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.658331</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341737</v>
+        <v>0.343766</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.891415</v>
+        <v>0.885895</v>
       </c>
       <c r="C23" t="n">
-        <v>0.700641</v>
+        <v>0.692703</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352791</v>
+        <v>0.353058</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.931597</v>
+        <v>0.9290580000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.736707</v>
+        <v>0.72473</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365362</v>
+        <v>0.365515</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.972776</v>
+        <v>0.971623</v>
       </c>
       <c r="C25" t="n">
-        <v>0.760954</v>
+        <v>0.750341</v>
       </c>
       <c r="D25" t="n">
-        <v>0.378742</v>
+        <v>0.381229</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01341</v>
+        <v>1.01332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.485374</v>
+        <v>0.484804</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273992</v>
+        <v>0.274712</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.647979</v>
+        <v>0.645598</v>
       </c>
       <c r="C27" t="n">
-        <v>0.50731</v>
+        <v>0.507058</v>
       </c>
       <c r="D27" t="n">
-        <v>0.282575</v>
+        <v>0.283816</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.674975</v>
+        <v>0.67284</v>
       </c>
       <c r="C28" t="n">
-        <v>0.536111</v>
+        <v>0.535579</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291013</v>
+        <v>0.291286</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.707697</v>
+        <v>0.705797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.558355</v>
+        <v>0.55763</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301634</v>
+        <v>0.302461</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.745164</v>
+        <v>0.744919</v>
       </c>
       <c r="C30" t="n">
-        <v>0.585074</v>
+        <v>0.5862270000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316912</v>
+        <v>0.318158</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.778466</v>
+        <v>0.77803</v>
       </c>
       <c r="C31" t="n">
-        <v>0.623512</v>
+        <v>0.621901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318447</v>
+        <v>0.318859</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.81581</v>
+        <v>0.814887</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6466190000000001</v>
+        <v>0.646236</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334398</v>
+        <v>0.335104</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.860232</v>
+        <v>0.859491</v>
       </c>
       <c r="C33" t="n">
-        <v>0.67798</v>
+        <v>0.678918</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346257</v>
+        <v>0.345822</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.902388</v>
+        <v>0.902689</v>
       </c>
       <c r="C34" t="n">
-        <v>0.719122</v>
+        <v>0.7169759999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357328</v>
+        <v>0.355711</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.94419</v>
+        <v>0.944017</v>
       </c>
       <c r="C35" t="n">
-        <v>0.749875</v>
+        <v>0.746672</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364217</v>
+        <v>0.364645</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.979382</v>
+        <v>0.979123</v>
       </c>
       <c r="C36" t="n">
-        <v>0.781069</v>
+        <v>0.7739740000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378096</v>
+        <v>0.379306</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03055</v>
+        <v>1.03128</v>
       </c>
       <c r="C37" t="n">
-        <v>0.81423</v>
+        <v>0.8079769999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.389944</v>
+        <v>0.389865</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0679</v>
+        <v>1.06758</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.8520529999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.39587</v>
+        <v>0.396794</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1234</v>
+        <v>1.12272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.887696</v>
+        <v>0.881472</v>
       </c>
       <c r="D39" t="n">
-        <v>0.414276</v>
+        <v>0.416318</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16658</v>
+        <v>1.16355</v>
       </c>
       <c r="C40" t="n">
-        <v>0.544578</v>
+        <v>0.544303</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314655</v>
+        <v>0.314912</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704</v>
+        <v>0.703783</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5631080000000001</v>
+        <v>0.561338</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324594</v>
+        <v>0.32495</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.734202</v>
+        <v>0.733127</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5914779999999999</v>
+        <v>0.590746</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333534</v>
+        <v>0.333892</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.768706</v>
+        <v>0.768984</v>
       </c>
       <c r="C43" t="n">
-        <v>0.619668</v>
+        <v>0.618775</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344574</v>
+        <v>0.344582</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805409</v>
+        <v>0.804525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.649743</v>
+        <v>0.646813</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355698</v>
+        <v>0.355505</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.840154</v>
+        <v>0.8402539999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.678739</v>
+        <v>0.677882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360965</v>
+        <v>0.363322</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8825809999999999</v>
+        <v>0.883424</v>
       </c>
       <c r="C46" t="n">
-        <v>0.709978</v>
+        <v>0.707803</v>
       </c>
       <c r="D46" t="n">
-        <v>0.374511</v>
+        <v>0.375806</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.923385</v>
+        <v>0.922244</v>
       </c>
       <c r="C47" t="n">
-        <v>0.742296</v>
+        <v>0.740854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386041</v>
+        <v>0.38646</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.963032</v>
+        <v>0.962436</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7751749999999999</v>
+        <v>0.770535</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398973</v>
+        <v>0.399783</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00534</v>
+        <v>1.00389</v>
       </c>
       <c r="C49" t="n">
-        <v>0.811144</v>
+        <v>0.803879</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409252</v>
+        <v>0.408718</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04559</v>
+        <v>1.04471</v>
       </c>
       <c r="C50" t="n">
-        <v>0.848158</v>
+        <v>0.83935</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421491</v>
+        <v>0.423424</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09259</v>
+        <v>1.09301</v>
       </c>
       <c r="C51" t="n">
-        <v>0.885783</v>
+        <v>0.872292</v>
       </c>
       <c r="D51" t="n">
-        <v>0.43535</v>
+        <v>0.434792</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13318</v>
+        <v>1.13327</v>
       </c>
       <c r="C52" t="n">
-        <v>0.920201</v>
+        <v>0.908154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447107</v>
+        <v>0.447637</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.17995</v>
+        <v>1.18007</v>
       </c>
       <c r="C53" t="n">
-        <v>0.957422</v>
+        <v>0.94703</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458261</v>
+        <v>0.458369</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22321</v>
+        <v>1.22347</v>
       </c>
       <c r="C54" t="n">
-        <v>0.573306</v>
+        <v>0.5737409999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340854</v>
+        <v>0.340942</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26858</v>
+        <v>1.26889</v>
       </c>
       <c r="C55" t="n">
-        <v>0.59662</v>
+        <v>0.594398</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348964</v>
+        <v>0.348846</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749691</v>
+        <v>0.749408</v>
       </c>
       <c r="C56" t="n">
-        <v>0.621874</v>
+        <v>0.621472</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359328</v>
+        <v>0.359015</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.784155</v>
+        <v>0.783915</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647353</v>
+        <v>0.6452639999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369712</v>
+        <v>0.369484</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818531</v>
+        <v>0.818156</v>
       </c>
       <c r="C58" t="n">
-        <v>0.677276</v>
+        <v>0.676516</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378327</v>
+        <v>0.377666</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.851231</v>
+        <v>0.852564</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708815</v>
+        <v>0.706743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.391893</v>
+        <v>0.391544</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.89366</v>
+        <v>0.8933</v>
       </c>
       <c r="C60" t="n">
-        <v>0.738641</v>
+        <v>0.736264</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402729</v>
+        <v>0.402408</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.931924</v>
+        <v>0.932329</v>
       </c>
       <c r="C61" t="n">
-        <v>0.773932</v>
+        <v>0.769062</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411638</v>
+        <v>0.412235</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971566</v>
+        <v>0.971742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.807122</v>
+        <v>0.806596</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424252</v>
+        <v>0.423036</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01514</v>
+        <v>1.01506</v>
       </c>
       <c r="C63" t="n">
-        <v>0.84237</v>
+        <v>0.8419140000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433242</v>
+        <v>0.433819</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06412</v>
+        <v>1.06299</v>
       </c>
       <c r="C64" t="n">
-        <v>0.880464</v>
+        <v>0.878692</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446539</v>
+        <v>0.446216</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10588</v>
+        <v>1.10512</v>
       </c>
       <c r="C65" t="n">
-        <v>0.917589</v>
+        <v>0.916139</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460704</v>
+        <v>0.45999</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.156</v>
+        <v>1.15166</v>
       </c>
       <c r="C66" t="n">
-        <v>0.957155</v>
+        <v>0.952474</v>
       </c>
       <c r="D66" t="n">
-        <v>0.472858</v>
+        <v>0.472466</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20305</v>
+        <v>1.19717</v>
       </c>
       <c r="C67" t="n">
-        <v>0.999806</v>
+        <v>0.990289</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486718</v>
+        <v>0.485559</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26022</v>
+        <v>1.25292</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591067</v>
+        <v>0.593773</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350021</v>
+        <v>0.35098</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32758</v>
+        <v>1.3226</v>
       </c>
       <c r="C69" t="n">
-        <v>0.624447</v>
+        <v>0.6271409999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.36301</v>
+        <v>0.363156</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7997649999999999</v>
+        <v>0.79684</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6635180000000001</v>
+        <v>0.666187</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376275</v>
+        <v>0.376944</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8488869999999999</v>
+        <v>0.847392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706564</v>
+        <v>0.706842</v>
       </c>
       <c r="D71" t="n">
-        <v>0.388353</v>
+        <v>0.388439</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.90057</v>
+        <v>0.90105</v>
       </c>
       <c r="C72" t="n">
-        <v>0.749866</v>
+        <v>0.7507819999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.402101</v>
+        <v>0.402816</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9583469999999999</v>
+        <v>0.959637</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796915</v>
+        <v>0.8002590000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.419078</v>
+        <v>0.419771</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.01965</v>
+        <v>1.03106</v>
       </c>
       <c r="C74" t="n">
-        <v>0.84722</v>
+        <v>0.858501</v>
       </c>
       <c r="D74" t="n">
-        <v>0.436578</v>
+        <v>0.437566</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.10051</v>
+        <v>1.09969</v>
       </c>
       <c r="C75" t="n">
-        <v>0.917571</v>
+        <v>0.9176029999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.451317</v>
+        <v>0.451781</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18101</v>
+        <v>1.19033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.985123</v>
+        <v>0.990869</v>
       </c>
       <c r="D76" t="n">
-        <v>0.471971</v>
+        <v>0.475496</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28747</v>
+        <v>1.30495</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06995</v>
+        <v>1.0906</v>
       </c>
       <c r="D77" t="n">
-        <v>0.490677</v>
+        <v>0.49628</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39934</v>
+        <v>1.43917</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16695</v>
+        <v>1.20204</v>
       </c>
       <c r="D78" t="n">
-        <v>0.519513</v>
+        <v>0.529524</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5432</v>
+        <v>1.5761</v>
       </c>
       <c r="C79" t="n">
-        <v>1.28789</v>
+        <v>1.31355</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552342</v>
+        <v>0.563462</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.69163</v>
+        <v>1.73107</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41602</v>
+        <v>1.4514</v>
       </c>
       <c r="D80" t="n">
-        <v>0.588601</v>
+        <v>0.597982</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.85964</v>
+        <v>1.8913</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56451</v>
+        <v>1.59218</v>
       </c>
       <c r="D81" t="n">
-        <v>0.629868</v>
+        <v>0.6388</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04681</v>
+        <v>2.07952</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73544</v>
+        <v>1.75056</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64352</v>
+        <v>0.656278</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26285</v>
+        <v>2.29249</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10754</v>
+        <v>1.11654</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50062</v>
+        <v>0.508084</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.5106</v>
+        <v>2.53535</v>
       </c>
       <c r="C84" t="n">
-        <v>1.21427</v>
+        <v>1.22745</v>
       </c>
       <c r="D84" t="n">
-        <v>0.547036</v>
+        <v>0.543883</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59906</v>
+        <v>1.60905</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35045</v>
+        <v>1.35525</v>
       </c>
       <c r="D85" t="n">
-        <v>0.588458</v>
+        <v>0.59336</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76427</v>
+        <v>1.78192</v>
       </c>
       <c r="C86" t="n">
-        <v>1.4875</v>
+        <v>1.49694</v>
       </c>
       <c r="D86" t="n">
-        <v>0.623244</v>
+        <v>0.625279</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9431</v>
+        <v>1.9664</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6384</v>
+        <v>1.65998</v>
       </c>
       <c r="D87" t="n">
-        <v>0.673185</v>
+        <v>0.682312</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15826</v>
+        <v>2.17711</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81978</v>
+        <v>1.83469</v>
       </c>
       <c r="D88" t="n">
-        <v>0.72382</v>
+        <v>0.729355</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38002</v>
+        <v>2.39821</v>
       </c>
       <c r="C89" t="n">
-        <v>2.0171</v>
+        <v>2.03527</v>
       </c>
       <c r="D89" t="n">
-        <v>0.78567</v>
+        <v>0.7931859999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.61529</v>
+        <v>2.63363</v>
       </c>
       <c r="C90" t="n">
-        <v>2.21521</v>
+        <v>2.23015</v>
       </c>
       <c r="D90" t="n">
-        <v>0.845377</v>
+        <v>0.848485</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.87554</v>
+        <v>2.89018</v>
       </c>
       <c r="C91" t="n">
-        <v>2.42274</v>
+        <v>2.4458</v>
       </c>
       <c r="D91" t="n">
-        <v>0.895618</v>
+        <v>0.901257</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.13677</v>
+        <v>3.16205</v>
       </c>
       <c r="C92" t="n">
-        <v>2.66691</v>
+        <v>2.69065</v>
       </c>
       <c r="D92" t="n">
-        <v>0.980006</v>
+        <v>0.977839</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.43154</v>
+        <v>3.45885</v>
       </c>
       <c r="C93" t="n">
-        <v>2.91513</v>
+        <v>2.92495</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05671</v>
+        <v>1.05982</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.72542</v>
+        <v>3.75609</v>
       </c>
       <c r="C94" t="n">
-        <v>3.18594</v>
+        <v>3.19024</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13844</v>
+        <v>1.14203</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.04153</v>
+        <v>4.07605</v>
       </c>
       <c r="C95" t="n">
-        <v>3.43448</v>
+        <v>3.46422</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20712</v>
+        <v>1.21814</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36167</v>
+        <v>4.38765</v>
       </c>
       <c r="C96" t="n">
-        <v>3.73579</v>
+        <v>3.73678</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28344</v>
+        <v>1.28885</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.67966</v>
+        <v>4.69274</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13965</v>
+        <v>2.15703</v>
       </c>
       <c r="D97" t="n">
-        <v>0.927712</v>
+        <v>0.933956</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.97881</v>
+        <v>4.96651</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27946</v>
+        <v>2.28889</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9871450000000001</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83086</v>
+        <v>2.83741</v>
       </c>
       <c r="C99" t="n">
-        <v>2.41307</v>
+        <v>2.42842</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0419</v>
+        <v>1.04924</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.00805</v>
+        <v>3.01807</v>
       </c>
       <c r="C100" t="n">
-        <v>2.55714</v>
+        <v>2.56988</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08875</v>
+        <v>1.09427</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.19551</v>
+        <v>3.21972</v>
       </c>
       <c r="C101" t="n">
-        <v>2.72712</v>
+        <v>2.75031</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15931</v>
+        <v>1.16696</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.41867</v>
+        <v>3.45033</v>
       </c>
       <c r="C102" t="n">
-        <v>2.91543</v>
+        <v>2.93475</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20855</v>
+        <v>1.21405</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.64939</v>
+        <v>3.67732</v>
       </c>
       <c r="C103" t="n">
-        <v>3.10699</v>
+        <v>3.13678</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27668</v>
+        <v>1.28434</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.8909</v>
+        <v>3.92471</v>
       </c>
       <c r="C104" t="n">
-        <v>3.32938</v>
+        <v>3.35167</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33454</v>
+        <v>1.34184</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.16041</v>
+        <v>4.19281</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55436</v>
+        <v>3.59401</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42485</v>
+        <v>1.43285</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.43953</v>
+        <v>4.47199</v>
       </c>
       <c r="C106" t="n">
-        <v>3.8107</v>
+        <v>3.83601</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47363</v>
+        <v>1.48159</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.73343</v>
+        <v>4.76771</v>
       </c>
       <c r="C107" t="n">
-        <v>4.06379</v>
+        <v>4.08859</v>
       </c>
       <c r="D107" t="n">
-        <v>1.55624</v>
+        <v>1.55977</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.02899</v>
+        <v>5.06565</v>
       </c>
       <c r="C108" t="n">
-        <v>4.3335</v>
+        <v>4.36261</v>
       </c>
       <c r="D108" t="n">
-        <v>1.6288</v>
+        <v>1.63979</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.36185</v>
+        <v>5.40588</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59481</v>
+        <v>4.65629</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70468</v>
+        <v>1.71496</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.66233</v>
+        <v>5.72917</v>
       </c>
       <c r="C110" t="n">
-        <v>4.89273</v>
+        <v>4.93694</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79581</v>
+        <v>1.80515</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0324</v>
+        <v>6.09258</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64697</v>
+        <v>2.66853</v>
       </c>
       <c r="D111" t="n">
-        <v>1.31194</v>
+        <v>1.31895</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.38035</v>
+        <v>6.43356</v>
       </c>
       <c r="C112" t="n">
-        <v>2.80418</v>
+        <v>2.82255</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37965</v>
+        <v>1.37807</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.72012</v>
+        <v>6.79487</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97601</v>
+        <v>2.99383</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41091</v>
+        <v>1.41239</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.67948</v>
+        <v>3.71254</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14765</v>
+        <v>3.1809</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46563</v>
+        <v>1.47933</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.90259</v>
+        <v>3.92649</v>
       </c>
       <c r="C115" t="n">
-        <v>3.34496</v>
+        <v>3.37515</v>
       </c>
       <c r="D115" t="n">
-        <v>1.55066</v>
+        <v>1.56443</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.13787</v>
+        <v>4.15821</v>
       </c>
       <c r="C116" t="n">
-        <v>3.54789</v>
+        <v>3.58268</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59103</v>
+        <v>1.59987</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.38041</v>
+        <v>4.40701</v>
       </c>
       <c r="C117" t="n">
-        <v>3.76691</v>
+        <v>3.81264</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66463</v>
+        <v>1.67743</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.62304</v>
+        <v>4.66381</v>
       </c>
       <c r="C118" t="n">
-        <v>4.0151</v>
+        <v>4.03437</v>
       </c>
       <c r="D118" t="n">
-        <v>1.73191</v>
+        <v>1.73552</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90335</v>
+        <v>4.93612</v>
       </c>
       <c r="C119" t="n">
-        <v>4.25262</v>
+        <v>4.29967</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80286</v>
+        <v>1.80909</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.335581</v>
+        <v>0.336952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222842</v>
+        <v>0.223056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248135</v>
+        <v>0.248547</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25546</v>
+        <v>0.254116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224989</v>
+        <v>0.225304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250771</v>
+        <v>0.250429</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.263579</v>
+        <v>0.262402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230121</v>
+        <v>0.230105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256642</v>
+        <v>0.255839</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271801</v>
+        <v>0.269534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235202</v>
+        <v>0.234538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262427</v>
+        <v>0.260921</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.281005</v>
+        <v>0.278271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239578</v>
+        <v>0.239132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268652</v>
+        <v>0.266028</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.28971</v>
+        <v>0.287681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200924</v>
+        <v>0.198538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.223693</v>
+        <v>0.22242</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.295463</v>
+        <v>0.29481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204741</v>
+        <v>0.203688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229481</v>
+        <v>0.229263</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305782</v>
+        <v>0.304543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.208419</v>
+        <v>0.208185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235852</v>
+        <v>0.234521</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.313563</v>
+        <v>0.312835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212703</v>
+        <v>0.214123</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243141</v>
+        <v>0.242413</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.318909</v>
+        <v>0.320375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219353</v>
+        <v>0.219435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249867</v>
+        <v>0.249864</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329687</v>
+        <v>0.330994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226401</v>
+        <v>0.227058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25871</v>
+        <v>0.259102</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.337305</v>
+        <v>0.339772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.231369</v>
+        <v>0.232211</v>
       </c>
       <c r="D13" t="n">
-        <v>0.264778</v>
+        <v>0.265214</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.346367</v>
+        <v>0.349395</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236603</v>
+        <v>0.236829</v>
       </c>
       <c r="D14" t="n">
-        <v>0.271538</v>
+        <v>0.270773</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.35731</v>
+        <v>0.359191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24179</v>
+        <v>0.242576</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276655</v>
+        <v>0.276969</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.365337</v>
+        <v>0.367672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246434</v>
+        <v>0.247141</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282494</v>
+        <v>0.282986</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.377069</v>
+        <v>0.379317</v>
       </c>
       <c r="C17" t="n">
-        <v>0.252401</v>
+        <v>0.253934</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290244</v>
+        <v>0.290867</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287051</v>
+        <v>0.288451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.255645</v>
+        <v>0.257156</v>
       </c>
       <c r="D18" t="n">
-        <v>0.293563</v>
+        <v>0.294353</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294868</v>
+        <v>0.295951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261828</v>
+        <v>0.263108</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300892</v>
+        <v>0.300707</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.304664</v>
+        <v>0.30607</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269692</v>
+        <v>0.270397</v>
       </c>
       <c r="D20" t="n">
-        <v>0.30991</v>
+        <v>0.309218</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.314402</v>
+        <v>0.315148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215413</v>
+        <v>0.216172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24675</v>
+        <v>0.246952</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.322875</v>
+        <v>0.325018</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222106</v>
+        <v>0.223302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252845</v>
+        <v>0.253521</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.331492</v>
+        <v>0.332638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22789</v>
+        <v>0.228758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261133</v>
+        <v>0.261104</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.338621</v>
+        <v>0.339985</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232882</v>
+        <v>0.233182</v>
       </c>
       <c r="D24" t="n">
-        <v>0.266267</v>
+        <v>0.267086</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346993</v>
+        <v>0.347756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238038</v>
+        <v>0.238486</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273025</v>
+        <v>0.273962</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.356248</v>
+        <v>0.357583</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245155</v>
+        <v>0.245173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.280237</v>
+        <v>0.281269</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.364568</v>
+        <v>0.365958</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248018</v>
+        <v>0.249262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286591</v>
+        <v>0.287543</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.372233</v>
+        <v>0.375311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253352</v>
+        <v>0.25456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293021</v>
+        <v>0.2939</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.382158</v>
+        <v>0.383964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.259363</v>
+        <v>0.26051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300233</v>
+        <v>0.301093</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.390244</v>
+        <v>0.391971</v>
       </c>
       <c r="C30" t="n">
-        <v>0.264072</v>
+        <v>0.26519</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307182</v>
+        <v>0.307239</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.399353</v>
+        <v>0.400874</v>
       </c>
       <c r="C31" t="n">
-        <v>0.26908</v>
+        <v>0.270072</v>
       </c>
       <c r="D31" t="n">
-        <v>0.312127</v>
+        <v>0.312809</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.296391</v>
+        <v>0.297785</v>
       </c>
       <c r="C32" t="n">
-        <v>0.274617</v>
+        <v>0.275069</v>
       </c>
       <c r="D32" t="n">
-        <v>0.318784</v>
+        <v>0.319645</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305022</v>
+        <v>0.305538</v>
       </c>
       <c r="C33" t="n">
-        <v>0.279508</v>
+        <v>0.280535</v>
       </c>
       <c r="D33" t="n">
-        <v>0.324877</v>
+        <v>0.325797</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.312588</v>
+        <v>0.313135</v>
       </c>
       <c r="C34" t="n">
-        <v>0.285433</v>
+        <v>0.286236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.330912</v>
+        <v>0.332129</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.321784</v>
+        <v>0.322524</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225711</v>
+        <v>0.22615</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258932</v>
+        <v>0.258763</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.330325</v>
+        <v>0.332494</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231665</v>
+        <v>0.232044</v>
       </c>
       <c r="D36" t="n">
-        <v>0.26454</v>
+        <v>0.264857</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.338772</v>
+        <v>0.339596</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236829</v>
+        <v>0.237357</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270762</v>
+        <v>0.271244</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.346473</v>
+        <v>0.347698</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242196</v>
+        <v>0.242599</v>
       </c>
       <c r="D38" t="n">
-        <v>0.276923</v>
+        <v>0.277466</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355447</v>
+        <v>0.356209</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248016</v>
+        <v>0.248331</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284013</v>
+        <v>0.284462</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364343</v>
+        <v>0.365331</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252843</v>
+        <v>0.25334</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290679</v>
+        <v>0.291053</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372496</v>
+        <v>0.373536</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258384</v>
+        <v>0.258639</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298054</v>
+        <v>0.298285</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.380183</v>
+        <v>0.380976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.263333</v>
+        <v>0.263703</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303712</v>
+        <v>0.303901</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.390164</v>
+        <v>0.391305</v>
       </c>
       <c r="C43" t="n">
-        <v>0.268833</v>
+        <v>0.269221</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310962</v>
+        <v>0.311159</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.398539</v>
+        <v>0.399563</v>
       </c>
       <c r="C44" t="n">
-        <v>0.273584</v>
+        <v>0.274038</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317058</v>
+        <v>0.318012</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.406556</v>
+        <v>0.408298</v>
       </c>
       <c r="C45" t="n">
-        <v>0.278326</v>
+        <v>0.278842</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323356</v>
+        <v>0.323848</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.417646</v>
+        <v>0.418637</v>
       </c>
       <c r="C46" t="n">
-        <v>0.282963</v>
+        <v>0.283534</v>
       </c>
       <c r="D46" t="n">
-        <v>0.32834</v>
+        <v>0.329216</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305689</v>
+        <v>0.305445</v>
       </c>
       <c r="C47" t="n">
-        <v>0.288314</v>
+        <v>0.288542</v>
       </c>
       <c r="D47" t="n">
-        <v>0.334694</v>
+        <v>0.33534</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.312991</v>
+        <v>0.312875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.293517</v>
+        <v>0.293743</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342429</v>
+        <v>0.342868</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321785</v>
+        <v>0.322596</v>
       </c>
       <c r="C49" t="n">
-        <v>0.298769</v>
+        <v>0.298956</v>
       </c>
       <c r="D49" t="n">
-        <v>0.35182</v>
+        <v>0.352656</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330165</v>
+        <v>0.330926</v>
       </c>
       <c r="C50" t="n">
-        <v>0.234389</v>
+        <v>0.234329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.262412</v>
+        <v>0.263771</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338256</v>
+        <v>0.338442</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239995</v>
+        <v>0.239993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270199</v>
+        <v>0.270136</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347388</v>
+        <v>0.3477</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245796</v>
+        <v>0.245912</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27738</v>
+        <v>0.27737</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355796</v>
+        <v>0.355853</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251238</v>
+        <v>0.25145</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284784</v>
+        <v>0.28487</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.36429</v>
+        <v>0.364568</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256847</v>
+        <v>0.257007</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291398</v>
+        <v>0.291383</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372498</v>
+        <v>0.37262</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262319</v>
+        <v>0.262437</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29879</v>
+        <v>0.29868</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.380954</v>
+        <v>0.381143</v>
       </c>
       <c r="C56" t="n">
-        <v>0.267842</v>
+        <v>0.267703</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305493</v>
+        <v>0.305526</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390072</v>
+        <v>0.390233</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27243</v>
+        <v>0.272328</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312501</v>
+        <v>0.31234</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399192</v>
+        <v>0.39929</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276906</v>
+        <v>0.276835</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318981</v>
+        <v>0.318839</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407755</v>
+        <v>0.407789</v>
       </c>
       <c r="C59" t="n">
-        <v>0.281692</v>
+        <v>0.282225</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325443</v>
+        <v>0.326581</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.417515</v>
+        <v>0.419242</v>
       </c>
       <c r="C60" t="n">
-        <v>0.28694</v>
+        <v>0.286919</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332802</v>
+        <v>0.333272</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.306756</v>
+        <v>0.309473</v>
       </c>
       <c r="C61" t="n">
-        <v>0.291982</v>
+        <v>0.292534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339913</v>
+        <v>0.340423</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.318241</v>
+        <v>0.320837</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297208</v>
+        <v>0.297544</v>
       </c>
       <c r="D62" t="n">
-        <v>0.347021</v>
+        <v>0.347051</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.328851</v>
+        <v>0.331887</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303288</v>
+        <v>0.303812</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354211</v>
+        <v>0.354544</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.339411</v>
+        <v>0.342334</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241417</v>
+        <v>0.242815</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27457</v>
+        <v>0.27626</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.347868</v>
+        <v>0.349705</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248066</v>
+        <v>0.248944</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283267</v>
+        <v>0.283369</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.358559</v>
+        <v>0.361395</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256856</v>
+        <v>0.258751</v>
       </c>
       <c r="D66" t="n">
-        <v>0.290724</v>
+        <v>0.292505</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.369908</v>
+        <v>0.37302</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262016</v>
+        <v>0.265023</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300335</v>
+        <v>0.301229</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382011</v>
+        <v>0.385694</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268781</v>
+        <v>0.272759</v>
       </c>
       <c r="D68" t="n">
-        <v>0.310152</v>
+        <v>0.310858</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.395906</v>
+        <v>0.397624</v>
       </c>
       <c r="C69" t="n">
-        <v>0.275142</v>
+        <v>0.280671</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320095</v>
+        <v>0.322436</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.410017</v>
+        <v>0.413326</v>
       </c>
       <c r="C70" t="n">
-        <v>0.285381</v>
+        <v>0.286976</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331518</v>
+        <v>0.332964</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.42701</v>
+        <v>0.430699</v>
       </c>
       <c r="C71" t="n">
-        <v>0.294183</v>
+        <v>0.298241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.342766</v>
+        <v>0.347045</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.443925</v>
+        <v>0.454232</v>
       </c>
       <c r="C72" t="n">
-        <v>0.304488</v>
+        <v>0.312202</v>
       </c>
       <c r="D72" t="n">
-        <v>0.356276</v>
+        <v>0.364404</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.464429</v>
+        <v>0.483953</v>
       </c>
       <c r="C73" t="n">
-        <v>0.313095</v>
+        <v>0.322207</v>
       </c>
       <c r="D73" t="n">
-        <v>0.370067</v>
+        <v>0.379764</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.482217</v>
+        <v>0.502433</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323478</v>
+        <v>0.3369</v>
       </c>
       <c r="D74" t="n">
-        <v>0.382461</v>
+        <v>0.396465</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.501557</v>
+        <v>0.527437</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334896</v>
+        <v>0.350594</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397739</v>
+        <v>0.41311</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.47429</v>
+        <v>0.490845</v>
       </c>
       <c r="C76" t="n">
-        <v>0.354923</v>
+        <v>0.364132</v>
       </c>
       <c r="D76" t="n">
-        <v>0.421465</v>
+        <v>0.435692</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.503349</v>
+        <v>0.515162</v>
       </c>
       <c r="C77" t="n">
-        <v>0.373168</v>
+        <v>0.38205</v>
       </c>
       <c r="D77" t="n">
-        <v>0.446567</v>
+        <v>0.455978</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.531789</v>
+        <v>0.540998</v>
       </c>
       <c r="C78" t="n">
-        <v>0.337942</v>
+        <v>0.333591</v>
       </c>
       <c r="D78" t="n">
-        <v>0.411376</v>
+        <v>0.404154</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.559735</v>
+        <v>0.569181</v>
       </c>
       <c r="C79" t="n">
-        <v>0.35607</v>
+        <v>0.352737</v>
       </c>
       <c r="D79" t="n">
-        <v>0.436252</v>
+        <v>0.429199</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.593161</v>
+        <v>0.602692</v>
       </c>
       <c r="C80" t="n">
-        <v>0.383507</v>
+        <v>0.378335</v>
       </c>
       <c r="D80" t="n">
-        <v>0.459283</v>
+        <v>0.456096</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.629399</v>
+        <v>0.6340519999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.398492</v>
+        <v>0.39712</v>
       </c>
       <c r="D81" t="n">
-        <v>0.483905</v>
+        <v>0.479694</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.665291</v>
+        <v>0.669849</v>
       </c>
       <c r="C82" t="n">
-        <v>0.415776</v>
+        <v>0.416797</v>
       </c>
       <c r="D82" t="n">
-        <v>0.511501</v>
+        <v>0.508505</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.703</v>
+        <v>0.7079490000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.435485</v>
+        <v>0.439212</v>
       </c>
       <c r="D83" t="n">
-        <v>0.537456</v>
+        <v>0.534876</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7352919999999999</v>
+        <v>0.740814</v>
       </c>
       <c r="C84" t="n">
-        <v>0.458738</v>
+        <v>0.458599</v>
       </c>
       <c r="D84" t="n">
-        <v>0.566265</v>
+        <v>0.561234</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.773873</v>
+        <v>0.779865</v>
       </c>
       <c r="C85" t="n">
-        <v>0.482083</v>
+        <v>0.479324</v>
       </c>
       <c r="D85" t="n">
-        <v>0.595881</v>
+        <v>0.589665</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8153010000000001</v>
+        <v>0.823605</v>
       </c>
       <c r="C86" t="n">
-        <v>0.50513</v>
+        <v>0.503285</v>
       </c>
       <c r="D86" t="n">
-        <v>0.625182</v>
+        <v>0.619467</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.856621</v>
+        <v>0.8619869999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.528481</v>
+        <v>0.528601</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6540820000000001</v>
+        <v>0.65033</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.898966</v>
+        <v>0.906938</v>
       </c>
       <c r="C88" t="n">
-        <v>0.553652</v>
+        <v>0.553905</v>
       </c>
       <c r="D88" t="n">
-        <v>0.690966</v>
+        <v>0.688318</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.945725</v>
+        <v>0.954425</v>
       </c>
       <c r="C89" t="n">
-        <v>0.579974</v>
+        <v>0.5800959999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.723462</v>
+        <v>0.725442</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.826868</v>
+        <v>0.8303160000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.606146</v>
+        <v>0.60783</v>
       </c>
       <c r="D90" t="n">
-        <v>0.746318</v>
+        <v>0.744752</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.855194</v>
+        <v>0.859826</v>
       </c>
       <c r="C91" t="n">
-        <v>0.634547</v>
+        <v>0.635916</v>
       </c>
       <c r="D91" t="n">
-        <v>0.778967</v>
+        <v>0.777543</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.883589</v>
+        <v>0.890321</v>
       </c>
       <c r="C92" t="n">
-        <v>0.536406</v>
+        <v>0.536696</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6726259999999999</v>
+        <v>0.668585</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.912784</v>
+        <v>0.920988</v>
       </c>
       <c r="C93" t="n">
-        <v>0.553052</v>
+        <v>0.553389</v>
       </c>
       <c r="D93" t="n">
-        <v>0.698168</v>
+        <v>0.696277</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.942508</v>
+        <v>0.952429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.570211</v>
+        <v>0.57224</v>
       </c>
       <c r="D94" t="n">
-        <v>0.715865</v>
+        <v>0.711396</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.973568</v>
+        <v>0.983375</v>
       </c>
       <c r="C95" t="n">
-        <v>0.588188</v>
+        <v>0.5891380000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.751595</v>
+        <v>0.749709</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00113</v>
+        <v>1.01143</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6092919999999999</v>
+        <v>0.620582</v>
       </c>
       <c r="D96" t="n">
-        <v>0.777196</v>
+        <v>0.775844</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03195</v>
+        <v>1.04385</v>
       </c>
       <c r="C97" t="n">
-        <v>0.628134</v>
+        <v>0.641042</v>
       </c>
       <c r="D97" t="n">
-        <v>0.805238</v>
+        <v>0.810856</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0677</v>
+        <v>1.0894</v>
       </c>
       <c r="C98" t="n">
-        <v>0.647068</v>
+        <v>0.650105</v>
       </c>
       <c r="D98" t="n">
-        <v>0.833722</v>
+        <v>0.832449</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.1048</v>
+        <v>1.11972</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6678500000000001</v>
+        <v>0.671807</v>
       </c>
       <c r="D99" t="n">
-        <v>0.860796</v>
+        <v>0.860563</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1386</v>
+        <v>1.15717</v>
       </c>
       <c r="C100" t="n">
-        <v>0.689192</v>
+        <v>0.6945210000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.889737</v>
+        <v>0.896294</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1645</v>
+        <v>1.18466</v>
       </c>
       <c r="C101" t="n">
-        <v>0.711885</v>
+        <v>0.72272</v>
       </c>
       <c r="D101" t="n">
-        <v>0.919036</v>
+        <v>0.93348</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20033</v>
+        <v>1.23018</v>
       </c>
       <c r="C102" t="n">
-        <v>0.736131</v>
+        <v>0.748452</v>
       </c>
       <c r="D102" t="n">
-        <v>0.952574</v>
+        <v>0.972043</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23906</v>
+        <v>1.27105</v>
       </c>
       <c r="C103" t="n">
-        <v>0.761524</v>
+        <v>0.776562</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9840370000000001</v>
+        <v>1.00668</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27884</v>
+        <v>1.31485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.787119</v>
+        <v>0.8029849999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01716</v>
+        <v>1.04064</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01568</v>
+        <v>1.05755</v>
       </c>
       <c r="C105" t="n">
-        <v>0.815388</v>
+        <v>0.840168</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04792</v>
+        <v>1.08145</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04767</v>
+        <v>1.08736</v>
       </c>
       <c r="C106" t="n">
-        <v>0.842462</v>
+        <v>0.86668</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08241</v>
+        <v>1.11232</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07366</v>
+        <v>1.10997</v>
       </c>
       <c r="C107" t="n">
-        <v>0.65879</v>
+        <v>0.68228</v>
       </c>
       <c r="D107" t="n">
-        <v>0.891278</v>
+        <v>0.929145</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08791</v>
+        <v>1.13958</v>
       </c>
       <c r="C108" t="n">
-        <v>0.667883</v>
+        <v>0.696801</v>
       </c>
       <c r="D108" t="n">
-        <v>0.901941</v>
+        <v>0.947034</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12446</v>
+        <v>1.17535</v>
       </c>
       <c r="C109" t="n">
-        <v>0.692928</v>
+        <v>0.7196669999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.943375</v>
+        <v>0.9805469999999999</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15116</v>
+        <v>1.19665</v>
       </c>
       <c r="C110" t="n">
-        <v>0.710788</v>
+        <v>0.732654</v>
       </c>
       <c r="D110" t="n">
-        <v>0.969375</v>
+        <v>0.999817</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18088</v>
+        <v>1.22078</v>
       </c>
       <c r="C111" t="n">
-        <v>0.728245</v>
+        <v>0.740803</v>
       </c>
       <c r="D111" t="n">
-        <v>0.997803</v>
+        <v>1.02723</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21448</v>
+        <v>1.26475</v>
       </c>
       <c r="C112" t="n">
-        <v>0.745336</v>
+        <v>0.7710360000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0213</v>
+        <v>1.05907</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.24702</v>
+        <v>1.28943</v>
       </c>
       <c r="C113" t="n">
-        <v>0.765069</v>
+        <v>0.791138</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04887</v>
+        <v>1.08229</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.27376</v>
+        <v>1.31404</v>
       </c>
       <c r="C114" t="n">
-        <v>0.786153</v>
+        <v>0.811123</v>
       </c>
       <c r="D114" t="n">
-        <v>1.08447</v>
+        <v>1.1292</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31265</v>
+        <v>1.36552</v>
       </c>
       <c r="C115" t="n">
-        <v>0.808552</v>
+        <v>0.840124</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11897</v>
+        <v>1.14675</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35023</v>
+        <v>1.39235</v>
       </c>
       <c r="C116" t="n">
-        <v>0.834524</v>
+        <v>0.855073</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14327</v>
+        <v>1.18158</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.38635</v>
+        <v>1.43257</v>
       </c>
       <c r="C117" t="n">
-        <v>0.859084</v>
+        <v>0.88056</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17457</v>
+        <v>1.21453</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.42595</v>
+        <v>1.48045</v>
       </c>
       <c r="C118" t="n">
-        <v>0.884775</v>
+        <v>0.906229</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21258</v>
+        <v>1.25035</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11425</v>
+        <v>1.15215</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9126649999999999</v>
+        <v>0.9366679999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23619</v>
+        <v>1.28176</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.265683</v>
+        <v>0.270111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.172375</v>
+        <v>0.175118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140058</v>
+        <v>0.140944</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197469</v>
+        <v>0.194947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176936</v>
+        <v>0.178447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141298</v>
+        <v>0.141596</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20395</v>
+        <v>0.20087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.182842</v>
+        <v>0.184551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145607</v>
+        <v>0.145399</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.212651</v>
+        <v>0.209811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192947</v>
+        <v>0.193833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.149466</v>
+        <v>0.150355</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216174</v>
+        <v>0.215306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196483</v>
+        <v>0.197398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153942</v>
+        <v>0.15364</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224295</v>
+        <v>0.223902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160368</v>
+        <v>0.161128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136838</v>
+        <v>0.138715</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229561</v>
+        <v>0.228314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16325</v>
+        <v>0.161996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.139719</v>
+        <v>0.139506</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237046</v>
+        <v>0.236182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.166527</v>
+        <v>0.172519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140359</v>
+        <v>0.144603</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.244475</v>
+        <v>0.244432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173104</v>
+        <v>0.17345</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144074</v>
+        <v>0.14612</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.251289</v>
+        <v>0.252709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175031</v>
+        <v>0.18024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.146174</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261466</v>
+        <v>0.262513</v>
       </c>
       <c r="C12" t="n">
-        <v>0.184538</v>
+        <v>0.185672</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151503</v>
+        <v>0.153916</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.269292</v>
+        <v>0.269765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.190031</v>
+        <v>0.192086</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154282</v>
+        <v>0.156939</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.277891</v>
+        <v>0.280901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196323</v>
+        <v>0.197507</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158173</v>
+        <v>0.15898</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.293137</v>
+        <v>0.29422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.202984</v>
+        <v>0.204915</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161156</v>
+        <v>0.164728</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.300832</v>
+        <v>0.303715</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210641</v>
+        <v>0.212983</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165543</v>
+        <v>0.166959</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.313233</v>
+        <v>0.316152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218398</v>
+        <v>0.219916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.169677</v>
+        <v>0.171073</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.231787</v>
+        <v>0.234137</v>
       </c>
       <c r="C18" t="n">
-        <v>0.224754</v>
+        <v>0.225959</v>
       </c>
       <c r="D18" t="n">
-        <v>0.173176</v>
+        <v>0.172985</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240373</v>
+        <v>0.241362</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231284</v>
+        <v>0.232883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178922</v>
+        <v>0.178009</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245682</v>
+        <v>0.246702</v>
       </c>
       <c r="C20" t="n">
-        <v>0.240822</v>
+        <v>0.242262</v>
       </c>
       <c r="D20" t="n">
-        <v>0.180498</v>
+        <v>0.184655</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251021</v>
+        <v>0.253946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194726</v>
+        <v>0.195709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166392</v>
+        <v>0.169188</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25737</v>
+        <v>0.259094</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199717</v>
+        <v>0.201314</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16971</v>
+        <v>0.172128</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267076</v>
+        <v>0.268887</v>
       </c>
       <c r="C23" t="n">
-        <v>0.206544</v>
+        <v>0.205328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173172</v>
+        <v>0.172882</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.274182</v>
+        <v>0.276497</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210573</v>
+        <v>0.209344</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174426</v>
+        <v>0.176919</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282109</v>
+        <v>0.283911</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2161</v>
+        <v>0.214781</v>
       </c>
       <c r="D25" t="n">
-        <v>0.17668</v>
+        <v>0.179337</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29098</v>
+        <v>0.292248</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221743</v>
+        <v>0.220625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180847</v>
+        <v>0.182407</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.300246</v>
+        <v>0.301461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224135</v>
+        <v>0.225415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18306</v>
+        <v>0.185578</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.311921</v>
+        <v>0.312735</v>
       </c>
       <c r="C28" t="n">
-        <v>0.230131</v>
+        <v>0.23107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185877</v>
+        <v>0.188332</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322074</v>
+        <v>0.322783</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23518</v>
+        <v>0.236372</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188956</v>
+        <v>0.191473</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.33125</v>
+        <v>0.331787</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241637</v>
+        <v>0.242932</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192921</v>
+        <v>0.195045</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.343489</v>
+        <v>0.344087</v>
       </c>
       <c r="C31" t="n">
-        <v>0.246161</v>
+        <v>0.247527</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195821</v>
+        <v>0.198017</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248606</v>
+        <v>0.248424</v>
       </c>
       <c r="C32" t="n">
-        <v>0.254531</v>
+        <v>0.255622</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199813</v>
+        <v>0.203213</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254718</v>
+        <v>0.25495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.26213</v>
+        <v>0.262963</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203915</v>
+        <v>0.206481</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261111</v>
+        <v>0.261908</v>
       </c>
       <c r="C34" t="n">
-        <v>0.268927</v>
+        <v>0.269882</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207489</v>
+        <v>0.211104</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268791</v>
+        <v>0.268795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208115</v>
+        <v>0.208081</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181319</v>
+        <v>0.181187</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274673</v>
+        <v>0.275216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213392</v>
+        <v>0.213428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18382</v>
+        <v>0.183874</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280588</v>
+        <v>0.281359</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217166</v>
+        <v>0.217128</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186574</v>
+        <v>0.186739</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288508</v>
+        <v>0.289101</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222395</v>
+        <v>0.222707</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189714</v>
+        <v>0.189698</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295185</v>
+        <v>0.296253</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227051</v>
+        <v>0.227224</v>
       </c>
       <c r="D39" t="n">
-        <v>0.192061</v>
+        <v>0.19214</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304565</v>
+        <v>0.305275</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232877</v>
+        <v>0.232978</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195111</v>
+        <v>0.195393</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3151</v>
+        <v>0.315522</v>
       </c>
       <c r="C41" t="n">
-        <v>0.237813</v>
+        <v>0.237772</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197842</v>
+        <v>0.197913</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324892</v>
+        <v>0.325219</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241475</v>
+        <v>0.241642</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200649</v>
+        <v>0.200651</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335539</v>
+        <v>0.336212</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248076</v>
+        <v>0.248133</v>
       </c>
       <c r="D43" t="n">
-        <v>0.203854</v>
+        <v>0.204087</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344218</v>
+        <v>0.344533</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254618</v>
+        <v>0.25476</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207344</v>
+        <v>0.207378</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.356301</v>
+        <v>0.355673</v>
       </c>
       <c r="C45" t="n">
-        <v>0.26086</v>
+        <v>0.260903</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2103</v>
+        <v>0.209961</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368104</v>
+        <v>0.368471</v>
       </c>
       <c r="C46" t="n">
-        <v>0.266717</v>
+        <v>0.266719</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214365</v>
+        <v>0.214551</v>
       </c>
     </row>
     <row r="47">
@@ -10005,10 +10005,10 @@
         <v>0.26025</v>
       </c>
       <c r="C47" t="n">
-        <v>0.273511</v>
+        <v>0.273562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217879</v>
+        <v>0.217926</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265387</v>
+        <v>0.265419</v>
       </c>
       <c r="C48" t="n">
-        <v>0.280163</v>
+        <v>0.280412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221563</v>
+        <v>0.221865</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272552</v>
+        <v>0.272531</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288516</v>
+        <v>0.288627</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225575</v>
+        <v>0.225726</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2793</v>
+        <v>0.279242</v>
       </c>
       <c r="C50" t="n">
-        <v>0.218131</v>
+        <v>0.218099</v>
       </c>
       <c r="D50" t="n">
-        <v>0.186056</v>
+        <v>0.185748</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285474</v>
+        <v>0.285592</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222413</v>
+        <v>0.222575</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187769</v>
+        <v>0.187591</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292687</v>
+        <v>0.292558</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227647</v>
+        <v>0.227583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190947</v>
+        <v>0.190855</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301389</v>
+        <v>0.30162</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233345</v>
+        <v>0.232915</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193733</v>
+        <v>0.193592</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309786</v>
+        <v>0.309908</v>
       </c>
       <c r="C54" t="n">
-        <v>0.237765</v>
+        <v>0.237933</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196217</v>
+        <v>0.196146</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.319283</v>
+        <v>0.31935</v>
       </c>
       <c r="C55" t="n">
-        <v>0.243113</v>
+        <v>0.242976</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199687</v>
+        <v>0.199957</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328892</v>
+        <v>0.329038</v>
       </c>
       <c r="C56" t="n">
-        <v>0.247896</v>
+        <v>0.247807</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202296</v>
+        <v>0.202079</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338695</v>
+        <v>0.338825</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25414</v>
+        <v>0.254124</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205972</v>
+        <v>0.205845</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348202</v>
+        <v>0.348015</v>
       </c>
       <c r="C58" t="n">
-        <v>0.260741</v>
+        <v>0.260369</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20913</v>
+        <v>0.209086</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359825</v>
+        <v>0.359943</v>
       </c>
       <c r="C59" t="n">
-        <v>0.266663</v>
+        <v>0.266177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211965</v>
+        <v>0.212018</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.370839</v>
+        <v>0.369958</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2724</v>
+        <v>0.271937</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216789</v>
+        <v>0.216453</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264489</v>
+        <v>0.264772</v>
       </c>
       <c r="C61" t="n">
-        <v>0.280217</v>
+        <v>0.279701</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220061</v>
+        <v>0.219711</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274323</v>
+        <v>0.273425</v>
       </c>
       <c r="C62" t="n">
-        <v>0.287608</v>
+        <v>0.28711</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224019</v>
+        <v>0.223878</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.284017</v>
+        <v>0.283509</v>
       </c>
       <c r="C63" t="n">
-        <v>0.295951</v>
+        <v>0.295459</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228183</v>
+        <v>0.227748</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.295813</v>
+        <v>0.294178</v>
       </c>
       <c r="C64" t="n">
-        <v>0.232002</v>
+        <v>0.232967</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197214</v>
+        <v>0.197218</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.301812</v>
+        <v>0.303012</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238624</v>
+        <v>0.239429</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198554</v>
+        <v>0.198927</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312058</v>
+        <v>0.312714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.249669</v>
+        <v>0.248977</v>
       </c>
       <c r="D66" t="n">
-        <v>0.202713</v>
+        <v>0.203121</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.326488</v>
+        <v>0.326788</v>
       </c>
       <c r="C67" t="n">
-        <v>0.254016</v>
+        <v>0.255635</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207376</v>
+        <v>0.207668</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340736</v>
+        <v>0.341283</v>
       </c>
       <c r="C68" t="n">
-        <v>0.267771</v>
+        <v>0.263804</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211392</v>
+        <v>0.212071</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.354012</v>
+        <v>0.358072</v>
       </c>
       <c r="C69" t="n">
-        <v>0.280562</v>
+        <v>0.273442</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216471</v>
+        <v>0.216862</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.370538</v>
+        <v>0.376988</v>
       </c>
       <c r="C70" t="n">
-        <v>0.284332</v>
+        <v>0.285214</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224128</v>
+        <v>0.223684</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393767</v>
+        <v>0.395756</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297803</v>
+        <v>0.297341</v>
       </c>
       <c r="D71" t="n">
-        <v>0.227606</v>
+        <v>0.227681</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.416721</v>
+        <v>0.41679</v>
       </c>
       <c r="C72" t="n">
-        <v>0.310321</v>
+        <v>0.308739</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233831</v>
+        <v>0.233923</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.438624</v>
+        <v>0.438122</v>
       </c>
       <c r="C73" t="n">
-        <v>0.325103</v>
+        <v>0.324342</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24083</v>
+        <v>0.241976</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.461998</v>
+        <v>0.463567</v>
       </c>
       <c r="C74" t="n">
-        <v>0.342563</v>
+        <v>0.340636</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247884</v>
+        <v>0.247032</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.494738</v>
+        <v>0.492239</v>
       </c>
       <c r="C75" t="n">
-        <v>0.363189</v>
+        <v>0.362144</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256751</v>
+        <v>0.256325</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.422556</v>
+        <v>0.421064</v>
       </c>
       <c r="C76" t="n">
-        <v>0.388144</v>
+        <v>0.386435</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26661</v>
+        <v>0.264256</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452106</v>
+        <v>0.444392</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413603</v>
+        <v>0.414462</v>
       </c>
       <c r="D77" t="n">
-        <v>0.278553</v>
+        <v>0.276915</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.48507</v>
+        <v>0.4805</v>
       </c>
       <c r="C78" t="n">
-        <v>0.37323</v>
+        <v>0.373805</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266927</v>
+        <v>0.265008</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.516881</v>
+        <v>0.51812</v>
       </c>
       <c r="C79" t="n">
-        <v>0.395102</v>
+        <v>0.394007</v>
       </c>
       <c r="D79" t="n">
-        <v>0.277611</v>
+        <v>0.273756</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.553391</v>
+        <v>0.553042</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4252</v>
+        <v>0.417215</v>
       </c>
       <c r="D80" t="n">
-        <v>0.289058</v>
+        <v>0.287173</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.596623</v>
+        <v>0.59363</v>
       </c>
       <c r="C81" t="n">
-        <v>0.454804</v>
+        <v>0.447211</v>
       </c>
       <c r="D81" t="n">
-        <v>0.30911</v>
+        <v>0.304022</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.638113</v>
+        <v>0.635719</v>
       </c>
       <c r="C82" t="n">
-        <v>0.482062</v>
+        <v>0.477588</v>
       </c>
       <c r="D82" t="n">
-        <v>0.323728</v>
+        <v>0.322442</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.684014</v>
+        <v>0.684836</v>
       </c>
       <c r="C83" t="n">
-        <v>0.514572</v>
+        <v>0.510531</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335403</v>
+        <v>0.333407</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.737857</v>
+        <v>0.740736</v>
       </c>
       <c r="C84" t="n">
-        <v>0.546591</v>
+        <v>0.547014</v>
       </c>
       <c r="D84" t="n">
-        <v>0.359747</v>
+        <v>0.358058</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.789999</v>
+        <v>0.79042</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5798410000000001</v>
+        <v>0.581752</v>
       </c>
       <c r="D85" t="n">
-        <v>0.380605</v>
+        <v>0.379102</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.849353</v>
+        <v>0.849167</v>
       </c>
       <c r="C86" t="n">
-        <v>0.617027</v>
+        <v>0.617967</v>
       </c>
       <c r="D86" t="n">
-        <v>0.398837</v>
+        <v>0.39853</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.909142</v>
+        <v>0.909859</v>
       </c>
       <c r="C87" t="n">
-        <v>0.657713</v>
+        <v>0.658249</v>
       </c>
       <c r="D87" t="n">
-        <v>0.425398</v>
+        <v>0.422751</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.975818</v>
+        <v>0.978955</v>
       </c>
       <c r="C88" t="n">
-        <v>0.697488</v>
+        <v>0.6975</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449033</v>
+        <v>0.444706</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04851</v>
+        <v>1.04976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.739484</v>
+        <v>0.740303</v>
       </c>
       <c r="D89" t="n">
-        <v>0.472245</v>
+        <v>0.471618</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.828402</v>
+        <v>0.834243</v>
       </c>
       <c r="C90" t="n">
-        <v>0.778496</v>
+        <v>0.779515</v>
       </c>
       <c r="D90" t="n">
-        <v>0.497402</v>
+        <v>0.496771</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.86343</v>
+        <v>0.864096</v>
       </c>
       <c r="C91" t="n">
-        <v>0.823097</v>
+        <v>0.82419</v>
       </c>
       <c r="D91" t="n">
-        <v>0.521062</v>
+        <v>0.519194</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9013949999999999</v>
+        <v>0.903352</v>
       </c>
       <c r="C92" t="n">
-        <v>0.690344</v>
+        <v>0.694485</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5049979999999999</v>
+        <v>0.508681</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.938248</v>
+        <v>0.940961</v>
       </c>
       <c r="C93" t="n">
-        <v>0.716068</v>
+        <v>0.719685</v>
       </c>
       <c r="D93" t="n">
-        <v>0.521429</v>
+        <v>0.523977</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.98025</v>
+        <v>0.983455</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743256</v>
+        <v>0.746842</v>
       </c>
       <c r="D94" t="n">
-        <v>0.537033</v>
+        <v>0.540472</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0275</v>
+        <v>1.0295</v>
       </c>
       <c r="C95" t="n">
-        <v>0.770113</v>
+        <v>0.77361</v>
       </c>
       <c r="D95" t="n">
-        <v>0.554052</v>
+        <v>0.557528</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06952</v>
+        <v>1.07197</v>
       </c>
       <c r="C96" t="n">
-        <v>0.798544</v>
+        <v>0.802685</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57207</v>
+        <v>0.575317</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11421</v>
+        <v>1.11621</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8293779999999999</v>
+        <v>0.833439</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592983</v>
+        <v>0.596739</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16055</v>
+        <v>1.16267</v>
       </c>
       <c r="C98" t="n">
-        <v>0.860615</v>
+        <v>0.865209</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6110950000000001</v>
+        <v>0.614559</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20497</v>
+        <v>1.20588</v>
       </c>
       <c r="C99" t="n">
-        <v>0.892138</v>
+        <v>0.89681</v>
       </c>
       <c r="D99" t="n">
-        <v>0.631168</v>
+        <v>0.634792</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24741</v>
+        <v>1.2506</v>
       </c>
       <c r="C100" t="n">
-        <v>0.926233</v>
+        <v>0.930609</v>
       </c>
       <c r="D100" t="n">
-        <v>0.654698</v>
+        <v>0.6580279999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29739</v>
+        <v>1.3006</v>
       </c>
       <c r="C101" t="n">
-        <v>0.960516</v>
+        <v>0.964635</v>
       </c>
       <c r="D101" t="n">
-        <v>0.677435</v>
+        <v>0.681429</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35619</v>
+        <v>1.35791</v>
       </c>
       <c r="C102" t="n">
-        <v>0.995754</v>
+        <v>0.998959</v>
       </c>
       <c r="D102" t="n">
-        <v>0.704641</v>
+        <v>0.702962</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.4154</v>
+        <v>1.41872</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03023</v>
+        <v>1.03305</v>
       </c>
       <c r="D103" t="n">
-        <v>0.721994</v>
+        <v>0.725862</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48257</v>
+        <v>1.48774</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06779</v>
+        <v>1.06876</v>
       </c>
       <c r="D104" t="n">
-        <v>0.751323</v>
+        <v>0.754623</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02386</v>
+        <v>1.02687</v>
       </c>
       <c r="C105" t="n">
-        <v>1.09707</v>
+        <v>1.10002</v>
       </c>
       <c r="D105" t="n">
-        <v>0.766146</v>
+        <v>0.778633</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05821</v>
+        <v>1.06213</v>
       </c>
       <c r="C106" t="n">
-        <v>1.13989</v>
+        <v>1.13959</v>
       </c>
       <c r="D106" t="n">
-        <v>0.800876</v>
+        <v>0.80596</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09465</v>
+        <v>1.09985</v>
       </c>
       <c r="C107" t="n">
-        <v>0.854369</v>
+        <v>0.855797</v>
       </c>
       <c r="D107" t="n">
-        <v>0.691785</v>
+        <v>0.696767</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13306</v>
+        <v>1.13628</v>
       </c>
       <c r="C108" t="n">
-        <v>0.880739</v>
+        <v>0.880104</v>
       </c>
       <c r="D108" t="n">
-        <v>0.711411</v>
+        <v>0.71282</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17875</v>
+        <v>1.17871</v>
       </c>
       <c r="C109" t="n">
-        <v>0.896667</v>
+        <v>0.901473</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7265200000000001</v>
+        <v>0.7313499999999999</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.21369</v>
+        <v>1.22486</v>
       </c>
       <c r="C110" t="n">
-        <v>0.924562</v>
+        <v>0.930086</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735042</v>
+        <v>0.74885</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26786</v>
+        <v>1.27095</v>
       </c>
       <c r="C111" t="n">
-        <v>0.952633</v>
+        <v>0.9564859999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.765854</v>
+        <v>0.767698</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31573</v>
+        <v>1.32065</v>
       </c>
       <c r="C112" t="n">
-        <v>0.982841</v>
+        <v>0.983535</v>
       </c>
       <c r="D112" t="n">
-        <v>0.785752</v>
+        <v>0.788744</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37098</v>
+        <v>1.37458</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01093</v>
+        <v>1.01301</v>
       </c>
       <c r="D113" t="n">
-        <v>0.790133</v>
+        <v>0.806864</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.41801</v>
+        <v>1.4317</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03593</v>
+        <v>1.04389</v>
       </c>
       <c r="D114" t="n">
-        <v>0.811414</v>
+        <v>0.828167</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48025</v>
+        <v>1.48805</v>
       </c>
       <c r="C115" t="n">
-        <v>1.0664</v>
+        <v>1.07658</v>
       </c>
       <c r="D115" t="n">
-        <v>0.837311</v>
+        <v>0.849475</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53979</v>
+        <v>1.55236</v>
       </c>
       <c r="C116" t="n">
-        <v>1.10045</v>
+        <v>1.11011</v>
       </c>
       <c r="D116" t="n">
-        <v>0.853529</v>
+        <v>0.871053</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60221</v>
+        <v>1.61575</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13734</v>
+        <v>1.14702</v>
       </c>
       <c r="D117" t="n">
-        <v>0.878935</v>
+        <v>0.897601</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.67092</v>
+        <v>1.68515</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17466</v>
+        <v>1.18507</v>
       </c>
       <c r="D118" t="n">
-        <v>0.906639</v>
+        <v>0.920947</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10864</v>
+        <v>1.10826</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21617</v>
+        <v>1.22243</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9373899999999999</v>
+        <v>0.945597</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.571669</v>
+        <v>0.573881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.376228</v>
+        <v>0.387159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246105</v>
+        <v>0.249306</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.585318</v>
+        <v>0.592346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.385099</v>
+        <v>0.402635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250989</v>
+        <v>0.254211</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.614016</v>
+        <v>0.6200020000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410503</v>
+        <v>0.430911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257744</v>
+        <v>0.261003</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.642961</v>
+        <v>0.651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425242</v>
+        <v>0.438868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.267166</v>
+        <v>0.270356</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.668439</v>
+        <v>0.673192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.437525</v>
+        <v>0.454073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.276911</v>
+        <v>0.28131</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.692646</v>
+        <v>0.695778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.476854</v>
+        <v>0.487004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.283365</v>
+        <v>0.284035</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.725162</v>
+        <v>0.72183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.506833</v>
+        <v>0.511937</v>
       </c>
       <c r="D8" t="n">
-        <v>0.290701</v>
+        <v>0.28871</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.755293</v>
+        <v>0.753018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5342750000000001</v>
+        <v>0.532764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304844</v>
+        <v>0.300212</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.794165</v>
+        <v>0.793733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.527608</v>
+        <v>0.523878</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314975</v>
+        <v>0.311447</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.815092</v>
+        <v>0.8133049999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370979</v>
+        <v>0.370252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235916</v>
+        <v>0.234934</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.524763</v>
+        <v>0.516012</v>
       </c>
       <c r="C12" t="n">
-        <v>0.381173</v>
+        <v>0.379666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243438</v>
+        <v>0.24422</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.540099</v>
+        <v>0.538037</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407246</v>
+        <v>0.402435</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248718</v>
+        <v>0.249191</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.562916</v>
+        <v>0.559814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.424957</v>
+        <v>0.416128</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260721</v>
+        <v>0.256878</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.58838</v>
+        <v>0.589066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.445441</v>
+        <v>0.440258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.26708</v>
+        <v>0.268812</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.612949</v>
+        <v>0.616289</v>
       </c>
       <c r="C16" t="n">
-        <v>0.458069</v>
+        <v>0.455867</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277403</v>
+        <v>0.277407</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.649286</v>
+        <v>0.6546419999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.495281</v>
+        <v>0.502124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.286766</v>
+        <v>0.289111</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.679087</v>
+        <v>0.684438</v>
       </c>
       <c r="C18" t="n">
-        <v>0.508415</v>
+        <v>0.520339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.293066</v>
+        <v>0.296963</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.71657</v>
+        <v>0.727528</v>
       </c>
       <c r="C19" t="n">
-        <v>0.531644</v>
+        <v>0.538988</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307559</v>
+        <v>0.309124</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.753205</v>
+        <v>0.762927</v>
       </c>
       <c r="C20" t="n">
-        <v>0.583198</v>
+        <v>0.589045</v>
       </c>
       <c r="D20" t="n">
-        <v>0.315751</v>
+        <v>0.319111</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.793539</v>
+        <v>0.799268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.601319</v>
+        <v>0.6045779999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331497</v>
+        <v>0.332712</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.83779</v>
+        <v>0.844155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.631574</v>
+        <v>0.636454</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33916</v>
+        <v>0.343459</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.886293</v>
+        <v>0.891164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.688618</v>
+        <v>0.696578</v>
       </c>
       <c r="D23" t="n">
-        <v>0.34874</v>
+        <v>0.34979</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.920741</v>
+        <v>0.933957</v>
       </c>
       <c r="C24" t="n">
-        <v>0.70126</v>
+        <v>0.712954</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364414</v>
+        <v>0.364979</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.962407</v>
+        <v>0.975186</v>
       </c>
       <c r="C25" t="n">
-        <v>0.77222</v>
+        <v>0.78284</v>
       </c>
       <c r="D25" t="n">
-        <v>0.376867</v>
+        <v>0.383109</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01449</v>
+        <v>1.02926</v>
       </c>
       <c r="C26" t="n">
-        <v>0.449056</v>
+        <v>0.456667</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27461</v>
+        <v>0.280904</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.643954</v>
+        <v>0.653366</v>
       </c>
       <c r="C27" t="n">
-        <v>0.473046</v>
+        <v>0.48069</v>
       </c>
       <c r="D27" t="n">
-        <v>0.28254</v>
+        <v>0.289546</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.671637</v>
+        <v>0.682792</v>
       </c>
       <c r="C28" t="n">
-        <v>0.502335</v>
+        <v>0.5009940000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293426</v>
+        <v>0.300974</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.704884</v>
+        <v>0.71649</v>
       </c>
       <c r="C29" t="n">
-        <v>0.512742</v>
+        <v>0.523805</v>
       </c>
       <c r="D29" t="n">
-        <v>0.305319</v>
+        <v>0.307267</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.74003</v>
+        <v>0.7519749999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.546576</v>
+        <v>0.561178</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316159</v>
+        <v>0.319447</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.779548</v>
+        <v>0.785865</v>
       </c>
       <c r="C31" t="n">
-        <v>0.55999</v>
+        <v>0.565431</v>
       </c>
       <c r="D31" t="n">
-        <v>0.320073</v>
+        <v>0.325515</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.814037</v>
+        <v>0.823583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.603477</v>
+        <v>0.613159</v>
       </c>
       <c r="D32" t="n">
-        <v>0.335108</v>
+        <v>0.337422</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8548249999999999</v>
+        <v>0.862217</v>
       </c>
       <c r="C33" t="n">
-        <v>0.613507</v>
+        <v>0.623203</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350427</v>
+        <v>0.348439</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.895491</v>
+        <v>0.9028119999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.654805</v>
+        <v>0.6797569999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356087</v>
+        <v>0.355018</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.943417</v>
+        <v>0.942927</v>
       </c>
       <c r="C35" t="n">
-        <v>0.705484</v>
+        <v>0.694042</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364146</v>
+        <v>0.364761</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.977536</v>
+        <v>0.98517</v>
       </c>
       <c r="C36" t="n">
-        <v>0.740188</v>
+        <v>0.740792</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378602</v>
+        <v>0.380659</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.02521</v>
+        <v>1.03617</v>
       </c>
       <c r="C37" t="n">
-        <v>0.770467</v>
+        <v>0.791068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.389625</v>
+        <v>0.39088</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.06532</v>
+        <v>1.07959</v>
       </c>
       <c r="C38" t="n">
-        <v>0.774219</v>
+        <v>0.78557</v>
       </c>
       <c r="D38" t="n">
-        <v>0.399994</v>
+        <v>0.401259</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12066</v>
+        <v>1.12653</v>
       </c>
       <c r="C39" t="n">
-        <v>0.876457</v>
+        <v>0.7999810000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4114</v>
+        <v>0.414554</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16782</v>
+        <v>1.16533</v>
       </c>
       <c r="C40" t="n">
-        <v>0.509297</v>
+        <v>0.51136</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314955</v>
+        <v>0.313951</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7043160000000001</v>
+        <v>0.706281</v>
       </c>
       <c r="C41" t="n">
-        <v>0.527024</v>
+        <v>0.524698</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324768</v>
+        <v>0.324736</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.733499</v>
+        <v>0.734552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.547279</v>
+        <v>0.549907</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333221</v>
+        <v>0.334162</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.769605</v>
+        <v>0.770705</v>
       </c>
       <c r="C43" t="n">
-        <v>0.580551</v>
+        <v>0.581999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344087</v>
+        <v>0.34407</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.803253</v>
+        <v>0.8059190000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5936900000000001</v>
+        <v>0.593785</v>
       </c>
       <c r="D44" t="n">
-        <v>0.35569</v>
+        <v>0.356229</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.839475</v>
+        <v>0.841642</v>
       </c>
       <c r="C45" t="n">
-        <v>0.631782</v>
+        <v>0.631309</v>
       </c>
       <c r="D45" t="n">
-        <v>0.361338</v>
+        <v>0.367596</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.882211</v>
+        <v>0.885058</v>
       </c>
       <c r="C46" t="n">
-        <v>0.667575</v>
+        <v>0.66988</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375053</v>
+        <v>0.375126</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.924902</v>
+        <v>0.925022</v>
       </c>
       <c r="C47" t="n">
-        <v>0.697121</v>
+        <v>0.708149</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386316</v>
+        <v>0.386967</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.965477</v>
+        <v>0.965726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.710888</v>
+        <v>0.711039</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398316</v>
+        <v>0.399266</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00547</v>
+        <v>1.00684</v>
       </c>
       <c r="C49" t="n">
-        <v>0.748193</v>
+        <v>0.749175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.411451</v>
+        <v>0.411709</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04815</v>
+        <v>1.0488</v>
       </c>
       <c r="C50" t="n">
-        <v>0.819265</v>
+        <v>0.8010080000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421435</v>
+        <v>0.421018</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09361</v>
+        <v>1.09393</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8276210000000001</v>
+        <v>0.851754</v>
       </c>
       <c r="D51" t="n">
-        <v>0.435515</v>
+        <v>0.435928</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13715</v>
+        <v>1.13503</v>
       </c>
       <c r="C52" t="n">
-        <v>0.905035</v>
+        <v>0.894883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447081</v>
+        <v>0.442689</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.1814</v>
+        <v>1.1824</v>
       </c>
       <c r="C53" t="n">
-        <v>0.959473</v>
+        <v>0.922639</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458285</v>
+        <v>0.457854</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22747</v>
+        <v>1.22525</v>
       </c>
       <c r="C54" t="n">
-        <v>0.530555</v>
+        <v>0.527317</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340951</v>
+        <v>0.340684</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26976</v>
+        <v>1.27084</v>
       </c>
       <c r="C55" t="n">
-        <v>0.547021</v>
+        <v>0.553956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348533</v>
+        <v>0.348342</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749416</v>
+        <v>0.750063</v>
       </c>
       <c r="C56" t="n">
-        <v>0.581346</v>
+        <v>0.578838</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359473</v>
+        <v>0.358776</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.78367</v>
+        <v>0.783509</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5889259999999999</v>
+        <v>0.596171</v>
       </c>
       <c r="D57" t="n">
-        <v>0.36963</v>
+        <v>0.369352</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818577</v>
+        <v>0.818789</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6112030000000001</v>
+        <v>0.611466</v>
       </c>
       <c r="D58" t="n">
-        <v>0.379144</v>
+        <v>0.378034</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.851897</v>
+        <v>0.852217</v>
       </c>
       <c r="C59" t="n">
-        <v>0.668407</v>
+        <v>0.667859</v>
       </c>
       <c r="D59" t="n">
-        <v>0.391163</v>
+        <v>0.390915</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.892839</v>
+        <v>0.893374</v>
       </c>
       <c r="C60" t="n">
-        <v>0.680287</v>
+        <v>0.681215</v>
       </c>
       <c r="D60" t="n">
-        <v>0.400559</v>
+        <v>0.400298</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.932095</v>
+        <v>0.9322549999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.704924</v>
+        <v>0.710856</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411817</v>
+        <v>0.411877</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9734699999999999</v>
+        <v>0.973765</v>
       </c>
       <c r="C62" t="n">
-        <v>0.746273</v>
+        <v>0.739721</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424828</v>
+        <v>0.424723</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01982</v>
+        <v>1.01842</v>
       </c>
       <c r="C63" t="n">
-        <v>0.791606</v>
+        <v>0.783357</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433323</v>
+        <v>0.434967</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06756</v>
+        <v>1.06502</v>
       </c>
       <c r="C64" t="n">
-        <v>0.819242</v>
+        <v>0.830566</v>
       </c>
       <c r="D64" t="n">
-        <v>0.447634</v>
+        <v>0.446547</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10882</v>
+        <v>1.10476</v>
       </c>
       <c r="C65" t="n">
-        <v>0.875011</v>
+        <v>0.8750250000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460779</v>
+        <v>0.460001</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15813</v>
+        <v>1.15449</v>
       </c>
       <c r="C66" t="n">
-        <v>0.923471</v>
+        <v>0.932848</v>
       </c>
       <c r="D66" t="n">
-        <v>0.472866</v>
+        <v>0.471587</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20534</v>
+        <v>1.20115</v>
       </c>
       <c r="C67" t="n">
-        <v>0.955721</v>
+        <v>0.950569</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486288</v>
+        <v>0.48538</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26093</v>
+        <v>1.25702</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5361359999999999</v>
+        <v>0.535983</v>
       </c>
       <c r="D68" t="n">
-        <v>0.348571</v>
+        <v>0.349099</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32746</v>
+        <v>1.32713</v>
       </c>
       <c r="C69" t="n">
-        <v>0.564815</v>
+        <v>0.562209</v>
       </c>
       <c r="D69" t="n">
-        <v>0.361144</v>
+        <v>0.36267</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7985449999999999</v>
+        <v>0.800521</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5921999999999999</v>
+        <v>0.613503</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376877</v>
+        <v>0.378181</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.848587</v>
+        <v>0.849725</v>
       </c>
       <c r="C71" t="n">
-        <v>0.641914</v>
+        <v>0.656482</v>
       </c>
       <c r="D71" t="n">
-        <v>0.388565</v>
+        <v>0.38933</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9091669999999999</v>
+        <v>0.907866</v>
       </c>
       <c r="C72" t="n">
-        <v>0.672019</v>
+        <v>0.669534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.404146</v>
+        <v>0.404516</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.966691</v>
+        <v>0.971981</v>
       </c>
       <c r="C73" t="n">
-        <v>0.723532</v>
+        <v>0.726645</v>
       </c>
       <c r="D73" t="n">
-        <v>0.417986</v>
+        <v>0.418805</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.02928</v>
+        <v>1.04345</v>
       </c>
       <c r="C74" t="n">
-        <v>0.784069</v>
+        <v>0.785379</v>
       </c>
       <c r="D74" t="n">
-        <v>0.437488</v>
+        <v>0.43965</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11818</v>
+        <v>1.11837</v>
       </c>
       <c r="C75" t="n">
-        <v>0.816103</v>
+        <v>0.824366</v>
       </c>
       <c r="D75" t="n">
-        <v>0.456067</v>
+        <v>0.45594</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.21</v>
+        <v>1.20605</v>
       </c>
       <c r="C76" t="n">
-        <v>0.925109</v>
+        <v>0.911635</v>
       </c>
       <c r="D76" t="n">
-        <v>0.477521</v>
+        <v>0.477258</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30231</v>
+        <v>1.29517</v>
       </c>
       <c r="C77" t="n">
-        <v>1.00555</v>
+        <v>1.00341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.497745</v>
+        <v>0.494672</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.4149</v>
+        <v>1.39855</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06763</v>
+        <v>1.05258</v>
       </c>
       <c r="D78" t="n">
-        <v>0.526338</v>
+        <v>0.523284</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55213</v>
+        <v>1.54493</v>
       </c>
       <c r="C79" t="n">
-        <v>1.19027</v>
+        <v>1.2078</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5590270000000001</v>
+        <v>0.550427</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.70514</v>
+        <v>1.68755</v>
       </c>
       <c r="C80" t="n">
-        <v>1.29546</v>
+        <v>1.30363</v>
       </c>
       <c r="D80" t="n">
-        <v>0.597056</v>
+        <v>0.589096</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.8822</v>
+        <v>1.8734</v>
       </c>
       <c r="C81" t="n">
-        <v>1.49141</v>
+        <v>1.44796</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6367429999999999</v>
+        <v>0.634742</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.06006</v>
+        <v>2.05048</v>
       </c>
       <c r="C82" t="n">
-        <v>1.62768</v>
+        <v>1.61181</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6632980000000001</v>
+        <v>0.661797</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26434</v>
+        <v>2.26652</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9486289999999999</v>
+        <v>0.953259</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50447</v>
+        <v>0.502202</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.50691</v>
+        <v>2.50702</v>
       </c>
       <c r="C84" t="n">
-        <v>1.02811</v>
+        <v>1.04046</v>
       </c>
       <c r="D84" t="n">
-        <v>0.538058</v>
+        <v>0.538842</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.60507</v>
+        <v>1.59849</v>
       </c>
       <c r="C85" t="n">
-        <v>1.16243</v>
+        <v>1.17575</v>
       </c>
       <c r="D85" t="n">
-        <v>0.583103</v>
+        <v>0.579908</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.768</v>
+        <v>1.76677</v>
       </c>
       <c r="C86" t="n">
-        <v>1.28168</v>
+        <v>1.30137</v>
       </c>
       <c r="D86" t="n">
-        <v>0.618874</v>
+        <v>0.6115660000000001</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.95275</v>
+        <v>1.95466</v>
       </c>
       <c r="C87" t="n">
-        <v>1.44439</v>
+        <v>1.4578</v>
       </c>
       <c r="D87" t="n">
-        <v>0.679611</v>
+        <v>0.676576</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15329</v>
+        <v>2.15931</v>
       </c>
       <c r="C88" t="n">
-        <v>1.56433</v>
+        <v>1.63808</v>
       </c>
       <c r="D88" t="n">
-        <v>0.731619</v>
+        <v>0.734769</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.37155</v>
+        <v>2.3902</v>
       </c>
       <c r="C89" t="n">
-        <v>1.73614</v>
+        <v>1.77194</v>
       </c>
       <c r="D89" t="n">
-        <v>0.777798</v>
+        <v>0.781965</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.59831</v>
+        <v>2.63821</v>
       </c>
       <c r="C90" t="n">
-        <v>1.92856</v>
+        <v>1.92902</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8296790000000001</v>
+        <v>0.83989</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.85809</v>
+        <v>2.89352</v>
       </c>
       <c r="C91" t="n">
-        <v>2.15114</v>
+        <v>2.15644</v>
       </c>
       <c r="D91" t="n">
-        <v>0.901156</v>
+        <v>0.914507</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.12922</v>
+        <v>3.15768</v>
       </c>
       <c r="C92" t="n">
-        <v>2.39176</v>
+        <v>2.43108</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9638330000000001</v>
+        <v>0.976776</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.42093</v>
+        <v>3.46552</v>
       </c>
       <c r="C93" t="n">
-        <v>2.63957</v>
+        <v>2.68562</v>
       </c>
       <c r="D93" t="n">
-        <v>1.04937</v>
+        <v>1.0605</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.72271</v>
+        <v>3.74617</v>
       </c>
       <c r="C94" t="n">
-        <v>2.77658</v>
+        <v>2.88397</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13441</v>
+        <v>1.14601</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.04103</v>
+        <v>4.07269</v>
       </c>
       <c r="C95" t="n">
-        <v>3.12891</v>
+        <v>3.20228</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20188</v>
+        <v>1.20661</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36731</v>
+        <v>4.40045</v>
       </c>
       <c r="C96" t="n">
-        <v>3.38398</v>
+        <v>3.44316</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28037</v>
+        <v>1.28598</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.6975</v>
+        <v>4.73902</v>
       </c>
       <c r="C97" t="n">
-        <v>1.75123</v>
+        <v>1.76334</v>
       </c>
       <c r="D97" t="n">
-        <v>0.927165</v>
+        <v>0.932937</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.99378</v>
+        <v>5.03518</v>
       </c>
       <c r="C98" t="n">
-        <v>1.87227</v>
+        <v>1.91581</v>
       </c>
       <c r="D98" t="n">
-        <v>0.979481</v>
+        <v>0.986237</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.82892</v>
+        <v>2.83868</v>
       </c>
       <c r="C99" t="n">
-        <v>1.98866</v>
+        <v>2.00701</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03972</v>
+        <v>1.04642</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.00874</v>
+        <v>3.01874</v>
       </c>
       <c r="C100" t="n">
-        <v>2.15385</v>
+        <v>2.1524</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08802</v>
+        <v>1.0988</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.19747</v>
+        <v>3.21933</v>
       </c>
       <c r="C101" t="n">
-        <v>2.36106</v>
+        <v>2.37184</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15532</v>
+        <v>1.15925</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.4209</v>
+        <v>3.44171</v>
       </c>
       <c r="C102" t="n">
-        <v>2.50054</v>
+        <v>2.51325</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20699</v>
+        <v>1.21187</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.64732</v>
+        <v>3.67552</v>
       </c>
       <c r="C103" t="n">
-        <v>2.69258</v>
+        <v>2.76321</v>
       </c>
       <c r="D103" t="n">
-        <v>1.26308</v>
+        <v>1.27131</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.89952</v>
+        <v>3.91921</v>
       </c>
       <c r="C104" t="n">
-        <v>2.84125</v>
+        <v>2.88136</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33156</v>
+        <v>1.33794</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.16788</v>
+        <v>4.19097</v>
       </c>
       <c r="C105" t="n">
-        <v>3.07478</v>
+        <v>3.08827</v>
       </c>
       <c r="D105" t="n">
-        <v>1.41965</v>
+        <v>1.43081</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.44724</v>
+        <v>4.46669</v>
       </c>
       <c r="C106" t="n">
-        <v>3.35729</v>
+        <v>3.35473</v>
       </c>
       <c r="D106" t="n">
-        <v>1.48558</v>
+        <v>1.49013</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.73145</v>
+        <v>4.77423</v>
       </c>
       <c r="C107" t="n">
-        <v>3.47648</v>
+        <v>3.5526</v>
       </c>
       <c r="D107" t="n">
-        <v>1.53613</v>
+        <v>1.54153</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.0388</v>
+        <v>5.07602</v>
       </c>
       <c r="C108" t="n">
-        <v>3.82259</v>
+        <v>3.83588</v>
       </c>
       <c r="D108" t="n">
-        <v>1.62287</v>
+        <v>1.63173</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.37572</v>
+        <v>5.40994</v>
       </c>
       <c r="C109" t="n">
-        <v>4.04498</v>
+        <v>4.19731</v>
       </c>
       <c r="D109" t="n">
-        <v>1.67744</v>
+        <v>1.71772</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.70877</v>
+        <v>5.75223</v>
       </c>
       <c r="C110" t="n">
-        <v>4.42674</v>
+        <v>4.46757</v>
       </c>
       <c r="D110" t="n">
-        <v>1.81452</v>
+        <v>1.81912</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.05696</v>
+        <v>6.12542</v>
       </c>
       <c r="C111" t="n">
-        <v>2.16448</v>
+        <v>2.17864</v>
       </c>
       <c r="D111" t="n">
-        <v>1.28417</v>
+        <v>1.30611</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.39895</v>
+        <v>6.44411</v>
       </c>
       <c r="C112" t="n">
-        <v>2.31159</v>
+        <v>2.33871</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34898</v>
+        <v>1.3662</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.75171</v>
+        <v>6.78304</v>
       </c>
       <c r="C113" t="n">
-        <v>2.41575</v>
+        <v>2.43359</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42111</v>
+        <v>1.43304</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.67183</v>
+        <v>3.71023</v>
       </c>
       <c r="C114" t="n">
-        <v>2.5631</v>
+        <v>2.59687</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45684</v>
+        <v>1.48574</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.90806</v>
+        <v>3.94438</v>
       </c>
       <c r="C115" t="n">
-        <v>2.75266</v>
+        <v>2.7994</v>
       </c>
       <c r="D115" t="n">
-        <v>1.51882</v>
+        <v>1.55038</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.14184</v>
+        <v>4.16887</v>
       </c>
       <c r="C116" t="n">
-        <v>2.94458</v>
+        <v>2.93172</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59272</v>
+        <v>1.62803</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.38193</v>
+        <v>4.41172</v>
       </c>
       <c r="C117" t="n">
-        <v>3.1279</v>
+        <v>3.17847</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66189</v>
+        <v>1.68259</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.61435</v>
+        <v>4.67161</v>
       </c>
       <c r="C118" t="n">
-        <v>3.28304</v>
+        <v>3.32138</v>
       </c>
       <c r="D118" t="n">
-        <v>1.7297</v>
+        <v>1.7523</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90191</v>
+        <v>4.93682</v>
       </c>
       <c r="C119" t="n">
-        <v>3.55593</v>
+        <v>3.78353</v>
       </c>
       <c r="D119" t="n">
-        <v>1.79585</v>
+        <v>1.8059</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.336952</v>
+        <v>0.34075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223056</v>
+        <v>0.229396</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248547</v>
+        <v>0.251441</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.254116</v>
+        <v>0.256699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225304</v>
+        <v>0.231181</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250429</v>
+        <v>0.2538</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.262402</v>
+        <v>0.265158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230105</v>
+        <v>0.237209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.255839</v>
+        <v>0.259925</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269534</v>
+        <v>0.272239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234538</v>
+        <v>0.241501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.260921</v>
+        <v>0.264808</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.278271</v>
+        <v>0.281189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239132</v>
+        <v>0.246343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.266028</v>
+        <v>0.270056</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.287681</v>
+        <v>0.29058</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198538</v>
+        <v>0.202877</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22242</v>
+        <v>0.225188</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.29481</v>
+        <v>0.297507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.203688</v>
+        <v>0.208541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229263</v>
+        <v>0.231612</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.304543</v>
+        <v>0.307831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.208185</v>
+        <v>0.213144</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234521</v>
+        <v>0.237338</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312835</v>
+        <v>0.315909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214123</v>
+        <v>0.219322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242413</v>
+        <v>0.24505</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.320375</v>
+        <v>0.322362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219435</v>
+        <v>0.224755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249864</v>
+        <v>0.251797</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330994</v>
+        <v>0.332558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227058</v>
+        <v>0.232569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259102</v>
+        <v>0.261355</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.339772</v>
+        <v>0.34254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232211</v>
+        <v>0.238601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265214</v>
+        <v>0.267359</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.349395</v>
+        <v>0.350813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236829</v>
+        <v>0.243705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270773</v>
+        <v>0.27324</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.359191</v>
+        <v>0.362052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242576</v>
+        <v>0.248287</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276969</v>
+        <v>0.278634</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.367672</v>
+        <v>0.369829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247141</v>
+        <v>0.252643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282986</v>
+        <v>0.285116</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.379317</v>
+        <v>0.381019</v>
       </c>
       <c r="C17" t="n">
-        <v>0.253934</v>
+        <v>0.258506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290867</v>
+        <v>0.292419</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288451</v>
+        <v>0.288616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.257156</v>
+        <v>0.261996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294353</v>
+        <v>0.29567</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295951</v>
+        <v>0.295748</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263108</v>
+        <v>0.268257</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300707</v>
+        <v>0.303532</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.30607</v>
+        <v>0.305677</v>
       </c>
       <c r="C20" t="n">
-        <v>0.270397</v>
+        <v>0.274606</v>
       </c>
       <c r="D20" t="n">
-        <v>0.309218</v>
+        <v>0.310849</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315148</v>
+        <v>0.315331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216172</v>
+        <v>0.218777</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246952</v>
+        <v>0.246538</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.325018</v>
+        <v>0.325168</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223302</v>
+        <v>0.22568</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253521</v>
+        <v>0.253854</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332638</v>
+        <v>0.332731</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228758</v>
+        <v>0.232095</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261104</v>
+        <v>0.262481</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339985</v>
+        <v>0.340319</v>
       </c>
       <c r="C24" t="n">
-        <v>0.233182</v>
+        <v>0.236049</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267086</v>
+        <v>0.267334</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347756</v>
+        <v>0.347723</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238486</v>
+        <v>0.241717</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273962</v>
+        <v>0.274046</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357583</v>
+        <v>0.357152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245173</v>
+        <v>0.248437</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281269</v>
+        <v>0.281307</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365958</v>
+        <v>0.365063</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249262</v>
+        <v>0.252426</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287543</v>
+        <v>0.287872</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375311</v>
+        <v>0.374899</v>
       </c>
       <c r="C28" t="n">
-        <v>0.25456</v>
+        <v>0.257785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2939</v>
+        <v>0.293983</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383964</v>
+        <v>0.384011</v>
       </c>
       <c r="C29" t="n">
-        <v>0.26051</v>
+        <v>0.263944</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301093</v>
+        <v>0.301053</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391971</v>
+        <v>0.391309</v>
       </c>
       <c r="C30" t="n">
-        <v>0.26519</v>
+        <v>0.26887</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307239</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400874</v>
+        <v>0.400669</v>
       </c>
       <c r="C31" t="n">
-        <v>0.270072</v>
+        <v>0.274161</v>
       </c>
       <c r="D31" t="n">
-        <v>0.312809</v>
+        <v>0.312603</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297785</v>
+        <v>0.298545</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275069</v>
+        <v>0.279644</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319645</v>
+        <v>0.320531</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305538</v>
+        <v>0.306803</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280535</v>
+        <v>0.284636</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325797</v>
+        <v>0.32596</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313135</v>
+        <v>0.313563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286236</v>
+        <v>0.290008</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332129</v>
+        <v>0.332008</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322524</v>
+        <v>0.322695</v>
       </c>
       <c r="C35" t="n">
-        <v>0.22615</v>
+        <v>0.22834</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258763</v>
+        <v>0.259019</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.332494</v>
+        <v>0.33275</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232044</v>
+        <v>0.233947</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264857</v>
+        <v>0.264706</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339596</v>
+        <v>0.339852</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237357</v>
+        <v>0.239373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.271244</v>
+        <v>0.270999</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347698</v>
+        <v>0.347775</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242599</v>
+        <v>0.245103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277466</v>
+        <v>0.277368</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356209</v>
+        <v>0.356258</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248331</v>
+        <v>0.250858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284462</v>
+        <v>0.284328</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365331</v>
+        <v>0.36532</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25334</v>
+        <v>0.256374</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291053</v>
+        <v>0.290873</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373536</v>
+        <v>0.372852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258639</v>
+        <v>0.262056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298285</v>
+        <v>0.298258</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.380976</v>
+        <v>0.381213</v>
       </c>
       <c r="C42" t="n">
-        <v>0.263703</v>
+        <v>0.267019</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303901</v>
+        <v>0.303686</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.391305</v>
+        <v>0.391333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.269221</v>
+        <v>0.272816</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311159</v>
+        <v>0.310633</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.399563</v>
+        <v>0.399645</v>
       </c>
       <c r="C44" t="n">
-        <v>0.274038</v>
+        <v>0.277591</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318012</v>
+        <v>0.317794</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408298</v>
+        <v>0.407748</v>
       </c>
       <c r="C45" t="n">
-        <v>0.278842</v>
+        <v>0.28242</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323848</v>
+        <v>0.323568</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418637</v>
+        <v>0.418747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.283534</v>
+        <v>0.287069</v>
       </c>
       <c r="D46" t="n">
-        <v>0.329216</v>
+        <v>0.329092</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305445</v>
+        <v>0.3059</v>
       </c>
       <c r="C47" t="n">
-        <v>0.288542</v>
+        <v>0.292037</v>
       </c>
       <c r="D47" t="n">
-        <v>0.33534</v>
+        <v>0.335079</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.312875</v>
+        <v>0.313698</v>
       </c>
       <c r="C48" t="n">
-        <v>0.293743</v>
+        <v>0.297411</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342868</v>
+        <v>0.342636</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322596</v>
+        <v>0.322861</v>
       </c>
       <c r="C49" t="n">
-        <v>0.298956</v>
+        <v>0.302248</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352656</v>
+        <v>0.351849</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330926</v>
+        <v>0.331395</v>
       </c>
       <c r="C50" t="n">
-        <v>0.234329</v>
+        <v>0.236466</v>
       </c>
       <c r="D50" t="n">
-        <v>0.263771</v>
+        <v>0.263808</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338442</v>
+        <v>0.338698</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239993</v>
+        <v>0.242263</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270136</v>
+        <v>0.269959</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3477</v>
+        <v>0.347876</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245912</v>
+        <v>0.248509</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27737</v>
+        <v>0.277404</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355853</v>
+        <v>0.356114</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25145</v>
+        <v>0.25419</v>
       </c>
       <c r="D53" t="n">
-        <v>0.28487</v>
+        <v>0.284621</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364568</v>
+        <v>0.364431</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257007</v>
+        <v>0.259923</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291383</v>
+        <v>0.291545</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.37262</v>
+        <v>0.372774</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262437</v>
+        <v>0.26554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29868</v>
+        <v>0.298935</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381143</v>
+        <v>0.38138</v>
       </c>
       <c r="C56" t="n">
-        <v>0.267703</v>
+        <v>0.270941</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305526</v>
+        <v>0.305604</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390233</v>
+        <v>0.390331</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272328</v>
+        <v>0.275837</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31234</v>
+        <v>0.312387</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39929</v>
+        <v>0.399156</v>
       </c>
       <c r="C58" t="n">
-        <v>0.276835</v>
+        <v>0.280534</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318839</v>
+        <v>0.318819</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407789</v>
+        <v>0.407813</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282225</v>
+        <v>0.285254</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326581</v>
+        <v>0.325622</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.419242</v>
+        <v>0.417831</v>
       </c>
       <c r="C60" t="n">
-        <v>0.286919</v>
+        <v>0.290214</v>
       </c>
       <c r="D60" t="n">
-        <v>0.333272</v>
+        <v>0.332371</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309473</v>
+        <v>0.309662</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292534</v>
+        <v>0.295471</v>
       </c>
       <c r="D61" t="n">
-        <v>0.340423</v>
+        <v>0.339577</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.320837</v>
+        <v>0.320174</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297544</v>
+        <v>0.300069</v>
       </c>
       <c r="D62" t="n">
-        <v>0.347051</v>
+        <v>0.346088</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.331887</v>
+        <v>0.331532</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303812</v>
+        <v>0.30617</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354544</v>
+        <v>0.354569</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.342334</v>
+        <v>0.341917</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242815</v>
+        <v>0.2443</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27626</v>
+        <v>0.275813</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.349705</v>
+        <v>0.35071</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248944</v>
+        <v>0.251259</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283369</v>
+        <v>0.284975</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.361395</v>
+        <v>0.362407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.258751</v>
+        <v>0.257912</v>
       </c>
       <c r="D66" t="n">
-        <v>0.292505</v>
+        <v>0.294312</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37302</v>
+        <v>0.376989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265023</v>
+        <v>0.264848</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301229</v>
+        <v>0.304608</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.385694</v>
+        <v>0.389319</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272759</v>
+        <v>0.272203</v>
       </c>
       <c r="D68" t="n">
-        <v>0.310858</v>
+        <v>0.314326</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397624</v>
+        <v>0.402592</v>
       </c>
       <c r="C69" t="n">
-        <v>0.280671</v>
+        <v>0.280469</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322436</v>
+        <v>0.324629</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.413326</v>
+        <v>0.415719</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286976</v>
+        <v>0.290551</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332964</v>
+        <v>0.335207</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.430699</v>
+        <v>0.431432</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298241</v>
+        <v>0.300431</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347045</v>
+        <v>0.345566</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.454232</v>
+        <v>0.450256</v>
       </c>
       <c r="C72" t="n">
-        <v>0.312202</v>
+        <v>0.311884</v>
       </c>
       <c r="D72" t="n">
-        <v>0.364404</v>
+        <v>0.361725</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.483953</v>
+        <v>0.47661</v>
       </c>
       <c r="C73" t="n">
-        <v>0.322207</v>
+        <v>0.321871</v>
       </c>
       <c r="D73" t="n">
-        <v>0.379764</v>
+        <v>0.378262</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.502433</v>
+        <v>0.495769</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3369</v>
+        <v>0.333225</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396465</v>
+        <v>0.392579</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.527437</v>
+        <v>0.516888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.350594</v>
+        <v>0.347608</v>
       </c>
       <c r="D75" t="n">
-        <v>0.41311</v>
+        <v>0.408381</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.490845</v>
+        <v>0.490217</v>
       </c>
       <c r="C76" t="n">
-        <v>0.364132</v>
+        <v>0.363833</v>
       </c>
       <c r="D76" t="n">
-        <v>0.435692</v>
+        <v>0.433172</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.515162</v>
+        <v>0.516669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.38205</v>
+        <v>0.380984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.455978</v>
+        <v>0.45604</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.540998</v>
+        <v>0.544546</v>
       </c>
       <c r="C78" t="n">
-        <v>0.333591</v>
+        <v>0.342291</v>
       </c>
       <c r="D78" t="n">
-        <v>0.404154</v>
+        <v>0.415197</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.569181</v>
+        <v>0.568966</v>
       </c>
       <c r="C79" t="n">
-        <v>0.352737</v>
+        <v>0.3596</v>
       </c>
       <c r="D79" t="n">
-        <v>0.429199</v>
+        <v>0.441229</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.602692</v>
+        <v>0.599671</v>
       </c>
       <c r="C80" t="n">
-        <v>0.378335</v>
+        <v>0.38702</v>
       </c>
       <c r="D80" t="n">
-        <v>0.456096</v>
+        <v>0.466324</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6340519999999999</v>
+        <v>0.6337390000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.39712</v>
+        <v>0.399354</v>
       </c>
       <c r="D81" t="n">
-        <v>0.479694</v>
+        <v>0.488693</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.669849</v>
+        <v>0.671616</v>
       </c>
       <c r="C82" t="n">
-        <v>0.416797</v>
+        <v>0.417531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508505</v>
+        <v>0.5155999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7079490000000001</v>
+        <v>0.708996</v>
       </c>
       <c r="C83" t="n">
-        <v>0.439212</v>
+        <v>0.436389</v>
       </c>
       <c r="D83" t="n">
-        <v>0.534876</v>
+        <v>0.54283</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.740814</v>
+        <v>0.740465</v>
       </c>
       <c r="C84" t="n">
-        <v>0.458599</v>
+        <v>0.458434</v>
       </c>
       <c r="D84" t="n">
-        <v>0.561234</v>
+        <v>0.569484</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.779865</v>
+        <v>0.7785879999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.479324</v>
+        <v>0.481041</v>
       </c>
       <c r="D85" t="n">
-        <v>0.589665</v>
+        <v>0.597661</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.823605</v>
+        <v>0.818554</v>
       </c>
       <c r="C86" t="n">
-        <v>0.503285</v>
+        <v>0.50345</v>
       </c>
       <c r="D86" t="n">
-        <v>0.619467</v>
+        <v>0.627702</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8619869999999999</v>
+        <v>0.860899</v>
       </c>
       <c r="C87" t="n">
-        <v>0.528601</v>
+        <v>0.525635</v>
       </c>
       <c r="D87" t="n">
-        <v>0.65033</v>
+        <v>0.656458</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.906938</v>
+        <v>0.901196</v>
       </c>
       <c r="C88" t="n">
-        <v>0.553905</v>
+        <v>0.5485409999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.688318</v>
+        <v>0.691882</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.954425</v>
+        <v>0.946118</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5800959999999999</v>
+        <v>0.572573</v>
       </c>
       <c r="D89" t="n">
-        <v>0.725442</v>
+        <v>0.724014</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8303160000000001</v>
+        <v>0.829557</v>
       </c>
       <c r="C90" t="n">
-        <v>0.60783</v>
+        <v>0.5970569999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.744752</v>
+        <v>0.745949</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.859826</v>
+        <v>0.85569</v>
       </c>
       <c r="C91" t="n">
-        <v>0.635916</v>
+        <v>0.624358</v>
       </c>
       <c r="D91" t="n">
-        <v>0.777543</v>
+        <v>0.7785570000000001</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.890321</v>
+        <v>0.885242</v>
       </c>
       <c r="C92" t="n">
-        <v>0.536696</v>
+        <v>0.533795</v>
       </c>
       <c r="D92" t="n">
-        <v>0.668585</v>
+        <v>0.673669</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.920988</v>
+        <v>0.912976</v>
       </c>
       <c r="C93" t="n">
-        <v>0.553389</v>
+        <v>0.549725</v>
       </c>
       <c r="D93" t="n">
-        <v>0.696277</v>
+        <v>0.699978</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.952429</v>
+        <v>0.942848</v>
       </c>
       <c r="C94" t="n">
-        <v>0.57224</v>
+        <v>0.566321</v>
       </c>
       <c r="D94" t="n">
-        <v>0.711396</v>
+        <v>0.71688</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.983375</v>
+        <v>0.9734699999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5891380000000001</v>
+        <v>0.583852</v>
       </c>
       <c r="D95" t="n">
-        <v>0.749709</v>
+        <v>0.7527740000000001</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.01143</v>
+        <v>1.00172</v>
       </c>
       <c r="C96" t="n">
-        <v>0.620582</v>
+        <v>0.6034</v>
       </c>
       <c r="D96" t="n">
-        <v>0.775844</v>
+        <v>0.778427</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.04385</v>
+        <v>1.03173</v>
       </c>
       <c r="C97" t="n">
-        <v>0.641042</v>
+        <v>0.62152</v>
       </c>
       <c r="D97" t="n">
-        <v>0.810856</v>
+        <v>0.8075639999999999</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0894</v>
+        <v>1.06895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.650105</v>
+        <v>0.640293</v>
       </c>
       <c r="D98" t="n">
-        <v>0.832449</v>
+        <v>0.834328</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.11972</v>
+        <v>1.10573</v>
       </c>
       <c r="C99" t="n">
-        <v>0.671807</v>
+        <v>0.6601630000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.860563</v>
+        <v>0.863022</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.15717</v>
+        <v>1.14048</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6945210000000001</v>
+        <v>0.67986</v>
       </c>
       <c r="D100" t="n">
-        <v>0.896294</v>
+        <v>0.890409</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.18466</v>
+        <v>1.16705</v>
       </c>
       <c r="C101" t="n">
-        <v>0.72272</v>
+        <v>0.701384</v>
       </c>
       <c r="D101" t="n">
-        <v>0.93348</v>
+        <v>0.919129</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23018</v>
+        <v>1.20344</v>
       </c>
       <c r="C102" t="n">
-        <v>0.748452</v>
+        <v>0.724301</v>
       </c>
       <c r="D102" t="n">
-        <v>0.972043</v>
+        <v>0.953777</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.27105</v>
+        <v>1.24266</v>
       </c>
       <c r="C103" t="n">
-        <v>0.776562</v>
+        <v>0.748578</v>
       </c>
       <c r="D103" t="n">
-        <v>1.00668</v>
+        <v>0.9857320000000001</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.31485</v>
+        <v>1.28333</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8029849999999999</v>
+        <v>0.7726460000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>1.04064</v>
+        <v>1.01834</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.05755</v>
+        <v>1.02461</v>
       </c>
       <c r="C105" t="n">
-        <v>0.840168</v>
+        <v>0.797589</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08145</v>
+        <v>1.05149</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.08736</v>
+        <v>1.05098</v>
       </c>
       <c r="C106" t="n">
-        <v>0.86668</v>
+        <v>0.82395</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11232</v>
+        <v>1.08597</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.10997</v>
+        <v>1.07712</v>
       </c>
       <c r="C107" t="n">
-        <v>0.68228</v>
+        <v>0.657043</v>
       </c>
       <c r="D107" t="n">
-        <v>0.929145</v>
+        <v>0.893858</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13958</v>
+        <v>1.09917</v>
       </c>
       <c r="C108" t="n">
-        <v>0.696801</v>
+        <v>0.672959</v>
       </c>
       <c r="D108" t="n">
-        <v>0.947034</v>
+        <v>0.918923</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17535</v>
+        <v>1.12791</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7196669999999999</v>
+        <v>0.688845</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9805469999999999</v>
+        <v>0.945875</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19665</v>
+        <v>1.15496</v>
       </c>
       <c r="C110" t="n">
-        <v>0.732654</v>
+        <v>0.70529</v>
       </c>
       <c r="D110" t="n">
-        <v>0.999817</v>
+        <v>0.972378</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22078</v>
+        <v>1.18334</v>
       </c>
       <c r="C111" t="n">
-        <v>0.740803</v>
+        <v>0.722459</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02723</v>
+        <v>0.998481</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.26475</v>
+        <v>1.22153</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7710360000000001</v>
+        <v>0.741584</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05907</v>
+        <v>1.02952</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.28943</v>
+        <v>1.2539</v>
       </c>
       <c r="C113" t="n">
-        <v>0.791138</v>
+        <v>0.760491</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08229</v>
+        <v>1.05748</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.31404</v>
+        <v>1.28573</v>
       </c>
       <c r="C114" t="n">
-        <v>0.811123</v>
+        <v>0.780203</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1292</v>
+        <v>1.09336</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.36552</v>
+        <v>1.32074</v>
       </c>
       <c r="C115" t="n">
-        <v>0.840124</v>
+        <v>0.8008150000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14675</v>
+        <v>1.12425</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39235</v>
+        <v>1.35675</v>
       </c>
       <c r="C116" t="n">
-        <v>0.855073</v>
+        <v>0.821839</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18158</v>
+        <v>1.14738</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.43257</v>
+        <v>1.39417</v>
       </c>
       <c r="C117" t="n">
-        <v>0.88056</v>
+        <v>0.844631</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21453</v>
+        <v>1.17892</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.48045</v>
+        <v>1.43658</v>
       </c>
       <c r="C118" t="n">
-        <v>0.906229</v>
+        <v>0.8680870000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25035</v>
+        <v>1.21566</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15215</v>
+        <v>1.11807</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9366679999999999</v>
+        <v>0.893664</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28176</v>
+        <v>1.24639</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.270111</v>
+        <v>0.267722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.175118</v>
+        <v>0.180777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140944</v>
+        <v>0.141459</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194947</v>
+        <v>0.193795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.178447</v>
+        <v>0.18205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141596</v>
+        <v>0.141218</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20087</v>
+        <v>0.199786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184551</v>
+        <v>0.186745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145399</v>
+        <v>0.145103</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.209811</v>
+        <v>0.20847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193833</v>
+        <v>0.194617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150355</v>
+        <v>0.14905</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.215306</v>
+        <v>0.21417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197398</v>
+        <v>0.200236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15364</v>
+        <v>0.152544</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223902</v>
+        <v>0.221633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161128</v>
+        <v>0.162342</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138715</v>
+        <v>0.138429</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228314</v>
+        <v>0.22931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.161996</v>
+        <v>0.166219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.139506</v>
+        <v>0.141333</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.236182</v>
+        <v>0.236504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.172519</v>
+        <v>0.173671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.144603</v>
+        <v>0.144679</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.244432</v>
+        <v>0.243703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17345</v>
+        <v>0.176994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.14612</v>
+        <v>0.145815</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252709</v>
+        <v>0.252333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18024</v>
+        <v>0.181984</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1498</v>
+        <v>0.149673</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262513</v>
+        <v>0.262327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185672</v>
+        <v>0.189908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153916</v>
+        <v>0.152701</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.269765</v>
+        <v>0.2692</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192086</v>
+        <v>0.197242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156939</v>
+        <v>0.156036</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280901</v>
+        <v>0.280833</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197507</v>
+        <v>0.203876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15898</v>
+        <v>0.158806</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.29422</v>
+        <v>0.294461</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204915</v>
+        <v>0.209547</v>
       </c>
       <c r="D15" t="n">
-        <v>0.164728</v>
+        <v>0.163696</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303715</v>
+        <v>0.301883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.212983</v>
+        <v>0.218642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166959</v>
+        <v>0.166698</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.316152</v>
+        <v>0.315827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219916</v>
+        <v>0.226109</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171073</v>
+        <v>0.169229</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234137</v>
+        <v>0.233732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.225959</v>
+        <v>0.232201</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172985</v>
+        <v>0.172888</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.241362</v>
+        <v>0.242269</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232883</v>
+        <v>0.240759</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178009</v>
+        <v>0.179432</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246702</v>
+        <v>0.247733</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242262</v>
+        <v>0.251961</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184655</v>
+        <v>0.183938</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253946</v>
+        <v>0.253517</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195709</v>
+        <v>0.201378</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169188</v>
+        <v>0.168711</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259094</v>
+        <v>0.259049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.201314</v>
+        <v>0.207471</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172128</v>
+        <v>0.171974</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268887</v>
+        <v>0.268745</v>
       </c>
       <c r="C23" t="n">
-        <v>0.205328</v>
+        <v>0.212302</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172882</v>
+        <v>0.174361</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276497</v>
+        <v>0.276854</v>
       </c>
       <c r="C24" t="n">
-        <v>0.209344</v>
+        <v>0.216261</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176919</v>
+        <v>0.177514</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283911</v>
+        <v>0.284647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214781</v>
+        <v>0.221639</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179337</v>
+        <v>0.17943</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292248</v>
+        <v>0.293616</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220625</v>
+        <v>0.229621</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182407</v>
+        <v>0.183434</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.301461</v>
+        <v>0.302784</v>
       </c>
       <c r="C27" t="n">
-        <v>0.225415</v>
+        <v>0.23326</v>
       </c>
       <c r="D27" t="n">
-        <v>0.185578</v>
+        <v>0.186005</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312735</v>
+        <v>0.313925</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23107</v>
+        <v>0.238765</v>
       </c>
       <c r="D28" t="n">
-        <v>0.188332</v>
+        <v>0.188903</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322783</v>
+        <v>0.324011</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236372</v>
+        <v>0.245419</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191473</v>
+        <v>0.191852</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.331787</v>
+        <v>0.333674</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242932</v>
+        <v>0.252845</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195045</v>
+        <v>0.195873</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.344087</v>
+        <v>0.346452</v>
       </c>
       <c r="C31" t="n">
-        <v>0.247527</v>
+        <v>0.257706</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198017</v>
+        <v>0.198589</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248424</v>
+        <v>0.248916</v>
       </c>
       <c r="C32" t="n">
-        <v>0.255622</v>
+        <v>0.267599</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203213</v>
+        <v>0.202585</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.25495</v>
+        <v>0.254883</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262963</v>
+        <v>0.275385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206481</v>
+        <v>0.206649</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261908</v>
+        <v>0.261872</v>
       </c>
       <c r="C34" t="n">
-        <v>0.269882</v>
+        <v>0.283545</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211104</v>
+        <v>0.211615</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268795</v>
+        <v>0.268789</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208081</v>
+        <v>0.211993</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181187</v>
+        <v>0.181445</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.275216</v>
+        <v>0.274687</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213428</v>
+        <v>0.218382</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183874</v>
+        <v>0.183992</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281359</v>
+        <v>0.281227</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217128</v>
+        <v>0.222636</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186739</v>
+        <v>0.186384</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289101</v>
+        <v>0.289295</v>
       </c>
       <c r="C38" t="n">
-        <v>0.222707</v>
+        <v>0.227404</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189698</v>
+        <v>0.189331</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.296253</v>
+        <v>0.295981</v>
       </c>
       <c r="C39" t="n">
-        <v>0.227224</v>
+        <v>0.233376</v>
       </c>
       <c r="D39" t="n">
-        <v>0.19214</v>
+        <v>0.192152</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305275</v>
+        <v>0.305028</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232978</v>
+        <v>0.239684</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195393</v>
+        <v>0.194906</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.315522</v>
+        <v>0.314918</v>
       </c>
       <c r="C41" t="n">
-        <v>0.237772</v>
+        <v>0.245014</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197913</v>
+        <v>0.197838</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325219</v>
+        <v>0.325339</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241642</v>
+        <v>0.248951</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200651</v>
+        <v>0.200917</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336212</v>
+        <v>0.33589</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248133</v>
+        <v>0.256051</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204087</v>
+        <v>0.204272</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344533</v>
+        <v>0.344525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25476</v>
+        <v>0.263192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207378</v>
+        <v>0.207262</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355673</v>
+        <v>0.355761</v>
       </c>
       <c r="C45" t="n">
-        <v>0.260903</v>
+        <v>0.269569</v>
       </c>
       <c r="D45" t="n">
-        <v>0.209961</v>
+        <v>0.210177</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368471</v>
+        <v>0.368302</v>
       </c>
       <c r="C46" t="n">
-        <v>0.266719</v>
+        <v>0.277008</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214551</v>
+        <v>0.214265</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26025</v>
+        <v>0.259602</v>
       </c>
       <c r="C47" t="n">
-        <v>0.273562</v>
+        <v>0.285096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217926</v>
+        <v>0.21784</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265419</v>
+        <v>0.265223</v>
       </c>
       <c r="C48" t="n">
-        <v>0.280412</v>
+        <v>0.292973</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221865</v>
+        <v>0.221917</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272531</v>
+        <v>0.271842</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288627</v>
+        <v>0.302177</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225726</v>
+        <v>0.225415</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.279242</v>
+        <v>0.278795</v>
       </c>
       <c r="C50" t="n">
-        <v>0.218099</v>
+        <v>0.222485</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185748</v>
+        <v>0.185509</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285592</v>
+        <v>0.285631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222575</v>
+        <v>0.227114</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187591</v>
+        <v>0.187356</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292558</v>
+        <v>0.292339</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227583</v>
+        <v>0.232689</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190855</v>
+        <v>0.19058</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30162</v>
+        <v>0.301219</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232915</v>
+        <v>0.238905</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193592</v>
+        <v>0.193558</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309908</v>
+        <v>0.309754</v>
       </c>
       <c r="C54" t="n">
-        <v>0.237933</v>
+        <v>0.244656</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196146</v>
+        <v>0.196047</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31935</v>
+        <v>0.318503</v>
       </c>
       <c r="C55" t="n">
-        <v>0.242976</v>
+        <v>0.25077</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199957</v>
+        <v>0.199851</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329038</v>
+        <v>0.328684</v>
       </c>
       <c r="C56" t="n">
-        <v>0.247807</v>
+        <v>0.255519</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202079</v>
+        <v>0.201991</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338825</v>
+        <v>0.337781</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254124</v>
+        <v>0.262609</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205845</v>
+        <v>0.205602</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348015</v>
+        <v>0.348246</v>
       </c>
       <c r="C58" t="n">
-        <v>0.260369</v>
+        <v>0.269582</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209086</v>
+        <v>0.208961</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359943</v>
+        <v>0.359225</v>
       </c>
       <c r="C59" t="n">
-        <v>0.266177</v>
+        <v>0.27573</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212018</v>
+        <v>0.211788</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369958</v>
+        <v>0.369614</v>
       </c>
       <c r="C60" t="n">
-        <v>0.271937</v>
+        <v>0.282879</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216453</v>
+        <v>0.216283</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264772</v>
+        <v>0.268546</v>
       </c>
       <c r="C61" t="n">
-        <v>0.279701</v>
+        <v>0.29163</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219711</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273425</v>
+        <v>0.276804</v>
       </c>
       <c r="C62" t="n">
-        <v>0.28711</v>
+        <v>0.300208</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223878</v>
+        <v>0.223742</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.283509</v>
+        <v>0.286285</v>
       </c>
       <c r="C63" t="n">
-        <v>0.295459</v>
+        <v>0.308847</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227748</v>
+        <v>0.227489</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.294178</v>
+        <v>0.300148</v>
       </c>
       <c r="C64" t="n">
-        <v>0.232967</v>
+        <v>0.239275</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197218</v>
+        <v>0.198612</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.303012</v>
+        <v>0.306209</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239429</v>
+        <v>0.246549</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198927</v>
+        <v>0.199775</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312714</v>
+        <v>0.316094</v>
       </c>
       <c r="C66" t="n">
-        <v>0.248977</v>
+        <v>0.255524</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203121</v>
+        <v>0.203959</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.326788</v>
+        <v>0.32845</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255635</v>
+        <v>0.264971</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207668</v>
+        <v>0.208654</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341283</v>
+        <v>0.344391</v>
       </c>
       <c r="C68" t="n">
-        <v>0.263804</v>
+        <v>0.27252</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212071</v>
+        <v>0.213088</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358072</v>
+        <v>0.360606</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273442</v>
+        <v>0.283033</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216862</v>
+        <v>0.218295</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.376988</v>
+        <v>0.379219</v>
       </c>
       <c r="C70" t="n">
-        <v>0.285214</v>
+        <v>0.298167</v>
       </c>
       <c r="D70" t="n">
-        <v>0.223684</v>
+        <v>0.224783</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.395756</v>
+        <v>0.398478</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297341</v>
+        <v>0.311027</v>
       </c>
       <c r="D71" t="n">
-        <v>0.227681</v>
+        <v>0.22913</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.41679</v>
+        <v>0.421142</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308739</v>
+        <v>0.323676</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233923</v>
+        <v>0.236605</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.438122</v>
+        <v>0.441294</v>
       </c>
       <c r="C73" t="n">
-        <v>0.324342</v>
+        <v>0.34095</v>
       </c>
       <c r="D73" t="n">
-        <v>0.241976</v>
+        <v>0.243911</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463567</v>
+        <v>0.463738</v>
       </c>
       <c r="C74" t="n">
-        <v>0.340636</v>
+        <v>0.361332</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247032</v>
+        <v>0.248714</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.492239</v>
+        <v>0.497847</v>
       </c>
       <c r="C75" t="n">
-        <v>0.362144</v>
+        <v>0.383423</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256325</v>
+        <v>0.257399</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.421064</v>
+        <v>0.421015</v>
       </c>
       <c r="C76" t="n">
-        <v>0.386435</v>
+        <v>0.410458</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264256</v>
+        <v>0.266041</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.444392</v>
+        <v>0.44754</v>
       </c>
       <c r="C77" t="n">
-        <v>0.414462</v>
+        <v>0.437028</v>
       </c>
       <c r="D77" t="n">
-        <v>0.276915</v>
+        <v>0.27703</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4805</v>
+        <v>0.477869</v>
       </c>
       <c r="C78" t="n">
-        <v>0.373805</v>
+        <v>0.375043</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265008</v>
+        <v>0.260999</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.51812</v>
+        <v>0.516327</v>
       </c>
       <c r="C79" t="n">
-        <v>0.394007</v>
+        <v>0.399301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.273756</v>
+        <v>0.270134</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.553042</v>
+        <v>0.550609</v>
       </c>
       <c r="C80" t="n">
-        <v>0.417215</v>
+        <v>0.430025</v>
       </c>
       <c r="D80" t="n">
-        <v>0.287173</v>
+        <v>0.285793</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59363</v>
+        <v>0.594023</v>
       </c>
       <c r="C81" t="n">
-        <v>0.447211</v>
+        <v>0.461831</v>
       </c>
       <c r="D81" t="n">
-        <v>0.304022</v>
+        <v>0.303357</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.635719</v>
+        <v>0.6334959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.477588</v>
+        <v>0.496149</v>
       </c>
       <c r="D82" t="n">
-        <v>0.322442</v>
+        <v>0.320337</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.684836</v>
+        <v>0.682609</v>
       </c>
       <c r="C83" t="n">
-        <v>0.510531</v>
+        <v>0.532335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.333407</v>
+        <v>0.336029</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.740736</v>
+        <v>0.73749</v>
       </c>
       <c r="C84" t="n">
-        <v>0.547014</v>
+        <v>0.563789</v>
       </c>
       <c r="D84" t="n">
-        <v>0.358058</v>
+        <v>0.357715</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.79042</v>
+        <v>0.789386</v>
       </c>
       <c r="C85" t="n">
-        <v>0.581752</v>
+        <v>0.6028</v>
       </c>
       <c r="D85" t="n">
-        <v>0.379102</v>
+        <v>0.378862</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.849167</v>
+        <v>0.850501</v>
       </c>
       <c r="C86" t="n">
-        <v>0.617967</v>
+        <v>0.6434530000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.39853</v>
+        <v>0.39863</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.909859</v>
+        <v>0.911874</v>
       </c>
       <c r="C87" t="n">
-        <v>0.658249</v>
+        <v>0.691678</v>
       </c>
       <c r="D87" t="n">
-        <v>0.422751</v>
+        <v>0.424206</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.978955</v>
+        <v>0.981437</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6975</v>
+        <v>0.735231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.444706</v>
+        <v>0.449347</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04976</v>
+        <v>1.04983</v>
       </c>
       <c r="C89" t="n">
-        <v>0.740303</v>
+        <v>0.78456</v>
       </c>
       <c r="D89" t="n">
-        <v>0.471618</v>
+        <v>0.47538</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.834243</v>
+        <v>0.827209</v>
       </c>
       <c r="C90" t="n">
-        <v>0.779515</v>
+        <v>0.82995</v>
       </c>
       <c r="D90" t="n">
-        <v>0.496771</v>
+        <v>0.4998</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.864096</v>
+        <v>0.862236</v>
       </c>
       <c r="C91" t="n">
-        <v>0.82419</v>
+        <v>0.8811369999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519194</v>
+        <v>0.5228429999999999</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.903352</v>
+        <v>0.900133</v>
       </c>
       <c r="C92" t="n">
-        <v>0.694485</v>
+        <v>0.707247</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508681</v>
+        <v>0.508232</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.940961</v>
+        <v>0.938152</v>
       </c>
       <c r="C93" t="n">
-        <v>0.719685</v>
+        <v>0.7347900000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.523977</v>
+        <v>0.52317</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.983455</v>
+        <v>0.980526</v>
       </c>
       <c r="C94" t="n">
-        <v>0.746842</v>
+        <v>0.764431</v>
       </c>
       <c r="D94" t="n">
-        <v>0.540472</v>
+        <v>0.539718</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0295</v>
+        <v>1.02728</v>
       </c>
       <c r="C95" t="n">
-        <v>0.77361</v>
+        <v>0.794122</v>
       </c>
       <c r="D95" t="n">
-        <v>0.557528</v>
+        <v>0.556582</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07197</v>
+        <v>1.06981</v>
       </c>
       <c r="C96" t="n">
-        <v>0.802685</v>
+        <v>0.827914</v>
       </c>
       <c r="D96" t="n">
-        <v>0.575317</v>
+        <v>0.574086</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11621</v>
+        <v>1.11438</v>
       </c>
       <c r="C97" t="n">
-        <v>0.833439</v>
+        <v>0.860528</v>
       </c>
       <c r="D97" t="n">
-        <v>0.596739</v>
+        <v>0.5962809999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16267</v>
+        <v>1.15976</v>
       </c>
       <c r="C98" t="n">
-        <v>0.865209</v>
+        <v>0.896564</v>
       </c>
       <c r="D98" t="n">
-        <v>0.614559</v>
+        <v>0.61372</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20588</v>
+        <v>1.20323</v>
       </c>
       <c r="C99" t="n">
-        <v>0.89681</v>
+        <v>0.929831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.634792</v>
+        <v>0.6352</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2506</v>
+        <v>1.24854</v>
       </c>
       <c r="C100" t="n">
-        <v>0.930609</v>
+        <v>0.965514</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6580279999999999</v>
+        <v>0.657011</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.3006</v>
+        <v>1.29927</v>
       </c>
       <c r="C101" t="n">
-        <v>0.964635</v>
+        <v>0.997586</v>
       </c>
       <c r="D101" t="n">
-        <v>0.681429</v>
+        <v>0.680042</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35791</v>
+        <v>1.35516</v>
       </c>
       <c r="C102" t="n">
-        <v>0.998959</v>
+        <v>1.03163</v>
       </c>
       <c r="D102" t="n">
-        <v>0.702962</v>
+        <v>0.703152</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41872</v>
+        <v>1.41778</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03305</v>
+        <v>1.07229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.725862</v>
+        <v>0.726513</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48774</v>
+        <v>1.48414</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06876</v>
+        <v>1.11518</v>
       </c>
       <c r="D104" t="n">
-        <v>0.754623</v>
+        <v>0.752516</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02687</v>
+        <v>1.02383</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10002</v>
+        <v>1.16419</v>
       </c>
       <c r="D105" t="n">
-        <v>0.778633</v>
+        <v>0.7803</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06213</v>
+        <v>1.05906</v>
       </c>
       <c r="C106" t="n">
-        <v>1.13959</v>
+        <v>1.21068</v>
       </c>
       <c r="D106" t="n">
-        <v>0.80596</v>
+        <v>0.804855</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09985</v>
+        <v>1.09726</v>
       </c>
       <c r="C107" t="n">
-        <v>0.855797</v>
+        <v>0.870296</v>
       </c>
       <c r="D107" t="n">
-        <v>0.696767</v>
+        <v>0.693202</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13628</v>
+        <v>1.13619</v>
       </c>
       <c r="C108" t="n">
-        <v>0.880104</v>
+        <v>0.89717</v>
       </c>
       <c r="D108" t="n">
-        <v>0.71282</v>
+        <v>0.710771</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17871</v>
+        <v>1.17646</v>
       </c>
       <c r="C109" t="n">
-        <v>0.901473</v>
+        <v>0.925195</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7313499999999999</v>
+        <v>0.728847</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22486</v>
+        <v>1.22265</v>
       </c>
       <c r="C110" t="n">
-        <v>0.930086</v>
+        <v>0.95275</v>
       </c>
       <c r="D110" t="n">
-        <v>0.74885</v>
+        <v>0.746663</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.27095</v>
+        <v>1.26819</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9564859999999999</v>
+        <v>0.9837939999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.767698</v>
+        <v>0.7650709999999999</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32065</v>
+        <v>1.316</v>
       </c>
       <c r="C112" t="n">
-        <v>0.983535</v>
+        <v>1.01873</v>
       </c>
       <c r="D112" t="n">
-        <v>0.788744</v>
+        <v>0.783977</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37458</v>
+        <v>1.37147</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01301</v>
+        <v>1.05523</v>
       </c>
       <c r="D113" t="n">
-        <v>0.806864</v>
+        <v>0.804235</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4317</v>
+        <v>1.4255</v>
       </c>
       <c r="C114" t="n">
-        <v>1.04389</v>
+        <v>1.09019</v>
       </c>
       <c r="D114" t="n">
-        <v>0.828167</v>
+        <v>0.823823</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48805</v>
+        <v>1.48217</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07658</v>
+        <v>1.13138</v>
       </c>
       <c r="D115" t="n">
-        <v>0.849475</v>
+        <v>0.844669</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.55236</v>
+        <v>1.54501</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11011</v>
+        <v>1.17144</v>
       </c>
       <c r="D116" t="n">
-        <v>0.871053</v>
+        <v>0.866353</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.61575</v>
+        <v>1.609</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14702</v>
+        <v>1.21595</v>
       </c>
       <c r="D117" t="n">
-        <v>0.897601</v>
+        <v>0.892804</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.68515</v>
+        <v>1.67886</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18507</v>
+        <v>1.26529</v>
       </c>
       <c r="D118" t="n">
-        <v>0.920947</v>
+        <v>0.916757</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10826</v>
+        <v>1.10805</v>
       </c>
       <c r="C119" t="n">
-        <v>1.22243</v>
+        <v>1.31128</v>
       </c>
       <c r="D119" t="n">
-        <v>0.945597</v>
+        <v>0.939766</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573881</v>
+        <v>0.5753740000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.387159</v>
+        <v>0.401472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249306</v>
+        <v>0.249219</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592346</v>
+        <v>0.594097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.402635</v>
+        <v>0.414584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254211</v>
+        <v>0.255057</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6200020000000001</v>
+        <v>0.620726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.430911</v>
+        <v>0.436826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261003</v>
+        <v>0.262583</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.651</v>
+        <v>0.646888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.438868</v>
+        <v>0.457311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.270356</v>
+        <v>0.270872</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.673192</v>
+        <v>0.672838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.454073</v>
+        <v>0.470206</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28131</v>
+        <v>0.279611</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695778</v>
+        <v>0.696834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.487004</v>
+        <v>0.497021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.284035</v>
+        <v>0.282729</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.72183</v>
+        <v>0.71822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.511937</v>
+        <v>0.508128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28871</v>
+        <v>0.288094</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.753018</v>
+        <v>0.748633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.532764</v>
+        <v>0.534189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.300212</v>
+        <v>0.294304</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.793733</v>
+        <v>0.778416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.523878</v>
+        <v>0.561938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311447</v>
+        <v>0.308769</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8133049999999999</v>
+        <v>0.814789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370252</v>
+        <v>0.381408</v>
       </c>
       <c r="D11" t="n">
-        <v>0.234934</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.516012</v>
+        <v>0.513633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.379666</v>
+        <v>0.399731</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24422</v>
+        <v>0.243885</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.538037</v>
+        <v>0.538704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.402435</v>
+        <v>0.424057</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249191</v>
+        <v>0.249381</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.559814</v>
+        <v>0.569873</v>
       </c>
       <c r="C14" t="n">
-        <v>0.416128</v>
+        <v>0.441596</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256878</v>
+        <v>0.255657</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.589066</v>
+        <v>0.593318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.440258</v>
+        <v>0.474838</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268812</v>
+        <v>0.267374</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.616289</v>
+        <v>0.622088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.455867</v>
+        <v>0.492483</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277407</v>
+        <v>0.278057</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6546419999999999</v>
+        <v>0.65565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.502124</v>
+        <v>0.527983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.289111</v>
+        <v>0.287923</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.684438</v>
+        <v>0.68712</v>
       </c>
       <c r="C18" t="n">
-        <v>0.520339</v>
+        <v>0.552059</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296963</v>
+        <v>0.298642</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.727528</v>
+        <v>0.72572</v>
       </c>
       <c r="C19" t="n">
-        <v>0.538988</v>
+        <v>0.582912</v>
       </c>
       <c r="D19" t="n">
-        <v>0.309124</v>
+        <v>0.308658</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.762927</v>
+        <v>0.7619939999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.589045</v>
+        <v>0.61394</v>
       </c>
       <c r="D20" t="n">
-        <v>0.319111</v>
+        <v>0.317053</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.799268</v>
+        <v>0.801987</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6045779999999999</v>
+        <v>0.651255</v>
       </c>
       <c r="D21" t="n">
-        <v>0.332712</v>
+        <v>0.332866</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.844155</v>
+        <v>0.845319</v>
       </c>
       <c r="C22" t="n">
-        <v>0.636454</v>
+        <v>0.683561</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343459</v>
+        <v>0.34221</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.891164</v>
+        <v>0.891389</v>
       </c>
       <c r="C23" t="n">
-        <v>0.696578</v>
+        <v>0.720091</v>
       </c>
       <c r="D23" t="n">
-        <v>0.34979</v>
+        <v>0.352789</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.933957</v>
+        <v>0.930914</v>
       </c>
       <c r="C24" t="n">
-        <v>0.712954</v>
+        <v>0.750615</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364979</v>
+        <v>0.36771</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.975186</v>
+        <v>0.976623</v>
       </c>
       <c r="C25" t="n">
-        <v>0.78284</v>
+        <v>0.785933</v>
       </c>
       <c r="D25" t="n">
-        <v>0.383109</v>
+        <v>0.380394</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02926</v>
+        <v>1.02523</v>
       </c>
       <c r="C26" t="n">
-        <v>0.456667</v>
+        <v>0.501503</v>
       </c>
       <c r="D26" t="n">
-        <v>0.280904</v>
+        <v>0.278117</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.653366</v>
+        <v>0.654209</v>
       </c>
       <c r="C27" t="n">
-        <v>0.48069</v>
+        <v>0.522675</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289546</v>
+        <v>0.287312</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.682792</v>
+        <v>0.682998</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5009940000000001</v>
+        <v>0.552461</v>
       </c>
       <c r="D28" t="n">
-        <v>0.300974</v>
+        <v>0.296266</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.71649</v>
+        <v>0.7165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.523805</v>
+        <v>0.579638</v>
       </c>
       <c r="D29" t="n">
-        <v>0.307267</v>
+        <v>0.307039</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7519749999999999</v>
+        <v>0.751705</v>
       </c>
       <c r="C30" t="n">
-        <v>0.561178</v>
+        <v>0.605297</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319447</v>
+        <v>0.318371</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.785865</v>
+        <v>0.789432</v>
       </c>
       <c r="C31" t="n">
-        <v>0.565431</v>
+        <v>0.636525</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325515</v>
+        <v>0.324647</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.823583</v>
+        <v>0.826959</v>
       </c>
       <c r="C32" t="n">
-        <v>0.613159</v>
+        <v>0.669972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337422</v>
+        <v>0.33812</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.862217</v>
+        <v>0.867191</v>
       </c>
       <c r="C33" t="n">
-        <v>0.623203</v>
+        <v>0.6980499999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.348439</v>
+        <v>0.349469</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9028119999999999</v>
+        <v>0.907201</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6797569999999999</v>
+        <v>0.737625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.355018</v>
+        <v>0.356309</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.942927</v>
+        <v>0.951398</v>
       </c>
       <c r="C35" t="n">
-        <v>0.694042</v>
+        <v>0.768893</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364761</v>
+        <v>0.366488</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.98517</v>
+        <v>0.988405</v>
       </c>
       <c r="C36" t="n">
-        <v>0.740792</v>
+        <v>0.802965</v>
       </c>
       <c r="D36" t="n">
-        <v>0.380659</v>
+        <v>0.380508</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03617</v>
+        <v>1.03702</v>
       </c>
       <c r="C37" t="n">
-        <v>0.791068</v>
+        <v>0.838486</v>
       </c>
       <c r="D37" t="n">
-        <v>0.39088</v>
+        <v>0.3935</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07959</v>
+        <v>1.07861</v>
       </c>
       <c r="C38" t="n">
-        <v>0.78557</v>
+        <v>0.883345</v>
       </c>
       <c r="D38" t="n">
-        <v>0.401259</v>
+        <v>0.40241</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12653</v>
+        <v>1.1266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7999810000000001</v>
+        <v>0.911921</v>
       </c>
       <c r="D39" t="n">
-        <v>0.414554</v>
+        <v>0.419358</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16533</v>
+        <v>1.17043</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51136</v>
+        <v>0.5552280000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313951</v>
+        <v>0.314995</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.706281</v>
+        <v>0.706207</v>
       </c>
       <c r="C41" t="n">
-        <v>0.524698</v>
+        <v>0.574778</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324736</v>
+        <v>0.324499</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.734552</v>
+        <v>0.735737</v>
       </c>
       <c r="C42" t="n">
-        <v>0.549907</v>
+        <v>0.603033</v>
       </c>
       <c r="D42" t="n">
-        <v>0.334162</v>
+        <v>0.334163</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.770705</v>
+        <v>0.7707850000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.581999</v>
+        <v>0.632371</v>
       </c>
       <c r="D43" t="n">
-        <v>0.34407</v>
+        <v>0.344023</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8059190000000001</v>
+        <v>0.80707</v>
       </c>
       <c r="C44" t="n">
-        <v>0.593785</v>
+        <v>0.662548</v>
       </c>
       <c r="D44" t="n">
-        <v>0.356229</v>
+        <v>0.355462</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841642</v>
+        <v>0.841522</v>
       </c>
       <c r="C45" t="n">
-        <v>0.631309</v>
+        <v>0.692357</v>
       </c>
       <c r="D45" t="n">
-        <v>0.367596</v>
+        <v>0.365312</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.885058</v>
+        <v>0.884056</v>
       </c>
       <c r="C46" t="n">
-        <v>0.66988</v>
+        <v>0.72299</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375126</v>
+        <v>0.375474</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.925022</v>
+        <v>0.924033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.708149</v>
+        <v>0.756601</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386967</v>
+        <v>0.385948</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.965726</v>
+        <v>0.9640609999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.711039</v>
+        <v>0.788857</v>
       </c>
       <c r="D48" t="n">
-        <v>0.399266</v>
+        <v>0.398371</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00684</v>
+        <v>1.00685</v>
       </c>
       <c r="C49" t="n">
-        <v>0.749175</v>
+        <v>0.827846</v>
       </c>
       <c r="D49" t="n">
-        <v>0.411709</v>
+        <v>0.410211</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0488</v>
+        <v>1.04706</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8010080000000001</v>
+        <v>0.866977</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421018</v>
+        <v>0.422828</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09393</v>
+        <v>1.0934</v>
       </c>
       <c r="C51" t="n">
-        <v>0.851754</v>
+        <v>0.896895</v>
       </c>
       <c r="D51" t="n">
-        <v>0.435928</v>
+        <v>0.433444</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13503</v>
+        <v>1.13463</v>
       </c>
       <c r="C52" t="n">
-        <v>0.894883</v>
+        <v>0.937232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.442689</v>
+        <v>0.447433</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.1824</v>
+        <v>1.18056</v>
       </c>
       <c r="C53" t="n">
-        <v>0.922639</v>
+        <v>0.977782</v>
       </c>
       <c r="D53" t="n">
-        <v>0.457854</v>
+        <v>0.458236</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22525</v>
+        <v>1.22515</v>
       </c>
       <c r="C54" t="n">
-        <v>0.527317</v>
+        <v>0.582422</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340684</v>
+        <v>0.340044</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.27084</v>
+        <v>1.26859</v>
       </c>
       <c r="C55" t="n">
-        <v>0.553956</v>
+        <v>0.606479</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348342</v>
+        <v>0.348217</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.750063</v>
+        <v>0.749514</v>
       </c>
       <c r="C56" t="n">
-        <v>0.578838</v>
+        <v>0.631923</v>
       </c>
       <c r="D56" t="n">
-        <v>0.358776</v>
+        <v>0.358269</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783509</v>
+        <v>0.783564</v>
       </c>
       <c r="C57" t="n">
-        <v>0.596171</v>
+        <v>0.658045</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369352</v>
+        <v>0.368601</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818789</v>
+        <v>0.817909</v>
       </c>
       <c r="C58" t="n">
-        <v>0.611466</v>
+        <v>0.688029</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378034</v>
+        <v>0.378279</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.852217</v>
+        <v>0.852165</v>
       </c>
       <c r="C59" t="n">
-        <v>0.667859</v>
+        <v>0.719479</v>
       </c>
       <c r="D59" t="n">
-        <v>0.390915</v>
+        <v>0.391425</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.893374</v>
+        <v>0.892797</v>
       </c>
       <c r="C60" t="n">
-        <v>0.681215</v>
+        <v>0.752034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.400298</v>
+        <v>0.401729</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9322549999999999</v>
+        <v>0.932349</v>
       </c>
       <c r="C61" t="n">
-        <v>0.710856</v>
+        <v>0.783624</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411877</v>
+        <v>0.411604</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.973765</v>
+        <v>0.972263</v>
       </c>
       <c r="C62" t="n">
-        <v>0.739721</v>
+        <v>0.818842</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424723</v>
+        <v>0.422795</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01842</v>
+        <v>1.01768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.783357</v>
+        <v>0.85714</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434967</v>
+        <v>0.433028</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06502</v>
+        <v>1.06515</v>
       </c>
       <c r="C64" t="n">
-        <v>0.830566</v>
+        <v>0.896609</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446547</v>
+        <v>0.446298</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10476</v>
+        <v>1.10613</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8750250000000001</v>
+        <v>0.934511</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15449</v>
+        <v>1.15397</v>
       </c>
       <c r="C66" t="n">
-        <v>0.932848</v>
+        <v>0.970343</v>
       </c>
       <c r="D66" t="n">
-        <v>0.471587</v>
+        <v>0.472801</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20115</v>
+        <v>1.19984</v>
       </c>
       <c r="C67" t="n">
-        <v>0.950569</v>
+        <v>1.01102</v>
       </c>
       <c r="D67" t="n">
-        <v>0.48538</v>
+        <v>0.485643</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25702</v>
+        <v>1.24882</v>
       </c>
       <c r="C68" t="n">
-        <v>0.535983</v>
+        <v>0.599149</v>
       </c>
       <c r="D68" t="n">
-        <v>0.349099</v>
+        <v>0.349858</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32713</v>
+        <v>1.31919</v>
       </c>
       <c r="C69" t="n">
-        <v>0.562209</v>
+        <v>0.640175</v>
       </c>
       <c r="D69" t="n">
-        <v>0.36267</v>
+        <v>0.363606</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.800521</v>
+        <v>0.810358</v>
       </c>
       <c r="C70" t="n">
-        <v>0.613503</v>
+        <v>0.6785910000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.378181</v>
+        <v>0.378937</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.849725</v>
+        <v>0.85623</v>
       </c>
       <c r="C71" t="n">
-        <v>0.656482</v>
+        <v>0.725838</v>
       </c>
       <c r="D71" t="n">
-        <v>0.38933</v>
+        <v>0.391808</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.907866</v>
+        <v>0.916477</v>
       </c>
       <c r="C72" t="n">
-        <v>0.669534</v>
+        <v>0.768998</v>
       </c>
       <c r="D72" t="n">
-        <v>0.404516</v>
+        <v>0.405824</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.971981</v>
+        <v>0.983483</v>
       </c>
       <c r="C73" t="n">
-        <v>0.726645</v>
+        <v>0.825146</v>
       </c>
       <c r="D73" t="n">
-        <v>0.418805</v>
+        <v>0.424412</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.04345</v>
+        <v>1.05468</v>
       </c>
       <c r="C74" t="n">
-        <v>0.785379</v>
+        <v>0.8849399999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.43965</v>
+        <v>0.442613</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11837</v>
+        <v>1.13499</v>
       </c>
       <c r="C75" t="n">
-        <v>0.824366</v>
+        <v>0.956053</v>
       </c>
       <c r="D75" t="n">
-        <v>0.45594</v>
+        <v>0.458274</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.20605</v>
+        <v>1.2193</v>
       </c>
       <c r="C76" t="n">
-        <v>0.911635</v>
+        <v>1.02571</v>
       </c>
       <c r="D76" t="n">
-        <v>0.477258</v>
+        <v>0.482748</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29517</v>
+        <v>1.30184</v>
       </c>
       <c r="C77" t="n">
-        <v>1.00341</v>
+        <v>1.09481</v>
       </c>
       <c r="D77" t="n">
-        <v>0.494672</v>
+        <v>0.497602</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39855</v>
+        <v>1.40976</v>
       </c>
       <c r="C78" t="n">
-        <v>1.05258</v>
+        <v>1.18778</v>
       </c>
       <c r="D78" t="n">
-        <v>0.523284</v>
+        <v>0.527488</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.54493</v>
+        <v>1.55529</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2078</v>
+        <v>1.31083</v>
       </c>
       <c r="D79" t="n">
-        <v>0.550427</v>
+        <v>0.558687</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.68755</v>
+        <v>1.69313</v>
       </c>
       <c r="C80" t="n">
-        <v>1.30363</v>
+        <v>1.42793</v>
       </c>
       <c r="D80" t="n">
-        <v>0.589096</v>
+        <v>0.5925319999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.8734</v>
+        <v>1.8558</v>
       </c>
       <c r="C81" t="n">
-        <v>1.44796</v>
+        <v>1.57403</v>
       </c>
       <c r="D81" t="n">
-        <v>0.634742</v>
+        <v>0.6292489999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05048</v>
+        <v>2.04461</v>
       </c>
       <c r="C82" t="n">
-        <v>1.61181</v>
+        <v>1.74493</v>
       </c>
       <c r="D82" t="n">
-        <v>0.661797</v>
+        <v>0.652103</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26652</v>
+        <v>2.26634</v>
       </c>
       <c r="C83" t="n">
-        <v>0.953259</v>
+        <v>1.10164</v>
       </c>
       <c r="D83" t="n">
-        <v>0.502202</v>
+        <v>0.5032140000000001</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.50702</v>
+        <v>2.51159</v>
       </c>
       <c r="C84" t="n">
-        <v>1.04046</v>
+        <v>1.21401</v>
       </c>
       <c r="D84" t="n">
-        <v>0.538842</v>
+        <v>0.541579</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59849</v>
+        <v>1.59547</v>
       </c>
       <c r="C85" t="n">
-        <v>1.17575</v>
+        <v>1.34621</v>
       </c>
       <c r="D85" t="n">
-        <v>0.579908</v>
+        <v>0.584924</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76677</v>
+        <v>1.76291</v>
       </c>
       <c r="C86" t="n">
-        <v>1.30137</v>
+        <v>1.49444</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6115660000000001</v>
+        <v>0.620871</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.95466</v>
+        <v>1.9519</v>
       </c>
       <c r="C87" t="n">
-        <v>1.4578</v>
+        <v>1.64813</v>
       </c>
       <c r="D87" t="n">
-        <v>0.676576</v>
+        <v>0.6749309999999999</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15931</v>
+        <v>2.16103</v>
       </c>
       <c r="C88" t="n">
-        <v>1.63808</v>
+        <v>1.83103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.734769</v>
+        <v>0.722957</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.3902</v>
+        <v>2.37898</v>
       </c>
       <c r="C89" t="n">
-        <v>1.77194</v>
+        <v>2.02035</v>
       </c>
       <c r="D89" t="n">
-        <v>0.781965</v>
+        <v>0.785509</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.63821</v>
+        <v>2.61653</v>
       </c>
       <c r="C90" t="n">
-        <v>1.92902</v>
+        <v>2.23502</v>
       </c>
       <c r="D90" t="n">
-        <v>0.83989</v>
+        <v>0.842036</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.89352</v>
+        <v>2.88371</v>
       </c>
       <c r="C91" t="n">
-        <v>2.15644</v>
+        <v>2.44623</v>
       </c>
       <c r="D91" t="n">
-        <v>0.914507</v>
+        <v>0.893369</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.15768</v>
+        <v>3.14889</v>
       </c>
       <c r="C92" t="n">
-        <v>2.43108</v>
+        <v>2.693</v>
       </c>
       <c r="D92" t="n">
-        <v>0.976776</v>
+        <v>0.972657</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.46552</v>
+        <v>3.44009</v>
       </c>
       <c r="C93" t="n">
-        <v>2.68562</v>
+        <v>2.92777</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0605</v>
+        <v>1.05664</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.74617</v>
+        <v>3.73786</v>
       </c>
       <c r="C94" t="n">
-        <v>2.88397</v>
+        <v>3.2074</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14601</v>
+        <v>1.14198</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.07269</v>
+        <v>4.05418</v>
       </c>
       <c r="C95" t="n">
-        <v>3.20228</v>
+        <v>3.47229</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20661</v>
+        <v>1.21506</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.40045</v>
+        <v>4.36739</v>
       </c>
       <c r="C96" t="n">
-        <v>3.44316</v>
+        <v>3.76422</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28598</v>
+        <v>1.28507</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.73902</v>
+        <v>4.67762</v>
       </c>
       <c r="C97" t="n">
-        <v>1.76334</v>
+        <v>2.14132</v>
       </c>
       <c r="D97" t="n">
-        <v>0.932937</v>
+        <v>0.9307260000000001</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.03518</v>
+        <v>4.95188</v>
       </c>
       <c r="C98" t="n">
-        <v>1.91581</v>
+        <v>2.27302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.986237</v>
+        <v>0.986889</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83868</v>
+        <v>2.82932</v>
       </c>
       <c r="C99" t="n">
-        <v>2.00701</v>
+        <v>2.41577</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04642</v>
+        <v>1.04338</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.01874</v>
+        <v>3.01124</v>
       </c>
       <c r="C100" t="n">
-        <v>2.1524</v>
+        <v>2.56752</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0988</v>
+        <v>1.09211</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.21933</v>
+        <v>3.20418</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37184</v>
+        <v>2.7338</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15925</v>
+        <v>1.16036</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.44171</v>
+        <v>3.42966</v>
       </c>
       <c r="C102" t="n">
-        <v>2.51325</v>
+        <v>2.92453</v>
       </c>
       <c r="D102" t="n">
-        <v>1.21187</v>
+        <v>1.20688</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.67552</v>
+        <v>3.65278</v>
       </c>
       <c r="C103" t="n">
-        <v>2.76321</v>
+        <v>3.13036</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27131</v>
+        <v>1.27949</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.91921</v>
+        <v>3.90629</v>
       </c>
       <c r="C104" t="n">
-        <v>2.88136</v>
+        <v>3.34967</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33794</v>
+        <v>1.33307</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.19097</v>
+        <v>4.17588</v>
       </c>
       <c r="C105" t="n">
-        <v>3.08827</v>
+        <v>3.58334</v>
       </c>
       <c r="D105" t="n">
-        <v>1.43081</v>
+        <v>1.42765</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.46669</v>
+        <v>4.44796</v>
       </c>
       <c r="C106" t="n">
-        <v>3.35473</v>
+        <v>3.82145</v>
       </c>
       <c r="D106" t="n">
-        <v>1.49013</v>
+        <v>1.47555</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.77423</v>
+        <v>4.75405</v>
       </c>
       <c r="C107" t="n">
-        <v>3.5526</v>
+        <v>4.08206</v>
       </c>
       <c r="D107" t="n">
-        <v>1.54153</v>
+        <v>1.55677</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.07602</v>
+        <v>5.05404</v>
       </c>
       <c r="C108" t="n">
-        <v>3.83588</v>
+        <v>4.36648</v>
       </c>
       <c r="D108" t="n">
-        <v>1.63173</v>
+        <v>1.63614</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.40994</v>
+        <v>5.37894</v>
       </c>
       <c r="C109" t="n">
-        <v>4.19731</v>
+        <v>4.66897</v>
       </c>
       <c r="D109" t="n">
-        <v>1.71772</v>
+        <v>1.70901</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.75223</v>
+        <v>5.71381</v>
       </c>
       <c r="C110" t="n">
-        <v>4.46757</v>
+        <v>4.96696</v>
       </c>
       <c r="D110" t="n">
-        <v>1.81912</v>
+        <v>1.79681</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.12542</v>
+        <v>6.06033</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17864</v>
+        <v>2.65904</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30611</v>
+        <v>1.31252</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.44411</v>
+        <v>6.40484</v>
       </c>
       <c r="C112" t="n">
-        <v>2.33871</v>
+        <v>2.81466</v>
       </c>
       <c r="D112" t="n">
-        <v>1.3662</v>
+        <v>1.37289</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.78304</v>
+        <v>6.76798</v>
       </c>
       <c r="C113" t="n">
-        <v>2.43359</v>
+        <v>2.98041</v>
       </c>
       <c r="D113" t="n">
-        <v>1.43304</v>
+        <v>1.40925</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.71023</v>
+        <v>3.69312</v>
       </c>
       <c r="C114" t="n">
-        <v>2.59687</v>
+        <v>3.16496</v>
       </c>
       <c r="D114" t="n">
-        <v>1.48574</v>
+        <v>1.48048</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.94438</v>
+        <v>3.90455</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7994</v>
+        <v>3.35432</v>
       </c>
       <c r="D115" t="n">
-        <v>1.55038</v>
+        <v>1.55507</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.16887</v>
+        <v>4.13587</v>
       </c>
       <c r="C116" t="n">
-        <v>2.93172</v>
+        <v>3.5657</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62803</v>
+        <v>1.59713</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.41172</v>
+        <v>4.37474</v>
       </c>
       <c r="C117" t="n">
-        <v>3.17847</v>
+        <v>3.78847</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68259</v>
+        <v>1.67776</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.67161</v>
+        <v>4.64468</v>
       </c>
       <c r="C118" t="n">
-        <v>3.32138</v>
+        <v>4.00814</v>
       </c>
       <c r="D118" t="n">
-        <v>1.7523</v>
+        <v>1.73083</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.93682</v>
+        <v>4.9184</v>
       </c>
       <c r="C119" t="n">
-        <v>3.78353</v>
+        <v>4.27692</v>
       </c>
       <c r="D119" t="n">
-        <v>1.8059</v>
+        <v>1.80054</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34075</v>
+        <v>0.334076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229396</v>
+        <v>0.226341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251441</v>
+        <v>0.246873</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256699</v>
+        <v>0.25327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231181</v>
+        <v>0.228064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2538</v>
+        <v>0.249708</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.265158</v>
+        <v>0.260398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237209</v>
+        <v>0.231872</v>
       </c>
       <c r="D4" t="n">
-        <v>0.259925</v>
+        <v>0.255479</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.272239</v>
+        <v>0.267177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241501</v>
+        <v>0.236615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.264808</v>
+        <v>0.258487</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.281189</v>
+        <v>0.275718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.246343</v>
+        <v>0.241298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.270056</v>
+        <v>0.263248</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.29058</v>
+        <v>0.285705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202877</v>
+        <v>0.199431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.225188</v>
+        <v>0.22072</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.297507</v>
+        <v>0.293924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208541</v>
+        <v>0.20541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231612</v>
+        <v>0.227612</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307831</v>
+        <v>0.302372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213144</v>
+        <v>0.210471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237338</v>
+        <v>0.233252</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315909</v>
+        <v>0.310416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.219322</v>
+        <v>0.216369</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24505</v>
+        <v>0.241192</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.322362</v>
+        <v>0.318601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224755</v>
+        <v>0.222128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251797</v>
+        <v>0.248243</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332558</v>
+        <v>0.328643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.232569</v>
+        <v>0.230824</v>
       </c>
       <c r="D12" t="n">
-        <v>0.261355</v>
+        <v>0.257505</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.34254</v>
+        <v>0.338205</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238601</v>
+        <v>0.235332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.267359</v>
+        <v>0.264297</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.350813</v>
+        <v>0.347607</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243705</v>
+        <v>0.240078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.27324</v>
+        <v>0.26996</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.362052</v>
+        <v>0.358461</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248287</v>
+        <v>0.245944</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278634</v>
+        <v>0.276381</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.369829</v>
+        <v>0.366505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.252643</v>
+        <v>0.251247</v>
       </c>
       <c r="D16" t="n">
-        <v>0.285116</v>
+        <v>0.282707</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.381019</v>
+        <v>0.377735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.258506</v>
+        <v>0.257445</v>
       </c>
       <c r="D17" t="n">
-        <v>0.292419</v>
+        <v>0.290203</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288616</v>
+        <v>0.288495</v>
       </c>
       <c r="C18" t="n">
-        <v>0.261996</v>
+        <v>0.261171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29567</v>
+        <v>0.293935</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295748</v>
+        <v>0.295814</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268257</v>
+        <v>0.267428</v>
       </c>
       <c r="D19" t="n">
-        <v>0.303532</v>
+        <v>0.300995</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.305677</v>
+        <v>0.305683</v>
       </c>
       <c r="C20" t="n">
-        <v>0.274606</v>
+        <v>0.274195</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310849</v>
+        <v>0.30833</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315331</v>
+        <v>0.314943</v>
       </c>
       <c r="C21" t="n">
-        <v>0.218777</v>
+        <v>0.218744</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246538</v>
+        <v>0.246592</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.325168</v>
+        <v>0.324919</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22568</v>
+        <v>0.225384</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253854</v>
+        <v>0.253808</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332731</v>
+        <v>0.332475</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232095</v>
+        <v>0.231345</v>
       </c>
       <c r="D23" t="n">
-        <v>0.262481</v>
+        <v>0.261172</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340319</v>
+        <v>0.340974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.236049</v>
+        <v>0.235646</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267334</v>
+        <v>0.267459</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347723</v>
+        <v>0.347973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.241717</v>
+        <v>0.241671</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274046</v>
+        <v>0.274192</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357152</v>
+        <v>0.357129</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248437</v>
+        <v>0.248482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281307</v>
+        <v>0.281418</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365063</v>
+        <v>0.365444</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252426</v>
+        <v>0.252538</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287872</v>
+        <v>0.28772</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.374899</v>
+        <v>0.374776</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257785</v>
+        <v>0.257831</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293983</v>
+        <v>0.294159</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384011</v>
+        <v>0.383392</v>
       </c>
       <c r="C29" t="n">
-        <v>0.263944</v>
+        <v>0.264084</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301053</v>
+        <v>0.301343</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391309</v>
+        <v>0.391519</v>
       </c>
       <c r="C30" t="n">
-        <v>0.26887</v>
+        <v>0.26903</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3072</v>
+        <v>0.307489</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400669</v>
+        <v>0.40019</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274161</v>
+        <v>0.274115</v>
       </c>
       <c r="D31" t="n">
-        <v>0.312603</v>
+        <v>0.313003</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298545</v>
+        <v>0.297806</v>
       </c>
       <c r="C32" t="n">
-        <v>0.279644</v>
+        <v>0.279593</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320531</v>
+        <v>0.319602</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306803</v>
+        <v>0.305496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284636</v>
+        <v>0.284712</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32596</v>
+        <v>0.325822</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313563</v>
+        <v>0.313221</v>
       </c>
       <c r="C34" t="n">
-        <v>0.290008</v>
+        <v>0.289637</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332008</v>
+        <v>0.331973</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322695</v>
+        <v>0.322076</v>
       </c>
       <c r="C35" t="n">
-        <v>0.22834</v>
+        <v>0.227809</v>
       </c>
       <c r="D35" t="n">
-        <v>0.259019</v>
+        <v>0.258322</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.33275</v>
+        <v>0.331343</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233947</v>
+        <v>0.233528</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264706</v>
+        <v>0.264317</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339852</v>
+        <v>0.33952</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239373</v>
+        <v>0.239114</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270999</v>
+        <v>0.270365</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347775</v>
+        <v>0.34709</v>
       </c>
       <c r="C38" t="n">
-        <v>0.245103</v>
+        <v>0.244779</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277368</v>
+        <v>0.276871</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356258</v>
+        <v>0.355845</v>
       </c>
       <c r="C39" t="n">
-        <v>0.250858</v>
+        <v>0.250722</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284328</v>
+        <v>0.283971</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.36532</v>
+        <v>0.364839</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256374</v>
+        <v>0.256294</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290873</v>
+        <v>0.290621</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372852</v>
+        <v>0.372458</v>
       </c>
       <c r="C41" t="n">
-        <v>0.262056</v>
+        <v>0.261814</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298258</v>
+        <v>0.297703</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381213</v>
+        <v>0.382856</v>
       </c>
       <c r="C42" t="n">
-        <v>0.267019</v>
+        <v>0.266898</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303686</v>
+        <v>0.303355</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.391333</v>
+        <v>0.390838</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272816</v>
+        <v>0.272475</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310633</v>
+        <v>0.310362</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.399645</v>
+        <v>0.402331</v>
       </c>
       <c r="C44" t="n">
-        <v>0.277591</v>
+        <v>0.277288</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317794</v>
+        <v>0.317306</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.407748</v>
+        <v>0.407895</v>
       </c>
       <c r="C45" t="n">
-        <v>0.28242</v>
+        <v>0.282132</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323568</v>
+        <v>0.322999</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418747</v>
+        <v>0.417934</v>
       </c>
       <c r="C46" t="n">
-        <v>0.287069</v>
+        <v>0.286862</v>
       </c>
       <c r="D46" t="n">
-        <v>0.329092</v>
+        <v>0.328533</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3059</v>
+        <v>0.305898</v>
       </c>
       <c r="C47" t="n">
-        <v>0.292037</v>
+        <v>0.291699</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335079</v>
+        <v>0.334702</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313698</v>
+        <v>0.312786</v>
       </c>
       <c r="C48" t="n">
-        <v>0.297411</v>
+        <v>0.297192</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342636</v>
+        <v>0.342245</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322861</v>
+        <v>0.322189</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302248</v>
+        <v>0.302147</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351849</v>
+        <v>0.351776</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.331395</v>
+        <v>0.330174</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236466</v>
+        <v>0.236492</v>
       </c>
       <c r="D50" t="n">
-        <v>0.263808</v>
+        <v>0.262587</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338698</v>
+        <v>0.339759</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242263</v>
+        <v>0.242286</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269959</v>
+        <v>0.270095</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347876</v>
+        <v>0.347361</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248509</v>
+        <v>0.248539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277404</v>
+        <v>0.277505</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.356114</v>
+        <v>0.355327</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25419</v>
+        <v>0.253974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284621</v>
+        <v>0.284654</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364431</v>
+        <v>0.364194</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259923</v>
+        <v>0.259776</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291545</v>
+        <v>0.291533</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372774</v>
+        <v>0.372761</v>
       </c>
       <c r="C55" t="n">
-        <v>0.26554</v>
+        <v>0.265424</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298935</v>
+        <v>0.298851</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.38138</v>
+        <v>0.381791</v>
       </c>
       <c r="C56" t="n">
-        <v>0.270941</v>
+        <v>0.271033</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305604</v>
+        <v>0.305022</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390331</v>
+        <v>0.39044</v>
       </c>
       <c r="C57" t="n">
-        <v>0.275837</v>
+        <v>0.275871</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312387</v>
+        <v>0.311934</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399156</v>
+        <v>0.399358</v>
       </c>
       <c r="C58" t="n">
-        <v>0.280534</v>
+        <v>0.280582</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318819</v>
+        <v>0.318521</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407813</v>
+        <v>0.407757</v>
       </c>
       <c r="C59" t="n">
-        <v>0.285254</v>
+        <v>0.285261</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325622</v>
+        <v>0.325155</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.417831</v>
+        <v>0.41805</v>
       </c>
       <c r="C60" t="n">
-        <v>0.290214</v>
+        <v>0.290276</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332371</v>
+        <v>0.332493</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309662</v>
+        <v>0.310549</v>
       </c>
       <c r="C61" t="n">
-        <v>0.295471</v>
+        <v>0.295419</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339577</v>
+        <v>0.339429</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.320174</v>
+        <v>0.321493</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300069</v>
+        <v>0.300337</v>
       </c>
       <c r="D62" t="n">
-        <v>0.346088</v>
+        <v>0.345923</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.331532</v>
+        <v>0.33273</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30617</v>
+        <v>0.30598</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354569</v>
+        <v>0.353898</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.341917</v>
+        <v>0.343681</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2443</v>
+        <v>0.245606</v>
       </c>
       <c r="D64" t="n">
-        <v>0.275813</v>
+        <v>0.277462</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.35071</v>
+        <v>0.355303</v>
       </c>
       <c r="C65" t="n">
-        <v>0.251259</v>
+        <v>0.25328</v>
       </c>
       <c r="D65" t="n">
-        <v>0.284975</v>
+        <v>0.287137</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.362407</v>
+        <v>0.36662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.257912</v>
+        <v>0.259691</v>
       </c>
       <c r="D66" t="n">
-        <v>0.294312</v>
+        <v>0.296663</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.376989</v>
+        <v>0.379908</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264848</v>
+        <v>0.266259</v>
       </c>
       <c r="D67" t="n">
-        <v>0.304608</v>
+        <v>0.304344</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.389319</v>
+        <v>0.392208</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272203</v>
+        <v>0.276037</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314326</v>
+        <v>0.316161</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.402592</v>
+        <v>0.406728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.280469</v>
+        <v>0.284664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.324629</v>
+        <v>0.327404</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.415719</v>
+        <v>0.422801</v>
       </c>
       <c r="C70" t="n">
-        <v>0.290551</v>
+        <v>0.296743</v>
       </c>
       <c r="D70" t="n">
-        <v>0.335207</v>
+        <v>0.340892</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.431432</v>
+        <v>0.444239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300431</v>
+        <v>0.307061</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345566</v>
+        <v>0.355401</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.450256</v>
+        <v>0.465852</v>
       </c>
       <c r="C72" t="n">
-        <v>0.311884</v>
+        <v>0.31712</v>
       </c>
       <c r="D72" t="n">
-        <v>0.361725</v>
+        <v>0.369607</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.47661</v>
+        <v>0.485814</v>
       </c>
       <c r="C73" t="n">
-        <v>0.321871</v>
+        <v>0.325575</v>
       </c>
       <c r="D73" t="n">
-        <v>0.378262</v>
+        <v>0.381847</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.495769</v>
+        <v>0.50326</v>
       </c>
       <c r="C74" t="n">
-        <v>0.333225</v>
+        <v>0.337191</v>
       </c>
       <c r="D74" t="n">
-        <v>0.392579</v>
+        <v>0.396491</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.516888</v>
+        <v>0.524101</v>
       </c>
       <c r="C75" t="n">
-        <v>0.347608</v>
+        <v>0.350264</v>
       </c>
       <c r="D75" t="n">
-        <v>0.408381</v>
+        <v>0.412445</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.490217</v>
+        <v>0.486099</v>
       </c>
       <c r="C76" t="n">
-        <v>0.363833</v>
+        <v>0.367482</v>
       </c>
       <c r="D76" t="n">
-        <v>0.433172</v>
+        <v>0.435534</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.516669</v>
+        <v>0.514112</v>
       </c>
       <c r="C77" t="n">
-        <v>0.380984</v>
+        <v>0.38404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.45604</v>
+        <v>0.458016</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.544546</v>
+        <v>0.539816</v>
       </c>
       <c r="C78" t="n">
-        <v>0.342291</v>
+        <v>0.339106</v>
       </c>
       <c r="D78" t="n">
-        <v>0.415197</v>
+        <v>0.411664</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.568966</v>
+        <v>0.568376</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3596</v>
+        <v>0.356149</v>
       </c>
       <c r="D79" t="n">
-        <v>0.441229</v>
+        <v>0.437505</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.599671</v>
+        <v>0.601602</v>
       </c>
       <c r="C80" t="n">
-        <v>0.38702</v>
+        <v>0.383425</v>
       </c>
       <c r="D80" t="n">
-        <v>0.466324</v>
+        <v>0.461212</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6337390000000001</v>
+        <v>0.636609</v>
       </c>
       <c r="C81" t="n">
-        <v>0.399354</v>
+        <v>0.398797</v>
       </c>
       <c r="D81" t="n">
-        <v>0.488693</v>
+        <v>0.486837</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.671616</v>
+        <v>0.673161</v>
       </c>
       <c r="C82" t="n">
-        <v>0.417531</v>
+        <v>0.416955</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5155999999999999</v>
+        <v>0.514208</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.708996</v>
+        <v>0.710174</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436389</v>
+        <v>0.437551</v>
       </c>
       <c r="D83" t="n">
-        <v>0.54283</v>
+        <v>0.54109</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.740465</v>
+        <v>0.742604</v>
       </c>
       <c r="C84" t="n">
-        <v>0.458434</v>
+        <v>0.458375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.569484</v>
+        <v>0.568546</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7785879999999999</v>
+        <v>0.781354</v>
       </c>
       <c r="C85" t="n">
-        <v>0.481041</v>
+        <v>0.480935</v>
       </c>
       <c r="D85" t="n">
-        <v>0.597661</v>
+        <v>0.597885</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.818554</v>
+        <v>0.822873</v>
       </c>
       <c r="C86" t="n">
-        <v>0.50345</v>
+        <v>0.503997</v>
       </c>
       <c r="D86" t="n">
-        <v>0.627702</v>
+        <v>0.628173</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.860899</v>
+        <v>0.8652879999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.525635</v>
+        <v>0.527043</v>
       </c>
       <c r="D87" t="n">
-        <v>0.656458</v>
+        <v>0.65661</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.901196</v>
+        <v>0.90798</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5485409999999999</v>
+        <v>0.5510930000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.691882</v>
+        <v>0.693935</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.946118</v>
+        <v>0.954298</v>
       </c>
       <c r="C89" t="n">
-        <v>0.572573</v>
+        <v>0.57622</v>
       </c>
       <c r="D89" t="n">
-        <v>0.724014</v>
+        <v>0.726763</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829557</v>
+        <v>0.839337</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5970569999999999</v>
+        <v>0.601461</v>
       </c>
       <c r="D90" t="n">
-        <v>0.745949</v>
+        <v>0.750545</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.85569</v>
+        <v>0.865544</v>
       </c>
       <c r="C91" t="n">
-        <v>0.624358</v>
+        <v>0.629308</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7785570000000001</v>
+        <v>0.783484</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.885242</v>
+        <v>0.896634</v>
       </c>
       <c r="C92" t="n">
-        <v>0.533795</v>
+        <v>0.539256</v>
       </c>
       <c r="D92" t="n">
-        <v>0.673669</v>
+        <v>0.679521</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.912976</v>
+        <v>0.92622</v>
       </c>
       <c r="C93" t="n">
-        <v>0.549725</v>
+        <v>0.555352</v>
       </c>
       <c r="D93" t="n">
-        <v>0.699978</v>
+        <v>0.705962</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.942848</v>
+        <v>0.95656</v>
       </c>
       <c r="C94" t="n">
-        <v>0.566321</v>
+        <v>0.572425</v>
       </c>
       <c r="D94" t="n">
-        <v>0.71688</v>
+        <v>0.722839</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9734699999999999</v>
+        <v>0.9873690000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.583852</v>
+        <v>0.589861</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7527740000000001</v>
+        <v>0.760011</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00172</v>
+        <v>1.01568</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6034</v>
+        <v>0.609336</v>
       </c>
       <c r="D96" t="n">
-        <v>0.778427</v>
+        <v>0.785995</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03173</v>
+        <v>1.046</v>
       </c>
       <c r="C97" t="n">
-        <v>0.62152</v>
+        <v>0.628373</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8075639999999999</v>
+        <v>0.814578</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06895</v>
+        <v>1.08353</v>
       </c>
       <c r="C98" t="n">
-        <v>0.640293</v>
+        <v>0.647247</v>
       </c>
       <c r="D98" t="n">
-        <v>0.834328</v>
+        <v>0.843289</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10573</v>
+        <v>1.1205</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6601630000000001</v>
+        <v>0.667471</v>
       </c>
       <c r="D99" t="n">
-        <v>0.863022</v>
+        <v>0.871103</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14048</v>
+        <v>1.15585</v>
       </c>
       <c r="C100" t="n">
-        <v>0.67986</v>
+        <v>0.687972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.890409</v>
+        <v>0.901586</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16705</v>
+        <v>1.18212</v>
       </c>
       <c r="C101" t="n">
-        <v>0.701384</v>
+        <v>0.709728</v>
       </c>
       <c r="D101" t="n">
-        <v>0.919129</v>
+        <v>0.931513</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20344</v>
+        <v>1.21896</v>
       </c>
       <c r="C102" t="n">
-        <v>0.724301</v>
+        <v>0.733359</v>
       </c>
       <c r="D102" t="n">
-        <v>0.953777</v>
+        <v>0.967924</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24266</v>
+        <v>1.25913</v>
       </c>
       <c r="C103" t="n">
-        <v>0.748578</v>
+        <v>0.757721</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9857320000000001</v>
+        <v>0.999923</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.28333</v>
+        <v>1.30025</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7726460000000001</v>
+        <v>0.782454</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01834</v>
+        <v>1.03314</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02461</v>
+        <v>1.04016</v>
       </c>
       <c r="C105" t="n">
-        <v>0.797589</v>
+        <v>0.807192</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05149</v>
+        <v>1.06337</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05098</v>
+        <v>1.06566</v>
       </c>
       <c r="C106" t="n">
-        <v>0.82395</v>
+        <v>0.834979</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08597</v>
+        <v>1.10285</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07712</v>
+        <v>1.09448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.657043</v>
+        <v>0.668941</v>
       </c>
       <c r="D107" t="n">
-        <v>0.893858</v>
+        <v>0.908979</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09917</v>
+        <v>1.11569</v>
       </c>
       <c r="C108" t="n">
-        <v>0.672959</v>
+        <v>0.684033</v>
       </c>
       <c r="D108" t="n">
-        <v>0.918923</v>
+        <v>0.933522</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12791</v>
+        <v>1.14517</v>
       </c>
       <c r="C109" t="n">
-        <v>0.688845</v>
+        <v>0.690667</v>
       </c>
       <c r="D109" t="n">
-        <v>0.945875</v>
+        <v>0.957796</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15496</v>
+        <v>1.17323</v>
       </c>
       <c r="C110" t="n">
-        <v>0.70529</v>
+        <v>0.707786</v>
       </c>
       <c r="D110" t="n">
-        <v>0.972378</v>
+        <v>0.9859019999999999</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18334</v>
+        <v>1.20284</v>
       </c>
       <c r="C111" t="n">
-        <v>0.722459</v>
+        <v>0.736056</v>
       </c>
       <c r="D111" t="n">
-        <v>0.998481</v>
+        <v>1.01601</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22153</v>
+        <v>1.23974</v>
       </c>
       <c r="C112" t="n">
-        <v>0.741584</v>
+        <v>0.7536119999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02952</v>
+        <v>1.04461</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2539</v>
+        <v>1.2725</v>
       </c>
       <c r="C113" t="n">
-        <v>0.760491</v>
+        <v>0.7729279999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05748</v>
+        <v>1.07276</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28573</v>
+        <v>1.305</v>
       </c>
       <c r="C114" t="n">
-        <v>0.780203</v>
+        <v>0.792919</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09336</v>
+        <v>1.10992</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32074</v>
+        <v>1.34096</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8008150000000001</v>
+        <v>0.814468</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12425</v>
+        <v>1.1418</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35675</v>
+        <v>1.37748</v>
       </c>
       <c r="C116" t="n">
-        <v>0.821839</v>
+        <v>0.835686</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14738</v>
+        <v>1.16425</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39417</v>
+        <v>1.41625</v>
       </c>
       <c r="C117" t="n">
-        <v>0.844631</v>
+        <v>0.858573</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17892</v>
+        <v>1.19672</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43658</v>
+        <v>1.45842</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8680870000000001</v>
+        <v>0.8831020000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21566</v>
+        <v>1.23464</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11807</v>
+        <v>1.13865</v>
       </c>
       <c r="C119" t="n">
-        <v>0.893664</v>
+        <v>0.908433</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24639</v>
+        <v>1.26543</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267722</v>
+        <v>0.270338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180777</v>
+        <v>0.180814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141459</v>
+        <v>0.14203</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193795</v>
+        <v>0.198148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18205</v>
+        <v>0.183142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141218</v>
+        <v>0.142677</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199786</v>
+        <v>0.203943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186745</v>
+        <v>0.188499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145103</v>
+        <v>0.146584</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.20847</v>
+        <v>0.212879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194617</v>
+        <v>0.19809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14905</v>
+        <v>0.150739</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.21417</v>
+        <v>0.216897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200236</v>
+        <v>0.20358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152544</v>
+        <v>0.15426</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221633</v>
+        <v>0.225413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162342</v>
+        <v>0.165325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138429</v>
+        <v>0.141496</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22931</v>
+        <v>0.231679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166219</v>
+        <v>0.169676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141333</v>
+        <v>0.142677</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.236504</v>
+        <v>0.239874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173671</v>
+        <v>0.176693</v>
       </c>
       <c r="D9" t="n">
-        <v>0.144679</v>
+        <v>0.146098</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.243703</v>
+        <v>0.246442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176994</v>
+        <v>0.180963</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145815</v>
+        <v>0.146869</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252333</v>
+        <v>0.253659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181984</v>
+        <v>0.184828</v>
       </c>
       <c r="D11" t="n">
-        <v>0.149673</v>
+        <v>0.151744</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262327</v>
+        <v>0.265283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189908</v>
+        <v>0.193001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.152701</v>
+        <v>0.156141</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2692</v>
+        <v>0.272099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197242</v>
+        <v>0.19847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156036</v>
+        <v>0.158397</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280833</v>
+        <v>0.281762</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203876</v>
+        <v>0.20502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158806</v>
+        <v>0.160121</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294461</v>
+        <v>0.295804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209547</v>
+        <v>0.210985</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163696</v>
+        <v>0.165725</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.301883</v>
+        <v>0.303727</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218642</v>
+        <v>0.220017</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166698</v>
+        <v>0.168488</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.315827</v>
+        <v>0.317687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226109</v>
+        <v>0.227463</v>
       </c>
       <c r="D17" t="n">
-        <v>0.169229</v>
+        <v>0.172973</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.233732</v>
+        <v>0.23481</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232201</v>
+        <v>0.233017</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172888</v>
+        <v>0.174393</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242269</v>
+        <v>0.242723</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240759</v>
+        <v>0.241593</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179432</v>
+        <v>0.180182</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247733</v>
+        <v>0.247512</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251961</v>
+        <v>0.252319</v>
       </c>
       <c r="D20" t="n">
-        <v>0.183938</v>
+        <v>0.184167</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253517</v>
+        <v>0.253445</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201378</v>
+        <v>0.201044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168711</v>
+        <v>0.168582</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259049</v>
+        <v>0.260375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207471</v>
+        <v>0.205565</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171974</v>
+        <v>0.171127</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268745</v>
+        <v>0.270142</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212302</v>
+        <v>0.211017</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174361</v>
+        <v>0.173673</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276854</v>
+        <v>0.27683</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216261</v>
+        <v>0.214851</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177514</v>
+        <v>0.176722</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284647</v>
+        <v>0.284752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.221639</v>
+        <v>0.220229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.17943</v>
+        <v>0.179625</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293616</v>
+        <v>0.293605</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229621</v>
+        <v>0.228428</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183434</v>
+        <v>0.183043</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302784</v>
+        <v>0.302328</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23326</v>
+        <v>0.232663</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186005</v>
+        <v>0.185494</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313925</v>
+        <v>0.314432</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238765</v>
+        <v>0.237623</v>
       </c>
       <c r="D28" t="n">
-        <v>0.188903</v>
+        <v>0.189654</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.324011</v>
+        <v>0.322895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245419</v>
+        <v>0.244886</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191852</v>
+        <v>0.191458</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.333674</v>
+        <v>0.332826</v>
       </c>
       <c r="C30" t="n">
-        <v>0.252845</v>
+        <v>0.252781</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195873</v>
+        <v>0.194671</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.346452</v>
+        <v>0.345225</v>
       </c>
       <c r="C31" t="n">
-        <v>0.257706</v>
+        <v>0.257086</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198589</v>
+        <v>0.197788</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248916</v>
+        <v>0.248922</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267599</v>
+        <v>0.267138</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202585</v>
+        <v>0.202935</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254883</v>
+        <v>0.254625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275385</v>
+        <v>0.274779</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206649</v>
+        <v>0.205484</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261872</v>
+        <v>0.262575</v>
       </c>
       <c r="C34" t="n">
-        <v>0.283545</v>
+        <v>0.282666</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211615</v>
+        <v>0.210483</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268789</v>
+        <v>0.269377</v>
       </c>
       <c r="C35" t="n">
-        <v>0.211993</v>
+        <v>0.212159</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181445</v>
+        <v>0.18173</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274687</v>
+        <v>0.275477</v>
       </c>
       <c r="C36" t="n">
-        <v>0.218382</v>
+        <v>0.218596</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183992</v>
+        <v>0.184587</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281227</v>
+        <v>0.282366</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222636</v>
+        <v>0.222721</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186384</v>
+        <v>0.186881</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289295</v>
+        <v>0.289228</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227404</v>
+        <v>0.22775</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189331</v>
+        <v>0.189582</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295981</v>
+        <v>0.297076</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233376</v>
+        <v>0.233599</v>
       </c>
       <c r="D39" t="n">
-        <v>0.192152</v>
+        <v>0.191758</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305028</v>
+        <v>0.305083</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239684</v>
+        <v>0.239821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.194906</v>
+        <v>0.195539</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314918</v>
+        <v>0.315402</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245014</v>
+        <v>0.24494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197838</v>
+        <v>0.19812</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325339</v>
+        <v>0.325376</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248951</v>
+        <v>0.24889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200917</v>
+        <v>0.200066</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.33589</v>
+        <v>0.33574</v>
       </c>
       <c r="C43" t="n">
-        <v>0.256051</v>
+        <v>0.256055</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204272</v>
+        <v>0.204264</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344525</v>
+        <v>0.345264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.263192</v>
+        <v>0.263346</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207262</v>
+        <v>0.207448</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355761</v>
+        <v>0.356939</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269569</v>
+        <v>0.26948</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210177</v>
+        <v>0.210964</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368302</v>
+        <v>0.369435</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277008</v>
+        <v>0.276494</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214265</v>
+        <v>0.214312</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259602</v>
+        <v>0.260398</v>
       </c>
       <c r="C47" t="n">
-        <v>0.285096</v>
+        <v>0.28501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.21784</v>
+        <v>0.21832</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265223</v>
+        <v>0.265056</v>
       </c>
       <c r="C48" t="n">
-        <v>0.292973</v>
+        <v>0.293177</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221917</v>
+        <v>0.221732</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.271842</v>
+        <v>0.272546</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302177</v>
+        <v>0.302104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225415</v>
+        <v>0.225073</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.278795</v>
+        <v>0.279735</v>
       </c>
       <c r="C50" t="n">
-        <v>0.222485</v>
+        <v>0.222304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185509</v>
+        <v>0.184747</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285631</v>
+        <v>0.285437</v>
       </c>
       <c r="C51" t="n">
-        <v>0.227114</v>
+        <v>0.226952</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187356</v>
+        <v>0.1879</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292339</v>
+        <v>0.292846</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232689</v>
+        <v>0.232679</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19058</v>
+        <v>0.190618</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301219</v>
+        <v>0.301407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.238905</v>
+        <v>0.238917</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193558</v>
+        <v>0.193281</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309754</v>
+        <v>0.309588</v>
       </c>
       <c r="C54" t="n">
-        <v>0.244656</v>
+        <v>0.24432</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196047</v>
+        <v>0.196045</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318503</v>
+        <v>0.319548</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25077</v>
+        <v>0.250642</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199851</v>
+        <v>0.19909</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328684</v>
+        <v>0.328538</v>
       </c>
       <c r="C56" t="n">
-        <v>0.255519</v>
+        <v>0.25548</v>
       </c>
       <c r="D56" t="n">
-        <v>0.201991</v>
+        <v>0.201803</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.337781</v>
+        <v>0.339118</v>
       </c>
       <c r="C57" t="n">
-        <v>0.262609</v>
+        <v>0.262588</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205602</v>
+        <v>0.205378</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348246</v>
+        <v>0.348289</v>
       </c>
       <c r="C58" t="n">
-        <v>0.269582</v>
+        <v>0.269484</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208961</v>
+        <v>0.208548</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359225</v>
+        <v>0.359374</v>
       </c>
       <c r="C59" t="n">
-        <v>0.27573</v>
+        <v>0.275482</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211788</v>
+        <v>0.211783</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369614</v>
+        <v>0.37069</v>
       </c>
       <c r="C60" t="n">
-        <v>0.282879</v>
+        <v>0.282567</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216283</v>
+        <v>0.216516</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268546</v>
+        <v>0.265548</v>
       </c>
       <c r="C61" t="n">
-        <v>0.29163</v>
+        <v>0.29173</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219517</v>
+        <v>0.21942</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276804</v>
+        <v>0.275441</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300208</v>
+        <v>0.300843</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223742</v>
+        <v>0.22311</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.286285</v>
+        <v>0.28548</v>
       </c>
       <c r="C63" t="n">
-        <v>0.308847</v>
+        <v>0.310078</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227489</v>
+        <v>0.22818</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.300148</v>
+        <v>0.295171</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239275</v>
+        <v>0.238779</v>
       </c>
       <c r="D64" t="n">
-        <v>0.198612</v>
+        <v>0.197283</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.306209</v>
+        <v>0.308615</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246549</v>
+        <v>0.246525</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199775</v>
+        <v>0.199732</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.316094</v>
+        <v>0.318518</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255524</v>
+        <v>0.258467</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203959</v>
+        <v>0.203498</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.32845</v>
+        <v>0.333181</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264971</v>
+        <v>0.267814</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208654</v>
+        <v>0.208203</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344391</v>
+        <v>0.348705</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27252</v>
+        <v>0.277083</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213088</v>
+        <v>0.213111</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360606</v>
+        <v>0.364333</v>
       </c>
       <c r="C69" t="n">
-        <v>0.283033</v>
+        <v>0.286156</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218295</v>
+        <v>0.218387</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.379219</v>
+        <v>0.383564</v>
       </c>
       <c r="C70" t="n">
-        <v>0.298167</v>
+        <v>0.300199</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224783</v>
+        <v>0.222657</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.398478</v>
+        <v>0.408564</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311027</v>
+        <v>0.314581</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22913</v>
+        <v>0.229625</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.421142</v>
+        <v>0.428321</v>
       </c>
       <c r="C72" t="n">
-        <v>0.323676</v>
+        <v>0.33052</v>
       </c>
       <c r="D72" t="n">
-        <v>0.236605</v>
+        <v>0.236229</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.441294</v>
+        <v>0.452618</v>
       </c>
       <c r="C73" t="n">
-        <v>0.34095</v>
+        <v>0.348626</v>
       </c>
       <c r="D73" t="n">
-        <v>0.243911</v>
+        <v>0.243362</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463738</v>
+        <v>0.478685</v>
       </c>
       <c r="C74" t="n">
-        <v>0.361332</v>
+        <v>0.366831</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248714</v>
+        <v>0.251722</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.497847</v>
+        <v>0.506475</v>
       </c>
       <c r="C75" t="n">
-        <v>0.383423</v>
+        <v>0.386213</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257399</v>
+        <v>0.258278</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.421015</v>
+        <v>0.425888</v>
       </c>
       <c r="C76" t="n">
-        <v>0.410458</v>
+        <v>0.413556</v>
       </c>
       <c r="D76" t="n">
-        <v>0.266041</v>
+        <v>0.269701</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.44754</v>
+        <v>0.458668</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437028</v>
+        <v>0.441495</v>
       </c>
       <c r="D77" t="n">
-        <v>0.27703</v>
+        <v>0.278096</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.477869</v>
+        <v>0.489624</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375043</v>
+        <v>0.390105</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260999</v>
+        <v>0.268006</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.516327</v>
+        <v>0.533254</v>
       </c>
       <c r="C79" t="n">
-        <v>0.399301</v>
+        <v>0.419955</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270134</v>
+        <v>0.279876</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.550609</v>
+        <v>0.565697</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430025</v>
+        <v>0.445403</v>
       </c>
       <c r="D80" t="n">
-        <v>0.285793</v>
+        <v>0.294171</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.594023</v>
+        <v>0.613214</v>
       </c>
       <c r="C81" t="n">
-        <v>0.461831</v>
+        <v>0.469196</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303357</v>
+        <v>0.312055</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6334959999999999</v>
+        <v>0.654578</v>
       </c>
       <c r="C82" t="n">
-        <v>0.496149</v>
+        <v>0.500436</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320337</v>
+        <v>0.326581</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.682609</v>
+        <v>0.704283</v>
       </c>
       <c r="C83" t="n">
-        <v>0.532335</v>
+        <v>0.539038</v>
       </c>
       <c r="D83" t="n">
-        <v>0.336029</v>
+        <v>0.342183</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.73749</v>
+        <v>0.758368</v>
       </c>
       <c r="C84" t="n">
-        <v>0.563789</v>
+        <v>0.579619</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357715</v>
+        <v>0.364395</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.789386</v>
+        <v>0.807487</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6028</v>
+        <v>0.616775</v>
       </c>
       <c r="D85" t="n">
-        <v>0.378862</v>
+        <v>0.385996</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.850501</v>
+        <v>0.866274</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6434530000000001</v>
+        <v>0.655525</v>
       </c>
       <c r="D86" t="n">
-        <v>0.39863</v>
+        <v>0.404904</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.911874</v>
+        <v>0.927749</v>
       </c>
       <c r="C87" t="n">
-        <v>0.691678</v>
+        <v>0.705172</v>
       </c>
       <c r="D87" t="n">
-        <v>0.424206</v>
+        <v>0.429531</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.981437</v>
+        <v>0.996729</v>
       </c>
       <c r="C88" t="n">
-        <v>0.735231</v>
+        <v>0.748462</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449347</v>
+        <v>0.451347</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04983</v>
+        <v>1.06665</v>
       </c>
       <c r="C89" t="n">
-        <v>0.78456</v>
+        <v>0.799034</v>
       </c>
       <c r="D89" t="n">
-        <v>0.47538</v>
+        <v>0.477683</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.827209</v>
+        <v>0.844819</v>
       </c>
       <c r="C90" t="n">
-        <v>0.82995</v>
+        <v>0.846299</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4998</v>
+        <v>0.502986</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.862236</v>
+        <v>0.8812489999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8811369999999999</v>
+        <v>0.89961</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.524804</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.900133</v>
+        <v>0.91857</v>
       </c>
       <c r="C92" t="n">
-        <v>0.707247</v>
+        <v>0.7224739999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508232</v>
+        <v>0.516792</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.938152</v>
+        <v>0.958335</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7347900000000001</v>
+        <v>0.750575</v>
       </c>
       <c r="D93" t="n">
-        <v>0.52317</v>
+        <v>0.530101</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.980526</v>
+        <v>1.00126</v>
       </c>
       <c r="C94" t="n">
-        <v>0.764431</v>
+        <v>0.780929</v>
       </c>
       <c r="D94" t="n">
-        <v>0.539718</v>
+        <v>0.548897</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02728</v>
+        <v>1.04656</v>
       </c>
       <c r="C95" t="n">
-        <v>0.794122</v>
+        <v>0.812201</v>
       </c>
       <c r="D95" t="n">
-        <v>0.556582</v>
+        <v>0.570318</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06981</v>
+        <v>1.08543</v>
       </c>
       <c r="C96" t="n">
-        <v>0.827914</v>
+        <v>0.845284</v>
       </c>
       <c r="D96" t="n">
-        <v>0.574086</v>
+        <v>0.58857</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11438</v>
+        <v>1.12938</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860528</v>
+        <v>0.878494</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5962809999999999</v>
+        <v>0.605808</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.15976</v>
+        <v>1.1746</v>
       </c>
       <c r="C98" t="n">
-        <v>0.896564</v>
+        <v>0.911232</v>
       </c>
       <c r="D98" t="n">
-        <v>0.61372</v>
+        <v>0.6294459999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20323</v>
+        <v>1.22453</v>
       </c>
       <c r="C99" t="n">
-        <v>0.929831</v>
+        <v>0.942277</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6352</v>
+        <v>0.6514259999999999</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24854</v>
+        <v>1.27533</v>
       </c>
       <c r="C100" t="n">
-        <v>0.965514</v>
+        <v>0.9762690000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.657011</v>
+        <v>0.671513</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29927</v>
+        <v>1.32934</v>
       </c>
       <c r="C101" t="n">
-        <v>0.997586</v>
+        <v>1.01297</v>
       </c>
       <c r="D101" t="n">
-        <v>0.680042</v>
+        <v>0.693676</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35516</v>
+        <v>1.39064</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03163</v>
+        <v>1.05203</v>
       </c>
       <c r="D102" t="n">
-        <v>0.703152</v>
+        <v>0.717016</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41778</v>
+        <v>1.45626</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07229</v>
+        <v>1.09684</v>
       </c>
       <c r="D103" t="n">
-        <v>0.726513</v>
+        <v>0.742074</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48414</v>
+        <v>1.52669</v>
       </c>
       <c r="C104" t="n">
-        <v>1.11518</v>
+        <v>1.1428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.752516</v>
+        <v>0.766957</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02383</v>
+        <v>1.05288</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16419</v>
+        <v>1.19431</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7803</v>
+        <v>0.7894139999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05906</v>
+        <v>1.0892</v>
       </c>
       <c r="C106" t="n">
-        <v>1.21068</v>
+        <v>1.24131</v>
       </c>
       <c r="D106" t="n">
-        <v>0.804855</v>
+        <v>0.8174630000000001</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09726</v>
+        <v>1.12248</v>
       </c>
       <c r="C107" t="n">
-        <v>0.870296</v>
+        <v>0.887616</v>
       </c>
       <c r="D107" t="n">
-        <v>0.693202</v>
+        <v>0.7062079999999999</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13619</v>
+        <v>1.16526</v>
       </c>
       <c r="C108" t="n">
-        <v>0.89717</v>
+        <v>0.917065</v>
       </c>
       <c r="D108" t="n">
-        <v>0.710771</v>
+        <v>0.726021</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17646</v>
+        <v>1.21034</v>
       </c>
       <c r="C109" t="n">
-        <v>0.925195</v>
+        <v>0.94898</v>
       </c>
       <c r="D109" t="n">
-        <v>0.728847</v>
+        <v>0.745354</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22265</v>
+        <v>1.25741</v>
       </c>
       <c r="C110" t="n">
-        <v>0.95275</v>
+        <v>0.980268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.746663</v>
+        <v>0.766438</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26819</v>
+        <v>1.30261</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9837939999999999</v>
+        <v>1.01245</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7650709999999999</v>
+        <v>0.78162</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.316</v>
+        <v>1.35134</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01873</v>
+        <v>1.04604</v>
       </c>
       <c r="D112" t="n">
-        <v>0.783977</v>
+        <v>0.803423</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37147</v>
+        <v>1.409</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05523</v>
+        <v>1.08278</v>
       </c>
       <c r="D113" t="n">
-        <v>0.804235</v>
+        <v>0.823289</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4255</v>
+        <v>1.46675</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09019</v>
+        <v>1.11791</v>
       </c>
       <c r="D114" t="n">
-        <v>0.823823</v>
+        <v>0.84487</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48217</v>
+        <v>1.52365</v>
       </c>
       <c r="C115" t="n">
-        <v>1.13138</v>
+        <v>1.16185</v>
       </c>
       <c r="D115" t="n">
-        <v>0.844669</v>
+        <v>0.867133</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54501</v>
+        <v>1.58958</v>
       </c>
       <c r="C116" t="n">
-        <v>1.17144</v>
+        <v>1.20279</v>
       </c>
       <c r="D116" t="n">
-        <v>0.866353</v>
+        <v>0.890184</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.609</v>
+        <v>1.65416</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21595</v>
+        <v>1.24789</v>
       </c>
       <c r="D117" t="n">
-        <v>0.892804</v>
+        <v>0.913253</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.67886</v>
+        <v>1.72563</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26529</v>
+        <v>1.29827</v>
       </c>
       <c r="D118" t="n">
-        <v>0.916757</v>
+        <v>0.940736</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10805</v>
+        <v>1.13264</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31128</v>
+        <v>1.34633</v>
       </c>
       <c r="D119" t="n">
-        <v>0.939766</v>
+        <v>0.963583</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5753740000000001</v>
+        <v>0.579199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.401472</v>
+        <v>0.4072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249219</v>
+        <v>0.25079</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.594097</v>
+        <v>0.602135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.414584</v>
+        <v>0.425899</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255057</v>
+        <v>0.257067</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.620726</v>
+        <v>0.625872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.436826</v>
+        <v>0.438841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262583</v>
+        <v>0.264387</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.646888</v>
+        <v>0.656382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.457311</v>
+        <v>0.462133</v>
       </c>
       <c r="D5" t="n">
-        <v>0.270872</v>
+        <v>0.272816</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.672838</v>
+        <v>0.67724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.470206</v>
+        <v>0.479337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279611</v>
+        <v>0.28182</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696834</v>
+        <v>0.700003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.497021</v>
+        <v>0.502066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.282729</v>
+        <v>0.285918</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.71822</v>
+        <v>0.72747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.508128</v>
+        <v>0.519057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288094</v>
+        <v>0.290708</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.748633</v>
+        <v>0.754121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.534189</v>
+        <v>0.542762</v>
       </c>
       <c r="D9" t="n">
-        <v>0.294304</v>
+        <v>0.297225</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.778416</v>
+        <v>0.787156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.561938</v>
+        <v>0.575709</v>
       </c>
       <c r="D10" t="n">
-        <v>0.308769</v>
+        <v>0.311076</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.814789</v>
+        <v>0.821519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.381408</v>
+        <v>0.382811</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2326</v>
+        <v>0.233977</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.513633</v>
+        <v>0.52202</v>
       </c>
       <c r="C12" t="n">
-        <v>0.399731</v>
+        <v>0.401144</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243885</v>
+        <v>0.245245</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.538704</v>
+        <v>0.545305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.424057</v>
+        <v>0.424425</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249381</v>
+        <v>0.250745</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.569873</v>
+        <v>0.571376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441596</v>
+        <v>0.443478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255657</v>
+        <v>0.260137</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.593318</v>
+        <v>0.598429</v>
       </c>
       <c r="C15" t="n">
-        <v>0.474838</v>
+        <v>0.475746</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267374</v>
+        <v>0.270583</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.622088</v>
+        <v>0.6273879999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.492483</v>
+        <v>0.496361</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278057</v>
+        <v>0.280728</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.65565</v>
+        <v>0.660005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527983</v>
+        <v>0.528956</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287923</v>
+        <v>0.2873</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.68712</v>
+        <v>0.691263</v>
       </c>
       <c r="C18" t="n">
-        <v>0.552059</v>
+        <v>0.559171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.298642</v>
+        <v>0.298624</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.72572</v>
+        <v>0.730411</v>
       </c>
       <c r="C19" t="n">
-        <v>0.582912</v>
+        <v>0.5845129999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308658</v>
+        <v>0.311845</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7619939999999999</v>
+        <v>0.766747</v>
       </c>
       <c r="C20" t="n">
-        <v>0.61394</v>
+        <v>0.6199210000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317053</v>
+        <v>0.321275</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.801987</v>
+        <v>0.808465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.651255</v>
+        <v>0.655546</v>
       </c>
       <c r="D21" t="n">
-        <v>0.332866</v>
+        <v>0.332945</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.845319</v>
+        <v>0.847253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.683561</v>
+        <v>0.6841930000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.34221</v>
+        <v>0.343922</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.891389</v>
+        <v>0.889757</v>
       </c>
       <c r="C23" t="n">
-        <v>0.720091</v>
+        <v>0.724297</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352789</v>
+        <v>0.355189</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.930914</v>
+        <v>0.931145</v>
       </c>
       <c r="C24" t="n">
-        <v>0.750615</v>
+        <v>0.755849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.36771</v>
+        <v>0.367986</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.976623</v>
+        <v>0.975925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.785933</v>
+        <v>0.79332</v>
       </c>
       <c r="D25" t="n">
-        <v>0.380394</v>
+        <v>0.382442</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02523</v>
+        <v>1.02596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.501503</v>
+        <v>0.502266</v>
       </c>
       <c r="D26" t="n">
-        <v>0.278117</v>
+        <v>0.278325</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.654209</v>
+        <v>0.653742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.522675</v>
+        <v>0.524564</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287312</v>
+        <v>0.287322</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.682998</v>
+        <v>0.683048</v>
       </c>
       <c r="C28" t="n">
-        <v>0.552461</v>
+        <v>0.554951</v>
       </c>
       <c r="D28" t="n">
-        <v>0.296266</v>
+        <v>0.297572</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7165</v>
+        <v>0.7174970000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.579638</v>
+        <v>0.580512</v>
       </c>
       <c r="D29" t="n">
-        <v>0.307039</v>
+        <v>0.308172</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.751705</v>
+        <v>0.752515</v>
       </c>
       <c r="C30" t="n">
-        <v>0.605297</v>
+        <v>0.6066780000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318371</v>
+        <v>0.318382</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.789432</v>
+        <v>0.786922</v>
       </c>
       <c r="C31" t="n">
-        <v>0.636525</v>
+        <v>0.636527</v>
       </c>
       <c r="D31" t="n">
-        <v>0.324647</v>
+        <v>0.326462</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.826959</v>
+        <v>0.825622</v>
       </c>
       <c r="C32" t="n">
-        <v>0.669972</v>
+        <v>0.6691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.33812</v>
+        <v>0.336175</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.867191</v>
+        <v>0.863357</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6980499999999999</v>
+        <v>0.699941</v>
       </c>
       <c r="D33" t="n">
-        <v>0.349469</v>
+        <v>0.343967</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.907201</v>
+        <v>0.901575</v>
       </c>
       <c r="C34" t="n">
-        <v>0.737625</v>
+        <v>0.735518</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356309</v>
+        <v>0.354529</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.951398</v>
+        <v>0.946516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.768893</v>
+        <v>0.76592</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366488</v>
+        <v>0.366148</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.988405</v>
+        <v>0.98584</v>
       </c>
       <c r="C36" t="n">
-        <v>0.802965</v>
+        <v>0.8015679999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.380508</v>
+        <v>0.375624</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03702</v>
+        <v>1.03366</v>
       </c>
       <c r="C37" t="n">
-        <v>0.838486</v>
+        <v>0.840166</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3935</v>
+        <v>0.390935</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07861</v>
+        <v>1.07643</v>
       </c>
       <c r="C38" t="n">
-        <v>0.883345</v>
+        <v>0.88083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40241</v>
+        <v>0.40044</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1266</v>
+        <v>1.12607</v>
       </c>
       <c r="C39" t="n">
-        <v>0.911921</v>
+        <v>0.909969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.419358</v>
+        <v>0.418293</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.17043</v>
+        <v>1.16849</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5552280000000001</v>
+        <v>0.553972</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314995</v>
+        <v>0.315098</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.706207</v>
+        <v>0.7063390000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.574778</v>
+        <v>0.575731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324499</v>
+        <v>0.325062</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.735737</v>
+        <v>0.735172</v>
       </c>
       <c r="C42" t="n">
-        <v>0.603033</v>
+        <v>0.604102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.334163</v>
+        <v>0.333846</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7707850000000001</v>
+        <v>0.77028</v>
       </c>
       <c r="C43" t="n">
-        <v>0.632371</v>
+        <v>0.633273</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344023</v>
+        <v>0.34575</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.80707</v>
+        <v>0.807303</v>
       </c>
       <c r="C44" t="n">
-        <v>0.662548</v>
+        <v>0.659884</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355462</v>
+        <v>0.356299</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841522</v>
+        <v>0.842699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.692357</v>
+        <v>0.690412</v>
       </c>
       <c r="D45" t="n">
-        <v>0.365312</v>
+        <v>0.364174</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.884056</v>
+        <v>0.883763</v>
       </c>
       <c r="C46" t="n">
-        <v>0.72299</v>
+        <v>0.72557</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375474</v>
+        <v>0.375857</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.924033</v>
+        <v>0.9233440000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.756601</v>
+        <v>0.754313</v>
       </c>
       <c r="D47" t="n">
-        <v>0.385948</v>
+        <v>0.387933</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9640609999999999</v>
+        <v>0.963876</v>
       </c>
       <c r="C48" t="n">
-        <v>0.788857</v>
+        <v>0.790778</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398371</v>
+        <v>0.399217</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00685</v>
+        <v>1.00659</v>
       </c>
       <c r="C49" t="n">
-        <v>0.827846</v>
+        <v>0.825387</v>
       </c>
       <c r="D49" t="n">
-        <v>0.410211</v>
+        <v>0.410127</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04706</v>
+        <v>1.04611</v>
       </c>
       <c r="C50" t="n">
-        <v>0.866977</v>
+        <v>0.867848</v>
       </c>
       <c r="D50" t="n">
-        <v>0.422828</v>
+        <v>0.419908</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0934</v>
+        <v>1.09246</v>
       </c>
       <c r="C51" t="n">
-        <v>0.896895</v>
+        <v>0.900274</v>
       </c>
       <c r="D51" t="n">
-        <v>0.433444</v>
+        <v>0.432215</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13463</v>
+        <v>1.13486</v>
       </c>
       <c r="C52" t="n">
-        <v>0.937232</v>
+        <v>0.9409</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447433</v>
+        <v>0.442761</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18056</v>
+        <v>1.17996</v>
       </c>
       <c r="C53" t="n">
-        <v>0.977782</v>
+        <v>0.977286</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458236</v>
+        <v>0.462537</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22515</v>
+        <v>1.22309</v>
       </c>
       <c r="C54" t="n">
-        <v>0.582422</v>
+        <v>0.582925</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340044</v>
+        <v>0.340614</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26859</v>
+        <v>1.26926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.606479</v>
+        <v>0.607477</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348217</v>
+        <v>0.349896</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749514</v>
+        <v>0.750171</v>
       </c>
       <c r="C56" t="n">
-        <v>0.631923</v>
+        <v>0.6310210000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.358269</v>
+        <v>0.359877</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783564</v>
+        <v>0.783693</v>
       </c>
       <c r="C57" t="n">
-        <v>0.658045</v>
+        <v>0.657721</v>
       </c>
       <c r="D57" t="n">
-        <v>0.368601</v>
+        <v>0.3671</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.817909</v>
+        <v>0.818369</v>
       </c>
       <c r="C58" t="n">
-        <v>0.688029</v>
+        <v>0.688022</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378279</v>
+        <v>0.380108</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.852165</v>
+        <v>0.852897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.719479</v>
+        <v>0.719035</v>
       </c>
       <c r="D59" t="n">
-        <v>0.391425</v>
+        <v>0.391955</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.892797</v>
+        <v>0.89414</v>
       </c>
       <c r="C60" t="n">
-        <v>0.752034</v>
+        <v>0.752108</v>
       </c>
       <c r="D60" t="n">
-        <v>0.401729</v>
+        <v>0.402162</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.932349</v>
+        <v>0.932414</v>
       </c>
       <c r="C61" t="n">
-        <v>0.783624</v>
+        <v>0.787512</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411604</v>
+        <v>0.413085</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.972263</v>
+        <v>0.971041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.818842</v>
+        <v>0.819983</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422795</v>
+        <v>0.422073</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01768</v>
+        <v>1.01483</v>
       </c>
       <c r="C63" t="n">
-        <v>0.85714</v>
+        <v>0.8566510000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433028</v>
+        <v>0.434652</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06515</v>
+        <v>1.0617</v>
       </c>
       <c r="C64" t="n">
-        <v>0.896609</v>
+        <v>0.895852</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446298</v>
+        <v>0.446275</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10613</v>
+        <v>1.10434</v>
       </c>
       <c r="C65" t="n">
-        <v>0.934511</v>
+        <v>0.929263</v>
       </c>
       <c r="D65" t="n">
-        <v>0.46</v>
+        <v>0.458701</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15397</v>
+        <v>1.15324</v>
       </c>
       <c r="C66" t="n">
-        <v>0.970343</v>
+        <v>0.975862</v>
       </c>
       <c r="D66" t="n">
-        <v>0.472801</v>
+        <v>0.470887</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.19984</v>
+        <v>1.2036</v>
       </c>
       <c r="C67" t="n">
-        <v>1.01102</v>
+        <v>1.01987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.485643</v>
+        <v>0.485647</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.24882</v>
+        <v>1.25866</v>
       </c>
       <c r="C68" t="n">
-        <v>0.599149</v>
+        <v>0.601541</v>
       </c>
       <c r="D68" t="n">
-        <v>0.349858</v>
+        <v>0.352884</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.31919</v>
+        <v>1.33053</v>
       </c>
       <c r="C69" t="n">
-        <v>0.640175</v>
+        <v>0.637896</v>
       </c>
       <c r="D69" t="n">
-        <v>0.363606</v>
+        <v>0.363343</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.810358</v>
+        <v>0.811177</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6785910000000001</v>
+        <v>0.681937</v>
       </c>
       <c r="D70" t="n">
-        <v>0.378937</v>
+        <v>0.379618</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.85623</v>
+        <v>0.863845</v>
       </c>
       <c r="C71" t="n">
-        <v>0.725838</v>
+        <v>0.734444</v>
       </c>
       <c r="D71" t="n">
-        <v>0.391808</v>
+        <v>0.392594</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.916477</v>
+        <v>0.926418</v>
       </c>
       <c r="C72" t="n">
-        <v>0.768998</v>
+        <v>0.780841</v>
       </c>
       <c r="D72" t="n">
-        <v>0.405824</v>
+        <v>0.406504</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.983483</v>
+        <v>0.990143</v>
       </c>
       <c r="C73" t="n">
-        <v>0.825146</v>
+        <v>0.834503</v>
       </c>
       <c r="D73" t="n">
-        <v>0.424412</v>
+        <v>0.425585</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05468</v>
+        <v>1.06179</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8849399999999999</v>
+        <v>0.896187</v>
       </c>
       <c r="D74" t="n">
-        <v>0.442613</v>
+        <v>0.445307</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.13499</v>
+        <v>1.16094</v>
       </c>
       <c r="C75" t="n">
-        <v>0.956053</v>
+        <v>0.978664</v>
       </c>
       <c r="D75" t="n">
-        <v>0.458274</v>
+        <v>0.465881</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2193</v>
+        <v>1.23705</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02571</v>
+        <v>1.04735</v>
       </c>
       <c r="D76" t="n">
-        <v>0.482748</v>
+        <v>0.488538</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30184</v>
+        <v>1.34177</v>
       </c>
       <c r="C77" t="n">
-        <v>1.09481</v>
+        <v>1.13511</v>
       </c>
       <c r="D77" t="n">
-        <v>0.497602</v>
+        <v>0.505497</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40976</v>
+        <v>1.45264</v>
       </c>
       <c r="C78" t="n">
-        <v>1.18778</v>
+        <v>1.23219</v>
       </c>
       <c r="D78" t="n">
-        <v>0.527488</v>
+        <v>0.538896</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55529</v>
+        <v>1.57331</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31083</v>
+        <v>1.33493</v>
       </c>
       <c r="D79" t="n">
-        <v>0.558687</v>
+        <v>0.55874</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.69313</v>
+        <v>1.71294</v>
       </c>
       <c r="C80" t="n">
-        <v>1.42793</v>
+        <v>1.45589</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5925319999999999</v>
+        <v>0.592374</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.8558</v>
+        <v>1.88293</v>
       </c>
       <c r="C81" t="n">
-        <v>1.57403</v>
+        <v>1.59771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6292489999999999</v>
+        <v>0.6241640000000001</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04461</v>
+        <v>2.07473</v>
       </c>
       <c r="C82" t="n">
-        <v>1.74493</v>
+        <v>1.76707</v>
       </c>
       <c r="D82" t="n">
-        <v>0.652103</v>
+        <v>0.658803</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26634</v>
+        <v>2.30243</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10164</v>
+        <v>1.12413</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5032140000000001</v>
+        <v>0.502313</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.51159</v>
+        <v>2.55277</v>
       </c>
       <c r="C84" t="n">
-        <v>1.21401</v>
+        <v>1.2368</v>
       </c>
       <c r="D84" t="n">
-        <v>0.541579</v>
+        <v>0.549731</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59547</v>
+        <v>1.63387</v>
       </c>
       <c r="C85" t="n">
-        <v>1.34621</v>
+        <v>1.37646</v>
       </c>
       <c r="D85" t="n">
-        <v>0.584924</v>
+        <v>0.579493</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76291</v>
+        <v>1.80397</v>
       </c>
       <c r="C86" t="n">
-        <v>1.49444</v>
+        <v>1.52735</v>
       </c>
       <c r="D86" t="n">
-        <v>0.620871</v>
+        <v>0.633029</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9519</v>
+        <v>2.00067</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64813</v>
+        <v>1.68907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6749309999999999</v>
+        <v>0.693007</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.16103</v>
+        <v>2.20523</v>
       </c>
       <c r="C88" t="n">
-        <v>1.83103</v>
+        <v>1.86777</v>
       </c>
       <c r="D88" t="n">
-        <v>0.722957</v>
+        <v>0.747115</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.37898</v>
+        <v>2.42234</v>
       </c>
       <c r="C89" t="n">
-        <v>2.02035</v>
+        <v>2.06387</v>
       </c>
       <c r="D89" t="n">
-        <v>0.785509</v>
+        <v>0.800423</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.61653</v>
+        <v>2.66338</v>
       </c>
       <c r="C90" t="n">
-        <v>2.23502</v>
+        <v>2.2689</v>
       </c>
       <c r="D90" t="n">
-        <v>0.842036</v>
+        <v>0.848695</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.88371</v>
+        <v>2.92354</v>
       </c>
       <c r="C91" t="n">
-        <v>2.44623</v>
+        <v>2.49228</v>
       </c>
       <c r="D91" t="n">
-        <v>0.893369</v>
+        <v>0.935741</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.14889</v>
+        <v>3.19748</v>
       </c>
       <c r="C92" t="n">
-        <v>2.693</v>
+        <v>2.74072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.972657</v>
+        <v>0.9784389999999999</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.44009</v>
+        <v>3.5001</v>
       </c>
       <c r="C93" t="n">
-        <v>2.92777</v>
+        <v>2.98652</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05664</v>
+        <v>1.05825</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.73786</v>
+        <v>3.80367</v>
       </c>
       <c r="C94" t="n">
-        <v>3.2074</v>
+        <v>3.26064</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14198</v>
+        <v>1.15049</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.05418</v>
+        <v>4.13622</v>
       </c>
       <c r="C95" t="n">
-        <v>3.47229</v>
+        <v>3.55553</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21506</v>
+        <v>1.2344</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36739</v>
+        <v>4.44991</v>
       </c>
       <c r="C96" t="n">
-        <v>3.76422</v>
+        <v>3.84204</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28507</v>
+        <v>1.31213</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.67762</v>
+        <v>4.75629</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14132</v>
+        <v>2.17783</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9307260000000001</v>
+        <v>0.950648</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.95188</v>
+        <v>5.05927</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27302</v>
+        <v>2.31101</v>
       </c>
       <c r="D98" t="n">
-        <v>0.986889</v>
+        <v>0.99847</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.82932</v>
+        <v>2.89299</v>
       </c>
       <c r="C99" t="n">
-        <v>2.41577</v>
+        <v>2.45623</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04338</v>
+        <v>1.06525</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.01124</v>
+        <v>3.09331</v>
       </c>
       <c r="C100" t="n">
-        <v>2.56752</v>
+        <v>2.62015</v>
       </c>
       <c r="D100" t="n">
-        <v>1.09211</v>
+        <v>1.12228</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.20418</v>
+        <v>3.30617</v>
       </c>
       <c r="C101" t="n">
-        <v>2.7338</v>
+        <v>2.80165</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16036</v>
+        <v>1.17998</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.42966</v>
+        <v>3.52914</v>
       </c>
       <c r="C102" t="n">
-        <v>2.92453</v>
+        <v>3.00252</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20688</v>
+        <v>1.24164</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.65278</v>
+        <v>3.77231</v>
       </c>
       <c r="C103" t="n">
-        <v>3.13036</v>
+        <v>3.21311</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27949</v>
+        <v>1.29209</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.90629</v>
+        <v>4.02067</v>
       </c>
       <c r="C104" t="n">
-        <v>3.34967</v>
+        <v>3.43751</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33307</v>
+        <v>1.36329</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.17588</v>
+        <v>4.29852</v>
       </c>
       <c r="C105" t="n">
-        <v>3.58334</v>
+        <v>3.67624</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42765</v>
+        <v>1.45685</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.44796</v>
+        <v>4.58867</v>
       </c>
       <c r="C106" t="n">
-        <v>3.82145</v>
+        <v>3.94274</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47555</v>
+        <v>1.51796</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.75405</v>
+        <v>4.89418</v>
       </c>
       <c r="C107" t="n">
-        <v>4.08206</v>
+        <v>4.21008</v>
       </c>
       <c r="D107" t="n">
-        <v>1.55677</v>
+        <v>1.59278</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.05404</v>
+        <v>5.20297</v>
       </c>
       <c r="C108" t="n">
-        <v>4.36648</v>
+        <v>4.48134</v>
       </c>
       <c r="D108" t="n">
-        <v>1.63614</v>
+        <v>1.68247</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.37894</v>
+        <v>5.53747</v>
       </c>
       <c r="C109" t="n">
-        <v>4.66897</v>
+        <v>4.76399</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70901</v>
+        <v>1.75982</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.71381</v>
+        <v>5.85917</v>
       </c>
       <c r="C110" t="n">
-        <v>4.96696</v>
+        <v>5.09463</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79681</v>
+        <v>1.83736</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.06033</v>
+        <v>6.25446</v>
       </c>
       <c r="C111" t="n">
-        <v>2.65904</v>
+        <v>2.71977</v>
       </c>
       <c r="D111" t="n">
-        <v>1.31252</v>
+        <v>1.34133</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.40484</v>
+        <v>6.57202</v>
       </c>
       <c r="C112" t="n">
-        <v>2.81466</v>
+        <v>2.8878</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37289</v>
+        <v>1.38461</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.76798</v>
+        <v>6.9725</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98041</v>
+        <v>3.06225</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40925</v>
+        <v>1.45855</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.69312</v>
+        <v>3.80325</v>
       </c>
       <c r="C114" t="n">
-        <v>3.16496</v>
+        <v>3.2478</v>
       </c>
       <c r="D114" t="n">
-        <v>1.48048</v>
+        <v>1.50746</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.90455</v>
+        <v>4.02842</v>
       </c>
       <c r="C115" t="n">
-        <v>3.35432</v>
+        <v>3.44389</v>
       </c>
       <c r="D115" t="n">
-        <v>1.55507</v>
+        <v>1.59686</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.13587</v>
+        <v>4.257</v>
       </c>
       <c r="C116" t="n">
-        <v>3.5657</v>
+        <v>3.66422</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59713</v>
+        <v>1.65107</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.37474</v>
+        <v>4.50793</v>
       </c>
       <c r="C117" t="n">
-        <v>3.78847</v>
+        <v>3.87951</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67776</v>
+        <v>1.69818</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.64468</v>
+        <v>4.77488</v>
       </c>
       <c r="C118" t="n">
-        <v>4.00814</v>
+        <v>4.12299</v>
       </c>
       <c r="D118" t="n">
-        <v>1.73083</v>
+        <v>1.79305</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.9184</v>
+        <v>5.0628</v>
       </c>
       <c r="C119" t="n">
-        <v>4.27692</v>
+        <v>4.39664</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80054</v>
+        <v>1.85272</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.34237</v>
+        <v>0.33562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.228406</v>
+        <v>0.226801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252948</v>
+        <v>0.247678</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258618</v>
+        <v>0.252179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229115</v>
+        <v>0.227465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254728</v>
+        <v>0.249195</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267185</v>
+        <v>0.257911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235246</v>
+        <v>0.232548</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26043</v>
+        <v>0.255119</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.274413</v>
+        <v>0.265611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239896</v>
+        <v>0.237831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266556</v>
+        <v>0.259834</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.282273</v>
+        <v>0.274231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244472</v>
+        <v>0.241954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.271323</v>
+        <v>0.264958</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291955</v>
+        <v>0.284722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201148</v>
+        <v>0.200439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224391</v>
+        <v>0.220627</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.300807</v>
+        <v>0.293603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204008</v>
+        <v>0.20747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231386</v>
+        <v>0.227273</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310021</v>
+        <v>0.302293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210906</v>
+        <v>0.211309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238236</v>
+        <v>0.235007</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.317755</v>
+        <v>0.31019</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216533</v>
+        <v>0.218018</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245091</v>
+        <v>0.241544</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324596</v>
+        <v>0.317822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221798</v>
+        <v>0.222879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252142</v>
+        <v>0.248535</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3344</v>
+        <v>0.328858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230087</v>
+        <v>0.230819</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260731</v>
+        <v>0.257839</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.342282</v>
+        <v>0.338044</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234975</v>
+        <v>0.235573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266535</v>
+        <v>0.264219</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.351177</v>
+        <v>0.347479</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239802</v>
+        <v>0.239968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.272092</v>
+        <v>0.270452</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.362031</v>
+        <v>0.358518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24533</v>
+        <v>0.246094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277702</v>
+        <v>0.276345</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.369459</v>
+        <v>0.36687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.249476</v>
+        <v>0.251364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283517</v>
+        <v>0.28268</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.380836</v>
+        <v>0.377689</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255588</v>
+        <v>0.257643</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291561</v>
+        <v>0.290529</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288947</v>
+        <v>0.288777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.259386</v>
+        <v>0.262107</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295523</v>
+        <v>0.294688</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296333</v>
+        <v>0.296566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265148</v>
+        <v>0.267916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301619</v>
+        <v>0.301608</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.306471</v>
+        <v>0.30629</v>
       </c>
       <c r="C20" t="n">
-        <v>0.271322</v>
+        <v>0.274704</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310252</v>
+        <v>0.308608</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315773</v>
+        <v>0.315313</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216538</v>
+        <v>0.218695</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247886</v>
+        <v>0.24711</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324751</v>
+        <v>0.324319</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22238</v>
+        <v>0.225559</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254399</v>
+        <v>0.254678</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.333318</v>
+        <v>0.332839</v>
       </c>
       <c r="C23" t="n">
-        <v>0.228062</v>
+        <v>0.23178</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261476</v>
+        <v>0.261776</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340466</v>
+        <v>0.340056</v>
       </c>
       <c r="C24" t="n">
-        <v>0.232646</v>
+        <v>0.236219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267532</v>
+        <v>0.267767</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348765</v>
+        <v>0.348081</v>
       </c>
       <c r="C25" t="n">
-        <v>0.23826</v>
+        <v>0.24216</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274177</v>
+        <v>0.27471</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.359284</v>
+        <v>0.357231</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245371</v>
+        <v>0.248541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282518</v>
+        <v>0.28172</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.366263</v>
+        <v>0.365365</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250453</v>
+        <v>0.252727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287685</v>
+        <v>0.28743</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375367</v>
+        <v>0.374414</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255727</v>
+        <v>0.257935</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294119</v>
+        <v>0.2943</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384425</v>
+        <v>0.38358</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261357</v>
+        <v>0.264135</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301345</v>
+        <v>0.301405</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392126</v>
+        <v>0.391685</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265812</v>
+        <v>0.269036</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307664</v>
+        <v>0.307698</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.40109</v>
+        <v>0.400509</v>
       </c>
       <c r="C31" t="n">
-        <v>0.27119</v>
+        <v>0.274295</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313015</v>
+        <v>0.313265</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298478</v>
+        <v>0.297762</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276519</v>
+        <v>0.279565</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319872</v>
+        <v>0.319786</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306719</v>
+        <v>0.306298</v>
       </c>
       <c r="C33" t="n">
-        <v>0.282004</v>
+        <v>0.285097</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326184</v>
+        <v>0.326205</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.31393</v>
+        <v>0.314253</v>
       </c>
       <c r="C34" t="n">
-        <v>0.286854</v>
+        <v>0.290261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33238</v>
+        <v>0.332344</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.323565</v>
+        <v>0.323108</v>
       </c>
       <c r="C35" t="n">
-        <v>0.226079</v>
+        <v>0.228276</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258916</v>
+        <v>0.259298</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.333405</v>
+        <v>0.332114</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231982</v>
+        <v>0.233831</v>
       </c>
       <c r="D36" t="n">
-        <v>0.265187</v>
+        <v>0.264787</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340269</v>
+        <v>0.339341</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237278</v>
+        <v>0.239729</v>
       </c>
       <c r="D37" t="n">
-        <v>0.27109</v>
+        <v>0.271003</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349126</v>
+        <v>0.347433</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242648</v>
+        <v>0.244899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277796</v>
+        <v>0.277482</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356506</v>
+        <v>0.356057</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248387</v>
+        <v>0.250981</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284926</v>
+        <v>0.284467</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365624</v>
+        <v>0.365102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253706</v>
+        <v>0.256466</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29143</v>
+        <v>0.291622</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.373244</v>
+        <v>0.372803</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259336</v>
+        <v>0.262169</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298756</v>
+        <v>0.298427</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381971</v>
+        <v>0.381262</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264613</v>
+        <v>0.267201</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304353</v>
+        <v>0.303844</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.392669</v>
+        <v>0.391335</v>
       </c>
       <c r="C43" t="n">
-        <v>0.270054</v>
+        <v>0.272829</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311838</v>
+        <v>0.311501</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.400657</v>
+        <v>0.399647</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275298</v>
+        <v>0.278005</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318497</v>
+        <v>0.31761</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408812</v>
+        <v>0.408166</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27993</v>
+        <v>0.282866</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324244</v>
+        <v>0.324002</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.419463</v>
+        <v>0.418521</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284468</v>
+        <v>0.287345</v>
       </c>
       <c r="D46" t="n">
-        <v>0.330069</v>
+        <v>0.328726</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306498</v>
+        <v>0.306056</v>
       </c>
       <c r="C47" t="n">
-        <v>0.289405</v>
+        <v>0.292438</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336183</v>
+        <v>0.334828</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313433</v>
+        <v>0.313332</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294539</v>
+        <v>0.297754</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343295</v>
+        <v>0.342277</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322693</v>
+        <v>0.322041</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299455</v>
+        <v>0.302436</v>
       </c>
       <c r="D49" t="n">
-        <v>0.353029</v>
+        <v>0.351908</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.331064</v>
+        <v>0.33103</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233967</v>
+        <v>0.236287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26271</v>
+        <v>0.263834</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338908</v>
+        <v>0.338249</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239873</v>
+        <v>0.242026</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270079</v>
+        <v>0.269846</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347801</v>
+        <v>0.347184</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246007</v>
+        <v>0.248508</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27756</v>
+        <v>0.277254</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.35571</v>
+        <v>0.355434</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251695</v>
+        <v>0.254119</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284828</v>
+        <v>0.284689</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364719</v>
+        <v>0.364237</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257331</v>
+        <v>0.259726</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291703</v>
+        <v>0.291288</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.373203</v>
+        <v>0.3727</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262928</v>
+        <v>0.265324</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299116</v>
+        <v>0.29868</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381763</v>
+        <v>0.381297</v>
       </c>
       <c r="C56" t="n">
-        <v>0.26844</v>
+        <v>0.270888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.306157</v>
+        <v>0.306015</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390809</v>
+        <v>0.391475</v>
       </c>
       <c r="C57" t="n">
-        <v>0.273201</v>
+        <v>0.275925</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312993</v>
+        <v>0.312976</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399655</v>
+        <v>0.400305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.277874</v>
+        <v>0.28096</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319512</v>
+        <v>0.319399</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.408156</v>
+        <v>0.409993</v>
       </c>
       <c r="C59" t="n">
-        <v>0.282372</v>
+        <v>0.285494</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326186</v>
+        <v>0.326862</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418444</v>
+        <v>0.420017</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287233</v>
+        <v>0.290449</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332532</v>
+        <v>0.333334</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309403</v>
+        <v>0.310633</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292312</v>
+        <v>0.295533</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33942</v>
+        <v>0.340443</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.319898</v>
+        <v>0.321683</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296983</v>
+        <v>0.300497</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345715</v>
+        <v>0.346866</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330533</v>
+        <v>0.333274</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302838</v>
+        <v>0.306698</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354073</v>
+        <v>0.355075</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.341809</v>
+        <v>0.3438</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242175</v>
+        <v>0.245079</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27585</v>
+        <v>0.277577</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.34829</v>
+        <v>0.351503</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248464</v>
+        <v>0.251655</v>
       </c>
       <c r="D65" t="n">
-        <v>0.283865</v>
+        <v>0.285423</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.359432</v>
+        <v>0.363555</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256504</v>
+        <v>0.257906</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29182</v>
+        <v>0.292982</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.372429</v>
+        <v>0.376565</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264488</v>
+        <v>0.265042</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30105</v>
+        <v>0.30279</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.385413</v>
+        <v>0.387181</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271945</v>
+        <v>0.273698</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311173</v>
+        <v>0.313015</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397237</v>
+        <v>0.39991</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279123</v>
+        <v>0.281771</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322003</v>
+        <v>0.323407</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411399</v>
+        <v>0.414344</v>
       </c>
       <c r="C70" t="n">
-        <v>0.287534</v>
+        <v>0.289833</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332903</v>
+        <v>0.334741</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.427079</v>
+        <v>0.430613</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296682</v>
+        <v>0.298621</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345862</v>
+        <v>0.346373</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.446233</v>
+        <v>0.44863</v>
       </c>
       <c r="C72" t="n">
-        <v>0.305495</v>
+        <v>0.306872</v>
       </c>
       <c r="D72" t="n">
-        <v>0.357912</v>
+        <v>0.358321</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.465452</v>
+        <v>0.465277</v>
       </c>
       <c r="C73" t="n">
-        <v>0.313138</v>
+        <v>0.318259</v>
       </c>
       <c r="D73" t="n">
-        <v>0.370378</v>
+        <v>0.371049</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.480585</v>
+        <v>0.487233</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323501</v>
+        <v>0.330758</v>
       </c>
       <c r="D74" t="n">
-        <v>0.383242</v>
+        <v>0.388105</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.500883</v>
+        <v>0.511451</v>
       </c>
       <c r="C75" t="n">
-        <v>0.33362</v>
+        <v>0.343807</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397661</v>
+        <v>0.403662</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.474361</v>
+        <v>0.471582</v>
       </c>
       <c r="C76" t="n">
-        <v>0.347227</v>
+        <v>0.360724</v>
       </c>
       <c r="D76" t="n">
-        <v>0.416042</v>
+        <v>0.427329</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.498706</v>
+        <v>0.499736</v>
       </c>
       <c r="C77" t="n">
-        <v>0.363665</v>
+        <v>0.377726</v>
       </c>
       <c r="D77" t="n">
-        <v>0.436906</v>
+        <v>0.449842</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.529057</v>
+        <v>0.5319430000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.331988</v>
+        <v>0.337569</v>
       </c>
       <c r="D78" t="n">
-        <v>0.406568</v>
+        <v>0.409522</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.557917</v>
+        <v>0.562831</v>
       </c>
       <c r="C79" t="n">
-        <v>0.350145</v>
+        <v>0.354898</v>
       </c>
       <c r="D79" t="n">
-        <v>0.431987</v>
+        <v>0.437583</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.589026</v>
+        <v>0.595154</v>
       </c>
       <c r="C80" t="n">
-        <v>0.372511</v>
+        <v>0.374958</v>
       </c>
       <c r="D80" t="n">
-        <v>0.454514</v>
+        <v>0.46101</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.622817</v>
+        <v>0.630256</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389836</v>
+        <v>0.394687</v>
       </c>
       <c r="D81" t="n">
-        <v>0.480173</v>
+        <v>0.485878</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.659763</v>
+        <v>0.668063</v>
       </c>
       <c r="C82" t="n">
-        <v>0.410156</v>
+        <v>0.414583</v>
       </c>
       <c r="D82" t="n">
-        <v>0.508953</v>
+        <v>0.513323</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.69913</v>
+        <v>0.706515</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4311</v>
+        <v>0.436038</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5356</v>
+        <v>0.541843</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.730328</v>
+        <v>0.737565</v>
       </c>
       <c r="C84" t="n">
-        <v>0.450929</v>
+        <v>0.457234</v>
       </c>
       <c r="D84" t="n">
-        <v>0.563815</v>
+        <v>0.568809</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.769846</v>
+        <v>0.775224</v>
       </c>
       <c r="C85" t="n">
-        <v>0.473102</v>
+        <v>0.478416</v>
       </c>
       <c r="D85" t="n">
-        <v>0.592684</v>
+        <v>0.596445</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.810884</v>
+        <v>0.815843</v>
       </c>
       <c r="C86" t="n">
-        <v>0.495794</v>
+        <v>0.5018550000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622496</v>
+        <v>0.625262</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.852691</v>
+        <v>0.858038</v>
       </c>
       <c r="C87" t="n">
-        <v>0.518798</v>
+        <v>0.525618</v>
       </c>
       <c r="D87" t="n">
-        <v>0.650523</v>
+        <v>0.65528</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.896529</v>
+        <v>0.901474</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542718</v>
+        <v>0.5496760000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.687756</v>
+        <v>0.692404</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.941621</v>
+        <v>0.948171</v>
       </c>
       <c r="C89" t="n">
-        <v>0.567272</v>
+        <v>0.574485</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7211649999999999</v>
+        <v>0.725336</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.825734</v>
+        <v>0.835726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.591638</v>
+        <v>0.600131</v>
       </c>
       <c r="D90" t="n">
-        <v>0.743637</v>
+        <v>0.749012</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.852877</v>
+        <v>0.860721</v>
       </c>
       <c r="C91" t="n">
-        <v>0.618466</v>
+        <v>0.627799</v>
       </c>
       <c r="D91" t="n">
-        <v>0.775737</v>
+        <v>0.782135</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.883073</v>
+        <v>0.888904</v>
       </c>
       <c r="C92" t="n">
-        <v>0.53173</v>
+        <v>0.537725</v>
       </c>
       <c r="D92" t="n">
-        <v>0.673351</v>
+        <v>0.681521</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.910868</v>
+        <v>0.918788</v>
       </c>
       <c r="C93" t="n">
-        <v>0.547585</v>
+        <v>0.554196</v>
       </c>
       <c r="D93" t="n">
-        <v>0.699782</v>
+        <v>0.707407</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.940941</v>
+        <v>0.948634</v>
       </c>
       <c r="C94" t="n">
-        <v>0.564458</v>
+        <v>0.57096</v>
       </c>
       <c r="D94" t="n">
-        <v>0.716866</v>
+        <v>0.724239</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9712730000000001</v>
+        <v>0.980182</v>
       </c>
       <c r="C95" t="n">
-        <v>0.580979</v>
+        <v>0.58874</v>
       </c>
       <c r="D95" t="n">
-        <v>0.752695</v>
+        <v>0.7594649999999999</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.999654</v>
+        <v>1.00815</v>
       </c>
       <c r="C96" t="n">
-        <v>0.597229</v>
+        <v>0.607496</v>
       </c>
       <c r="D96" t="n">
-        <v>0.778172</v>
+        <v>0.786013</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02939</v>
+        <v>1.03861</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6160949999999999</v>
+        <v>0.625326</v>
       </c>
       <c r="D97" t="n">
-        <v>0.802069</v>
+        <v>0.813792</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0664</v>
+        <v>1.07574</v>
       </c>
       <c r="C98" t="n">
-        <v>0.63681</v>
+        <v>0.644975</v>
       </c>
       <c r="D98" t="n">
-        <v>0.834694</v>
+        <v>0.841981</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10352</v>
+        <v>1.11292</v>
       </c>
       <c r="C99" t="n">
-        <v>0.656466</v>
+        <v>0.665029</v>
       </c>
       <c r="D99" t="n">
-        <v>0.860878</v>
+        <v>0.870413</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13802</v>
+        <v>1.1476</v>
       </c>
       <c r="C100" t="n">
-        <v>0.67613</v>
+        <v>0.685177</v>
       </c>
       <c r="D100" t="n">
-        <v>0.892777</v>
+        <v>0.895323</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16408</v>
+        <v>1.17369</v>
       </c>
       <c r="C101" t="n">
-        <v>0.697188</v>
+        <v>0.706771</v>
       </c>
       <c r="D101" t="n">
-        <v>0.920475</v>
+        <v>0.9251509999999999</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20091</v>
+        <v>1.21032</v>
       </c>
       <c r="C102" t="n">
-        <v>0.719792</v>
+        <v>0.729936</v>
       </c>
       <c r="D102" t="n">
-        <v>0.955125</v>
+        <v>0.958786</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.23952</v>
+        <v>1.24978</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7433</v>
+        <v>0.7536389999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.986515</v>
+        <v>0.990478</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2795</v>
+        <v>1.29075</v>
       </c>
       <c r="C104" t="n">
-        <v>0.76689</v>
+        <v>0.777963</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01979</v>
+        <v>1.02358</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02486</v>
+        <v>1.03176</v>
       </c>
       <c r="C105" t="n">
-        <v>0.793018</v>
+        <v>0.804473</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0512</v>
+        <v>1.05792</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04844</v>
+        <v>1.05714</v>
       </c>
       <c r="C106" t="n">
-        <v>0.821228</v>
+        <v>0.831254</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08702</v>
+        <v>1.09462</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.077</v>
+        <v>1.08313</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6458199999999999</v>
+        <v>0.661477</v>
       </c>
       <c r="D107" t="n">
-        <v>0.874621</v>
+        <v>0.9008119999999999</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09868</v>
+        <v>1.10576</v>
       </c>
       <c r="C108" t="n">
-        <v>0.671071</v>
+        <v>0.676798</v>
       </c>
       <c r="D108" t="n">
-        <v>0.91717</v>
+        <v>0.924219</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.11868</v>
+        <v>1.1353</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6760699999999999</v>
+        <v>0.692951</v>
       </c>
       <c r="D109" t="n">
-        <v>0.924686</v>
+        <v>0.95198</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15478</v>
+        <v>1.16368</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703315</v>
+        <v>0.710133</v>
       </c>
       <c r="D110" t="n">
-        <v>0.970425</v>
+        <v>0.979117</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18317</v>
+        <v>1.19166</v>
       </c>
       <c r="C111" t="n">
-        <v>0.71045</v>
+        <v>0.727787</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996256</v>
+        <v>1.00565</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22055</v>
+        <v>1.22862</v>
       </c>
       <c r="C112" t="n">
-        <v>0.738594</v>
+        <v>0.7462569999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02646</v>
+        <v>1.03528</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.2531</v>
+        <v>1.26094</v>
       </c>
       <c r="C113" t="n">
-        <v>0.757297</v>
+        <v>0.765144</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05435</v>
+        <v>1.06286</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28453</v>
+        <v>1.29218</v>
       </c>
       <c r="C114" t="n">
-        <v>0.776417</v>
+        <v>0.78484</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09078</v>
+        <v>1.09897</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31995</v>
+        <v>1.32828</v>
       </c>
       <c r="C115" t="n">
-        <v>0.796885</v>
+        <v>0.8055290000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12573</v>
+        <v>1.13088</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35953</v>
+        <v>1.36449</v>
       </c>
       <c r="C116" t="n">
-        <v>0.819872</v>
+        <v>0.827259</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14739</v>
+        <v>1.15522</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39648</v>
+        <v>1.40247</v>
       </c>
       <c r="C117" t="n">
-        <v>0.842056</v>
+        <v>0.849908</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17932</v>
+        <v>1.18709</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43835</v>
+        <v>1.4446</v>
       </c>
       <c r="C118" t="n">
-        <v>0.865618</v>
+        <v>0.874042</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21523</v>
+        <v>1.22323</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11726</v>
+        <v>1.12462</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8905459999999999</v>
+        <v>0.899394</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25158</v>
+        <v>1.25405</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.268003</v>
+        <v>0.268448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.176192</v>
+        <v>0.178807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141223</v>
+        <v>0.141228</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195558</v>
+        <v>0.194773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177548</v>
+        <v>0.183243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142163</v>
+        <v>0.14156</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202241</v>
+        <v>0.201903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184879</v>
+        <v>0.188246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146713</v>
+        <v>0.146299</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210579</v>
+        <v>0.208013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192454</v>
+        <v>0.196259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150087</v>
+        <v>0.149813</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.216128</v>
+        <v>0.214964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198709</v>
+        <v>0.201373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154701</v>
+        <v>0.152969</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223794</v>
+        <v>0.223485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160866</v>
+        <v>0.161658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138535</v>
+        <v>0.138276</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230305</v>
+        <v>0.229824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.164435</v>
+        <v>0.166511</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140948</v>
+        <v>0.140541</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237317</v>
+        <v>0.237463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169448</v>
+        <v>0.172795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141783</v>
+        <v>0.14268</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.245354</v>
+        <v>0.244748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174727</v>
+        <v>0.178033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145486</v>
+        <v>0.146881</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252175</v>
+        <v>0.254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179016</v>
+        <v>0.184172</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147754</v>
+        <v>0.149222</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26134</v>
+        <v>0.264033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187431</v>
+        <v>0.191695</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151438</v>
+        <v>0.153054</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268829</v>
+        <v>0.271666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192612</v>
+        <v>0.199023</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155636</v>
+        <v>0.155624</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280567</v>
+        <v>0.28284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199965</v>
+        <v>0.205856</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158379</v>
+        <v>0.15829</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294712</v>
+        <v>0.2968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206487</v>
+        <v>0.211697</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163315</v>
+        <v>0.164287</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302761</v>
+        <v>0.304666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215272</v>
+        <v>0.220639</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167253</v>
+        <v>0.16629</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.31575</v>
+        <v>0.318149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222184</v>
+        <v>0.228329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170841</v>
+        <v>0.171392</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.232399</v>
+        <v>0.234422</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227948</v>
+        <v>0.233593</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171867</v>
+        <v>0.174819</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240654</v>
+        <v>0.242687</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237227</v>
+        <v>0.24177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177122</v>
+        <v>0.179107</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245686</v>
+        <v>0.247795</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247004</v>
+        <v>0.252708</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182909</v>
+        <v>0.184111</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251947</v>
+        <v>0.254049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196563</v>
+        <v>0.201555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166372</v>
+        <v>0.169263</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257589</v>
+        <v>0.259706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202309</v>
+        <v>0.20723</v>
       </c>
       <c r="D22" t="n">
-        <v>0.169142</v>
+        <v>0.172187</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267112</v>
+        <v>0.269101</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208606</v>
+        <v>0.212365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171647</v>
+        <v>0.174498</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275257</v>
+        <v>0.277199</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213565</v>
+        <v>0.216535</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174397</v>
+        <v>0.177536</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282892</v>
+        <v>0.284531</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21892</v>
+        <v>0.222011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.176305</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292285</v>
+        <v>0.29425</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226276</v>
+        <v>0.229767</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179927</v>
+        <v>0.183512</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.300879</v>
+        <v>0.303306</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227569</v>
+        <v>0.233213</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182914</v>
+        <v>0.186095</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.312498</v>
+        <v>0.314642</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233222</v>
+        <v>0.23901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185659</v>
+        <v>0.189445</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322195</v>
+        <v>0.324577</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239159</v>
+        <v>0.246015</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188645</v>
+        <v>0.192593</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.332366</v>
+        <v>0.334051</v>
       </c>
       <c r="C30" t="n">
-        <v>0.247505</v>
+        <v>0.252934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192708</v>
+        <v>0.196386</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.34445</v>
+        <v>0.346785</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251607</v>
+        <v>0.257715</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195387</v>
+        <v>0.199387</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248691</v>
+        <v>0.249269</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26199</v>
+        <v>0.267892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199557</v>
+        <v>0.203348</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254598</v>
+        <v>0.254995</v>
       </c>
       <c r="C33" t="n">
-        <v>0.268749</v>
+        <v>0.275601</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203947</v>
+        <v>0.207101</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261266</v>
+        <v>0.26202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27758</v>
+        <v>0.283631</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209994</v>
+        <v>0.211976</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268695</v>
+        <v>0.26906</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209156</v>
+        <v>0.212016</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181641</v>
+        <v>0.181453</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274169</v>
+        <v>0.275175</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21539</v>
+        <v>0.218625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18379</v>
+        <v>0.183919</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281002</v>
+        <v>0.281563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.219692</v>
+        <v>0.222603</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185989</v>
+        <v>0.186405</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288814</v>
+        <v>0.289733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224812</v>
+        <v>0.227736</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189029</v>
+        <v>0.189165</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295563</v>
+        <v>0.296465</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230014</v>
+        <v>0.233649</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191807</v>
+        <v>0.192185</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304633</v>
+        <v>0.305487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.236215</v>
+        <v>0.23966</v>
       </c>
       <c r="D40" t="n">
-        <v>0.194995</v>
+        <v>0.195034</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314601</v>
+        <v>0.31537</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241849</v>
+        <v>0.244947</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197747</v>
+        <v>0.197782</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325051</v>
+        <v>0.325868</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245095</v>
+        <v>0.24909</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200714</v>
+        <v>0.200867</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335612</v>
+        <v>0.336389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251781</v>
+        <v>0.256105</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204215</v>
+        <v>0.204206</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344457</v>
+        <v>0.345233</v>
       </c>
       <c r="C44" t="n">
-        <v>0.259508</v>
+        <v>0.263301</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20724</v>
+        <v>0.207516</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355548</v>
+        <v>0.356476</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265408</v>
+        <v>0.269737</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210104</v>
+        <v>0.210285</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368225</v>
+        <v>0.368914</v>
       </c>
       <c r="C46" t="n">
-        <v>0.273088</v>
+        <v>0.277076</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214379</v>
+        <v>0.214446</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259448</v>
+        <v>0.259876</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280151</v>
+        <v>0.285258</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217776</v>
+        <v>0.217936</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265347</v>
+        <v>0.265621</v>
       </c>
       <c r="C48" t="n">
-        <v>0.287999</v>
+        <v>0.293259</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222064</v>
+        <v>0.222026</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.27171</v>
+        <v>0.272143</v>
       </c>
       <c r="C49" t="n">
-        <v>0.296935</v>
+        <v>0.302194</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225291</v>
+        <v>0.225777</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.278608</v>
+        <v>0.279029</v>
       </c>
       <c r="C50" t="n">
-        <v>0.219584</v>
+        <v>0.222477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185683</v>
+        <v>0.185644</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285426</v>
+        <v>0.286035</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224374</v>
+        <v>0.227257</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187332</v>
+        <v>0.187491</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292061</v>
+        <v>0.292601</v>
       </c>
       <c r="C52" t="n">
-        <v>0.229357</v>
+        <v>0.232867</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190671</v>
+        <v>0.190735</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301173</v>
+        <v>0.301869</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23573</v>
+        <v>0.239211</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19372</v>
+        <v>0.193596</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309609</v>
+        <v>0.310273</v>
       </c>
       <c r="C54" t="n">
-        <v>0.241045</v>
+        <v>0.24468</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196105</v>
+        <v>0.195977</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318426</v>
+        <v>0.319268</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246923</v>
+        <v>0.250855</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199842</v>
+        <v>0.199706</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32875</v>
+        <v>0.329202</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252089</v>
+        <v>0.255697</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202019</v>
+        <v>0.202165</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.337875</v>
+        <v>0.338462</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258728</v>
+        <v>0.262843</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205635</v>
+        <v>0.205807</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348346</v>
+        <v>0.349069</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266121</v>
+        <v>0.269945</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20894</v>
+        <v>0.20902</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359157</v>
+        <v>0.360003</v>
       </c>
       <c r="C59" t="n">
-        <v>0.272413</v>
+        <v>0.276222</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211761</v>
+        <v>0.211964</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369603</v>
+        <v>0.370752</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278842</v>
+        <v>0.283293</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21638</v>
+        <v>0.216594</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26499</v>
+        <v>0.267627</v>
       </c>
       <c r="C61" t="n">
-        <v>0.288183</v>
+        <v>0.291907</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219656</v>
+        <v>0.219729</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273233</v>
+        <v>0.277542</v>
       </c>
       <c r="C62" t="n">
-        <v>0.296032</v>
+        <v>0.300636</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223833</v>
+        <v>0.224365</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.282945</v>
+        <v>0.286179</v>
       </c>
       <c r="C63" t="n">
-        <v>0.305388</v>
+        <v>0.30962</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227578</v>
+        <v>0.227874</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.293986</v>
+        <v>0.298302</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234434</v>
+        <v>0.239489</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197222</v>
+        <v>0.198633</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.302386</v>
+        <v>0.303735</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241294</v>
+        <v>0.247434</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198528</v>
+        <v>0.199051</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31205</v>
+        <v>0.316611</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250399</v>
+        <v>0.256246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.20264</v>
+        <v>0.203485</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.324908</v>
+        <v>0.329091</v>
       </c>
       <c r="C67" t="n">
-        <v>0.257539</v>
+        <v>0.265885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207057</v>
+        <v>0.208231</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.338223</v>
+        <v>0.343533</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266816</v>
+        <v>0.273456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211208</v>
+        <v>0.21255</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.351901</v>
+        <v>0.361193</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279739</v>
+        <v>0.283374</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216478</v>
+        <v>0.2175</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.367802</v>
+        <v>0.379236</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286121</v>
+        <v>0.296726</v>
       </c>
       <c r="D70" t="n">
-        <v>0.222588</v>
+        <v>0.223638</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.38822</v>
+        <v>0.397641</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299276</v>
+        <v>0.311099</v>
       </c>
       <c r="D71" t="n">
-        <v>0.226036</v>
+        <v>0.228879</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.40948</v>
+        <v>0.419652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.313804</v>
+        <v>0.324764</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233543</v>
+        <v>0.235748</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.43363</v>
+        <v>0.443645</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333756</v>
+        <v>0.344029</v>
       </c>
       <c r="D73" t="n">
-        <v>0.241159</v>
+        <v>0.244667</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463996</v>
+        <v>0.468834</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353337</v>
+        <v>0.359858</v>
       </c>
       <c r="D74" t="n">
-        <v>0.245745</v>
+        <v>0.250804</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.495938</v>
+        <v>0.498034</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376276</v>
+        <v>0.381061</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255354</v>
+        <v>0.258403</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.431197</v>
+        <v>0.441311</v>
       </c>
       <c r="C76" t="n">
-        <v>0.405494</v>
+        <v>0.409814</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26423</v>
+        <v>0.264826</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452665</v>
+        <v>0.472716</v>
       </c>
       <c r="C77" t="n">
-        <v>0.431659</v>
+        <v>0.442074</v>
       </c>
       <c r="D77" t="n">
-        <v>0.275683</v>
+        <v>0.276488</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.479529</v>
+        <v>0.5056619999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.372082</v>
+        <v>0.40029</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261414</v>
+        <v>0.269524</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.521626</v>
+        <v>0.545436</v>
       </c>
       <c r="C79" t="n">
-        <v>0.396371</v>
+        <v>0.428843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271601</v>
+        <v>0.282954</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.55759</v>
+        <v>0.58697</v>
       </c>
       <c r="C80" t="n">
-        <v>0.419258</v>
+        <v>0.458672</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28569</v>
+        <v>0.297651</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59872</v>
+        <v>0.63703</v>
       </c>
       <c r="C81" t="n">
-        <v>0.451378</v>
+        <v>0.493978</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301107</v>
+        <v>0.316738</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.63465</v>
+        <v>0.6838649999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.487332</v>
+        <v>0.528594</v>
       </c>
       <c r="D82" t="n">
-        <v>0.320623</v>
+        <v>0.335316</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.683576</v>
+        <v>0.740642</v>
       </c>
       <c r="C83" t="n">
-        <v>0.525668</v>
+        <v>0.567387</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335474</v>
+        <v>0.351423</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.739005</v>
+        <v>0.80158</v>
       </c>
       <c r="C84" t="n">
-        <v>0.56343</v>
+        <v>0.615334</v>
       </c>
       <c r="D84" t="n">
-        <v>0.358819</v>
+        <v>0.379511</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.790285</v>
+        <v>0.86103</v>
       </c>
       <c r="C85" t="n">
-        <v>0.600449</v>
+        <v>0.657423</v>
       </c>
       <c r="D85" t="n">
-        <v>0.377744</v>
+        <v>0.401859</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.84967</v>
+        <v>0.92915</v>
       </c>
       <c r="C86" t="n">
-        <v>0.639606</v>
+        <v>0.7015130000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.396974</v>
+        <v>0.422509</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.912086</v>
+        <v>0.997773</v>
       </c>
       <c r="C87" t="n">
-        <v>0.688666</v>
+        <v>0.75724</v>
       </c>
       <c r="D87" t="n">
-        <v>0.422614</v>
+        <v>0.454295</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.976217</v>
+        <v>1.07622</v>
       </c>
       <c r="C88" t="n">
-        <v>0.728363</v>
+        <v>0.8068650000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44654</v>
+        <v>0.482013</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04667</v>
+        <v>1.15412</v>
       </c>
       <c r="C89" t="n">
-        <v>0.779429</v>
+        <v>0.861814</v>
       </c>
       <c r="D89" t="n">
-        <v>0.47142</v>
+        <v>0.509768</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829066</v>
+        <v>0.922863</v>
       </c>
       <c r="C90" t="n">
-        <v>0.825823</v>
+        <v>0.916803</v>
       </c>
       <c r="D90" t="n">
-        <v>0.497734</v>
+        <v>0.537902</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8623729999999999</v>
+        <v>0.955419</v>
       </c>
       <c r="C91" t="n">
-        <v>0.878958</v>
+        <v>0.975639</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519142</v>
+        <v>0.5634209999999999</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.899109</v>
+        <v>0.996638</v>
       </c>
       <c r="C92" t="n">
-        <v>0.701251</v>
+        <v>0.784065</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504103</v>
+        <v>0.5542049999999999</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.939827</v>
+        <v>1.03165</v>
       </c>
       <c r="C93" t="n">
-        <v>0.729467</v>
+        <v>0.8139189999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519475</v>
+        <v>0.572627</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.981662</v>
+        <v>1.07051</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759599</v>
+        <v>0.8436360000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536519</v>
+        <v>0.591246</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0278</v>
+        <v>1.11922</v>
       </c>
       <c r="C95" t="n">
-        <v>0.790775</v>
+        <v>0.872414</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552926</v>
+        <v>0.6113229999999999</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06795</v>
+        <v>1.16486</v>
       </c>
       <c r="C96" t="n">
-        <v>0.826134</v>
+        <v>0.903894</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571292</v>
+        <v>0.631409</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11213</v>
+        <v>1.21686</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860434</v>
+        <v>0.937299</v>
       </c>
       <c r="D97" t="n">
-        <v>0.59228</v>
+        <v>0.655963</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16228</v>
+        <v>1.27697</v>
       </c>
       <c r="C98" t="n">
-        <v>0.889775</v>
+        <v>0.97504</v>
       </c>
       <c r="D98" t="n">
-        <v>0.609641</v>
+        <v>0.67537</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20393</v>
+        <v>1.33284</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9260969999999999</v>
+        <v>1.01413</v>
       </c>
       <c r="D99" t="n">
-        <v>0.630894</v>
+        <v>0.70002</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24791</v>
+        <v>1.39441</v>
       </c>
       <c r="C100" t="n">
-        <v>0.962083</v>
+        <v>1.05976</v>
       </c>
       <c r="D100" t="n">
-        <v>0.653738</v>
+        <v>0.725375</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.29948</v>
+        <v>1.45739</v>
       </c>
       <c r="C101" t="n">
-        <v>0.995173</v>
+        <v>1.10379</v>
       </c>
       <c r="D101" t="n">
-        <v>0.677942</v>
+        <v>0.7513570000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.3572</v>
+        <v>1.52676</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03114</v>
+        <v>1.14994</v>
       </c>
       <c r="D102" t="n">
-        <v>0.703249</v>
+        <v>0.781444</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41788</v>
+        <v>1.59942</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07129</v>
+        <v>1.2004</v>
       </c>
       <c r="D103" t="n">
-        <v>0.724171</v>
+        <v>0.803988</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.48485</v>
+        <v>1.67581</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1128</v>
+        <v>1.25319</v>
       </c>
       <c r="D104" t="n">
-        <v>0.751851</v>
+        <v>0.8336980000000001</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01737</v>
+        <v>1.15184</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15877</v>
+        <v>1.3072</v>
       </c>
       <c r="D105" t="n">
-        <v>0.777935</v>
+        <v>0.861066</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05963</v>
+        <v>1.1927</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19462</v>
+        <v>1.36258</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7897690000000001</v>
+        <v>0.892413</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09659</v>
+        <v>1.2345</v>
       </c>
       <c r="C107" t="n">
-        <v>0.862554</v>
+        <v>0.970167</v>
       </c>
       <c r="D107" t="n">
-        <v>0.678741</v>
+        <v>0.768769</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.13466</v>
+        <v>1.27872</v>
       </c>
       <c r="C108" t="n">
-        <v>0.893879</v>
+        <v>1.00389</v>
       </c>
       <c r="D108" t="n">
-        <v>0.706792</v>
+        <v>0.78768</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.16789</v>
+        <v>1.32757</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912996</v>
+        <v>1.03352</v>
       </c>
       <c r="D109" t="n">
-        <v>0.714727</v>
+        <v>0.807277</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2245</v>
+        <v>1.38047</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9515980000000001</v>
+        <v>1.06836</v>
       </c>
       <c r="D110" t="n">
-        <v>0.747591</v>
+        <v>0.8276829999999999</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.26798</v>
+        <v>1.43253</v>
       </c>
       <c r="C111" t="n">
-        <v>0.982171</v>
+        <v>1.10549</v>
       </c>
       <c r="D111" t="n">
-        <v>0.765411</v>
+        <v>0.8466630000000001</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.31651</v>
+        <v>1.48661</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01522</v>
+        <v>1.14483</v>
       </c>
       <c r="D112" t="n">
-        <v>0.784045</v>
+        <v>0.866459</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.3714</v>
+        <v>1.5487</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05108</v>
+        <v>1.18564</v>
       </c>
       <c r="D113" t="n">
-        <v>0.804374</v>
+        <v>0.890047</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42698</v>
+        <v>1.61096</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08513</v>
+        <v>1.22595</v>
       </c>
       <c r="D114" t="n">
-        <v>0.825049</v>
+        <v>0.909828</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48168</v>
+        <v>1.67414</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1259</v>
+        <v>1.27161</v>
       </c>
       <c r="D115" t="n">
-        <v>0.843849</v>
+        <v>0.9337839999999999</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54395</v>
+        <v>1.74428</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16624</v>
+        <v>1.31669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.866521</v>
+        <v>0.953058</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.60785</v>
+        <v>1.81753</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21052</v>
+        <v>1.36713</v>
       </c>
       <c r="D117" t="n">
-        <v>0.892575</v>
+        <v>0.979239</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.6754</v>
+        <v>1.89576</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25962</v>
+        <v>1.42411</v>
       </c>
       <c r="D118" t="n">
-        <v>0.915691</v>
+        <v>1.00592</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10794</v>
+        <v>1.24746</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30496</v>
+        <v>1.47665</v>
       </c>
       <c r="D119" t="n">
-        <v>0.937371</v>
+        <v>1.03006</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575902</v>
+        <v>0.574179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390362</v>
+        <v>0.399337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248606</v>
+        <v>0.24791</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592753</v>
+        <v>0.590862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.400177</v>
+        <v>0.408467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254925</v>
+        <v>0.254393</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.619048</v>
+        <v>0.618791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.419242</v>
+        <v>0.42622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262493</v>
+        <v>0.260691</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.644781</v>
+        <v>0.647529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.442148</v>
+        <v>0.449639</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269944</v>
+        <v>0.268603</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.669836</v>
+        <v>0.670226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.453249</v>
+        <v>0.464608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279562</v>
+        <v>0.278788</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695583</v>
+        <v>0.694312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.475638</v>
+        <v>0.489584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28439</v>
+        <v>0.283287</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.721596</v>
+        <v>0.725451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.496638</v>
+        <v>0.509935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291375</v>
+        <v>0.290277</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.751409</v>
+        <v>0.748061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515829</v>
+        <v>0.535927</v>
       </c>
       <c r="D9" t="n">
-        <v>0.297539</v>
+        <v>0.294616</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.782359</v>
+        <v>0.780379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5516</v>
+        <v>0.560141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311196</v>
+        <v>0.307161</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8196639999999999</v>
+        <v>0.8186600000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.374384</v>
+        <v>0.38382</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235693</v>
+        <v>0.233994</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520814</v>
+        <v>0.5149860000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.392521</v>
+        <v>0.400151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24596</v>
+        <v>0.244378</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.542513</v>
+        <v>0.540049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.410781</v>
+        <v>0.424094</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252098</v>
+        <v>0.249657</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.566908</v>
+        <v>0.5679110000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.429593</v>
+        <v>0.442064</v>
       </c>
       <c r="D14" t="n">
-        <v>0.258548</v>
+        <v>0.256378</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.59717</v>
+        <v>0.596786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.466349</v>
+        <v>0.477461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.268717</v>
+        <v>0.267349</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.62066</v>
+        <v>0.631365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.483134</v>
+        <v>0.498151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277424</v>
+        <v>0.27808</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.654348</v>
+        <v>0.659738</v>
       </c>
       <c r="C17" t="n">
-        <v>0.510565</v>
+        <v>0.534772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28828</v>
+        <v>0.28884</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.685914</v>
+        <v>0.697652</v>
       </c>
       <c r="C18" t="n">
-        <v>0.54204</v>
+        <v>0.562877</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296158</v>
+        <v>0.297351</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.724952</v>
+        <v>0.73616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5667410000000001</v>
+        <v>0.590906</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307862</v>
+        <v>0.310064</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.760414</v>
+        <v>0.7716769999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.597629</v>
+        <v>0.619877</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317086</v>
+        <v>0.320606</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.801444</v>
+        <v>0.808065</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632293</v>
+        <v>0.6611860000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331804</v>
+        <v>0.334088</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.840941</v>
+        <v>0.852036</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.690652</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341737</v>
+        <v>0.344504</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.891415</v>
+        <v>0.893983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.700641</v>
+        <v>0.723018</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352791</v>
+        <v>0.354795</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.931597</v>
+        <v>0.936631</v>
       </c>
       <c r="C24" t="n">
-        <v>0.736707</v>
+        <v>0.7542990000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365362</v>
+        <v>0.370228</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.972776</v>
+        <v>0.976133</v>
       </c>
       <c r="C25" t="n">
-        <v>0.760954</v>
+        <v>0.791562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.378742</v>
+        <v>0.381665</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01341</v>
+        <v>1.02753</v>
       </c>
       <c r="C26" t="n">
-        <v>0.485374</v>
+        <v>0.502202</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273992</v>
+        <v>0.27935</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.647979</v>
+        <v>0.655484</v>
       </c>
       <c r="C27" t="n">
-        <v>0.50731</v>
+        <v>0.524311</v>
       </c>
       <c r="D27" t="n">
-        <v>0.282575</v>
+        <v>0.289421</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.674975</v>
+        <v>0.682221</v>
       </c>
       <c r="C28" t="n">
-        <v>0.536111</v>
+        <v>0.553501</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291013</v>
+        <v>0.297097</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.707697</v>
+        <v>0.718367</v>
       </c>
       <c r="C29" t="n">
-        <v>0.558355</v>
+        <v>0.580351</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301634</v>
+        <v>0.308879</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.745164</v>
+        <v>0.753397</v>
       </c>
       <c r="C30" t="n">
-        <v>0.585074</v>
+        <v>0.607273</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316912</v>
+        <v>0.319894</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.778466</v>
+        <v>0.7908849999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.623512</v>
+        <v>0.640288</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318447</v>
+        <v>0.325467</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.81581</v>
+        <v>0.826875</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6466190000000001</v>
+        <v>0.672244</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334398</v>
+        <v>0.339666</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.860232</v>
+        <v>0.867611</v>
       </c>
       <c r="C33" t="n">
-        <v>0.67798</v>
+        <v>0.700721</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346257</v>
+        <v>0.351554</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.902388</v>
+        <v>0.908485</v>
       </c>
       <c r="C34" t="n">
-        <v>0.719122</v>
+        <v>0.739716</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357328</v>
+        <v>0.358449</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.94419</v>
+        <v>0.949848</v>
       </c>
       <c r="C35" t="n">
-        <v>0.749875</v>
+        <v>0.769698</v>
       </c>
       <c r="D35" t="n">
-        <v>0.364217</v>
+        <v>0.366793</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.979382</v>
+        <v>0.990668</v>
       </c>
       <c r="C36" t="n">
-        <v>0.781069</v>
+        <v>0.807616</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378096</v>
+        <v>0.38282</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03055</v>
+        <v>1.03836</v>
       </c>
       <c r="C37" t="n">
-        <v>0.81423</v>
+        <v>0.843407</v>
       </c>
       <c r="D37" t="n">
-        <v>0.389944</v>
+        <v>0.394948</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0679</v>
+        <v>1.0815</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.885459</v>
       </c>
       <c r="D38" t="n">
-        <v>0.39587</v>
+        <v>0.403821</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1234</v>
+        <v>1.12999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.887696</v>
+        <v>0.918474</v>
       </c>
       <c r="D39" t="n">
-        <v>0.414276</v>
+        <v>0.419069</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16658</v>
+        <v>1.17186</v>
       </c>
       <c r="C40" t="n">
-        <v>0.544578</v>
+        <v>0.556129</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314655</v>
+        <v>0.317563</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704</v>
+        <v>0.705714</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5631080000000001</v>
+        <v>0.576012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324594</v>
+        <v>0.326238</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.734202</v>
+        <v>0.7354889999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5914779999999999</v>
+        <v>0.604174</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333534</v>
+        <v>0.337072</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.768706</v>
+        <v>0.771738</v>
       </c>
       <c r="C43" t="n">
-        <v>0.619668</v>
+        <v>0.632233</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344574</v>
+        <v>0.346217</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805409</v>
+        <v>0.808741</v>
       </c>
       <c r="C44" t="n">
-        <v>0.649743</v>
+        <v>0.662432</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355698</v>
+        <v>0.358675</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.840154</v>
+        <v>0.842612</v>
       </c>
       <c r="C45" t="n">
-        <v>0.678739</v>
+        <v>0.692557</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360965</v>
+        <v>0.368639</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8825809999999999</v>
+        <v>0.884277</v>
       </c>
       <c r="C46" t="n">
-        <v>0.709978</v>
+        <v>0.721552</v>
       </c>
       <c r="D46" t="n">
-        <v>0.374511</v>
+        <v>0.376607</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.923385</v>
+        <v>0.9243</v>
       </c>
       <c r="C47" t="n">
-        <v>0.742296</v>
+        <v>0.756089</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386041</v>
+        <v>0.390097</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.963032</v>
+        <v>0.96495</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7751749999999999</v>
+        <v>0.786925</v>
       </c>
       <c r="D48" t="n">
-        <v>0.398973</v>
+        <v>0.400737</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00534</v>
+        <v>1.00717</v>
       </c>
       <c r="C49" t="n">
-        <v>0.811144</v>
+        <v>0.828327</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409252</v>
+        <v>0.412774</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04559</v>
+        <v>1.04845</v>
       </c>
       <c r="C50" t="n">
-        <v>0.848158</v>
+        <v>0.86774</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421491</v>
+        <v>0.424246</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09259</v>
+        <v>1.09446</v>
       </c>
       <c r="C51" t="n">
-        <v>0.885783</v>
+        <v>0.901811</v>
       </c>
       <c r="D51" t="n">
-        <v>0.43535</v>
+        <v>0.43732</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13318</v>
+        <v>1.13618</v>
       </c>
       <c r="C52" t="n">
-        <v>0.920201</v>
+        <v>0.940346</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447107</v>
+        <v>0.449669</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.17995</v>
+        <v>1.18153</v>
       </c>
       <c r="C53" t="n">
-        <v>0.957422</v>
+        <v>0.979331</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458261</v>
+        <v>0.460037</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22321</v>
+        <v>1.22715</v>
       </c>
       <c r="C54" t="n">
-        <v>0.573306</v>
+        <v>0.583913</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340854</v>
+        <v>0.342722</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26858</v>
+        <v>1.26974</v>
       </c>
       <c r="C55" t="n">
-        <v>0.59662</v>
+        <v>0.607273</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348964</v>
+        <v>0.35076</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749691</v>
+        <v>0.750105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.621874</v>
+        <v>0.632894</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359328</v>
+        <v>0.36035</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.784155</v>
+        <v>0.783918</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647353</v>
+        <v>0.659079</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369712</v>
+        <v>0.371881</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818531</v>
+        <v>0.818735</v>
       </c>
       <c r="C58" t="n">
-        <v>0.677276</v>
+        <v>0.69041</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378327</v>
+        <v>0.379347</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.851231</v>
+        <v>0.852298</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708815</v>
+        <v>0.719727</v>
       </c>
       <c r="D59" t="n">
-        <v>0.391893</v>
+        <v>0.393443</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.89366</v>
+        <v>0.894454</v>
       </c>
       <c r="C60" t="n">
-        <v>0.738641</v>
+        <v>0.754394</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402729</v>
+        <v>0.403979</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.931924</v>
+        <v>0.932686</v>
       </c>
       <c r="C61" t="n">
-        <v>0.773932</v>
+        <v>0.786503</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411638</v>
+        <v>0.413755</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971566</v>
+        <v>0.973334</v>
       </c>
       <c r="C62" t="n">
-        <v>0.807122</v>
+        <v>0.820824</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424252</v>
+        <v>0.425659</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01514</v>
+        <v>1.02001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.84237</v>
+        <v>0.858861</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433242</v>
+        <v>0.434369</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06412</v>
+        <v>1.0676</v>
       </c>
       <c r="C64" t="n">
-        <v>0.880464</v>
+        <v>0.898058</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446539</v>
+        <v>0.449576</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10588</v>
+        <v>1.10861</v>
       </c>
       <c r="C65" t="n">
-        <v>0.917589</v>
+        <v>0.9339730000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460704</v>
+        <v>0.462191</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.156</v>
+        <v>1.15529</v>
       </c>
       <c r="C66" t="n">
-        <v>0.957155</v>
+        <v>0.975362</v>
       </c>
       <c r="D66" t="n">
-        <v>0.472858</v>
+        <v>0.474383</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20305</v>
+        <v>1.20124</v>
       </c>
       <c r="C67" t="n">
-        <v>0.999806</v>
+        <v>1.01713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486718</v>
+        <v>0.487084</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26022</v>
+        <v>1.25161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591067</v>
+        <v>0.599145</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350021</v>
+        <v>0.350945</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32758</v>
+        <v>1.31973</v>
       </c>
       <c r="C69" t="n">
-        <v>0.624447</v>
+        <v>0.6371520000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.36301</v>
+        <v>0.364966</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7997649999999999</v>
+        <v>0.804198</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6635180000000001</v>
+        <v>0.6767879999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376275</v>
+        <v>0.380241</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8488869999999999</v>
+        <v>0.861026</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706564</v>
+        <v>0.72565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.388353</v>
+        <v>0.391886</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.90057</v>
+        <v>0.918337</v>
       </c>
       <c r="C72" t="n">
-        <v>0.749866</v>
+        <v>0.772533</v>
       </c>
       <c r="D72" t="n">
-        <v>0.402101</v>
+        <v>0.406669</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9583469999999999</v>
+        <v>0.985363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796915</v>
+        <v>0.83083</v>
       </c>
       <c r="D73" t="n">
-        <v>0.419078</v>
+        <v>0.424437</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.01965</v>
+        <v>1.05285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.84722</v>
+        <v>0.8857699999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.436578</v>
+        <v>0.444147</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.10051</v>
+        <v>1.12916</v>
       </c>
       <c r="C75" t="n">
-        <v>0.917571</v>
+        <v>0.953113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.451317</v>
+        <v>0.458466</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18101</v>
+        <v>1.21651</v>
       </c>
       <c r="C76" t="n">
-        <v>0.985123</v>
+        <v>1.02487</v>
       </c>
       <c r="D76" t="n">
-        <v>0.471971</v>
+        <v>0.482284</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28747</v>
+        <v>1.3116</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06995</v>
+        <v>1.11023</v>
       </c>
       <c r="D77" t="n">
-        <v>0.490677</v>
+        <v>0.500208</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39934</v>
+        <v>1.42132</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16695</v>
+        <v>1.20558</v>
       </c>
       <c r="D78" t="n">
-        <v>0.519513</v>
+        <v>0.527899</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5432</v>
+        <v>1.55932</v>
       </c>
       <c r="C79" t="n">
-        <v>1.28789</v>
+        <v>1.31334</v>
       </c>
       <c r="D79" t="n">
-        <v>0.552342</v>
+        <v>0.55655</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.69163</v>
+        <v>1.70676</v>
       </c>
       <c r="C80" t="n">
-        <v>1.41602</v>
+        <v>1.44139</v>
       </c>
       <c r="D80" t="n">
-        <v>0.588601</v>
+        <v>0.593483</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.85964</v>
+        <v>1.90402</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56451</v>
+        <v>1.61556</v>
       </c>
       <c r="D81" t="n">
-        <v>0.629868</v>
+        <v>0.630448</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04681</v>
+        <v>2.12356</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73544</v>
+        <v>1.80045</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64352</v>
+        <v>0.663561</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26285</v>
+        <v>2.34537</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10754</v>
+        <v>1.15701</v>
       </c>
       <c r="D83" t="n">
-        <v>0.50062</v>
+        <v>0.517597</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.5106</v>
+        <v>2.62635</v>
       </c>
       <c r="C84" t="n">
-        <v>1.21427</v>
+        <v>1.28276</v>
       </c>
       <c r="D84" t="n">
-        <v>0.547036</v>
+        <v>0.560048</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59906</v>
+        <v>1.70963</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35045</v>
+        <v>1.44165</v>
       </c>
       <c r="D85" t="n">
-        <v>0.588458</v>
+        <v>0.608675</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76427</v>
+        <v>1.907</v>
       </c>
       <c r="C86" t="n">
-        <v>1.4875</v>
+        <v>1.60527</v>
       </c>
       <c r="D86" t="n">
-        <v>0.623244</v>
+        <v>0.6531439999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9431</v>
+        <v>2.11376</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6384</v>
+        <v>1.7893</v>
       </c>
       <c r="D87" t="n">
-        <v>0.673185</v>
+        <v>0.719208</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.15826</v>
+        <v>2.35266</v>
       </c>
       <c r="C88" t="n">
-        <v>1.81978</v>
+        <v>1.99105</v>
       </c>
       <c r="D88" t="n">
-        <v>0.72382</v>
+        <v>0.770975</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38002</v>
+        <v>2.5987</v>
       </c>
       <c r="C89" t="n">
-        <v>2.0171</v>
+        <v>2.22208</v>
       </c>
       <c r="D89" t="n">
-        <v>0.78567</v>
+        <v>0.839438</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.61529</v>
+        <v>2.87238</v>
       </c>
       <c r="C90" t="n">
-        <v>2.21521</v>
+        <v>2.44325</v>
       </c>
       <c r="D90" t="n">
-        <v>0.845377</v>
+        <v>0.907285</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.87554</v>
+        <v>3.16044</v>
       </c>
       <c r="C91" t="n">
-        <v>2.42274</v>
+        <v>2.68347</v>
       </c>
       <c r="D91" t="n">
-        <v>0.895618</v>
+        <v>0.963588</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.13677</v>
+        <v>3.4708</v>
       </c>
       <c r="C92" t="n">
-        <v>2.66691</v>
+        <v>2.96754</v>
       </c>
       <c r="D92" t="n">
-        <v>0.980006</v>
+        <v>1.0561</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.43154</v>
+        <v>3.80133</v>
       </c>
       <c r="C93" t="n">
-        <v>2.91513</v>
+        <v>3.24923</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05671</v>
+        <v>1.14567</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.72542</v>
+        <v>4.12224</v>
       </c>
       <c r="C94" t="n">
-        <v>3.18594</v>
+        <v>3.52655</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13844</v>
+        <v>1.23971</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.04153</v>
+        <v>4.41808</v>
       </c>
       <c r="C95" t="n">
-        <v>3.43448</v>
+        <v>3.79002</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20712</v>
+        <v>1.3258</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36167</v>
+        <v>4.74497</v>
       </c>
       <c r="C96" t="n">
-        <v>3.73579</v>
+        <v>4.0851</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28344</v>
+        <v>1.40408</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.67966</v>
+        <v>5.11078</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13965</v>
+        <v>2.33272</v>
       </c>
       <c r="D97" t="n">
-        <v>0.927712</v>
+        <v>1.01881</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.97881</v>
+        <v>5.49092</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27946</v>
+        <v>2.49585</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9871450000000001</v>
+        <v>1.08475</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83086</v>
+        <v>3.15296</v>
       </c>
       <c r="C99" t="n">
-        <v>2.41307</v>
+        <v>2.67825</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0419</v>
+        <v>1.14864</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.00805</v>
+        <v>3.3836</v>
       </c>
       <c r="C100" t="n">
-        <v>2.55714</v>
+        <v>2.86917</v>
       </c>
       <c r="D100" t="n">
-        <v>1.08875</v>
+        <v>1.20353</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.19551</v>
+        <v>3.62234</v>
       </c>
       <c r="C101" t="n">
-        <v>2.72712</v>
+        <v>3.07798</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15931</v>
+        <v>1.27957</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.41867</v>
+        <v>3.88025</v>
       </c>
       <c r="C102" t="n">
-        <v>2.91543</v>
+        <v>3.29807</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20855</v>
+        <v>1.33223</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.64939</v>
+        <v>4.14751</v>
       </c>
       <c r="C103" t="n">
-        <v>3.10699</v>
+        <v>3.53812</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27668</v>
+        <v>1.41654</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.8909</v>
+        <v>4.43703</v>
       </c>
       <c r="C104" t="n">
-        <v>3.32938</v>
+        <v>3.78649</v>
       </c>
       <c r="D104" t="n">
-        <v>1.33454</v>
+        <v>1.47798</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.16041</v>
+        <v>4.74779</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55436</v>
+        <v>4.05321</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42485</v>
+        <v>1.58066</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.43953</v>
+        <v>5.06702</v>
       </c>
       <c r="C106" t="n">
-        <v>3.8107</v>
+        <v>4.34275</v>
       </c>
       <c r="D106" t="n">
-        <v>1.47363</v>
+        <v>1.63679</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.73343</v>
+        <v>5.40889</v>
       </c>
       <c r="C107" t="n">
-        <v>4.06379</v>
+        <v>4.64955</v>
       </c>
       <c r="D107" t="n">
-        <v>1.55624</v>
+        <v>1.7283</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.02899</v>
+        <v>5.76127</v>
       </c>
       <c r="C108" t="n">
-        <v>4.3335</v>
+        <v>4.96039</v>
       </c>
       <c r="D108" t="n">
-        <v>1.6288</v>
+        <v>1.8151</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.36185</v>
+        <v>6.14143</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59481</v>
+        <v>5.26085</v>
       </c>
       <c r="D109" t="n">
-        <v>1.70468</v>
+        <v>1.89259</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.66233</v>
+        <v>6.48036</v>
       </c>
       <c r="C110" t="n">
-        <v>4.89273</v>
+        <v>5.65371</v>
       </c>
       <c r="D110" t="n">
-        <v>1.79581</v>
+        <v>1.99783</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0324</v>
+        <v>6.91248</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64697</v>
+        <v>3.00871</v>
       </c>
       <c r="D111" t="n">
-        <v>1.31194</v>
+        <v>1.45677</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.38035</v>
+        <v>7.30567</v>
       </c>
       <c r="C112" t="n">
-        <v>2.80418</v>
+        <v>3.19166</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37965</v>
+        <v>1.52387</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.72012</v>
+        <v>7.70248</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97601</v>
+        <v>3.37942</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41091</v>
+        <v>1.56732</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.67948</v>
+        <v>4.20421</v>
       </c>
       <c r="C114" t="n">
-        <v>3.14765</v>
+        <v>3.59264</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46563</v>
+        <v>1.63991</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.90259</v>
+        <v>4.45799</v>
       </c>
       <c r="C115" t="n">
-        <v>3.34496</v>
+        <v>3.80453</v>
       </c>
       <c r="D115" t="n">
-        <v>1.55066</v>
+        <v>1.72533</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.13787</v>
+        <v>4.72076</v>
       </c>
       <c r="C116" t="n">
-        <v>3.54789</v>
+        <v>4.05458</v>
       </c>
       <c r="D116" t="n">
-        <v>1.59103</v>
+        <v>1.77889</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.38041</v>
+        <v>4.98997</v>
       </c>
       <c r="C117" t="n">
-        <v>3.76691</v>
+        <v>4.29787</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66463</v>
+        <v>1.85934</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.62304</v>
+        <v>5.29686</v>
       </c>
       <c r="C118" t="n">
-        <v>4.0151</v>
+        <v>4.56867</v>
       </c>
       <c r="D118" t="n">
-        <v>1.73191</v>
+        <v>1.93175</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90335</v>
+        <v>5.60562</v>
       </c>
       <c r="C119" t="n">
-        <v>4.25262</v>
+        <v>4.86221</v>
       </c>
       <c r="D119" t="n">
-        <v>1.80286</v>
+        <v>2.00638</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.33562</v>
+        <v>0.332947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226801</v>
+        <v>0.284123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247678</v>
+        <v>0.245588</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.252179</v>
+        <v>0.254215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.227465</v>
+        <v>0.285589</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249195</v>
+        <v>0.247761</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257911</v>
+        <v>0.26271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232548</v>
+        <v>0.292394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.255119</v>
+        <v>0.252704</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.265611</v>
+        <v>0.268223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237831</v>
+        <v>0.298243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.259834</v>
+        <v>0.258104</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274231</v>
+        <v>0.276617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241954</v>
+        <v>0.303526</v>
       </c>
       <c r="D6" t="n">
-        <v>0.264958</v>
+        <v>0.262826</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.284722</v>
+        <v>0.285889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200439</v>
+        <v>0.252891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220627</v>
+        <v>0.220418</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.293603</v>
+        <v>0.294167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20747</v>
+        <v>0.263616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227273</v>
+        <v>0.227084</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.302293</v>
+        <v>0.302835</v>
       </c>
       <c r="C9" t="n">
-        <v>0.211309</v>
+        <v>0.268127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235007</v>
+        <v>0.232672</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31019</v>
+        <v>0.31084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.218018</v>
+        <v>0.275582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.241544</v>
+        <v>0.240445</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.317822</v>
+        <v>0.318329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222879</v>
+        <v>0.281595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248535</v>
+        <v>0.247682</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.328858</v>
+        <v>0.328887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230819</v>
+        <v>0.290578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.257839</v>
+        <v>0.256748</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.338044</v>
+        <v>0.337465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235573</v>
+        <v>0.296788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.264219</v>
+        <v>0.263062</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.347479</v>
+        <v>0.347566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239968</v>
+        <v>0.30415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270452</v>
+        <v>0.269127</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.358518</v>
+        <v>0.358185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246094</v>
+        <v>0.310095</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276345</v>
+        <v>0.275108</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.36687</v>
+        <v>0.365798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251364</v>
+        <v>0.317008</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28268</v>
+        <v>0.281612</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.377689</v>
+        <v>0.377916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.257643</v>
+        <v>0.322853</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290529</v>
+        <v>0.288437</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288777</v>
+        <v>0.285832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.262107</v>
+        <v>0.328662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294688</v>
+        <v>0.292536</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296566</v>
+        <v>0.292833</v>
       </c>
       <c r="C19" t="n">
-        <v>0.267916</v>
+        <v>0.334146</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301608</v>
+        <v>0.299575</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.30629</v>
+        <v>0.302589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.274704</v>
+        <v>0.342457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308608</v>
+        <v>0.307268</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315313</v>
+        <v>0.312328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.218695</v>
+        <v>0.276509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24711</v>
+        <v>0.245596</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324319</v>
+        <v>0.321689</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225559</v>
+        <v>0.285477</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254678</v>
+        <v>0.252557</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332839</v>
+        <v>0.329535</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23178</v>
+        <v>0.292488</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261776</v>
+        <v>0.260863</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340056</v>
+        <v>0.336769</v>
       </c>
       <c r="C24" t="n">
-        <v>0.236219</v>
+        <v>0.299269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267767</v>
+        <v>0.265167</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348081</v>
+        <v>0.344986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24216</v>
+        <v>0.307033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.27471</v>
+        <v>0.272217</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357231</v>
+        <v>0.35401</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248541</v>
+        <v>0.315506</v>
       </c>
       <c r="D26" t="n">
-        <v>0.28172</v>
+        <v>0.279162</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365365</v>
+        <v>0.362531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252727</v>
+        <v>0.317878</v>
       </c>
       <c r="D27" t="n">
-        <v>0.28743</v>
+        <v>0.286878</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.374414</v>
+        <v>0.372495</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257935</v>
+        <v>0.323811</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2943</v>
+        <v>0.291743</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.38358</v>
+        <v>0.380652</v>
       </c>
       <c r="C29" t="n">
-        <v>0.264135</v>
+        <v>0.331825</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301405</v>
+        <v>0.298761</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391685</v>
+        <v>0.388765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269036</v>
+        <v>0.337749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307698</v>
+        <v>0.304139</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400509</v>
+        <v>0.397738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274295</v>
+        <v>0.344148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313265</v>
+        <v>0.310483</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297762</v>
+        <v>0.297726</v>
       </c>
       <c r="C32" t="n">
-        <v>0.279565</v>
+        <v>0.350426</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319786</v>
+        <v>0.317121</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306298</v>
+        <v>0.305649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.285097</v>
+        <v>0.357271</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326205</v>
+        <v>0.323429</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314253</v>
+        <v>0.313253</v>
       </c>
       <c r="C34" t="n">
-        <v>0.290261</v>
+        <v>0.363832</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332344</v>
+        <v>0.329686</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.323108</v>
+        <v>0.323064</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228276</v>
+        <v>0.291117</v>
       </c>
       <c r="D35" t="n">
-        <v>0.259298</v>
+        <v>0.259191</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.332114</v>
+        <v>0.332327</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233831</v>
+        <v>0.29805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264787</v>
+        <v>0.26531</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339341</v>
+        <v>0.339165</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239729</v>
+        <v>0.304779</v>
       </c>
       <c r="D37" t="n">
-        <v>0.271003</v>
+        <v>0.271028</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347433</v>
+        <v>0.34708</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244899</v>
+        <v>0.311812</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277482</v>
+        <v>0.277518</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.356057</v>
+        <v>0.355768</v>
       </c>
       <c r="C39" t="n">
-        <v>0.250981</v>
+        <v>0.319191</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284467</v>
+        <v>0.284551</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365102</v>
+        <v>0.364731</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256466</v>
+        <v>0.326253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291622</v>
+        <v>0.291294</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372803</v>
+        <v>0.372196</v>
       </c>
       <c r="C41" t="n">
-        <v>0.262169</v>
+        <v>0.333139</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298427</v>
+        <v>0.298296</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381262</v>
+        <v>0.379882</v>
       </c>
       <c r="C42" t="n">
-        <v>0.267201</v>
+        <v>0.340277</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303844</v>
+        <v>0.304212</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.391335</v>
+        <v>0.390741</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272829</v>
+        <v>0.347246</v>
       </c>
       <c r="D43" t="n">
-        <v>0.311501</v>
+        <v>0.31125</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.399647</v>
+        <v>0.399329</v>
       </c>
       <c r="C44" t="n">
-        <v>0.278005</v>
+        <v>0.353657</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31761</v>
+        <v>0.318134</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.408166</v>
+        <v>0.407558</v>
       </c>
       <c r="C45" t="n">
-        <v>0.282866</v>
+        <v>0.360195</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324002</v>
+        <v>0.323905</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418521</v>
+        <v>0.418009</v>
       </c>
       <c r="C46" t="n">
-        <v>0.287345</v>
+        <v>0.366076</v>
       </c>
       <c r="D46" t="n">
-        <v>0.328726</v>
+        <v>0.329552</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306056</v>
+        <v>0.305926</v>
       </c>
       <c r="C47" t="n">
-        <v>0.292438</v>
+        <v>0.372327</v>
       </c>
       <c r="D47" t="n">
-        <v>0.334828</v>
+        <v>0.335682</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313332</v>
+        <v>0.312957</v>
       </c>
       <c r="C48" t="n">
-        <v>0.297754</v>
+        <v>0.379058</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342277</v>
+        <v>0.343334</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322041</v>
+        <v>0.322454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302436</v>
+        <v>0.385648</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351908</v>
+        <v>0.352617</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.33103</v>
+        <v>0.329935</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236287</v>
+        <v>0.302478</v>
       </c>
       <c r="D50" t="n">
-        <v>0.263834</v>
+        <v>0.264387</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338249</v>
+        <v>0.338209</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242026</v>
+        <v>0.309323</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269846</v>
+        <v>0.269907</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347184</v>
+        <v>0.347115</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248508</v>
+        <v>0.31689</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277254</v>
+        <v>0.277337</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355434</v>
+        <v>0.355272</v>
       </c>
       <c r="C53" t="n">
-        <v>0.254119</v>
+        <v>0.324381</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284689</v>
+        <v>0.284589</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364237</v>
+        <v>0.364248</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259726</v>
+        <v>0.331187</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291288</v>
+        <v>0.291706</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3727</v>
+        <v>0.372716</v>
       </c>
       <c r="C55" t="n">
-        <v>0.265324</v>
+        <v>0.33866</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29868</v>
+        <v>0.298645</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381297</v>
+        <v>0.381316</v>
       </c>
       <c r="C56" t="n">
-        <v>0.270888</v>
+        <v>0.345907</v>
       </c>
       <c r="D56" t="n">
-        <v>0.306015</v>
+        <v>0.30559</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391475</v>
+        <v>0.389984</v>
       </c>
       <c r="C57" t="n">
-        <v>0.275925</v>
+        <v>0.352285</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312976</v>
+        <v>0.312449</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.400305</v>
+        <v>0.39905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.28096</v>
+        <v>0.358261</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319399</v>
+        <v>0.319041</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.409993</v>
+        <v>0.407648</v>
       </c>
       <c r="C59" t="n">
-        <v>0.285494</v>
+        <v>0.364794</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326862</v>
+        <v>0.325667</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.420017</v>
+        <v>0.41766</v>
       </c>
       <c r="C60" t="n">
-        <v>0.290449</v>
+        <v>0.371784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.333334</v>
+        <v>0.332281</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.310633</v>
+        <v>0.307741</v>
       </c>
       <c r="C61" t="n">
-        <v>0.295533</v>
+        <v>0.378323</v>
       </c>
       <c r="D61" t="n">
-        <v>0.340443</v>
+        <v>0.3392</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.321683</v>
+        <v>0.318474</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300497</v>
+        <v>0.384979</v>
       </c>
       <c r="D62" t="n">
-        <v>0.346866</v>
+        <v>0.345801</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.333274</v>
+        <v>0.329011</v>
       </c>
       <c r="C63" t="n">
-        <v>0.306698</v>
+        <v>0.392349</v>
       </c>
       <c r="D63" t="n">
-        <v>0.355075</v>
+        <v>0.353865</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3438</v>
+        <v>0.339524</v>
       </c>
       <c r="C64" t="n">
-        <v>0.245079</v>
+        <v>0.311828</v>
       </c>
       <c r="D64" t="n">
-        <v>0.277577</v>
+        <v>0.274958</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.351503</v>
+        <v>0.347537</v>
       </c>
       <c r="C65" t="n">
-        <v>0.251655</v>
+        <v>0.319631</v>
       </c>
       <c r="D65" t="n">
-        <v>0.285423</v>
+        <v>0.282336</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.363555</v>
+        <v>0.358053</v>
       </c>
       <c r="C66" t="n">
-        <v>0.257906</v>
+        <v>0.32952</v>
       </c>
       <c r="D66" t="n">
-        <v>0.292982</v>
+        <v>0.293537</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.376565</v>
+        <v>0.372912</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265042</v>
+        <v>0.338418</v>
       </c>
       <c r="D67" t="n">
-        <v>0.30279</v>
+        <v>0.300944</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.387181</v>
+        <v>0.386435</v>
       </c>
       <c r="C68" t="n">
-        <v>0.273698</v>
+        <v>0.348148</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313015</v>
+        <v>0.312396</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.39991</v>
+        <v>0.399869</v>
       </c>
       <c r="C69" t="n">
-        <v>0.281771</v>
+        <v>0.358333</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323407</v>
+        <v>0.322487</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.414344</v>
+        <v>0.414357</v>
       </c>
       <c r="C70" t="n">
-        <v>0.289833</v>
+        <v>0.371286</v>
       </c>
       <c r="D70" t="n">
-        <v>0.334741</v>
+        <v>0.333904</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.430613</v>
+        <v>0.4313</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298621</v>
+        <v>0.385057</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346373</v>
+        <v>0.345647</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.44863</v>
+        <v>0.450834</v>
       </c>
       <c r="C72" t="n">
-        <v>0.306872</v>
+        <v>0.398449</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358321</v>
+        <v>0.360154</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.465277</v>
+        <v>0.473173</v>
       </c>
       <c r="C73" t="n">
-        <v>0.318259</v>
+        <v>0.410084</v>
       </c>
       <c r="D73" t="n">
-        <v>0.371049</v>
+        <v>0.373033</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.487233</v>
+        <v>0.489307</v>
       </c>
       <c r="C74" t="n">
-        <v>0.330758</v>
+        <v>0.424508</v>
       </c>
       <c r="D74" t="n">
-        <v>0.388105</v>
+        <v>0.38707</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.511451</v>
+        <v>0.510351</v>
       </c>
       <c r="C75" t="n">
-        <v>0.343807</v>
+        <v>0.4437</v>
       </c>
       <c r="D75" t="n">
-        <v>0.403662</v>
+        <v>0.406778</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.471582</v>
+        <v>0.473416</v>
       </c>
       <c r="C76" t="n">
-        <v>0.360724</v>
+        <v>0.464854</v>
       </c>
       <c r="D76" t="n">
-        <v>0.427329</v>
+        <v>0.429563</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.499736</v>
+        <v>0.50589</v>
       </c>
       <c r="C77" t="n">
-        <v>0.377726</v>
+        <v>0.487677</v>
       </c>
       <c r="D77" t="n">
-        <v>0.449842</v>
+        <v>0.448837</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5319430000000001</v>
+        <v>0.532064</v>
       </c>
       <c r="C78" t="n">
-        <v>0.337569</v>
+        <v>0.421026</v>
       </c>
       <c r="D78" t="n">
-        <v>0.409522</v>
+        <v>0.407271</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.562831</v>
+        <v>0.562198</v>
       </c>
       <c r="C79" t="n">
-        <v>0.354898</v>
+        <v>0.446337</v>
       </c>
       <c r="D79" t="n">
-        <v>0.437583</v>
+        <v>0.433996</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.595154</v>
+        <v>0.594116</v>
       </c>
       <c r="C80" t="n">
-        <v>0.374958</v>
+        <v>0.485891</v>
       </c>
       <c r="D80" t="n">
-        <v>0.46101</v>
+        <v>0.460571</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.630256</v>
+        <v>0.627941</v>
       </c>
       <c r="C81" t="n">
-        <v>0.394687</v>
+        <v>0.506636</v>
       </c>
       <c r="D81" t="n">
-        <v>0.485878</v>
+        <v>0.483408</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.668063</v>
+        <v>0.664333</v>
       </c>
       <c r="C82" t="n">
-        <v>0.414583</v>
+        <v>0.5323</v>
       </c>
       <c r="D82" t="n">
-        <v>0.513323</v>
+        <v>0.511097</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.706515</v>
+        <v>0.702556</v>
       </c>
       <c r="C83" t="n">
-        <v>0.436038</v>
+        <v>0.562043</v>
       </c>
       <c r="D83" t="n">
-        <v>0.541843</v>
+        <v>0.539502</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.737565</v>
+        <v>0.735579</v>
       </c>
       <c r="C84" t="n">
-        <v>0.457234</v>
+        <v>0.594148</v>
       </c>
       <c r="D84" t="n">
-        <v>0.568809</v>
+        <v>0.567138</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.775224</v>
+        <v>0.774383</v>
       </c>
       <c r="C85" t="n">
-        <v>0.478416</v>
+        <v>0.629158</v>
       </c>
       <c r="D85" t="n">
-        <v>0.596445</v>
+        <v>0.595349</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.815843</v>
+        <v>0.814906</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5018550000000001</v>
+        <v>0.664931</v>
       </c>
       <c r="D86" t="n">
-        <v>0.625262</v>
+        <v>0.62517</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.858038</v>
+        <v>0.856677</v>
       </c>
       <c r="C87" t="n">
-        <v>0.525618</v>
+        <v>0.701211</v>
       </c>
       <c r="D87" t="n">
-        <v>0.65528</v>
+        <v>0.654446</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.901474</v>
+        <v>0.899969</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5496760000000001</v>
+        <v>0.738784</v>
       </c>
       <c r="D88" t="n">
-        <v>0.692404</v>
+        <v>0.691661</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.948171</v>
+        <v>0.946864</v>
       </c>
       <c r="C89" t="n">
-        <v>0.574485</v>
+        <v>0.777595</v>
       </c>
       <c r="D89" t="n">
-        <v>0.725336</v>
+        <v>0.72507</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.835726</v>
+        <v>0.834363</v>
       </c>
       <c r="C90" t="n">
-        <v>0.600131</v>
+        <v>0.817848</v>
       </c>
       <c r="D90" t="n">
-        <v>0.749012</v>
+        <v>0.7485810000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.860721</v>
+        <v>0.858178</v>
       </c>
       <c r="C91" t="n">
-        <v>0.627799</v>
+        <v>0.860777</v>
       </c>
       <c r="D91" t="n">
-        <v>0.782135</v>
+        <v>0.781409</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.888904</v>
+        <v>0.887025</v>
       </c>
       <c r="C92" t="n">
-        <v>0.537725</v>
+        <v>0.699078</v>
       </c>
       <c r="D92" t="n">
-        <v>0.681521</v>
+        <v>0.679022</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.918788</v>
+        <v>0.916135</v>
       </c>
       <c r="C93" t="n">
-        <v>0.554196</v>
+        <v>0.725217</v>
       </c>
       <c r="D93" t="n">
-        <v>0.707407</v>
+        <v>0.705074</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.948634</v>
+        <v>0.946359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.57096</v>
+        <v>0.752874</v>
       </c>
       <c r="D94" t="n">
-        <v>0.724239</v>
+        <v>0.721844</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.980182</v>
+        <v>0.977888</v>
       </c>
       <c r="C95" t="n">
-        <v>0.58874</v>
+        <v>0.781515</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7594649999999999</v>
+        <v>0.758062</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00815</v>
+        <v>1.00552</v>
       </c>
       <c r="C96" t="n">
-        <v>0.607496</v>
+        <v>0.811933</v>
       </c>
       <c r="D96" t="n">
-        <v>0.786013</v>
+        <v>0.783768</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03861</v>
+        <v>1.03545</v>
       </c>
       <c r="C97" t="n">
-        <v>0.625326</v>
+        <v>0.843565</v>
       </c>
       <c r="D97" t="n">
-        <v>0.813792</v>
+        <v>0.812499</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07574</v>
+        <v>1.073</v>
       </c>
       <c r="C98" t="n">
-        <v>0.644975</v>
+        <v>0.878537</v>
       </c>
       <c r="D98" t="n">
-        <v>0.841981</v>
+        <v>0.840361</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.11292</v>
+        <v>1.1094</v>
       </c>
       <c r="C99" t="n">
-        <v>0.665029</v>
+        <v>0.913073</v>
       </c>
       <c r="D99" t="n">
-        <v>0.870413</v>
+        <v>0.86817</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1476</v>
+        <v>1.14331</v>
       </c>
       <c r="C100" t="n">
-        <v>0.685177</v>
+        <v>0.948927</v>
       </c>
       <c r="D100" t="n">
-        <v>0.895323</v>
+        <v>0.894798</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.17369</v>
+        <v>1.16945</v>
       </c>
       <c r="C101" t="n">
-        <v>0.706771</v>
+        <v>0.986749</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9251509999999999</v>
+        <v>0.9241509999999999</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.21032</v>
+        <v>1.20604</v>
       </c>
       <c r="C102" t="n">
-        <v>0.729936</v>
+        <v>1.02614</v>
       </c>
       <c r="D102" t="n">
-        <v>0.958786</v>
+        <v>0.957498</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24978</v>
+        <v>1.24492</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7536389999999999</v>
+        <v>1.06753</v>
       </c>
       <c r="D103" t="n">
-        <v>0.990478</v>
+        <v>0.989321</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.29075</v>
+        <v>1.28503</v>
       </c>
       <c r="C104" t="n">
-        <v>0.777963</v>
+        <v>1.10886</v>
       </c>
       <c r="D104" t="n">
-        <v>1.02358</v>
+        <v>1.02216</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03176</v>
+        <v>1.02582</v>
       </c>
       <c r="C105" t="n">
-        <v>0.804473</v>
+        <v>1.15326</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05792</v>
+        <v>1.05705</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05714</v>
+        <v>1.05255</v>
       </c>
       <c r="C106" t="n">
-        <v>0.831254</v>
+        <v>1.19791</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09462</v>
+        <v>1.09155</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.08313</v>
+        <v>1.07824</v>
       </c>
       <c r="C107" t="n">
-        <v>0.661477</v>
+        <v>0.886107</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9008119999999999</v>
+        <v>0.8962909999999999</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.10576</v>
+        <v>1.1007</v>
       </c>
       <c r="C108" t="n">
-        <v>0.676798</v>
+        <v>0.913969</v>
       </c>
       <c r="D108" t="n">
-        <v>0.924219</v>
+        <v>0.920075</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1353</v>
+        <v>1.12912</v>
       </c>
       <c r="C109" t="n">
-        <v>0.692951</v>
+        <v>0.943246</v>
       </c>
       <c r="D109" t="n">
-        <v>0.95198</v>
+        <v>0.948396</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.16368</v>
+        <v>1.15627</v>
       </c>
       <c r="C110" t="n">
-        <v>0.710133</v>
+        <v>0.973486</v>
       </c>
       <c r="D110" t="n">
-        <v>0.979117</v>
+        <v>0.973044</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19166</v>
+        <v>1.18546</v>
       </c>
       <c r="C111" t="n">
-        <v>0.727787</v>
+        <v>1.00842</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00565</v>
+        <v>1.00121</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22862</v>
+        <v>1.22277</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7462569999999999</v>
+        <v>1.04136</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03528</v>
+        <v>1.03093</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.26094</v>
+        <v>1.25494</v>
       </c>
       <c r="C113" t="n">
-        <v>0.765144</v>
+        <v>1.07617</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06286</v>
+        <v>1.05853</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.29218</v>
+        <v>1.28551</v>
       </c>
       <c r="C114" t="n">
-        <v>0.78484</v>
+        <v>1.11461</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09897</v>
+        <v>1.0947</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32828</v>
+        <v>1.32176</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8055290000000001</v>
+        <v>1.15024</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13088</v>
+        <v>1.12626</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.36449</v>
+        <v>1.35905</v>
       </c>
       <c r="C116" t="n">
-        <v>0.827259</v>
+        <v>1.18508</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15522</v>
+        <v>1.1498</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.40247</v>
+        <v>1.39658</v>
       </c>
       <c r="C117" t="n">
-        <v>0.849908</v>
+        <v>1.21803</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18709</v>
+        <v>1.18129</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.4446</v>
+        <v>1.43812</v>
       </c>
       <c r="C118" t="n">
-        <v>0.874042</v>
+        <v>1.25967</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22323</v>
+        <v>1.21861</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12462</v>
+        <v>1.11677</v>
       </c>
       <c r="C119" t="n">
-        <v>0.899394</v>
+        <v>1.30594</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25405</v>
+        <v>1.2495</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.268448</v>
+        <v>0.270512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.178807</v>
+        <v>0.218472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141228</v>
+        <v>0.142289</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194773</v>
+        <v>0.197039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.183243</v>
+        <v>0.221551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14156</v>
+        <v>0.142726</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.201903</v>
+        <v>0.203521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188246</v>
+        <v>0.231649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146299</v>
+        <v>0.147335</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208013</v>
+        <v>0.212398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196259</v>
+        <v>0.238155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.149813</v>
+        <v>0.152134</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.214964</v>
+        <v>0.219391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201373</v>
+        <v>0.244175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152969</v>
+        <v>0.155457</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223485</v>
+        <v>0.226313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161658</v>
+        <v>0.205475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138276</v>
+        <v>0.141877</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229824</v>
+        <v>0.23137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166511</v>
+        <v>0.204363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140541</v>
+        <v>0.142418</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237463</v>
+        <v>0.238296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.172795</v>
+        <v>0.214394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14268</v>
+        <v>0.146055</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.244748</v>
+        <v>0.247487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178033</v>
+        <v>0.21818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.146881</v>
+        <v>0.147402</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.254</v>
+        <v>0.25444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.184172</v>
+        <v>0.22391</v>
       </c>
       <c r="D11" t="n">
-        <v>0.149222</v>
+        <v>0.150065</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.264033</v>
+        <v>0.264742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.191695</v>
+        <v>0.231963</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153054</v>
+        <v>0.153655</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.271666</v>
+        <v>0.271126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.199023</v>
+        <v>0.23799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155624</v>
+        <v>0.157565</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28284</v>
+        <v>0.281815</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205856</v>
+        <v>0.245782</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15829</v>
+        <v>0.158843</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2968</v>
+        <v>0.294313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211697</v>
+        <v>0.252761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.164287</v>
+        <v>0.163942</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304666</v>
+        <v>0.302793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220639</v>
+        <v>0.262954</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16629</v>
+        <v>0.167722</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.318149</v>
+        <v>0.316497</v>
       </c>
       <c r="C17" t="n">
-        <v>0.228329</v>
+        <v>0.271531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171392</v>
+        <v>0.172267</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234422</v>
+        <v>0.234062</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233593</v>
+        <v>0.276789</v>
       </c>
       <c r="D18" t="n">
-        <v>0.174819</v>
+        <v>0.174511</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242687</v>
+        <v>0.243241</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24177</v>
+        <v>0.286284</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179107</v>
+        <v>0.180611</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247795</v>
+        <v>0.247725</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252708</v>
+        <v>0.297737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184111</v>
+        <v>0.183527</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254049</v>
+        <v>0.25414</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201555</v>
+        <v>0.244473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169263</v>
+        <v>0.169952</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259706</v>
+        <v>0.259617</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20723</v>
+        <v>0.24995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172187</v>
+        <v>0.172315</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.269101</v>
+        <v>0.268849</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212365</v>
+        <v>0.2566</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174498</v>
+        <v>0.175295</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.277199</v>
+        <v>0.277248</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216535</v>
+        <v>0.261072</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177536</v>
+        <v>0.178252</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284531</v>
+        <v>0.284855</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222011</v>
+        <v>0.266915</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179824</v>
+        <v>0.181291</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29425</v>
+        <v>0.294491</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229767</v>
+        <v>0.274492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183512</v>
+        <v>0.184587</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.303306</v>
+        <v>0.302786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233213</v>
+        <v>0.27834</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186095</v>
+        <v>0.186707</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314642</v>
+        <v>0.314394</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23901</v>
+        <v>0.285423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.189445</v>
+        <v>0.189874</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.324577</v>
+        <v>0.324098</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246015</v>
+        <v>0.292028</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192593</v>
+        <v>0.192832</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.334051</v>
+        <v>0.334143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.252934</v>
+        <v>0.30003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196386</v>
+        <v>0.196139</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.346785</v>
+        <v>0.346123</v>
       </c>
       <c r="C31" t="n">
-        <v>0.257715</v>
+        <v>0.305573</v>
       </c>
       <c r="D31" t="n">
-        <v>0.199387</v>
+        <v>0.199344</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249269</v>
+        <v>0.249307</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267892</v>
+        <v>0.314234</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203348</v>
+        <v>0.203154</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254995</v>
+        <v>0.255514</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275601</v>
+        <v>0.323577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207101</v>
+        <v>0.206685</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26202</v>
+        <v>0.261638</v>
       </c>
       <c r="C34" t="n">
-        <v>0.283631</v>
+        <v>0.332114</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211976</v>
+        <v>0.210234</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.26906</v>
+        <v>0.268793</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212016</v>
+        <v>0.25894</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181453</v>
+        <v>0.181496</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.275175</v>
+        <v>0.274804</v>
       </c>
       <c r="C36" t="n">
-        <v>0.218625</v>
+        <v>0.265632</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183919</v>
+        <v>0.184142</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281563</v>
+        <v>0.280982</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222603</v>
+        <v>0.270545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186405</v>
+        <v>0.186423</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289733</v>
+        <v>0.289343</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227736</v>
+        <v>0.27677</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189165</v>
+        <v>0.18912</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.296465</v>
+        <v>0.295344</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233649</v>
+        <v>0.282648</v>
       </c>
       <c r="D39" t="n">
-        <v>0.192185</v>
+        <v>0.191358</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305487</v>
+        <v>0.304946</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23966</v>
+        <v>0.288449</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195034</v>
+        <v>0.195332</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.31537</v>
+        <v>0.314755</v>
       </c>
       <c r="C41" t="n">
-        <v>0.244947</v>
+        <v>0.294771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197782</v>
+        <v>0.197847</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325868</v>
+        <v>0.325221</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24909</v>
+        <v>0.299289</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200867</v>
+        <v>0.199731</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336389</v>
+        <v>0.335984</v>
       </c>
       <c r="C43" t="n">
-        <v>0.256105</v>
+        <v>0.306119</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204206</v>
+        <v>0.204185</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.345233</v>
+        <v>0.3448</v>
       </c>
       <c r="C44" t="n">
-        <v>0.263301</v>
+        <v>0.313662</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207516</v>
+        <v>0.207239</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.356476</v>
+        <v>0.355811</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269737</v>
+        <v>0.322311</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210285</v>
+        <v>0.211063</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368914</v>
+        <v>0.367964</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277076</v>
+        <v>0.329746</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214446</v>
+        <v>0.214323</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259876</v>
+        <v>0.26011</v>
       </c>
       <c r="C47" t="n">
-        <v>0.285258</v>
+        <v>0.337093</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217936</v>
+        <v>0.218214</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265621</v>
+        <v>0.265642</v>
       </c>
       <c r="C48" t="n">
-        <v>0.293259</v>
+        <v>0.346298</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222026</v>
+        <v>0.22144</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272143</v>
+        <v>0.272549</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302194</v>
+        <v>0.355761</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225777</v>
+        <v>0.224698</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.279029</v>
+        <v>0.279091</v>
       </c>
       <c r="C50" t="n">
-        <v>0.222477</v>
+        <v>0.270922</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185644</v>
+        <v>0.18544</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.286035</v>
+        <v>0.285774</v>
       </c>
       <c r="C51" t="n">
-        <v>0.227257</v>
+        <v>0.276372</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187491</v>
+        <v>0.18857</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292601</v>
+        <v>0.292408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232867</v>
+        <v>0.282365</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190735</v>
+        <v>0.19128</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301869</v>
+        <v>0.301855</v>
       </c>
       <c r="C53" t="n">
-        <v>0.239211</v>
+        <v>0.288421</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193596</v>
+        <v>0.194036</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310273</v>
+        <v>0.310025</v>
       </c>
       <c r="C54" t="n">
-        <v>0.24468</v>
+        <v>0.294704</v>
       </c>
       <c r="D54" t="n">
-        <v>0.195977</v>
+        <v>0.196749</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.319268</v>
+        <v>0.318863</v>
       </c>
       <c r="C55" t="n">
-        <v>0.250855</v>
+        <v>0.300658</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199706</v>
+        <v>0.19988</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329202</v>
+        <v>0.329156</v>
       </c>
       <c r="C56" t="n">
-        <v>0.255697</v>
+        <v>0.306455</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202165</v>
+        <v>0.20249</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338462</v>
+        <v>0.338088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.262843</v>
+        <v>0.313447</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205807</v>
+        <v>0.206282</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.349069</v>
+        <v>0.348323</v>
       </c>
       <c r="C58" t="n">
-        <v>0.269945</v>
+        <v>0.321768</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20902</v>
+        <v>0.209299</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.360003</v>
+        <v>0.359173</v>
       </c>
       <c r="C59" t="n">
-        <v>0.276222</v>
+        <v>0.328178</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211964</v>
+        <v>0.212764</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.370752</v>
+        <v>0.37004</v>
       </c>
       <c r="C60" t="n">
-        <v>0.283293</v>
+        <v>0.335408</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216594</v>
+        <v>0.21706</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267627</v>
+        <v>0.269026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.291907</v>
+        <v>0.34452</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219729</v>
+        <v>0.219959</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.277542</v>
+        <v>0.278063</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300636</v>
+        <v>0.353259</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224365</v>
+        <v>0.223632</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.286179</v>
+        <v>0.288093</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30962</v>
+        <v>0.362895</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227874</v>
+        <v>0.228412</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.298302</v>
+        <v>0.299229</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239489</v>
+        <v>0.289185</v>
       </c>
       <c r="D64" t="n">
-        <v>0.198633</v>
+        <v>0.197205</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.303735</v>
+        <v>0.307675</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247434</v>
+        <v>0.298402</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199051</v>
+        <v>0.200611</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.316611</v>
+        <v>0.31934</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256246</v>
+        <v>0.30718</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203485</v>
+        <v>0.204339</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.329091</v>
+        <v>0.332203</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265885</v>
+        <v>0.318041</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208231</v>
+        <v>0.208508</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343533</v>
+        <v>0.346183</v>
       </c>
       <c r="C68" t="n">
-        <v>0.273456</v>
+        <v>0.328851</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21255</v>
+        <v>0.213519</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.361193</v>
+        <v>0.363941</v>
       </c>
       <c r="C69" t="n">
-        <v>0.283374</v>
+        <v>0.340211</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2175</v>
+        <v>0.21953</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.379236</v>
+        <v>0.383448</v>
       </c>
       <c r="C70" t="n">
-        <v>0.296726</v>
+        <v>0.354426</v>
       </c>
       <c r="D70" t="n">
-        <v>0.223638</v>
+        <v>0.224585</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.397641</v>
+        <v>0.402762</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311099</v>
+        <v>0.369262</v>
       </c>
       <c r="D71" t="n">
-        <v>0.228879</v>
+        <v>0.23065</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.419652</v>
+        <v>0.423647</v>
       </c>
       <c r="C72" t="n">
-        <v>0.324764</v>
+        <v>0.385342</v>
       </c>
       <c r="D72" t="n">
-        <v>0.235748</v>
+        <v>0.236774</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.443645</v>
+        <v>0.447887</v>
       </c>
       <c r="C73" t="n">
-        <v>0.344029</v>
+        <v>0.403847</v>
       </c>
       <c r="D73" t="n">
-        <v>0.244667</v>
+        <v>0.243525</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.468834</v>
+        <v>0.471464</v>
       </c>
       <c r="C74" t="n">
-        <v>0.359858</v>
+        <v>0.423138</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250804</v>
+        <v>0.251082</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.498034</v>
+        <v>0.5018</v>
       </c>
       <c r="C75" t="n">
-        <v>0.381061</v>
+        <v>0.445373</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258403</v>
+        <v>0.258923</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.441311</v>
+        <v>0.43138</v>
       </c>
       <c r="C76" t="n">
-        <v>0.409814</v>
+        <v>0.476229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264826</v>
+        <v>0.270471</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.472716</v>
+        <v>0.462469</v>
       </c>
       <c r="C77" t="n">
-        <v>0.442074</v>
+        <v>0.5099399999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.276488</v>
+        <v>0.281173</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5056619999999999</v>
+        <v>0.494344</v>
       </c>
       <c r="C78" t="n">
-        <v>0.40029</v>
+        <v>0.446371</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269524</v>
+        <v>0.266498</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.545436</v>
+        <v>0.528287</v>
       </c>
       <c r="C79" t="n">
-        <v>0.428843</v>
+        <v>0.471247</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282954</v>
+        <v>0.278095</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.58697</v>
+        <v>0.5597569999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.458672</v>
+        <v>0.502011</v>
       </c>
       <c r="D80" t="n">
-        <v>0.297651</v>
+        <v>0.291378</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.63703</v>
+        <v>0.606486</v>
       </c>
       <c r="C81" t="n">
-        <v>0.493978</v>
+        <v>0.536704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.316738</v>
+        <v>0.306725</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6838649999999999</v>
+        <v>0.646572</v>
       </c>
       <c r="C82" t="n">
-        <v>0.528594</v>
+        <v>0.573295</v>
       </c>
       <c r="D82" t="n">
-        <v>0.335316</v>
+        <v>0.324085</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.740642</v>
+        <v>0.693475</v>
       </c>
       <c r="C83" t="n">
-        <v>0.567387</v>
+        <v>0.614642</v>
       </c>
       <c r="D83" t="n">
-        <v>0.351423</v>
+        <v>0.335329</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.80158</v>
+        <v>0.746073</v>
       </c>
       <c r="C84" t="n">
-        <v>0.615334</v>
+        <v>0.654847</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379511</v>
+        <v>0.359943</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.86103</v>
+        <v>0.795952</v>
       </c>
       <c r="C85" t="n">
-        <v>0.657423</v>
+        <v>0.695199</v>
       </c>
       <c r="D85" t="n">
-        <v>0.401859</v>
+        <v>0.38151</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.92915</v>
+        <v>0.856954</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7015130000000001</v>
+        <v>0.739353</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422509</v>
+        <v>0.400524</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.997773</v>
+        <v>0.917494</v>
       </c>
       <c r="C87" t="n">
-        <v>0.75724</v>
+        <v>0.79283</v>
       </c>
       <c r="D87" t="n">
-        <v>0.454295</v>
+        <v>0.427739</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.07622</v>
+        <v>0.98946</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8068650000000001</v>
+        <v>0.841781</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482013</v>
+        <v>0.449495</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.15412</v>
+        <v>1.0598</v>
       </c>
       <c r="C89" t="n">
-        <v>0.861814</v>
+        <v>0.895786</v>
       </c>
       <c r="D89" t="n">
-        <v>0.509768</v>
+        <v>0.477032</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.922863</v>
+        <v>0.8373969999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.916803</v>
+        <v>0.947851</v>
       </c>
       <c r="D90" t="n">
-        <v>0.537902</v>
+        <v>0.503464</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.955419</v>
+        <v>0.871088</v>
       </c>
       <c r="C91" t="n">
-        <v>0.975639</v>
+        <v>1.00622</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5634209999999999</v>
+        <v>0.522015</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.996638</v>
+        <v>0.910008</v>
       </c>
       <c r="C92" t="n">
-        <v>0.784065</v>
+        <v>0.825315</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5542049999999999</v>
+        <v>0.510982</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.03165</v>
+        <v>0.949561</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8139189999999999</v>
+        <v>0.857193</v>
       </c>
       <c r="D93" t="n">
-        <v>0.572627</v>
+        <v>0.523604</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07051</v>
+        <v>0.990666</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8436360000000001</v>
+        <v>0.8909629999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.591246</v>
+        <v>0.541729</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.11922</v>
+        <v>1.03725</v>
       </c>
       <c r="C95" t="n">
-        <v>0.872414</v>
+        <v>0.921628</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6113229999999999</v>
+        <v>0.563534</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.16486</v>
+        <v>1.07828</v>
       </c>
       <c r="C96" t="n">
-        <v>0.903894</v>
+        <v>0.954931</v>
       </c>
       <c r="D96" t="n">
-        <v>0.631409</v>
+        <v>0.58253</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.21686</v>
+        <v>1.1227</v>
       </c>
       <c r="C97" t="n">
-        <v>0.937299</v>
+        <v>0.984658</v>
       </c>
       <c r="D97" t="n">
-        <v>0.655963</v>
+        <v>0.5981649999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.27697</v>
+        <v>1.17019</v>
       </c>
       <c r="C98" t="n">
-        <v>0.97504</v>
+        <v>1.01727</v>
       </c>
       <c r="D98" t="n">
-        <v>0.67537</v>
+        <v>0.621907</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.33284</v>
+        <v>1.21309</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01413</v>
+        <v>1.05434</v>
       </c>
       <c r="D99" t="n">
-        <v>0.70002</v>
+        <v>0.643803</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.39441</v>
+        <v>1.2566</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05976</v>
+        <v>1.09242</v>
       </c>
       <c r="D100" t="n">
-        <v>0.725375</v>
+        <v>0.663467</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.45739</v>
+        <v>1.30814</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10379</v>
+        <v>1.13512</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7513570000000001</v>
+        <v>0.685115</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.52676</v>
+        <v>1.36822</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14994</v>
+        <v>1.1817</v>
       </c>
       <c r="D102" t="n">
-        <v>0.781444</v>
+        <v>0.709072</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.59942</v>
+        <v>1.43072</v>
       </c>
       <c r="C103" t="n">
-        <v>1.2004</v>
+        <v>1.22884</v>
       </c>
       <c r="D103" t="n">
-        <v>0.803988</v>
+        <v>0.733993</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.67581</v>
+        <v>1.49698</v>
       </c>
       <c r="C104" t="n">
-        <v>1.25319</v>
+        <v>1.27855</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8336980000000001</v>
+        <v>0.757703</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.15184</v>
+        <v>1.03202</v>
       </c>
       <c r="C105" t="n">
-        <v>1.3072</v>
+        <v>1.33256</v>
       </c>
       <c r="D105" t="n">
-        <v>0.861066</v>
+        <v>0.781571</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.1927</v>
+        <v>1.06679</v>
       </c>
       <c r="C106" t="n">
-        <v>1.36258</v>
+        <v>1.38851</v>
       </c>
       <c r="D106" t="n">
-        <v>0.892413</v>
+        <v>0.809903</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.2345</v>
+        <v>1.10583</v>
       </c>
       <c r="C107" t="n">
-        <v>0.970167</v>
+        <v>1.02012</v>
       </c>
       <c r="D107" t="n">
-        <v>0.768769</v>
+        <v>0.7011269999999999</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.27872</v>
+        <v>1.14278</v>
       </c>
       <c r="C108" t="n">
-        <v>1.00389</v>
+        <v>1.05049</v>
       </c>
       <c r="D108" t="n">
-        <v>0.78768</v>
+        <v>0.71799</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.32757</v>
+        <v>1.18494</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03352</v>
+        <v>1.08314</v>
       </c>
       <c r="D109" t="n">
-        <v>0.807277</v>
+        <v>0.734254</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.38047</v>
+        <v>1.23062</v>
       </c>
       <c r="C110" t="n">
-        <v>1.06836</v>
+        <v>1.11577</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8276829999999999</v>
+        <v>0.754951</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.43253</v>
+        <v>1.2779</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10549</v>
+        <v>1.15352</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8466630000000001</v>
+        <v>0.7712909999999999</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.48661</v>
+        <v>1.32442</v>
       </c>
       <c r="C112" t="n">
-        <v>1.14483</v>
+        <v>1.19076</v>
       </c>
       <c r="D112" t="n">
-        <v>0.866459</v>
+        <v>0.793187</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.5487</v>
+        <v>1.37967</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18564</v>
+        <v>1.22911</v>
       </c>
       <c r="D113" t="n">
-        <v>0.890047</v>
+        <v>0.810905</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.61096</v>
+        <v>1.4348</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22595</v>
+        <v>1.26995</v>
       </c>
       <c r="D114" t="n">
-        <v>0.909828</v>
+        <v>0.831309</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.67414</v>
+        <v>1.48871</v>
       </c>
       <c r="C115" t="n">
-        <v>1.27161</v>
+        <v>1.31282</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9337839999999999</v>
+        <v>0.8531570000000001</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.74428</v>
+        <v>1.55298</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31669</v>
+        <v>1.35894</v>
       </c>
       <c r="D116" t="n">
-        <v>0.953058</v>
+        <v>0.8751100000000001</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.81753</v>
+        <v>1.61841</v>
       </c>
       <c r="C117" t="n">
-        <v>1.36713</v>
+        <v>1.40806</v>
       </c>
       <c r="D117" t="n">
-        <v>0.979239</v>
+        <v>0.898708</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.89576</v>
+        <v>1.68746</v>
       </c>
       <c r="C118" t="n">
-        <v>1.42411</v>
+        <v>1.46157</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00592</v>
+        <v>0.926002</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.24746</v>
+        <v>1.11817</v>
       </c>
       <c r="C119" t="n">
-        <v>1.47665</v>
+        <v>1.51303</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03006</v>
+        <v>0.948319</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574179</v>
+        <v>0.575785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.399337</v>
+        <v>0.439813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24791</v>
+        <v>0.249024</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.590862</v>
+        <v>0.600247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.408467</v>
+        <v>0.464212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254393</v>
+        <v>0.255357</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.618791</v>
+        <v>0.621923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.42622</v>
+        <v>0.482626</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260691</v>
+        <v>0.261997</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.647529</v>
+        <v>0.6497000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.449639</v>
+        <v>0.504088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.268603</v>
+        <v>0.272471</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.670226</v>
+        <v>0.677491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.464608</v>
+        <v>0.532958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.278788</v>
+        <v>0.281866</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.694312</v>
+        <v>0.708078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.489584</v>
+        <v>0.558728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.283287</v>
+        <v>0.286558</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.725451</v>
+        <v>0.73201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.509935</v>
+        <v>0.581434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.290277</v>
+        <v>0.290982</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.748061</v>
+        <v>0.764008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.535927</v>
+        <v>0.604523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.294616</v>
+        <v>0.298777</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.780379</v>
+        <v>0.795328</v>
       </c>
       <c r="C10" t="n">
-        <v>0.560141</v>
+        <v>0.633639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.307161</v>
+        <v>0.31318</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8186600000000001</v>
+        <v>0.82636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.38382</v>
+        <v>0.431521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233994</v>
+        <v>0.235704</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5149860000000001</v>
+        <v>0.523911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.400151</v>
+        <v>0.450946</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244378</v>
+        <v>0.245387</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.540049</v>
+        <v>0.5451859999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.424094</v>
+        <v>0.467866</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249657</v>
+        <v>0.25247</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5679110000000001</v>
+        <v>0.568887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.442064</v>
+        <v>0.496173</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256378</v>
+        <v>0.260301</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.596786</v>
+        <v>0.600136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.477461</v>
+        <v>0.52418</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267349</v>
+        <v>0.269481</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.631365</v>
+        <v>0.622343</v>
       </c>
       <c r="C16" t="n">
-        <v>0.498151</v>
+        <v>0.545832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.27808</v>
+        <v>0.278302</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.659738</v>
+        <v>0.653926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.534772</v>
+        <v>0.576659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28884</v>
+        <v>0.286695</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.697652</v>
+        <v>0.686384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.562877</v>
+        <v>0.605938</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297351</v>
+        <v>0.297212</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.73616</v>
+        <v>0.725616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.590906</v>
+        <v>0.6366039999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.310064</v>
+        <v>0.30954</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7716769999999999</v>
+        <v>0.7617699999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.619877</v>
+        <v>0.674917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.320606</v>
+        <v>0.317665</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.808065</v>
+        <v>0.804015</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6611860000000001</v>
+        <v>0.708297</v>
       </c>
       <c r="D21" t="n">
-        <v>0.334088</v>
+        <v>0.333328</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.852036</v>
+        <v>0.8424469999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.690652</v>
+        <v>0.74243</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344504</v>
+        <v>0.342707</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.893983</v>
+        <v>0.893442</v>
       </c>
       <c r="C23" t="n">
-        <v>0.723018</v>
+        <v>0.780177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.354795</v>
+        <v>0.35332</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.936631</v>
+        <v>0.931161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7542990000000001</v>
+        <v>0.81428</v>
       </c>
       <c r="D24" t="n">
-        <v>0.370228</v>
+        <v>0.364742</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.976133</v>
+        <v>0.9728019999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.791562</v>
+        <v>0.852975</v>
       </c>
       <c r="D25" t="n">
-        <v>0.381665</v>
+        <v>0.382075</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02753</v>
+        <v>1.02435</v>
       </c>
       <c r="C26" t="n">
-        <v>0.502202</v>
+        <v>0.555806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27935</v>
+        <v>0.277831</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655484</v>
+        <v>0.652482</v>
       </c>
       <c r="C27" t="n">
-        <v>0.524311</v>
+        <v>0.579637</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289421</v>
+        <v>0.286365</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.682221</v>
+        <v>0.680206</v>
       </c>
       <c r="C28" t="n">
-        <v>0.553501</v>
+        <v>0.610595</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297097</v>
+        <v>0.297141</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.718367</v>
+        <v>0.715656</v>
       </c>
       <c r="C29" t="n">
-        <v>0.580351</v>
+        <v>0.64122</v>
       </c>
       <c r="D29" t="n">
-        <v>0.308879</v>
+        <v>0.30741</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.753397</v>
+        <v>0.7506350000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.607273</v>
+        <v>0.674071</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319894</v>
+        <v>0.318368</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7908849999999999</v>
+        <v>0.78825</v>
       </c>
       <c r="C31" t="n">
-        <v>0.640288</v>
+        <v>0.7066</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325467</v>
+        <v>0.325553</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.826875</v>
+        <v>0.8273160000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.672244</v>
+        <v>0.739926</v>
       </c>
       <c r="D32" t="n">
-        <v>0.339666</v>
+        <v>0.338504</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.867611</v>
+        <v>0.866768</v>
       </c>
       <c r="C33" t="n">
-        <v>0.700721</v>
+        <v>0.77376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.351554</v>
+        <v>0.34522</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.908485</v>
+        <v>0.906757</v>
       </c>
       <c r="C34" t="n">
-        <v>0.739716</v>
+        <v>0.808356</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358449</v>
+        <v>0.356389</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.949848</v>
+        <v>0.949477</v>
       </c>
       <c r="C35" t="n">
-        <v>0.769698</v>
+        <v>0.843345</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366793</v>
+        <v>0.367886</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.990668</v>
+        <v>0.988051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.807616</v>
+        <v>0.879537</v>
       </c>
       <c r="D36" t="n">
-        <v>0.38282</v>
+        <v>0.379879</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03836</v>
+        <v>1.03473</v>
       </c>
       <c r="C37" t="n">
-        <v>0.843407</v>
+        <v>0.916295</v>
       </c>
       <c r="D37" t="n">
-        <v>0.394948</v>
+        <v>0.390717</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0815</v>
+        <v>1.07824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.885459</v>
+        <v>0.959552</v>
       </c>
       <c r="D38" t="n">
-        <v>0.403821</v>
+        <v>0.400517</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12999</v>
+        <v>1.12753</v>
       </c>
       <c r="C39" t="n">
-        <v>0.918474</v>
+        <v>0.995078</v>
       </c>
       <c r="D39" t="n">
-        <v>0.419069</v>
+        <v>0.418558</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.17186</v>
+        <v>1.16893</v>
       </c>
       <c r="C40" t="n">
-        <v>0.556129</v>
+        <v>0.614291</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317563</v>
+        <v>0.314784</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.705714</v>
+        <v>0.705171</v>
       </c>
       <c r="C41" t="n">
-        <v>0.576012</v>
+        <v>0.638973</v>
       </c>
       <c r="D41" t="n">
-        <v>0.326238</v>
+        <v>0.325165</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7354889999999999</v>
+        <v>0.735517</v>
       </c>
       <c r="C42" t="n">
-        <v>0.604174</v>
+        <v>0.6660700000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.337072</v>
+        <v>0.333822</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.771738</v>
+        <v>0.77201</v>
       </c>
       <c r="C43" t="n">
-        <v>0.632233</v>
+        <v>0.697319</v>
       </c>
       <c r="D43" t="n">
-        <v>0.346217</v>
+        <v>0.345766</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.808741</v>
+        <v>0.806622</v>
       </c>
       <c r="C44" t="n">
-        <v>0.662432</v>
+        <v>0.727459</v>
       </c>
       <c r="D44" t="n">
-        <v>0.358675</v>
+        <v>0.355302</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.842612</v>
+        <v>0.841068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.692557</v>
+        <v>0.761801</v>
       </c>
       <c r="D45" t="n">
-        <v>0.368639</v>
+        <v>0.363919</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.884277</v>
+        <v>0.883693</v>
       </c>
       <c r="C46" t="n">
-        <v>0.721552</v>
+        <v>0.795211</v>
       </c>
       <c r="D46" t="n">
-        <v>0.376607</v>
+        <v>0.375078</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9243</v>
+        <v>0.924485</v>
       </c>
       <c r="C47" t="n">
-        <v>0.756089</v>
+        <v>0.830767</v>
       </c>
       <c r="D47" t="n">
-        <v>0.390097</v>
+        <v>0.386878</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.96495</v>
+        <v>0.9644239999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.786925</v>
+        <v>0.867757</v>
       </c>
       <c r="D48" t="n">
-        <v>0.400737</v>
+        <v>0.399086</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00717</v>
+        <v>1.00622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.828327</v>
+        <v>0.9062480000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412774</v>
+        <v>0.409937</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04845</v>
+        <v>1.04602</v>
       </c>
       <c r="C50" t="n">
-        <v>0.86774</v>
+        <v>0.945507</v>
       </c>
       <c r="D50" t="n">
-        <v>0.424246</v>
+        <v>0.419695</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09446</v>
+        <v>1.09197</v>
       </c>
       <c r="C51" t="n">
-        <v>0.901811</v>
+        <v>0.983285</v>
       </c>
       <c r="D51" t="n">
-        <v>0.43732</v>
+        <v>0.434293</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13618</v>
+        <v>1.13417</v>
       </c>
       <c r="C52" t="n">
-        <v>0.940346</v>
+        <v>1.02363</v>
       </c>
       <c r="D52" t="n">
-        <v>0.449669</v>
+        <v>0.446408</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18153</v>
+        <v>1.18154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.979331</v>
+        <v>1.0628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.460037</v>
+        <v>0.461922</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22715</v>
+        <v>1.22383</v>
       </c>
       <c r="C54" t="n">
-        <v>0.583913</v>
+        <v>0.643972</v>
       </c>
       <c r="D54" t="n">
-        <v>0.342722</v>
+        <v>0.341563</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26974</v>
+        <v>1.26899</v>
       </c>
       <c r="C55" t="n">
-        <v>0.607273</v>
+        <v>0.669285</v>
       </c>
       <c r="D55" t="n">
-        <v>0.35076</v>
+        <v>0.351142</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.750105</v>
+        <v>0.75021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.632894</v>
+        <v>0.69734</v>
       </c>
       <c r="D56" t="n">
-        <v>0.36035</v>
+        <v>0.361198</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783918</v>
+        <v>0.78332</v>
       </c>
       <c r="C57" t="n">
-        <v>0.659079</v>
+        <v>0.724807</v>
       </c>
       <c r="D57" t="n">
-        <v>0.371881</v>
+        <v>0.368147</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818735</v>
+        <v>0.818935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.69041</v>
+        <v>0.756969</v>
       </c>
       <c r="D58" t="n">
-        <v>0.379347</v>
+        <v>0.379766</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.852298</v>
+        <v>0.852715</v>
       </c>
       <c r="C59" t="n">
-        <v>0.719727</v>
+        <v>0.79152</v>
       </c>
       <c r="D59" t="n">
-        <v>0.393443</v>
+        <v>0.393699</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.894454</v>
+        <v>0.893824</v>
       </c>
       <c r="C60" t="n">
-        <v>0.754394</v>
+        <v>0.826715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.403979</v>
+        <v>0.40307</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.932686</v>
+        <v>0.933791</v>
       </c>
       <c r="C61" t="n">
-        <v>0.786503</v>
+        <v>0.861846</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413755</v>
+        <v>0.414745</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.973334</v>
+        <v>0.972922</v>
       </c>
       <c r="C62" t="n">
-        <v>0.820824</v>
+        <v>0.900591</v>
       </c>
       <c r="D62" t="n">
-        <v>0.425659</v>
+        <v>0.423682</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.02001</v>
+        <v>1.01882</v>
       </c>
       <c r="C63" t="n">
-        <v>0.858861</v>
+        <v>0.9386370000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434369</v>
+        <v>0.434877</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.0676</v>
+        <v>1.06579</v>
       </c>
       <c r="C64" t="n">
-        <v>0.898058</v>
+        <v>0.9801530000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.449576</v>
+        <v>0.448558</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10861</v>
+        <v>1.10866</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9339730000000001</v>
+        <v>1.01872</v>
       </c>
       <c r="D65" t="n">
-        <v>0.462191</v>
+        <v>0.459466</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15529</v>
+        <v>1.15438</v>
       </c>
       <c r="C66" t="n">
-        <v>0.975362</v>
+        <v>1.0605</v>
       </c>
       <c r="D66" t="n">
-        <v>0.474383</v>
+        <v>0.470567</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20124</v>
+        <v>1.20199</v>
       </c>
       <c r="C67" t="n">
-        <v>1.01713</v>
+        <v>1.10123</v>
       </c>
       <c r="D67" t="n">
-        <v>0.487084</v>
+        <v>0.487167</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25161</v>
+        <v>1.25754</v>
       </c>
       <c r="C68" t="n">
-        <v>0.599145</v>
+        <v>0.672063</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350945</v>
+        <v>0.35331</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.31973</v>
+        <v>1.33325</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6371520000000001</v>
+        <v>0.716031</v>
       </c>
       <c r="D69" t="n">
-        <v>0.364966</v>
+        <v>0.364457</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.804198</v>
+        <v>0.8116</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6767879999999999</v>
+        <v>0.7603839999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.380241</v>
+        <v>0.382226</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.861026</v>
+        <v>0.865121</v>
       </c>
       <c r="C71" t="n">
-        <v>0.72565</v>
+        <v>0.808844</v>
       </c>
       <c r="D71" t="n">
-        <v>0.391886</v>
+        <v>0.392971</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.918337</v>
+        <v>0.922566</v>
       </c>
       <c r="C72" t="n">
-        <v>0.772533</v>
+        <v>0.858224</v>
       </c>
       <c r="D72" t="n">
-        <v>0.406669</v>
+        <v>0.407041</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.985363</v>
+        <v>0.986206</v>
       </c>
       <c r="C73" t="n">
-        <v>0.83083</v>
+        <v>0.917059</v>
       </c>
       <c r="D73" t="n">
-        <v>0.424437</v>
+        <v>0.42431</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05285</v>
+        <v>1.06582</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8857699999999999</v>
+        <v>0.987202</v>
       </c>
       <c r="D74" t="n">
-        <v>0.444147</v>
+        <v>0.44518</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.12916</v>
+        <v>1.14254</v>
       </c>
       <c r="C75" t="n">
-        <v>0.953113</v>
+        <v>1.0579</v>
       </c>
       <c r="D75" t="n">
-        <v>0.458466</v>
+        <v>0.469169</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.21651</v>
+        <v>1.22498</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02487</v>
+        <v>1.13173</v>
       </c>
       <c r="D76" t="n">
-        <v>0.482284</v>
+        <v>0.486425</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.3116</v>
+        <v>1.32134</v>
       </c>
       <c r="C77" t="n">
-        <v>1.11023</v>
+        <v>1.22221</v>
       </c>
       <c r="D77" t="n">
-        <v>0.500208</v>
+        <v>0.503444</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.42132</v>
+        <v>1.42914</v>
       </c>
       <c r="C78" t="n">
-        <v>1.20558</v>
+        <v>1.32621</v>
       </c>
       <c r="D78" t="n">
-        <v>0.527899</v>
+        <v>0.540225</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55932</v>
+        <v>1.56053</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31334</v>
+        <v>1.43477</v>
       </c>
       <c r="D79" t="n">
-        <v>0.55655</v>
+        <v>0.561537</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.70676</v>
+        <v>1.71754</v>
       </c>
       <c r="C80" t="n">
-        <v>1.44139</v>
+        <v>1.58237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.593483</v>
+        <v>0.595071</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.90402</v>
+        <v>1.90441</v>
       </c>
       <c r="C81" t="n">
-        <v>1.61556</v>
+        <v>1.75007</v>
       </c>
       <c r="D81" t="n">
-        <v>0.630448</v>
+        <v>0.631516</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.12356</v>
+        <v>2.08184</v>
       </c>
       <c r="C82" t="n">
-        <v>1.80045</v>
+        <v>1.90877</v>
       </c>
       <c r="D82" t="n">
-        <v>0.663561</v>
+        <v>0.6635760000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.34537</v>
+        <v>2.29095</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15701</v>
+        <v>1.21025</v>
       </c>
       <c r="D83" t="n">
-        <v>0.517597</v>
+        <v>0.5017779999999999</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.62635</v>
+        <v>2.53804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28276</v>
+        <v>1.33872</v>
       </c>
       <c r="D84" t="n">
-        <v>0.560048</v>
+        <v>0.5392709999999999</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.70963</v>
+        <v>1.63632</v>
       </c>
       <c r="C85" t="n">
-        <v>1.44165</v>
+        <v>1.48557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.608675</v>
+        <v>0.574124</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.907</v>
+        <v>1.80077</v>
       </c>
       <c r="C86" t="n">
-        <v>1.60527</v>
+        <v>1.65151</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6531439999999999</v>
+        <v>0.6285849999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.11376</v>
+        <v>1.98558</v>
       </c>
       <c r="C87" t="n">
-        <v>1.7893</v>
+        <v>1.81985</v>
       </c>
       <c r="D87" t="n">
-        <v>0.719208</v>
+        <v>0.691927</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35266</v>
+        <v>2.19302</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99105</v>
+        <v>2.01022</v>
       </c>
       <c r="D88" t="n">
-        <v>0.770975</v>
+        <v>0.744204</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5987</v>
+        <v>2.41773</v>
       </c>
       <c r="C89" t="n">
-        <v>2.22208</v>
+        <v>2.22037</v>
       </c>
       <c r="D89" t="n">
-        <v>0.839438</v>
+        <v>0.79769</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.87238</v>
+        <v>2.65599</v>
       </c>
       <c r="C90" t="n">
-        <v>2.44325</v>
+        <v>2.43908</v>
       </c>
       <c r="D90" t="n">
-        <v>0.907285</v>
+        <v>0.848738</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.16044</v>
+        <v>2.90995</v>
       </c>
       <c r="C91" t="n">
-        <v>2.68347</v>
+        <v>2.66736</v>
       </c>
       <c r="D91" t="n">
-        <v>0.963588</v>
+        <v>0.936258</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.4708</v>
+        <v>3.18145</v>
       </c>
       <c r="C92" t="n">
-        <v>2.96754</v>
+        <v>2.92271</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0561</v>
+        <v>0.974848</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.80133</v>
+        <v>3.47855</v>
       </c>
       <c r="C93" t="n">
-        <v>3.24923</v>
+        <v>3.18501</v>
       </c>
       <c r="D93" t="n">
-        <v>1.14567</v>
+        <v>1.05348</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.12224</v>
+        <v>3.77857</v>
       </c>
       <c r="C94" t="n">
-        <v>3.52655</v>
+        <v>3.46223</v>
       </c>
       <c r="D94" t="n">
-        <v>1.23971</v>
+        <v>1.14575</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.41808</v>
+        <v>4.1054</v>
       </c>
       <c r="C95" t="n">
-        <v>3.79002</v>
+        <v>3.73735</v>
       </c>
       <c r="D95" t="n">
-        <v>1.3258</v>
+        <v>1.22369</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.74497</v>
+        <v>4.4227</v>
       </c>
       <c r="C96" t="n">
-        <v>4.0851</v>
+        <v>3.98684</v>
       </c>
       <c r="D96" t="n">
-        <v>1.40408</v>
+        <v>1.30461</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.11078</v>
+        <v>4.72478</v>
       </c>
       <c r="C97" t="n">
-        <v>2.33272</v>
+        <v>2.3045</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01881</v>
+        <v>0.943746</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.49092</v>
+        <v>5.01738</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49585</v>
+        <v>2.4577</v>
       </c>
       <c r="D98" t="n">
-        <v>1.08475</v>
+        <v>0.990824</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.15296</v>
+        <v>2.8537</v>
       </c>
       <c r="C99" t="n">
-        <v>2.67825</v>
+        <v>2.62304</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14864</v>
+        <v>1.05759</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.3836</v>
+        <v>3.05148</v>
       </c>
       <c r="C100" t="n">
-        <v>2.86917</v>
+        <v>2.80785</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20353</v>
+        <v>1.11085</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62234</v>
+        <v>3.24443</v>
       </c>
       <c r="C101" t="n">
-        <v>3.07798</v>
+        <v>3.00906</v>
       </c>
       <c r="D101" t="n">
-        <v>1.27957</v>
+        <v>1.1676</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.88025</v>
+        <v>3.46497</v>
       </c>
       <c r="C102" t="n">
-        <v>3.29807</v>
+        <v>3.21446</v>
       </c>
       <c r="D102" t="n">
-        <v>1.33223</v>
+        <v>1.22665</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.14751</v>
+        <v>3.69452</v>
       </c>
       <c r="C103" t="n">
-        <v>3.53812</v>
+        <v>3.43582</v>
       </c>
       <c r="D103" t="n">
-        <v>1.41654</v>
+        <v>1.27665</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.43703</v>
+        <v>3.94086</v>
       </c>
       <c r="C104" t="n">
-        <v>3.78649</v>
+        <v>3.67395</v>
       </c>
       <c r="D104" t="n">
-        <v>1.47798</v>
+        <v>1.3432</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.74779</v>
+        <v>4.21534</v>
       </c>
       <c r="C105" t="n">
-        <v>4.05321</v>
+        <v>3.92593</v>
       </c>
       <c r="D105" t="n">
-        <v>1.58066</v>
+        <v>1.44007</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.06702</v>
+        <v>4.49147</v>
       </c>
       <c r="C106" t="n">
-        <v>4.34275</v>
+        <v>4.1912</v>
       </c>
       <c r="D106" t="n">
-        <v>1.63679</v>
+        <v>1.49914</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.40889</v>
+        <v>4.79582</v>
       </c>
       <c r="C107" t="n">
-        <v>4.64955</v>
+        <v>4.46635</v>
       </c>
       <c r="D107" t="n">
-        <v>1.7283</v>
+        <v>1.57151</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.76127</v>
+        <v>5.09634</v>
       </c>
       <c r="C108" t="n">
-        <v>4.96039</v>
+        <v>4.75696</v>
       </c>
       <c r="D108" t="n">
-        <v>1.8151</v>
+        <v>1.65825</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.14143</v>
+        <v>5.42998</v>
       </c>
       <c r="C109" t="n">
-        <v>5.26085</v>
+        <v>5.07486</v>
       </c>
       <c r="D109" t="n">
-        <v>1.89259</v>
+        <v>1.7445</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.48036</v>
+        <v>5.77619</v>
       </c>
       <c r="C110" t="n">
-        <v>5.65371</v>
+        <v>5.37446</v>
       </c>
       <c r="D110" t="n">
-        <v>1.99783</v>
+        <v>1.80655</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.91248</v>
+        <v>6.10771</v>
       </c>
       <c r="C111" t="n">
-        <v>3.00871</v>
+        <v>2.95669</v>
       </c>
       <c r="D111" t="n">
-        <v>1.45677</v>
+        <v>1.33173</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>7.30567</v>
+        <v>6.48696</v>
       </c>
       <c r="C112" t="n">
-        <v>3.19166</v>
+        <v>3.12203</v>
       </c>
       <c r="D112" t="n">
-        <v>1.52387</v>
+        <v>1.36191</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>7.70248</v>
+        <v>6.85343</v>
       </c>
       <c r="C113" t="n">
-        <v>3.37942</v>
+        <v>3.3062</v>
       </c>
       <c r="D113" t="n">
-        <v>1.56732</v>
+        <v>1.43363</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.20421</v>
+        <v>3.73421</v>
       </c>
       <c r="C114" t="n">
-        <v>3.59264</v>
+        <v>3.50662</v>
       </c>
       <c r="D114" t="n">
-        <v>1.63991</v>
+        <v>1.48329</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.45799</v>
+        <v>3.95294</v>
       </c>
       <c r="C115" t="n">
-        <v>3.80453</v>
+        <v>3.71313</v>
       </c>
       <c r="D115" t="n">
-        <v>1.72533</v>
+        <v>1.57358</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.72076</v>
+        <v>4.18573</v>
       </c>
       <c r="C116" t="n">
-        <v>4.05458</v>
+        <v>3.94042</v>
       </c>
       <c r="D116" t="n">
-        <v>1.77889</v>
+        <v>1.62669</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.98997</v>
+        <v>4.4329</v>
       </c>
       <c r="C117" t="n">
-        <v>4.29787</v>
+        <v>4.18919</v>
       </c>
       <c r="D117" t="n">
-        <v>1.85934</v>
+        <v>1.66959</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.29686</v>
+        <v>4.68466</v>
       </c>
       <c r="C118" t="n">
-        <v>4.56867</v>
+        <v>4.44148</v>
       </c>
       <c r="D118" t="n">
-        <v>1.93175</v>
+        <v>1.76443</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.60562</v>
+        <v>4.95541</v>
       </c>
       <c r="C119" t="n">
-        <v>4.86221</v>
+        <v>4.70427</v>
       </c>
       <c r="D119" t="n">
-        <v>2.00638</v>
+        <v>1.82565</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.332947</v>
+        <v>0.341673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.284123</v>
+        <v>0.289415</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245588</v>
+        <v>0.251206</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.254215</v>
+        <v>0.260197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285589</v>
+        <v>0.292022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247761</v>
+        <v>0.254601</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26271</v>
+        <v>0.267862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.292394</v>
+        <v>0.298147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252704</v>
+        <v>0.260092</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268223</v>
+        <v>0.275315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.298243</v>
+        <v>0.305934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.258104</v>
+        <v>0.265593</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276617</v>
+        <v>0.283461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.303526</v>
+        <v>0.311722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262826</v>
+        <v>0.270772</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.285889</v>
+        <v>0.291961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.252891</v>
+        <v>0.258456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220418</v>
+        <v>0.224812</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.294167</v>
+        <v>0.300512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.263616</v>
+        <v>0.264612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227084</v>
+        <v>0.231894</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.302835</v>
+        <v>0.30838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268127</v>
+        <v>0.270004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232672</v>
+        <v>0.237933</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31084</v>
+        <v>0.31651</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275582</v>
+        <v>0.276753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.240445</v>
+        <v>0.245169</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.318329</v>
+        <v>0.322313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.281595</v>
+        <v>0.283101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247682</v>
+        <v>0.251687</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.328887</v>
+        <v>0.331621</v>
       </c>
       <c r="C12" t="n">
-        <v>0.290578</v>
+        <v>0.292906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256748</v>
+        <v>0.260459</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.337465</v>
+        <v>0.339901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.296788</v>
+        <v>0.300797</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263062</v>
+        <v>0.266709</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.347566</v>
+        <v>0.349798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.30415</v>
+        <v>0.307709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.269127</v>
+        <v>0.272182</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.358185</v>
+        <v>0.359388</v>
       </c>
       <c r="C15" t="n">
-        <v>0.310095</v>
+        <v>0.314057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275108</v>
+        <v>0.278161</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.365798</v>
+        <v>0.367475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.317008</v>
+        <v>0.320485</v>
       </c>
       <c r="D16" t="n">
-        <v>0.281612</v>
+        <v>0.284354</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.377916</v>
+        <v>0.378885</v>
       </c>
       <c r="C17" t="n">
-        <v>0.322853</v>
+        <v>0.326467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.288437</v>
+        <v>0.292884</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.285832</v>
+        <v>0.288858</v>
       </c>
       <c r="C18" t="n">
-        <v>0.328662</v>
+        <v>0.331653</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292536</v>
+        <v>0.295493</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.292833</v>
+        <v>0.296103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.334146</v>
+        <v>0.337773</v>
       </c>
       <c r="D19" t="n">
-        <v>0.299575</v>
+        <v>0.302579</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.302589</v>
+        <v>0.30609</v>
       </c>
       <c r="C20" t="n">
-        <v>0.342457</v>
+        <v>0.345951</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307268</v>
+        <v>0.310933</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.312328</v>
+        <v>0.315549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.276509</v>
+        <v>0.280144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245596</v>
+        <v>0.248459</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.321689</v>
+        <v>0.324379</v>
       </c>
       <c r="C22" t="n">
-        <v>0.285477</v>
+        <v>0.287523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252557</v>
+        <v>0.255602</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.329535</v>
+        <v>0.332616</v>
       </c>
       <c r="C23" t="n">
-        <v>0.292488</v>
+        <v>0.293824</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260863</v>
+        <v>0.262765</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.336769</v>
+        <v>0.340089</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299269</v>
+        <v>0.300323</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265167</v>
+        <v>0.268311</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.344986</v>
+        <v>0.348245</v>
       </c>
       <c r="C25" t="n">
-        <v>0.307033</v>
+        <v>0.307563</v>
       </c>
       <c r="D25" t="n">
-        <v>0.272217</v>
+        <v>0.275145</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.35401</v>
+        <v>0.357675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.315506</v>
+        <v>0.315619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279162</v>
+        <v>0.282442</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.362531</v>
+        <v>0.365622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.317878</v>
+        <v>0.321336</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286878</v>
+        <v>0.288609</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.372495</v>
+        <v>0.375081</v>
       </c>
       <c r="C28" t="n">
-        <v>0.323811</v>
+        <v>0.327951</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291743</v>
+        <v>0.294919</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.380652</v>
+        <v>0.38356</v>
       </c>
       <c r="C29" t="n">
-        <v>0.331825</v>
+        <v>0.33526</v>
       </c>
       <c r="D29" t="n">
-        <v>0.298761</v>
+        <v>0.302084</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.388765</v>
+        <v>0.391638</v>
       </c>
       <c r="C30" t="n">
-        <v>0.337749</v>
+        <v>0.341609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.304139</v>
+        <v>0.308513</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.397738</v>
+        <v>0.40079</v>
       </c>
       <c r="C31" t="n">
-        <v>0.344148</v>
+        <v>0.347946</v>
       </c>
       <c r="D31" t="n">
-        <v>0.310483</v>
+        <v>0.313832</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297726</v>
+        <v>0.29752</v>
       </c>
       <c r="C32" t="n">
-        <v>0.350426</v>
+        <v>0.354371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317121</v>
+        <v>0.320706</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305649</v>
+        <v>0.305478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.357271</v>
+        <v>0.361278</v>
       </c>
       <c r="D33" t="n">
-        <v>0.323429</v>
+        <v>0.326828</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313253</v>
+        <v>0.313386</v>
       </c>
       <c r="C34" t="n">
-        <v>0.363832</v>
+        <v>0.367637</v>
       </c>
       <c r="D34" t="n">
-        <v>0.329686</v>
+        <v>0.333161</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.323064</v>
+        <v>0.322018</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291117</v>
+        <v>0.29199</v>
       </c>
       <c r="D35" t="n">
-        <v>0.259191</v>
+        <v>0.258397</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.332327</v>
+        <v>0.331241</v>
       </c>
       <c r="C36" t="n">
-        <v>0.29805</v>
+        <v>0.298521</v>
       </c>
       <c r="D36" t="n">
-        <v>0.26531</v>
+        <v>0.264313</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339165</v>
+        <v>0.339462</v>
       </c>
       <c r="C37" t="n">
-        <v>0.304779</v>
+        <v>0.305476</v>
       </c>
       <c r="D37" t="n">
-        <v>0.271028</v>
+        <v>0.270629</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34708</v>
+        <v>0.347332</v>
       </c>
       <c r="C38" t="n">
-        <v>0.311812</v>
+        <v>0.312415</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277518</v>
+        <v>0.277122</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355768</v>
+        <v>0.355761</v>
       </c>
       <c r="C39" t="n">
-        <v>0.319191</v>
+        <v>0.319746</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284551</v>
+        <v>0.284245</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364731</v>
+        <v>0.364808</v>
       </c>
       <c r="C40" t="n">
-        <v>0.326253</v>
+        <v>0.326771</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291294</v>
+        <v>0.290698</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372196</v>
+        <v>0.372753</v>
       </c>
       <c r="C41" t="n">
-        <v>0.333139</v>
+        <v>0.333664</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298296</v>
+        <v>0.297525</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.379882</v>
+        <v>0.381036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.340277</v>
+        <v>0.34024</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304212</v>
+        <v>0.303513</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.390741</v>
+        <v>0.391016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.347246</v>
+        <v>0.347137</v>
       </c>
       <c r="D43" t="n">
-        <v>0.31125</v>
+        <v>0.310877</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.399329</v>
+        <v>0.39961</v>
       </c>
       <c r="C44" t="n">
-        <v>0.353657</v>
+        <v>0.353359</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318134</v>
+        <v>0.317588</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.407558</v>
+        <v>0.40745</v>
       </c>
       <c r="C45" t="n">
-        <v>0.360195</v>
+        <v>0.359824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323905</v>
+        <v>0.323325</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418009</v>
+        <v>0.418442</v>
       </c>
       <c r="C46" t="n">
-        <v>0.366076</v>
+        <v>0.366051</v>
       </c>
       <c r="D46" t="n">
-        <v>0.329552</v>
+        <v>0.328967</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305926</v>
+        <v>0.305877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.372327</v>
+        <v>0.372254</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335682</v>
+        <v>0.335056</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.312957</v>
+        <v>0.312954</v>
       </c>
       <c r="C48" t="n">
-        <v>0.379058</v>
+        <v>0.379151</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343334</v>
+        <v>0.343064</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322454</v>
+        <v>0.321917</v>
       </c>
       <c r="C49" t="n">
-        <v>0.385648</v>
+        <v>0.38571</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352617</v>
+        <v>0.352377</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.329935</v>
+        <v>0.330377</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302478</v>
+        <v>0.303027</v>
       </c>
       <c r="D50" t="n">
-        <v>0.264387</v>
+        <v>0.263157</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338209</v>
+        <v>0.338254</v>
       </c>
       <c r="C51" t="n">
-        <v>0.309323</v>
+        <v>0.309847</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269907</v>
+        <v>0.270739</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347115</v>
+        <v>0.347255</v>
       </c>
       <c r="C52" t="n">
-        <v>0.31689</v>
+        <v>0.31729</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277337</v>
+        <v>0.278157</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355272</v>
+        <v>0.355425</v>
       </c>
       <c r="C53" t="n">
-        <v>0.324381</v>
+        <v>0.324617</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284589</v>
+        <v>0.285367</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364248</v>
+        <v>0.36397</v>
       </c>
       <c r="C54" t="n">
-        <v>0.331187</v>
+        <v>0.33167</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291706</v>
+        <v>0.292319</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372716</v>
+        <v>0.372801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33866</v>
+        <v>0.338963</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298645</v>
+        <v>0.29958</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381316</v>
+        <v>0.381456</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345907</v>
+        <v>0.345859</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30559</v>
+        <v>0.305292</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.389984</v>
+        <v>0.390302</v>
       </c>
       <c r="C57" t="n">
-        <v>0.352285</v>
+        <v>0.352414</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312449</v>
+        <v>0.312284</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39905</v>
+        <v>0.399305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.358261</v>
+        <v>0.358266</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319041</v>
+        <v>0.318735</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407648</v>
+        <v>0.408088</v>
       </c>
       <c r="C59" t="n">
-        <v>0.364794</v>
+        <v>0.364677</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325667</v>
+        <v>0.325487</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.41766</v>
+        <v>0.418116</v>
       </c>
       <c r="C60" t="n">
-        <v>0.371784</v>
+        <v>0.371297</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332281</v>
+        <v>0.332439</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.307741</v>
+        <v>0.310288</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378323</v>
+        <v>0.378121</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3392</v>
+        <v>0.339309</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.318474</v>
+        <v>0.320707</v>
       </c>
       <c r="C62" t="n">
-        <v>0.384979</v>
+        <v>0.384482</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345801</v>
+        <v>0.345878</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.329011</v>
+        <v>0.331287</v>
       </c>
       <c r="C63" t="n">
-        <v>0.392349</v>
+        <v>0.391671</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353865</v>
+        <v>0.353977</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.339524</v>
+        <v>0.341626</v>
       </c>
       <c r="C64" t="n">
-        <v>0.311828</v>
+        <v>0.3128</v>
       </c>
       <c r="D64" t="n">
-        <v>0.274958</v>
+        <v>0.27574</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.347537</v>
+        <v>0.347703</v>
       </c>
       <c r="C65" t="n">
-        <v>0.319631</v>
+        <v>0.321558</v>
       </c>
       <c r="D65" t="n">
-        <v>0.282336</v>
+        <v>0.284257</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.358053</v>
+        <v>0.3601</v>
       </c>
       <c r="C66" t="n">
-        <v>0.32952</v>
+        <v>0.331261</v>
       </c>
       <c r="D66" t="n">
-        <v>0.293537</v>
+        <v>0.292794</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.372912</v>
+        <v>0.371833</v>
       </c>
       <c r="C67" t="n">
-        <v>0.338418</v>
+        <v>0.340197</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300944</v>
+        <v>0.301849</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.386435</v>
+        <v>0.384447</v>
       </c>
       <c r="C68" t="n">
-        <v>0.348148</v>
+        <v>0.349531</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312396</v>
+        <v>0.312475</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.399869</v>
+        <v>0.398794</v>
       </c>
       <c r="C69" t="n">
-        <v>0.358333</v>
+        <v>0.360134</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322487</v>
+        <v>0.322744</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.414357</v>
+        <v>0.413119</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371286</v>
+        <v>0.371201</v>
       </c>
       <c r="D70" t="n">
-        <v>0.333904</v>
+        <v>0.33502</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4313</v>
+        <v>0.431121</v>
       </c>
       <c r="C71" t="n">
-        <v>0.385057</v>
+        <v>0.38257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345647</v>
+        <v>0.346317</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.450834</v>
+        <v>0.448965</v>
       </c>
       <c r="C72" t="n">
-        <v>0.398449</v>
+        <v>0.396551</v>
       </c>
       <c r="D72" t="n">
-        <v>0.360154</v>
+        <v>0.360423</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473173</v>
+        <v>0.471643</v>
       </c>
       <c r="C73" t="n">
-        <v>0.410084</v>
+        <v>0.410874</v>
       </c>
       <c r="D73" t="n">
-        <v>0.373033</v>
+        <v>0.375854</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.489307</v>
+        <v>0.49393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.424508</v>
+        <v>0.426007</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38707</v>
+        <v>0.390156</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.510351</v>
+        <v>0.515247</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4437</v>
+        <v>0.446162</v>
       </c>
       <c r="D75" t="n">
-        <v>0.406778</v>
+        <v>0.409843</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.473416</v>
+        <v>0.476579</v>
       </c>
       <c r="C76" t="n">
-        <v>0.464854</v>
+        <v>0.469198</v>
       </c>
       <c r="D76" t="n">
-        <v>0.429563</v>
+        <v>0.435112</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.50589</v>
+        <v>0.505961</v>
       </c>
       <c r="C77" t="n">
-        <v>0.487677</v>
+        <v>0.493491</v>
       </c>
       <c r="D77" t="n">
-        <v>0.448837</v>
+        <v>0.457299</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.532064</v>
+        <v>0.5360740000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.421026</v>
+        <v>0.428863</v>
       </c>
       <c r="D78" t="n">
-        <v>0.407271</v>
+        <v>0.413742</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.562198</v>
+        <v>0.561789</v>
       </c>
       <c r="C79" t="n">
-        <v>0.446337</v>
+        <v>0.453361</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433996</v>
+        <v>0.440717</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.594116</v>
+        <v>0.594904</v>
       </c>
       <c r="C80" t="n">
-        <v>0.485891</v>
+        <v>0.481323</v>
       </c>
       <c r="D80" t="n">
-        <v>0.460571</v>
+        <v>0.465366</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.627941</v>
+        <v>0.63195</v>
       </c>
       <c r="C81" t="n">
-        <v>0.506636</v>
+        <v>0.504518</v>
       </c>
       <c r="D81" t="n">
-        <v>0.483408</v>
+        <v>0.488537</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.664333</v>
+        <v>0.6697419999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5323</v>
+        <v>0.531065</v>
       </c>
       <c r="D82" t="n">
-        <v>0.511097</v>
+        <v>0.5155960000000001</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.702556</v>
+        <v>0.705851</v>
       </c>
       <c r="C83" t="n">
-        <v>0.562043</v>
+        <v>0.560677</v>
       </c>
       <c r="D83" t="n">
-        <v>0.539502</v>
+        <v>0.541691</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.735579</v>
+        <v>0.736746</v>
       </c>
       <c r="C84" t="n">
-        <v>0.594148</v>
+        <v>0.595785</v>
       </c>
       <c r="D84" t="n">
-        <v>0.567138</v>
+        <v>0.567605</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.774383</v>
+        <v>0.774452</v>
       </c>
       <c r="C85" t="n">
-        <v>0.629158</v>
+        <v>0.6299940000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.595349</v>
+        <v>0.596681</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.814906</v>
+        <v>0.815561</v>
       </c>
       <c r="C86" t="n">
-        <v>0.664931</v>
+        <v>0.664899</v>
       </c>
       <c r="D86" t="n">
-        <v>0.62517</v>
+        <v>0.6256429999999999</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.856677</v>
+        <v>0.856034</v>
       </c>
       <c r="C87" t="n">
-        <v>0.701211</v>
+        <v>0.700776</v>
       </c>
       <c r="D87" t="n">
-        <v>0.654446</v>
+        <v>0.654286</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.899969</v>
+        <v>0.898769</v>
       </c>
       <c r="C88" t="n">
-        <v>0.738784</v>
+        <v>0.73786</v>
       </c>
       <c r="D88" t="n">
-        <v>0.691661</v>
+        <v>0.690779</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.946864</v>
+        <v>0.944568</v>
       </c>
       <c r="C89" t="n">
-        <v>0.777595</v>
+        <v>0.776108</v>
       </c>
       <c r="D89" t="n">
-        <v>0.72507</v>
+        <v>0.723519</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.834363</v>
+        <v>0.82929</v>
       </c>
       <c r="C90" t="n">
-        <v>0.817848</v>
+        <v>0.817275</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7485810000000001</v>
+        <v>0.7478630000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.858178</v>
+        <v>0.857579</v>
       </c>
       <c r="C91" t="n">
-        <v>0.860777</v>
+        <v>0.85959</v>
       </c>
       <c r="D91" t="n">
-        <v>0.781409</v>
+        <v>0.781091</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.887025</v>
+        <v>0.88627</v>
       </c>
       <c r="C92" t="n">
-        <v>0.699078</v>
+        <v>0.69907</v>
       </c>
       <c r="D92" t="n">
-        <v>0.679022</v>
+        <v>0.677668</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.916135</v>
+        <v>0.915635</v>
       </c>
       <c r="C93" t="n">
-        <v>0.725217</v>
+        <v>0.724873</v>
       </c>
       <c r="D93" t="n">
-        <v>0.705074</v>
+        <v>0.703875</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.946359</v>
+        <v>0.945708</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752874</v>
+        <v>0.752371</v>
       </c>
       <c r="D94" t="n">
-        <v>0.721844</v>
+        <v>0.720638</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.977888</v>
+        <v>0.976631</v>
       </c>
       <c r="C95" t="n">
-        <v>0.781515</v>
+        <v>0.78098</v>
       </c>
       <c r="D95" t="n">
-        <v>0.758062</v>
+        <v>0.756664</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00552</v>
+        <v>1.00372</v>
       </c>
       <c r="C96" t="n">
-        <v>0.811933</v>
+        <v>0.812683</v>
       </c>
       <c r="D96" t="n">
-        <v>0.783768</v>
+        <v>0.782732</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03545</v>
+        <v>1.03395</v>
       </c>
       <c r="C97" t="n">
-        <v>0.843565</v>
+        <v>0.844515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.812499</v>
+        <v>0.811003</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.073</v>
+        <v>1.07119</v>
       </c>
       <c r="C98" t="n">
-        <v>0.878537</v>
+        <v>0.877602</v>
       </c>
       <c r="D98" t="n">
-        <v>0.840361</v>
+        <v>0.839024</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.1094</v>
+        <v>1.10811</v>
       </c>
       <c r="C99" t="n">
-        <v>0.913073</v>
+        <v>0.912351</v>
       </c>
       <c r="D99" t="n">
-        <v>0.86817</v>
+        <v>0.866781</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14331</v>
+        <v>1.14216</v>
       </c>
       <c r="C100" t="n">
-        <v>0.948927</v>
+        <v>0.947973</v>
       </c>
       <c r="D100" t="n">
-        <v>0.894798</v>
+        <v>0.894165</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16945</v>
+        <v>1.16857</v>
       </c>
       <c r="C101" t="n">
-        <v>0.986749</v>
+        <v>0.985194</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9241509999999999</v>
+        <v>0.924045</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20604</v>
+        <v>1.20478</v>
       </c>
       <c r="C102" t="n">
-        <v>1.02614</v>
+        <v>1.02479</v>
       </c>
       <c r="D102" t="n">
-        <v>0.957498</v>
+        <v>0.955827</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24492</v>
+        <v>1.24351</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06753</v>
+        <v>1.06639</v>
       </c>
       <c r="D103" t="n">
-        <v>0.989321</v>
+        <v>0.987055</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.28503</v>
+        <v>1.28389</v>
       </c>
       <c r="C104" t="n">
-        <v>1.10886</v>
+        <v>1.10814</v>
       </c>
       <c r="D104" t="n">
-        <v>1.02216</v>
+        <v>1.02073</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02582</v>
+        <v>1.02755</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15326</v>
+        <v>1.15168</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05705</v>
+        <v>1.05532</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05255</v>
+        <v>1.0521</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19791</v>
+        <v>1.19676</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09155</v>
+        <v>1.09004</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07824</v>
+        <v>1.07942</v>
       </c>
       <c r="C107" t="n">
-        <v>0.886107</v>
+        <v>0.888856</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8962909999999999</v>
+        <v>0.898429</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.1007</v>
+        <v>1.10144</v>
       </c>
       <c r="C108" t="n">
-        <v>0.913969</v>
+        <v>0.915949</v>
       </c>
       <c r="D108" t="n">
-        <v>0.920075</v>
+        <v>0.922399</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12912</v>
+        <v>1.12936</v>
       </c>
       <c r="C109" t="n">
-        <v>0.943246</v>
+        <v>0.945053</v>
       </c>
       <c r="D109" t="n">
-        <v>0.948396</v>
+        <v>0.949438</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15627</v>
+        <v>1.15767</v>
       </c>
       <c r="C110" t="n">
-        <v>0.973486</v>
+        <v>0.97579</v>
       </c>
       <c r="D110" t="n">
-        <v>0.973044</v>
+        <v>0.974786</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18546</v>
+        <v>1.1852</v>
       </c>
       <c r="C111" t="n">
-        <v>1.00842</v>
+        <v>1.00974</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00121</v>
+        <v>1.00208</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22277</v>
+        <v>1.22272</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04136</v>
+        <v>1.04273</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03093</v>
+        <v>1.0308</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.25494</v>
+        <v>1.25505</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07617</v>
+        <v>1.07647</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05853</v>
+        <v>1.05876</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28551</v>
+        <v>1.28613</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11461</v>
+        <v>1.11206</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0947</v>
+        <v>1.09531</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32176</v>
+        <v>1.32155</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15024</v>
+        <v>1.14931</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12626</v>
+        <v>1.12769</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35905</v>
+        <v>1.35899</v>
       </c>
       <c r="C116" t="n">
-        <v>1.18508</v>
+        <v>1.18482</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1498</v>
+        <v>1.14961</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39658</v>
+        <v>1.39714</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21803</v>
+        <v>1.22537</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18129</v>
+        <v>1.18096</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43812</v>
+        <v>1.43853</v>
       </c>
       <c r="C118" t="n">
-        <v>1.25967</v>
+        <v>1.26284</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21861</v>
+        <v>1.21836</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11677</v>
+        <v>1.12415</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30594</v>
+        <v>1.30558</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2495</v>
+        <v>1.24959</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.270512</v>
+        <v>0.269104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218472</v>
+        <v>0.214968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142289</v>
+        <v>0.140392</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197039</v>
+        <v>0.193542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221551</v>
+        <v>0.21839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142726</v>
+        <v>0.140696</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203521</v>
+        <v>0.20061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.231649</v>
+        <v>0.226073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147335</v>
+        <v>0.146093</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.212398</v>
+        <v>0.208725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238155</v>
+        <v>0.232535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.152134</v>
+        <v>0.148877</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.219391</v>
+        <v>0.213758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244175</v>
+        <v>0.239458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.155457</v>
+        <v>0.152834</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226313</v>
+        <v>0.221159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205475</v>
+        <v>0.199062</v>
       </c>
       <c r="D7" t="n">
-        <v>0.141877</v>
+        <v>0.136461</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23137</v>
+        <v>0.228779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.204363</v>
+        <v>0.205749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142418</v>
+        <v>0.140148</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.238296</v>
+        <v>0.235395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.214394</v>
+        <v>0.209968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.146055</v>
+        <v>0.142197</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.247487</v>
+        <v>0.244017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21818</v>
+        <v>0.217442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.147402</v>
+        <v>0.144093</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.25444</v>
+        <v>0.25267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22391</v>
+        <v>0.22071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.150065</v>
+        <v>0.147353</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.264742</v>
+        <v>0.262008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.231963</v>
+        <v>0.230835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153655</v>
+        <v>0.153231</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.271126</v>
+        <v>0.269605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23799</v>
+        <v>0.237395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.157565</v>
+        <v>0.155008</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281815</v>
+        <v>0.280756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245782</v>
+        <v>0.244075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158843</v>
+        <v>0.157032</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294313</v>
+        <v>0.294033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252761</v>
+        <v>0.252491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163942</v>
+        <v>0.162547</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302793</v>
+        <v>0.30264</v>
       </c>
       <c r="C16" t="n">
-        <v>0.262954</v>
+        <v>0.261915</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167722</v>
+        <v>0.165864</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.316497</v>
+        <v>0.315868</v>
       </c>
       <c r="C17" t="n">
-        <v>0.271531</v>
+        <v>0.270914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172267</v>
+        <v>0.170695</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234062</v>
+        <v>0.234007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.276789</v>
+        <v>0.277234</v>
       </c>
       <c r="D18" t="n">
-        <v>0.174511</v>
+        <v>0.172755</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243241</v>
+        <v>0.242957</v>
       </c>
       <c r="C19" t="n">
-        <v>0.286284</v>
+        <v>0.286279</v>
       </c>
       <c r="D19" t="n">
-        <v>0.180611</v>
+        <v>0.178559</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247725</v>
+        <v>0.247561</v>
       </c>
       <c r="C20" t="n">
-        <v>0.297737</v>
+        <v>0.29753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.183527</v>
+        <v>0.182908</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25414</v>
+        <v>0.254698</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244473</v>
+        <v>0.245036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169952</v>
+        <v>0.169274</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259617</v>
+        <v>0.259422</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24995</v>
+        <v>0.250698</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172315</v>
+        <v>0.17162</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268849</v>
+        <v>0.268575</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2566</v>
+        <v>0.257621</v>
       </c>
       <c r="D23" t="n">
-        <v>0.175295</v>
+        <v>0.175397</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.277248</v>
+        <v>0.276813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.261072</v>
+        <v>0.262014</v>
       </c>
       <c r="D24" t="n">
-        <v>0.178252</v>
+        <v>0.177472</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284855</v>
+        <v>0.28497</v>
       </c>
       <c r="C25" t="n">
-        <v>0.266915</v>
+        <v>0.267696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.181291</v>
+        <v>0.180503</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294491</v>
+        <v>0.294271</v>
       </c>
       <c r="C26" t="n">
-        <v>0.274492</v>
+        <v>0.275236</v>
       </c>
       <c r="D26" t="n">
-        <v>0.184587</v>
+        <v>0.184255</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302786</v>
+        <v>0.302819</v>
       </c>
       <c r="C27" t="n">
-        <v>0.27834</v>
+        <v>0.279049</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186707</v>
+        <v>0.186387</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314394</v>
+        <v>0.314445</v>
       </c>
       <c r="C28" t="n">
-        <v>0.285423</v>
+        <v>0.286012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.189874</v>
+        <v>0.189475</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.324098</v>
+        <v>0.324147</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292028</v>
+        <v>0.292937</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192832</v>
+        <v>0.192765</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.334143</v>
+        <v>0.33444</v>
       </c>
       <c r="C30" t="n">
-        <v>0.30003</v>
+        <v>0.300714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196139</v>
+        <v>0.196262</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.346123</v>
+        <v>0.346348</v>
       </c>
       <c r="C31" t="n">
-        <v>0.305573</v>
+        <v>0.30628</v>
       </c>
       <c r="D31" t="n">
-        <v>0.199344</v>
+        <v>0.199417</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249307</v>
+        <v>0.249534</v>
       </c>
       <c r="C32" t="n">
-        <v>0.314234</v>
+        <v>0.315029</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203154</v>
+        <v>0.203283</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255514</v>
+        <v>0.25592</v>
       </c>
       <c r="C33" t="n">
-        <v>0.323577</v>
+        <v>0.324285</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206685</v>
+        <v>0.206711</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261638</v>
+        <v>0.262135</v>
       </c>
       <c r="C34" t="n">
-        <v>0.332114</v>
+        <v>0.332813</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210234</v>
+        <v>0.210362</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268793</v>
+        <v>0.269297</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25894</v>
+        <v>0.259952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181496</v>
+        <v>0.182006</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274804</v>
+        <v>0.275233</v>
       </c>
       <c r="C36" t="n">
-        <v>0.265632</v>
+        <v>0.2665</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184142</v>
+        <v>0.184704</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280982</v>
+        <v>0.281484</v>
       </c>
       <c r="C37" t="n">
-        <v>0.270545</v>
+        <v>0.271408</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186423</v>
+        <v>0.187079</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289343</v>
+        <v>0.28989</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27677</v>
+        <v>0.277479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18912</v>
+        <v>0.189674</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295344</v>
+        <v>0.295788</v>
       </c>
       <c r="C39" t="n">
-        <v>0.282648</v>
+        <v>0.283354</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191358</v>
+        <v>0.191878</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304946</v>
+        <v>0.305172</v>
       </c>
       <c r="C40" t="n">
-        <v>0.288449</v>
+        <v>0.28934</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195332</v>
+        <v>0.195672</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314755</v>
+        <v>0.314991</v>
       </c>
       <c r="C41" t="n">
-        <v>0.294771</v>
+        <v>0.295248</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197847</v>
+        <v>0.19825</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325221</v>
+        <v>0.325425</v>
       </c>
       <c r="C42" t="n">
-        <v>0.299289</v>
+        <v>0.300407</v>
       </c>
       <c r="D42" t="n">
-        <v>0.199731</v>
+        <v>0.200239</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335984</v>
+        <v>0.336333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.306119</v>
+        <v>0.306954</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204185</v>
+        <v>0.204078</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3448</v>
+        <v>0.345176</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313662</v>
+        <v>0.314704</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207239</v>
+        <v>0.207624</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355811</v>
+        <v>0.355949</v>
       </c>
       <c r="C45" t="n">
-        <v>0.322311</v>
+        <v>0.323192</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211063</v>
+        <v>0.211451</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.367964</v>
+        <v>0.368327</v>
       </c>
       <c r="C46" t="n">
-        <v>0.329746</v>
+        <v>0.330645</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214323</v>
+        <v>0.214799</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26011</v>
+        <v>0.26008</v>
       </c>
       <c r="C47" t="n">
-        <v>0.337093</v>
+        <v>0.338027</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218214</v>
+        <v>0.218552</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265642</v>
+        <v>0.265608</v>
       </c>
       <c r="C48" t="n">
-        <v>0.346298</v>
+        <v>0.347312</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22144</v>
+        <v>0.221873</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272549</v>
+        <v>0.272531</v>
       </c>
       <c r="C49" t="n">
-        <v>0.355761</v>
+        <v>0.357011</v>
       </c>
       <c r="D49" t="n">
-        <v>0.224698</v>
+        <v>0.225272</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.279091</v>
+        <v>0.279151</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270922</v>
+        <v>0.271873</v>
       </c>
       <c r="D50" t="n">
-        <v>0.18544</v>
+        <v>0.185077</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285774</v>
+        <v>0.28585</v>
       </c>
       <c r="C51" t="n">
-        <v>0.276372</v>
+        <v>0.277275</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18857</v>
+        <v>0.18815</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292408</v>
+        <v>0.29219</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282365</v>
+        <v>0.283155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19128</v>
+        <v>0.191088</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301855</v>
+        <v>0.302076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.288421</v>
+        <v>0.289027</v>
       </c>
       <c r="D53" t="n">
-        <v>0.194036</v>
+        <v>0.193428</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310025</v>
+        <v>0.309922</v>
       </c>
       <c r="C54" t="n">
-        <v>0.294704</v>
+        <v>0.295568</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196749</v>
+        <v>0.196428</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318863</v>
+        <v>0.319133</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300658</v>
+        <v>0.301637</v>
       </c>
       <c r="D55" t="n">
-        <v>0.19988</v>
+        <v>0.199394</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329156</v>
+        <v>0.329124</v>
       </c>
       <c r="C56" t="n">
-        <v>0.306455</v>
+        <v>0.307471</v>
       </c>
       <c r="D56" t="n">
-        <v>0.20249</v>
+        <v>0.202081</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338088</v>
+        <v>0.338067</v>
       </c>
       <c r="C57" t="n">
-        <v>0.313447</v>
+        <v>0.314289</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206282</v>
+        <v>0.205869</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348323</v>
+        <v>0.348297</v>
       </c>
       <c r="C58" t="n">
-        <v>0.321768</v>
+        <v>0.322348</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209299</v>
+        <v>0.208858</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.359173</v>
+        <v>0.358943</v>
       </c>
       <c r="C59" t="n">
-        <v>0.328178</v>
+        <v>0.329129</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212764</v>
+        <v>0.212265</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.37004</v>
+        <v>0.370108</v>
       </c>
       <c r="C60" t="n">
-        <v>0.335408</v>
+        <v>0.336155</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21706</v>
+        <v>0.216723</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.269026</v>
+        <v>0.268443</v>
       </c>
       <c r="C61" t="n">
-        <v>0.34452</v>
+        <v>0.346001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219959</v>
+        <v>0.219676</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.278063</v>
+        <v>0.277</v>
       </c>
       <c r="C62" t="n">
-        <v>0.353259</v>
+        <v>0.354541</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223632</v>
+        <v>0.223251</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.288093</v>
+        <v>0.286693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.362895</v>
+        <v>0.364474</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228412</v>
+        <v>0.227967</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.299229</v>
+        <v>0.29823</v>
       </c>
       <c r="C64" t="n">
-        <v>0.289185</v>
+        <v>0.289339</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197205</v>
+        <v>0.197217</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.307675</v>
+        <v>0.305567</v>
       </c>
       <c r="C65" t="n">
-        <v>0.298402</v>
+        <v>0.297712</v>
       </c>
       <c r="D65" t="n">
-        <v>0.200611</v>
+        <v>0.200021</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31934</v>
+        <v>0.316181</v>
       </c>
       <c r="C66" t="n">
-        <v>0.30718</v>
+        <v>0.30706</v>
       </c>
       <c r="D66" t="n">
-        <v>0.204339</v>
+        <v>0.203819</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.332203</v>
+        <v>0.33008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.318041</v>
+        <v>0.317001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208508</v>
+        <v>0.208178</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346183</v>
+        <v>0.344453</v>
       </c>
       <c r="C68" t="n">
-        <v>0.328851</v>
+        <v>0.326017</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213519</v>
+        <v>0.21263</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.363941</v>
+        <v>0.358256</v>
       </c>
       <c r="C69" t="n">
-        <v>0.340211</v>
+        <v>0.337664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21953</v>
+        <v>0.217873</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.383448</v>
+        <v>0.376659</v>
       </c>
       <c r="C70" t="n">
-        <v>0.354426</v>
+        <v>0.348781</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224585</v>
+        <v>0.223234</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.402762</v>
+        <v>0.39393</v>
       </c>
       <c r="C71" t="n">
-        <v>0.369262</v>
+        <v>0.362252</v>
       </c>
       <c r="D71" t="n">
-        <v>0.23065</v>
+        <v>0.228357</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.423647</v>
+        <v>0.414496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385342</v>
+        <v>0.376333</v>
       </c>
       <c r="D72" t="n">
-        <v>0.236774</v>
+        <v>0.233339</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.447887</v>
+        <v>0.4345</v>
       </c>
       <c r="C73" t="n">
-        <v>0.403847</v>
+        <v>0.396877</v>
       </c>
       <c r="D73" t="n">
-        <v>0.243525</v>
+        <v>0.239405</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.471464</v>
+        <v>0.462379</v>
       </c>
       <c r="C74" t="n">
-        <v>0.423138</v>
+        <v>0.417758</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251082</v>
+        <v>0.247692</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5018</v>
+        <v>0.495476</v>
       </c>
       <c r="C75" t="n">
-        <v>0.445373</v>
+        <v>0.442701</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258923</v>
+        <v>0.256886</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.43138</v>
+        <v>0.415004</v>
       </c>
       <c r="C76" t="n">
-        <v>0.476229</v>
+        <v>0.470495</v>
       </c>
       <c r="D76" t="n">
-        <v>0.270471</v>
+        <v>0.268822</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.462469</v>
+        <v>0.448227</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5099399999999999</v>
+        <v>0.496645</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281173</v>
+        <v>0.279185</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.494344</v>
+        <v>0.483618</v>
       </c>
       <c r="C78" t="n">
-        <v>0.446371</v>
+        <v>0.446579</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266498</v>
+        <v>0.264837</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.528287</v>
+        <v>0.516837</v>
       </c>
       <c r="C79" t="n">
-        <v>0.471247</v>
+        <v>0.469892</v>
       </c>
       <c r="D79" t="n">
-        <v>0.278095</v>
+        <v>0.277995</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5597569999999999</v>
+        <v>0.550044</v>
       </c>
       <c r="C80" t="n">
-        <v>0.502011</v>
+        <v>0.500206</v>
       </c>
       <c r="D80" t="n">
-        <v>0.291378</v>
+        <v>0.291365</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.606486</v>
+        <v>0.596237</v>
       </c>
       <c r="C81" t="n">
-        <v>0.536704</v>
+        <v>0.531453</v>
       </c>
       <c r="D81" t="n">
-        <v>0.306725</v>
+        <v>0.305069</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.646572</v>
+        <v>0.637579</v>
       </c>
       <c r="C82" t="n">
-        <v>0.573295</v>
+        <v>0.568461</v>
       </c>
       <c r="D82" t="n">
-        <v>0.324085</v>
+        <v>0.321518</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.693475</v>
+        <v>0.688953</v>
       </c>
       <c r="C83" t="n">
-        <v>0.614642</v>
+        <v>0.608403</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335329</v>
+        <v>0.336333</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.746073</v>
+        <v>0.743954</v>
       </c>
       <c r="C84" t="n">
-        <v>0.654847</v>
+        <v>0.653948</v>
       </c>
       <c r="D84" t="n">
-        <v>0.359943</v>
+        <v>0.355692</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.795952</v>
+        <v>0.798606</v>
       </c>
       <c r="C85" t="n">
-        <v>0.695199</v>
+        <v>0.6972969999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.38151</v>
+        <v>0.381787</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.856954</v>
+        <v>0.858997</v>
       </c>
       <c r="C86" t="n">
-        <v>0.739353</v>
+        <v>0.741978</v>
       </c>
       <c r="D86" t="n">
-        <v>0.400524</v>
+        <v>0.401593</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.917494</v>
+        <v>0.9203249999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.79283</v>
+        <v>0.796159</v>
       </c>
       <c r="D87" t="n">
-        <v>0.427739</v>
+        <v>0.427962</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.98946</v>
+        <v>0.990169</v>
       </c>
       <c r="C88" t="n">
-        <v>0.841781</v>
+        <v>0.844515</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449495</v>
+        <v>0.4483</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0598</v>
+        <v>1.06007</v>
       </c>
       <c r="C89" t="n">
-        <v>0.895786</v>
+        <v>0.899323</v>
       </c>
       <c r="D89" t="n">
-        <v>0.477032</v>
+        <v>0.476178</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8373969999999999</v>
+        <v>0.8402500000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.947851</v>
+        <v>0.952551</v>
       </c>
       <c r="D90" t="n">
-        <v>0.503464</v>
+        <v>0.502485</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.871088</v>
+        <v>0.87362</v>
       </c>
       <c r="C91" t="n">
-        <v>1.00622</v>
+        <v>1.01088</v>
       </c>
       <c r="D91" t="n">
-        <v>0.522015</v>
+        <v>0.5237039999999999</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.910008</v>
+        <v>0.913655</v>
       </c>
       <c r="C92" t="n">
-        <v>0.825315</v>
+        <v>0.82911</v>
       </c>
       <c r="D92" t="n">
-        <v>0.510982</v>
+        <v>0.511418</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949561</v>
+        <v>0.952175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.857193</v>
+        <v>0.860314</v>
       </c>
       <c r="D93" t="n">
-        <v>0.523604</v>
+        <v>0.523765</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.990666</v>
+        <v>0.993277</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8909629999999999</v>
+        <v>0.893102</v>
       </c>
       <c r="D94" t="n">
-        <v>0.541729</v>
+        <v>0.541785</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03725</v>
+        <v>1.04024</v>
       </c>
       <c r="C95" t="n">
-        <v>0.921628</v>
+        <v>0.924408</v>
       </c>
       <c r="D95" t="n">
-        <v>0.563534</v>
+        <v>0.563762</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07828</v>
+        <v>1.08064</v>
       </c>
       <c r="C96" t="n">
-        <v>0.954931</v>
+        <v>0.956407</v>
       </c>
       <c r="D96" t="n">
-        <v>0.58253</v>
+        <v>0.58299</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1227</v>
+        <v>1.12398</v>
       </c>
       <c r="C97" t="n">
-        <v>0.984658</v>
+        <v>0.986865</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5981649999999999</v>
+        <v>0.599478</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17019</v>
+        <v>1.17057</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01727</v>
+        <v>1.02025</v>
       </c>
       <c r="D98" t="n">
-        <v>0.621907</v>
+        <v>0.62327</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.21309</v>
+        <v>1.2183</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05434</v>
+        <v>1.05782</v>
       </c>
       <c r="D99" t="n">
-        <v>0.643803</v>
+        <v>0.644984</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2566</v>
+        <v>1.26549</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09242</v>
+        <v>1.0985</v>
       </c>
       <c r="D100" t="n">
-        <v>0.663467</v>
+        <v>0.664303</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30814</v>
+        <v>1.31923</v>
       </c>
       <c r="C101" t="n">
-        <v>1.13512</v>
+        <v>1.14252</v>
       </c>
       <c r="D101" t="n">
-        <v>0.685115</v>
+        <v>0.6869499999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.36822</v>
+        <v>1.37978</v>
       </c>
       <c r="C102" t="n">
-        <v>1.1817</v>
+        <v>1.18872</v>
       </c>
       <c r="D102" t="n">
-        <v>0.709072</v>
+        <v>0.7118139999999999</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.43072</v>
+        <v>1.4436</v>
       </c>
       <c r="C103" t="n">
-        <v>1.22884</v>
+        <v>1.23785</v>
       </c>
       <c r="D103" t="n">
-        <v>0.733993</v>
+        <v>0.736302</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.49698</v>
+        <v>1.51169</v>
       </c>
       <c r="C104" t="n">
-        <v>1.27855</v>
+        <v>1.28788</v>
       </c>
       <c r="D104" t="n">
-        <v>0.757703</v>
+        <v>0.760134</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03202</v>
+        <v>1.04276</v>
       </c>
       <c r="C105" t="n">
-        <v>1.33256</v>
+        <v>1.34378</v>
       </c>
       <c r="D105" t="n">
-        <v>0.781571</v>
+        <v>0.782712</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06679</v>
+        <v>1.07893</v>
       </c>
       <c r="C106" t="n">
-        <v>1.38851</v>
+        <v>1.3998</v>
       </c>
       <c r="D106" t="n">
-        <v>0.809903</v>
+        <v>0.813441</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.10583</v>
+        <v>1.11508</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02012</v>
+        <v>1.02822</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7011269999999999</v>
+        <v>0.704006</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.14278</v>
+        <v>1.15425</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05049</v>
+        <v>1.05978</v>
       </c>
       <c r="D108" t="n">
-        <v>0.71799</v>
+        <v>0.721265</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.18494</v>
+        <v>1.19803</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08314</v>
+        <v>1.09178</v>
       </c>
       <c r="D109" t="n">
-        <v>0.734254</v>
+        <v>0.738225</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23062</v>
+        <v>1.2426</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11577</v>
+        <v>1.12551</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754951</v>
+        <v>0.75831</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.2779</v>
+        <v>1.29181</v>
       </c>
       <c r="C111" t="n">
-        <v>1.15352</v>
+        <v>1.16203</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7712909999999999</v>
+        <v>0.775964</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32442</v>
+        <v>1.33959</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19076</v>
+        <v>1.20259</v>
       </c>
       <c r="D112" t="n">
-        <v>0.793187</v>
+        <v>0.797739</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37967</v>
+        <v>1.39632</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22911</v>
+        <v>1.2407</v>
       </c>
       <c r="D113" t="n">
-        <v>0.810905</v>
+        <v>0.81511</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4348</v>
+        <v>1.4507</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26995</v>
+        <v>1.28154</v>
       </c>
       <c r="D114" t="n">
-        <v>0.831309</v>
+        <v>0.836239</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.48871</v>
+        <v>1.50702</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31282</v>
+        <v>1.32665</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8531570000000001</v>
+        <v>0.857908</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.55298</v>
+        <v>1.57125</v>
       </c>
       <c r="C116" t="n">
-        <v>1.35894</v>
+        <v>1.37255</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8751100000000001</v>
+        <v>0.8797739999999999</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.61841</v>
+        <v>1.63671</v>
       </c>
       <c r="C117" t="n">
-        <v>1.40806</v>
+        <v>1.42228</v>
       </c>
       <c r="D117" t="n">
-        <v>0.898708</v>
+        <v>0.903518</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.68746</v>
+        <v>1.70585</v>
       </c>
       <c r="C118" t="n">
-        <v>1.46157</v>
+        <v>1.47537</v>
       </c>
       <c r="D118" t="n">
-        <v>0.926002</v>
+        <v>0.930585</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11817</v>
+        <v>1.12672</v>
       </c>
       <c r="C119" t="n">
-        <v>1.51303</v>
+        <v>1.52753</v>
       </c>
       <c r="D119" t="n">
-        <v>0.948319</v>
+        <v>0.953798</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575785</v>
+        <v>0.574574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.439813</v>
+        <v>0.441232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249024</v>
+        <v>0.247467</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.600247</v>
+        <v>0.592967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.464212</v>
+        <v>0.457394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255357</v>
+        <v>0.254844</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.621923</v>
+        <v>0.616208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.482626</v>
+        <v>0.473185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261997</v>
+        <v>0.259494</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6497000000000001</v>
+        <v>0.645014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.504088</v>
+        <v>0.498748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.272471</v>
+        <v>0.269802</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.677491</v>
+        <v>0.670219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.532958</v>
+        <v>0.50829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.281866</v>
+        <v>0.27891</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.708078</v>
+        <v>0.694998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.558728</v>
+        <v>0.545048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286558</v>
+        <v>0.282591</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.73201</v>
+        <v>0.719158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.581434</v>
+        <v>0.557877</v>
       </c>
       <c r="D8" t="n">
-        <v>0.290982</v>
+        <v>0.286932</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.764008</v>
+        <v>0.749439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.604523</v>
+        <v>0.586554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.298777</v>
+        <v>0.29663</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.795328</v>
+        <v>0.7779430000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.633639</v>
+        <v>0.6132840000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31318</v>
+        <v>0.307545</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.82636</v>
+        <v>0.808351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.431521</v>
+        <v>0.419781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235704</v>
+        <v>0.231597</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.523911</v>
+        <v>0.510208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.450946</v>
+        <v>0.4387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245387</v>
+        <v>0.241912</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5451859999999999</v>
+        <v>0.5371050000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.467866</v>
+        <v>0.461655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25247</v>
+        <v>0.247645</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.568887</v>
+        <v>0.56015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.496173</v>
+        <v>0.483574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.260301</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.600136</v>
+        <v>0.587148</v>
       </c>
       <c r="C15" t="n">
-        <v>0.52418</v>
+        <v>0.514817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.269481</v>
+        <v>0.265702</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.622343</v>
+        <v>0.615754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.545832</v>
+        <v>0.540794</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278302</v>
+        <v>0.273843</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.653926</v>
+        <v>0.650558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.576659</v>
+        <v>0.573029</v>
       </c>
       <c r="D17" t="n">
-        <v>0.286695</v>
+        <v>0.285131</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.686384</v>
+        <v>0.686483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.605938</v>
+        <v>0.606753</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297212</v>
+        <v>0.294665</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.725616</v>
+        <v>0.726059</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6366039999999999</v>
+        <v>0.636522</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30954</v>
+        <v>0.308277</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7617699999999999</v>
+        <v>0.763062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.674917</v>
+        <v>0.676276</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317665</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.804015</v>
+        <v>0.805449</v>
       </c>
       <c r="C21" t="n">
-        <v>0.708297</v>
+        <v>0.709246</v>
       </c>
       <c r="D21" t="n">
-        <v>0.333328</v>
+        <v>0.332762</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8424469999999999</v>
+        <v>0.842554</v>
       </c>
       <c r="C22" t="n">
-        <v>0.74243</v>
+        <v>0.743985</v>
       </c>
       <c r="D22" t="n">
-        <v>0.342707</v>
+        <v>0.341817</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.893442</v>
+        <v>0.890956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.780177</v>
+        <v>0.781173</v>
       </c>
       <c r="D23" t="n">
-        <v>0.35332</v>
+        <v>0.354066</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.931161</v>
+        <v>0.930962</v>
       </c>
       <c r="C24" t="n">
-        <v>0.81428</v>
+        <v>0.817405</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364742</v>
+        <v>0.365573</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9728019999999999</v>
+        <v>0.9752999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.852975</v>
+        <v>0.85315</v>
       </c>
       <c r="D25" t="n">
-        <v>0.382075</v>
+        <v>0.381468</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02435</v>
+        <v>1.02646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.555806</v>
+        <v>0.5561739999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277831</v>
+        <v>0.278922</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.652482</v>
+        <v>0.652869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.579637</v>
+        <v>0.581398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286365</v>
+        <v>0.286969</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.680206</v>
+        <v>0.6803670000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.610595</v>
+        <v>0.612269</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297141</v>
+        <v>0.29703</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.715656</v>
+        <v>0.715176</v>
       </c>
       <c r="C29" t="n">
-        <v>0.64122</v>
+        <v>0.6432330000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.30741</v>
+        <v>0.30745</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7506350000000001</v>
+        <v>0.751493</v>
       </c>
       <c r="C30" t="n">
-        <v>0.674071</v>
+        <v>0.675875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318368</v>
+        <v>0.316835</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.78825</v>
+        <v>0.788802</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7066</v>
+        <v>0.708444</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325553</v>
+        <v>0.325184</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8273160000000001</v>
+        <v>0.826225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.739926</v>
+        <v>0.742907</v>
       </c>
       <c r="D32" t="n">
-        <v>0.338504</v>
+        <v>0.337184</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.866768</v>
+        <v>0.867223</v>
       </c>
       <c r="C33" t="n">
-        <v>0.77376</v>
+        <v>0.77659</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34522</v>
+        <v>0.346242</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.906757</v>
+        <v>0.908936</v>
       </c>
       <c r="C34" t="n">
-        <v>0.808356</v>
+        <v>0.811433</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356389</v>
+        <v>0.356504</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.949477</v>
+        <v>0.948775</v>
       </c>
       <c r="C35" t="n">
-        <v>0.843345</v>
+        <v>0.84636</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367886</v>
+        <v>0.367734</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.988051</v>
+        <v>0.988376</v>
       </c>
       <c r="C36" t="n">
-        <v>0.879537</v>
+        <v>0.883314</v>
       </c>
       <c r="D36" t="n">
-        <v>0.379879</v>
+        <v>0.380423</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03473</v>
+        <v>1.03616</v>
       </c>
       <c r="C37" t="n">
-        <v>0.916295</v>
+        <v>0.920967</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390717</v>
+        <v>0.390976</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07824</v>
+        <v>1.07916</v>
       </c>
       <c r="C38" t="n">
-        <v>0.959552</v>
+        <v>0.962076</v>
       </c>
       <c r="D38" t="n">
-        <v>0.400517</v>
+        <v>0.401364</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12753</v>
+        <v>1.12663</v>
       </c>
       <c r="C39" t="n">
-        <v>0.995078</v>
+        <v>0.996749</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418558</v>
+        <v>0.419893</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16893</v>
+        <v>1.16899</v>
       </c>
       <c r="C40" t="n">
-        <v>0.614291</v>
+        <v>0.616768</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314784</v>
+        <v>0.314543</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.705171</v>
+        <v>0.70553</v>
       </c>
       <c r="C41" t="n">
-        <v>0.638973</v>
+        <v>0.641415</v>
       </c>
       <c r="D41" t="n">
-        <v>0.325165</v>
+        <v>0.325439</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.735517</v>
+        <v>0.736456</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6660700000000001</v>
+        <v>0.668853</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333822</v>
+        <v>0.33395</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.77201</v>
+        <v>0.771833</v>
       </c>
       <c r="C43" t="n">
-        <v>0.697319</v>
+        <v>0.699113</v>
       </c>
       <c r="D43" t="n">
-        <v>0.345766</v>
+        <v>0.346247</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.806622</v>
+        <v>0.806101</v>
       </c>
       <c r="C44" t="n">
-        <v>0.727459</v>
+        <v>0.729436</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355302</v>
+        <v>0.355083</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841068</v>
+        <v>0.841544</v>
       </c>
       <c r="C45" t="n">
-        <v>0.761801</v>
+        <v>0.763745</v>
       </c>
       <c r="D45" t="n">
-        <v>0.363919</v>
+        <v>0.364395</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.883693</v>
+        <v>0.883452</v>
       </c>
       <c r="C46" t="n">
-        <v>0.795211</v>
+        <v>0.7970970000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375078</v>
+        <v>0.375018</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.924485</v>
+        <v>0.924508</v>
       </c>
       <c r="C47" t="n">
-        <v>0.830767</v>
+        <v>0.832773</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386878</v>
+        <v>0.388206</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9644239999999999</v>
+        <v>0.96527</v>
       </c>
       <c r="C48" t="n">
-        <v>0.867757</v>
+        <v>0.869559</v>
       </c>
       <c r="D48" t="n">
-        <v>0.399086</v>
+        <v>0.400509</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00622</v>
+        <v>1.00359</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9062480000000001</v>
+        <v>0.907087</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409937</v>
+        <v>0.409912</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04602</v>
+        <v>1.0465</v>
       </c>
       <c r="C50" t="n">
-        <v>0.945507</v>
+        <v>0.948835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.419695</v>
+        <v>0.420917</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09197</v>
+        <v>1.0928</v>
       </c>
       <c r="C51" t="n">
-        <v>0.983285</v>
+        <v>0.98499</v>
       </c>
       <c r="D51" t="n">
-        <v>0.434293</v>
+        <v>0.436313</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13417</v>
+        <v>1.13527</v>
       </c>
       <c r="C52" t="n">
-        <v>1.02363</v>
+        <v>1.02486</v>
       </c>
       <c r="D52" t="n">
-        <v>0.446408</v>
+        <v>0.447268</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18154</v>
+        <v>1.18034</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0628</v>
+        <v>1.0643</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461922</v>
+        <v>0.461923</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22383</v>
+        <v>1.22441</v>
       </c>
       <c r="C54" t="n">
-        <v>0.643972</v>
+        <v>0.645795</v>
       </c>
       <c r="D54" t="n">
-        <v>0.341563</v>
+        <v>0.340319</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26899</v>
+        <v>1.26793</v>
       </c>
       <c r="C55" t="n">
-        <v>0.669285</v>
+        <v>0.671513</v>
       </c>
       <c r="D55" t="n">
-        <v>0.351142</v>
+        <v>0.34982</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.75021</v>
+        <v>0.749176</v>
       </c>
       <c r="C56" t="n">
-        <v>0.69734</v>
+        <v>0.698373</v>
       </c>
       <c r="D56" t="n">
-        <v>0.361198</v>
+        <v>0.360081</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.78332</v>
+        <v>0.783663</v>
       </c>
       <c r="C57" t="n">
-        <v>0.724807</v>
+        <v>0.725828</v>
       </c>
       <c r="D57" t="n">
-        <v>0.368147</v>
+        <v>0.366724</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818935</v>
+        <v>0.817446</v>
       </c>
       <c r="C58" t="n">
-        <v>0.756969</v>
+        <v>0.758863</v>
       </c>
       <c r="D58" t="n">
-        <v>0.379766</v>
+        <v>0.380023</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.852715</v>
+        <v>0.851146</v>
       </c>
       <c r="C59" t="n">
-        <v>0.79152</v>
+        <v>0.793259</v>
       </c>
       <c r="D59" t="n">
-        <v>0.393699</v>
+        <v>0.392166</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.893824</v>
+        <v>0.892092</v>
       </c>
       <c r="C60" t="n">
-        <v>0.826715</v>
+        <v>0.827786</v>
       </c>
       <c r="D60" t="n">
-        <v>0.40307</v>
+        <v>0.402751</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.933791</v>
+        <v>0.931125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.861846</v>
+        <v>0.864245</v>
       </c>
       <c r="D61" t="n">
-        <v>0.414745</v>
+        <v>0.413267</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.972922</v>
+        <v>0.9722730000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.900591</v>
+        <v>0.901407</v>
       </c>
       <c r="D62" t="n">
-        <v>0.423682</v>
+        <v>0.422152</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01882</v>
+        <v>1.01873</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9386370000000001</v>
+        <v>0.940213</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434877</v>
+        <v>0.435416</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06579</v>
+        <v>1.06487</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9801530000000001</v>
+        <v>0.981513</v>
       </c>
       <c r="D64" t="n">
-        <v>0.448558</v>
+        <v>0.446781</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10866</v>
+        <v>1.10741</v>
       </c>
       <c r="C65" t="n">
-        <v>1.01872</v>
+        <v>1.02044</v>
       </c>
       <c r="D65" t="n">
-        <v>0.459466</v>
+        <v>0.459906</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15438</v>
+        <v>1.15677</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0605</v>
+        <v>1.06401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.470567</v>
+        <v>0.471213</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20199</v>
+        <v>1.20427</v>
       </c>
       <c r="C67" t="n">
-        <v>1.10123</v>
+        <v>1.10794</v>
       </c>
       <c r="D67" t="n">
-        <v>0.487167</v>
+        <v>0.487255</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25754</v>
+        <v>1.25466</v>
       </c>
       <c r="C68" t="n">
-        <v>0.672063</v>
+        <v>0.669125</v>
       </c>
       <c r="D68" t="n">
-        <v>0.35331</v>
+        <v>0.351705</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.33325</v>
+        <v>1.32471</v>
       </c>
       <c r="C69" t="n">
-        <v>0.716031</v>
+        <v>0.715063</v>
       </c>
       <c r="D69" t="n">
-        <v>0.364457</v>
+        <v>0.362753</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8116</v>
+        <v>0.8028729999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7603839999999999</v>
+        <v>0.759151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.382226</v>
+        <v>0.380596</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.865121</v>
+        <v>0.855835</v>
       </c>
       <c r="C71" t="n">
-        <v>0.808844</v>
+        <v>0.802419</v>
       </c>
       <c r="D71" t="n">
-        <v>0.392971</v>
+        <v>0.391073</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.922566</v>
+        <v>0.91671</v>
       </c>
       <c r="C72" t="n">
-        <v>0.858224</v>
+        <v>0.856357</v>
       </c>
       <c r="D72" t="n">
-        <v>0.407041</v>
+        <v>0.405536</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.986206</v>
+        <v>0.976612</v>
       </c>
       <c r="C73" t="n">
-        <v>0.917059</v>
+        <v>0.9096610000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.42431</v>
+        <v>0.422686</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.06582</v>
+        <v>1.04616</v>
       </c>
       <c r="C74" t="n">
-        <v>0.987202</v>
+        <v>0.9737710000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.44518</v>
+        <v>0.44315</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.14254</v>
+        <v>1.11903</v>
       </c>
       <c r="C75" t="n">
-        <v>1.0579</v>
+        <v>1.04145</v>
       </c>
       <c r="D75" t="n">
-        <v>0.469169</v>
+        <v>0.460391</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.22498</v>
+        <v>1.19547</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13173</v>
+        <v>1.11263</v>
       </c>
       <c r="D76" t="n">
-        <v>0.486425</v>
+        <v>0.480717</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.32134</v>
+        <v>1.29202</v>
       </c>
       <c r="C77" t="n">
-        <v>1.22221</v>
+        <v>1.19618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.503444</v>
+        <v>0.495307</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.42914</v>
+        <v>1.41568</v>
       </c>
       <c r="C78" t="n">
-        <v>1.32621</v>
+        <v>1.31275</v>
       </c>
       <c r="D78" t="n">
-        <v>0.540225</v>
+        <v>0.529421</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.56053</v>
+        <v>1.54629</v>
       </c>
       <c r="C79" t="n">
-        <v>1.43477</v>
+        <v>1.42737</v>
       </c>
       <c r="D79" t="n">
-        <v>0.561537</v>
+        <v>0.554387</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.71754</v>
+        <v>1.69204</v>
       </c>
       <c r="C80" t="n">
-        <v>1.58237</v>
+        <v>1.56075</v>
       </c>
       <c r="D80" t="n">
-        <v>0.595071</v>
+        <v>0.589951</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.90441</v>
+        <v>1.83573</v>
       </c>
       <c r="C81" t="n">
-        <v>1.75007</v>
+        <v>1.6979</v>
       </c>
       <c r="D81" t="n">
-        <v>0.631516</v>
+        <v>0.617348</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.08184</v>
+        <v>2.02104</v>
       </c>
       <c r="C82" t="n">
-        <v>1.90877</v>
+        <v>1.8566</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6635760000000001</v>
+        <v>0.64571</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.29095</v>
+        <v>2.23056</v>
       </c>
       <c r="C83" t="n">
-        <v>1.21025</v>
+        <v>1.19286</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5017779999999999</v>
+        <v>0.491303</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.53804</v>
+        <v>2.47688</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33872</v>
+        <v>1.32991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5392709999999999</v>
+        <v>0.53005</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.63632</v>
+        <v>1.61379</v>
       </c>
       <c r="C85" t="n">
-        <v>1.48557</v>
+        <v>1.47041</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574124</v>
+        <v>0.56728</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.80077</v>
+        <v>1.78622</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65151</v>
+        <v>1.63817</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6285849999999999</v>
+        <v>0.622016</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.98558</v>
+        <v>1.9761</v>
       </c>
       <c r="C87" t="n">
-        <v>1.81985</v>
+        <v>1.81176</v>
       </c>
       <c r="D87" t="n">
-        <v>0.691927</v>
+        <v>0.685846</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.19302</v>
+        <v>2.18865</v>
       </c>
       <c r="C88" t="n">
-        <v>2.01022</v>
+        <v>2.00855</v>
       </c>
       <c r="D88" t="n">
-        <v>0.744204</v>
+        <v>0.739632</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41773</v>
+        <v>2.41579</v>
       </c>
       <c r="C89" t="n">
-        <v>2.22037</v>
+        <v>2.21822</v>
       </c>
       <c r="D89" t="n">
-        <v>0.79769</v>
+        <v>0.790913</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.65599</v>
+        <v>2.65851</v>
       </c>
       <c r="C90" t="n">
-        <v>2.43908</v>
+        <v>2.43986</v>
       </c>
       <c r="D90" t="n">
-        <v>0.848738</v>
+        <v>0.841664</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.90995</v>
+        <v>2.9174</v>
       </c>
       <c r="C91" t="n">
-        <v>2.66736</v>
+        <v>2.67644</v>
       </c>
       <c r="D91" t="n">
-        <v>0.936258</v>
+        <v>0.935334</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.18145</v>
+        <v>3.19444</v>
       </c>
       <c r="C92" t="n">
-        <v>2.92271</v>
+        <v>2.93014</v>
       </c>
       <c r="D92" t="n">
-        <v>0.974848</v>
+        <v>0.976621</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.47855</v>
+        <v>3.48985</v>
       </c>
       <c r="C93" t="n">
-        <v>3.18501</v>
+        <v>3.19941</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05348</v>
+        <v>1.05482</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.77857</v>
+        <v>3.79517</v>
       </c>
       <c r="C94" t="n">
-        <v>3.46223</v>
+        <v>3.4747</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14575</v>
+        <v>1.14914</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.1054</v>
+        <v>4.10793</v>
       </c>
       <c r="C95" t="n">
-        <v>3.73735</v>
+        <v>3.74007</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22369</v>
+        <v>1.22606</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.4227</v>
+        <v>4.42553</v>
       </c>
       <c r="C96" t="n">
-        <v>3.98684</v>
+        <v>3.98521</v>
       </c>
       <c r="D96" t="n">
-        <v>1.30461</v>
+        <v>1.30795</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.72478</v>
+        <v>4.72039</v>
       </c>
       <c r="C97" t="n">
-        <v>2.3045</v>
+        <v>2.3192</v>
       </c>
       <c r="D97" t="n">
-        <v>0.943746</v>
+        <v>0.9473009999999999</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.01738</v>
+        <v>5.01182</v>
       </c>
       <c r="C98" t="n">
-        <v>2.4577</v>
+        <v>2.47673</v>
       </c>
       <c r="D98" t="n">
-        <v>0.990824</v>
+        <v>0.994413</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.8537</v>
+        <v>2.87168</v>
       </c>
       <c r="C99" t="n">
-        <v>2.62304</v>
+        <v>2.64489</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05759</v>
+        <v>1.06152</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.05148</v>
+        <v>3.06352</v>
       </c>
       <c r="C100" t="n">
-        <v>2.80785</v>
+        <v>2.8319</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11085</v>
+        <v>1.11401</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.24443</v>
+        <v>3.26539</v>
       </c>
       <c r="C101" t="n">
-        <v>3.00906</v>
+        <v>3.03355</v>
       </c>
       <c r="D101" t="n">
-        <v>1.1676</v>
+        <v>1.17206</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46497</v>
+        <v>3.49664</v>
       </c>
       <c r="C102" t="n">
-        <v>3.21446</v>
+        <v>3.24344</v>
       </c>
       <c r="D102" t="n">
-        <v>1.22665</v>
+        <v>1.23168</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.69452</v>
+        <v>3.72902</v>
       </c>
       <c r="C103" t="n">
-        <v>3.43582</v>
+        <v>3.46476</v>
       </c>
       <c r="D103" t="n">
-        <v>1.27665</v>
+        <v>1.28407</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.94086</v>
+        <v>3.97737</v>
       </c>
       <c r="C104" t="n">
-        <v>3.67395</v>
+        <v>3.70379</v>
       </c>
       <c r="D104" t="n">
-        <v>1.3432</v>
+        <v>1.34933</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.21534</v>
+        <v>4.25801</v>
       </c>
       <c r="C105" t="n">
-        <v>3.92593</v>
+        <v>3.96176</v>
       </c>
       <c r="D105" t="n">
-        <v>1.44007</v>
+        <v>1.4497</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.49147</v>
+        <v>4.55226</v>
       </c>
       <c r="C106" t="n">
-        <v>4.1912</v>
+        <v>4.2331</v>
       </c>
       <c r="D106" t="n">
-        <v>1.49914</v>
+        <v>1.50443</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.79582</v>
+        <v>4.8502</v>
       </c>
       <c r="C107" t="n">
-        <v>4.46635</v>
+        <v>4.50974</v>
       </c>
       <c r="D107" t="n">
-        <v>1.57151</v>
+        <v>1.58206</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.09634</v>
+        <v>5.15611</v>
       </c>
       <c r="C108" t="n">
-        <v>4.75696</v>
+        <v>4.80278</v>
       </c>
       <c r="D108" t="n">
-        <v>1.65825</v>
+        <v>1.66686</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.42998</v>
+        <v>5.48718</v>
       </c>
       <c r="C109" t="n">
-        <v>5.07486</v>
+        <v>5.11221</v>
       </c>
       <c r="D109" t="n">
-        <v>1.7445</v>
+        <v>1.75248</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.77619</v>
+        <v>5.84213</v>
       </c>
       <c r="C110" t="n">
-        <v>5.37446</v>
+        <v>5.42852</v>
       </c>
       <c r="D110" t="n">
-        <v>1.80655</v>
+        <v>1.81749</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.10771</v>
+        <v>6.18558</v>
       </c>
       <c r="C111" t="n">
-        <v>2.95669</v>
+        <v>2.98075</v>
       </c>
       <c r="D111" t="n">
-        <v>1.33173</v>
+        <v>1.3346</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.48696</v>
+        <v>6.53483</v>
       </c>
       <c r="C112" t="n">
-        <v>3.12203</v>
+        <v>3.15739</v>
       </c>
       <c r="D112" t="n">
-        <v>1.36191</v>
+        <v>1.37223</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.85343</v>
+        <v>6.90804</v>
       </c>
       <c r="C113" t="n">
-        <v>3.3062</v>
+        <v>3.34287</v>
       </c>
       <c r="D113" t="n">
-        <v>1.43363</v>
+        <v>1.44188</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.73421</v>
+        <v>3.76786</v>
       </c>
       <c r="C114" t="n">
-        <v>3.50662</v>
+        <v>3.54464</v>
       </c>
       <c r="D114" t="n">
-        <v>1.48329</v>
+        <v>1.49177</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.95294</v>
+        <v>3.99487</v>
       </c>
       <c r="C115" t="n">
-        <v>3.71313</v>
+        <v>3.75371</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57358</v>
+        <v>1.58394</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.18573</v>
+        <v>4.22871</v>
       </c>
       <c r="C116" t="n">
-        <v>3.94042</v>
+        <v>3.9814</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62669</v>
+        <v>1.63728</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.4329</v>
+        <v>4.47204</v>
       </c>
       <c r="C117" t="n">
-        <v>4.18919</v>
+        <v>4.22457</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66959</v>
+        <v>1.68074</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.68466</v>
+        <v>4.73133</v>
       </c>
       <c r="C118" t="n">
-        <v>4.44148</v>
+        <v>4.48136</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76443</v>
+        <v>1.76649</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.95541</v>
+        <v>5.01073</v>
       </c>
       <c r="C119" t="n">
-        <v>4.70427</v>
+        <v>4.75391</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82565</v>
+        <v>1.83707</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.341673</v>
+        <v>0.336211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289415</v>
+        <v>0.270943</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251206</v>
+        <v>0.24749</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260197</v>
+        <v>0.256065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292022</v>
+        <v>0.273605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254601</v>
+        <v>0.249149</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267862</v>
+        <v>0.264343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.298147</v>
+        <v>0.278304</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260092</v>
+        <v>0.255162</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.275315</v>
+        <v>0.271847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305934</v>
+        <v>0.284658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.265593</v>
+        <v>0.261479</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.283461</v>
+        <v>0.281217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.311722</v>
+        <v>0.289742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.270772</v>
+        <v>0.265749</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291961</v>
+        <v>0.291244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.258456</v>
+        <v>0.24486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.224812</v>
+        <v>0.225446</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.300512</v>
+        <v>0.297313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.264612</v>
+        <v>0.251253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231894</v>
+        <v>0.231502</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30838</v>
+        <v>0.306162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.270004</v>
+        <v>0.255798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237933</v>
+        <v>0.237676</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31651</v>
+        <v>0.314899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276753</v>
+        <v>0.262917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245169</v>
+        <v>0.244656</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.322313</v>
+        <v>0.322848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.283101</v>
+        <v>0.268823</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251687</v>
+        <v>0.251981</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331621</v>
+        <v>0.333327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.292906</v>
+        <v>0.27828</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260459</v>
+        <v>0.26152</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.339901</v>
+        <v>0.342207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.300797</v>
+        <v>0.285899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266709</v>
+        <v>0.267671</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.349798</v>
+        <v>0.351385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.307709</v>
+        <v>0.292493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.272182</v>
+        <v>0.273204</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.359388</v>
+        <v>0.362041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.314057</v>
+        <v>0.299037</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278161</v>
+        <v>0.279268</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.367475</v>
+        <v>0.370089</v>
       </c>
       <c r="C16" t="n">
-        <v>0.320485</v>
+        <v>0.304949</v>
       </c>
       <c r="D16" t="n">
-        <v>0.284354</v>
+        <v>0.284959</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.378885</v>
+        <v>0.380894</v>
       </c>
       <c r="C17" t="n">
-        <v>0.326467</v>
+        <v>0.310639</v>
       </c>
       <c r="D17" t="n">
-        <v>0.292884</v>
+        <v>0.294171</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288858</v>
+        <v>0.28842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.331653</v>
+        <v>0.31604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295493</v>
+        <v>0.296687</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.296103</v>
+        <v>0.295892</v>
       </c>
       <c r="C19" t="n">
-        <v>0.337773</v>
+        <v>0.321347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302579</v>
+        <v>0.303231</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.30609</v>
+        <v>0.305681</v>
       </c>
       <c r="C20" t="n">
-        <v>0.345951</v>
+        <v>0.328814</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310933</v>
+        <v>0.311584</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315549</v>
+        <v>0.315217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280144</v>
+        <v>0.266052</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248459</v>
+        <v>0.247358</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324379</v>
+        <v>0.323836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.287523</v>
+        <v>0.272733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.255602</v>
+        <v>0.253938</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332616</v>
+        <v>0.332643</v>
       </c>
       <c r="C23" t="n">
-        <v>0.293824</v>
+        <v>0.279887</v>
       </c>
       <c r="D23" t="n">
-        <v>0.262765</v>
+        <v>0.261935</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340089</v>
+        <v>0.339987</v>
       </c>
       <c r="C24" t="n">
-        <v>0.300323</v>
+        <v>0.285559</v>
       </c>
       <c r="D24" t="n">
-        <v>0.268311</v>
+        <v>0.267384</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348245</v>
+        <v>0.348219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.307563</v>
+        <v>0.292059</v>
       </c>
       <c r="D25" t="n">
-        <v>0.275145</v>
+        <v>0.274355</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357675</v>
+        <v>0.357871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.315619</v>
+        <v>0.299531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282442</v>
+        <v>0.281343</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365622</v>
+        <v>0.365604</v>
       </c>
       <c r="C27" t="n">
-        <v>0.321336</v>
+        <v>0.305595</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288609</v>
+        <v>0.287754</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375081</v>
+        <v>0.375345</v>
       </c>
       <c r="C28" t="n">
-        <v>0.327951</v>
+        <v>0.312183</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294919</v>
+        <v>0.293977</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.38356</v>
+        <v>0.384001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.33526</v>
+        <v>0.319498</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302084</v>
+        <v>0.301113</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391638</v>
+        <v>0.391916</v>
       </c>
       <c r="C30" t="n">
-        <v>0.341609</v>
+        <v>0.3259</v>
       </c>
       <c r="D30" t="n">
-        <v>0.308513</v>
+        <v>0.307538</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.40079</v>
+        <v>0.400979</v>
       </c>
       <c r="C31" t="n">
-        <v>0.347946</v>
+        <v>0.331617</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313832</v>
+        <v>0.313018</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.29752</v>
+        <v>0.297663</v>
       </c>
       <c r="C32" t="n">
-        <v>0.354371</v>
+        <v>0.337703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320706</v>
+        <v>0.319676</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305478</v>
+        <v>0.306264</v>
       </c>
       <c r="C33" t="n">
-        <v>0.361278</v>
+        <v>0.344212</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326828</v>
+        <v>0.325929</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313386</v>
+        <v>0.313716</v>
       </c>
       <c r="C34" t="n">
-        <v>0.367637</v>
+        <v>0.350024</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333161</v>
+        <v>0.332158</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322018</v>
+        <v>0.322564</v>
       </c>
       <c r="C35" t="n">
-        <v>0.29199</v>
+        <v>0.277652</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258397</v>
+        <v>0.258602</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.331241</v>
+        <v>0.331249</v>
       </c>
       <c r="C36" t="n">
-        <v>0.298521</v>
+        <v>0.28427</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264313</v>
+        <v>0.264599</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339462</v>
+        <v>0.339525</v>
       </c>
       <c r="C37" t="n">
-        <v>0.305476</v>
+        <v>0.290856</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270629</v>
+        <v>0.270773</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347332</v>
+        <v>0.347556</v>
       </c>
       <c r="C38" t="n">
-        <v>0.312415</v>
+        <v>0.297695</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277122</v>
+        <v>0.277088</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355761</v>
+        <v>0.355946</v>
       </c>
       <c r="C39" t="n">
-        <v>0.319746</v>
+        <v>0.304243</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284245</v>
+        <v>0.284517</v>
       </c>
     </row>
     <row r="40">
@@ -8212,10 +8212,10 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364808</v>
+        <v>0.365446</v>
       </c>
       <c r="C40" t="n">
-        <v>0.326771</v>
+        <v>0.31123</v>
       </c>
       <c r="D40" t="n">
         <v>0.290698</v>
@@ -8229,10 +8229,10 @@
         <v>0.372753</v>
       </c>
       <c r="C41" t="n">
-        <v>0.333664</v>
+        <v>0.317772</v>
       </c>
       <c r="D41" t="n">
-        <v>0.297525</v>
+        <v>0.297908</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381036</v>
+        <v>0.381206</v>
       </c>
       <c r="C42" t="n">
-        <v>0.34024</v>
+        <v>0.324243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303513</v>
+        <v>0.303554</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.391016</v>
+        <v>0.391339</v>
       </c>
       <c r="C43" t="n">
-        <v>0.347137</v>
+        <v>0.331376</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310877</v>
+        <v>0.310761</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.39961</v>
+        <v>0.39981</v>
       </c>
       <c r="C44" t="n">
-        <v>0.353359</v>
+        <v>0.337715</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317588</v>
+        <v>0.317682</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.40745</v>
+        <v>0.407887</v>
       </c>
       <c r="C45" t="n">
-        <v>0.359824</v>
+        <v>0.343968</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323325</v>
+        <v>0.323439</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418442</v>
+        <v>0.418944</v>
       </c>
       <c r="C46" t="n">
-        <v>0.366051</v>
+        <v>0.349658</v>
       </c>
       <c r="D46" t="n">
-        <v>0.328967</v>
+        <v>0.328953</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305877</v>
+        <v>0.306192</v>
       </c>
       <c r="C47" t="n">
-        <v>0.372254</v>
+        <v>0.35568</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335056</v>
+        <v>0.335093</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.312954</v>
+        <v>0.313371</v>
       </c>
       <c r="C48" t="n">
-        <v>0.379151</v>
+        <v>0.361979</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343064</v>
+        <v>0.342884</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321917</v>
+        <v>0.322553</v>
       </c>
       <c r="C49" t="n">
-        <v>0.38571</v>
+        <v>0.368738</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352377</v>
+        <v>0.352303</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330377</v>
+        <v>0.330984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.303027</v>
+        <v>0.287044</v>
       </c>
       <c r="D50" t="n">
-        <v>0.263157</v>
+        <v>0.263373</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338254</v>
+        <v>0.33871</v>
       </c>
       <c r="C51" t="n">
-        <v>0.309847</v>
+        <v>0.293833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270739</v>
+        <v>0.270922</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347255</v>
+        <v>0.347664</v>
       </c>
       <c r="C52" t="n">
-        <v>0.31729</v>
+        <v>0.301292</v>
       </c>
       <c r="D52" t="n">
-        <v>0.278157</v>
+        <v>0.278322</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355425</v>
+        <v>0.355855</v>
       </c>
       <c r="C53" t="n">
-        <v>0.324617</v>
+        <v>0.308503</v>
       </c>
       <c r="D53" t="n">
-        <v>0.285367</v>
+        <v>0.285533</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.36397</v>
+        <v>0.364896</v>
       </c>
       <c r="C54" t="n">
-        <v>0.33167</v>
+        <v>0.315589</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292319</v>
+        <v>0.291754</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372801</v>
+        <v>0.373238</v>
       </c>
       <c r="C55" t="n">
-        <v>0.338963</v>
+        <v>0.322562</v>
       </c>
       <c r="D55" t="n">
-        <v>0.29958</v>
+        <v>0.299122</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381456</v>
+        <v>0.381632</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345859</v>
+        <v>0.329445</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305292</v>
+        <v>0.305444</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390302</v>
+        <v>0.391023</v>
       </c>
       <c r="C57" t="n">
-        <v>0.352414</v>
+        <v>0.336559</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312284</v>
+        <v>0.312885</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399305</v>
+        <v>0.400873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.358266</v>
+        <v>0.342705</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318735</v>
+        <v>0.319377</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.408088</v>
+        <v>0.409471</v>
       </c>
       <c r="C59" t="n">
-        <v>0.364677</v>
+        <v>0.350388</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325487</v>
+        <v>0.326795</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418116</v>
+        <v>0.421576</v>
       </c>
       <c r="C60" t="n">
-        <v>0.371297</v>
+        <v>0.357699</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332439</v>
+        <v>0.334906</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.310288</v>
+        <v>0.311215</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378121</v>
+        <v>0.364019</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339309</v>
+        <v>0.34185</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.320707</v>
+        <v>0.322177</v>
       </c>
       <c r="C62" t="n">
-        <v>0.384482</v>
+        <v>0.371379</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345878</v>
+        <v>0.349237</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.331287</v>
+        <v>0.333509</v>
       </c>
       <c r="C63" t="n">
-        <v>0.391671</v>
+        <v>0.379064</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353977</v>
+        <v>0.357851</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.341626</v>
+        <v>0.345687</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3128</v>
+        <v>0.298878</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27574</v>
+        <v>0.276326</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.347703</v>
+        <v>0.357032</v>
       </c>
       <c r="C65" t="n">
-        <v>0.321558</v>
+        <v>0.307358</v>
       </c>
       <c r="D65" t="n">
-        <v>0.284257</v>
+        <v>0.285193</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3601</v>
+        <v>0.369351</v>
       </c>
       <c r="C66" t="n">
-        <v>0.331261</v>
+        <v>0.320201</v>
       </c>
       <c r="D66" t="n">
-        <v>0.292794</v>
+        <v>0.2954</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.371833</v>
+        <v>0.383397</v>
       </c>
       <c r="C67" t="n">
-        <v>0.340197</v>
+        <v>0.329389</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301849</v>
+        <v>0.306114</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.384447</v>
+        <v>0.396907</v>
       </c>
       <c r="C68" t="n">
-        <v>0.349531</v>
+        <v>0.337711</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312475</v>
+        <v>0.317382</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.398794</v>
+        <v>0.411031</v>
       </c>
       <c r="C69" t="n">
-        <v>0.360134</v>
+        <v>0.346841</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322744</v>
+        <v>0.32893</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.413119</v>
+        <v>0.425489</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371201</v>
+        <v>0.362462</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33502</v>
+        <v>0.340742</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.431121</v>
+        <v>0.442595</v>
       </c>
       <c r="C71" t="n">
-        <v>0.38257</v>
+        <v>0.375856</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346317</v>
+        <v>0.353411</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.448965</v>
+        <v>0.462187</v>
       </c>
       <c r="C72" t="n">
-        <v>0.396551</v>
+        <v>0.389155</v>
       </c>
       <c r="D72" t="n">
-        <v>0.360423</v>
+        <v>0.365978</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.471643</v>
+        <v>0.48333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.410874</v>
+        <v>0.40089</v>
       </c>
       <c r="D73" t="n">
-        <v>0.375854</v>
+        <v>0.379708</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.49393</v>
+        <v>0.500108</v>
       </c>
       <c r="C74" t="n">
-        <v>0.426007</v>
+        <v>0.417719</v>
       </c>
       <c r="D74" t="n">
-        <v>0.390156</v>
+        <v>0.394993</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.515247</v>
+        <v>0.5252329999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.446162</v>
+        <v>0.435301</v>
       </c>
       <c r="D75" t="n">
-        <v>0.409843</v>
+        <v>0.412466</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.476579</v>
+        <v>0.475366</v>
       </c>
       <c r="C76" t="n">
-        <v>0.469198</v>
+        <v>0.4571</v>
       </c>
       <c r="D76" t="n">
-        <v>0.435112</v>
+        <v>0.436051</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.505961</v>
+        <v>0.505654</v>
       </c>
       <c r="C77" t="n">
-        <v>0.493491</v>
+        <v>0.481751</v>
       </c>
       <c r="D77" t="n">
-        <v>0.457299</v>
+        <v>0.458722</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5360740000000001</v>
+        <v>0.532765</v>
       </c>
       <c r="C78" t="n">
-        <v>0.428863</v>
+        <v>0.414369</v>
       </c>
       <c r="D78" t="n">
-        <v>0.413742</v>
+        <v>0.409528</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.561789</v>
+        <v>0.5668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.453361</v>
+        <v>0.437626</v>
       </c>
       <c r="D79" t="n">
-        <v>0.440717</v>
+        <v>0.435461</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.594904</v>
+        <v>0.596876</v>
       </c>
       <c r="C80" t="n">
-        <v>0.481323</v>
+        <v>0.478645</v>
       </c>
       <c r="D80" t="n">
-        <v>0.465366</v>
+        <v>0.462069</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.63195</v>
+        <v>0.631254</v>
       </c>
       <c r="C81" t="n">
-        <v>0.504518</v>
+        <v>0.498225</v>
       </c>
       <c r="D81" t="n">
-        <v>0.488537</v>
+        <v>0.484183</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6697419999999999</v>
+        <v>0.666797</v>
       </c>
       <c r="C82" t="n">
-        <v>0.531065</v>
+        <v>0.520387</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5155960000000001</v>
+        <v>0.511022</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.705851</v>
+        <v>0.703854</v>
       </c>
       <c r="C83" t="n">
-        <v>0.560677</v>
+        <v>0.55009</v>
       </c>
       <c r="D83" t="n">
-        <v>0.541691</v>
+        <v>0.53846</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.736746</v>
+        <v>0.735084</v>
       </c>
       <c r="C84" t="n">
-        <v>0.595785</v>
+        <v>0.576948</v>
       </c>
       <c r="D84" t="n">
-        <v>0.567605</v>
+        <v>0.565572</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.774452</v>
+        <v>0.774204</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6299940000000001</v>
+        <v>0.609413</v>
       </c>
       <c r="D85" t="n">
-        <v>0.596681</v>
+        <v>0.594403</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.815561</v>
+        <v>0.815083</v>
       </c>
       <c r="C86" t="n">
-        <v>0.664899</v>
+        <v>0.643439</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6256429999999999</v>
+        <v>0.6234189999999999</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.856034</v>
+        <v>0.856202</v>
       </c>
       <c r="C87" t="n">
-        <v>0.700776</v>
+        <v>0.677405</v>
       </c>
       <c r="D87" t="n">
-        <v>0.654286</v>
+        <v>0.65235</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.898769</v>
+        <v>0.898815</v>
       </c>
       <c r="C88" t="n">
-        <v>0.73786</v>
+        <v>0.713264</v>
       </c>
       <c r="D88" t="n">
-        <v>0.690779</v>
+        <v>0.688719</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.944568</v>
+        <v>0.945283</v>
       </c>
       <c r="C89" t="n">
-        <v>0.776108</v>
+        <v>0.75039</v>
       </c>
       <c r="D89" t="n">
-        <v>0.723519</v>
+        <v>0.721004</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.82929</v>
+        <v>0.829739</v>
       </c>
       <c r="C90" t="n">
-        <v>0.817275</v>
+        <v>0.78953</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7478630000000001</v>
+        <v>0.74535</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.857579</v>
+        <v>0.858188</v>
       </c>
       <c r="C91" t="n">
-        <v>0.85959</v>
+        <v>0.83083</v>
       </c>
       <c r="D91" t="n">
-        <v>0.781091</v>
+        <v>0.77829</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.88627</v>
+        <v>0.886957</v>
       </c>
       <c r="C92" t="n">
-        <v>0.69907</v>
+        <v>0.68415</v>
       </c>
       <c r="D92" t="n">
-        <v>0.677668</v>
+        <v>0.675422</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.915635</v>
+        <v>0.915964</v>
       </c>
       <c r="C93" t="n">
-        <v>0.724873</v>
+        <v>0.709469</v>
       </c>
       <c r="D93" t="n">
-        <v>0.703875</v>
+        <v>0.701435</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.945708</v>
+        <v>0.945651</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752371</v>
+        <v>0.735059</v>
       </c>
       <c r="D94" t="n">
-        <v>0.720638</v>
+        <v>0.718249</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.976631</v>
+        <v>0.976498</v>
       </c>
       <c r="C95" t="n">
-        <v>0.78098</v>
+        <v>0.76207</v>
       </c>
       <c r="D95" t="n">
-        <v>0.756664</v>
+        <v>0.753669</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00372</v>
+        <v>1.00475</v>
       </c>
       <c r="C96" t="n">
-        <v>0.812683</v>
+        <v>0.79158</v>
       </c>
       <c r="D96" t="n">
-        <v>0.782732</v>
+        <v>0.780027</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03395</v>
+        <v>1.03472</v>
       </c>
       <c r="C97" t="n">
-        <v>0.844515</v>
+        <v>0.822485</v>
       </c>
       <c r="D97" t="n">
-        <v>0.811003</v>
+        <v>0.810083</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07119</v>
+        <v>1.07231</v>
       </c>
       <c r="C98" t="n">
-        <v>0.877602</v>
+        <v>0.853123</v>
       </c>
       <c r="D98" t="n">
-        <v>0.839024</v>
+        <v>0.836937</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10811</v>
+        <v>1.10849</v>
       </c>
       <c r="C99" t="n">
-        <v>0.912351</v>
+        <v>0.885813</v>
       </c>
       <c r="D99" t="n">
-        <v>0.866781</v>
+        <v>0.864325</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14216</v>
+        <v>1.1424</v>
       </c>
       <c r="C100" t="n">
-        <v>0.947973</v>
+        <v>0.920169</v>
       </c>
       <c r="D100" t="n">
-        <v>0.894165</v>
+        <v>0.8928469999999999</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16857</v>
+        <v>1.16867</v>
       </c>
       <c r="C101" t="n">
-        <v>0.985194</v>
+        <v>0.956578</v>
       </c>
       <c r="D101" t="n">
-        <v>0.924045</v>
+        <v>0.922337</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20478</v>
+        <v>1.20473</v>
       </c>
       <c r="C102" t="n">
-        <v>1.02479</v>
+        <v>0.99472</v>
       </c>
       <c r="D102" t="n">
-        <v>0.955827</v>
+        <v>0.9586</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24351</v>
+        <v>1.24428</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06639</v>
+        <v>1.03494</v>
       </c>
       <c r="D103" t="n">
-        <v>0.987055</v>
+        <v>0.989888</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.28389</v>
+        <v>1.28477</v>
       </c>
       <c r="C104" t="n">
-        <v>1.10814</v>
+        <v>1.07606</v>
       </c>
       <c r="D104" t="n">
-        <v>1.02073</v>
+        <v>1.02257</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02755</v>
+        <v>1.027</v>
       </c>
       <c r="C105" t="n">
-        <v>1.15168</v>
+        <v>1.12189</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05532</v>
+        <v>1.05877</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0521</v>
+        <v>1.05361</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19676</v>
+        <v>1.16567</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09004</v>
+        <v>1.09363</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07942</v>
+        <v>1.07995</v>
       </c>
       <c r="C107" t="n">
-        <v>0.888856</v>
+        <v>0.872976</v>
       </c>
       <c r="D107" t="n">
-        <v>0.898429</v>
+        <v>0.898129</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.10144</v>
+        <v>1.10199</v>
       </c>
       <c r="C108" t="n">
-        <v>0.915949</v>
+        <v>0.898099</v>
       </c>
       <c r="D108" t="n">
-        <v>0.922399</v>
+        <v>0.921512</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12936</v>
+        <v>1.1316</v>
       </c>
       <c r="C109" t="n">
-        <v>0.945053</v>
+        <v>0.926471</v>
       </c>
       <c r="D109" t="n">
-        <v>0.949438</v>
+        <v>0.949433</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15767</v>
+        <v>1.15933</v>
       </c>
       <c r="C110" t="n">
-        <v>0.97579</v>
+        <v>0.955761</v>
       </c>
       <c r="D110" t="n">
-        <v>0.974786</v>
+        <v>0.975903</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1852</v>
+        <v>1.18728</v>
       </c>
       <c r="C111" t="n">
-        <v>1.00974</v>
+        <v>0.985827</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00208</v>
+        <v>1.00312</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22272</v>
+        <v>1.22504</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04273</v>
+        <v>1.01909</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0308</v>
+        <v>1.03262</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.25505</v>
+        <v>1.25753</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07647</v>
+        <v>1.05326</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05876</v>
+        <v>1.0603</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28613</v>
+        <v>1.28831</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11206</v>
+        <v>1.08868</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09531</v>
+        <v>1.09602</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32155</v>
+        <v>1.32381</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14931</v>
+        <v>1.12622</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12769</v>
+        <v>1.12859</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35899</v>
+        <v>1.36163</v>
       </c>
       <c r="C116" t="n">
-        <v>1.18482</v>
+        <v>1.16499</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14961</v>
+        <v>1.15192</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39714</v>
+        <v>1.39877</v>
       </c>
       <c r="C117" t="n">
-        <v>1.22537</v>
+        <v>1.20312</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18096</v>
+        <v>1.1839</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.43853</v>
+        <v>1.44097</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26284</v>
+        <v>1.24389</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21836</v>
+        <v>1.2207</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12415</v>
+        <v>1.12244</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30558</v>
+        <v>1.28744</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24959</v>
+        <v>1.2518</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.269104</v>
+        <v>0.26891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214968</v>
+        <v>0.210829</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140392</v>
+        <v>0.140106</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193542</v>
+        <v>0.194827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21839</v>
+        <v>0.213883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140696</v>
+        <v>0.140575</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20061</v>
+        <v>0.201246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226073</v>
+        <v>0.219823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146093</v>
+        <v>0.145117</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208725</v>
+        <v>0.211465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232535</v>
+        <v>0.227042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.148877</v>
+        <v>0.149052</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.213758</v>
+        <v>0.217712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239458</v>
+        <v>0.235932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152834</v>
+        <v>0.153614</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221159</v>
+        <v>0.226001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199062</v>
+        <v>0.200916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136461</v>
+        <v>0.138653</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228779</v>
+        <v>0.231977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.205749</v>
+        <v>0.200429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140148</v>
+        <v>0.140765</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.235395</v>
+        <v>0.239769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209968</v>
+        <v>0.210351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.142197</v>
+        <v>0.144727</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.244017</v>
+        <v>0.24766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217442</v>
+        <v>0.212915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144093</v>
+        <v>0.145283</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.25267</v>
+        <v>0.254113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22071</v>
+        <v>0.22103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147353</v>
+        <v>0.150068</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262008</v>
+        <v>0.26615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230835</v>
+        <v>0.225849</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153231</v>
+        <v>0.152266</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.269605</v>
+        <v>0.272245</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237395</v>
+        <v>0.235519</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155008</v>
+        <v>0.156752</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280756</v>
+        <v>0.282461</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244075</v>
+        <v>0.241325</v>
       </c>
       <c r="D14" t="n">
-        <v>0.157032</v>
+        <v>0.158097</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294033</v>
+        <v>0.294139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252491</v>
+        <v>0.248005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.162547</v>
+        <v>0.163313</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30264</v>
+        <v>0.30261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.261915</v>
+        <v>0.257855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165864</v>
+        <v>0.166823</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.315868</v>
+        <v>0.316215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.270914</v>
+        <v>0.26531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170695</v>
+        <v>0.171468</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234007</v>
+        <v>0.234241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.277234</v>
+        <v>0.272029</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172755</v>
+        <v>0.17324</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242957</v>
+        <v>0.243224</v>
       </c>
       <c r="C19" t="n">
-        <v>0.286279</v>
+        <v>0.280522</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178559</v>
+        <v>0.180377</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247561</v>
+        <v>0.247436</v>
       </c>
       <c r="C20" t="n">
-        <v>0.29753</v>
+        <v>0.291841</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182908</v>
+        <v>0.184047</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254698</v>
+        <v>0.254329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245036</v>
+        <v>0.240244</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169274</v>
+        <v>0.169244</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259422</v>
+        <v>0.259687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.250698</v>
+        <v>0.246575</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17162</v>
+        <v>0.171328</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268575</v>
+        <v>0.268012</v>
       </c>
       <c r="C23" t="n">
-        <v>0.257621</v>
+        <v>0.252643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.175397</v>
+        <v>0.175019</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276813</v>
+        <v>0.27646</v>
       </c>
       <c r="C24" t="n">
-        <v>0.262014</v>
+        <v>0.256765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177472</v>
+        <v>0.177598</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.28497</v>
+        <v>0.284645</v>
       </c>
       <c r="C25" t="n">
-        <v>0.267696</v>
+        <v>0.263026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180503</v>
+        <v>0.180337</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294271</v>
+        <v>0.294336</v>
       </c>
       <c r="C26" t="n">
-        <v>0.275236</v>
+        <v>0.27052</v>
       </c>
       <c r="D26" t="n">
-        <v>0.184255</v>
+        <v>0.183645</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302819</v>
+        <v>0.302351</v>
       </c>
       <c r="C27" t="n">
-        <v>0.279049</v>
+        <v>0.27373</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186387</v>
+        <v>0.186095</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314445</v>
+        <v>0.314131</v>
       </c>
       <c r="C28" t="n">
-        <v>0.286012</v>
+        <v>0.28022</v>
       </c>
       <c r="D28" t="n">
-        <v>0.189475</v>
+        <v>0.188894</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.324147</v>
+        <v>0.32401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.292937</v>
+        <v>0.287156</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192765</v>
+        <v>0.192425</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.33444</v>
+        <v>0.33391</v>
       </c>
       <c r="C30" t="n">
-        <v>0.300714</v>
+        <v>0.295894</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196262</v>
+        <v>0.195866</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.346348</v>
+        <v>0.346139</v>
       </c>
       <c r="C31" t="n">
-        <v>0.30628</v>
+        <v>0.300672</v>
       </c>
       <c r="D31" t="n">
-        <v>0.199417</v>
+        <v>0.198983</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249534</v>
+        <v>0.249271</v>
       </c>
       <c r="C32" t="n">
-        <v>0.315029</v>
+        <v>0.310179</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203283</v>
+        <v>0.203372</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.25592</v>
+        <v>0.255663</v>
       </c>
       <c r="C33" t="n">
-        <v>0.324285</v>
+        <v>0.319039</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206711</v>
+        <v>0.206276</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262135</v>
+        <v>0.26186</v>
       </c>
       <c r="C34" t="n">
-        <v>0.332813</v>
+        <v>0.327911</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210362</v>
+        <v>0.209905</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.269297</v>
+        <v>0.268865</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259952</v>
+        <v>0.255034</v>
       </c>
       <c r="D35" t="n">
-        <v>0.182006</v>
+        <v>0.181642</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.275233</v>
+        <v>0.274667</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2665</v>
+        <v>0.26173</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184704</v>
+        <v>0.184323</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281484</v>
+        <v>0.280784</v>
       </c>
       <c r="C37" t="n">
-        <v>0.271408</v>
+        <v>0.26664</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187079</v>
+        <v>0.186578</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.28989</v>
+        <v>0.289248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.277479</v>
+        <v>0.272455</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189674</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295788</v>
+        <v>0.295665</v>
       </c>
       <c r="C39" t="n">
-        <v>0.283354</v>
+        <v>0.278053</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191878</v>
+        <v>0.191653</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305172</v>
+        <v>0.304768</v>
       </c>
       <c r="C40" t="n">
-        <v>0.28934</v>
+        <v>0.284365</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195672</v>
+        <v>0.195365</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314991</v>
+        <v>0.314615</v>
       </c>
       <c r="C41" t="n">
-        <v>0.295248</v>
+        <v>0.289931</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19825</v>
+        <v>0.197938</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325425</v>
+        <v>0.325085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.300407</v>
+        <v>0.294248</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200239</v>
+        <v>0.199809</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336333</v>
+        <v>0.335966</v>
       </c>
       <c r="C43" t="n">
-        <v>0.306954</v>
+        <v>0.301297</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204078</v>
+        <v>0.204211</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.345176</v>
+        <v>0.344737</v>
       </c>
       <c r="C44" t="n">
-        <v>0.314704</v>
+        <v>0.308983</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207624</v>
+        <v>0.207269</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355949</v>
+        <v>0.355796</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323192</v>
+        <v>0.316128</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211451</v>
+        <v>0.210866</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.368327</v>
+        <v>0.367894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.330645</v>
+        <v>0.32438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214799</v>
+        <v>0.214383</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26008</v>
+        <v>0.259682</v>
       </c>
       <c r="C47" t="n">
-        <v>0.338027</v>
+        <v>0.331498</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218552</v>
+        <v>0.218175</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265608</v>
+        <v>0.265402</v>
       </c>
       <c r="C48" t="n">
-        <v>0.347312</v>
+        <v>0.340289</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221873</v>
+        <v>0.2214</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272531</v>
+        <v>0.272243</v>
       </c>
       <c r="C49" t="n">
-        <v>0.357011</v>
+        <v>0.349409</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225272</v>
+        <v>0.22496</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.279151</v>
+        <v>0.27864</v>
       </c>
       <c r="C50" t="n">
-        <v>0.271873</v>
+        <v>0.267461</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185077</v>
+        <v>0.184971</v>
       </c>
     </row>
     <row r="51">
@@ -10058,10 +10058,10 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.28585</v>
+        <v>0.285597</v>
       </c>
       <c r="C51" t="n">
-        <v>0.277275</v>
+        <v>0.272321</v>
       </c>
       <c r="D51" t="n">
         <v>0.18815</v>
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.29219</v>
+        <v>0.291922</v>
       </c>
       <c r="C52" t="n">
-        <v>0.283155</v>
+        <v>0.278139</v>
       </c>
       <c r="D52" t="n">
-        <v>0.191088</v>
+        <v>0.190744</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.302076</v>
+        <v>0.301613</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289027</v>
+        <v>0.284755</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193428</v>
+        <v>0.193448</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309922</v>
+        <v>0.309739</v>
       </c>
       <c r="C54" t="n">
-        <v>0.295568</v>
+        <v>0.290283</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196428</v>
+        <v>0.196293</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.319133</v>
+        <v>0.318595</v>
       </c>
       <c r="C55" t="n">
-        <v>0.301637</v>
+        <v>0.296584</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199394</v>
+        <v>0.199298</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329124</v>
+        <v>0.328826</v>
       </c>
       <c r="C56" t="n">
-        <v>0.307471</v>
+        <v>0.301718</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202081</v>
+        <v>0.202045</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338067</v>
+        <v>0.337762</v>
       </c>
       <c r="C57" t="n">
-        <v>0.314289</v>
+        <v>0.309147</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205869</v>
+        <v>0.205694</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348297</v>
+        <v>0.34787</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322348</v>
+        <v>0.317055</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208858</v>
+        <v>0.208778</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.358943</v>
+        <v>0.358658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.329129</v>
+        <v>0.323194</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212265</v>
+        <v>0.212211</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.370108</v>
+        <v>0.369635</v>
       </c>
       <c r="C60" t="n">
-        <v>0.336155</v>
+        <v>0.330756</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216723</v>
+        <v>0.216345</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268443</v>
+        <v>0.267412</v>
       </c>
       <c r="C61" t="n">
-        <v>0.346001</v>
+        <v>0.33942</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219676</v>
+        <v>0.219641</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.277</v>
+        <v>0.275427</v>
       </c>
       <c r="C62" t="n">
-        <v>0.354541</v>
+        <v>0.348112</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223251</v>
+        <v>0.223176</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.286693</v>
+        <v>0.285642</v>
       </c>
       <c r="C63" t="n">
-        <v>0.364474</v>
+        <v>0.357412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227967</v>
+        <v>0.22774</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.29823</v>
+        <v>0.29695</v>
       </c>
       <c r="C64" t="n">
-        <v>0.289339</v>
+        <v>0.285673</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197217</v>
+        <v>0.197207</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.305567</v>
+        <v>0.303892</v>
       </c>
       <c r="C65" t="n">
-        <v>0.297712</v>
+        <v>0.29353</v>
       </c>
       <c r="D65" t="n">
-        <v>0.200021</v>
+        <v>0.199761</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.316181</v>
+        <v>0.314081</v>
       </c>
       <c r="C66" t="n">
-        <v>0.30706</v>
+        <v>0.301702</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203819</v>
+        <v>0.203898</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.33008</v>
+        <v>0.327891</v>
       </c>
       <c r="C67" t="n">
-        <v>0.317001</v>
+        <v>0.310529</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208178</v>
+        <v>0.208146</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344453</v>
+        <v>0.342873</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326017</v>
+        <v>0.321133</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21263</v>
+        <v>0.212753</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358256</v>
+        <v>0.357638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.337664</v>
+        <v>0.330327</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217873</v>
+        <v>0.217311</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.376659</v>
+        <v>0.372873</v>
       </c>
       <c r="C70" t="n">
-        <v>0.348781</v>
+        <v>0.343509</v>
       </c>
       <c r="D70" t="n">
-        <v>0.223234</v>
+        <v>0.222634</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.39393</v>
+        <v>0.392263</v>
       </c>
       <c r="C71" t="n">
-        <v>0.362252</v>
+        <v>0.357195</v>
       </c>
       <c r="D71" t="n">
-        <v>0.228357</v>
+        <v>0.228619</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.414496</v>
+        <v>0.414054</v>
       </c>
       <c r="C72" t="n">
-        <v>0.376333</v>
+        <v>0.369828</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233339</v>
+        <v>0.233836</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4345</v>
+        <v>0.431954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.396877</v>
+        <v>0.384905</v>
       </c>
       <c r="D73" t="n">
-        <v>0.239405</v>
+        <v>0.240443</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.462379</v>
+        <v>0.453675</v>
       </c>
       <c r="C74" t="n">
-        <v>0.417758</v>
+        <v>0.404205</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247692</v>
+        <v>0.24656</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.495476</v>
+        <v>0.482508</v>
       </c>
       <c r="C75" t="n">
-        <v>0.442701</v>
+        <v>0.424081</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256886</v>
+        <v>0.253935</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.415004</v>
+        <v>0.424999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.470495</v>
+        <v>0.452766</v>
       </c>
       <c r="D76" t="n">
-        <v>0.268822</v>
+        <v>0.264583</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.448227</v>
+        <v>0.453919</v>
       </c>
       <c r="C77" t="n">
-        <v>0.496645</v>
+        <v>0.480268</v>
       </c>
       <c r="D77" t="n">
-        <v>0.279185</v>
+        <v>0.276414</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.483618</v>
+        <v>0.483085</v>
       </c>
       <c r="C78" t="n">
-        <v>0.446579</v>
+        <v>0.439515</v>
       </c>
       <c r="D78" t="n">
-        <v>0.264837</v>
+        <v>0.267115</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.516837</v>
+        <v>0.519519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.469892</v>
+        <v>0.465508</v>
       </c>
       <c r="D79" t="n">
-        <v>0.277995</v>
+        <v>0.277203</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.550044</v>
+        <v>0.550777</v>
       </c>
       <c r="C80" t="n">
-        <v>0.500206</v>
+        <v>0.497569</v>
       </c>
       <c r="D80" t="n">
-        <v>0.291365</v>
+        <v>0.29371</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.596237</v>
+        <v>0.597718</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531453</v>
+        <v>0.532097</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305069</v>
+        <v>0.304498</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.637579</v>
+        <v>0.640651</v>
       </c>
       <c r="C82" t="n">
-        <v>0.568461</v>
+        <v>0.564179</v>
       </c>
       <c r="D82" t="n">
-        <v>0.321518</v>
+        <v>0.321136</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.688953</v>
+        <v>0.689086</v>
       </c>
       <c r="C83" t="n">
-        <v>0.608403</v>
+        <v>0.601631</v>
       </c>
       <c r="D83" t="n">
-        <v>0.336333</v>
+        <v>0.335511</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.743954</v>
+        <v>0.743148</v>
       </c>
       <c r="C84" t="n">
-        <v>0.653948</v>
+        <v>0.643317</v>
       </c>
       <c r="D84" t="n">
-        <v>0.355692</v>
+        <v>0.355336</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.798606</v>
+        <v>0.796656</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6972969999999999</v>
+        <v>0.6847490000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.381787</v>
+        <v>0.381911</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.858997</v>
+        <v>0.8560489999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.741978</v>
+        <v>0.728908</v>
       </c>
       <c r="D86" t="n">
-        <v>0.401593</v>
+        <v>0.401781</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9203249999999999</v>
+        <v>0.917062</v>
       </c>
       <c r="C87" t="n">
-        <v>0.796159</v>
+        <v>0.780419</v>
       </c>
       <c r="D87" t="n">
-        <v>0.427962</v>
+        <v>0.426186</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.990169</v>
+        <v>0.987662</v>
       </c>
       <c r="C88" t="n">
-        <v>0.844515</v>
+        <v>0.828215</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4483</v>
+        <v>0.449493</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.06007</v>
+        <v>1.05779</v>
       </c>
       <c r="C89" t="n">
-        <v>0.899323</v>
+        <v>0.882253</v>
       </c>
       <c r="D89" t="n">
-        <v>0.476178</v>
+        <v>0.476498</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8402500000000001</v>
+        <v>0.837066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.952551</v>
+        <v>0.932374</v>
       </c>
       <c r="D90" t="n">
-        <v>0.502485</v>
+        <v>0.503354</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.87362</v>
+        <v>0.870631</v>
       </c>
       <c r="C91" t="n">
-        <v>1.01088</v>
+        <v>0.990776</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5237039999999999</v>
+        <v>0.522987</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.913655</v>
+        <v>0.910103</v>
       </c>
       <c r="C92" t="n">
-        <v>0.82911</v>
+        <v>0.819447</v>
       </c>
       <c r="D92" t="n">
-        <v>0.511418</v>
+        <v>0.511035</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.952175</v>
+        <v>0.949263</v>
       </c>
       <c r="C93" t="n">
-        <v>0.860314</v>
+        <v>0.849428</v>
       </c>
       <c r="D93" t="n">
-        <v>0.523765</v>
+        <v>0.524577</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.993277</v>
+        <v>0.991323</v>
       </c>
       <c r="C94" t="n">
-        <v>0.893102</v>
+        <v>0.8827159999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.541785</v>
+        <v>0.542808</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04024</v>
+        <v>1.03798</v>
       </c>
       <c r="C95" t="n">
-        <v>0.924408</v>
+        <v>0.914198</v>
       </c>
       <c r="D95" t="n">
-        <v>0.563762</v>
+        <v>0.564314</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08064</v>
+        <v>1.07785</v>
       </c>
       <c r="C96" t="n">
-        <v>0.956407</v>
+        <v>0.948531</v>
       </c>
       <c r="D96" t="n">
-        <v>0.58299</v>
+        <v>0.583384</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.12398</v>
+        <v>1.1231</v>
       </c>
       <c r="C97" t="n">
-        <v>0.986865</v>
+        <v>0.976703</v>
       </c>
       <c r="D97" t="n">
-        <v>0.599478</v>
+        <v>0.599641</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17057</v>
+        <v>1.16779</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02025</v>
+        <v>1.00571</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62327</v>
+        <v>0.622178</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.2183</v>
+        <v>1.20958</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05782</v>
+        <v>1.03886</v>
       </c>
       <c r="D99" t="n">
-        <v>0.644984</v>
+        <v>0.643875</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.26549</v>
+        <v>1.25684</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0985</v>
+        <v>1.07846</v>
       </c>
       <c r="D100" t="n">
-        <v>0.664303</v>
+        <v>0.6647459999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.31923</v>
+        <v>1.30945</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14252</v>
+        <v>1.12044</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6869499999999999</v>
+        <v>0.686697</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.37978</v>
+        <v>1.37085</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18872</v>
+        <v>1.16488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7118139999999999</v>
+        <v>0.710153</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.4436</v>
+        <v>1.43309</v>
       </c>
       <c r="C103" t="n">
-        <v>1.23785</v>
+        <v>1.21115</v>
       </c>
       <c r="D103" t="n">
-        <v>0.736302</v>
+        <v>0.734284</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.51169</v>
+        <v>1.50176</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28788</v>
+        <v>1.26118</v>
       </c>
       <c r="D104" t="n">
-        <v>0.760134</v>
+        <v>0.759087</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.04276</v>
+        <v>1.03488</v>
       </c>
       <c r="C105" t="n">
-        <v>1.34378</v>
+        <v>1.31265</v>
       </c>
       <c r="D105" t="n">
-        <v>0.782712</v>
+        <v>0.78285</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.07893</v>
+        <v>1.06831</v>
       </c>
       <c r="C106" t="n">
-        <v>1.3998</v>
+        <v>1.36356</v>
       </c>
       <c r="D106" t="n">
-        <v>0.813441</v>
+        <v>0.811671</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.11508</v>
+        <v>1.10877</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02822</v>
+        <v>1.01074</v>
       </c>
       <c r="D107" t="n">
-        <v>0.704006</v>
+        <v>0.702196</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.15425</v>
+        <v>1.14526</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05978</v>
+        <v>1.04197</v>
       </c>
       <c r="D108" t="n">
-        <v>0.721265</v>
+        <v>0.718894</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.19803</v>
+        <v>1.18969</v>
       </c>
       <c r="C109" t="n">
-        <v>1.09178</v>
+        <v>1.07336</v>
       </c>
       <c r="D109" t="n">
-        <v>0.738225</v>
+        <v>0.736423</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2426</v>
+        <v>1.23333</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12551</v>
+        <v>1.10494</v>
       </c>
       <c r="D110" t="n">
-        <v>0.75831</v>
+        <v>0.755224</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.29181</v>
+        <v>1.28047</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16203</v>
+        <v>1.13978</v>
       </c>
       <c r="D111" t="n">
-        <v>0.775964</v>
+        <v>0.772968</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.33959</v>
+        <v>1.32886</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20259</v>
+        <v>1.1785</v>
       </c>
       <c r="D112" t="n">
-        <v>0.797739</v>
+        <v>0.794049</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.39632</v>
+        <v>1.38556</v>
       </c>
       <c r="C113" t="n">
-        <v>1.2407</v>
+        <v>1.21635</v>
       </c>
       <c r="D113" t="n">
-        <v>0.81511</v>
+        <v>0.812002</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4507</v>
+        <v>1.438</v>
       </c>
       <c r="C114" t="n">
-        <v>1.28154</v>
+        <v>1.25451</v>
       </c>
       <c r="D114" t="n">
-        <v>0.836239</v>
+        <v>0.832117</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.50702</v>
+        <v>1.49405</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32665</v>
+        <v>1.29687</v>
       </c>
       <c r="D115" t="n">
-        <v>0.857908</v>
+        <v>0.854832</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.57125</v>
+        <v>1.55645</v>
       </c>
       <c r="C116" t="n">
-        <v>1.37255</v>
+        <v>1.33967</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8797739999999999</v>
+        <v>0.87686</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.63671</v>
+        <v>1.62194</v>
       </c>
       <c r="C117" t="n">
-        <v>1.42228</v>
+        <v>1.3878</v>
       </c>
       <c r="D117" t="n">
-        <v>0.903518</v>
+        <v>0.9006110000000001</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.70585</v>
+        <v>1.69086</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47537</v>
+        <v>1.43848</v>
       </c>
       <c r="D118" t="n">
-        <v>0.930585</v>
+        <v>0.926161</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12672</v>
+        <v>1.11861</v>
       </c>
       <c r="C119" t="n">
-        <v>1.52753</v>
+        <v>1.49028</v>
       </c>
       <c r="D119" t="n">
-        <v>0.953798</v>
+        <v>0.951309</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574574</v>
+        <v>0.580212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.441232</v>
+        <v>0.45167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247467</v>
+        <v>0.249586</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592967</v>
+        <v>0.592079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.457394</v>
+        <v>0.448069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254844</v>
+        <v>0.254142</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.616208</v>
+        <v>0.618951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.473185</v>
+        <v>0.471335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.259494</v>
+        <v>0.260688</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.645014</v>
+        <v>0.6452059999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.498748</v>
+        <v>0.488045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.269802</v>
+        <v>0.270037</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.670219</v>
+        <v>0.6680199999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.50829</v>
+        <v>0.506103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27891</v>
+        <v>0.279203</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.694998</v>
+        <v>0.696678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.545048</v>
+        <v>0.532621</v>
       </c>
       <c r="D7" t="n">
-        <v>0.282591</v>
+        <v>0.283432</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.719158</v>
+        <v>0.724098</v>
       </c>
       <c r="C8" t="n">
-        <v>0.557877</v>
+        <v>0.558685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.286932</v>
+        <v>0.289334</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.749439</v>
+        <v>0.748085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.586554</v>
+        <v>0.576365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.29663</v>
+        <v>0.297056</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7779430000000001</v>
+        <v>0.781386</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6132840000000001</v>
+        <v>0.608912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.307545</v>
+        <v>0.309745</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.808351</v>
+        <v>0.8207680000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.419781</v>
+        <v>0.431336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231597</v>
+        <v>0.23614</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.510208</v>
+        <v>0.524078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4387</v>
+        <v>0.441985</v>
       </c>
       <c r="D12" t="n">
-        <v>0.241912</v>
+        <v>0.244732</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5371050000000001</v>
+        <v>0.542891</v>
       </c>
       <c r="C13" t="n">
-        <v>0.461655</v>
+        <v>0.464979</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247645</v>
+        <v>0.251141</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.56015</v>
+        <v>0.570241</v>
       </c>
       <c r="C14" t="n">
-        <v>0.483574</v>
+        <v>0.494181</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2558</v>
+        <v>0.2592</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.587148</v>
+        <v>0.603147</v>
       </c>
       <c r="C15" t="n">
-        <v>0.514817</v>
+        <v>0.521774</v>
       </c>
       <c r="D15" t="n">
-        <v>0.265702</v>
+        <v>0.270005</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.615754</v>
+        <v>0.628486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.540794</v>
+        <v>0.543869</v>
       </c>
       <c r="D16" t="n">
-        <v>0.273843</v>
+        <v>0.279568</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.650558</v>
+        <v>0.658093</v>
       </c>
       <c r="C17" t="n">
-        <v>0.573029</v>
+        <v>0.57483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285131</v>
+        <v>0.287352</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.686483</v>
+        <v>0.692073</v>
       </c>
       <c r="C18" t="n">
-        <v>0.606753</v>
+        <v>0.595844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294665</v>
+        <v>0.297232</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.726059</v>
+        <v>0.725226</v>
       </c>
       <c r="C19" t="n">
-        <v>0.636522</v>
+        <v>0.630473</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308277</v>
+        <v>0.308409</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.763062</v>
+        <v>0.761379</v>
       </c>
       <c r="C20" t="n">
-        <v>0.676276</v>
+        <v>0.66093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3164</v>
+        <v>0.31824</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.805449</v>
+        <v>0.80146</v>
       </c>
       <c r="C21" t="n">
-        <v>0.709246</v>
+        <v>0.694598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.332762</v>
+        <v>0.333346</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.842554</v>
+        <v>0.843442</v>
       </c>
       <c r="C22" t="n">
-        <v>0.743985</v>
+        <v>0.727369</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341817</v>
+        <v>0.341975</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.890956</v>
+        <v>0.89371</v>
       </c>
       <c r="C23" t="n">
-        <v>0.781173</v>
+        <v>0.764444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.354066</v>
+        <v>0.355754</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.930962</v>
+        <v>0.935162</v>
       </c>
       <c r="C24" t="n">
-        <v>0.817405</v>
+        <v>0.799138</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365573</v>
+        <v>0.369393</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9752999999999999</v>
+        <v>0.977723</v>
       </c>
       <c r="C25" t="n">
-        <v>0.85315</v>
+        <v>0.834095</v>
       </c>
       <c r="D25" t="n">
-        <v>0.381468</v>
+        <v>0.383179</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02646</v>
+        <v>1.02474</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5561739999999999</v>
+        <v>0.546044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.278922</v>
+        <v>0.277917</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.652869</v>
+        <v>0.652057</v>
       </c>
       <c r="C27" t="n">
-        <v>0.581398</v>
+        <v>0.5706560000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286969</v>
+        <v>0.286619</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6803670000000001</v>
+        <v>0.681084</v>
       </c>
       <c r="C28" t="n">
-        <v>0.612269</v>
+        <v>0.600335</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29703</v>
+        <v>0.29663</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.715176</v>
+        <v>0.714439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6432330000000001</v>
+        <v>0.625341</v>
       </c>
       <c r="D29" t="n">
-        <v>0.30745</v>
+        <v>0.307754</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.751493</v>
+        <v>0.752338</v>
       </c>
       <c r="C30" t="n">
-        <v>0.675875</v>
+        <v>0.65612</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316835</v>
+        <v>0.318017</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.788802</v>
+        <v>0.788079</v>
       </c>
       <c r="C31" t="n">
-        <v>0.708444</v>
+        <v>0.68834</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325184</v>
+        <v>0.327181</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.826225</v>
+        <v>0.82662</v>
       </c>
       <c r="C32" t="n">
-        <v>0.742907</v>
+        <v>0.720015</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337184</v>
+        <v>0.337254</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.867223</v>
+        <v>0.8646470000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.77659</v>
+        <v>0.7483109999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346242</v>
+        <v>0.346071</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.908936</v>
+        <v>0.908303</v>
       </c>
       <c r="C34" t="n">
-        <v>0.811433</v>
+        <v>0.7854139999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356504</v>
+        <v>0.35641</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.948775</v>
+        <v>0.948287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.84636</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367734</v>
+        <v>0.369725</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.988376</v>
+        <v>0.9896509999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.883314</v>
+        <v>0.845387</v>
       </c>
       <c r="D36" t="n">
-        <v>0.380423</v>
+        <v>0.379039</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03616</v>
+        <v>1.03605</v>
       </c>
       <c r="C37" t="n">
-        <v>0.920967</v>
+        <v>0.887422</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390976</v>
+        <v>0.39118</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07916</v>
+        <v>1.07944</v>
       </c>
       <c r="C38" t="n">
-        <v>0.962076</v>
+        <v>0.922337</v>
       </c>
       <c r="D38" t="n">
-        <v>0.401364</v>
+        <v>0.401297</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12663</v>
+        <v>1.12735</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996749</v>
+        <v>0.959353</v>
       </c>
       <c r="D39" t="n">
-        <v>0.419893</v>
+        <v>0.418556</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.16899</v>
+        <v>1.17074</v>
       </c>
       <c r="C40" t="n">
-        <v>0.616768</v>
+        <v>0.60499</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314543</v>
+        <v>0.315113</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.70553</v>
+        <v>0.705419</v>
       </c>
       <c r="C41" t="n">
-        <v>0.641415</v>
+        <v>0.625317</v>
       </c>
       <c r="D41" t="n">
-        <v>0.325439</v>
+        <v>0.325042</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.736456</v>
+        <v>0.736594</v>
       </c>
       <c r="C42" t="n">
-        <v>0.668853</v>
+        <v>0.651692</v>
       </c>
       <c r="D42" t="n">
-        <v>0.33395</v>
+        <v>0.333453</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.771833</v>
+        <v>0.770896</v>
       </c>
       <c r="C43" t="n">
-        <v>0.699113</v>
+        <v>0.682074</v>
       </c>
       <c r="D43" t="n">
-        <v>0.346247</v>
+        <v>0.34531</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.806101</v>
+        <v>0.806682</v>
       </c>
       <c r="C44" t="n">
-        <v>0.729436</v>
+        <v>0.712271</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355083</v>
+        <v>0.355233</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841544</v>
+        <v>0.841839</v>
       </c>
       <c r="C45" t="n">
-        <v>0.763745</v>
+        <v>0.744389</v>
       </c>
       <c r="D45" t="n">
-        <v>0.364395</v>
+        <v>0.364963</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.883452</v>
+        <v>0.88417</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7970970000000001</v>
+        <v>0.774936</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375018</v>
+        <v>0.375738</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.924508</v>
+        <v>0.925042</v>
       </c>
       <c r="C47" t="n">
-        <v>0.832773</v>
+        <v>0.807211</v>
       </c>
       <c r="D47" t="n">
-        <v>0.388206</v>
+        <v>0.387133</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.96527</v>
+        <v>0.965686</v>
       </c>
       <c r="C48" t="n">
-        <v>0.869559</v>
+        <v>0.842678</v>
       </c>
       <c r="D48" t="n">
-        <v>0.400509</v>
+        <v>0.39903</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00359</v>
+        <v>1.00425</v>
       </c>
       <c r="C49" t="n">
-        <v>0.907087</v>
+        <v>0.877459</v>
       </c>
       <c r="D49" t="n">
-        <v>0.409912</v>
+        <v>0.40948</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0465</v>
+        <v>1.04537</v>
       </c>
       <c r="C50" t="n">
-        <v>0.948835</v>
+        <v>0.914913</v>
       </c>
       <c r="D50" t="n">
-        <v>0.420917</v>
+        <v>0.420488</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0928</v>
+        <v>1.09306</v>
       </c>
       <c r="C51" t="n">
-        <v>0.98499</v>
+        <v>0.946651</v>
       </c>
       <c r="D51" t="n">
-        <v>0.436313</v>
+        <v>0.435629</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13527</v>
+        <v>1.13411</v>
       </c>
       <c r="C52" t="n">
-        <v>1.02486</v>
+        <v>0.987054</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447268</v>
+        <v>0.447612</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18034</v>
+        <v>1.18012</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0643</v>
+        <v>1.02492</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461923</v>
+        <v>0.461193</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22441</v>
+        <v>1.22553</v>
       </c>
       <c r="C54" t="n">
-        <v>0.645795</v>
+        <v>0.633192</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340319</v>
+        <v>0.339481</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26793</v>
+        <v>1.26941</v>
       </c>
       <c r="C55" t="n">
-        <v>0.671513</v>
+        <v>0.657376</v>
       </c>
       <c r="D55" t="n">
-        <v>0.34982</v>
+        <v>0.349028</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.749176</v>
+        <v>0.750261</v>
       </c>
       <c r="C56" t="n">
-        <v>0.698373</v>
+        <v>0.68299</v>
       </c>
       <c r="D56" t="n">
-        <v>0.360081</v>
+        <v>0.359133</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783663</v>
+        <v>0.784255</v>
       </c>
       <c r="C57" t="n">
-        <v>0.725828</v>
+        <v>0.70886</v>
       </c>
       <c r="D57" t="n">
-        <v>0.366724</v>
+        <v>0.366373</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.817446</v>
+        <v>0.818182</v>
       </c>
       <c r="C58" t="n">
-        <v>0.758863</v>
+        <v>0.7401990000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.380023</v>
+        <v>0.379628</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.851146</v>
+        <v>0.850685</v>
       </c>
       <c r="C59" t="n">
-        <v>0.793259</v>
+        <v>0.770721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.392166</v>
+        <v>0.39116</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.892092</v>
+        <v>0.892614</v>
       </c>
       <c r="C60" t="n">
-        <v>0.827786</v>
+        <v>0.803523</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402751</v>
+        <v>0.401627</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.931125</v>
+        <v>0.931871</v>
       </c>
       <c r="C61" t="n">
-        <v>0.864245</v>
+        <v>0.83614</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413267</v>
+        <v>0.412506</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9722730000000001</v>
+        <v>0.971857</v>
       </c>
       <c r="C62" t="n">
-        <v>0.901407</v>
+        <v>0.873534</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422152</v>
+        <v>0.421456</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01873</v>
+        <v>1.01789</v>
       </c>
       <c r="C63" t="n">
-        <v>0.940213</v>
+        <v>0.908512</v>
       </c>
       <c r="D63" t="n">
-        <v>0.435416</v>
+        <v>0.434957</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06487</v>
+        <v>1.06524</v>
       </c>
       <c r="C64" t="n">
-        <v>0.981513</v>
+        <v>0.947165</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446781</v>
+        <v>0.446412</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10741</v>
+        <v>1.10755</v>
       </c>
       <c r="C65" t="n">
-        <v>1.02044</v>
+        <v>0.9821029999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.459906</v>
+        <v>0.458994</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15677</v>
+        <v>1.15237</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06401</v>
+        <v>1.02215</v>
       </c>
       <c r="D66" t="n">
-        <v>0.471213</v>
+        <v>0.469991</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20427</v>
+        <v>1.20055</v>
       </c>
       <c r="C67" t="n">
-        <v>1.10794</v>
+        <v>1.06094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.487255</v>
+        <v>0.486002</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25466</v>
+        <v>1.24874</v>
       </c>
       <c r="C68" t="n">
-        <v>0.669125</v>
+        <v>0.652374</v>
       </c>
       <c r="D68" t="n">
-        <v>0.351705</v>
+        <v>0.352247</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32471</v>
+        <v>1.31865</v>
       </c>
       <c r="C69" t="n">
-        <v>0.715063</v>
+        <v>0.690845</v>
       </c>
       <c r="D69" t="n">
-        <v>0.362753</v>
+        <v>0.362773</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8028729999999999</v>
+        <v>0.801821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.759151</v>
+        <v>0.731394</v>
       </c>
       <c r="D70" t="n">
-        <v>0.380596</v>
+        <v>0.379474</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.855835</v>
+        <v>0.858535</v>
       </c>
       <c r="C71" t="n">
-        <v>0.802419</v>
+        <v>0.77668</v>
       </c>
       <c r="D71" t="n">
-        <v>0.391073</v>
+        <v>0.390967</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.91671</v>
+        <v>0.913276</v>
       </c>
       <c r="C72" t="n">
-        <v>0.856357</v>
+        <v>0.82363</v>
       </c>
       <c r="D72" t="n">
-        <v>0.405536</v>
+        <v>0.405808</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.976612</v>
+        <v>0.971317</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9096610000000001</v>
+        <v>0.874633</v>
       </c>
       <c r="D73" t="n">
-        <v>0.422686</v>
+        <v>0.420921</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.04616</v>
+        <v>1.04105</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9737710000000001</v>
+        <v>0.934274</v>
       </c>
       <c r="D74" t="n">
-        <v>0.44315</v>
+        <v>0.44085</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11903</v>
+        <v>1.11318</v>
       </c>
       <c r="C75" t="n">
-        <v>1.04145</v>
+        <v>0.9942569999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.460391</v>
+        <v>0.459569</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.19547</v>
+        <v>1.19322</v>
       </c>
       <c r="C76" t="n">
-        <v>1.11263</v>
+        <v>1.06054</v>
       </c>
       <c r="D76" t="n">
-        <v>0.480717</v>
+        <v>0.481788</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29202</v>
+        <v>1.27504</v>
       </c>
       <c r="C77" t="n">
-        <v>1.19618</v>
+        <v>1.13238</v>
       </c>
       <c r="D77" t="n">
-        <v>0.495307</v>
+        <v>0.494552</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.41568</v>
+        <v>1.37868</v>
       </c>
       <c r="C78" t="n">
-        <v>1.31275</v>
+        <v>1.21874</v>
       </c>
       <c r="D78" t="n">
-        <v>0.529421</v>
+        <v>0.525858</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.54629</v>
+        <v>1.50148</v>
       </c>
       <c r="C79" t="n">
-        <v>1.42737</v>
+        <v>1.31691</v>
       </c>
       <c r="D79" t="n">
-        <v>0.554387</v>
+        <v>0.549055</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.69204</v>
+        <v>1.64691</v>
       </c>
       <c r="C80" t="n">
-        <v>1.56075</v>
+        <v>1.44438</v>
       </c>
       <c r="D80" t="n">
-        <v>0.589951</v>
+        <v>0.580673</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.83573</v>
+        <v>1.81838</v>
       </c>
       <c r="C81" t="n">
-        <v>1.6979</v>
+        <v>1.59093</v>
       </c>
       <c r="D81" t="n">
-        <v>0.617348</v>
+        <v>0.616781</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.02104</v>
+        <v>2.00688</v>
       </c>
       <c r="C82" t="n">
-        <v>1.8566</v>
+        <v>1.75651</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64571</v>
+        <v>0.647869</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.23056</v>
+        <v>2.2326</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19286</v>
+        <v>1.1614</v>
       </c>
       <c r="D83" t="n">
-        <v>0.491303</v>
+        <v>0.495326</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.47688</v>
+        <v>2.48351</v>
       </c>
       <c r="C84" t="n">
-        <v>1.32991</v>
+        <v>1.28921</v>
       </c>
       <c r="D84" t="n">
-        <v>0.53005</v>
+        <v>0.535883</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.61379</v>
+        <v>1.61103</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47041</v>
+        <v>1.42006</v>
       </c>
       <c r="D85" t="n">
-        <v>0.56728</v>
+        <v>0.572957</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.78622</v>
+        <v>1.78075</v>
       </c>
       <c r="C86" t="n">
-        <v>1.63817</v>
+        <v>1.57337</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622016</v>
+        <v>0.621387</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9761</v>
+        <v>1.96892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.81176</v>
+        <v>1.72862</v>
       </c>
       <c r="D87" t="n">
-        <v>0.685846</v>
+        <v>0.6852819999999999</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.18865</v>
+        <v>2.17405</v>
       </c>
       <c r="C88" t="n">
-        <v>2.00855</v>
+        <v>1.91339</v>
       </c>
       <c r="D88" t="n">
-        <v>0.739632</v>
+        <v>0.731223</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41579</v>
+        <v>2.39893</v>
       </c>
       <c r="C89" t="n">
-        <v>2.21822</v>
+        <v>2.11638</v>
       </c>
       <c r="D89" t="n">
-        <v>0.790913</v>
+        <v>0.787412</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.65851</v>
+        <v>2.64197</v>
       </c>
       <c r="C90" t="n">
-        <v>2.43986</v>
+        <v>2.31588</v>
       </c>
       <c r="D90" t="n">
-        <v>0.841664</v>
+        <v>0.842791</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.9174</v>
+        <v>2.9086</v>
       </c>
       <c r="C91" t="n">
-        <v>2.67644</v>
+        <v>2.54481</v>
       </c>
       <c r="D91" t="n">
-        <v>0.935334</v>
+        <v>0.930715</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.19444</v>
+        <v>3.19002</v>
       </c>
       <c r="C92" t="n">
-        <v>2.93014</v>
+        <v>2.78622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.976621</v>
+        <v>0.968211</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.48985</v>
+        <v>3.4843</v>
       </c>
       <c r="C93" t="n">
-        <v>3.19941</v>
+        <v>3.03463</v>
       </c>
       <c r="D93" t="n">
-        <v>1.05482</v>
+        <v>1.049</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.79517</v>
+        <v>3.78566</v>
       </c>
       <c r="C94" t="n">
-        <v>3.4747</v>
+        <v>3.30474</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14914</v>
+        <v>1.1443</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.10793</v>
+        <v>4.09736</v>
       </c>
       <c r="C95" t="n">
-        <v>3.74007</v>
+        <v>3.58085</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22606</v>
+        <v>1.22497</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.42553</v>
+        <v>4.4205</v>
       </c>
       <c r="C96" t="n">
-        <v>3.98521</v>
+        <v>3.86605</v>
       </c>
       <c r="D96" t="n">
-        <v>1.30795</v>
+        <v>1.30273</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.72039</v>
+        <v>4.72183</v>
       </c>
       <c r="C97" t="n">
-        <v>2.3192</v>
+        <v>2.2557</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9473009999999999</v>
+        <v>0.943775</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.01182</v>
+        <v>5.00594</v>
       </c>
       <c r="C98" t="n">
-        <v>2.47673</v>
+        <v>2.38349</v>
       </c>
       <c r="D98" t="n">
-        <v>0.994413</v>
+        <v>0.991327</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.87168</v>
+        <v>2.85616</v>
       </c>
       <c r="C99" t="n">
-        <v>2.64489</v>
+        <v>2.52952</v>
       </c>
       <c r="D99" t="n">
-        <v>1.06152</v>
+        <v>1.05943</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.06352</v>
+        <v>3.03913</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8319</v>
+        <v>2.69251</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11401</v>
+        <v>1.11198</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.26539</v>
+        <v>3.24305</v>
       </c>
       <c r="C101" t="n">
-        <v>3.03355</v>
+        <v>2.87047</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17206</v>
+        <v>1.16925</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.49664</v>
+        <v>3.46902</v>
       </c>
       <c r="C102" t="n">
-        <v>3.24344</v>
+        <v>3.06339</v>
       </c>
       <c r="D102" t="n">
-        <v>1.23168</v>
+        <v>1.23027</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.72902</v>
+        <v>3.70057</v>
       </c>
       <c r="C103" t="n">
-        <v>3.46476</v>
+        <v>3.26463</v>
       </c>
       <c r="D103" t="n">
-        <v>1.28407</v>
+        <v>1.28053</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.97737</v>
+        <v>3.94745</v>
       </c>
       <c r="C104" t="n">
-        <v>3.70379</v>
+        <v>3.48038</v>
       </c>
       <c r="D104" t="n">
-        <v>1.34933</v>
+        <v>1.34814</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.25801</v>
+        <v>4.22022</v>
       </c>
       <c r="C105" t="n">
-        <v>3.96176</v>
+        <v>3.71776</v>
       </c>
       <c r="D105" t="n">
-        <v>1.4497</v>
+        <v>1.44281</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.55226</v>
+        <v>4.50843</v>
       </c>
       <c r="C106" t="n">
-        <v>4.2331</v>
+        <v>3.95812</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50443</v>
+        <v>1.49921</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.8502</v>
+        <v>4.80591</v>
       </c>
       <c r="C107" t="n">
-        <v>4.50974</v>
+        <v>4.2088</v>
       </c>
       <c r="D107" t="n">
-        <v>1.58206</v>
+        <v>1.57445</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.15611</v>
+        <v>5.11502</v>
       </c>
       <c r="C108" t="n">
-        <v>4.80278</v>
+        <v>4.48117</v>
       </c>
       <c r="D108" t="n">
-        <v>1.66686</v>
+        <v>1.66125</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.48718</v>
+        <v>5.44393</v>
       </c>
       <c r="C109" t="n">
-        <v>5.11221</v>
+        <v>4.75281</v>
       </c>
       <c r="D109" t="n">
-        <v>1.75248</v>
+        <v>1.73894</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.84213</v>
+        <v>5.77401</v>
       </c>
       <c r="C110" t="n">
-        <v>5.42852</v>
+        <v>5.06411</v>
       </c>
       <c r="D110" t="n">
-        <v>1.81749</v>
+        <v>1.81526</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.18558</v>
+        <v>6.12693</v>
       </c>
       <c r="C111" t="n">
-        <v>2.98075</v>
+        <v>2.83715</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3346</v>
+        <v>1.3264</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.53483</v>
+        <v>6.48217</v>
       </c>
       <c r="C112" t="n">
-        <v>3.15739</v>
+        <v>3.00123</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37223</v>
+        <v>1.37189</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.90804</v>
+        <v>6.84233</v>
       </c>
       <c r="C113" t="n">
-        <v>3.34287</v>
+        <v>3.17165</v>
       </c>
       <c r="D113" t="n">
-        <v>1.44188</v>
+        <v>1.44203</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.76786</v>
+        <v>3.72695</v>
       </c>
       <c r="C114" t="n">
-        <v>3.54464</v>
+        <v>3.35764</v>
       </c>
       <c r="D114" t="n">
-        <v>1.49177</v>
+        <v>1.48728</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.99487</v>
+        <v>3.95633</v>
       </c>
       <c r="C115" t="n">
-        <v>3.75371</v>
+        <v>3.53631</v>
       </c>
       <c r="D115" t="n">
-        <v>1.58394</v>
+        <v>1.57616</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.22871</v>
+        <v>4.18403</v>
       </c>
       <c r="C116" t="n">
-        <v>3.9814</v>
+        <v>3.74686</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63728</v>
+        <v>1.63045</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.47204</v>
+        <v>4.42808</v>
       </c>
       <c r="C117" t="n">
-        <v>4.22457</v>
+        <v>3.94899</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68074</v>
+        <v>1.67978</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.73133</v>
+        <v>4.68764</v>
       </c>
       <c r="C118" t="n">
-        <v>4.48136</v>
+        <v>4.18512</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76649</v>
+        <v>1.76928</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.01073</v>
+        <v>4.96543</v>
       </c>
       <c r="C119" t="n">
-        <v>4.75391</v>
+        <v>4.43253</v>
       </c>
       <c r="D119" t="n">
-        <v>1.83707</v>
+        <v>1.82751</v>
       </c>
     </row>
   </sheetData>
